--- a/Sinner_Stuff/Emotion_Check.xlsx
+++ b/Sinner_Stuff/Emotion_Check.xlsx
@@ -7258,7 +7258,7 @@
           <t xml:space="preserve">[라후가 오후에 홍차 한 잔을 들고 홀짝거리고 있다]
 라후: 으음… 구매센터에서 주문한 찻잎이 꽤 괜찮네.
 Prompt: 나도 한 잔 줘
-라후: 받어, 국장.
+라후: 받아, 국장.
 라후: atlas/monthsign/sprite_dailysign_face_5.png
 Prompt: 네가 티타임을 갖는다고…?
 라후: 나라고 해도 나름대로 취향이 있거든.

--- a/Sinner_Stuff/Emotion_Check.xlsx
+++ b/Sinner_Stuff/Emotion_Check.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1529,10 +1529,43 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
+          <t>Vautour Bleu</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[Vautour Bleu is having afternoon tea.]
+Vautour Bleu: Ah, there you are. The sunlight is perfect right now, and you've managed to steal some free time. Why don't you join me? I've prepared tea and some special desserts. Does anything tickle your fancy here?
+Prompt: Blueberry cheesecake
+Vautour Bleu: Mmm... Rich and delicate, with just the right amount of sweetness... Perfect for Chief who's been working so hard. The best accompaniment for this tea, isn't it?
+Vautour Bleu: 'atlas/monthsign/sprite_dailysign_face_7.png', 'atlas/monthsign/sprite_dailysign_face_7.png', 'atlas/monthsign/sprite_dailysign_face_7.png'
+Prompt: Strawberry cream crêpe
+Vautour Bleu: Shall we try it together? ...Too sweet? Haha, well, sometimes we need a touch of sweetness to balance out life's bitter moments.
+Vautour Bleu: 'atlas/monthsign/sprite_dailysign_face_8.png', 'atlas/monthsign/sprite_dailysign_face_8.png', 'atlas/monthsign/sprite_dailysign_face_8.png'
+</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[Sitting by the window, Vautour Bleu notices your gaze and turns with a gentle smile.]
+Vautour Bleu: Why the staring? Missing the days when we were neighbors?
+Prompt: Of course yes.
+Vautour Bleu: Oh? In that case, my dear Chief, you simply must approve the request I've just turned in. Before long, we could be neighbors once again.
+Vautour Bleu: 'atlas/monthsign/sprite_dailysign_face_4.png', 'atlas/monthsign/sprite_dailysign_face_4.png', 'atlas/monthsign/sprite_dailysign_face_4.png'
+Prompt: Of course no.
+Vautour Bleu: Oh? And here I was planning to move right next to your quarters. What a shame.
+Vautour Bleu: 'atlas/monthsign/sprite_dailysign_face_1.png', 'atlas/monthsign/sprite_dailysign_face_1.png', 'atlas/monthsign/sprite_dailysign_face_1.png'
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
           <t>Hamel</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t xml:space="preserve">[You see Hamel practicing dance moves in the Training Room.]
 Hamel: Are you here... to be my audience?
@@ -1545,7 +1578,7 @@
 </t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">[Hamel trips on something in the bedroom.]
 Hamel: Help... The bedroom... I cannot practice my dance moves there. It's too messy.
@@ -1559,13 +1592,13 @@
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>Enfer</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t xml:space="preserve">[Enfer looks a bit troubled.]
 Enfer: The new stones ordered for sculpture creation did not seem right.
@@ -1578,7 +1611,7 @@
 </t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">[Enfer's works have spooked many people due to how realistic they are.]
 Enfer: Is there something wrong?
@@ -1592,13 +1625,13 @@
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>Cabernet</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t xml:space="preserve">[Today, while having lunch with Cabernet, she is staring at you thoughtfully.]
 Cabernet: I wonder if I'll ever get the chance to taste Chief... I mean, a dish personally prepared by Chief?
@@ -1611,7 +1644,7 @@
 </t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">[Cabernet is watching a food show on TV, bored.]
 Cabernet: If it were up to you, which dish would you prefer?
@@ -1625,13 +1658,13 @@
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>Coquelic</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t xml:space="preserve">[Coquelic is examining the soil in the greenhouse]
 Coquelic: What kind of flowers do you think would be good to plant here?
@@ -1644,7 +1677,7 @@
 </t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">[Coquelic is browsing online shopping pages in the Recreation Area]
 Coquelic: In your opinion, which brooch looks the best?
@@ -1658,13 +1691,13 @@
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>Eve</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t xml:space="preserve">[Eve examines two sets of doll outfits, each made from a different fabric.]
 Eve: Should the teddy bear wear the silk one... or is the cotton one better?
@@ -1677,7 +1710,7 @@
 </t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">[Eve's wheelchair is trapped in a crack in the broken tiles.]
 Eve: I've always known my body can't handle even the smallest hurdle... Please, just leave me be and focus on your duties, Chief.
@@ -1691,13 +1724,13 @@
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>Du Ruo</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t xml:space="preserve">[Du Ruo is tossing and catching a pouch in her hand, again and again.]
 Du Ruo: Perfect timing. Allow me to tell your fortune. Let's see what will happen to you in the near future. Hmm...
@@ -1710,7 +1743,7 @@
 </t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">[Du Ruo has lit a stick of incense in the recreation room.]
 Du Ruo: Legend has it that if you meditate before shifting smoke with your eyes closed, it will take on the shape of the person closest to your heart. Would you like to give it a try?
@@ -1724,13 +1757,13 @@
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>L.L.</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t xml:space="preserve">[L.L. has duplicated your image data to create a digital desktop pet.]
 L.L.: Look at "you"—so cute! Even Manty can't stop swimming happily around "you"!
@@ -1743,7 +1776,7 @@
 </t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">[L.L. sneaks up behind you, and the water droplets cascade from her body onto your clothes.]
 L.L.: Oops, my bad for accidentally getting you wet. Half-drenched clothes must be chilly. Need a hug for some warmth? Trust me, my embrace is cozier than you'd expect.
@@ -1757,13 +1790,13 @@
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>Countess Chelsea</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t xml:space="preserve">[Chelsea hands you a gem.]
 Countess Chelsea: Here. This souvenir is for you.
@@ -1776,7 +1809,7 @@
 </t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">[Chelsea looks at Sitri, thinking.]
 Countess Chelsea: Why can't we raise cats here?
@@ -1790,13 +1823,13 @@
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>Cinnabar</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t xml:space="preserve">[You walk past Cinnabar's detention room.]
 Cinnabar: Do you need me as your bodyguard today?
@@ -1809,7 +1842,7 @@
 </t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">[Now that the mission is over, Cinnabar seems to be thinking about something.]
 Cinnabar: Sigh. My past experience doesn't work so well here in the Bureau.
@@ -1823,13 +1856,13 @@
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>Kawa-kawa</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t xml:space="preserve">[Kawa-kawa looks at you with anticipation.]
 Kawa-kawa: Chief! When will we return to the WhiteSands?
@@ -1842,7 +1875,7 @@
 </t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">[Kawa-kawa is a little upset.]
 Kawa-kawa: Chief, I'm missing a few beacons.
@@ -1856,13 +1889,13 @@
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>Levy</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t xml:space="preserve">[Levy dons another flashy new outfit and does a twirl in front of you.]
 Levy: What do you think? Does it look good?
@@ -1875,7 +1908,7 @@
 </t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">[Levy is playing cards with two staff members.]
 Levy: Ha, sorry, I won again.
@@ -1889,13 +1922,13 @@
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>Uni</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t xml:space="preserve">[Uni passes by you with a frown]
 Uni: Why are you wearing only one earring?
@@ -1908,7 +1941,7 @@
 </t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">[Uni is examining a leaflet very carefully]
 Uni: Did this person do another plastic surgery after coming to me?
@@ -1922,13 +1955,13 @@
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>Nino</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t xml:space="preserve">[Nino slaps a material request form down in front of you.]
 Nino: Ding dong. You've triggered a random task, which is to help Nino Sama fill up the snack cabinet!
@@ -1941,7 +1974,7 @@
 </t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">[Nino is checking the live stream's traffic flow chart.]
 Nino: What's going on? The views have dropped so much recently! It's almost the darkest day in Nino Sama's live-streaming history!
@@ -1955,13 +1988,13 @@
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>Golan</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t xml:space="preserve">[Golan is glued to her terminal, reading the posts on an MBCC intranet forum.]
 Golan: Ah, so-and-so and so-and-so are sworn brothers, and so-and-so and so-and-so don't see eye to eye. Here comes a big one: Chief had a thing for that beautiful lady sent by the forces of evil...
@@ -1974,7 +2007,7 @@
 </t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">[Golan drools over the expensive limited-edition plush accessory listed in Faye's product catalog.]
 Golan: Damn it, money is short! I can't hire myself out as a henchman. That's not allowed around here. So how am I going to swindle... no, make some money? Ha, I've got it! I can be an information broker!
@@ -1988,13 +2021,46 @@
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Dove</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[Dove is delivering mail to the people at the Bureau.]
+Dove: Oh, if it isn't Chief! You came at the right time. Guess which of these two letters is for you?
+Prompt: The pink envelope
+Dove: Oh my, this pink one is sealed with a heart sticker. Could it be a love letter? Now, don't be so quick to deny it... What if... it really is for you?
+Dove: 'atlas/monthsign/sprite_dailysign_face_8.png', 'atlas/monthsign/sprite_dailysign_face_8.png', 'atlas/monthsign/sprite_dailysign_face_8.png'
+Prompt: The blue envelope
+Dove: Out of all these letters, you picked this one... What a meaningful coincidence. Do you really know me so well, or... perhaps it's this message who picked you?
+Dove: 'atlas/monthsign/sprite_dailysign_face_4.png', 'atlas/monthsign/sprite_dailysign_face_4.png', 'atlas/monthsign/sprite_dailysign_face_4.png'
+</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[Dove receives a letter addressed to her, but instead of opening it right away, she seems to be deliberating over something.]
+Dove: Oh, someone wrote a letter to the mail carrier? How should I reply... Haha, this is no easy choice to make... Should I reel them in with some bait, or say something to give them a good scare...
+Prompt: Check the signature maybe?
+Dove: The sender is... Chief of the Minos Bureau of Crisis Control... Oh wow, Chief is personally monitoring even a nobody like Dove. You sure are very serious about your job.
+Dove: 'atlas/monthsign/sprite_dailysign_face_8.png', 'atlas/monthsign/sprite_dailysign_face_8.png', 'atlas/monthsign/sprite_dailysign_face_8.png'
+Prompt: Open and have a look.
+Dove: "Communicate your true feelings with other." This handwriting... It's you... Is this what you wanted to tell me...?
+Dove: 'atlas/monthsign/sprite_dailysign_face_6.png', 'atlas/monthsign/sprite_dailysign_face_6.png', 'atlas/monthsign/sprite_dailysign_face_6.png'
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>Ninety-Nine</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t xml:space="preserve">[Ninety-Nine keeps striking her blade at the floor.]
 Ninety-Nine: When... is it time for training?
@@ -2007,7 +2073,7 @@
 </t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">[Ninety-Nine heavily knocks on the Confinement Cell's door as the room temperature increases rapidly.]
 Ninety-Nine: Aaahhh... Ah!
@@ -2021,13 +2087,13 @@
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>Wendy</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t xml:space="preserve">[You run into Wendy in the hallway. She holds a chainsaw in her hand.]
 Wendy: How many Corruptors... are left at the Rust?
@@ -2040,7 +2106,7 @@
 </t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">[Wendy tears the document into pieces.]
 Wendy: The Corruptors... Corruptors are moving again! How can this be?
@@ -2054,13 +2120,13 @@
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>Pacassi</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t xml:space="preserve">[Pacassi's room is stacked with books.]
 Pacassi: Are there... any other documents here?
@@ -2073,7 +2139,7 @@
 </t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">[You plan to check on Pacassi.]
 Pacassi: Stay... stay away. I bring misfortune.
@@ -2087,13 +2153,13 @@
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
         <is>
           <t>Dolly</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t xml:space="preserve">[Dolly is enjoying a baseball game.]
 Dolly: Wait a minute! Now is the most exciting part. Don't interrupt me!
@@ -2106,7 +2172,7 @@
 </t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">[Dolly seems upset as she looks at the baseball bat.]
 Dolly: This batch from the Supply Office is so easily broken... I wonder if they're doing their job right.
@@ -2120,13 +2186,13 @@
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
         <is>
           <t>Horo</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t xml:space="preserve">[Horo carries a newly-arrived box of milk.]
 Horo: Chief, would you like one?
@@ -2139,7 +2205,7 @@
 </t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">[Horo holds an ax, spacing out.]
 Horo: Sigh... Boss Zoya doesn't talk to me anymore. I don't know why...
@@ -2153,13 +2219,13 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
         <is>
           <t>Mess</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t xml:space="preserve">[Mess starts to doze off in your office]
 Mess: Hmm, I can't sleep... I've still got the mission... I can't fall asleep yet...
@@ -2172,7 +2238,7 @@
 </t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">[Mess is mumbling to herself beside the furnace]
 Mess: Hmm... What weapon should I make next...
@@ -2186,13 +2252,13 @@
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
         <is>
           <t>Corso</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t xml:space="preserve">[Corso breaks into your office]
 Corso: Hey, I've been so bored lately, I was promised more difficult tasks!
@@ -2205,7 +2271,7 @@
 </t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">[Corso paints herself with the newly arrived oil paints]
 Corso: The ones bought by the MBCC is not very waterproof... So easy to smudge.
@@ -2219,13 +2285,13 @@
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
         <is>
           <t>Christina</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t xml:space="preserve">[Christina is practicing her freestyle fighting skills by pummeling the punching bag in the Training Room]
 Christina: Ah, my dear assistant. Would you like to train with me?
@@ -2238,7 +2304,7 @@
 </t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">[Christina is fiddling with a pair of glasses]
 Christina: Assistant! Come and check out this new tool I made! It can capture the scene in front of you in the blink of an eye and transmit it to your comms.
@@ -2252,13 +2318,13 @@
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
         <is>
           <t>Rise</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t xml:space="preserve">[Passing by the gym room, you get knocked down by a squash ball.]
 Rise: Sorry, Chief. I lost control of the ball.
@@ -2271,7 +2337,7 @@
 </t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">[Rise hands you a coupon.]
 Rise: I booked a large private room at the karaoke, wanna join us, Chief?
@@ -2285,13 +2351,13 @@
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
         <is>
           <t>Mira</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t xml:space="preserve">[Mira calls out to stop you as you're about to leave.]
 Mira: It appears to me that you might be lacking some essentials, Chief. For a long journey to WhiteSands, there are items you absolutely need. Feel free to take anything you require from my shelves, if you'd like?
@@ -2304,7 +2370,7 @@
 </t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">[Mira is hanging freshly laundered bed linens out to dry in the sun.]
 Mira: Changing bedsheets, sweeping floors, and organizing rooms... There's always more housework to do. Thankfully, DisCity's weather is nothing like that of WhiteSands—here, the sheets won't disappear into thin air the moment you hang them out. It saves me the hassle of chasing after them.
@@ -2318,13 +2384,13 @@
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
         <is>
           <t>Iron</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t xml:space="preserve">[Iron leaves the operating room.]
 Iron: If there's something on your mind, speak up. Let's not waste each other's precious time.
@@ -2337,7 +2403,7 @@
 </t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">[Iron looks at the Sinners and sighs.]
 Iron: When are you going to take action and rein in these Sinners?
@@ -2351,13 +2417,13 @@
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
         <is>
           <t>Tetra</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t xml:space="preserve">[Tetra plays with the computers in your office.]
 Tetra: Chief, you'd better watch out for the Bureau's network security.
@@ -2370,7 +2436,7 @@
 </t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">[Tetra lies on the Bureau's document cabinet and sighs.]
 Tetra: It's so boring. I didn't expect it would be so boring even here.
@@ -2384,13 +2450,13 @@
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
         <is>
           <t>Sumire</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t xml:space="preserve">[Sumire arrives at your office and wants to share your workload.]
 Sumire: Chief... you seem troubled. If you don't mind, I'd be happy to share your burden.
@@ -2403,7 +2469,7 @@
 </t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">[Sumire holds a petal but looks worried.]
 Sumire: The killers of the Garden... were here lately?
@@ -2417,13 +2483,13 @@
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
         <is>
           <t>McQueen</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t xml:space="preserve">[McQueen invites you to an art auction.]
 McQueen: So, are you interested?
@@ -2436,7 +2502,7 @@
 </t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">[McQueen is facing an astronomical fine for an art scheme.]
 McQueen: Don't worry. I can deal with it.
@@ -2450,13 +2516,13 @@
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
         <is>
           <t>Lynn</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t xml:space="preserve">[Lynn holds up her camera to take photos of a bunch of recently bloomed flowers in the greenhouse, looking a little puzzled.]
 Lynn: Feels like something is missing...
@@ -2469,7 +2535,7 @@
 </t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">[Lynn concentrates on reading a manga with a blush on her face.]
 Lynn: So sweet...
@@ -2483,13 +2549,13 @@
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
         <is>
           <t>Garofano</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t xml:space="preserve">[Garofano holds a bouquet of carnations.]
 Garofano: What color of flowers do you think I should use to decorate the room today?
@@ -2502,7 +2568,7 @@
 </t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">[Garofano caresses a soft fabric.]
 Garofano: I plan to use it to make a set of pajamas for you. I think it will fit perfectly.
@@ -2516,13 +2582,13 @@
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
         <is>
           <t>Eureka</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t xml:space="preserve">[Eureka, busy sorting through a stack of travel pamphlets, glances up.]
 Eureka: Chief, say you're planning a getaway... which route would you take?
@@ -2535,7 +2601,7 @@
 </t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">[Eureka is browsing a sci-fi movie magazine.]
 Eureka: These props in the movies are just intriguing... Hey Chief, got any movie gadget you want me to whip up?
@@ -2549,13 +2615,13 @@
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
         <is>
           <t>Thistle</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t xml:space="preserve">[Thistle frantically closes the journal she's writing in.]
 Thistle: How long have you been standing there? Why are you looking at me like that? Don't come any closer! I'm just... journaling!
@@ -2568,7 +2634,7 @@
 </t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">[Thistle finds an injured stray kitten in the Bureau's sports ground.]
 Thistle: Look at all this blood. Chief, can we help it?
@@ -2582,13 +2648,13 @@
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
         <is>
           <t>Shrooma</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t xml:space="preserve">[In the morning, Shrooma walks out of her room with dark circles under her eyes.]
 Shrooma: Good morning, Chief. Dark circles under my eyes? I stayed up a bit late last night working on an essay. Thank you for your concern, but don't worry about me.
@@ -2601,7 +2667,7 @@
 </t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">[A roadside kitten arches its back and hisses at Shrooma as she approaches.]
 Shrooma: Sigh, it's like this again... Chief, do you know how to get close to cats?
@@ -2615,13 +2681,13 @@
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
         <is>
           <t>Pricilla</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t xml:space="preserve">[Pricilla seems to have discovered that you are staring at her.]
 Pricilla: What? Do you find my mask interesting?
@@ -2634,7 +2700,7 @@
 </t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">[Pricilla is cleaning her props.]
 Pricilla: I haven't performed for so long. Some of the props are covered in dust.
@@ -2648,13 +2714,13 @@
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
         <is>
           <t>Roulecca</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t xml:space="preserve">[Roulecca is jumping around in your office.]
 Roulecca: Chief, come on! Let's play a game!
@@ -2667,7 +2733,7 @@
 </t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t xml:space="preserve">[Roulecca looks very upset.]
 Roulecca: Sigh... All the clovers I find lately only have three leaves. Is Roulecca's power wearing off?
@@ -2681,13 +2747,13 @@
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
         <is>
           <t>Wolverine</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t xml:space="preserve">[Wolverine looks at you with anticipation.]
 Wolverine: I am... hungry.
@@ -2700,7 +2766,7 @@
 </t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t xml:space="preserve">[Wolverine is a bit clumsy.]
 Wolverine: Pippy... don't run off. Chief, help me out.
@@ -2714,13 +2780,13 @@
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
         <is>
           <t>Matilda</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t xml:space="preserve">[Matilda asks for a rendezvous at the shooting range.]
 Matilda: Chief, I've put together an initial draft of guidelines for using the Bureau's shooting range. I'd appreciate your feedback.
@@ -2733,7 +2799,7 @@
 </t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t xml:space="preserve">[Matilda steps into your office.]
 Matilda: Chief, what do you think is the best way to spend downtime?
@@ -2747,13 +2813,13 @@
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
         <is>
           <t>Yanyan</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t xml:space="preserve">[You notice something amiss with the library door. A mythology book is keeping the door from closing. Yanyan has taken down all the mythology books from their shelves, and one of them must have fallen.]
 Yanyan: Ha! Chief, what are you doing here?
@@ -2766,7 +2832,7 @@
 </t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t xml:space="preserve">[Yanyan races into your office, holding a plate of steaming hot food she has just made.]
 Yanyan: Quick! Have a taste of this, Chief. It's a dish from my hometown. Took me a long time to make it.
@@ -2780,13 +2846,13 @@
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
         <is>
           <t>Jane</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t xml:space="preserve">[Jane is lost in thought as she studies the Bureau's security distribution map.]
 Jane: I feel... there are still some exploitable flaws...
@@ -2799,7 +2865,7 @@
 </t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t xml:space="preserve">[Jane comes to the office to report to you.]
 Jane: I've completed the missions you assigned. Please give me further instructions.
@@ -2813,13 +2879,13 @@
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
         <is>
           <t>Victoria</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t xml:space="preserve">[Victoria can't help but sigh in her room.]
 Victoria: Ah... such a confined space brings comfort to my mind.
@@ -2832,7 +2898,7 @@
 </t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t xml:space="preserve">[Having received the alarm, you make haste to Victoria's room.]
 Victoria: I am... bleeding out again... What should I do...?
@@ -2846,13 +2912,13 @@
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
         <is>
           <t>Ignis</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t xml:space="preserve">[You bring crème brûlée to visit Ignis.]
 Ignis: Are you here... to see me?
@@ -2865,7 +2931,7 @@
 </t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t xml:space="preserve">[In the Bureau's kitchen, Ignis is sighing.]
 Ignis: Sigh... I can never figure out how to cook.
@@ -2879,13 +2945,13 @@
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
         <is>
           <t>Luvia Ray</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t xml:space="preserve">[She seems to be Luvia.]
 Luvia Ray: Shush. Keep quiet. Ray is sleeping right now...
@@ -2898,7 +2964,7 @@
 </t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t xml:space="preserve">[She seems a bit jumpy. Looks like it's Ray.]
 Luvia Ray: The characters for my new show... are all supporting roles.
@@ -2912,13 +2978,13 @@
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
         <is>
           <t>Hecate</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t xml:space="preserve">[Hecate asks you about today's schedule.]
 Hecate: Chief, what will you have me do today?
@@ -2931,7 +2997,7 @@
 </t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t xml:space="preserve">[Hecate is checking the records of past operations.]
 Hecate: If I am gone, there will always be another Hecate. When that happens, I need you to forget me.
@@ -2945,13 +3011,13 @@
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
         <is>
           <t>Oliver</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t xml:space="preserve">[Oliver hands you a doll.]
 Oliver: Chief, would you like to play with me?
@@ -2964,7 +3030,7 @@
 </t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t xml:space="preserve">[Oliver lies in the bedroom, covered in wounds.]
 Oliver: Chief... it hurts... it hurts so bad...
@@ -2978,13 +3044,13 @@
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
         <is>
           <t>Lamia</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t xml:space="preserve">[As you step out of the office, Lamia greets you with deep concern.]
 Lamia: Chief, you look tired, do you need to relax?
@@ -2997,7 +3063,7 @@
 </t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t xml:space="preserve">[Lamia is watching a movie about school life in the Recreation Area, looking a bit puzzled.]
 Lamia: What was it like as a student? Why do so many people miss those days?
@@ -3011,13 +3077,13 @@
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
         <is>
           <t>Echo</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t xml:space="preserve">[Echo is listening to music in the hypnosis room.]
 Echo: Hmph, these are all too soft, not vigorous enough. I'm sure my live recordings will work way much better if you put them in the hypnosis room's playlist!
@@ -3030,7 +3096,7 @@
 </t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t xml:space="preserve">[Echo comes up to you with her saxophone.]
 Echo: Today is a good day! The brilliant saxophone genius is taking song requests now! Quick, what do you want to hear?
@@ -3044,13 +3110,13 @@
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
         <is>
           <t>Ariel</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t xml:space="preserve">[Ariel seems disturbed and uneasy.]
 Ariel: Why is everyone always staring at me...?
@@ -3063,7 +3129,7 @@
 </t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t xml:space="preserve">[Now that the mission is over, Ariel comes to apologize to you.]
 Ariel: I think I am... always a burden to everyone...
@@ -3077,13 +3143,13 @@
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
         <is>
           <t>Chameleon</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t xml:space="preserve">[You are invited to Chameleon's private clinic.]
 Chameleon: Have you been sleeping well lately? Do you need any more of my assistance?
@@ -3096,7 +3162,7 @@
 </t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t xml:space="preserve">[Chameleon is writing a document for her patient and sighing.]
 Chameleon: I have been seeing more patients lately for no reason. Any idea why?
@@ -3110,13 +3176,13 @@
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
         <is>
           <t>Anne</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t xml:space="preserve">[Anne is looking at some pictures from before and feeling emotional.]
 Anne: Children are so cute... They are innocent and kind.
@@ -3129,7 +3195,7 @@
 </t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t xml:space="preserve">[A patient isn't too well. Anne is anxious.]
 Anne: Some patients are getting worse. I saw something similar back when I was at SALVA Hospital...
@@ -3143,13 +3209,13 @@
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
         <is>
           <t>Mr. Fox</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t xml:space="preserve">[Mr. Fox is counting dollar bills in front of you.]
 Mr. Fox: I've been winning quite some cases and making a fortune.
@@ -3162,7 +3228,7 @@
 </t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t xml:space="preserve">[Mr. Fox sighs.]
 Mr. Fox: The lawsuit requests I have been getting are too bad of a deal for me to accept.
@@ -3176,13 +3242,13 @@
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
         <is>
           <t>Dudu</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t xml:space="preserve">[Dudu comes out of the kitchen with a plate full of fried pork chops.]
 Dudu: Hey, boss. Are you here for snacks too?
@@ -3195,7 +3261,7 @@
 </t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t xml:space="preserve">[Dudu loudly advertises her suona classes.]
 Dudu: Don't miss it! The first 20 students get half off their tuition! Hey, boss over there, don't go. Want to learn suona with me?
@@ -3209,13 +3275,13 @@
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
         <is>
           <t>Letta</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t xml:space="preserve">[Letta sneaks into your room]
 Letta: Chief, I've discovered a new adventure location!
@@ -3228,7 +3294,7 @@
 </t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t xml:space="preserve">[Letta was caught by you sneaking out to play]
 Letta: Hmmm... why am I standing here...?
@@ -3242,13 +3308,13 @@
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
         <is>
           <t>Cassia</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t xml:space="preserve">[Cassia is browsing perfume reviews online in the Recreation Area.]
 Cassia: The scent of perfume is becoming more complex, more industrialized, almost covering up the pure scent... Even the reviews are filled with an unpleasant industrial smell...
@@ -3261,7 +3327,7 @@
 </t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t xml:space="preserve">[Cassia receives another invitation to be a judge at a beauty pageant.]
 Cassia: If I have to pick the best perfume material... ahem, I mean, the best beauty, I must be there in person...
@@ -3275,13 +3341,13 @@
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
         <is>
           <t>Shawn</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t xml:space="preserve">[Shawn starts to frequently check her phone again, quickly replying to each message as it arrives.]
 Shawn: "That's not true, sweetie. They just have poor tastes, that's why they don't cherish you." ...Phew, she's finally feeling better. I didn't expect there to be so many people longing for love inside the Bureau.
@@ -3294,7 +3360,7 @@
 </t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t xml:space="preserve">[Shawn is grumpily refreshing her terminal and looking at the no internet connection notification that keeps appearing.]
 Shawn: Wasn't it supposed to be back by 3 p.m.? There's still no signal. Doesn't this affect the Bureau's operations?
@@ -3308,13 +3374,13 @@
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
         <is>
           <t>K.K.</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t xml:space="preserve">[K.K. is waiting for orders in your office.]
 K.K.: What can I do for you?
@@ -3327,7 +3393,7 @@
 </t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t xml:space="preserve">[K.K. asks you about her former partner.]
 K.K.: Where is Bai Yi? Where did she run off to again?
@@ -3341,13 +3407,13 @@
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
         <is>
           <t>Demolia</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t xml:space="preserve">[Now that the mission is over, Demolia starts to arrange her subsequent schedule.]
 Demolia: What will we be doing today? Recommend something to me, Chief.
@@ -3360,7 +3426,7 @@
 </t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t xml:space="preserve">[Demolia is counting her collection.]
 Demolia: Would you like to help me expand my collection, Chief?
@@ -3374,13 +3440,13 @@
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
         <is>
           <t>Peggy</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t xml:space="preserve">[Peggy is writing lyrics quickly.]
 Peggy: Oi, Chief, what brings you here? Would you like to enjoy a performance?
@@ -3393,7 +3459,7 @@
 </t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t xml:space="preserve">[Peggy looks upset and kicks the items in the room.]
 Peggy: I thought you promised to get me an audio mixer. Where is it?
@@ -3407,13 +3473,13 @@
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="inlineStr">
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
         <is>
           <t>Hella</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t xml:space="preserve">[Having finished her mission, Hella lies on the floor in your office.]
 Hella: Ah, have you prepared any rewards for me? I hope it's DisCoins.
@@ -3426,7 +3492,7 @@
 </t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t xml:space="preserve">[Hella looks surprised when she sees you.]
 Hella: Tsk. Did Ninety-Nine tell you I was hiding here?
@@ -3440,13 +3506,13 @@
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="inlineStr">
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
         <is>
           <t>Che</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t xml:space="preserve">[Che rubs his eyes. It seems like he just woke up.]
 Che: What? Have you come to slack off as well?
@@ -3459,7 +3525,7 @@
 </t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t xml:space="preserve">[Che looks at you and seems confused.]
 Che: Don't you think it's a waste of time hanging out with us all day?
@@ -3473,13 +3539,13 @@
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="inlineStr">
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
         <is>
           <t>Pepper</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t xml:space="preserve">[Pepper runs into your office, exhilarated.]
 Pepper: Chief, I want to do something bad today! Do you have any suggestions?
@@ -3492,7 +3558,7 @@
 </t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t xml:space="preserve">[Pepper stands on the Bureau's sports ground, spiritless.]
 Pepper: I'd rather be a farmer than go on missions...
@@ -3506,13 +3572,13 @@
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="inlineStr">
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
         <is>
           <t>Labyrinth</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t xml:space="preserve">[Labyrinth seems to have been waiting for you at the office for a long time.]
 Labyrinth: Chief spotted. Waiting for process.
@@ -3525,7 +3591,7 @@
 </t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t xml:space="preserve">[Labyrinth is cleaning the Bureau and maintaining hygiene.]
 Labyrinth: Chief, please don't disrupt my work here.
@@ -3539,13 +3605,13 @@
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="inlineStr">
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
         <is>
           <t>Gekkabijin</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t xml:space="preserve">[Gekkabijin is cleaning her dagger.]
 Gekkabijin: Who will be... my next opponent...?
@@ -3558,7 +3624,7 @@
 </t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t xml:space="preserve">[Gekkabijin clenches her fist and looks angry.]
 Gekkabijin: The Garden! How dare you steal my target!
@@ -3572,13 +3638,13 @@
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="inlineStr">
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
         <is>
           <t>EMP</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t xml:space="preserve">[In the training facility, EMP seems happy.]
 EMP: Humph. Today, I'll allow you to look at my magnificent face and admire it.
@@ -3591,7 +3657,7 @@
 </t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t xml:space="preserve">[In the training facility, EMP seems to be in a bad mood.]
 EMP: Don't disrupt me. I'm practicing my archery!
@@ -3605,13 +3671,13 @@
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="inlineStr">
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
         <is>
           <t>Flora</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t xml:space="preserve">[Flora holds a notebook and starts asking you questions.]
 Flora: You remember that you have to do a regular check on the fire-fighting equipment today, right?
@@ -3624,7 +3690,7 @@
 </t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t xml:space="preserve">[Flora, who had just left the training facility, seems a bit down.]
 Flora: Sigh... What must I do to make the most out of this fire-fighting equipment?
@@ -3638,13 +3704,13 @@
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="inlineStr">
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
         <is>
           <t>Kelvin</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t xml:space="preserve">[Kelvin greets you while holding food ingredients in her arms.]
 Kelvin: Chief, do you think we can install an additional freezer in the Bureau's kitchen?
@@ -3657,7 +3723,7 @@
 </t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t xml:space="preserve">[It seems Kelvin is being laughed at.]
 Kelvin: Oh, come on... When will I finally graduate...?
@@ -3671,13 +3737,13 @@
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="inlineStr">
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
         <is>
           <t>Joan</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t xml:space="preserve">[You hear singing voices from Joan's room.]
 Joan: Come as you are—
@@ -3690,7 +3756,7 @@
 </t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t xml:space="preserve">[Joan is looking at pictures of the previous concert. Something's troubling her.]
 Joan: When will this life come to an end? I want to be performing on a stage somewhere.
@@ -3704,13 +3770,13 @@
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="inlineStr">
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
         <is>
           <t>Macchiato</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t xml:space="preserve">[Macchiato looks happy and joyful.]
 Macchiato: Some enemies seem to be enjoying this.
@@ -3723,7 +3789,7 @@
 </t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t xml:space="preserve">[Macchiato is dozing off.]
 Macchiato: Welcome... to the Eastside Bank! Oh... no, wait! I mean the Bureau!
@@ -3737,13 +3803,13 @@
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="inlineStr">
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
         <is>
           <t>Lisa</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t xml:space="preserve">[Lisa takes out a painting with her left hand and places it on the table.]
 Lisa: I received a few paintings to enjoy.
@@ -3756,7 +3822,7 @@
 </t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t xml:space="preserve">[Lisa sits in front of the easel and sighs.]
 Lisa: I drew the line crooked... again.
@@ -3781,7 +3847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4881,10 +4947,43 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
+          <t>ヴァトゥール</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[ヴァトゥールがアフタヌーンティーを楽しんでいる]
+ヴァトゥール: お前か。今は日差しがちょうどいいし、今日は珍しく暇なようだな？座って特別なデザートでも楽しんでいかないかい？お茶も淹れてあるから、選ぶといい。どれにするんだい？
+Prompt: ブルーベリーチーズケーキ
+ヴァトゥール: う～ん、香りが豊かで美味しいし、甘さも控えめでちょうどいい……仕事で疲れが溜まっている局長には、この心地いいアフタヌーンティーがぴったりだろう？
+ヴァトゥール: 'atlas/monthsign/sprite_dailysign_face_7.png', 'atlas/monthsign/sprite_dailysign_face_7.png', 'atlas/monthsign/sprite_dailysign_face_7.png'
+Prompt: ストロベリークリームクレープ
+ヴァトゥール: 一緒に食べないかい？……「甘すぎる」ねぇ。ふふ、生活に苦味があるから、こういう甘さが欲しくなるもんなんだよ。
+ヴァトゥール: 'atlas/monthsign/sprite_dailysign_face_8.png', 'atlas/monthsign/sprite_dailysign_face_8.png', 'atlas/monthsign/sprite_dailysign_face_8.png'
+</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[窓辺に座っているヴァトゥールがあなたの視線に気付き、振り返って微笑んだ]
+ヴァトゥール: どうしたんだい？そんな風にあたしを見つめて。もしかして、隣人だった頃を懐かしんでいるのかい？
+Prompt: 肯定する
+ヴァトゥール: へぇ？それなら、あたしが提出した申請書に賛同して、許可を出してくれるんだろうな？そうすれば、すぐにまた隣人になれるさ～
+ヴァトゥール: 'atlas/monthsign/sprite_dailysign_face_4.png', 'atlas/monthsign/sprite_dailysign_face_4.png', 'atlas/monthsign/sprite_dailysign_face_4.png'
+Prompt: 否定する
+ヴァトゥール: そうかい？局長の部屋の隣に引っ越そうと思っていたんだけどねぇ、それは残念だ。
+ヴァトゥール: 'atlas/monthsign/sprite_dailysign_face_1.png', 'atlas/monthsign/sprite_dailysign_face_1.png', 'atlas/monthsign/sprite_dailysign_face_1.png'
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
           <t>ハーメル</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t xml:space="preserve">[訓練室でダンスの練習をしているハーメルの姿を見ている]
 ハーメル: そんなにわたしに……興味があるんですか？
@@ -4897,7 +4996,7 @@
 </t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">[寝室の散乱物にハーメルがつまずいた]
 ハーメル: 助けて……寝室が散らかってて……ダンスの練習ができないんです。
@@ -4911,13 +5010,13 @@
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>エンフェル</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t xml:space="preserve">[エンフェルが困っているようだ]
 エンフェル: 新しく注文した彫刻に使う石なのじゃが、イメージと違ったようじゃ。
@@ -4930,7 +5029,7 @@
 </t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">「エンフェルの作品のリアルさが、多くの人を驚かせている」
 エンフェル: 何か問題でもあるのか？
@@ -4944,13 +5043,13 @@
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>カベルネ</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t xml:space="preserve">[カベルネとの昼食時、彼女はずっと意味ありげにあなたを見つめている]
 カベルネ: いつか局長様の手料理を……いただけるのでしょうか？
@@ -4963,7 +5062,7 @@
 </t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">[カベルネは興味なさそうにテレビのグルメ番組を眺めている]
 カベルネ: 局長様は、どの料理がお気に入りかしら。
@@ -4977,13 +5076,13 @@
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>コクリコ</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t xml:space="preserve">[コクリコは温室で土を調べていた]
 コクリコ: ここには何の花を植えたらいいと思う？
@@ -4996,7 +5095,7 @@
 </t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">[コクリコは娯楽エリアでネットショップを見ている]
 コクリコ: あなただったら、どのブローチがいいと思う？
@@ -5010,13 +5109,13 @@
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>イヴ</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t xml:space="preserve">[イヴは異なる生地で作られたぬいぐるみの服を見比べている。]
 イヴ: 熊ちゃんの服はシルクの方がいいでしょうか……それともコットンの方が？
@@ -5029,7 +5128,7 @@
 </t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">[イヴの車椅子が割れたタイルに嵌ったようだ。]
 イヴ: この身体は些細な問題にも躓いてしまいます……私など放っておいて、ご自分の仕事に専念してください。
@@ -5043,13 +5142,13 @@
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>杜若</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t xml:space="preserve">[杜若は何気なく錦嚢を投げて遊んでいる]
 杜若: ちょうどいいですね。あなたの近い将来の運勢を占ってみましょう……あら、これは？
@@ -5062,7 +5161,7 @@
 </t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">[杜若が休憩室でお香を焚いている]
 杜若: 瞑想をすると、変幻する煙が会いたい人の形になると言われています……どうです、やってみませんか？
@@ -5076,13 +5175,13 @@
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>L.L.</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t xml:space="preserve">[L.L.があなたの画像データをコピーして、電子ペットを作成した]
 L.L.: よ～しよ～し、見て。「あなた」はすっごく可愛いでしょう？タマちゃんも楽しそうに「あなた」の周りを泳いでるわ～
@@ -5095,7 +5194,7 @@
 </t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">[L.L.が突然、背後からあなたに近づいたため、彼女の身体についていた水滴があなたの服に落ちた]
 L.L.: あら、うっかりあなたを濡らしちゃったわ。半分濡れた服じゃ寒いでしょう？私とハグして温まる？この腕はあなたが思っているよりポカポカしてるわよ。
@@ -5109,13 +5208,13 @@
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>チェルシー伯爵</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t xml:space="preserve">[チェルシーは宝石をあなたに渡した]
 チェルシー伯爵: ほら、お土産だよ。
@@ -5128,7 +5227,7 @@
 </t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">[チェルシーはシディーを見て、考え込んでいる]
 チェルシー伯爵: なぜ、ここで猫を飼っては駄目なんだ？
@@ -5142,13 +5241,13 @@
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>辰砂</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t xml:space="preserve">[辰砂の収容室を通りかかった]
 辰砂: 今日は私の護衛が必要ですか？
@@ -5161,7 +5260,7 @@
 </t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">[任務終了後、辰砂は何かを考えているようだ]
 辰砂: はぁ、過去の経験がこの管理局では全く通用しない。
@@ -5175,13 +5274,13 @@
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>カワカワ</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t xml:space="preserve">[カワカワは期待に満ちた目であなたを見つめている]
 カワカワ: 局長！砂の海にはいつ戻るの？
@@ -5194,7 +5293,7 @@
 </t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">[カワカワはどこか悲しそうだ]
 カワカワ: 局長、ビーコンが少し足りないんだ。
@@ -5208,13 +5307,13 @@
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>レヴィ</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t xml:space="preserve">[レヴィは新調した派手すぎる服を着て、あなたの前でぐるっと回った]
 レヴィ: どうだ？カッコいいだろ？
@@ -5227,7 +5326,7 @@
 </t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">[レヴィは二人の局員とカードゲームをしている]
 レヴィ: おっと悪い、また勝っちまったな。
@@ -5241,13 +5340,13 @@
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>ユーニ</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t xml:space="preserve">[通りすがりのユーニが、あなたを見て眉をひそめた]
 ユーニ: どうして片方しかピアスをつけてないんだ。
@@ -5260,7 +5359,7 @@
 </t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">[ユーニが一枚のチラシを手に持って、じっくりと見ている]
 ユーニ: この人、あの後また自分の顔を弄ったんじゃ……
@@ -5274,13 +5373,13 @@
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>ニノ</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t xml:space="preserve">[ニノは物資申請リストをあなたの目の前にパッと置いた]
 ニノ: ピコン！ランダム任務を開放しました。ニノ様がお菓子の棚を埋めるのを手伝ってください～
@@ -5293,7 +5392,7 @@
 </t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">[ニノは配信ルームの再生回数曲線図を見ている]
 ニノ: 何で！？最近、人気落ちすぎなんだけど！ニノ様のライブ配信の黒歴史じゃん！
@@ -5307,13 +5406,13 @@
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>ギャラン</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t xml:space="preserve">[ギャランは端末に表示された管理局の内部ネット掲示板の投稿をじっと見つめている]
 ギャラン: ああ、あいつとあいつが兄弟の契りを交わして、あいつとあいつがお互いに嫌い合ってるのか。へぇ、局長も昔、自分を誘惑するために悪の勢力から送り込まれた美人の色気があるお姉さんを好きになったことがあるのか……
@@ -5326,7 +5425,7 @@
 </t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">[ギャランはフェイのカタログに載っている、生産終了になった高価なぬいぐるみのアクセサリーを物欲しそうに見つめている]
 ギャラン: クソ、金が足りない！ここでファイターになるのはダメだろ。どうやって金を手に入れる……いや、小遣いを稼げばいいんだ？そうだ、情報とかゴシップを売ればいいのか！
@@ -5340,13 +5439,46 @@
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>ドーヴ</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[ドーヴが管理局の皆に手紙を配達している]
+ドーヴ: あっ局長！ちょうどいいところで会ったね。この2通のうち、どっちがあなた宛てか当ててみて？
+Prompt: ピンクの封筒
+ドーヴ: あれ、このピンクの方はハートのシールで封がされてるね。もしかしてラブレターだったりして？もう、そんなに慌てて否定しなくていいのに～もし……本当にあなたへの手紙だったらどうする？
+ドーヴ: 'atlas/monthsign/sprite_dailysign_face_8.png', 'atlas/monthsign/sprite_dailysign_face_8.png', 'atlas/monthsign/sprite_dailysign_face_8.png'
+Prompt: 青い封筒
+ドーヴ: こんなにたくさんの手紙の中からこれを選ぶなんて、やっぱりわたしたちには縁があるみたい。あなたがわたしをよく知ってるからなのか、それとも……この想いは、元々あなたに開けてもらうためのものだったのかな？
+ドーヴ: 'atlas/monthsign/sprite_dailysign_face_4.png', 'atlas/monthsign/sprite_dailysign_face_4.png', 'atlas/monthsign/sprite_dailysign_face_4.png'
+</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[ドーヴは手紙を受け取ったが、すぐには開封せず、何か考え込んでいる]
+ドーヴ: 信使に手紙を送ってくるなんて。どう返事しようかな……ふふ、悩ましいなぁ。甘いエサで引っ掛けるべきか、言葉を使って脅かすべきか……
+Prompt: 署名を確認するよう促す
+ドーヴ: 署名は……ミノス危機管理局の局長……わぁ、ドーヴみたいなちっぽけな存在まで自分で監視するなんて、さすが局長。細やかな気配りだね～
+ドーヴ: 'atlas/monthsign/sprite_dailysign_face_8.png', 'atlas/monthsign/sprite_dailysign_face_8.png', 'atlas/monthsign/sprite_dailysign_face_8.png'
+Prompt: 開封して中身を見るよう促す
+ドーヴ: 「自分の本当の気持ちで人と向き合って手紙を交わすこと」……この筆跡……あなたのだよね……これが、わたしに伝えたかったことなんだ……
+ドーヴ: 'atlas/monthsign/sprite_dailysign_face_6.png', 'atlas/monthsign/sprite_dailysign_face_6.png', 'atlas/monthsign/sprite_dailysign_face_6.png'
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>ナインティナイン</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t xml:space="preserve">[ナインティナインは一心不乱に刀を地面に叩きつけている]
 ナインティナイン: トレーニングは……いつ始まる？
@@ -5359,7 +5491,7 @@
 </t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">[ナインティナインは独房の扉を叩き、室内の温度が急上昇した]
 ナインティナイン: うあ……ああっ！
@@ -5373,13 +5505,13 @@
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>ウェンディ</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t xml:space="preserve">[廊下でチェーンソーを持っているウェンディと出会った]
 ウェンディ: 錆の川の死瞳……残りはどれくらいだ？
@@ -5392,7 +5524,7 @@
 </t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">[ウェンディは目の前の書類を引き裂いてしまった]
 ウェンディ: なぜ、また死体が、死体が歩いてるんだ！
@@ -5406,13 +5538,13 @@
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>ペガシ</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t xml:space="preserve">[ペガシの部屋には本がたくさん積まれている]
 ペガシ: 他に……何か参考になる資料はないの？
@@ -5425,7 +5557,7 @@
 </t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">[ペガシの様子を見に行こうとした]
 ペガシ: 近寄らないで、不幸になるから……
@@ -5439,13 +5571,13 @@
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
         <is>
           <t>ドリー</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t xml:space="preserve">[ドリーが野球観戦をしている]
 ドリー: 待って！今が一番いいところなんだから、邪魔しないでよ！
@@ -5458,7 +5590,7 @@
 </t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">[ドリーが暗い表情で野球のバットを見ている]
 ドリー: 調達部門の備品、ちょっと問題あるんじゃない？振っただけで壊れたよ！
@@ -5472,13 +5604,13 @@
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
         <is>
           <t>ホロ</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t xml:space="preserve">[ホロは入荷したばかりの牛乳パックを持っている]
 ホロ: 局長、1本どうだ？
@@ -5491,7 +5623,7 @@
 </t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">[ホロは斧を握り締め、元気のない目をしている]
 ホロ: うぅ……ゾーヤさんが全然話してくれない……
@@ -5505,13 +5637,13 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
         <is>
           <t>メイス</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t xml:space="preserve">[メイスがあなたの執務室で居眠りしている]
 メイス: むにゃむにゃ……寝ちゃダメ……まだ任務が……寝ちゃダメ……
@@ -5524,7 +5656,7 @@
 </t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">[メイスが炉のそばで独り言を呟いている]
 メイス: うーん……次はどんな武器作ろう……
@@ -5538,13 +5670,13 @@
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
         <is>
           <t>カスロ</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t xml:space="preserve">[カスロがあなたの執務室に入り込んできた]
 カスロ: おい、退屈で死にそうだ。もっとハイレベルな任務を寄こしやがれ！そう約束したじゃねぇか！
@@ -5557,7 +5689,7 @@
 </t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">[カスロは鏡を見ながら、新しく届いたフェイスペイントを自分の顔に塗っている]
 カスロ: これ、耐水性がイマイチだな……すぐ落ちちまいやがる。
@@ -5571,13 +5703,13 @@
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
         <is>
           <t>クリスティナ</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t xml:space="preserve">［クリスティナは訓練室でサンドバッグを叩いてボクシングの練習をしている］
 クリスティナ: 親愛なる相棒、一緒に練習しない？
@@ -5590,7 +5722,7 @@
 </t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">［クリスティナは眼鏡を弄っている］
 クリスティナ: 相棒！見て！あたしが作った新道具！まばたきした瞬間に目の前の映像を撮影し、端末に送信することができるの。
@@ -5604,13 +5736,13 @@
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
         <is>
           <t>ライズ</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t xml:space="preserve">[運動室の前を通りかかった時、あなたはスカッシュボールに当たって倒れてしまった]
 ライズ: ごめん局長。ボールを上手くコントロールできなくて。
@@ -5623,7 +5755,7 @@
 </t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">[ライズがあなたにクーポンを渡した]
 ライズ: 「K幻量販店」ってカラオケ屋の大部屋なんだけど、局長も一緒にどう？
@@ -5637,13 +5769,13 @@
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
         <is>
           <t>ミラ</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t xml:space="preserve">[出かけようとするあなたをミラが呼び止めた]
 ミラ: 私が思うに、局長にはまだ何かが足りない気がするわ。砂の海へ遠征するなら、もっと装備が必要よ。よければ私の棚から取っていってちょうだい。
@@ -5656,7 +5788,7 @@
 </t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">[ミラは洗ったばかりのシーツを干している]
 ミラ: シーツの交換、床掃除、部屋の片付け……やるべき家事は山積みね。でも幸い、ディスの気候は砂の海と違うから、乾いたばかりのシーツが跡形もなく消えたりしないし、追いかける時間を節約できるわ。
@@ -5670,13 +5802,13 @@
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
         <is>
           <t>アイン</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t xml:space="preserve">[アインが手術室から出てきた」
 アイン: 用事があるなら、早く言ってくれ。お互い時間は貴重だろう？
@@ -5689,7 +5821,7 @@
 </t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">[アインはコンビクトたちを見て、抑えきれないほどのため息をついた]
 アイン: いつになったらあのコンビクトたちをどうにかしてくれるんだ？
@@ -5703,13 +5835,13 @@
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
         <is>
           <t>テトラ</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t xml:space="preserve">[テトラはあなたの執務室にあるコンピュータをいじっている]
 テトラ: 局長、管理局のサイバーセキュリティに注意を払った方がいい。
@@ -5722,7 +5854,7 @@
 </t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">[テトラは管理局の書類棚に寄り掛かっており、ため息が止まらないようだ]
 テトラ: つまらない——ここもこんなにつまらないとは思わなかった。
@@ -5736,13 +5868,13 @@
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
         <is>
           <t>菫</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t xml:space="preserve">[執務室にやってきた菫は、あなたのために仕事を分担しようとしているようだ]
 菫: 局長様……何かお困りごとですか？わたしでよければ、お話を聞かせてください。
@@ -5755,7 +5887,7 @@
 </t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">[菫は花びらをつまんで慌てふためいた]
 菫: 花庭園の殺し屋が……ここに来たのですか？
@@ -5769,13 +5901,13 @@
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
         <is>
           <t>マックイーン</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t xml:space="preserve">[マックイーンがあなたを美術品オークションに誘ってきた]
 マックイーン: どうかな？興味あるかい？
@@ -5788,7 +5920,7 @@
 </t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">[美術品詐欺事件で、マックイーンに高額な罰金が課せられそうだ]
 マックイーン: 心配しないでおくれ。対処ならできる。
@@ -5802,13 +5934,13 @@
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
         <is>
           <t>リン</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t xml:space="preserve">[リンはカメラを構えて温室で咲いたばかりの花を撮っているが、少し困った顔をしている]
 リン: 何か足りないような気がします……
@@ -5821,7 +5953,7 @@
 </t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">[リンは頬を赤く染めながら漫画に熱中している]
 リン: ラブラブですね……
@@ -5835,13 +5967,13 @@
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
         <is>
           <t>ガロファノ</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t xml:space="preserve">[ガロファノはカーネーションの花束を抱えている]
 ガロファノ: 今日のお部屋の飾り付けは……どの色の花がよろしいでしょうか？
@@ -5854,7 +5986,7 @@
 </t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">[ガロファノは柔らかい生地を触っている]
 ガロファノ: これを使ってパジャマをあなたに贈りたいと思っています。きっと似合うことでしょう。
@@ -5868,13 +6000,13 @@
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
         <is>
           <t>エウレカ</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t xml:space="preserve">[エウレカは旅行会社のチラシを整理している。]
 エウレカ: 旅行に行くなら……どのツアーにする？
@@ -5887,7 +6019,7 @@
 </t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">[エウレカはSF映画を紹介する雑誌を読んでいる。]
 エウレカ: こういう映画に出てくる道具はどれも面白そうだね……何か作ってほしい映画の道具とかある？
@@ -5901,13 +6033,13 @@
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
         <is>
           <t>アザミ</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t xml:space="preserve">[アザミは慌てた様子で、書きかけの手帳を閉じた]
 アザミ: いつ来たの？なんでそんな目で私を見てるのよ？こっちに来ないで！私はただ……手帳を書いてるだけよ！
@@ -5920,7 +6052,7 @@
 </t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">[アザミは管理局のグラウンドで怪我をした小さな野良猫を見つけた]
 アザミ: 血がたくさん出てるわね。局長、助けてもいい？
@@ -5934,13 +6066,13 @@
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
         <is>
           <t>シュルマ</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t xml:space="preserve">[朝、シュルマは目の下にひどいクマがある顔で部屋から出てきた]
 シュルマ: おはよう、局長。え？目の下のクマ？昨夜は作文を書いていたから寝るのが遅かったの。お気遣いありがとう。でも私のことは心配しなくて大丈夫よ。
@@ -5953,7 +6085,7 @@
 </t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">[道端にいた子猫が背中を丸め、近づいてくるシュルマに向かって威嚇するように鳴いた]
 シュルマ: ああ、まただわ……局長、どうすれば猫ちゃんと仲良くなれるの？
@@ -5967,13 +6099,13 @@
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
         <is>
           <t>プリシラ</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t xml:space="preserve">[プリシラは、あなたが自分を見つめているのに気づいたようだ]
 プリシラ: あら？あたしのマスクに興味ある？
@@ -5986,7 +6118,7 @@
 </t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">[プリシラは小道具を拭き取っている]
 プリシラ: 前のショーから随分と時間が経ってるから、小道具の中には埃をかぶってるものもあるのよ。
@@ -6000,13 +6132,13 @@
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
         <is>
           <t>ルリエカ</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t xml:space="preserve">[ルリエカはあなたの執務室を跳ね回っている]
 ルリエカ: 局長！局長！！一緒にゲームをしようよ！
@@ -6019,7 +6151,7 @@
 </t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t xml:space="preserve">[ルリエカはとても落ち込んでいるように見える]
 ルリエカ: はぁ……最近四葉のクローバーが全然見つからない……ルリの能力、効いてないのかな？
@@ -6033,13 +6165,13 @@
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
         <is>
           <t>クズリ</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t xml:space="preserve">[クズリは期待に満ちた表情であなたを見つめている]
 クズリ: 腹……減った。
@@ -6052,7 +6184,7 @@
 </t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t xml:space="preserve">[クズリは少し慌てふためいている]
 クズリ: ピーちゃん……騒がさないで。お前、助けてくれ。
@@ -6066,13 +6198,13 @@
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
         <is>
           <t>マチルダ</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t xml:space="preserve">[マチルダがあなたを射撃場へ誘った]
 マチルダ: 局長、管理局の射撃場利用規定について、たたき台を作成しました。ご確認ください。
@@ -6085,7 +6217,7 @@
 </t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t xml:space="preserve">[マチルダがあなたの執務室にやってきた]
 マチルダ: 局長、休憩中にするべき最も価値のあることは何だと思いますか？
@@ -6099,13 +6231,13 @@
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
         <is>
           <t>煙煙</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t xml:space="preserve">[図書室の入り口で異常が検出された。煙煙が神話の本を全て取り出したせいで、そのうちの1冊が偶然ドアに挟まってしまったのが原因だ]
 煙煙: あれ？局長、なんでここにいるの？
@@ -6118,7 +6250,7 @@
 </t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t xml:space="preserve">[煙煙は手作りの料理を持ってあなたの執務室に急いで入ってきた]
 煙煙: ほらほら、局長も食べてみて？ウチが時間をかけて作った故郷の料理なんだ！
@@ -6132,13 +6264,13 @@
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
         <is>
           <t>ジェイン</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t xml:space="preserve">[ジェインは管理局の警備配置図を見ながら考え込んでいる]
 ジェイン: まだ……隙があるような気がする……
@@ -6151,7 +6283,7 @@
 </t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t xml:space="preserve">[ジェインがあなたに報告するために執務室にやって来た]
 ジェイン: 割り当てられた任務は全部完了した。次の指示を頼む。
@@ -6165,13 +6297,13 @@
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
         <is>
           <t>ビクトリア</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t xml:space="preserve">[ビクトリアは部屋でずっと感心している]
 ビクトリア: ああ……この閉ざされた空間、とても落ち着くわ。
@@ -6184,7 +6316,7 @@
 </t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t xml:space="preserve">[あなたは警報を受けるとすぐにビクトリアの部屋に駆けつけた]
 ビクトリア: また……多くの血が流れている……どうしよう……
@@ -6198,13 +6330,13 @@
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
         <is>
           <t>イグニ</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t xml:space="preserve">[キャラメルプリンを持って、イグニに会いに来た]
 イグニ: あなた……わざわざわたしに会いに来たの？
@@ -6217,7 +6349,7 @@
 </t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t xml:space="preserve">[管理局の厨房で、イグニはため息が止まらないようだ]
 イグニ: ううっ……一体どうしたら料理ができるようになるんだろう。
@@ -6231,13 +6363,13 @@
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
         <is>
           <t>ルヴィア・レイ</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t xml:space="preserve">[ルヴィアのように見える]
 ルヴィア・レイ: しっ、静かにしてください。レイは眠っています……
@@ -6250,7 +6382,7 @@
 </t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t xml:space="preserve">[彼女は少しイライラしていて、レイのようにも見える]
 ルヴィア・レイ: 新作のキャスティング……すべて脇役でした。
@@ -6264,13 +6396,13 @@
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
         <is>
           <t>ヘカテー</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t xml:space="preserve">[ヘカテーは今日の予定を尋ねてきた]
 ヘカテー: 局長、本日のご命令を。
@@ -6283,7 +6415,7 @@
 </t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t xml:space="preserve">[ヘカテーは過去の作戦記録に目を通している］
 ヘカテー: わたしが消えても、次の「ヘカテー」がいます。その時にはわたしを忘れてください。
@@ -6297,13 +6429,13 @@
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
         <is>
           <t>オリバー</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t xml:space="preserve">[オリバーは人形をあなたに渡した]
 オリバー: 局長～、オリバーと遊ぼ？
@@ -6316,7 +6448,7 @@
 </t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t xml:space="preserve">[ボロボロになったオリバーが寝室で横になっている]
 オリバー: 局長……痛い……痛いよ……
@@ -6330,13 +6462,13 @@
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
         <is>
           <t>ラミア</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t xml:space="preserve">[執務室から出ると、ラミアがすぐ心配そうに近寄ってきた]
 ラミア: 局長、お疲れのようですね。リラックスが必要ではありませんか？
@@ -6349,7 +6481,7 @@
 </t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t xml:space="preserve">[ラミアは娯楽エリアで青春学園映画を観賞している。彼女は少し戸惑っているようだ]
 ラミア: 学生時代とはいったいどのようなものでしょう？なぜ大勢の人がその日々を懐かしむのでしょうか？
@@ -6363,13 +6495,13 @@
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
         <is>
           <t>アイカ</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t xml:space="preserve">[アイカが催眠室でよく使われる穏やかな音楽を何曲か聞いている]
 アイカ: うーん、どれもフワフワしててパンチが足りないなぁ。やっぱりアタイの演奏を録音して催眠室のプレイリストに追加した方がいいと思う。きっと役に立つよ～
@@ -6382,7 +6514,7 @@
 </t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t xml:space="preserve">[アイカがサックスを抱えてあなたのもとにやって来た]
 アイカ: 今日はいい日だよ。天才サックス奏者の最高な演奏にリクエストモードが追加されたんだ！さぁ、聞きたい曲を言ってみて～
@@ -6396,13 +6528,13 @@
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
         <is>
           <t>アリエル</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t xml:space="preserve">[アリエルは左右を見回して、少し慌てた様子だ]
 アリエル: 皆さん、どうしていつもわたくしを見つめているんでしょう……
@@ -6415,7 +6547,7 @@
 </t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t xml:space="preserve">[任務の後、アリエルはあなたに謝った]
 アリエル: わたくしは……いつも皆さんの足を引っ張っているようです……
@@ -6429,13 +6561,13 @@
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
         <is>
           <t>カメリアン</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t xml:space="preserve">[カメリアンの個人診療所に招待された]
 カメリアン: 最近の睡眠はどう？まだわたしの助けが必要かしら？
@@ -6448,7 +6580,7 @@
 </t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t xml:space="preserve">[カメリアンはカルテを書きながらため息をつく]
 カメリアン: 最近、治療を受けに来る人が急に増えたけど、何か思い当たることはない？
@@ -6462,13 +6594,13 @@
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
         <is>
           <t>アン</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t xml:space="preserve">[アンは以前の写真を感慨深く眺める]
 アン: 子供はとてもかわいいですね……純真で、優しい。
@@ -6481,7 +6613,7 @@
 </t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t xml:space="preserve">[患者の容態が思わしくなく、アンは少し慌てている]
 アン: 悪化し始めた患者さんがいます。あの時の彼岸クリニックのように……
@@ -6495,13 +6627,13 @@
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
         <is>
           <t>Mr.Fox</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t xml:space="preserve">[Mr.Foxがあなたの目の前でお金を数えている]
 Mr.Fox: 最近は多くの訴訟で勝訴が続いています。悪くない収入ですね。
@@ -6514,7 +6646,7 @@
 </t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t xml:space="preserve">[Mr.Foxはため息をつく]
 Mr.Fox: 最近の弁護を依頼された案件は、受けたくない案件ばかりなんですよ。
@@ -6528,13 +6660,13 @@
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
         <is>
           <t>トト</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t xml:space="preserve">[トトが皿いっぱいのトンカツを持って厨房から出てきた]
 トト: おっ、あんたも何か食べに来たのか？
@@ -6547,7 +6679,7 @@
 </t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t xml:space="preserve">[トトが大きな声で自分のチャルメラ塾を宣伝している]
 トト: へいらっしゃい！最初の20人の生徒は授業料が半額だよ——なぁ、そこのあんた、チャルメラに興味はないかい？
@@ -6561,13 +6693,13 @@
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
         <is>
           <t>レタ</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t xml:space="preserve">[レタはこっそりあなたの部屋に入り込んだ]
 レタ: 局長局長、冒険できる新しい場所を見つけたよぉ！
@@ -6580,7 +6712,7 @@
 </t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t xml:space="preserve">[あなたは管理局を抜け出してこっそりと外で遊ぶレタを捕まえた]
 レタ: あれ……わたしは、どうしてこんなところに……
@@ -6594,13 +6726,13 @@
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
         <is>
           <t>カシア</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t xml:space="preserve">[カシアは娯楽エリアで香水のレビューサイトを見ている]
 カシア: 香水の香りがますます複雑になって、工業製品のようになっているわ。このままだと純粋な香りが消えてしまう……香水のレビューまで、工業製品の匂いがする……
@@ -6613,7 +6745,7 @@
 </t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t xml:space="preserve">[美人コンテストの審査員にと、カシアは再び招待を受けた]
 カシア: どれが一番の香料……いや、美人なのか、判別してほしいのね。私が行く必要がありそうだわ……
@@ -6627,13 +6759,13 @@
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
         <is>
           <t>ショーン</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t xml:space="preserve">[ショーンは再び携帯電話を頻繁に見るようになり、メッセージが届くたびに素早く返信している］
 ショーン: 「そんなこと考えちゃダメだよ、ハニー。彼らがあなたを大事にしないのは、センスがないからだ」……ふぅ、やっと落ち着いてくれた。管理局のローカルネットワークにも、愛を求める人がこれほどいるとはね。
@@ -6646,7 +6778,7 @@
 </t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t xml:space="preserve">[ショーンは、何度更新しても端末に表示されるネットワーク切断通知にイライラしているようだ］
 ショーン: 午後3時に復旧すると言っていただろう？なぜまだ何も変わっていないんだ？管理局の通常業務に影響はないのか？
@@ -6660,13 +6792,13 @@
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
         <is>
           <t>K.K.</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t xml:space="preserve">[K.K.はあなたの執務室で指示を待っている]
 K.K.: 何か手伝いできることはない？
@@ -6679,7 +6811,7 @@
 </t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t xml:space="preserve">[K.K.が仲間のことを聞いてきた]
 K.K.: ハクイツの奴は？またどっかに行ったのか？
@@ -6693,13 +6825,13 @@
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
         <is>
           <t>デモーリー</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t xml:space="preserve">[任務を終えたデモーリーは、残りの時間をどう過ごそうか考えている]
 デモーリー: 今日は何をしたらいいかな？局長はどうして欲しい？
@@ -6712,7 +6844,7 @@
 </t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t xml:space="preserve">[デモーリーは彼女のコレクションを数えている]
 デモーリー: あたいのコレクションに何か支援してくれるのかい、局長？
@@ -6726,13 +6858,13 @@
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
         <is>
           <t>ペギー</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t xml:space="preserve">[ペギーは手早く歌詞を書いている]
 ペギー: ようっ！局長じゃないか。なんだ、ラップでも聴きたいのか？
@@ -6745,7 +6877,7 @@
 </t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t xml:space="preserve">[ペギーは苛立った様子で部屋の散乱物を蹴る]
 ペギー: ミキサーをくれるって言ってなかったっけ？どこにあるんだよ？
@@ -6759,13 +6891,13 @@
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="inlineStr">
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
         <is>
           <t>ヘラ</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t xml:space="preserve">[任務を完了したヘラが執務室の床に直接横たわっている]
 ヘラ: ねぇ——ご褒美とかないの？ディスコインがいいんだけど。
@@ -6778,7 +6910,7 @@
 </t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t xml:space="preserve">[あなたを見て、ヘラは驚いた]
 ヘラ: ちぇっ、あたしがここに隠れてるってナインちゃんが言ったの？
@@ -6792,13 +6924,13 @@
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="inlineStr">
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
         <is>
           <t>澈</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t xml:space="preserve">[澈は目覚めたばかりのように目をこする]
 澈: 何だ？お前もサボりに来たのか？
@@ -6811,7 +6943,7 @@
 </t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t xml:space="preserve">[澈は少し戸惑ったようにあなたを見ている]
 澈: 毎日のように俺たちコンビクトと一緒にいて、何か面白いか？
@@ -6825,13 +6957,13 @@
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="inlineStr">
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
         <is>
           <t>ペッパー</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t xml:space="preserve">[ペッパーが楽しそうに執務室に駆けつけた]
 ペッパー: 局長、一緒に悪いことをしよう！何か提案ある？
@@ -6844,7 +6976,7 @@
 </t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t xml:space="preserve">[ペッパーは管理局のグラウンドでとても不機嫌そうに立っている]
 ペッパー: 任務より、畑仕事の方が面白いな……
@@ -6858,13 +6990,13 @@
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="inlineStr">
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
         <is>
           <t>ラビリンス</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t xml:space="preserve">[ラビリンスは早くから執務室で待機しているようだ]
 ラビリンス: 局長様を発見いたしました。プロセスの待機中です。
@@ -6877,7 +7009,7 @@
 </t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t xml:space="preserve">[ラビリンスは管理局を掃除している]
 ラビリンス: 局長様。そこにいられると、ラビリンスの作業に支障をきたします。
@@ -6891,13 +7023,13 @@
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="inlineStr">
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
         <is>
           <t>ゲツライコウ</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t xml:space="preserve">[ゲツライコウはダガーを磨いている]
 ゲツライコウ: 次の相手は……誰だ……
@@ -6910,7 +7042,7 @@
 </t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t xml:space="preserve">[ゲツライコウは両手を握りしめ、怒っているように見える]
 ゲツライコウ: 花庭園！よくもまた私のターゲットを！
@@ -6924,13 +7056,13 @@
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="inlineStr">
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
         <is>
           <t>EMP</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t xml:space="preserve">[練習場にいるEMPはご機嫌のようだ]
 EMP: ふふ、シンジケートの無冠の王の姿を見ることを許してやろう。
@@ -6943,7 +7075,7 @@
 </t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t xml:space="preserve">[練習場にいるEMPは機嫌が悪いようだ]
 EMP: 邪魔しないで！練習中だから！
@@ -6957,13 +7089,13 @@
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="inlineStr">
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
         <is>
           <t>フローラ</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t xml:space="preserve">[フローラはメモを取り、あなたに質問を始めた]
 フローラ: まさか、今日の消防の定期点検を忘れていないですよね？
@@ -6976,7 +7108,7 @@
 </t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t xml:space="preserve">[訓練を終えたばかりのフローラは、少し落ち込んでいるようだ]
 フローラ: はぁ……どうしたら消防器具を上手く使えるんだろう。
@@ -6990,13 +7122,13 @@
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="inlineStr">
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
         <is>
           <t>ケルビン</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t xml:space="preserve">[ケルビンが食材の山を持って出迎えてくれる]
 ケルビン: 局長、管理局の厨房に冷蔵室を増設できませんか？
@@ -7009,7 +7141,7 @@
 </t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t xml:space="preserve">[ケルビンは誰かに笑われたようだ]
 ケルビン: はあ……どうしてまだ卒業できないの……
@@ -7023,13 +7155,13 @@
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="inlineStr">
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
         <is>
           <t>ジョーン</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t xml:space="preserve">[ジョーンの部屋から歌声が聞こえてくる]
 ジョーン: Come as you are——
@@ -7042,7 +7174,7 @@
 </t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t xml:space="preserve">[ジョーンは昔のライブの写真を眺めながら、考え込んでいる]
 ジョーン: いつになったらこの生活が終わるんだよっ！ライブに行きてえ。
@@ -7056,13 +7188,13 @@
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="inlineStr">
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
         <is>
           <t>マキアート</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t xml:space="preserve">[マキアートは心身ともに幸せそうだ]
 マキアート: 気持ちよくなってしまう敵もいるのよ。
@@ -7075,7 +7207,7 @@
 </t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t xml:space="preserve">[マキアートは居眠りしている]
 マキアート: ニューシティ銀行へようこそ！あっ、違う！管理局でした！
@@ -7089,13 +7221,13 @@
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="inlineStr">
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
         <is>
           <t>リザー</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t xml:space="preserve">[リザーは絵を取り出し、テーブルに置いた]
 リザー: 数枚の絵が届いたわ。しばらく楽しむことができそうね。
@@ -7108,7 +7240,7 @@
 </t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t xml:space="preserve">[リザーが画板の前に座り、ため息をつく]
 リザー: 線が上手く書けないわ……
@@ -7133,7 +7265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8233,10 +8365,43 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
+          <t>보투르.블루</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[보투르.블루가 애프터눈 티를 즐기고 있다]
+보투르.블루: 왔네? 햇살도 좋고 모처럼 한가한 것 같은데 와서 특제 디저트 좀 먹어볼래? 차도 우렸어. 골라 봐, 어떤 디저트 먹고 싶어?
+Prompt: 블루베리 치즈 케이크
+보투르.블루: 음~ 향긋하고 맛도 괜찮네. 단맛도 적당하고… 방금까지 바쁘게 일하신 국장님께는 애프터눈 티를 한잔하며 여유를 즐기는 게 꼭 필요할 것 같아.
+보투르.블루: 'atlas/monthsign/sprite_dailysign_face_7.png', 'atlas/monthsign/sprite_dailysign_face_7.png', 'atlas/monthsign/sprite_dailysign_face_7.png'
+Prompt: 딸기 크림 크레페
+보투르.블루: 같이 먹어보자… 너무 달다고? 하하, 쓴맛이 가득한 인생에 때로는 달콤한 맛이 필요하지.
+보투르.블루: 'atlas/monthsign/sprite_dailysign_face_8.png', 'atlas/monthsign/sprite_dailysign_face_8.png', 'atlas/monthsign/sprite_dailysign_face_8.png'
+</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[창가에 앉아 있던 보투르.블루가 당신의 시선을 느끼고 돌아보며 웃는다]
+보투르.블루: 뭐야? 왜 그렇게 쳐다봐? 우리가 이웃이었던 나날이 그리운 거야?
+Prompt: 맞아
+보투르.블루: 그래? 그럼 내가 제출한 신청서, 국장이 꼭 허가해 줘. 그럼 머지않아 계속해서 이웃으로 지낼 수 있을 거야~
+보투르.블루: 'atlas/monthsign/sprite_dailysign_face_4.png', 'atlas/monthsign/sprite_dailysign_face_4.png', 'atlas/monthsign/sprite_dailysign_face_4.png'
+Prompt: 아니야
+보투르.블루: 그래? 국장 옆방으로 옮기고 싶었는데 아쉽네.
+보투르.블루: 'atlas/monthsign/sprite_dailysign_face_1.png', 'atlas/monthsign/sprite_dailysign_face_1.png', 'atlas/monthsign/sprite_dailysign_face_1.png'
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
           <t>하멜</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t xml:space="preserve">[훈련실에서 춤을 연습하고 있는 하멜을 발견했다]
 하멜: 저의… 관중이 되어주러 오셨나요?
@@ -8249,7 +8414,7 @@
 </t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">[하멜이 침실의 잡동사니에 걸려 넘어졌다]
 하멜: 살려주세요… 침실에서… 춤 연습을 할 수 없어요. 너무 지저분하네요.
@@ -8263,13 +8428,13 @@
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>엔퍼</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t xml:space="preserve">[엔퍼가 조금 곤란해 보인다]
 엔퍼: 새로 주문한 조각상을 만드는 데 쓸 석재가 좀 이상한것 같아요.
@@ -8282,7 +8447,7 @@
 </t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">[엔퍼의 작품은 너무 사실적이라 많은 사람을 놀라게 한다]
 엔퍼: 무슨 일 있으세요?
@@ -8296,13 +8461,13 @@
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>카베르네</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t xml:space="preserve">[오늘 카베르네와 함께 점심을 먹을 때, 그녀는 생각에 잠긴 듯 계속 당신을 주시했다]
 카베르네: 난 언제쯤에야 맛볼 수 있을까? 국장… 이 직접 만든 요리 말이야.
@@ -8315,7 +8480,7 @@
 </t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">[카베르네가 심심하다는 듯 텔레비전에서 방송하는 음식 프로그램을 보고 있다]
 카베르네: 국장은 어떤 메뉴를 더 좋아하지?
@@ -8329,13 +8494,13 @@
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>코쿠리코</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t xml:space="preserve">[코쿠리코가 온실에서 흙을 살펴보고 있다]
 코쿠리코: 여기에 어떤 꽃을 심으면 좋을 것 같아?
@@ -8348,7 +8513,7 @@
 </t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">[코쿠리코가 오락 구역에서 쇼핑물을 보고 있다]
 코쿠리코: 너라면 어느 브로치를 고를 것 같아?
@@ -8362,13 +8527,13 @@
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>이브</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t xml:space="preserve">[이브가 재질이 다른 인형 옷 두 벌을 비교하고 있다]
 이브: 곰돌이한테는 실크가 더 어울릴까요… 아니면 면이 더 나을까요?
@@ -8381,7 +8546,7 @@
 </t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">[이브의 휠체어가 파손된 타일에 낀 것 같다]
 이브: 전에 말씀드렸잖아요. 이 몸은 아주 작은 장애물도 극복할 수 없다고요… 전 신경 쓰지 마시고 국장님의 할 일을 처리하러 가세요.
@@ -8395,13 +8560,13 @@
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>두약</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t xml:space="preserve">[두약이 비단 주머니를 던지며 놀고 있다]
 두약: 마침 잘 오셨어요. 제가 물건으로 점을 쳐 운세를 봐 드릴게요… 음, 이건?
@@ -8414,7 +8579,7 @@
 </t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">[두약이 휴게실에서 향을 피웠다]
 두약: 눈을 감고 생각에 잠기면 연기가 당신이 그리워하는 이의 모습으로 변한다고 해요… 어때요, 해보시겠어요?
@@ -8428,13 +8593,13 @@
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>L.L.</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t xml:space="preserve">[L.L.이 당신의 이미지 데이터를 복사해 전자 펫을 만들었다]
 L.L.: 어머, 이것 봐봐, 얼마나 귀여운지! 리오도 '당신' 주변에서 쉴 새 없이 헤엄치고 있어~
@@ -8447,7 +8612,7 @@
 </t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">[L.L.이 갑자기 뒤에서 다가와, 몸에 마르지 않은 물방울이 당신의 옷에 떨어졌다]
 L.L.: 앗, 실수로 물을 묻혔네. 젖은 옷을 입고 있으면 추울 텐데, 내 품에 안길래? 내 품은 생각보다 훨씬 따뜻해.
@@ -8461,13 +8626,13 @@
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>첼시 백작</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t xml:space="preserve">[첼시가 보석 하나를 당신 앞으로 내민다]
 첼시 백작: 받아, 이건 네 기념품이야.
@@ -8480,7 +8645,7 @@
 </t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">[시트리를 바라보고 있는 첼시, 생각에 잠긴 듯 하다]
 첼시 백작: 여기서 고양이를 왜 못 키우는 건데?
@@ -8494,13 +8659,13 @@
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>시나바</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t xml:space="preserve">[시나바의 수용실을 지나쳤다]
 시나바: 오늘 제 밀착 보호가 필요하신가요?
@@ -8513,7 +8678,7 @@
 </t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">[임무를 완성한 시나바, 무슨 생각을 하고 있는 듯 하다]
 시나바: 에휴, 저의 과거 경력은 관리국에서 별로 쓸모가 없군요.
@@ -8527,13 +8692,13 @@
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>카와카와</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t xml:space="preserve">[카와카와가 기대에 찬 얼굴로 바라보고 있다]
 카와카와: 국장! 언제 화이트 샌드로 돌아가?
@@ -8546,7 +8711,7 @@
 </t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">[카와카와가 속상해 보인다]
 카와카와: 국장, 내 비콘 몇 개가 사라졌어.
@@ -8560,13 +8725,13 @@
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>레비</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t xml:space="preserve">[매우 화려한 새 옷을 입은 레비가 당신의 앞에서 한바퀴 돌았다]
 레비: 어때, 어울려?
@@ -8579,7 +8744,7 @@
 </t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">[레비가 직원 두 명과 포커를 하고 있다]
 레비: 이걸 어쩌나? 내가 또 이겨버렸네?
@@ -8593,13 +8758,13 @@
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>유니</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t xml:space="preserve">[유니가 미간을 찌푸리며 당신 곁을 지났다]
 유니: 귀걸이를 왜 한쪽만 했지?
@@ -8612,7 +8777,7 @@
 </t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">[유니가 전단지 한 장을 들고 자세히 살펴보고 있다]
 유니: 이 사람 나한테 왔다 간 다음에 또 얼굴에 손댔나…?
@@ -8626,13 +8791,13 @@
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>니노</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t xml:space="preserve">[니노가 구매신청서를 당신 앞에 내밀었다]
 니노: 짜짠, 랜덤 임무에 당첨되셨습니다. 이 니노 님을 위해 간식을 채워 넣으시오~
@@ -8645,7 +8810,7 @@
 </t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">[니노가 라이브 방송의 조회수 그래프를 보고 있다]
 니노: 뭐야, 요즘 인기가 너무 많이 떨어졌잖아! 이거 완전히 니노 님 라이브 방송 초유의 흑역사잖아?!
@@ -8659,13 +8824,13 @@
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>콜란</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t xml:space="preserve">[콜란이 단말기를 들고 관리국 인트라넷의 게시글을 뚫어져라 쳐다보고 있다]
 콜란: 아하, 걔랑 걔가 의형제를 맺었고 걔랑 걔는 서로 사이가 안 좋았던 거구나, 국장도 악의 무리가 자신을 유혹하기 위해 보냈던 성숙미 넘치던 여성을 좋아했다니…
@@ -8678,7 +8843,7 @@
 </t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">[콜란이 페이의 상품 목록 속 값비싸고 한정판인 인형 키링에 눈독을 들이고 있다]
 콜란: 젠장, 돈이 모자라! 여기선 파이터 일도 못 하게 하니 어떻게 돈을 따… 아니, 용돈을 벌지? 아, 알겠다, 정보와 가십거리를 파는 거야!
@@ -8692,13 +8857,46 @@
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>도브</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[도브가 관리국 사람들에게 편지를 배달하고 있다]
+도브: 국장님? 마침 잘 됐다, 여기 편지 두 통 중에 어떤 게 국장님 것인지 맞춰보세요.
+Prompt: 분홍색 편지
+도브: 엇, 분홍색 편지에는 하트 모양 스티커가 붙어있어요, 러브 레터일지도 모르죠! 에이, 열어보지도 않았으면서 왜 아니라고 생각해요~ 정말로… 국장님한테 온 편지일 수도 있잖아요?
+도브: 'atlas/monthsign/sprite_dailysign_face_8.png', 'atlas/monthsign/sprite_dailysign_face_8.png', 'atlas/monthsign/sprite_dailysign_face_8.png'
+Prompt: 파란색 편지
+도브: 그 많은 편지 중에 이 편지를 선택하다니, 우린 운명인가 봐요. 국장님이 저에 대해 너무 잘 아는 건가요? 아니면… 제가 애초에 국장님이 열어보길 바란 것이었을까요?
+도브: 'atlas/monthsign/sprite_dailysign_face_4.png', 'atlas/monthsign/sprite_dailysign_face_4.png', 'atlas/monthsign/sprite_dailysign_face_4.png'
+</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[도브가 그녀에게 온 편지를 받고도 열어보지 않고 무언가를 준비하고 있는 듯하다]
+도브: 집배원한테 편지를 쓰는 사람도 다 있네, 뭐라고 답장하지…? 하하, 너무 어려운데? 달콤한 말로 속여 함정에 빠뜨릴까? 아니면 겁을 줘 볼까…
+Prompt: 보낸 사람이 누구인지 확인해 봐
+도브: 보낸 사람이… 미노스 위기관리국 국장님이네요… 오, 도브처럼 보잘것없는 사람까지 직접 감시하시다니, 역시 세심하시네요~
+도브: 'atlas/monthsign/sprite_dailysign_face_8.png', 'atlas/monthsign/sprite_dailysign_face_8.png', 'atlas/monthsign/sprite_dailysign_face_8.png'
+Prompt: 편지를 열어봐
+도브: '진심을 담아 보내는 편지로 소통하라'… 이 글씨… 국장님 글씨네요… 이게 저한테 하고 싶은 말인가요…?
+도브: 'atlas/monthsign/sprite_dailysign_face_6.png', 'atlas/monthsign/sprite_dailysign_face_6.png', 'atlas/monthsign/sprite_dailysign_face_6.png'
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>나인티나인</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t xml:space="preserve">[나인티나인이 자신의 칼로 계속해서 땅을 내려치고 있다]
 나인티나인: 훈련은… 언제 시작해?
@@ -8711,7 +8909,7 @@
 </t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">[나인티나인이 수감실 문을 두드리자, 실내 온도가 급격히 상승한다]
 나인티나인: 으아아… 아아!!
@@ -8725,13 +8923,13 @@
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>웬디</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t xml:space="preserve">[체인톱을 든 웬디와 복도에서 마주쳤다]
 웬디: 러스트 리버의 괴변체… 얼마나 더 남았지?
@@ -8744,7 +8942,7 @@
 </t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">[웬디가 눈앞의 자료를 갈기갈기 찢어버렸다]
 웬디: 괴… 괴변체가 왜 또 움직이는 거야!
@@ -8758,13 +8956,13 @@
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>파카시</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t xml:space="preserve">[파카시의 방은 책으로 가득했다]
 파카시: 여기에… 다른 문헌 자료도 있나요?
@@ -8777,7 +8975,7 @@
 </t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">[당신은 파카시를 보러 갈 예정이다]
 파카시: 다가오지… 말아요, 불행해질 수도 있으니까.
@@ -8791,13 +8989,13 @@
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
         <is>
           <t>돌리</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t xml:space="preserve">[돌리가 야구 경기를 보고 있다]
 돌리: 잠깐! 이제 막 하이라이트야, 방해하지 말아 줄래?
@@ -8810,7 +9008,7 @@
 </t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">[돌리가 침울한 얼굴로 야구방망이를 보고 있다]
 돌리: 구매센터에서 들여온 이번 물품들 상태가 영 별로네… 몇 번 휘둘렀더니, 툭 부러졌어!
@@ -8824,13 +9022,13 @@
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
         <is>
           <t>히로</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t xml:space="preserve">[히로가 막 도착한 우유 한박스를 들고 있다]
 히로: 국장님, 이거 한번 마셔보실래요~?
@@ -8843,7 +9041,7 @@
 </t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">[도끼를 들고 있는 히로, 넋이 나간 듯하다]
 히로: 에휴… 조야 보스는 왜 나랑 말을 안 섞는 걸까요…
@@ -8857,13 +9055,13 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
         <is>
           <t>메스</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t xml:space="preserve">[메스가 당신의 사무실에서 꾸벅꾸벅 졸고 있다]
 메스: 음, 자면 안 돼… 아직 임무가… 잠들면 안 돼…
@@ -8876,7 +9074,7 @@
 </t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">[메스가 단조로 옆에서 중얼거리고 있다]
 메스: 음… 다음 무기는 뭘 만들까…
@@ -8890,13 +9088,13 @@
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
         <is>
           <t>캐슬로</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t xml:space="preserve">[캐슬로가 당신의 사무실로 들이닥쳤다]
 캐슬로: 어이, 나 요즘 너무 지루해. 더 어려운 임무를 주기로 했잖아!
@@ -8909,7 +9107,7 @@
 </t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">[캐슬로가 거울을 보며 새로 도착한 유성 화장품을 바르고 있다]
 캐슬로: 관리국에서 산 건데 방수가 잘 안 되네… 돈만 날렸어.
@@ -8923,13 +9121,13 @@
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
         <is>
           <t>크리스티나</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t xml:space="preserve">[크리스티나가 훈련실에서 샌드백을 치며 스파링 연습을 하고 있다]
 크리스티나: 오, 사랑하는 조수여, 나랑 연습 좀 할래?
@@ -8942,7 +9140,7 @@
 </t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">[크리스티나가 한 쌍의 안경을 만지고 있다]
 크리스티나: 조수! 얼른 와서 내가 새로 만든 도구 좀 봐봐! 눈을 깜빡일 때 네 눈앞의 장면을 찍어서 단말기로 보내줄 수 있어.
@@ -8956,13 +9154,13 @@
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
         <is>
           <t>라이즈</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t xml:space="preserve">[운동실 문 앞을 지나가던 당신은 강하게 날아 온 스쿼시 공에 맞아 쓰러졌다]
 라이즈: 미안해, 국장. 내가 스쿼시 공을 제대로 못 쳐서 그만...
@@ -8975,7 +9173,7 @@
 </t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">[라이즈가 쿠폰을 한 장 건네줬다]
 라이즈: '초대형 노래방'을 잡았는데, 같이 갈래?
@@ -8989,13 +9187,13 @@
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
         <is>
           <t>미라</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t xml:space="preserve">[미라가 문밖으로 나서려는 당신을 불러 세웠다]
 미라: 제가 보기엔, 국장님께선 아직 준비가 제대로 되지 않은 것 같아요. 화이트 샌드에 갈 땐 꼭 챙겨야 하는 물건이 몇 가지 있거든요. 괜찮으시다면 제 진열대에 있는 걸 가져가세요.
@@ -9008,7 +9206,7 @@
 </t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">[미라가 세탁한 침대 시트를 널고 있다]
 미라: 침대 시트 빨고, 바닥 청소하고, 방 정리하고… 할 일이 너무 많아요. 그래도 디스는 날씨가 화이트 샌드 같지 않아서, 세탁 후 널어둔 시트가 온데간데없이 사라져 찾으러 다닐 필요가 없어서 다행이에요.
@@ -9022,13 +9220,13 @@
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
         <is>
           <t>아이언</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t xml:space="preserve">[아이언이 수술실에서 나온다]
 아이언: 할 말 있으면 빨리 해, 우리 시간은 소중하다고.
@@ -9041,7 +9239,7 @@
 </t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">[아이언이 수감자들을 보며 한숨을 쉰다]
 아이언: 수감자들을 언제 관리할 생각이야?
@@ -9055,13 +9253,13 @@
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
         <is>
           <t>테트라</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t xml:space="preserve">[테트라가 사무실에서 컴퓨터를 수리하고 있다]
 테트라: 국장, 관리국의 인터넷 보안에 주의하는 게 좋을 거야.
@@ -9074,7 +9272,7 @@
 </t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">[테트라가 관리국 서류함 앞에서 한숨을 쉰다]
 테트라: 심심해~ 여기도 이렇게 지루할 줄은 몰랐네.
@@ -9088,13 +9286,13 @@
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
         <is>
           <t>진</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t xml:space="preserve">[사무실을 찾아온 진, 과중한 업무를 덜어주려는 것 같다]
 진: 국장님… 무슨 고민 있나요? 괜찮다면 제게 털어놓으셔도 됩니다.
@@ -9107,7 +9305,7 @@
 </t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">[꽃잎 하나를 꽉 쥐고 있는 진, 당황하는 기색이 역력하다]
 진: 화원의 킬러가… 얼마 전에 나타났었다고요?
@@ -9121,13 +9319,13 @@
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
         <is>
           <t>맥퀸</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t xml:space="preserve">[맥퀸이 당신을 예술품 경매에 초대했다]
 맥퀸: 어때? 관심 있어?
@@ -9140,7 +9338,7 @@
 </t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">[맥퀸이 예술품 사기 때문에 거액의 벌금을 내야 한다]
 맥퀸: 걱정할 거 없어. 대처할 방법이 있거든.
@@ -9154,13 +9352,13 @@
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
         <is>
           <t>린</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t xml:space="preserve">[카메라를 들고 온실에 새로 핀 꽃들을 촬영하고 있는 린의 얼굴색이 어두워 보인다]
 린: 뭔가 부족한 것 같은데…
@@ -9173,7 +9371,7 @@
 </t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">[린이 붉은 얼굴로 집중해서 만화를 보고 있다]
 린: 정말 달달해…
@@ -9187,13 +9385,13 @@
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
         <is>
           <t>가로파노</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t xml:space="preserve">[가로파노가 카네이션 한 다발을 들고 있다]
 가로파노: 오늘은… 어떤 색의 꽃으로 방을 장식하는 게 좋을까요?
@@ -9206,7 +9404,7 @@
 </t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">[가로파노가 부드러운 원단 한 필을 쓰다듬고 있다]
 가로파노: 이걸로 잠옷을 만들어 드리려고요. 잘 어울릴 거예요.
@@ -9220,13 +9418,13 @@
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
         <is>
           <t>유레카</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t xml:space="preserve">[유레카가 여행사 전단지를 정리하고 있다]
 유레카: 국장, 당신이 여행을 간다면… 어느 코스를 선택할 것 같아?
@@ -9239,7 +9437,7 @@
 </t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">[유레카가 SF 영화 잡지를 보고 있다]
 유레카: 이 영화에 나오는 도구들이 정말 재미있어 보인단 말이지… 국장, 영화 속 도구 중에 내가 만들어 줬으면 하는 게 있어?
@@ -9253,13 +9451,13 @@
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
         <is>
           <t>시슬</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t xml:space="preserve">[시슬은 당황한 기색으로 반쯤 적은 다이어리를 덮었다]
 시슬: 언제 들어왔어? 왜 그런 눈으로 쳐다보는 거야? 오지 마! 난 그저… 다이어리를 쓰고 있었어!
@@ -9272,7 +9470,7 @@
 </t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">[시슬은 관리국 운동장에서 다친 길고양이를 발견했다]
 시슬: 피를 많이 흘렸어. 국장, 우리가 도와주면 안 돼?
@@ -9286,13 +9484,13 @@
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
         <is>
           <t>슈르마</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t xml:space="preserve">[아침에 슈르마는 다크서클이 가득한 채로 방을 나섰다]
 슈르마: 안녕하세요, 국장님. 눈 밑에 다크서클이 생겼다고요? 어젯밤에 글을 쓰느라 좀 늦게 잤어요. 걱정해 주셔서 감사하지만, 괜찮습니다.
@@ -9305,7 +9503,7 @@
 </t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">[길고양이가 자신에게 다가오는 슈르마를 보고 하악거렸다]
 슈르마: 하아, 또 이렇게 됐네… 국장님, 어떻게 하면 고양이와 친해질 수 있나요?
@@ -9319,13 +9517,13 @@
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
         <is>
           <t>프리실라</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t xml:space="preserve">[프리실라가 그녀를 주시하고 있는 것을 발견한 것 같다]
 프리실라: 왜요? 제 가면에 관심 있으세요?
@@ -9338,7 +9536,7 @@
 </t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">[프리실라가 그녀의 소품을 닦고 있다]
 프리실라: 공연을 안 한 지 꽤 됐네요. 소품에 먼지가 한가득 쌓였군요.
@@ -9352,13 +9550,13 @@
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
         <is>
           <t>로레카</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t xml:space="preserve">[로레카가 사무실에서 발을 총총거리고 있다]
 로레카: 국장님~ 국장님~ 이리 와서 같이 게임 해요!
@@ -9371,7 +9569,7 @@
 </t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t xml:space="preserve">[로레카의 기분이 가라앉은 것 같다]
 로레카: 에휴… 요즘 찾은 클로버는 죄다 잎이 3개뿐이에요. 로레카의 능력 효과가 떨어진 걸까요.
@@ -9385,13 +9583,13 @@
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
         <is>
           <t>울버린</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t xml:space="preserve">[울버린이 기대감에 찬 얼굴로 당신을 바라보고 있다]
 울버린: 나… 배고파…
@@ -9404,7 +9602,7 @@
 </t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t xml:space="preserve">[울버린이 허둥지둥 대고 있다]
 울버린: 피이… 가만히 있어. 국장, 좀 도와줘.
@@ -9418,13 +9616,13 @@
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
         <is>
           <t>마틸다</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t xml:space="preserve">[마틸다는 당신을 사격장으로 초대했다]
 마틸다: 국장님, 관리국 사격장의 사용 규범에 대해 제가 대략 내용을 작성해 보았는데, 검토 부탁드립니다.
@@ -9437,7 +9635,7 @@
 </t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t xml:space="preserve">[마틸다가 당신의 사무실을 방문했다]
 마틸다: 국장님, 휴식 시간에 뭘 해야 가장 가치 있을까요?
@@ -9451,13 +9649,13 @@
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
         <is>
           <t>옌옌</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t xml:space="preserve">[옌옌이 신화 서적을 모조리 꺼내면서 그중 한 권이 문틈에 끼워져 도서실의 경비 시스템이 울렸다]
 옌옌: 음? 여긴 무슨 일이야?
@@ -9470,7 +9668,7 @@
 </t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t xml:space="preserve">[옌옌이 직접 만든 음식을 들고 당신의 사무실로 헐레벌떡 뛰어 들어왔다]
 옌옌: 빨리, 빨리, 먹어봐! 이거 내가 한참 공들여 만든 고향 요리야!
@@ -9484,13 +9682,13 @@
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
         <is>
           <t>제인</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t xml:space="preserve">[제인이 관리국의 경호 인력 배치도를 보고 생각에 잠겼다]
 제인: 왠지… 어딘가 허술한 곳이 있는 것 같아요…
@@ -9503,7 +9701,7 @@
 </t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t xml:space="preserve">[제인이 사무실에 와서 당신에게 보고했다]
 제인: 지시하신 임무는 전부 끝냈어요. 이제 무슨 일을 하면 되죠?
@@ -9517,13 +9715,13 @@
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
         <is>
           <t>빅토리아</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t xml:space="preserve">[빅토리아는 자신의 방에서 한숨을 쉬고 있다]
 빅토리아: 아… 이 꽉 막힌 공간이 안정적으로 느껴지네요.
@@ -9536,7 +9734,7 @@
 </t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t xml:space="preserve">[경보를 듣고 즉각 빅토리아의 방으로 찾아갔다]
 빅토리아: 또 피를… 많이 흘렸어요… 이제 어쩌죠…
@@ -9550,13 +9748,13 @@
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
         <is>
           <t>이그니스</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t xml:space="preserve">[캐러멜 푸딩을 가지고 이그니스를 찾아왔다]
 이그니스: 당신은… 날 보러 온 거예요?
@@ -9569,7 +9767,7 @@
 </t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t xml:space="preserve">[관리국 주방, 이그니스가 계속해서 한숨을 쉬고 있다]
 이그니스: 아이고… 요리는 대체 어떻게 하는 거예요?
@@ -9583,13 +9781,13 @@
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
         <is>
           <t>루비아.레이</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t xml:space="preserve">[루비아 같아 보인다]
 루비아.레이: 쉿~ 조용히 해요, 레이가 자고 있으니 깨우지 말아요.
@@ -9602,7 +9800,7 @@
 </t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t xml:space="preserve">[욱하는 그녀는 아마 레이인 것 같다]
 루비아.레이: 새로 받은 시나리오는… 모두 조연이네.
@@ -9616,13 +9814,13 @@
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
         <is>
           <t>헤카테</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t xml:space="preserve">[헤카테가 오늘의 스케줄을 문의한다]
 헤카테: 국장님, 오늘의 명령을 내려 주십시오.
@@ -9635,7 +9833,7 @@
 </t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t xml:space="preserve">[헤카테가 과거 임무 기록을 살펴보고 있다]
 헤카테: 제가 사라지면 또 다른 '헤카테'가 나타날 것입니다. 그땐 저를 잊으십시오.
@@ -9649,13 +9847,13 @@
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
         <is>
           <t>올리버</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t xml:space="preserve">[올리버가 당신에게 장난감을 건넨다]
 올리버: 국장님~ 올리버와 한 게임 하지 않을래요?
@@ -9668,7 +9866,7 @@
 </t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t xml:space="preserve">[상처투성이가 된 올리버가 침실에 누워있다]
 올리버: 국장님… 너무 아파… 아프단 말이에요…
@@ -9682,13 +9880,13 @@
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
         <is>
           <t>라미아</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t xml:space="preserve">[사무실에서 나오자 라미아가 당신을 굉장히 반갑게 맞이했다]
 라미아: 국장님, 피곤해 보이시는데 좀 쉬는 건 어때요?
@@ -9701,7 +9899,7 @@
 </t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t xml:space="preserve">[라미아가 의문이 가득 담긴 표정으로 오락 구역에서 청춘 캠퍼스 영화를 보고 있다]
 라미아: 학창 시절은 도대체 어떤 모습이길래 다들 그 시절을 그리워하는 거죠?
@@ -9715,13 +9913,13 @@
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
         <is>
           <t>에코</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t xml:space="preserve">[에코가 최면실에 사용된 경음악을 경청하고 있다]
 에코: 에휴, 이런 것들은 너무 조곤조곤해서 느낌이 부족해. 역시 에코의 연주 녹음이 최면실의 플레이리스트에 수록되어야 해, 분명 효과가 좋을 거야~
@@ -9734,7 +9932,7 @@
 </t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t xml:space="preserve">[에코가 그녀의 색소폰을 들고 당신에게 다가왔다]
 에코: 오늘은 운수가 좋은 날이야, 왜냐면 색소폰 천재가 신청곡을 받아서 연주해 주는 날이거든! 자, 신청곡을 얘기해 봐~
@@ -9748,13 +9946,13 @@
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
         <is>
           <t>아리엘</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t xml:space="preserve">[주위를 두리번거리는 아리엘, 긴장해 보인다]
 아리엘: 다들 왜 그렇게 절 계속 쳐다보는 거죠…
@@ -9767,7 +9965,7 @@
 </t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t xml:space="preserve">[임무를 완성한 아리엘이 사과를 한다]
 아리엘: 제가 자꾸만 여러분의 발목을 잡는 것 같아요…
@@ -9781,13 +9979,13 @@
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
         <is>
           <t>카멜리안</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t xml:space="preserve">[카멜리안의 개인 병원에 초대를 받았다]
 카멜리안: 요즘 잠은 잘 자나요? 제 도움이 더 필요하신가요?
@@ -9800,7 +9998,7 @@
 </t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t xml:space="preserve">[카멜리안이 병력을 작성하며 한숨을 쉰다]
 카멜리안: 요즘 제게 진찰받는 사람들이 많아졌는데, 왜 그럴까요?
@@ -9814,13 +10012,13 @@
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
         <is>
           <t>앤</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t xml:space="preserve">[앤이 옛 사진을 보며 생각에 잠긴다]
 앤: 어린아이들은 정말 귀여워요… 참 순수하고 착하죠.
@@ -9833,7 +10031,7 @@
 </t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t xml:space="preserve">[환자 상태가 좋지 않자, 앤이 당황한다]
 앤: 환자들 상황이 악화되기 시작했어요. 구원 병원 당시 상황도 그랬지요…
@@ -9847,13 +10045,13 @@
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
         <is>
           <t>Mr.Fox</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t xml:space="preserve">[Mr.Fox가 돈을 세고 있다]
 Mr.Fox: 요즘 소송에서 계속 이기고 있어요. 수입이 꽤 괜찮네요.
@@ -9866,7 +10064,7 @@
 </t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t xml:space="preserve">[Mr.Fox가 한숨을 쉰다]
 Mr.Fox: 요즘 의뢰가 들어오는 변호 사건들을 별로 담당하고 싶지 않네요.
@@ -9880,13 +10078,13 @@
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
         <is>
           <t>토토</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t xml:space="preserve">[토토는 돈가스 가득 담긴 접시를 들고 주방에서 나왔다]
 토토: 어, 사장도 야식 먹으러 온 거야?
@@ -9899,7 +10097,7 @@
 </t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t xml:space="preserve">[토토는 우렁찬 목소리로 그녀의 나팔 학원을 홍보하고 있다]
 토토: 기회를 놓치지 마세요! 선착순 20명한테만 학비 반값 할인해 드립니다! 아이고, 저기 사장, 가지 마. 나팔 배울래?
@@ -9913,13 +10111,13 @@
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
         <is>
           <t>레타</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t xml:space="preserve">[레타가 슬그머니 당신의 방에 들어갔다]
 레타: 국장님, 국장님, 제가 또 새로운 모험 장소를 찾아냈어요!
@@ -9932,7 +10130,7 @@
 </t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t xml:space="preserve">[레타가 몰래 나가 놀다가 당신에게 잡혔다]
 레타: 으음… 내가 대체, 왜 여기에 서 있는 거지…
@@ -9946,13 +10144,13 @@
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
         <is>
           <t>카시아</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t xml:space="preserve">[카시아가 오락 구역에서 향수 평가 사이트를 구경하고 있다]
 카시아: 향수의 향은 점점 더 복잡해지고 상업화되고 있어, 머지않아 순수한 향은 사라지고 말겠지… 향수의 느낌조차 역겨운 상업적인 냄새로 가득해…
@@ -9965,7 +10163,7 @@
 </t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t xml:space="preserve">[카시아가 이번에도 미인 대회 심사위원 초대장을 받았다]
 카시아: 내가 최고의 향료… 크흠, 최고의 미인을 선별해 내려면, 현장에 가야만 하거든…
@@ -9979,13 +10177,13 @@
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
         <is>
           <t>숀</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t xml:space="preserve">[숀이 또 시도 때도 없이 휴대폰을 확인하며 메시지가 올 때마다 재빨리 답장을 보냈다]
 숀: '그렇게 생각하지 마. 자기야, 그 사람들이 보는 눈이 없어서 자기를 소중하게 생각할 줄 모르는 거야.' …후. 드디어 달랬네. 관리국에도 이렇게까지 사랑을 갈구하는 사람이 있다니.
@@ -9998,7 +10196,7 @@
 </t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t xml:space="preserve">[숀은 몇 번씩이나 새로고침해도 뜨는 연결 끊김 안내에 짜증을 내고 있다]
 숀: 오후 세 시면 복구된다고 했잖아? 왜 아직도 안 돼? 이대로라면 관리국 업무에 영향을 주지 않아?
@@ -10012,13 +10210,13 @@
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
         <is>
           <t>K.K.</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t xml:space="preserve">[K.K.가 사무실에서 명령을 기다리고 있다]
 K.K.: 내가 도울 일이 있어?
@@ -10031,7 +10229,7 @@
 </t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t xml:space="preserve">[K.K.이 과거 파트너에 관해 묻는다]
 K.K.: 백은? 어째서 또 보이질 않는 거지?
@@ -10045,13 +10243,13 @@
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
         <is>
           <t>데몰리아</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t xml:space="preserve">[임무를 완료한 데몰리아는 남은 시간의 스케줄을 짜고 있다]
 데몰리아: 오늘은 뭘 하면 좋을까? 국장, 추천 좀 해줘.
@@ -10064,7 +10262,7 @@
 </t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t xml:space="preserve">[데몰리아가 자신의 컬렉션을 세고 있다]
 데몰리아: 국장, 내 컬렉션 지원 좀 해주지 않을래?
@@ -10078,13 +10276,13 @@
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
         <is>
           <t>페기</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t xml:space="preserve">[페기가 재빠르게 가사를 써 내려간다]
 페기: YO, 국장 아니야? 왜, 랩 듣고 싶어서 왔나?
@@ -10097,7 +10295,7 @@
 </t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t xml:space="preserve">[페기가 불만 가득한 얼굴로 물건들을 발로 걷어찬다]
 페기: 내게 오디오 믹서를 사준다고 하지 않았나? 물건은?
@@ -10111,13 +10309,13 @@
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="inlineStr">
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
         <is>
           <t>엘라</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t xml:space="preserve">[임무를 완료한 엘라가 사무실 바닥에 그대로 드러눕는다]
 엘라: 하… 위문품 안 주나? 디스코인이었으면 좋겠는데.
@@ -10130,7 +10328,7 @@
 </t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t xml:space="preserve">[엘라는 이쪽을 보고 깜짝 놀란 듯하다]
 엘라: 쳇, 내가 여기 숨어있는걸, 나인티나인 그 녀석이 알려줬구나?
@@ -10144,13 +10342,13 @@
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="inlineStr">
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
         <is>
           <t>치이</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t xml:space="preserve">[눈을 비비는 치이, 방금 깨어난 듯하다]
 치이: 뭐죠? 당신도 농땡이 피우러 온 겁니까?
@@ -10163,7 +10361,7 @@
 </t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t xml:space="preserve">[치이가 이해가 가지 않는다는 듯이 바라보고 있다]
 치이: 온종일 우리 수감자들과 어울려 다니는 게 재밌습니까?
@@ -10177,13 +10375,13 @@
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="inlineStr">
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
         <is>
           <t>후추</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t xml:space="preserve">[한껏 업된 후추가 사무실로 들어선다]
 후추: 국장님, 오늘 말썽을 좀 부려볼까 하는데! 좋은 아이디어 없나요?
@@ -10196,7 +10394,7 @@
 </t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t xml:space="preserve">[풀이 죽은 후추가 관리국 그라운드에 서 있다]
 후추: 임무를 수행하느니 농사를 짓는 게 낫겠어요…
@@ -10210,13 +10408,13 @@
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="inlineStr">
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
         <is>
           <t>레버린스</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t xml:space="preserve">[일찌감치 사무실에 도착한 레버린스가 당신을 기다리고 있다]
 레버린스: 국장님 발견, 프로세스 대기.
@@ -10229,7 +10427,7 @@
 </t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t xml:space="preserve">[레버린스가 관리국을 청소하고 있다]
 레버린스: 국장님, 레버린스의 일을 방해하지 말아 주세요.
@@ -10243,13 +10441,13 @@
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="inlineStr">
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
         <is>
           <t>월하미인</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t xml:space="preserve">[월하미인이 자신의 비수를 닦고 있다]
 월하미인: 다음 상대는… 누구냐…
@@ -10262,7 +10460,7 @@
 </t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t xml:space="preserve">[두 주먹을 불끈 쥐는 월하미인, 화가 난듯하다]
 월하미인: 화원! 감히 내 목표를 빼앗아 가다니!
@@ -10276,13 +10474,13 @@
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="inlineStr">
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
         <is>
           <t>EMP</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t xml:space="preserve">[연습장에 있던 EMP는 기분이 좋아 보인다]
 EMP: 흥흥, 오늘은 네게 신디케이트 무관의 왕의 존영을 직시하도록 허락하겠노라.
@@ -10295,7 +10493,7 @@
 </t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t xml:space="preserve">[연습장에 있던 EMP는 기분이 나빠 보인다]
 EMP: 조용히 좀 해줘요, 활 연습 중이잖아요!
@@ -10309,13 +10507,13 @@
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="inlineStr">
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
         <is>
           <t>플로라</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t xml:space="preserve">[플로라가 메모장을 들고 질문하기 시작한다]
 플로라: 오늘은 소방 시설 정기 점검의 날이에요, 잊지 않았겠죠?
@@ -10328,7 +10526,7 @@
 </t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t xml:space="preserve">[방금 연습장에서 나온 플로라, 우울해 보인다]
 플로라: 흠… 어떻게 하면 소방 기구를 잘 활용할 수 있을까요.
@@ -10342,13 +10540,13 @@
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="inlineStr">
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
         <is>
           <t>켈빈</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t xml:space="preserve">[켈빈이 식재료를 잔뜩 든 채 인사를 건넨다]
 켈빈: 국장님, 관리국 주방에 냉장고를 하나 더 들여놔도 될까요?
@@ -10361,7 +10559,7 @@
 </t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t xml:space="preserve">[켈빈은 누군가에게 놀림을 당한 것 같다]
 켈빈: 하아… 전 어째서 아직 졸업도 못 한 걸까요…
@@ -10375,13 +10573,13 @@
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="inlineStr">
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
         <is>
           <t>조안</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t xml:space="preserve">[조안의 방에서 노랫소리가 들린다]
 조안: Come as you are——
@@ -10394,7 +10592,7 @@
 </t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t xml:space="preserve">[조안은 과거 콘서트 사진을 어루만지며 생각에 잠겨 있다]
 조안: 이런 생활은 언제쯤 끝이 날까, 공연하러 가고 싶네.
@@ -10408,13 +10606,13 @@
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="inlineStr">
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
         <is>
           <t>마키아토</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t xml:space="preserve">[마키아토가 즐거워 보인다]
 마키아토: 어떤 적들은 즐기는 것 같아요.
@@ -10427,7 +10625,7 @@
 </t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t xml:space="preserve">[마키아토가 졸고 있다]
 마키아토: 신성 은행… 앗… 아니지! 관리국에 오신 걸 환영합니다!
@@ -10441,13 +10639,13 @@
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="inlineStr">
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
         <is>
           <t>리사</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t xml:space="preserve">[리사는 왼손으로 그림을 꺼내 탁자 위에 올려 둔다]
 리사: 그림 몇 점을 받았어. 이제 맘껏 감상할 일만 남았군.
@@ -10460,7 +10658,7 @@
 </t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t xml:space="preserve">[리사는 화판 앞에 앉아 한숨을 쉰다]
 리사: 또 삐뚤어졌잖아!
@@ -10485,7 +10683,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11585,10 +11783,43 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
+          <t>蓝鹫</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[蓝鹫正在享用下午茶]
+蓝鹫: 你来了，现在阳光正好，你也难得清闲，坐下来慢慢品尝一下特供甜点如何，我沏了茶，来挑挑吧？想配哪块点心？
+Prompt: 蓝莓芝士蛋糕
+蓝鹫: 嗯~香醇可口，甜度也很适中……刚疲惫工作了一阵子的局长大人，应当最适合享用这份下午茶的惬意吧？
+蓝鹫: 'atlas/monthsign/sprite_dailysign_face_7.png', 'atlas/monthsign/sprite_dailysign_face_7.png', 'atlas/monthsign/sprite_dailysign_face_7.png'
+Prompt: 草莓奶油可丽饼
+蓝鹫: 一起尝尝吧？……你说太甜了，呵呵，生活中的苦总是需要点甜味调剂的。
+蓝鹫: 'atlas/monthsign/sprite_dailysign_face_8.png', 'atlas/monthsign/sprite_dailysign_face_8.png', 'atlas/monthsign/sprite_dailysign_face_8.png'
+</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[蓝鹫坐在窗边，察觉到你的注视，回头笑笑]
+蓝鹫: 怎么了，这样看着我，是怀念曾经与我为邻的日子吗？
+Prompt: 怀念
+蓝鹫: 是吗？既然这样，我递交的那份申请，局长大人可要双手赞同批准哦，不久之后，我们就能继续比邻而居~
+蓝鹫: 'atlas/monthsign/sprite_dailysign_face_4.png', 'atlas/monthsign/sprite_dailysign_face_4.png', 'atlas/monthsign/sprite_dailysign_face_4.png'
+Prompt: 否认
+蓝鹫: 是吗？本来还想将房间搬到局长房间旁边，那可真可惜。
+蓝鹫: 'atlas/monthsign/sprite_dailysign_face_1.png', 'atlas/monthsign/sprite_dailysign_face_1.png', 'atlas/monthsign/sprite_dailysign_face_1.png'
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
           <t>哈梅尔</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t xml:space="preserve">[你在训练室看到了练舞的哈梅尔]
 哈梅尔: 你是来……当我观众的么？
@@ -11601,7 +11832,7 @@
 </t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">[哈梅尔被卧室里的杂物所绊倒]
 哈梅尔: 救命……卧室……练不了舞，很乱。
@@ -11615,13 +11846,13 @@
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>恩菲尔</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t xml:space="preserve">[恩菲尔看上去有些困扰。]
 恩菲尔: 新订购用于雕像创作的石料似乎不太对。
@@ -11634,7 +11865,7 @@
 </t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">[恩菲尔的作品由于过于逼真吓到不少人。]
 恩菲尔: 有什么问题吗？
@@ -11648,13 +11879,13 @@
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>卡门奈特</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t xml:space="preserve">[今天与卡门奈特共进午餐时，她一直若有所思地盯着你]
 卡门奈特: 不知道我是否有机会能品尝到局长……亲手制作的料理呢？
@@ -11667,7 +11898,7 @@
 </t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">[卡门奈特正百无聊赖地看着电视机里的美食节目]
 卡门奈特: 如果是局长的话，会更喜欢哪道菜呢？
@@ -11681,13 +11912,13 @@
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>可可莉克</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t xml:space="preserve">[可可莉克正在温室里查看泥土]
 可可莉克: 你觉得在这里种点什么花会比较好？
@@ -11700,7 +11931,7 @@
 </t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">[可可莉克正在娱乐区浏览购物页面]
 可可莉克: 如果是你的话，会更喜欢哪一枚胸针？
@@ -11714,13 +11945,13 @@
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>伊芙</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t xml:space="preserve">[伊芙对比着两套质地不同的玩偶服装。]
 伊芙: 是丝绸的更适合小熊呢……还是棉布的？
@@ -11733,7 +11964,7 @@
 </t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">[伊芙的轮椅似乎卡死在了破损的地砖中。]
 伊芙: 早说了这具身体克服不了哪怕最轻微的阻碍……请不要管我，去做局长该做的事吧。
@@ -11747,13 +11978,13 @@
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>杜若</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t xml:space="preserve">[杜若随手抛玩着一个锦囊。 ]
 杜若: 来得正好，就让我以物起卦，看看尊驾的近期运势……嗯，这是？
@@ -11766,7 +11997,7 @@
 </t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">[杜若在休息室里燃起了一炉香。 ]
 杜若: 传说闭目深思，变幻的烟气便会化作所念之人的模样……怎么样，想不想试试？
@@ -11780,13 +12011,13 @@
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>L.L.</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t xml:space="preserve">[L.L.复制你的形象数据制作了一个电子桌宠。]
 L.L.: 乖——瞧瞧，“你”多可爱！小瑶也高兴地绕着“你”游个不停呢~
@@ -11799,7 +12030,7 @@
 </t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">[L.L.突然从背后靠近你，她身上未干的水珠落到了你的衣服上。]
 L.L.: 哎呀，不小心把你弄湿了呢，穿着半湿的衣服很冷吧？要抱着我取一下暖吗？我的怀抱比你想象的还要温暖哦。
@@ -11813,13 +12044,13 @@
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>切尔西伯爵</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t xml:space="preserve">[切尔西将一枚宝石递到你的面前]
 切尔西伯爵: 给，这是你的纪念品。
@@ -11832,7 +12063,7 @@
 </t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">[切尔西看着西迪，似乎若有所思]
 切尔西伯爵: 这里为什么不能养猫？
@@ -11846,13 +12077,13 @@
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>辰砂</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t xml:space="preserve">[你路过辰砂的收容室]
 辰砂: 您今天需要我的贴身保护吗？
@@ -11865,7 +12096,7 @@
 </t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">[任务结束后，辰砂似乎在思考什么]
 辰砂: 唉，以往的经验在管理局这里都不怎么适用啊。
@@ -11879,13 +12110,13 @@
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>卡瓦卡瓦</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t xml:space="preserve">[卡瓦卡瓦期待地看着你]
 卡瓦卡瓦: 局长！我们什么时候回砂海啊？
@@ -11898,7 +12129,7 @@
 </t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">[卡瓦卡瓦有一些难过]
 卡瓦卡瓦: 局长，我的信标少了几个。
@@ -11912,13 +12143,13 @@
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>李维</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t xml:space="preserve">[李维穿着他又一身过于浮夸的新衣服在你面前转了个圈]
 李维: 怎么样，好看吗？
@@ -11931,7 +12162,7 @@
 </t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">[李维正在和两个工作人员打牌]
 李维: 嘿，真不好意思，我又赢了。
@@ -11945,13 +12176,13 @@
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>尤尼</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t xml:space="preserve">[尤尼路过你身边，眉头紧皱]
 尤尼: 你为什么只戴一边耳环？
@@ -11964,7 +12195,7 @@
 </t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">[尤尼拿着一张宣传单在很仔细地端详]
 尤尼: 这人在我之后是不是又去给五官做了调整……
@@ -11978,13 +12209,13 @@
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>妮诺</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t xml:space="preserve">[妮诺把一张物资申请单拍在你面前。]
 妮诺: 噔噔，你触发了一个随机任务，那就是帮妮诺大人填满零食柜~
@@ -11997,7 +12228,7 @@
 </t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">[妮诺查看着直播间流量曲线图。]
 妮诺: 怎么回事，最近热度下降了这么多！简直是妮诺大人直播的黑历史！
@@ -12011,13 +12242,13 @@
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>戈蓝</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t xml:space="preserve">[戈蓝目不转睛地盯着终端上显示的管理局内网讨论区帖子。]
 戈蓝: 哦哦，原来那个谁和那个谁拜了把子，那个谁又和那个谁互相看不顺眼，局长也曾经喜欢过邪恶势力派来诱惑自己的成熟美好大姐姐……
@@ -12030,7 +12261,7 @@
 </t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">[戈蓝眼馋地看着菲的商品目录里那个绝版且昂贵的毛绒配饰。]
 戈蓝: 可恶，钱不够！这里不让当打手，应该怎么捞点油……不对，赚点零花钱呢？啊，我知道了，我可以卖情报和八卦！
@@ -12044,13 +12275,46 @@
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>多芙</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[多芙正在给管理局众人送信。]
+多芙: 这不是局长嘛？正好，来猜猜看，这两封信里面，哪一封是送给你的？
+Prompt: 粉色信封
+多芙: 咦，粉色这个是用心形贴纸封口的诶，说不定是封情书呢！哎呀，你别急着否认嘛~万一……真的是给你的呢？
+多芙: 'atlas/monthsign/sprite_dailysign_face_8.png', 'atlas/monthsign/sprite_dailysign_face_8.png', 'atlas/monthsign/sprite_dailysign_face_8.png'
+Prompt: 蓝色信封
+多芙: 从这么多信里选中了这封信，你我还挺有缘分的，该说是你对我了解很深呢，还是……这份心意，本就想让你拆开呢？
+多芙: 'atlas/monthsign/sprite_dailysign_face_4.png', 'atlas/monthsign/sprite_dailysign_face_4.png', 'atlas/monthsign/sprite_dailysign_face_4.png'
+</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[多芙收到了寄给她的信，却没急着拆开，似乎在酝酿些什么。]
+多芙: 居然有人给信使写信呀，该怎么回信呢……哈哈，真是好难抉择啊，是该给点甜头上上钩呢，还是该用些话术吓吓这人……
+Prompt: 提醒她看署名
+多芙: 署名是……米诺斯危机管理局局长……哦，连多芙这种小人物都要亲自处理监视，不愧是局长，好细心呀~
+多芙: 'atlas/monthsign/sprite_dailysign_face_8.png', 'atlas/monthsign/sprite_dailysign_face_8.png', 'atlas/monthsign/sprite_dailysign_face_8.png'
+Prompt: 提醒她拆开看
+多芙: “用自己真正的心意与人往来通信”……这个字迹……是你……这就是你想对我说的话吗……
+多芙: 'atlas/monthsign/sprite_dailysign_face_6.png', 'atlas/monthsign/sprite_dailysign_face_6.png', 'atlas/monthsign/sprite_dailysign_face_6.png'
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>九十九</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t xml:space="preserve">[九十九用她的刀不住砸着地面]
 九十九: 什么时候……到训练时间？
@@ -12063,7 +12327,7 @@
 </t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">[九十九捶打着禁闭室的大门，室内温度急剧升高]
 九十九: 啊啊……啊！
@@ -12077,13 +12341,13 @@
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>温蒂</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t xml:space="preserve">[你与拿着电锯的温蒂在走廊相遇]
 温蒂: 锈河的死役……还剩多少？
@@ -12096,7 +12360,7 @@
 </t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">[温蒂一把撕碎了眼前的资料]
 温蒂: 死役、死役怎么又在走动！
@@ -12110,13 +12374,13 @@
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>帕加茜</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t xml:space="preserve">[帕加茜的屋子里放满了书]
 帕加茜: 这里……还有其他的文献资料么？
@@ -12129,7 +12393,7 @@
 </t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">[你打算来看望帕加茜]
 帕加茜: 不要……靠近我，会变得不幸。
@@ -12143,13 +12407,13 @@
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
         <is>
           <t>多莉</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t xml:space="preserve">[多莉在观看棒球比赛]
 多莉: 等下！现在刚到最精彩的阶段，不要打扰我啊！
@@ -12162,7 +12426,7 @@
 </t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">[多莉一脸阴郁地看着棒球棍]
 多莉: 采购办进的这批货到底行不行啊……挥两下就断了！
@@ -12176,13 +12440,13 @@
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
         <is>
           <t>赫罗</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t xml:space="preserve">[赫罗捧着一箱新到货的牛奶]
 赫罗: 局长，要不要来一瓶啊~？
@@ -12195,7 +12459,7 @@
 </t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">[赫罗握着斧子，双眼出神]
 赫罗: 唉……卓娅老大怎么都不和我说话了……
@@ -12209,13 +12473,13 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
         <is>
           <t>莓丝</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t xml:space="preserve">[莓丝在你的办公室里打起了瞌睡]
 莓丝: 嗯，不能睡……还有任务……不能睡……
@@ -12228,7 +12492,7 @@
 </t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">[莓丝在锻炉旁自言自语]
 莓丝: 嗯……下一把武器该做什么呢……
@@ -12242,13 +12506,13 @@
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
         <is>
           <t>卡斯洛</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t xml:space="preserve">[卡斯洛闯进你的办公室]
 卡斯洛: 喂，最近好无聊，说好的给我更高难度的任务呢！
@@ -12261,7 +12525,7 @@
 </t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">[卡斯洛用新到的油彩对着镜子涂涂画画]
 卡斯洛: 管理局采购的这款不怎么防水啊……太容易花了。
@@ -12275,13 +12539,13 @@
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
         <is>
           <t>克里斯蒂娜</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t xml:space="preserve">[克里斯蒂娜正在训练室里打沙袋，练习自由搏击]
 克里斯蒂娜: 哟，亲爱的助手，要不要一起来练练？
@@ -12294,7 +12558,7 @@
 </t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">[克里斯蒂娜正在摆弄一副眼镜]
 克里斯蒂娜: 小助手！快来看看我做的新道具！它可以在你眨眼的时候拍下眼前的画面，传到你的终端上。
@@ -12308,13 +12572,13 @@
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
         <is>
           <t>瑞思</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t xml:space="preserve">[路过运动室门口，你被一个壁球大力击倒]
 瑞思: 抱歉局长，我没控制好壁球让它打到了你。
@@ -12327,7 +12591,7 @@
 </t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">[瑞思拿给你一张优惠券]
 瑞思: “K幻量贩”的大房包厢，局长你要一起来吗？
@@ -12341,13 +12605,13 @@
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
         <is>
           <t>米拉</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t xml:space="preserve">[米拉叫住了准备出门的你。]
 米拉: 依我看，局长身上还缺了些东西，如果要出远门前往砂海的话，有些装备必不可少，不嫌弃的话，就从我的货架上拿吧？
@@ -12360,7 +12624,7 @@
 </t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">[米拉正在晾晒新洗的被单]
 米拉: 换洗被单，打扫地面，整理房间……要做的家务还有很多，幸好狄斯的气候不像砂海那样，刚晾上的床单不会消失得无影无踪，省了追着跑的工夫。
@@ -12374,13 +12638,13 @@
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
         <is>
           <t>艾恩</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t xml:space="preserve">[艾恩走出手术室]
 艾恩: 有什么事情就快点说，你我的时间都很宝贵。
@@ -12393,7 +12657,7 @@
 </t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">[艾恩看着禁闭者们，不住地叹气]
 艾恩: 你什么时候管管这些禁闭者？
@@ -12407,13 +12671,13 @@
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
         <is>
           <t>泰特拉</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t xml:space="preserve">[泰特拉摆弄着你办公室里的电脑]
 泰特拉: 还是要注意一些管理局的网络安全哦，局长。
@@ -12426,7 +12690,7 @@
 </t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">[泰特拉躺在管理局的档案柜上不住叹气]
 泰特拉: 无聊啊——没想到在这里也会这么无聊。
@@ -12440,13 +12704,13 @@
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
         <is>
           <t>堇</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t xml:space="preserve">[堇来到你的办公室，似乎是想替你分担工作]
 堇: 局长……您看上去有烦心事？如果不嫌弃，请让我为您分忧。
@@ -12459,7 +12723,7 @@
 </t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">[堇捏着一片花瓣，神色慌张]
 堇: 花园的杀手……最近来过？
@@ -12473,13 +12737,13 @@
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
         <is>
           <t>麦昆</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t xml:space="preserve">[麦昆邀请你出席一场艺术品拍卖会。]
 麦昆: 怎么样，有兴趣吗？
@@ -12492,7 +12756,7 @@
 </t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">[麦昆因艺术品诈骗面临巨额罚款。]
 麦昆: 别担心，我有办法应付。
@@ -12506,13 +12770,13 @@
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
         <is>
           <t>琳</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t xml:space="preserve">[琳正在举着相机拍摄温室里一丛新开的花，神色有些苦恼]
 琳: 总觉得好像还差了点什么……
@@ -12525,7 +12789,7 @@
 </t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">[琳正在专注地看一本漫画，脸上泛着红晕]
 琳: 好甜啊……
@@ -12539,13 +12803,13 @@
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
         <is>
           <t>加洛法诺</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t xml:space="preserve">[加洛法诺捧着一束康乃馨]
 加洛法诺: 您觉得……今天我该用哪种颜色的花来装饰房间呢？
@@ -12558,7 +12822,7 @@
 </t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">[加洛法诺抚摸着一匹柔软的面料]
 加洛法诺: 我打算用它给您做套睡衣，应该会很合适。
@@ -12572,13 +12836,13 @@
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
         <is>
           <t>优利卡</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t xml:space="preserve">[优利卡整理着旅行社的传单。]
 优利卡: 局长，如果你要去旅行的话……你会选哪条路线呢？
@@ -12591,7 +12855,7 @@
 </t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">[优利卡翻看着一本科幻电影杂志。]
 优利卡: 这些电影里的道具都看起来好有趣呀……局长，你有没有想要我做出来的电影道具？
@@ -12605,13 +12869,13 @@
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
         <is>
           <t>蓟</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t xml:space="preserve">[蓟神色慌张地合起了写到一半的手账。]
 蓟: 你什么时候过来的？怎么还用这种眼神看着我？别过来！我只是在写……写手账而已！
@@ -12624,7 +12888,7 @@
 </t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">[蓟在管理局操场发现了一只受伤的小流浪猫。]
 蓟: 它流了好多血啊，局长，我们可以帮帮它吗？
@@ -12638,13 +12902,13 @@
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
         <is>
           <t>舒鲁玛</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t xml:space="preserve">[早晨舒鲁玛顶着黑眼圈走出房间。]
 舒鲁玛: 早上好，局长。眼睛下面有黑眼圈？昨晚因为写作文睡得有点晚，谢谢你的关心，不用担心我。
@@ -12657,7 +12921,7 @@
 </t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">[路边的小猫对着靠近的舒鲁玛弓背哈气。]
 舒鲁玛: 唉，又是这样……局长，你知道该怎么做才能和小猫亲近吗？
@@ -12671,13 +12935,13 @@
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
         <is>
           <t>普希拉</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t xml:space="preserve">[普希拉似乎发现你在盯着她]
 普希拉: 怎么？对我的面具感兴趣？
@@ -12690,7 +12954,7 @@
 </t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">[普希拉在擦拭着她的道具]
 普希拉: 好久没有演出过，有些道具已经落满灰尘了。
@@ -12704,13 +12968,13 @@
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
         <is>
           <t>露莉艾卡</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t xml:space="preserve">[露莉艾卡在你的办公室里蹦蹦跳跳]
 露莉艾卡: 局长——局长——来一起玩游戏吧！
@@ -12723,7 +12987,7 @@
 </t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t xml:space="preserve">[露莉艾卡看上去情绪十分低落]
 露莉艾卡: 唉……最近找到的四叶草都是三叶的，露莉的能力是不是失效了啊。
@@ -12737,13 +13001,13 @@
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
         <is>
           <t>狼獾</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t xml:space="preserve">[狼獾满脸期待地看着你]
 狼獾: 我……饿了。
@@ -12756,7 +13020,7 @@
 </t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t xml:space="preserve">[狼獾有些手忙脚乱]
 狼獾: 阿皮……别乱跑，局长，帮下忙。
@@ -12770,13 +13034,13 @@
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
         <is>
           <t>玛蒂尔达</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t xml:space="preserve">[玛蒂尔达邀你在射击馆见面。]
 玛蒂尔达: 局长，关于管理局射击馆的使用规范，我初步拟定了一份大纲，请过目。
@@ -12789,7 +13053,7 @@
 </t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t xml:space="preserve">[玛蒂尔达来到你的办公室。]
 玛蒂尔达: 局长，在您看来，休息时间做什么事情最有价值？
@@ -12803,13 +13067,13 @@
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
         <is>
           <t>烟烟</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t xml:space="preserve">[图书室门禁异常，你发现是烟烟把神话书籍全部取下，其中一本正好卡住了门。 ]
 烟烟: 咦？局长你为什么来这里？
@@ -12822,7 +13086,7 @@
 </t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t xml:space="preserve">[烟烟端着一盘自己做的食物急匆匆地跑进了你的办公室。]
 烟烟: 快快快，局长也来尝尝吧？这可是我花了好久才做好的家乡菜！
@@ -12836,13 +13100,13 @@
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
         <is>
           <t>简</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t xml:space="preserve">[简对着管理局的安保分布图陷入了思考。]
 简: 感觉……还是有些可钻漏洞的地方……
@@ -12855,7 +13119,7 @@
 </t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t xml:space="preserve">[简来到办公室向你述职。]
 简: 您指派的任务我都完成了，请给我接下来的工作安排吧。
@@ -12869,13 +13133,13 @@
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
         <is>
           <t>维多利亚</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t xml:space="preserve">[维多利亚在自己的房间中不住地感叹着]
 维多利亚: 啊……这封闭的空间，真是让人感到安心。
@@ -12888,7 +13152,7 @@
 </t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t xml:space="preserve">[你在接到警报后马上赶到了维多利亚的房间]
 维多利亚: 我……又流了好多血……该怎么办……
@@ -12902,13 +13166,13 @@
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
         <is>
           <t>伊格尼</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t xml:space="preserve">[你带了焦糖布丁来找伊格尼]
 伊格尼: 你是……特意来见我的？
@@ -12921,7 +13185,7 @@
 </t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t xml:space="preserve">[在管理局的厨房里，伊格尼在不住叹气]
 伊格尼: 唉……到底该怎么做菜啊。
@@ -12935,13 +13199,13 @@
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
         <is>
           <t>露薇娅·蕾</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t xml:space="preserve">[看上去像是露薇娅]
 露薇娅·蕾: 嘘，小点声，蕾现在睡着了……
@@ -12954,7 +13218,7 @@
 </t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t xml:space="preserve">[她有些暴躁，看上去像是蕾]
 露薇娅·蕾: 我新剧的选角……都是配角。
@@ -12968,13 +13232,13 @@
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
         <is>
           <t>赫卡蒂</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t xml:space="preserve">[赫卡蒂向你询问今天的安排]
 赫卡蒂: 局长，请给我今天的命令。
@@ -12987,7 +13251,7 @@
 </t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t xml:space="preserve">[赫卡蒂翻看着过往行动的记录]
 赫卡蒂: 如果我消失，还会有下一个赫卡蒂，届时请把我忘掉。
@@ -13001,13 +13265,13 @@
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
         <is>
           <t>奥利弗</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t xml:space="preserve">[奥利弗向你递来一个玩偶]
 奥利弗: 局长~来和奥利弗一起玩吧？
@@ -13020,7 +13284,7 @@
 </t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t xml:space="preserve">[奥利弗遍体鳞伤地躺在卧室里]
 奥利弗: 局长……好痛……好痛啊……
@@ -13034,13 +13298,13 @@
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
         <is>
           <t>拉弥亚</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t xml:space="preserve">[你走出办公室时，拉弥亚非常关切地迎了上来]
 拉弥亚: 局长，您看上去很疲惫的样子，是不是需要放松一下？
@@ -13053,7 +13317,7 @@
 </t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t xml:space="preserve">[拉弥亚正在娱乐区观看一部青春校园电影，表情有些疑惑]
 拉弥亚: 学生时代到底是什么样子的？为什么那么多人都会怀念那段日子呢？
@@ -13067,13 +13331,13 @@
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
         <is>
           <t>艾可</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t xml:space="preserve">[艾可聆听着催眠室里常用的几首轻音乐。]
 艾可: 哎呀，这些都软绵绵的，实在不够劲。还是艾可的演出录音更适合加进催眠室的歌单，肯定会很好用的~
@@ -13086,7 +13350,7 @@
 </t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t xml:space="preserve">[艾可抱着她的萨克斯来到你面前。]
 艾可: 今天是个好日子，萨克斯天才的精彩演出开启点歌模式了！来，快说说你想听什么~
@@ -13100,13 +13364,13 @@
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
         <is>
           <t>艾瑞尔</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t xml:space="preserve">[艾瑞尔左顾右盼，似乎有些慌张]
 艾瑞尔: 大家，为什么总是盯着我看呢……
@@ -13119,7 +13383,7 @@
 </t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t xml:space="preserve">[任务结束后，艾瑞尔特地向你道歉]
 艾瑞尔: 我好像……总是在拖大家的后腿……
@@ -13133,13 +13397,13 @@
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
         <is>
           <t>卡米利安</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t xml:space="preserve">[你被邀请到卡米利安的私人诊所]
 卡米利安: 最近的睡眠质量如何，还需要我的帮助么？
@@ -13152,7 +13416,7 @@
 </t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t xml:space="preserve">[卡米利安一边写着病例一边叹气]
 卡米利安: 最近找我看病的人突然变多了，你有什么头绪？
@@ -13166,13 +13430,13 @@
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
         <is>
           <t>安</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t xml:space="preserve">[安看着以前的照片，有感而发]
 安: 小孩子真可爱啊……又天真，又善良。
@@ -13185,7 +13449,7 @@
 </t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t xml:space="preserve">[患者的情况并不理想，安有些慌张]
 安: 有些患者的情况开始恶化了，彼岸诊所那时也是这样……
@@ -13199,13 +13463,13 @@
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
         <is>
           <t>福克斯先生</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t xml:space="preserve">[福克斯先生在你的面前点钞]
 福克斯先生: 最近赢了很多官司，进账不错。
@@ -13218,7 +13482,7 @@
 </t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t xml:space="preserve">[福克斯先生叹了一口气]
 福克斯先生: 最近来找我的辩护的案子，都是我不想接的。
@@ -13232,13 +13496,13 @@
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
         <is>
           <t>嘟嘟</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t xml:space="preserve">[嘟嘟端着满满一盘子的炸猪排从厨房里走出来]
 嘟嘟: 啊，老板，你也是来找宵夜吃的吗？
@@ -13251,7 +13515,7 @@
 </t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t xml:space="preserve">[嘟嘟大声宣传着她的唢呐培训班]
 嘟嘟: 走过路过不要错过！前二十位学员学费减半啦——哎，那边的老板，别走呀，要不要跟着我学唢呐？
@@ -13265,13 +13529,13 @@
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
         <is>
           <t>莱塔</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t xml:space="preserve">[莱塔偷偷地溜进你的房间]
 莱塔: 局长局长，我又发现了新的冒险地点！
@@ -13284,7 +13548,7 @@
 </t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t xml:space="preserve">[莱塔被你抓到偷偷跑出来玩]
 莱塔: 唔呣……我怎么，突然站在这里了……
@@ -13298,13 +13562,13 @@
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
         <is>
           <t>卡西娅</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t xml:space="preserve">[卡西娅在娱乐区浏览着香评网站。]
 卡西娅: 香水的味道越来越复杂，越来越工业化，都快把纯粹的味道覆盖掉了……就连感悟评论，也充斥着难闻的工业气息……
@@ -13317,7 +13581,7 @@
 </t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t xml:space="preserve">[卡西娅又收到了选美大赛的评委邀请函。]
 卡西娅: 要想让我分辨谁才是最顶级的香料……咳，最顶级的美人，我必须要去到现场……
@@ -13331,13 +13595,13 @@
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
         <is>
           <t>肖恩</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t xml:space="preserve">[肖恩又开始频繁注意自己的手机并在每次来消息时迅速回复。]
 肖恩: “千万别这样想，甜心，是他们没有品味，才这样不珍惜你。”……呼，总算安慰好了。没想到管理局内网里，也有这么多渴求着一份爱的人。
@@ -13350,7 +13614,7 @@
 </t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t xml:space="preserve">[肖恩面对刷新多少次都会出现在终端上的断网通知似乎十分暴躁。]
 肖恩: 不是说下午三点恢复吗？怎么还没有动静？这样难道不会影响管理局的正常运作吗？
@@ -13364,13 +13628,13 @@
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
         <is>
           <t>蔻蔻</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t xml:space="preserve">[蔻蔻在你的办公室等待指令]
 蔻蔻: 有什么我能帮你做的事情么？
@@ -13383,7 +13647,7 @@
 </t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t xml:space="preserve">[蔻蔻向你询问自己以前的搭档]
 蔻蔻: 白逸那家伙呢？怎么又不见了？
@@ -13397,13 +13661,13 @@
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
         <is>
           <t>德莫莉</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t xml:space="preserve">[结束任务后，德莫莉开始安排余下的时间]
 德莫莉: 今天做点什么活动好呢？来点推荐吧局长。
@@ -13416,7 +13680,7 @@
 </t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t xml:space="preserve">[德莫莉在数着她的收藏品]
 德莫莉: 要来支援一下我的收藏么，局长？
@@ -13430,13 +13694,13 @@
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
         <is>
           <t>佩姬</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t xml:space="preserve">[佩姬飞快地写着歌词]
 佩姬: 呦，这不是局长么？怎么，想听说唱？
@@ -13449,7 +13713,7 @@
 </t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t xml:space="preserve">[佩姬一脸不爽地踢着房间里的杂物]
 佩姬: 不是说好要给我整个调音台吗？东西呢？
@@ -13463,13 +13727,13 @@
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="inlineStr">
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
         <is>
           <t>海拉</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t xml:space="preserve">[完成任务的海拉直接躺在你的办公室地板上]
 海拉: 啊——有没有给我准备犒劳品啊？最好是狄斯币。
@@ -13482,7 +13746,7 @@
 </t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t xml:space="preserve">[看到你后，海拉表现得很惊讶]
 海拉: 啧，是九十九那家伙告诉你我躲在这的？
@@ -13496,13 +13760,13 @@
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="inlineStr">
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
         <is>
           <t>澈</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t xml:space="preserve">[澈揉了揉眼睛，似乎刚睡醒]
 澈: 怎么？你也来这偷懒？
@@ -13515,7 +13779,7 @@
 </t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t xml:space="preserve">[澈看着你，似乎有些不解]
 澈: 你成天和我们这群禁闭者混在一块，有意思么？
@@ -13529,13 +13793,13 @@
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="inlineStr">
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
         <is>
           <t>胡椒</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t xml:space="preserve">[胡椒兴冲冲地跑进了你的办公室]
 胡椒: 局长，我今天想做坏事！有什么建议么？
@@ -13548,7 +13812,7 @@
 </t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t xml:space="preserve">[胡椒很消沉地站在管理局的操场上]
 胡椒: 做任务还不如种地有意思……
@@ -13562,13 +13826,13 @@
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="inlineStr">
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
         <is>
           <t>雷比尼斯</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t xml:space="preserve">[雷比尼斯似乎早早在办公室里等候着你]
 雷比尼斯: 发现局长，等待进程。
@@ -13581,7 +13845,7 @@
 </t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t xml:space="preserve">[雷比尼斯在打扫管理局的卫生]
 雷比尼斯: 局长，请不要在这里干扰雷比尼斯的工作。
@@ -13595,13 +13859,13 @@
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="inlineStr">
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
         <is>
           <t>昙</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t xml:space="preserve">[昙在擦拭着她的匕首]
 昙: 下次的对手……是谁呢……
@@ -13614,7 +13878,7 @@
 </t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t xml:space="preserve">[昙紧握着双手，看起来很愤怒]
 昙: 花园！你们居然还敢抢我的目标！
@@ -13628,13 +13892,13 @@
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="inlineStr">
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
         <is>
           <t>艾米潘</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t xml:space="preserve">[在练习场中的艾米潘心情似乎很好]
 艾米潘: 哼哼，今天我允许你直视辛迪加无冕之王的尊容。
@@ -13647,7 +13911,7 @@
 </t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t xml:space="preserve">[在练习场中的艾米潘心情似乎很差]
 艾米潘: 别吵，我在练习弓箭呢！
@@ -13661,13 +13925,13 @@
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="inlineStr">
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
         <is>
           <t>芙洛拉</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t xml:space="preserve">[芙洛拉拿着笔记开始对你进行问询]
 芙洛拉: 你今天应该没有忘记消防设施的定期检查吧？
@@ -13680,7 +13944,7 @@
 </t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t xml:space="preserve">[刚出练习场的芙洛拉似乎有些消沉]
 芙洛拉: 唉……怎么做才能用好消防器械呢。
@@ -13694,13 +13958,13 @@
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="inlineStr">
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
         <is>
           <t>开尔文</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t xml:space="preserve">[开尔文捧着一堆食材向你打招呼]
 开尔文: 局长，管理局的厨房可以加个额外的冷库么！
@@ -13713,7 +13977,7 @@
 </t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t xml:space="preserve">[开尔文似乎被人嘲笑了]
 开尔文: 哈啊……我怎么还没毕业……
@@ -13727,13 +13991,13 @@
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="inlineStr">
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
         <is>
           <t>琼</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t xml:space="preserve">[从琼的房间中传出了歌声]
 琼: 以你本色——
@@ -13746,7 +14010,7 @@
 </t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t xml:space="preserve">[琼摩挲着之前演唱会的照片，若有所思]
 琼: 什么时候这种生活能结束呢，我想去演出。
@@ -13760,13 +14024,13 @@
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="inlineStr">
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
         <is>
           <t>玛奇朵</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t xml:space="preserve">[玛奇朵看起来身心愉悦]
 玛奇朵: 有些敌人看起来很享受哦。
@@ -13779,7 +14043,7 @@
 </t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t xml:space="preserve">[玛奇朵在打着瞌睡]
 玛奇朵: 欢迎……光临新城银行！啊……不对！管理局！
@@ -13793,13 +14057,13 @@
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="inlineStr">
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
         <is>
           <t>丽莎</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t xml:space="preserve">[丽莎用左手拿出了画，铺在桌子上]
 丽莎: 收到了几幅画作，又能好好欣赏一番了。
@@ -13812,7 +14076,7 @@
 </t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t xml:space="preserve">[丽莎坐在画板前，叹了口气]
 丽莎: 又画歪了……
@@ -13837,7 +14101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15027,10 +15291,46 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
+          <t>藍鷲</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[藍鷲正在享用下午茶]
+藍鷲: 你來了，現在陽光正好，你也難得清閒，坐下來慢慢品嚐一下特別為您準備的甜點如何，我沏了茶，來挑挑吧？想配哪塊點心？
+Prompt: 藍莓起司蛋糕
+藍鷲: 嗯，香醇可口，甜度也很適中……剛疲憊工作了一陣子的局長大人，應當最適合享用這份下午茶的愜意吧？
+藍鷲: 'atlas/monthsign/sprite_dailysign_face_7.png', 'atlas/monthsign/sprite_dailysign_face_7.png', 'atlas/monthsign/sprite_dailysign_face_7.png'
+Prompt: 草莓奶油可麗餅
+藍鷲: 一起嚐嚐吧？……你說太甜了，呵呵，生活中的苦總是需要點甜味調劑的。
+藍鷲: 'atlas/monthsign/sprite_dailysign_face_8.png', 'atlas/monthsign/sprite_dailysign_face_8.png', 'atlas/monthsign/sprite_dailysign_face_8.png'
+</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[藍鷲坐在窗邊，察覺到你的注視，回頭笑笑]
+藍鷲: 怎麼了，這樣看著我，是懷念曾經與我為鄰的日子嗎？
+Prompt: 懷念
+藍鷲: 是嗎？既然這樣，我遞交的那份申請，局長大人可要雙手贊同批准哦，不久之後，我們就能繼續比鄰而居！
+藍鷲: 'atlas/monthsign/sprite_dailysign_face_4.png', 'atlas/monthsign/sprite_dailysign_face_4.png', 'atlas/monthsign/sprite_dailysign_face_4.png'
+Prompt: 否認
+藍鷲: 是嗎？本來還想將房間搬到局長房間旁邊，那還真可惜。
+藍鷲: 'atlas/monthsign/sprite_dailysign_face_1.png', 'atlas/monthsign/sprite_dailysign_face_1.png', 'atlas/monthsign/sprite_dailysign_face_1.png'
+</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
           <t>哈梅爾</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t xml:space="preserve">[你在訓練室看到了練舞的哈梅爾]
 哈梅爾: 你是來……當我觀眾的嗎？
@@ -15043,7 +15343,7 @@
 </t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">[哈梅爾被臥室裡的雜物所絆倒]
 哈梅爾: 救命……臥室……練不了舞，很亂。
@@ -15056,17 +15356,17 @@
 </t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>恩菲爾</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t xml:space="preserve">[恩菲爾看起來有點困擾。]
 恩菲爾: 新訂購用於雕像創作的石料似乎不太對。
@@ -15079,7 +15379,7 @@
 </t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">[恩菲爾的作品由於過於逼真嚇到不少人。]
 恩菲爾: 有什麼問題嗎？
@@ -15092,17 +15392,17 @@
 </t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>卡門奈特</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t xml:space="preserve">[今天與卡門奈特共進午餐時，她一直若有所思地盯著你]
 卡門奈特: 不知道我是否有機會能品嚐到局長……親手製作的料理呢？
@@ -15115,7 +15415,7 @@
 </t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">[卡門奈特正百無聊賴地看著電視機裡的美食節目]
 卡門奈特: 如果是局長的話，會更喜歡哪道菜呢？
@@ -15128,17 +15428,17 @@
 </t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>可可莉克</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t xml:space="preserve">[可可莉克正在溫室裡查看泥土]
 可可莉克: 你覺得在這裡種點什麼花會比較好？
@@ -15151,7 +15451,7 @@
 </t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">[可可莉克正在娛樂區瀏覽購物頁面]
 可可莉克: 如果是你的話，會更喜歡哪一枚胸針？
@@ -15164,17 +15464,17 @@
 </t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>伊芙</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t xml:space="preserve">[伊芙對比著兩套質地不同的玩偶服裝。]
 伊芙: 是絲綢的更適合小熊呢……還是棉布的？
@@ -15187,7 +15487,7 @@
 </t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">[伊芙的輪椅似乎卡死在了破損的地磚中。]
 伊芙: 早說了這具身體克服不了哪怕最輕微的阻礙……請不要管我，去做局長該做的事吧。
@@ -15200,17 +15500,17 @@
 </t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>杜若</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t xml:space="preserve">[杜若隨手拋玩著一個錦囊。 ]
 杜若: 來得正好，就讓我以物起卦，看看尊駕的近期運勢……嗯，這是？
@@ -15223,7 +15523,7 @@
 </t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">[杜若在休息室裡燃起了一爐香。 ]
 杜若: 傳說閉目深思，變幻的煙氣便會化作所念之人的模樣……怎麼樣，想不想試試？
@@ -15236,17 +15536,17 @@
 </t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>L.L.</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t xml:space="preserve">[L.L.複製你的形象資料製作了一個電子寵物。]
 L.L.: 乖——看看，「你」多可愛！小瑤也高興地繞著「你」游個不停呢~
@@ -15259,7 +15559,7 @@
 </t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">[L.L.突然從背後靠近你，她身上未乾的水珠落到了你的衣服上。]
 L.L.: 唉呀，不小心把你弄濕了呢，穿著半濕的衣服很冷吧？要抱著我取一下暖嗎？我的懷抱比你想像的還要溫暖哦。
@@ -15272,17 +15572,17 @@
 </t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>切爾西伯爵</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t xml:space="preserve">[切爾西將一枚寶石遞到你的面前]
 切爾西伯爵: 給，這是你的紀念品。
@@ -15295,7 +15595,7 @@
 </t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">[切爾西看著西迪，似乎若有所思]
 切爾西伯爵: 這裡為什麼不能養貓？
@@ -15308,17 +15608,17 @@
 </t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>辰砂</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t xml:space="preserve">[你路過辰砂的收容室]
 辰砂: 您今天需要我的貼身保護嗎？
@@ -15331,7 +15631,7 @@
 </t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">[任務結束後，辰砂似乎在思考什麼]
 辰砂: 唉，以往的經驗在管理局這裡都不怎麼適用啊。
@@ -15344,17 +15644,17 @@
 </t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>卡瓦卡瓦</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t xml:space="preserve">[卡瓦卡瓦期待地看著你]
 卡瓦卡瓦: 局長！我們什麼時候回砂海啊？
@@ -15367,7 +15667,7 @@
 </t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">[卡瓦卡瓦有一些難過]
 卡瓦卡瓦: 局長，我的信標少了幾個。
@@ -15380,17 +15680,17 @@
 </t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>李維</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t xml:space="preserve">[李維穿著他又一身過於浮誇的新衣服在你面前轉了個圈]
 李維: 怎麼樣，好看嗎？
@@ -15403,7 +15703,7 @@
 </t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">[李維正在和兩個工作人員打牌]
 李維: 嘿，真不好意思，我又贏了。
@@ -15416,17 +15716,17 @@
 </t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>尤尼</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t xml:space="preserve">[尤尼路過你身邊，眉頭緊皺]
 尤尼: 你為什麼只戴一邊耳環？
@@ -15439,7 +15739,7 @@
 </t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">[尤尼拿著一張宣傳單在很仔細地端詳]
 尤尼: 這人在我之後是不是又去把五官做了調整……
@@ -15452,17 +15752,17 @@
 </t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>妮諾</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t xml:space="preserve">[妮諾把一張物資申請單拍在你面前。]
 妮諾: 噹噹，你觸發了一個隨機任務，那就是幫妮諾大人填滿零食櫃~
@@ -15475,7 +15775,7 @@
 </t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">[妮諾查看著直播間觀看量曲線圖。]
 妮諾: 怎麼回事，最近熱度下降了這麼多！簡直是妮諾大人直播的黑歷史！
@@ -15488,17 +15788,17 @@
 </t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>戈藍</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t xml:space="preserve">[戈藍目不轉睛地盯著裝置上顯示的管理局內網討論區文章。]
 戈藍: 哦哦，原來那個誰和那個誰結拜，那個誰又和那個誰互相看不順眼，局長也曾經喜歡過邪惡勢力派來誘惑自己的成熟美好大姐姐……
@@ -15511,7 +15811,7 @@
 </t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">[戈藍羨慕地看著菲的商品目錄裡那個絕版且昂貴的絨毛配飾。]
 戈藍: 可惡，錢不夠！這裡不讓當打手，應該怎麼撈點油……不對，賺點零用錢呢？啊，我知道了，我可以賣情報和八卦！
@@ -15524,17 +15824,53 @@
 </t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>多芙</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[多芙正在幫管理局眾人送信。]
+多芙: 這不是局長嗎？正好，來猜猜看，這兩封信裡面，哪一封是送給你的？
+Prompt: 粉色信封
+多芙: 咦？粉色這個是用心形貼紙封口的耶，說不定是封情書呢！唉呀，你別急著否認嘛！萬一……真的是給你的呢？
+多芙: 'atlas/monthsign/sprite_dailysign_face_8.png', 'atlas/monthsign/sprite_dailysign_face_8.png', 'atlas/monthsign/sprite_dailysign_face_8.png'
+Prompt: 藍色信封
+多芙: 從這麼多信裡選中了這封信，你我還挺有緣分的，該說是你對我瞭解很深呢，還是……這份心意，本就想讓你拆開呢？
+多芙: 'atlas/monthsign/sprite_dailysign_face_4.png', 'atlas/monthsign/sprite_dailysign_face_4.png', 'atlas/monthsign/sprite_dailysign_face_4.png'
+</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[多芙收到了寄給她的信，卻沒急著拆開，似乎在醞釀些什麼。]
+多芙: 居然有人寫信給信使呀，該怎麼回信呢……哈哈，真是好難抉擇啊，是該給點甜頭上上鉤呢，還是該用些話術嚇嚇這人……
+Prompt: 提醒她看署名
+多芙: 署名是……米諾斯危機管理局局長……哦，連多芙這種小人物都要親自處理監視，不愧是局長，好細心呀！
+多芙: 'atlas/monthsign/sprite_dailysign_face_8.png', 'atlas/monthsign/sprite_dailysign_face_8.png', 'atlas/monthsign/sprite_dailysign_face_8.png'
+Prompt: 提醒她拆開看
+多芙: 「用自己真正的心意與人往來通訊」……這個字跡……是你……這就是你想對我說的話嗎……
+多芙: 'atlas/monthsign/sprite_dailysign_face_6.png', 'atlas/monthsign/sprite_dailysign_face_6.png', 'atlas/monthsign/sprite_dailysign_face_6.png'
+</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>九十九</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t xml:space="preserve">[九十九用她的刀不停砸著地面]
 九十九: 什麼時候……到訓練時間？
@@ -15547,7 +15883,7 @@
 </t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">[九十九捶打著禁閉室的大門，室內溫度急劇升高]
 九十九: 啊啊……啊！
@@ -15560,17 +15896,17 @@
 </t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>溫蒂</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t xml:space="preserve">[你與拿著電鋸的溫蒂在走廊相遇]
 溫蒂: 鏽河的死役……還剩多少？
@@ -15583,7 +15919,7 @@
 </t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">[溫蒂一把撕碎了眼前的資料]
 溫蒂: 死役、死役怎麼又在走動！
@@ -15596,17 +15932,17 @@
 </t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>帕加茜</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t xml:space="preserve">[帕加茜的屋子裡放滿了書]
 帕加茜: 這裡……還有其他的文獻資料嗎？
@@ -15619,7 +15955,7 @@
 </t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">[你打算來看望帕加茜]
 帕加茜: 不要……靠近我，會變得不幸。
@@ -15632,17 +15968,17 @@
 </t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
         <is>
           <t>多莉</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t xml:space="preserve">[多莉在觀看棒球比賽]
 多莉: 等下！現在剛到最精彩的階段，不要打擾我啊！
@@ -15655,7 +15991,7 @@
 </t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">[多莉一臉陰鬱地看著球棒]
 多莉: 採購部進的這批貨到底行不行啊……揮兩下就斷了！
@@ -15668,17 +16004,17 @@
 </t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
         <is>
           <t>赫羅</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t xml:space="preserve">[赫羅捧著一箱新到貨的牛奶]
 赫羅: 局長，要不要來一瓶啊~？
@@ -15691,7 +16027,7 @@
 </t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">[赫羅握著斧子，雙眼出神]
 赫羅: 唉……卓婭老大怎麼都不和我說話了……
@@ -15704,17 +16040,17 @@
 </t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
         <is>
           <t>莓絲</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t xml:space="preserve">[莓絲在你的辦公室裡打起了瞌睡]
 莓絲: 嗯，不能睡……還有任務……不能睡……
@@ -15727,7 +16063,7 @@
 </t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">[莓絲在鍛爐旁自言自語]
 莓絲: 嗯……下一把武器該做什麼呢……
@@ -15740,17 +16076,17 @@
 </t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
         <is>
           <t>卡斯洛</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t xml:space="preserve">[卡斯洛闖進你的辦公室]
 卡斯洛: 喂，最近好無聊，說好的給我更高難度的任務呢！
@@ -15763,7 +16099,7 @@
 </t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">[卡斯洛用新到的油彩對著鏡子塗塗畫畫]
 卡斯洛: 管理局採購的這款不怎麼防水啊……太容易花了。
@@ -15776,17 +16112,17 @@
 </t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
         <is>
           <t>克里斯蒂娜</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t xml:space="preserve">[克里斯蒂娜正在訓練室裡打沙包，練習自由搏擊]
 克里斯蒂娜: 喲，親愛的助手，要不要一起來練練？
@@ -15799,7 +16135,7 @@
 </t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">[克里斯蒂娜正在擺弄一副眼鏡]
 克里斯蒂娜: 小助手！快來看看我做的新道具！它可以在你眨眼的時候拍下眼前的畫面，傳到你的裝置上。
@@ -15812,17 +16148,17 @@
 </t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
         <is>
           <t>瑞思</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t xml:space="preserve">[路過運動室門口，你被一個壁球大力擊倒]
 瑞思: 抱歉局長，我沒控制好壁球讓它打到了你。
@@ -15835,7 +16171,7 @@
 </t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">[瑞思拿給你一張優惠券]
 瑞思: 「K幻量販」的大包廂，局長你要一起來嗎？
@@ -15848,17 +16184,17 @@
 </t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
         <is>
           <t>米拉</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t xml:space="preserve">[米拉叫住了準備出門的你。]
 米拉: 依我看，局長身上還缺了些東西，如果要出遠門前往砂海的話，有些裝備必不可少，不嫌棄的話，就從我的貨架上拿吧？
@@ -15871,7 +16207,7 @@
 </t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">[米拉正在晾曬新洗的被單]
 米拉: 換洗被單，打掃地面，整理房間……要做的家務還有很多，幸好狄斯的氣候不像砂海那樣，剛晾好的床單不會消失得無影無蹤，省了追著跑的功夫。
@@ -15884,17 +16220,17 @@
 </t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
         <is>
           <t>艾恩</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t xml:space="preserve">[艾恩走出手術室]
 艾恩: 有什麼事情就快點說，你我的時間都很寶貴。
@@ -15907,7 +16243,7 @@
 </t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">[艾恩看著禁閉者們，不停地嘆氣]
 艾恩: 你什麼時候管管這些禁閉者？
@@ -15920,17 +16256,17 @@
 </t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
         <is>
           <t>泰特拉</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t xml:space="preserve">[泰特拉擺弄著你辦公室裡的電腦]
 泰特拉: 還是要注意一些管理局的網路安全哦，局長。
@@ -15943,7 +16279,7 @@
 </t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">[泰特拉躺在管理局的檔案櫃上不停嘆氣]
 泰特拉: 無聊啊——沒想到在這裡也會這麼無聊。
@@ -15956,17 +16292,17 @@
 </t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
         <is>
           <t>堇</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t xml:space="preserve">[堇來到你的辦公室，似乎是想替你分擔工作]
 堇: 局長……您看起來有煩心事？如果不嫌棄，請讓我為您分憂。
@@ -15979,7 +16315,7 @@
 </t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">[堇捏著一片花瓣，神色慌張]
 堇: 花園的殺手……最近來過？
@@ -15992,17 +16328,17 @@
 </t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
         <is>
           <t>麥昆</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t xml:space="preserve">[麥昆邀請你出席一場藝術品拍賣會。]
 麥昆: 怎麼樣，有興趣嗎？
@@ -16015,7 +16351,7 @@
 </t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">[麥昆因藝術品詐騙面臨鉅額罰款。]
 麥昆: 別擔心，我有辦法應付。
@@ -16028,17 +16364,17 @@
 </t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
         <is>
           <t>琳</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t xml:space="preserve">[琳正在舉著相機拍攝溫室裡一叢新開的花，神色有些苦惱]
 琳: 總覺得好像還差了點什麼……
@@ -16051,7 +16387,7 @@
 </t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">[琳正在專注地看一本漫畫，臉上泛著紅暈]
 琳: 好甜啊……
@@ -16064,17 +16400,17 @@
 </t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
         <is>
           <t>加洛法諾</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t xml:space="preserve">[加洛法諾捧著一束康乃馨]
 加洛法諾: 您覺得……今天我該用哪種顏色的花來裝飾房間呢？
@@ -16087,7 +16423,7 @@
 </t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">[加洛法諾撫摸著一匹柔軟的布料]
 加洛法諾: 我打算用它來為您做套睡衣，應該會很合適。
@@ -16100,17 +16436,17 @@
 </t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
         <is>
           <t>優利卡</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t xml:space="preserve">[優利卡整理著旅行社的傳單。]
 優利卡: 局長，如果你要去旅行的話……你會選哪條路線呢？
@@ -16123,7 +16459,7 @@
 </t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">[優利卡翻看著一本科幻電影雜誌。]
 優利卡: 這些電影裡的道具都看起來好有趣呀……局長，你有沒有想要我做出來的電影道具？
@@ -16136,17 +16472,17 @@
 </t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
         <is>
           <t>薊</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t xml:space="preserve">[薊神色慌張地闔上了寫到一半的手帳。]
 薊: 你什麼時候過來的？怎麼還用這種眼神看著我？別過來！我只是在寫……寫手帳而已！
@@ -16159,7 +16495,7 @@
 </t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">[薊在管理局操場發現了一隻受傷的小流浪貓。]
 薊: 它流了好多血啊，局長，我們可以幫幫它嗎？
@@ -16172,17 +16508,17 @@
 </t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
         <is>
           <t>舒魯瑪</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t xml:space="preserve">[早上，舒魯瑪頂著黑眼圈走出房間。]
 舒魯瑪: 早安，局長。眼睛下面有黑眼圈？昨晚因為寫作文有點晚睡，謝謝你的關心，不用擔心我。
@@ -16195,7 +16531,7 @@
 </t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">[路邊的小貓對著靠近的舒魯瑪弓背哈氣。]
 舒魯瑪: 唉，又是這樣……局長，你知道該怎麼做才能和小貓親近嗎？
@@ -16208,17 +16544,17 @@
 </t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
         <is>
           <t>普希拉</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t xml:space="preserve">[普希拉似乎發現你在盯著她]
 普希拉: 怎麼？對我的面具感興趣？
@@ -16231,7 +16567,7 @@
 </t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">[普希拉在擦拭著她的道具]
 普希拉: 好久沒有演出過，有些道具已經落滿灰塵了。
@@ -16244,17 +16580,17 @@
 </t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
         <is>
           <t>露莉艾卡</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t xml:space="preserve">[露莉艾卡在你的辦公室裡蹦蹦跳跳]
 露莉艾卡: 局長——局長——來一起玩遊戲吧！
@@ -16267,7 +16603,7 @@
 </t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t xml:space="preserve">[露莉艾卡看起來情緒十分低落]
 露莉艾卡: 唉……最近找到的四葉草都是三葉的，露莉的能力是不是失效了啊。
@@ -16280,17 +16616,17 @@
 </t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
         <is>
           <t>狼獾</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t xml:space="preserve">[狼獾滿臉期待地看著你]
 狼獾: 我……餓了。
@@ -16303,7 +16639,7 @@
 </t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t xml:space="preserve">[狼獾有些手忙腳亂]
 狼獾: 阿皮……別亂跑，局長，幫個忙。
@@ -16316,17 +16652,17 @@
 </t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
         <is>
           <t>瑪蒂爾達</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t xml:space="preserve">[瑪蒂爾達邀你在射擊館見面。]
 瑪蒂爾達: 局長，關於管理局射擊館的使用規範，我初步擬定了一份大綱，請過目。
@@ -16339,7 +16675,7 @@
 </t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t xml:space="preserve">[瑪蒂爾達來到你的辦公室。]
 瑪蒂爾達: 局長，在您看來，休息時間做什麼事情最有價值？
@@ -16352,17 +16688,17 @@
 </t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
         <is>
           <t>煙煙</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t xml:space="preserve">[圖書室門禁異常，你發現是煙煙把神話書籍全部取下，其中一本正好卡住了門。 ]
 煙煙: 咦？局長你為什麼來這裡？
@@ -16375,7 +16711,7 @@
 </t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t xml:space="preserve">[煙煙端著一盤自己做的食物急匆匆地跑進了你的辦公室。]
 煙煙: 快快快，局長也來嚐嚐吧？這可是我花了好久才做好的家鄉菜！
@@ -16388,17 +16724,17 @@
 </t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
         <is>
           <t>簡</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t xml:space="preserve">[簡對著管理局的保全分佈圖陷入了思考。]
 簡: 感覺……還是有些可鑽漏洞的地方……
@@ -16411,7 +16747,7 @@
 </t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t xml:space="preserve">[簡來到辦公室向你述職。]
 簡: 您指派的任務我都完成了，請給我接下來的工作安排吧。
@@ -16424,17 +16760,17 @@
 </t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
         <is>
           <t>維多利亞</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t xml:space="preserve">[維多利亞在自己的房間中不停地感嘆著]
 維多利亞: 啊……這封閉的空間，真是讓人感到安心。
@@ -16447,7 +16783,7 @@
 </t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t xml:space="preserve">[你在接到警報後馬上趕到了維多利亞的房間]
 維多利亞: 我……又流了好多血……該怎麼辦……
@@ -16460,17 +16796,17 @@
 </t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
         <is>
           <t>伊格尼</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t xml:space="preserve">[你帶了焦糖布丁來找伊格尼]
 伊格尼: 你是……特意來見我的？
@@ -16483,7 +16819,7 @@
 </t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t xml:space="preserve">[在管理局的廚房裡，伊格尼在不停嘆氣]
 伊格尼: 唉……到底該怎麼做菜啊。
@@ -16496,17 +16832,17 @@
 </t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
         <is>
           <t>露薇婭·蕾</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t xml:space="preserve">[看起來像是露薇婭]
 露薇婭·蕾: 噓，小聲點，蕾現在睡著了……
@@ -16519,7 +16855,7 @@
 </t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t xml:space="preserve">[她有些暴躁，看起來像是蕾]
 露薇婭·蕾: 我新劇的選角……都是配角。
@@ -16532,17 +16868,17 @@
 </t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
         <is>
           <t>赫卡蒂</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t xml:space="preserve">[赫卡蒂向你詢問今天的安排]
 赫卡蒂: 局長，請給我今天的命令。
@@ -16555,7 +16891,7 @@
 </t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t xml:space="preserve">[赫卡蒂翻看著過往行動的記錄]
 赫卡蒂: 如果我消失，還會有下一個赫卡蒂，屆時請把我忘掉。
@@ -16568,17 +16904,17 @@
 </t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
         <is>
           <t>奧利弗</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t xml:space="preserve">[奧利弗向你遞來一個玩偶]
 奧利弗: 局長~來和奧利弗一起玩吧？
@@ -16591,7 +16927,7 @@
 </t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t xml:space="preserve">[奧利弗遍體鱗傷地躺在臥室裡]
 奧利弗: 局長……好痛……好痛啊……
@@ -16604,17 +16940,17 @@
 </t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
         <is>
           <t>拉彌亞</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t xml:space="preserve">[你走出辦公室時，拉彌亞一臉關切地走了過來]
 拉彌亞: 局長，您看起來很疲憊的樣子，是不是需要放鬆一下？
@@ -16627,7 +16963,7 @@
 </t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t xml:space="preserve">[拉彌亞正在娛樂區觀看一部青春校園電影，表情有些疑惑]
 拉彌亞: 學生時代到底是什麼樣子呢？為什麼這麼多人都會懷念那段日子呢？
@@ -16640,17 +16976,17 @@
 </t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
         <is>
           <t>艾可</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t xml:space="preserve">[艾可聆聽著催眠室裡常用的幾首輕音樂。]
 艾可: 唉呀，這些都軟綿綿的，實在不夠帶勁。還是艾可的演出錄音更適合加進催眠室的歌單，肯定會很好用的~
@@ -16663,7 +16999,7 @@
 </t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t xml:space="preserve">[艾可抱著她的薩克斯風來到你面前。]
 艾可: 今天是個好日子，薩克斯風天才的精彩演出開啟點歌模式了！來，快說說你想聽什麼~
@@ -16676,17 +17012,17 @@
 </t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
         <is>
           <t>艾瑞爾</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t xml:space="preserve">[艾瑞爾左顧右盼，似乎有些慌張]
 艾瑞爾: 大家，為什麼總是盯著我看呢……
@@ -16699,7 +17035,7 @@
 </t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t xml:space="preserve">[任務結束後，艾瑞爾特地向你道歉]
 艾瑞爾: 我好像……總是在拖大家的後腿……
@@ -16712,17 +17048,17 @@
 </t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
         <is>
           <t>卡米利安</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t xml:space="preserve">[你被邀請到卡米利安的私人診所]
 卡米利安: 最近的睡眠品質如何，還需要我的幫助嗎？
@@ -16735,7 +17071,7 @@
 </t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t xml:space="preserve">[卡米利安一邊寫著病例一邊嘆氣]
 卡米利安: 最近找我看病的人突然變多了，你有什麼頭緒？
@@ -16748,17 +17084,17 @@
 </t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
         <is>
           <t>安</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t xml:space="preserve">[安看著以前的照片，有感而發]
 安: 小孩子真可愛啊……又天真，又善良。
@@ -16771,7 +17107,7 @@
 </t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t xml:space="preserve">[患者的情況並不理想，安有些慌張]
 安: 有些患者的情況開始惡化了，彼岸診所那時也是這樣……
@@ -16784,17 +17120,17 @@
 </t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
         <is>
           <t>Mr.Fox</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t xml:space="preserve">[Mr.Fox在你的面前點鈔]
 Mr.Fox: 最近贏了很多官司，進帳不錯。
@@ -16807,7 +17143,7 @@
 </t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t xml:space="preserve">[Mr.Fox嘆了一口氣]
 Mr.Fox: 最近來找我的辯護的案子，都是我不想接的。
@@ -16820,17 +17156,17 @@
 </t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
         <is>
           <t>嘟嘟</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t xml:space="preserve">[嘟嘟端著滿滿一盤炸豬排從廚房裡走出來]
 嘟嘟: 啊，老闆，你也是來找宵夜吃的嗎？
@@ -16843,7 +17179,7 @@
 </t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t xml:space="preserve">[嘟嘟大聲宣傳著她的嗩吶培訓班]
 嘟嘟: 走過路過千萬不要錯過！前二十位學員學費減半啦——欸，那邊的老闆，別走呀，要不要跟著我學嗩吶？
@@ -16856,17 +17192,17 @@
 </t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
         <is>
           <t>萊塔</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t xml:space="preserve">[萊塔偷偷地溜進你的房間]
 萊塔: 局長局長，我又發現了新的冒險地點！
@@ -16879,7 +17215,7 @@
 </t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t xml:space="preserve">[萊塔被你抓到偷偷跑出來玩]
 萊塔: 唔呣……我怎麼，突然站在這裡了……
@@ -16892,17 +17228,17 @@
 </t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
         <is>
           <t>卡西婭</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t xml:space="preserve">[卡西婭在娛樂區瀏覽著香水評論網站。]
 卡西婭: 香水的味道越來越複雜，越來越工業化，都快把純粹的味道覆蓋掉了……就連感悟評論，也充斥著難聞的工業氣息……
@@ -16915,7 +17251,7 @@
 </t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t xml:space="preserve">[卡西婭又收到了選美大賽的評審邀請函。]
 卡西婭: 要想讓我分辨誰才是最頂級的香料……咳，最頂級的美人，我必須要去到現場……
@@ -16928,17 +17264,17 @@
 </t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
         <is>
           <t>肖恩</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t xml:space="preserve">[肖恩又開始頻繁注意自己的手機並在每次有訊息時迅速回覆。]
 肖恩: 「千萬別這樣想，甜心，是他們沒有品味，才這樣不珍惜你。」……呼，總算安慰好了。沒想到管理局內網裡，也有這麼多渴求著一份愛的人。
@@ -16951,7 +17287,7 @@
 </t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t xml:space="preserve">[肖恩面對無論重新整理多少次都會出現在裝置上的網路斷線通知似乎十分暴躁。]
 肖恩: 不是說下午三點恢復嗎？怎麼還沒有動靜？這樣難道不會影響管理局的正常運作嗎？
@@ -16964,17 +17300,17 @@
 </t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
         <is>
           <t>K.K.</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t xml:space="preserve">[K.K.在你的辦公室等待指令]
 K.K.: 有什麼我能幫你做的事情嗎？
@@ -16987,7 +17323,7 @@
 </t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t xml:space="preserve">[K.K.向你詢問自己以前的搭檔]
 K.K.: 白逸那傢伙呢？怎麼又不見了？
@@ -17000,17 +17336,17 @@
 </t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
         <is>
           <t>德莫莉</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t xml:space="preserve">[結束任務後，德莫莉開始安排餘下的時間]
 德莫莉: 今天做點什麼活動好呢？來點推薦吧局長。
@@ -17023,7 +17359,7 @@
 </t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t xml:space="preserve">[德莫莉在數著她的收藏品]
 德莫莉: 要來支援一下我的收藏嗎，局長？
@@ -17036,17 +17372,17 @@
 </t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
         <is>
           <t>佩姬</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t xml:space="preserve">[佩姬飛快地寫著歌詞]
 佩姬: 呦，這不是局長嗎？怎麼，想聽說唱？
@@ -17059,7 +17395,7 @@
 </t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t xml:space="preserve">[佩姬一臉不爽地踢著房間裡的雜物]
 佩姬: 不是說好要幫我弄個調音台嗎？東西呢？
@@ -17072,17 +17408,17 @@
 </t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="inlineStr">
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
         <is>
           <t>海拉</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t xml:space="preserve">[完成任務的海拉直接躺在你的辦公室地板上]
 海拉: 啊——有沒有給我準備犒勞品啊？最好是狄斯幣。
@@ -17095,7 +17431,7 @@
 </t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t xml:space="preserve">[看到你後，海拉表現得很驚訝]
 海拉: 嘖，是九十九那傢伙告訴你我躲在這的？
@@ -17108,17 +17444,17 @@
 </t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="inlineStr">
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
         <is>
           <t>澈</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t xml:space="preserve">[澈揉了揉眼睛，似乎剛睡醒]
 澈: 怎麼？你也來這偷懶？
@@ -17131,7 +17467,7 @@
 </t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t xml:space="preserve">[澈看著你，似乎有些不解]
 澈: 你成天和我們這群禁閉者混在一塊，好玩嗎？
@@ -17144,17 +17480,17 @@
 </t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="inlineStr">
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
         <is>
           <t>胡椒</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t xml:space="preserve">[胡椒興沖沖地跑進了你的辦公室]
 胡椒: 局長，我今天想做壞事！有什麼建議嗎？
@@ -17167,7 +17503,7 @@
 </t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t xml:space="preserve">[胡椒很消沉地站在管理局的操場上]
 胡椒: 做任務還不如種地有趣……
@@ -17180,17 +17516,17 @@
 </t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="inlineStr">
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
         <is>
           <t>雷比尼斯</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t xml:space="preserve">[雷比尼斯似乎早早在辦公室裡等候著你]
 雷比尼斯: 發現局長，等待進程。
@@ -17203,7 +17539,7 @@
 </t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t xml:space="preserve">[雷比尼斯在打掃管理局的衛生]
 雷比尼斯: 局長，請不要在這裡干擾雷比尼斯的工作。
@@ -17216,17 +17552,17 @@
 </t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="inlineStr">
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
         <is>
           <t>曇</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t xml:space="preserve">[曇在擦拭著她的匕首]
 曇: 下次的對手……是誰呢……
@@ -17239,7 +17575,7 @@
 </t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t xml:space="preserve">[曇緊握著雙手，看起來很憤怒]
 曇: 花園！你們居然還敢搶我的目標！
@@ -17252,17 +17588,17 @@
 </t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="inlineStr">
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
         <is>
           <t>EMP</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t xml:space="preserve">[在練習場中的EMP心情似乎很好]
 EMP: 哼哼，今天我允許你直視辛迪加無冕之王的尊容。
@@ -17275,7 +17611,7 @@
 </t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t xml:space="preserve">[在練習場中的EMP心情似乎很差]
 EMP: 別吵，我在練習弓箭呢！
@@ -17288,17 +17624,17 @@
 </t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="inlineStr">
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
         <is>
           <t>芙洛拉</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t xml:space="preserve">[芙洛拉拿著筆記開始對你進行問詢]
 芙洛拉: 你今天應該沒有忘記消防設施的定期檢查吧？
@@ -17311,7 +17647,7 @@
 </t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t xml:space="preserve">[剛出練習場的芙洛拉似乎有些消沉]
 芙洛拉: 唉……怎麼做才能用好消防器械呢。
@@ -17324,17 +17660,17 @@
 </t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="inlineStr">
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
         <is>
           <t>開爾文</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t xml:space="preserve">[開爾文捧著一堆食材向你打招呼]
 開爾文: 局長，管理局的廚房可以加個額外的冷藏庫嗎！
@@ -17347,7 +17683,7 @@
 </t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t xml:space="preserve">[開爾文似乎被人嘲笑了]
 開爾文: 哈啊……我怎麼還沒畢業……
@@ -17360,17 +17696,17 @@
 </t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="inlineStr">
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
         <is>
           <t>瓊</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t xml:space="preserve">[從瓊的房間中傳出了歌聲]
 瓊: 以你本色——
@@ -17383,7 +17719,7 @@
 </t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t xml:space="preserve">[瓊摩挲著之前演唱會的照片，若有所思]
 瓊: 什麼時候這種生活能結束呢，我想去演出。
@@ -17396,17 +17732,17 @@
 </t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="inlineStr">
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
         <is>
           <t>瑪奇朵</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t xml:space="preserve">[瑪奇朵看起來身心愉悅]
 瑪奇朵: 有些敵人看起來很享受哦。
@@ -17419,7 +17755,7 @@
 </t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t xml:space="preserve">[瑪奇朵在打著瞌睡]
 瑪奇朵: 歡迎……光臨新城銀行！啊……不對！管理局！
@@ -17432,17 +17768,17 @@
 </t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="inlineStr">
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
         <is>
           <t>麗莎</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t xml:space="preserve">[麗莎用左手拿出了畫，鋪在桌子上]
 麗莎: 收到了幾幅畫作，又能好好欣賞一番了。
@@ -17455,7 +17791,7 @@
 </t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t xml:space="preserve">[麗莎坐在畫板前，嘆了口氣]
 麗莎: 又畫歪了……
@@ -17468,9 +17804,9 @@
 </t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Sinner_Stuff/Emotion_Check.xlsx
+++ b/Sinner_Stuff/Emotion_Check.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1826,10 +1826,43 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
+          <t>Jelena</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[Jelena is organizing the books on the shelf.]
+Jelena: Your collection here is quite extensive, Chief. I've finished several volumes recently—they're quite captivating. If you're looking for some leisure reading, I'd be happy to make some recommendations.
+Prompt: That's great. I've been meaning to pick up some new books.
+Jelena: I'm delighted you're interested, Chief. Just a moment while I retrieve them for you.
+Jelena: atlas/monthsign/sprite_dailysign_face_4.png
+Prompt: I'm afraid I don't have the time for reading lately.
+Jelena: That's quite alright. I can prepare a reading list for you, and you can explore them at your leisure when time permits.
+Jelena: atlas/monthsign/sprite_dailysign_face_8.png
+</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[A gentle knock breaks the silence of your lit office in the dead of night.]
+Jelena: Still awake at this hour, Chief? Is there something troubling you? I'm here to listen if you'd like to discuss it.
+Prompt: Just having trouble sleeping.
+Jelena: Sometimes a little assistance can help with insomnia. Would you like me to help you?
+Jelena: 'atlas/monthsign/sprite_dailysign_face_4.png', 'atlas/monthsign/sprite_dailysign_face_4.png'
+Prompt: I still have work to do.
+Jelena: If you're willing to trust me, I can assist with some of these tasks. That way you can get some much-needed rest.
+Jelena: atlas/monthsign/sprite_dailysign_face_6.png
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
           <t>Countess Chelsea</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t xml:space="preserve">[Chelsea hands you a gem.]
 Countess Chelsea: Here. This souvenir is for you.
@@ -1842,7 +1875,7 @@
 </t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">[Chelsea looks at Sitri, thinking.]
 Countess Chelsea: Why can't we raise cats here?
@@ -1856,13 +1889,13 @@
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>Cinnabar</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t xml:space="preserve">[You walk past Cinnabar's detention room.]
 Cinnabar: Do you need me as your bodyguard today?
@@ -1875,7 +1908,7 @@
 </t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">[Now that the mission is over, Cinnabar seems to be thinking about something.]
 Cinnabar: Sigh. My past experience doesn't work so well here in the Bureau.
@@ -1889,13 +1922,13 @@
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>Kawa-kawa</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t xml:space="preserve">[Kawa-kawa looks at you with anticipation.]
 Kawa-kawa: Chief! When will we return to the WhiteSands?
@@ -1908,7 +1941,7 @@
 </t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">[Kawa-kawa is a little upset.]
 Kawa-kawa: Chief, I'm missing a few beacons.
@@ -1922,13 +1955,13 @@
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>Levy</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t xml:space="preserve">[Levy dons another flashy new outfit and does a twirl in front of you.]
 Levy: What do you think? Does it look good?
@@ -1941,7 +1974,7 @@
 </t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">[Levy is playing cards with two staff members.]
 Levy: Ha, sorry, I won again.
@@ -1955,13 +1988,13 @@
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>Uni</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t xml:space="preserve">[Uni passes by you with a frown]
 Uni: Why are you wearing only one earring?
@@ -1974,7 +2007,7 @@
 </t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">[Uni is examining a leaflet very carefully]
 Uni: Did this person do another plastic surgery after coming to me?
@@ -1988,13 +2021,13 @@
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>Nino</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t xml:space="preserve">[Nino slaps a material request form down in front of you.]
 Nino: Ding dong. You've triggered a random task, which is to help Nino Sama fill up the snack cabinet!
@@ -2007,7 +2040,7 @@
 </t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">[Nino is checking the live stream's traffic flow chart.]
 Nino: What's going on? The views have dropped so much recently! It's almost the darkest day in Nino Sama's live-streaming history!
@@ -2021,13 +2054,13 @@
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>Golan</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t xml:space="preserve">[Golan is glued to her terminal, reading the posts on an MBCC intranet forum.]
 Golan: Ah, so-and-so and so-and-so are sworn brothers, and so-and-so and so-and-so don't see eye to eye. Here comes a big one: Chief had a thing for that beautiful lady sent by the forces of evil...
@@ -2040,7 +2073,7 @@
 </t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">[Golan drools over the expensive limited-edition plush accessory listed in Faye's product catalog.]
 Golan: Damn it, money is short! I can't hire myself out as a henchman. That's not allowed around here. So how am I going to swindle... no, make some money? Ha, I've got it! I can be an information broker!
@@ -2054,13 +2087,13 @@
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>Dove</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t xml:space="preserve">[Dove is delivering mail to the people at the Bureau.]
 Dove: Oh, if it isn't Chief! You came at the right time. Guess which of these two letters is for you?
@@ -2073,7 +2106,7 @@
 </t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">[Dove receives a letter addressed to her, but instead of opening it right away, she seems to be deliberating over something.]
 Dove: Oh, someone wrote a letter to the mail carrier? How should I reply... Haha, this is no easy choice to make... Should I reel them in with some bait, or say something to give them a good scare...
@@ -2087,13 +2120,13 @@
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>Ninety-Nine</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t xml:space="preserve">[Ninety-Nine keeps striking her blade at the floor.]
 Ninety-Nine: When... is it time for training?
@@ -2106,7 +2139,7 @@
 </t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">[Ninety-Nine heavily knocks on the Confinement Cell's door as the room temperature increases rapidly.]
 Ninety-Nine: Aaahhh... Ah!
@@ -2120,13 +2153,13 @@
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
         <is>
           <t>Wendy</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t xml:space="preserve">[You run into Wendy in the hallway. She holds a chainsaw in her hand.]
 Wendy: How many Corruptors... are left at the Rust?
@@ -2139,7 +2172,7 @@
 </t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">[Wendy tears the document into pieces.]
 Wendy: The Corruptors... Corruptors are moving again! How can this be?
@@ -2153,13 +2186,13 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
         <is>
           <t>Pacassi</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t xml:space="preserve">[Pacassi's room is stacked with books.]
 Pacassi: Are there... any other documents here?
@@ -2172,7 +2205,7 @@
 </t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">[You plan to check on Pacassi.]
 Pacassi: Stay... stay away. I bring misfortune.
@@ -2186,13 +2219,13 @@
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
         <is>
           <t>Dolly</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t xml:space="preserve">[Dolly is enjoying a baseball game.]
 Dolly: Wait a minute! Now is the most exciting part. Don't interrupt me!
@@ -2205,7 +2238,7 @@
 </t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">[Dolly seems upset as she looks at the baseball bat.]
 Dolly: This batch from the Supply Office is so easily broken... I wonder if they're doing their job right.
@@ -2219,13 +2252,13 @@
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
         <is>
           <t>Horo</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t xml:space="preserve">[Horo carries a newly-arrived box of milk.]
 Horo: Chief, would you like one?
@@ -2238,7 +2271,7 @@
 </t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">[Horo holds an ax, spacing out.]
 Horo: Sigh... Boss Zoya doesn't talk to me anymore. I don't know why...
@@ -2252,13 +2285,13 @@
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
         <is>
           <t>Mess</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t xml:space="preserve">[Mess starts to doze off in your office]
 Mess: Hmm, I can't sleep... I've still got the mission... I can't fall asleep yet...
@@ -2271,7 +2304,7 @@
 </t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">[Mess is mumbling to herself beside the furnace]
 Mess: Hmm... What weapon should I make next...
@@ -2285,13 +2318,13 @@
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
         <is>
           <t>Corso</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t xml:space="preserve">[Corso breaks into your office]
 Corso: Hey, I've been so bored lately, I was promised more difficult tasks!
@@ -2304,7 +2337,7 @@
 </t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">[Corso paints herself with the newly arrived oil paints]
 Corso: The ones bought by the MBCC is not very waterproof... So easy to smudge.
@@ -2318,13 +2351,13 @@
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
         <is>
           <t>Christina</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t xml:space="preserve">[Christina is practicing her freestyle fighting skills by pummeling the punching bag in the Training Room]
 Christina: Ah, my dear assistant. Would you like to train with me?
@@ -2337,7 +2370,7 @@
 </t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">[Christina is fiddling with a pair of glasses]
 Christina: Assistant! Come and check out this new tool I made! It can capture the scene in front of you in the blink of an eye and transmit it to your comms.
@@ -2351,13 +2384,13 @@
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
         <is>
           <t>Rise</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t xml:space="preserve">[Passing by the gym room, you get knocked down by a squash ball.]
 Rise: Sorry, Chief. I lost control of the ball.
@@ -2370,7 +2403,7 @@
 </t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">[Rise hands you a coupon.]
 Rise: I booked a large private room at the karaoke, wanna join us, Chief?
@@ -2384,13 +2417,13 @@
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
         <is>
           <t>Mira</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t xml:space="preserve">[Mira calls out to stop you as you're about to leave.]
 Mira: It appears to me that you might be lacking some essentials, Chief. For a long journey to WhiteSands, there are items you absolutely need. Feel free to take anything you require from my shelves, if you'd like?
@@ -2403,7 +2436,7 @@
 </t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">[Mira is hanging freshly laundered bed linens out to dry in the sun.]
 Mira: Changing bedsheets, sweeping floors, and organizing rooms... There's always more housework to do. Thankfully, DisCity's weather is nothing like that of WhiteSands—here, the sheets won't disappear into thin air the moment you hang them out. It saves me the hassle of chasing after them.
@@ -2417,13 +2450,13 @@
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
         <is>
           <t>Iron</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t xml:space="preserve">[Iron leaves the operating room.]
 Iron: If there's something on your mind, speak up. Let's not waste each other's precious time.
@@ -2436,7 +2469,7 @@
 </t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">[Iron looks at the Sinners and sighs.]
 Iron: When are you going to take action and rein in these Sinners?
@@ -2450,13 +2483,13 @@
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
         <is>
           <t>Tetra</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t xml:space="preserve">[Tetra plays with the computers in your office.]
 Tetra: Chief, you'd better watch out for the Bureau's network security.
@@ -2469,7 +2502,7 @@
 </t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">[Tetra lies on the Bureau's document cabinet and sighs.]
 Tetra: It's so boring. I didn't expect it would be so boring even here.
@@ -2483,13 +2516,13 @@
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
         <is>
           <t>Sumire</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t xml:space="preserve">[Sumire arrives at your office and wants to share your workload.]
 Sumire: Chief... you seem troubled. If you don't mind, I'd be happy to share your burden.
@@ -2502,7 +2535,7 @@
 </t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">[Sumire holds a petal but looks worried.]
 Sumire: The killers of the Garden... were here lately?
@@ -2516,13 +2549,13 @@
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
         <is>
           <t>McQueen</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t xml:space="preserve">[McQueen invites you to an art auction.]
 McQueen: So, are you interested?
@@ -2535,7 +2568,7 @@
 </t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">[McQueen is facing an astronomical fine for an art scheme.]
 McQueen: Don't worry. I can deal with it.
@@ -2549,13 +2582,13 @@
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
         <is>
           <t>Lynn</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t xml:space="preserve">[Lynn holds up her camera to take photos of a bunch of recently bloomed flowers in the greenhouse, looking a little puzzled.]
 Lynn: Feels like something is missing...
@@ -2568,7 +2601,7 @@
 </t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">[Lynn concentrates on reading a manga with a blush on her face.]
 Lynn: So sweet...
@@ -2582,13 +2615,13 @@
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
         <is>
           <t>Garofano</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t xml:space="preserve">[Garofano holds a bouquet of carnations.]
 Garofano: What color of flowers do you think I should use to decorate the room today?
@@ -2601,7 +2634,7 @@
 </t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">[Garofano caresses a soft fabric.]
 Garofano: I plan to use it to make a set of pajamas for you. I think it will fit perfectly.
@@ -2615,13 +2648,13 @@
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
         <is>
           <t>Eureka</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t xml:space="preserve">[Eureka, busy sorting through a stack of travel pamphlets, glances up.]
 Eureka: Chief, say you're planning a getaway... which route would you take?
@@ -2634,7 +2667,7 @@
 </t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">[Eureka is browsing a sci-fi movie magazine.]
 Eureka: These props in the movies are just intriguing... Hey Chief, got any movie gadget you want me to whip up?
@@ -2648,13 +2681,13 @@
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
         <is>
           <t>Thistle</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t xml:space="preserve">[Thistle frantically closes the journal she's writing in.]
 Thistle: How long have you been standing there? Why are you looking at me like that? Don't come any closer! I'm just... journaling!
@@ -2667,7 +2700,7 @@
 </t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">[Thistle finds an injured stray kitten in the Bureau's sports ground.]
 Thistle: Look at all this blood. Chief, can we help it?
@@ -2681,13 +2714,13 @@
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
         <is>
           <t>Shrooma</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t xml:space="preserve">[In the morning, Shrooma walks out of her room with dark circles under her eyes.]
 Shrooma: Good morning, Chief. Dark circles under my eyes? I stayed up a bit late last night working on an essay. Thank you for your concern, but don't worry about me.
@@ -2700,7 +2733,7 @@
 </t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t xml:space="preserve">[A roadside kitten arches its back and hisses at Shrooma as she approaches.]
 Shrooma: Sigh, it's like this again... Chief, do you know how to get close to cats?
@@ -2714,13 +2747,13 @@
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
         <is>
           <t>Pricilla</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t xml:space="preserve">[Pricilla seems to have discovered that you are staring at her.]
 Pricilla: What? Do you find my mask interesting?
@@ -2733,7 +2766,7 @@
 </t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t xml:space="preserve">[Pricilla is cleaning her props.]
 Pricilla: I haven't performed for so long. Some of the props are covered in dust.
@@ -2747,13 +2780,13 @@
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
         <is>
           <t>Roulecca</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t xml:space="preserve">[Roulecca is jumping around in your office.]
 Roulecca: Chief, come on! Let's play a game!
@@ -2766,7 +2799,7 @@
 </t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t xml:space="preserve">[Roulecca looks very upset.]
 Roulecca: Sigh... All the clovers I find lately only have three leaves. Is Roulecca's power wearing off?
@@ -2780,13 +2813,13 @@
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
         <is>
           <t>Wolverine</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t xml:space="preserve">[Wolverine looks at you with anticipation.]
 Wolverine: I am... hungry.
@@ -2799,7 +2832,7 @@
 </t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t xml:space="preserve">[Wolverine is a bit clumsy.]
 Wolverine: Pippy... don't run off. Chief, help me out.
@@ -2813,13 +2846,13 @@
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
         <is>
           <t>Matilda</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t xml:space="preserve">[Matilda asks for a rendezvous at the shooting range.]
 Matilda: Chief, I've put together an initial draft of guidelines for using the Bureau's shooting range. I'd appreciate your feedback.
@@ -2832,7 +2865,7 @@
 </t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t xml:space="preserve">[Matilda steps into your office.]
 Matilda: Chief, what do you think is the best way to spend downtime?
@@ -2846,13 +2879,13 @@
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
         <is>
           <t>Yanyan</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t xml:space="preserve">[You notice something amiss with the library door. A mythology book is keeping the door from closing. Yanyan has taken down all the mythology books from their shelves, and one of them must have fallen.]
 Yanyan: Ha! Chief, what are you doing here?
@@ -2865,7 +2898,7 @@
 </t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t xml:space="preserve">[Yanyan races into your office, holding a plate of steaming hot food she has just made.]
 Yanyan: Quick! Have a taste of this, Chief. It's a dish from my hometown. Took me a long time to make it.
@@ -2879,13 +2912,13 @@
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
         <is>
           <t>Jane</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t xml:space="preserve">[Jane is lost in thought as she studies the Bureau's security distribution map.]
 Jane: I feel... there are still some exploitable flaws...
@@ -2898,7 +2931,7 @@
 </t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t xml:space="preserve">[Jane comes to the office to report to you.]
 Jane: I've completed the missions you assigned. Please give me further instructions.
@@ -2912,13 +2945,46 @@
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>Pine</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[Pine shoves a massive stack of audio transcripts into your hands.]
+Pine: Listen, your Bureau needs some serious cleaning up. You know the guy in charge of food supplies? He happens to be the chef's neighbor's ex-wife's son. They're probably splitting kickbacks from the procurement budget. How did this slip past you?
+Prompt: How did you find this out?
+Pine: Just a bit of eavesdropping. With my modified equipment, it was child's play.
+Pine: atlas/monthsign/sprite_dailysign_face_8.png
+Prompt: Don't jump to conclusions.
+Pine: ...Tch, so by-the-book. Fine, take all the time you need with your precious verification process.
+Pine: atlas/monthsign/sprite_dailysign_face_1.png
+</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[To maintain the health standards required of Sinners, Pine has been instructed by the medical staff to improve her diet.]
+Pine: What a pain. Why make such a fuss about food? As long as I'm not starving to death, isn't that enough?
+Prompt: At least stop living on instant noodles and snacks every single day.
+Pine: Then I'll switch to energy drinks. They'll keep my vital signs going, and I won't even need to drink water additionally.
+Pine: atlas/monthsign/sprite_dailysign_face_5.png
+Prompt: Why not try sandwiches? They're quick to make and easy to eat.
+Pine: Not a bad idea. I can also take some with me when I'm out. I'll give it a shot next time.
+Pine: atlas/monthsign/sprite_dailysign_face_8.png
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
         <is>
           <t>Victoria</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t xml:space="preserve">[Victoria can't help but sigh in her room.]
 Victoria: Ah... such a confined space brings comfort to my mind.
@@ -2931,7 +2997,7 @@
 </t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t xml:space="preserve">[Having received the alarm, you make haste to Victoria's room.]
 Victoria: I am... bleeding out again... What should I do...?
@@ -2945,13 +3011,13 @@
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
         <is>
           <t>Ignis</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t xml:space="preserve">[You bring crème brûlée to visit Ignis.]
 Ignis: Are you here... to see me?
@@ -2964,7 +3030,7 @@
 </t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t xml:space="preserve">[In the Bureau's kitchen, Ignis is sighing.]
 Ignis: Sigh... I can never figure out how to cook.
@@ -2978,13 +3044,13 @@
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
         <is>
           <t>Luvia Ray</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t xml:space="preserve">[She seems to be Luvia.]
 Luvia Ray: Shush. Keep quiet. Ray is sleeping right now...
@@ -2997,7 +3063,7 @@
 </t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t xml:space="preserve">[She seems a bit jumpy. Looks like it's Ray.]
 Luvia Ray: The characters for my new show... are all supporting roles.
@@ -3011,13 +3077,13 @@
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
         <is>
           <t>Hecate</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t xml:space="preserve">[Hecate asks you about today's schedule.]
 Hecate: Chief, what will you have me do today?
@@ -3030,7 +3096,7 @@
 </t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t xml:space="preserve">[Hecate is checking the records of past operations.]
 Hecate: If I am gone, there will always be another Hecate. When that happens, I need you to forget me.
@@ -3044,13 +3110,13 @@
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
         <is>
           <t>Oliver</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t xml:space="preserve">[Oliver hands you a doll.]
 Oliver: Chief, would you like to play with me?
@@ -3063,7 +3129,7 @@
 </t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t xml:space="preserve">[Oliver lies in the bedroom, covered in wounds.]
 Oliver: Chief... it hurts... it hurts so bad...
@@ -3077,13 +3143,13 @@
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
         <is>
           <t>Lamia</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t xml:space="preserve">[As you step out of the office, Lamia greets you with deep concern.]
 Lamia: Chief, you look tired, do you need to relax?
@@ -3096,7 +3162,7 @@
 </t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t xml:space="preserve">[Lamia is watching a movie about school life in the Recreation Area, looking a bit puzzled.]
 Lamia: What was it like as a student? Why do so many people miss those days?
@@ -3110,13 +3176,13 @@
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
         <is>
           <t>Echo</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t xml:space="preserve">[Echo is listening to music in the hypnosis room.]
 Echo: Hmph, these are all too soft, not vigorous enough. I'm sure my live recordings will work way much better if you put them in the hypnosis room's playlist!
@@ -3129,7 +3195,7 @@
 </t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t xml:space="preserve">[Echo comes up to you with her saxophone.]
 Echo: Today is a good day! The brilliant saxophone genius is taking song requests now! Quick, what do you want to hear?
@@ -3143,13 +3209,13 @@
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
         <is>
           <t>Ariel</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t xml:space="preserve">[Ariel seems disturbed and uneasy.]
 Ariel: Why is everyone always staring at me...?
@@ -3162,7 +3228,7 @@
 </t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t xml:space="preserve">[Now that the mission is over, Ariel comes to apologize to you.]
 Ariel: I think I am... always a burden to everyone...
@@ -3176,13 +3242,13 @@
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
         <is>
           <t>Chameleon</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t xml:space="preserve">[You are invited to Chameleon's private clinic.]
 Chameleon: Have you been sleeping well lately? Do you need any more of my assistance?
@@ -3195,7 +3261,7 @@
 </t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t xml:space="preserve">[Chameleon is writing a document for her patient and sighing.]
 Chameleon: I have been seeing more patients lately for no reason. Any idea why?
@@ -3209,13 +3275,13 @@
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
         <is>
           <t>Anne</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t xml:space="preserve">[Anne is looking at some pictures from before and feeling emotional.]
 Anne: Children are so cute... They are innocent and kind.
@@ -3228,7 +3294,7 @@
 </t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t xml:space="preserve">[A patient isn't too well. Anne is anxious.]
 Anne: Some patients are getting worse. I saw something similar back when I was at SALVA Hospital...
@@ -3242,13 +3308,13 @@
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
         <is>
           <t>Mr. Fox</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t xml:space="preserve">[Mr. Fox is counting dollar bills in front of you.]
 Mr. Fox: I've been winning quite some cases and making a fortune.
@@ -3261,7 +3327,7 @@
 </t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t xml:space="preserve">[Mr. Fox sighs.]
 Mr. Fox: The lawsuit requests I have been getting are too bad of a deal for me to accept.
@@ -3275,13 +3341,13 @@
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
         <is>
           <t>Dudu</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t xml:space="preserve">[Dudu comes out of the kitchen with a plate full of fried pork chops.]
 Dudu: Hey, boss. Are you here for snacks too?
@@ -3294,7 +3360,7 @@
 </t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t xml:space="preserve">[Dudu loudly advertises her suona classes.]
 Dudu: Don't miss it! The first 20 students get half off their tuition! Hey, boss over there, don't go. Want to learn suona with me?
@@ -3308,13 +3374,13 @@
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
         <is>
           <t>Letta</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t xml:space="preserve">[Letta sneaks into your room]
 Letta: Chief, I've discovered a new adventure location!
@@ -3327,7 +3393,7 @@
 </t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t xml:space="preserve">[Letta was caught by you sneaking out to play]
 Letta: Hmmm... why am I standing here...?
@@ -3341,13 +3407,13 @@
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
         <is>
           <t>Cassia</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t xml:space="preserve">[Cassia is browsing perfume reviews online in the Recreation Area.]
 Cassia: The scent of perfume is becoming more complex, more industrialized, almost covering up the pure scent... Even the reviews are filled with an unpleasant industrial smell...
@@ -3360,7 +3426,7 @@
 </t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t xml:space="preserve">[Cassia receives another invitation to be a judge at a beauty pageant.]
 Cassia: If I have to pick the best perfume material... ahem, I mean, the best beauty, I must be there in person...
@@ -3374,13 +3440,13 @@
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
         <is>
           <t>Shawn</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t xml:space="preserve">[Shawn starts to frequently check her phone again, quickly replying to each message as it arrives.]
 Shawn: "That's not true, sweetie. They just have poor tastes, that's why they don't cherish you." ...Phew, she's finally feeling better. I didn't expect there to be so many people longing for love inside the Bureau.
@@ -3393,7 +3459,7 @@
 </t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t xml:space="preserve">[Shawn is grumpily refreshing her terminal and looking at the no internet connection notification that keeps appearing.]
 Shawn: Wasn't it supposed to be back by 3 p.m.? There's still no signal. Doesn't this affect the Bureau's operations?
@@ -3407,13 +3473,13 @@
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="inlineStr">
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
         <is>
           <t>Zephyr</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t xml:space="preserve">[Zephyr is scrolling through some online articles about home bars zealously.]
 Zephyr: A home bar! Isn't that fascinating? You go to a stranger's house, have a drink, hear their story, and then say your goodbye. You don't have to hold back anything since you don't know each other!
@@ -3426,7 +3492,7 @@
 </t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t xml:space="preserve">[Zephyr is swinging her legs restlessly behind the confinement cell door.]
 Zephyr: Come on, I told you I wasn't trying to escape! I was just curious about what's behind the wall. And hey, by doing that I kinda helped test your security. Let me out already...
@@ -3440,13 +3506,13 @@
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="inlineStr">
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
         <is>
           <t>K.K.</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t xml:space="preserve">[K.K. is waiting for orders in your office.]
 K.K.: What can I do for you?
@@ -3459,7 +3525,7 @@
 </t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t xml:space="preserve">[K.K. asks you about her former partner.]
 K.K.: Where is Bai Yi? Where did she run off to again?
@@ -3473,13 +3539,13 @@
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="inlineStr">
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
         <is>
           <t>Demolia</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t xml:space="preserve">[Now that the mission is over, Demolia starts to arrange her subsequent schedule.]
 Demolia: What will we be doing today? Recommend something to me, Chief.
@@ -3492,7 +3558,7 @@
 </t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t xml:space="preserve">[Demolia is counting her collection.]
 Demolia: Would you like to help me expand my collection, Chief?
@@ -3506,13 +3572,13 @@
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="inlineStr">
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
         <is>
           <t>Peggy</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t xml:space="preserve">[Peggy is writing lyrics quickly.]
 Peggy: Oi, Chief, what brings you here? Would you like to enjoy a performance?
@@ -3525,7 +3591,7 @@
 </t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t xml:space="preserve">[Peggy looks upset and kicks the items in the room.]
 Peggy: I thought you promised to get me an audio mixer. Where is it?
@@ -3539,13 +3605,13 @@
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="inlineStr">
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
         <is>
           <t>Hella</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t xml:space="preserve">[Having finished her mission, Hella lies on the floor in your office.]
 Hella: Ah, have you prepared any rewards for me? I hope it's DisCoins.
@@ -3558,7 +3624,7 @@
 </t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t xml:space="preserve">[Hella looks surprised when she sees you.]
 Hella: Tsk. Did Ninety-Nine tell you I was hiding here?
@@ -3572,13 +3638,13 @@
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="inlineStr">
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
         <is>
           <t>Che</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t xml:space="preserve">[Che rubs his eyes. It seems like he just woke up.]
 Che: What? Have you come to slack off as well?
@@ -3591,7 +3657,7 @@
 </t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t xml:space="preserve">[Che looks at you and seems confused.]
 Che: Don't you think it's a waste of time hanging out with us all day?
@@ -3605,13 +3671,13 @@
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="inlineStr">
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
         <is>
           <t>Pepper</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t xml:space="preserve">[Pepper runs into your office, exhilarated.]
 Pepper: Chief, I want to do something bad today! Do you have any suggestions?
@@ -3624,7 +3690,7 @@
 </t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t xml:space="preserve">[Pepper stands on the Bureau's sports ground, spiritless.]
 Pepper: I'd rather be a farmer than go on missions...
@@ -3638,13 +3704,13 @@
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="inlineStr">
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
         <is>
           <t>Labyrinth</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t xml:space="preserve">[Labyrinth seems to have been waiting for you at the office for a long time.]
 Labyrinth: Chief spotted. Waiting for process.
@@ -3657,7 +3723,7 @@
 </t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t xml:space="preserve">[Labyrinth is cleaning the Bureau and maintaining hygiene.]
 Labyrinth: Chief, please don't disrupt my work here.
@@ -3671,13 +3737,13 @@
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="inlineStr">
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
         <is>
           <t>Gekkabijin</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t xml:space="preserve">[Gekkabijin is cleaning her dagger.]
 Gekkabijin: Who will be... my next opponent...?
@@ -3690,7 +3756,7 @@
 </t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t xml:space="preserve">[Gekkabijin clenches her fist and looks angry.]
 Gekkabijin: The Garden! How dare you steal my target!
@@ -3704,13 +3770,13 @@
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="inlineStr">
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
         <is>
           <t>EMP</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t xml:space="preserve">[In the training facility, EMP seems happy.]
 EMP: Humph. Today, I'll allow you to look at my magnificent face and admire it.
@@ -3723,7 +3789,7 @@
 </t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t xml:space="preserve">[In the training facility, EMP seems to be in a bad mood.]
 EMP: Don't disrupt me. I'm practicing my archery!
@@ -3737,13 +3803,13 @@
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="inlineStr">
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
         <is>
           <t>Flora</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t xml:space="preserve">[Flora holds a notebook and starts asking you questions.]
 Flora: You remember that you have to do a regular check on the fire-fighting equipment today, right?
@@ -3756,7 +3822,7 @@
 </t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t xml:space="preserve">[Flora, who had just left the training facility, seems a bit down.]
 Flora: Sigh... What must I do to make the most out of this fire-fighting equipment?
@@ -3770,13 +3836,13 @@
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="inlineStr">
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
         <is>
           <t>Kelvin</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t xml:space="preserve">[Kelvin greets you while holding food ingredients in her arms.]
 Kelvin: Chief, do you think we can install an additional freezer in the Bureau's kitchen?
@@ -3789,7 +3855,7 @@
 </t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t xml:space="preserve">[It seems Kelvin is being laughed at.]
 Kelvin: Oh, come on... When will I finally graduate...?
@@ -3803,13 +3869,13 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="inlineStr">
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
         <is>
           <t>Joan</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t xml:space="preserve">[You hear singing voices from Joan's room.]
 Joan: Come as you are—
@@ -3822,7 +3888,7 @@
 </t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t xml:space="preserve">[Joan is looking at pictures of the previous concert. Something's troubling her.]
 Joan: When will this life come to an end? I want to be performing on a stage somewhere.
@@ -3836,13 +3902,13 @@
         </is>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="inlineStr">
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
         <is>
           <t>Macchiato</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t xml:space="preserve">[Macchiato looks happy and joyful.]
 Macchiato: Some enemies seem to be enjoying this.
@@ -3855,7 +3921,7 @@
 </t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t xml:space="preserve">[Macchiato is dozing off.]
 Macchiato: Welcome... to the Eastside Bank! Oh... no, wait! I mean the Bureau!
@@ -3869,13 +3935,13 @@
         </is>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1" t="inlineStr">
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
         <is>
           <t>Lisa</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t xml:space="preserve">[Lisa takes out a painting with her left hand and places it on the table.]
 Lisa: I received a few paintings to enjoy.
@@ -3888,7 +3954,7 @@
 </t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t xml:space="preserve">[Lisa sits in front of the easel and sighs.]
 Lisa: I drew the line crooked... again.
@@ -3913,7 +3979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5310,10 +5376,43 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
+          <t>イェレナ</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[イェレナが本棚の本を整理している]
+イェレナ: ここにはたくさんの本がありますわね。最近また数冊読み終えたのですが、どれも面白かったのでおすすめです。もし時間を潰したければ、紹介いたしますわ。
+Prompt: 新しい本を読みたい
+イェレナ: 興味を持ってくださって嬉しいですわ。少々お待ちを。すぐに取ってきますから。
+イェレナ: atlas/monthsign/sprite_dailysign_face_4.png
+Prompt: 最近は読書をする時間がない
+イェレナ: 問題ありません。本のリストを作っておくので、後で時間がある時に気になる本を読んでみてください。
+イェレナ: atlas/monthsign/sprite_dailysign_face_8.png
+</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[深夜、明かりのついた執務室に、控えめなノックの音が響いた]
+イェレナ: 局長さん、こんな時間まで起きているなんて、何か悩み事ですか？もしよければ、相談に乗りますわ。
+Prompt: ただちょっと眠れないだけだ
+イェレナ: 眠れない時は、外部の力に頼るのも一つの手ですわ。私が寝かしつけて差し上げましょうか？
+イェレナ: 'atlas/monthsign/sprite_dailysign_face_4.png', 'atlas/monthsign/sprite_dailysign_face_4.png'
+Prompt: まだ処理しなければならないことがあるんだ
+イェレナ: もし私を信頼してくださるなら、お手伝いいたしますわ。そうすれば、あなたも早く休めるでしょう？
+イェレナ: atlas/monthsign/sprite_dailysign_face_6.png
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
           <t>チェルシー伯爵</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t xml:space="preserve">[チェルシーは宝石をあなたに渡した]
 チェルシー伯爵: ほら、お土産だよ。
@@ -5326,7 +5425,7 @@
 </t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">[チェルシーはシディーを見て、考え込んでいる]
 チェルシー伯爵: なぜ、ここで猫を飼っては駄目なんだ？
@@ -5340,13 +5439,13 @@
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>辰砂</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t xml:space="preserve">[辰砂の収容室を通りかかった]
 辰砂: 今日は私の護衛が必要ですか？
@@ -5359,7 +5458,7 @@
 </t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">[任務終了後、辰砂は何かを考えているようだ]
 辰砂: はぁ、過去の経験がこの管理局では全く通用しない。
@@ -5373,13 +5472,13 @@
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>カワカワ</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t xml:space="preserve">[カワカワは期待に満ちた目であなたを見つめている]
 カワカワ: 局長！砂の海にはいつ戻るの？
@@ -5392,7 +5491,7 @@
 </t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">[カワカワはどこか悲しそうだ]
 カワカワ: 局長、ビーコンが少し足りないんだ。
@@ -5406,13 +5505,13 @@
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>レヴィ</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t xml:space="preserve">[レヴィは新調した派手すぎる服を着て、あなたの前でぐるっと回った]
 レヴィ: どうだ？カッコいいだろ？
@@ -5425,7 +5524,7 @@
 </t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">[レヴィは二人の局員とカードゲームをしている]
 レヴィ: おっと悪い、また勝っちまったな。
@@ -5439,13 +5538,13 @@
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>ユーニ</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t xml:space="preserve">[通りすがりのユーニが、あなたを見て眉をひそめた]
 ユーニ: どうして片方しかピアスをつけてないんだ。
@@ -5458,7 +5557,7 @@
 </t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">[ユーニが一枚のチラシを手に持って、じっくりと見ている]
 ユーニ: この人、あの後また自分の顔を弄ったんじゃ……
@@ -5472,13 +5571,13 @@
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>ニノ</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t xml:space="preserve">[ニノは物資申請リストをあなたの目の前にパッと置いた]
 ニノ: ピコン！ランダム任務を開放しました。ニノ様がお菓子の棚を埋めるのを手伝ってください～
@@ -5491,7 +5590,7 @@
 </t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">[ニノは配信ルームの再生回数曲線図を見ている]
 ニノ: 何で！？最近、人気落ちすぎなんだけど！ニノ様のライブ配信の黒歴史じゃん！
@@ -5505,13 +5604,13 @@
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>ギャラン</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t xml:space="preserve">[ギャランは端末に表示された管理局の内部ネット掲示板の投稿をじっと見つめている]
 ギャラン: ああ、あいつとあいつが兄弟の契りを交わして、あいつとあいつがお互いに嫌い合ってるのか。へぇ、局長も昔、自分を誘惑するために悪の勢力から送り込まれた美人の色気があるお姉さんを好きになったことがあるのか……
@@ -5524,7 +5623,7 @@
 </t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">[ギャランはフェイのカタログに載っている、生産終了になった高価なぬいぐるみのアクセサリーを物欲しそうに見つめている]
 ギャラン: クソ、金が足りない！ここでファイターになるのはダメだろ。どうやって金を手に入れる……いや、小遣いを稼げばいいんだ？そうだ、情報とかゴシップを売ればいいのか！
@@ -5538,13 +5637,13 @@
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>ドーヴ</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t xml:space="preserve">[ドーヴが管理局の皆に手紙を配達している]
 ドーヴ: あっ局長！ちょうどいいところで会ったね。この2通のうち、どっちがあなた宛てか当ててみて？
@@ -5557,7 +5656,7 @@
 </t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">[ドーヴは手紙を受け取ったが、すぐには開封せず、何か考え込んでいる]
 ドーヴ: 信使に手紙を送ってくるなんて。どう返事しようかな……ふふ、悩ましいなぁ。甘いエサで引っ掛けるべきか、言葉を使って脅かすべきか……
@@ -5571,13 +5670,13 @@
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>ナインティナイン</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t xml:space="preserve">[ナインティナインは一心不乱に刀を地面に叩きつけている]
 ナインティナイン: トレーニングは……いつ始まる？
@@ -5590,7 +5689,7 @@
 </t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">[ナインティナインは独房の扉を叩き、室内の温度が急上昇した]
 ナインティナイン: うあ……ああっ！
@@ -5604,13 +5703,13 @@
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
         <is>
           <t>ウェンディ</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t xml:space="preserve">[廊下でチェーンソーを持っているウェンディと出会った]
 ウェンディ: 錆の川の死瞳……残りはどれくらいだ？
@@ -5623,7 +5722,7 @@
 </t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">[ウェンディは目の前の書類を引き裂いてしまった]
 ウェンディ: なぜ、また死体が、死体が歩いてるんだ！
@@ -5637,13 +5736,13 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
         <is>
           <t>ペガシ</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t xml:space="preserve">[ペガシの部屋には本がたくさん積まれている]
 ペガシ: 他に……何か参考になる資料はないの？
@@ -5656,7 +5755,7 @@
 </t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">[ペガシの様子を見に行こうとした]
 ペガシ: 近寄らないで、不幸になるから……
@@ -5670,13 +5769,13 @@
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
         <is>
           <t>ドリー</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t xml:space="preserve">[ドリーが野球観戦をしている]
 ドリー: 待って！今が一番いいところなんだから、邪魔しないでよ！
@@ -5689,7 +5788,7 @@
 </t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">[ドリーが暗い表情で野球のバットを見ている]
 ドリー: 調達部門の備品、ちょっと問題あるんじゃない？振っただけで壊れたよ！
@@ -5703,13 +5802,13 @@
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
         <is>
           <t>ホロ</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t xml:space="preserve">[ホロは入荷したばかりの牛乳パックを持っている]
 ホロ: 局長、1本どうだ？
@@ -5722,7 +5821,7 @@
 </t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">[ホロは斧を握り締め、元気のない目をしている]
 ホロ: うぅ……ゾーヤさんが全然話してくれない……
@@ -5736,13 +5835,13 @@
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
         <is>
           <t>メイス</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t xml:space="preserve">[メイスがあなたの執務室で居眠りしている]
 メイス: むにゃむにゃ……寝ちゃダメ……まだ任務が……寝ちゃダメ……
@@ -5755,7 +5854,7 @@
 </t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">[メイスが炉のそばで独り言を呟いている]
 メイス: うーん……次はどんな武器作ろう……
@@ -5769,13 +5868,13 @@
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
         <is>
           <t>カスロ</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t xml:space="preserve">[カスロがあなたの執務室に入り込んできた]
 カスロ: おい、退屈で死にそうだ。もっとハイレベルな任務を寄こしやがれ！そう約束したじゃねぇか！
@@ -5788,7 +5887,7 @@
 </t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">[カスロは鏡を見ながら、新しく届いたフェイスペイントを自分の顔に塗っている]
 カスロ: これ、耐水性がイマイチだな……すぐ落ちちまいやがる。
@@ -5802,13 +5901,13 @@
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
         <is>
           <t>クリスティナ</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t xml:space="preserve">［クリスティナは訓練室でサンドバッグを叩いてボクシングの練習をしている］
 クリスティナ: 親愛なる相棒、一緒に練習しない？
@@ -5821,7 +5920,7 @@
 </t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">［クリスティナは眼鏡を弄っている］
 クリスティナ: 相棒！見て！あたしが作った新道具！まばたきした瞬間に目の前の映像を撮影し、端末に送信することができるの。
@@ -5835,13 +5934,13 @@
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
         <is>
           <t>ライズ</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t xml:space="preserve">[運動室の前を通りかかった時、あなたはスカッシュボールに当たって倒れてしまった]
 ライズ: ごめん局長。ボールを上手くコントロールできなくて。
@@ -5854,7 +5953,7 @@
 </t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">[ライズがあなたにクーポンを渡した]
 ライズ: 「K幻量販店」ってカラオケ屋の大部屋なんだけど、局長も一緒にどう？
@@ -5868,13 +5967,13 @@
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
         <is>
           <t>ミラ</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t xml:space="preserve">[出かけようとするあなたをミラが呼び止めた]
 ミラ: 私が思うに、局長にはまだ何かが足りない気がするわ。砂の海へ遠征するなら、もっと装備が必要よ。よければ私の棚から取っていってちょうだい。
@@ -5887,7 +5986,7 @@
 </t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">[ミラは洗ったばかりのシーツを干している]
 ミラ: シーツの交換、床掃除、部屋の片付け……やるべき家事は山積みね。でも幸い、ディスの気候は砂の海と違うから、乾いたばかりのシーツが跡形もなく消えたりしないし、追いかける時間を節約できるわ。
@@ -5901,13 +6000,13 @@
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
         <is>
           <t>アイン</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t xml:space="preserve">[アインが手術室から出てきた」
 アイン: 用事があるなら、早く言ってくれ。お互い時間は貴重だろう？
@@ -5920,7 +6019,7 @@
 </t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">[アインはコンビクトたちを見て、抑えきれないほどのため息をついた]
 アイン: いつになったらあのコンビクトたちをどうにかしてくれるんだ？
@@ -5934,13 +6033,13 @@
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
         <is>
           <t>テトラ</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t xml:space="preserve">[テトラはあなたの執務室にあるコンピュータをいじっている]
 テトラ: 局長、管理局のサイバーセキュリティに注意を払った方がいい。
@@ -5953,7 +6052,7 @@
 </t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">[テトラは管理局の書類棚に寄り掛かっており、ため息が止まらないようだ]
 テトラ: つまらない——ここもこんなにつまらないとは思わなかった。
@@ -5967,13 +6066,13 @@
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
         <is>
           <t>菫</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t xml:space="preserve">[執務室にやってきた菫は、あなたのために仕事を分担しようとしているようだ]
 菫: 局長様……何かお困りごとですか？わたしでよければ、お話を聞かせてください。
@@ -5986,7 +6085,7 @@
 </t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">[菫は花びらをつまんで慌てふためいた]
 菫: 花庭園の殺し屋が……ここに来たのですか？
@@ -6000,13 +6099,13 @@
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
         <is>
           <t>マックイーン</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t xml:space="preserve">[マックイーンがあなたを美術品オークションに誘ってきた]
 マックイーン: どうかな？興味あるかい？
@@ -6019,7 +6118,7 @@
 </t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">[美術品詐欺事件で、マックイーンに高額な罰金が課せられそうだ]
 マックイーン: 心配しないでおくれ。対処ならできる。
@@ -6033,13 +6132,13 @@
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
         <is>
           <t>リン</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t xml:space="preserve">[リンはカメラを構えて温室で咲いたばかりの花を撮っているが、少し困った顔をしている]
 リン: 何か足りないような気がします……
@@ -6052,7 +6151,7 @@
 </t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">[リンは頬を赤く染めながら漫画に熱中している]
 リン: ラブラブですね……
@@ -6066,13 +6165,13 @@
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
         <is>
           <t>ガロファノ</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t xml:space="preserve">[ガロファノはカーネーションの花束を抱えている]
 ガロファノ: 今日のお部屋の飾り付けは……どの色の花がよろしいでしょうか？
@@ -6085,7 +6184,7 @@
 </t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">[ガロファノは柔らかい生地を触っている]
 ガロファノ: これを使ってパジャマをあなたに贈りたいと思っています。きっと似合うことでしょう。
@@ -6099,13 +6198,13 @@
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
         <is>
           <t>エウレカ</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t xml:space="preserve">[エウレカは旅行会社のチラシを整理している。]
 エウレカ: 旅行に行くなら……どのツアーにする？
@@ -6118,7 +6217,7 @@
 </t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">[エウレカはSF映画を紹介する雑誌を読んでいる。]
 エウレカ: こういう映画に出てくる道具はどれも面白そうだね……何か作ってほしい映画の道具とかある？
@@ -6132,13 +6231,13 @@
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
         <is>
           <t>アザミ</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t xml:space="preserve">[アザミは慌てた様子で、書きかけの手帳を閉じた]
 アザミ: いつ来たの？なんでそんな目で私を見てるのよ？こっちに来ないで！私はただ……手帳を書いてるだけよ！
@@ -6151,7 +6250,7 @@
 </t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">[アザミは管理局のグラウンドで怪我をした小さな野良猫を見つけた]
 アザミ: 血がたくさん出てるわね。局長、助けてもいい？
@@ -6165,13 +6264,13 @@
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
         <is>
           <t>シュルマ</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t xml:space="preserve">[朝、シュルマは目の下にひどいクマがある顔で部屋から出てきた]
 シュルマ: おはよう、局長。え？目の下のクマ？昨夜は作文を書いていたから寝るのが遅かったの。お気遣いありがとう。でも私のことは心配しなくて大丈夫よ。
@@ -6184,7 +6283,7 @@
 </t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t xml:space="preserve">[道端にいた子猫が背中を丸め、近づいてくるシュルマに向かって威嚇するように鳴いた]
 シュルマ: ああ、まただわ……局長、どうすれば猫ちゃんと仲良くなれるの？
@@ -6198,13 +6297,13 @@
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
         <is>
           <t>プリシラ</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t xml:space="preserve">[プリシラは、あなたが自分を見つめているのに気づいたようだ]
 プリシラ: あら？あたしのマスクに興味ある？
@@ -6217,7 +6316,7 @@
 </t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t xml:space="preserve">[プリシラは小道具を拭き取っている]
 プリシラ: 前のショーから随分と時間が経ってるから、小道具の中には埃をかぶってるものもあるのよ。
@@ -6231,13 +6330,13 @@
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
         <is>
           <t>ルリエカ</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t xml:space="preserve">[ルリエカはあなたの執務室を跳ね回っている]
 ルリエカ: 局長！局長！！一緒にゲームをしようよ！
@@ -6250,7 +6349,7 @@
 </t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t xml:space="preserve">[ルリエカはとても落ち込んでいるように見える]
 ルリエカ: はぁ……最近四葉のクローバーが全然見つからない……ルリの能力、効いてないのかな？
@@ -6264,13 +6363,13 @@
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
         <is>
           <t>クズリ</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t xml:space="preserve">[クズリは期待に満ちた表情であなたを見つめている]
 クズリ: 腹……減った。
@@ -6283,7 +6382,7 @@
 </t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t xml:space="preserve">[クズリは少し慌てふためいている]
 クズリ: ピーちゃん……騒がさないで。お前、助けてくれ。
@@ -6297,13 +6396,13 @@
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
         <is>
           <t>マチルダ</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t xml:space="preserve">[マチルダがあなたを射撃場へ誘った]
 マチルダ: 局長、管理局の射撃場利用規定について、たたき台を作成しました。ご確認ください。
@@ -6316,7 +6415,7 @@
 </t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t xml:space="preserve">[マチルダがあなたの執務室にやってきた]
 マチルダ: 局長、休憩中にするべき最も価値のあることは何だと思いますか？
@@ -6330,13 +6429,13 @@
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
         <is>
           <t>煙煙</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t xml:space="preserve">[図書室の入り口で異常が検出された。煙煙が神話の本を全て取り出したせいで、そのうちの1冊が偶然ドアに挟まってしまったのが原因だ]
 煙煙: あれ？局長、なんでここにいるの？
@@ -6349,7 +6448,7 @@
 </t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t xml:space="preserve">[煙煙は手作りの料理を持ってあなたの執務室に急いで入ってきた]
 煙煙: ほらほら、局長も食べてみて？ウチが時間をかけて作った故郷の料理なんだ！
@@ -6363,13 +6462,13 @@
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
         <is>
           <t>ジェイン</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t xml:space="preserve">[ジェインは管理局の警備配置図を見ながら考え込んでいる]
 ジェイン: まだ……隙があるような気がする……
@@ -6382,7 +6481,7 @@
 </t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t xml:space="preserve">[ジェインがあなたに報告するために執務室にやって来た]
 ジェイン: 割り当てられた任務は全部完了した。次の指示を頼む。
@@ -6396,13 +6495,46 @@
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>パイン</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[パインが録音データを書き出した分厚いファイルを、あなたの手に叩きつけるように渡してきた]
+パイン: あのさ……この管理局、もっとしっかり是正すべきじゃないか？食材供給の担当者はシェフの隣人で、そいつは元奥さんの連れ子らしい。多分、二人で都合つけて調達費用からリベートを得てる。気付いてないのか？
+Prompt: どうやって分かったんだ？
+パイン: 会話を盗聴しただけだ。ウチが改造した機械を使えば楽勝だろ？
+パイン: atlas/monthsign/sprite_dailysign_face_8.png
+Prompt: 勝手に決めつけない方がいい
+パイン: ……ったく、マジでぬるいな。じゃあ、ゆっくり調査して確認してみろよ。
+パイン: atlas/monthsign/sprite_dailysign_face_1.png
+</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[コンビクトの健康を守るために、パインは治療医から食事の改善を指示された]
+パイン: めんど。食べ物なんて何だっていいだろ？飢え死にしなきゃいいだけだ。
+Prompt: せめて、毎日インスタントラーメンやお菓子ばかりはやめた方がいい
+パイン: じゃあ、エナジードリンクにするか。生命維持はできるし、お湯も沸かさなくていいしな。
+パイン: atlas/monthsign/sprite_dailysign_face_5.png
+Prompt: サンドイッチはどうだ？作るのも食べるのも簡単だぞ
+パイン: 悪くないな。外出時にも持ち運べるし。今度試してみる。
+パイン: atlas/monthsign/sprite_dailysign_face_8.png
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
         <is>
           <t>ビクトリア</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t xml:space="preserve">[ビクトリアは部屋でずっと感心している]
 ビクトリア: ああ……この閉ざされた空間、とても落ち着くわ。
@@ -6415,7 +6547,7 @@
 </t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t xml:space="preserve">[あなたは警報を受けるとすぐにビクトリアの部屋に駆けつけた]
 ビクトリア: また……多くの血が流れている……どうしよう……
@@ -6429,13 +6561,13 @@
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
         <is>
           <t>イグニ</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t xml:space="preserve">[キャラメルプリンを持って、イグニに会いに来た]
 イグニ: あなた……わざわざわたしに会いに来たの？
@@ -6448,7 +6580,7 @@
 </t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t xml:space="preserve">[管理局の厨房で、イグニはため息が止まらないようだ]
 イグニ: ううっ……一体どうしたら料理ができるようになるんだろう。
@@ -6462,13 +6594,13 @@
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
         <is>
           <t>ルヴィア・レイ</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t xml:space="preserve">[ルヴィアのように見える]
 ルヴィア・レイ: しっ、静かにしてください。レイは眠っています……
@@ -6481,7 +6613,7 @@
 </t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t xml:space="preserve">[彼女は少しイライラしていて、レイのようにも見える]
 ルヴィア・レイ: 新作のキャスティング……すべて脇役でした。
@@ -6495,13 +6627,13 @@
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
         <is>
           <t>ヘカテー</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t xml:space="preserve">[ヘカテーは今日の予定を尋ねてきた]
 ヘカテー: 局長、本日のご命令を。
@@ -6514,7 +6646,7 @@
 </t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t xml:space="preserve">[ヘカテーは過去の作戦記録に目を通している］
 ヘカテー: わたしが消えても、次の「ヘカテー」がいます。その時にはわたしを忘れてください。
@@ -6528,13 +6660,13 @@
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
         <is>
           <t>オリバー</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t xml:space="preserve">[オリバーは人形をあなたに渡した]
 オリバー: 局長～、オリバーと遊ぼ？
@@ -6547,7 +6679,7 @@
 </t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t xml:space="preserve">[ボロボロになったオリバーが寝室で横になっている]
 オリバー: 局長……痛い……痛いよ……
@@ -6561,13 +6693,13 @@
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
         <is>
           <t>ラミア</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t xml:space="preserve">[執務室から出ると、ラミアがすぐ心配そうに近寄ってきた]
 ラミア: 局長、お疲れのようですね。リラックスが必要ではありませんか？
@@ -6580,7 +6712,7 @@
 </t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t xml:space="preserve">[ラミアは娯楽エリアで青春学園映画を観賞している。彼女は少し戸惑っているようだ]
 ラミア: 学生時代とはいったいどのようなものでしょう？なぜ大勢の人がその日々を懐かしむのでしょうか？
@@ -6594,13 +6726,13 @@
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
         <is>
           <t>アイカ</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t xml:space="preserve">[アイカが催眠室でよく使われる穏やかな音楽を何曲か聞いている]
 アイカ: うーん、どれもフワフワしててパンチが足りないなぁ。やっぱりアタイの演奏を録音して催眠室のプレイリストに追加した方がいいと思う。きっと役に立つよ～
@@ -6613,7 +6745,7 @@
 </t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t xml:space="preserve">[アイカがサックスを抱えてあなたのもとにやって来た]
 アイカ: 今日はいい日だよ。天才サックス奏者の最高な演奏にリクエストモードが追加されたんだ！さぁ、聞きたい曲を言ってみて～
@@ -6627,13 +6759,13 @@
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
         <is>
           <t>アリエル</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t xml:space="preserve">[アリエルは左右を見回して、少し慌てた様子だ]
 アリエル: 皆さん、どうしていつもわたくしを見つめているんでしょう……
@@ -6646,7 +6778,7 @@
 </t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t xml:space="preserve">[任務の後、アリエルはあなたに謝った]
 アリエル: わたくしは……いつも皆さんの足を引っ張っているようです……
@@ -6660,13 +6792,13 @@
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
         <is>
           <t>カメリアン</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t xml:space="preserve">[カメリアンの個人診療所に招待された]
 カメリアン: 最近の睡眠はどう？まだわたしの助けが必要かしら？
@@ -6679,7 +6811,7 @@
 </t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t xml:space="preserve">[カメリアンはカルテを書きながらため息をつく]
 カメリアン: 最近、治療を受けに来る人が急に増えたけど、何か思い当たることはない？
@@ -6693,13 +6825,13 @@
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
         <is>
           <t>アン</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t xml:space="preserve">[アンは以前の写真を感慨深く眺める]
 アン: 子供はとてもかわいいですね……純真で、優しい。
@@ -6712,7 +6844,7 @@
 </t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t xml:space="preserve">[患者の容態が思わしくなく、アンは少し慌てている]
 アン: 悪化し始めた患者さんがいます。あの時の彼岸クリニックのように……
@@ -6726,13 +6858,13 @@
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
         <is>
           <t>Mr.Fox</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t xml:space="preserve">[Mr.Foxがあなたの目の前でお金を数えている]
 Mr.Fox: 最近は多くの訴訟で勝訴が続いています。悪くない収入ですね。
@@ -6745,7 +6877,7 @@
 </t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t xml:space="preserve">[Mr.Foxはため息をつく]
 Mr.Fox: 最近の弁護を依頼された案件は、受けたくない案件ばかりなんですよ。
@@ -6759,13 +6891,13 @@
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
         <is>
           <t>トト</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t xml:space="preserve">[トトが皿いっぱいのトンカツを持って厨房から出てきた]
 トト: おっ、あんたも何か食べに来たのか？
@@ -6778,7 +6910,7 @@
 </t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t xml:space="preserve">[トトが大きな声で自分のチャルメラ塾を宣伝している]
 トト: へいらっしゃい！最初の20人の生徒は授業料が半額だよ——なぁ、そこのあんた、チャルメラに興味はないかい？
@@ -6792,13 +6924,13 @@
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
         <is>
           <t>レタ</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t xml:space="preserve">[レタはこっそりあなたの部屋に入り込んだ]
 レタ: 局長局長、冒険できる新しい場所を見つけたよぉ！
@@ -6811,7 +6943,7 @@
 </t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t xml:space="preserve">[あなたは管理局を抜け出してこっそりと外で遊ぶレタを捕まえた]
 レタ: あれ……わたしは、どうしてこんなところに……
@@ -6825,13 +6957,13 @@
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
         <is>
           <t>カシア</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t xml:space="preserve">[カシアは娯楽エリアで香水のレビューサイトを見ている]
 カシア: 香水の香りがますます複雑になって、工業製品のようになっているわ。このままだと純粋な香りが消えてしまう……香水のレビューまで、工業製品の匂いがする……
@@ -6844,7 +6976,7 @@
 </t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t xml:space="preserve">[美人コンテストの審査員にと、カシアは再び招待を受けた]
 カシア: どれが一番の香料……いや、美人なのか、判別してほしいのね。私が行く必要がありそうだわ……
@@ -6858,13 +6990,13 @@
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
         <is>
           <t>ショーン</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t xml:space="preserve">[ショーンは再び携帯電話を頻繁に見るようになり、メッセージが届くたびに素早く返信している］
 ショーン: 「そんなこと考えちゃダメだよ、ハニー。彼らがあなたを大事にしないのは、センスがないからだ」……ふぅ、やっと落ち着いてくれた。管理局のローカルネットワークにも、愛を求める人がこれほどいるとはね。
@@ -6877,7 +7009,7 @@
 </t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t xml:space="preserve">[ショーンは、何度更新しても端末に表示されるネットワーク切断通知にイライラしているようだ］
 ショーン: 午後3時に復旧すると言っていただろう？なぜまだ何も変わっていないんだ？管理局の通常業務に影響はないのか？
@@ -6891,13 +7023,13 @@
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="inlineStr">
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
         <is>
           <t>ゼファー</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t xml:space="preserve">[ゼファーが興味津々にホームバーのネットニュースを読んでいる]
 ゼファー: ホームバーか～超面白そうじゃん！知らない人の家で1杯飲んで、話を聞いて、帰る。その後は、二度と会わない！みんな知らない人同士だから、気を使うこともないってわけね！
@@ -6910,7 +7042,7 @@
 </t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t xml:space="preserve">[ゼファーが独房で退屈そうに足を揺らしている]
 ゼファー: あ～あ、何度も言ってるけどさぁ、別に逃げようとしたわけじゃないってば。ただ、塀の向こうに何があるのか気になっただけでさ～ついでに塀の安全性もチェックしてあげたじゃん～だから出してよ～
@@ -6924,13 +7056,13 @@
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="inlineStr">
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
         <is>
           <t>K.K.</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t xml:space="preserve">[K.K.はあなたの執務室で指示を待っている]
 K.K.: 何か手伝いできることはない？
@@ -6943,7 +7075,7 @@
 </t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t xml:space="preserve">[K.K.が仲間のことを聞いてきた]
 K.K.: ハクイツの奴は？またどっかに行ったのか？
@@ -6957,13 +7089,13 @@
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="inlineStr">
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
         <is>
           <t>デモーリー</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t xml:space="preserve">[任務を終えたデモーリーは、残りの時間をどう過ごそうか考えている]
 デモーリー: 今日は何をしたらいいかな？局長はどうして欲しい？
@@ -6976,7 +7108,7 @@
 </t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t xml:space="preserve">[デモーリーは彼女のコレクションを数えている]
 デモーリー: あたいのコレクションに何か支援してくれるのかい、局長？
@@ -6990,13 +7122,13 @@
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="inlineStr">
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
         <is>
           <t>ペギー</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t xml:space="preserve">[ペギーは手早く歌詞を書いている]
 ペギー: ようっ！局長じゃないか。なんだ、ラップでも聴きたいのか？
@@ -7009,7 +7141,7 @@
 </t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t xml:space="preserve">[ペギーは苛立った様子で部屋の散乱物を蹴る]
 ペギー: ミキサーをくれるって言ってなかったっけ？どこにあるんだよ？
@@ -7023,13 +7155,13 @@
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="inlineStr">
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
         <is>
           <t>ヘラ</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t xml:space="preserve">[任務を完了したヘラが執務室の床に直接横たわっている]
 ヘラ: ねぇ——ご褒美とかないの？ディスコインがいいんだけど。
@@ -7042,7 +7174,7 @@
 </t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t xml:space="preserve">[あなたを見て、ヘラは驚いた]
 ヘラ: ちぇっ、あたしがここに隠れてるってナインちゃんが言ったの？
@@ -7056,13 +7188,13 @@
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="inlineStr">
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
         <is>
           <t>澈</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t xml:space="preserve">[澈は目覚めたばかりのように目をこする]
 澈: 何だ？お前もサボりに来たのか？
@@ -7075,7 +7207,7 @@
 </t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t xml:space="preserve">[澈は少し戸惑ったようにあなたを見ている]
 澈: 毎日のように俺たちコンビクトと一緒にいて、何か面白いか？
@@ -7089,13 +7221,13 @@
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="inlineStr">
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
         <is>
           <t>ペッパー</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t xml:space="preserve">[ペッパーが楽しそうに執務室に駆けつけた]
 ペッパー: 局長、一緒に悪いことをしよう！何か提案ある？
@@ -7108,7 +7240,7 @@
 </t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t xml:space="preserve">[ペッパーは管理局のグラウンドでとても不機嫌そうに立っている]
 ペッパー: 任務より、畑仕事の方が面白いな……
@@ -7122,13 +7254,13 @@
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="inlineStr">
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
         <is>
           <t>ラビリンス</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t xml:space="preserve">[ラビリンスは早くから執務室で待機しているようだ]
 ラビリンス: 局長様を発見いたしました。プロセスの待機中です。
@@ -7141,7 +7273,7 @@
 </t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t xml:space="preserve">[ラビリンスは管理局を掃除している]
 ラビリンス: 局長様。そこにいられると、ラビリンスの作業に支障をきたします。
@@ -7155,13 +7287,13 @@
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="inlineStr">
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
         <is>
           <t>ゲツライコウ</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t xml:space="preserve">[ゲツライコウはダガーを磨いている]
 ゲツライコウ: 次の相手は……誰だ……
@@ -7174,7 +7306,7 @@
 </t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t xml:space="preserve">[ゲツライコウは両手を握りしめ、怒っているように見える]
 ゲツライコウ: 花庭園！よくもまた私のターゲットを！
@@ -7188,13 +7320,13 @@
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="inlineStr">
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
         <is>
           <t>EMP</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t xml:space="preserve">[練習場にいるEMPはご機嫌のようだ]
 EMP: ふふ、シンジケートの無冠の王の姿を見ることを許してやろう。
@@ -7207,7 +7339,7 @@
 </t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t xml:space="preserve">[練習場にいるEMPは機嫌が悪いようだ]
 EMP: 邪魔しないで！練習中だから！
@@ -7221,13 +7353,13 @@
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="inlineStr">
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
         <is>
           <t>フローラ</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t xml:space="preserve">[フローラはメモを取り、あなたに質問を始めた]
 フローラ: まさか、今日の消防の定期点検を忘れていないですよね？
@@ -7240,7 +7372,7 @@
 </t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t xml:space="preserve">[訓練を終えたばかりのフローラは、少し落ち込んでいるようだ]
 フローラ: はぁ……どうしたら消防器具を上手く使えるんだろう。
@@ -7254,13 +7386,13 @@
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="inlineStr">
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
         <is>
           <t>ケルビン</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t xml:space="preserve">[ケルビンが食材の山を持って出迎えてくれる]
 ケルビン: 局長、管理局の厨房に冷蔵室を増設できませんか？
@@ -7273,7 +7405,7 @@
 </t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t xml:space="preserve">[ケルビンは誰かに笑われたようだ]
 ケルビン: はあ……どうしてまだ卒業できないの……
@@ -7287,13 +7419,13 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="inlineStr">
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
         <is>
           <t>ジョーン</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t xml:space="preserve">[ジョーンの部屋から歌声が聞こえてくる]
 ジョーン: Come as you are——
@@ -7306,7 +7438,7 @@
 </t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t xml:space="preserve">[ジョーンは昔のライブの写真を眺めながら、考え込んでいる]
 ジョーン: いつになったらこの生活が終わるんだよっ！ライブに行きてえ。
@@ -7320,13 +7452,13 @@
         </is>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="inlineStr">
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
         <is>
           <t>マキアート</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t xml:space="preserve">[マキアートは心身ともに幸せそうだ]
 マキアート: 気持ちよくなってしまう敵もいるのよ。
@@ -7339,7 +7471,7 @@
 </t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t xml:space="preserve">[マキアートは居眠りしている]
 マキアート: ニューシティ銀行へようこそ！あっ、違う！管理局でした！
@@ -7353,13 +7485,13 @@
         </is>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1" t="inlineStr">
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
         <is>
           <t>リザー</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t xml:space="preserve">[リザーは絵を取り出し、テーブルに置いた]
 リザー: 数枚の絵が届いたわ。しばらく楽しむことができそうね。
@@ -7372,7 +7504,7 @@
 </t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t xml:space="preserve">[リザーが画板の前に座り、ため息をつく]
 リザー: 線が上手く書けないわ……
@@ -7397,7 +7529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8794,10 +8926,43 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
+          <t>옐레나</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[옐레나가 책장에 있는 책을 정리하고 있다]
+옐레나: 여기 소장된 책이 많더라고요. 최근에 몇 권 더 읽어봤는데, 매력적이고 볼 가치가 있었어요. 시간을 때우려면 제가 몇 권 추천해 드릴게요.
+Prompt: 나도 요즘 새로운 책을 읽고 싶었어
+옐레나: 관심 있다고 하시니 다행이네요. 잠시만요, 책 꺼내서 드릴게요.
+옐레나: atlas/monthsign/sprite_dailysign_face_4.png
+Prompt: 요즘에는 책을 읽을 시간이 없어
+옐레나: 괜찮아요. 제가 몇 권 추려놓을 테니까 나중에 시간 되실 때 읽어 보세요.
+옐레나: atlas/monthsign/sprite_dailysign_face_8.png
+</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[늦은 밤, 불이 켜져 있는 사무실에 절제된 노크 소리가 들려왔다]
+옐레나: 국장님, 왜 아직 안 주무세요? 무슨 문제라도 있으세요? 괜찮으시다면 저한테 말씀하셔도 돼요.
+Prompt: 그냥 잠이 안 와서
+옐레나: 잠이 오지 않을 때는 도움을 받는 것도 방법이에요. 제가 재워드릴까요?
+옐레나: 'atlas/monthsign/sprite_dailysign_face_4.png', 'atlas/monthsign/sprite_dailysign_face_4.png'
+Prompt: 아직 할 일이 좀 남아서
+옐레나: 저를 믿어주신다면 제가 함께 수고를 덜어드릴게요. 그러면 조금 더 일찍 쉬실 수 있을 거예요.
+옐레나: atlas/monthsign/sprite_dailysign_face_6.png
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
           <t>첼시 백작</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t xml:space="preserve">[첼시가 보석 하나를 당신 앞으로 내민다]
 첼시 백작: 받아, 이건 네 기념품이야.
@@ -8810,7 +8975,7 @@
 </t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">[시트리를 바라보고 있는 첼시, 생각에 잠긴 듯 하다]
 첼시 백작: 여기서 고양이를 왜 못 키우는 건데?
@@ -8824,13 +8989,13 @@
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>시나바</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t xml:space="preserve">[시나바의 수용실을 지나쳤다]
 시나바: 오늘 제 밀착 보호가 필요하신가요?
@@ -8843,7 +9008,7 @@
 </t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">[임무를 완성한 시나바, 무슨 생각을 하고 있는 듯 하다]
 시나바: 에휴, 저의 과거 경력은 관리국에서 별로 쓸모가 없군요.
@@ -8857,13 +9022,13 @@
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>카와카와</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t xml:space="preserve">[카와카와가 기대에 찬 얼굴로 바라보고 있다]
 카와카와: 국장! 언제 화이트 샌드로 돌아가?
@@ -8876,7 +9041,7 @@
 </t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">[카와카와가 속상해 보인다]
 카와카와: 국장, 내 비콘 몇 개가 사라졌어.
@@ -8890,13 +9055,13 @@
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>레비</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t xml:space="preserve">[매우 화려한 새 옷을 입은 레비가 당신의 앞에서 한바퀴 돌았다]
 레비: 어때, 어울려?
@@ -8909,7 +9074,7 @@
 </t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">[레비가 직원 두 명과 포커를 하고 있다]
 레비: 이걸 어쩌나? 내가 또 이겨버렸네?
@@ -8923,13 +9088,13 @@
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>유니</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t xml:space="preserve">[유니가 미간을 찌푸리며 당신 곁을 지났다]
 유니: 귀걸이를 왜 한쪽만 했지?
@@ -8942,7 +9107,7 @@
 </t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">[유니가 전단지 한 장을 들고 자세히 살펴보고 있다]
 유니: 이 사람 나한테 왔다 간 다음에 또 얼굴에 손댔나…?
@@ -8956,13 +9121,13 @@
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>니노</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t xml:space="preserve">[니노가 구매신청서를 당신 앞에 내밀었다]
 니노: 짜짠, 랜덤 임무에 당첨되셨습니다. 이 니노 님을 위해 간식을 채워 넣으시오~
@@ -8975,7 +9140,7 @@
 </t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">[니노가 라이브 방송의 조회수 그래프를 보고 있다]
 니노: 뭐야, 요즘 인기가 너무 많이 떨어졌잖아! 이거 완전히 니노 님 라이브 방송 초유의 흑역사잖아?!
@@ -8989,13 +9154,13 @@
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>콜란</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t xml:space="preserve">[콜란이 단말기를 들고 관리국 인트라넷의 게시글을 뚫어져라 쳐다보고 있다]
 콜란: 아하, 걔랑 걔가 의형제를 맺었고 걔랑 걔는 서로 사이가 안 좋았던 거구나, 국장도 악의 무리가 자신을 유혹하기 위해 보냈던 성숙미 넘치던 여성을 좋아했다니…
@@ -9008,7 +9173,7 @@
 </t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">[콜란이 페이의 상품 목록 속 값비싸고 한정판인 인형 키링에 눈독을 들이고 있다]
 콜란: 젠장, 돈이 모자라! 여기선 파이터 일도 못 하게 하니 어떻게 돈을 따… 아니, 용돈을 벌지? 아, 알겠다, 정보와 가십거리를 파는 거야!
@@ -9022,13 +9187,13 @@
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>도브</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t xml:space="preserve">[도브가 관리국 사람들에게 편지를 배달하고 있다]
 도브: 국장님? 마침 잘 됐다, 여기 편지 두 통 중에 어떤 게 국장님 것인지 맞춰보세요.
@@ -9041,7 +9206,7 @@
 </t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">[도브가 그녀에게 온 편지를 받고도 열어보지 않고 무언가를 준비하고 있는 듯하다]
 도브: 집배원한테 편지를 쓰는 사람도 다 있네, 뭐라고 답장하지…? 하하, 너무 어려운데? 달콤한 말로 속여 함정에 빠뜨릴까? 아니면 겁을 줘 볼까…
@@ -9055,13 +9220,13 @@
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>나인티나인</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t xml:space="preserve">[나인티나인이 자신의 칼로 계속해서 땅을 내려치고 있다]
 나인티나인: 훈련은… 언제 시작해?
@@ -9074,7 +9239,7 @@
 </t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">[나인티나인이 수감실 문을 두드리자, 실내 온도가 급격히 상승한다]
 나인티나인: 으아아… 아아!!
@@ -9088,13 +9253,13 @@
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
         <is>
           <t>웬디</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t xml:space="preserve">[체인톱을 든 웬디와 복도에서 마주쳤다]
 웬디: 러스트 리버의 괴변체… 얼마나 더 남았지?
@@ -9107,7 +9272,7 @@
 </t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">[웬디가 눈앞의 자료를 갈기갈기 찢어버렸다]
 웬디: 괴… 괴변체가 왜 또 움직이는 거야!
@@ -9121,13 +9286,13 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
         <is>
           <t>파카시</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t xml:space="preserve">[파카시의 방은 책으로 가득했다]
 파카시: 여기에… 다른 문헌 자료도 있나요?
@@ -9140,7 +9305,7 @@
 </t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">[당신은 파카시를 보러 갈 예정이다]
 파카시: 다가오지… 말아요, 불행해질 수도 있으니까.
@@ -9154,13 +9319,13 @@
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
         <is>
           <t>돌리</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t xml:space="preserve">[돌리가 야구 경기를 보고 있다]
 돌리: 잠깐! 이제 막 하이라이트야, 방해하지 말아 줄래?
@@ -9173,7 +9338,7 @@
 </t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">[돌리가 침울한 얼굴로 야구방망이를 보고 있다]
 돌리: 구매센터에서 들여온 이번 물품들 상태가 영 별로네… 몇 번 휘둘렀더니, 툭 부러졌어!
@@ -9187,13 +9352,13 @@
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
         <is>
           <t>히로</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t xml:space="preserve">[히로가 막 도착한 우유 한박스를 들고 있다]
 히로: 국장님, 이거 한번 마셔보실래요~?
@@ -9206,7 +9371,7 @@
 </t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">[도끼를 들고 있는 히로, 넋이 나간 듯하다]
 히로: 에휴… 조야 보스는 왜 나랑 말을 안 섞는 걸까요…
@@ -9220,13 +9385,13 @@
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
         <is>
           <t>메스</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t xml:space="preserve">[메스가 당신의 사무실에서 꾸벅꾸벅 졸고 있다]
 메스: 음, 자면 안 돼… 아직 임무가… 잠들면 안 돼…
@@ -9239,7 +9404,7 @@
 </t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">[메스가 단조로 옆에서 중얼거리고 있다]
 메스: 음… 다음 무기는 뭘 만들까…
@@ -9253,13 +9418,13 @@
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
         <is>
           <t>캐슬로</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t xml:space="preserve">[캐슬로가 당신의 사무실로 들이닥쳤다]
 캐슬로: 어이, 나 요즘 너무 지루해. 더 어려운 임무를 주기로 했잖아!
@@ -9272,7 +9437,7 @@
 </t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">[캐슬로가 거울을 보며 새로 도착한 유성 화장품을 바르고 있다]
 캐슬로: 관리국에서 산 건데 방수가 잘 안 되네… 돈만 날렸어.
@@ -9286,13 +9451,13 @@
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
         <is>
           <t>크리스티나</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t xml:space="preserve">[크리스티나가 훈련실에서 샌드백을 치며 스파링 연습을 하고 있다]
 크리스티나: 오, 사랑하는 조수여, 나랑 연습 좀 할래?
@@ -9305,7 +9470,7 @@
 </t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">[크리스티나가 한 쌍의 안경을 만지고 있다]
 크리스티나: 조수! 얼른 와서 내가 새로 만든 도구 좀 봐봐! 눈을 깜빡일 때 네 눈앞의 장면을 찍어서 단말기로 보내줄 수 있어.
@@ -9319,13 +9484,13 @@
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
         <is>
           <t>라이즈</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t xml:space="preserve">[운동실 문 앞을 지나가던 당신은 강하게 날아 온 스쿼시 공에 맞아 쓰러졌다]
 라이즈: 미안해, 국장. 내가 스쿼시 공을 제대로 못 쳐서 그만...
@@ -9338,7 +9503,7 @@
 </t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">[라이즈가 쿠폰을 한 장 건네줬다]
 라이즈: '초대형 노래방'을 잡았는데, 같이 갈래?
@@ -9352,13 +9517,13 @@
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
         <is>
           <t>미라</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t xml:space="preserve">[미라가 문밖으로 나서려는 당신을 불러 세웠다]
 미라: 제가 보기엔, 국장님께선 아직 준비가 제대로 되지 않은 것 같아요. 화이트 샌드에 갈 땐 꼭 챙겨야 하는 물건이 몇 가지 있거든요. 괜찮으시다면 제 진열대에 있는 걸 가져가세요.
@@ -9371,7 +9536,7 @@
 </t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">[미라가 세탁한 침대 시트를 널고 있다]
 미라: 침대 시트 빨고, 바닥 청소하고, 방 정리하고… 할 일이 너무 많아요. 그래도 디스는 날씨가 화이트 샌드 같지 않아서, 세탁 후 널어둔 시트가 온데간데없이 사라져 찾으러 다닐 필요가 없어서 다행이에요.
@@ -9385,13 +9550,13 @@
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
         <is>
           <t>아이언</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t xml:space="preserve">[아이언이 수술실에서 나온다]
 아이언: 할 말 있으면 빨리 해, 우리 시간은 소중하다고.
@@ -9404,7 +9569,7 @@
 </t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">[아이언이 수감자들을 보며 한숨을 쉰다]
 아이언: 수감자들을 언제 관리할 생각이야?
@@ -9418,13 +9583,13 @@
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
         <is>
           <t>테트라</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t xml:space="preserve">[테트라가 사무실에서 컴퓨터를 수리하고 있다]
 테트라: 국장, 관리국의 인터넷 보안에 주의하는 게 좋을 거야.
@@ -9437,7 +9602,7 @@
 </t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">[테트라가 관리국 서류함 앞에서 한숨을 쉰다]
 테트라: 심심해~ 여기도 이렇게 지루할 줄은 몰랐네.
@@ -9451,13 +9616,13 @@
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
         <is>
           <t>진</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t xml:space="preserve">[사무실을 찾아온 진, 과중한 업무를 덜어주려는 것 같다]
 진: 국장님… 무슨 고민 있나요? 괜찮다면 제게 털어놓으셔도 됩니다.
@@ -9470,7 +9635,7 @@
 </t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">[꽃잎 하나를 꽉 쥐고 있는 진, 당황하는 기색이 역력하다]
 진: 화원의 킬러가… 얼마 전에 나타났었다고요?
@@ -9484,13 +9649,13 @@
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
         <is>
           <t>맥퀸</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t xml:space="preserve">[맥퀸이 당신을 예술품 경매에 초대했다]
 맥퀸: 어때? 관심 있어?
@@ -9503,7 +9668,7 @@
 </t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">[맥퀸이 예술품 사기 때문에 거액의 벌금을 내야 한다]
 맥퀸: 걱정할 거 없어. 대처할 방법이 있거든.
@@ -9517,13 +9682,13 @@
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
         <is>
           <t>린</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t xml:space="preserve">[카메라를 들고 온실에 새로 핀 꽃들을 촬영하고 있는 린의 얼굴색이 어두워 보인다]
 린: 뭔가 부족한 것 같은데…
@@ -9536,7 +9701,7 @@
 </t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">[린이 붉은 얼굴로 집중해서 만화를 보고 있다]
 린: 정말 달달해…
@@ -9550,13 +9715,13 @@
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
         <is>
           <t>가로파노</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t xml:space="preserve">[가로파노가 카네이션 한 다발을 들고 있다]
 가로파노: 오늘은… 어떤 색의 꽃으로 방을 장식하는 게 좋을까요?
@@ -9569,7 +9734,7 @@
 </t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">[가로파노가 부드러운 원단 한 필을 쓰다듬고 있다]
 가로파노: 이걸로 잠옷을 만들어 드리려고요. 잘 어울릴 거예요.
@@ -9583,13 +9748,13 @@
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
         <is>
           <t>유레카</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t xml:space="preserve">[유레카가 여행사 전단지를 정리하고 있다]
 유레카: 국장, 당신이 여행을 간다면… 어느 코스를 선택할 것 같아?
@@ -9602,7 +9767,7 @@
 </t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">[유레카가 SF 영화 잡지를 보고 있다]
 유레카: 이 영화에 나오는 도구들이 정말 재미있어 보인단 말이지… 국장, 영화 속 도구 중에 내가 만들어 줬으면 하는 게 있어?
@@ -9616,13 +9781,13 @@
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
         <is>
           <t>시슬</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t xml:space="preserve">[시슬은 당황한 기색으로 반쯤 적은 다이어리를 덮었다]
 시슬: 언제 들어왔어? 왜 그런 눈으로 쳐다보는 거야? 오지 마! 난 그저… 다이어리를 쓰고 있었어!
@@ -9635,7 +9800,7 @@
 </t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">[시슬은 관리국 운동장에서 다친 길고양이를 발견했다]
 시슬: 피를 많이 흘렸어. 국장, 우리가 도와주면 안 돼?
@@ -9649,13 +9814,13 @@
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
         <is>
           <t>슈르마</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t xml:space="preserve">[아침에 슈르마는 다크서클이 가득한 채로 방을 나섰다]
 슈르마: 안녕하세요, 국장님. 눈 밑에 다크서클이 생겼다고요? 어젯밤에 글을 쓰느라 좀 늦게 잤어요. 걱정해 주셔서 감사하지만, 괜찮습니다.
@@ -9668,7 +9833,7 @@
 </t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t xml:space="preserve">[길고양이가 자신에게 다가오는 슈르마를 보고 하악거렸다]
 슈르마: 하아, 또 이렇게 됐네… 국장님, 어떻게 하면 고양이와 친해질 수 있나요?
@@ -9682,13 +9847,13 @@
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
         <is>
           <t>프리실라</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t xml:space="preserve">[프리실라가 그녀를 주시하고 있는 것을 발견한 것 같다]
 프리실라: 왜요? 제 가면에 관심 있으세요?
@@ -9701,7 +9866,7 @@
 </t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t xml:space="preserve">[프리실라가 그녀의 소품을 닦고 있다]
 프리실라: 공연을 안 한 지 꽤 됐네요. 소품에 먼지가 한가득 쌓였군요.
@@ -9715,13 +9880,13 @@
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
         <is>
           <t>로레카</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t xml:space="preserve">[로레카가 사무실에서 발을 총총거리고 있다]
 로레카: 국장님~ 국장님~ 이리 와서 같이 게임 해요!
@@ -9734,7 +9899,7 @@
 </t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t xml:space="preserve">[로레카의 기분이 가라앉은 것 같다]
 로레카: 에휴… 요즘 찾은 클로버는 죄다 잎이 3개뿐이에요. 로레카의 능력 효과가 떨어진 걸까요.
@@ -9748,13 +9913,13 @@
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
         <is>
           <t>울버린</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t xml:space="preserve">[울버린이 기대감에 찬 얼굴로 당신을 바라보고 있다]
 울버린: 나… 배고파…
@@ -9767,7 +9932,7 @@
 </t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t xml:space="preserve">[울버린이 허둥지둥 대고 있다]
 울버린: 피이… 가만히 있어. 국장, 좀 도와줘.
@@ -9781,13 +9946,13 @@
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
         <is>
           <t>마틸다</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t xml:space="preserve">[마틸다는 당신을 사격장으로 초대했다]
 마틸다: 국장님, 관리국 사격장의 사용 규범에 대해 제가 대략 내용을 작성해 보았는데, 검토 부탁드립니다.
@@ -9800,7 +9965,7 @@
 </t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t xml:space="preserve">[마틸다가 당신의 사무실을 방문했다]
 마틸다: 국장님, 휴식 시간에 뭘 해야 가장 가치 있을까요?
@@ -9814,13 +9979,13 @@
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
         <is>
           <t>옌옌</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t xml:space="preserve">[옌옌이 신화 서적을 모조리 꺼내면서 그중 한 권이 문틈에 끼워져 도서실의 경비 시스템이 울렸다]
 옌옌: 음? 여긴 무슨 일이야?
@@ -9833,7 +9998,7 @@
 </t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t xml:space="preserve">[옌옌이 직접 만든 음식을 들고 당신의 사무실로 헐레벌떡 뛰어 들어왔다]
 옌옌: 빨리, 빨리, 먹어봐! 이거 내가 한참 공들여 만든 고향 요리야!
@@ -9847,13 +10012,13 @@
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
         <is>
           <t>제인</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t xml:space="preserve">[제인이 관리국의 경호 인력 배치도를 보고 생각에 잠겼다]
 제인: 왠지… 어딘가 허술한 곳이 있는 것 같아요…
@@ -9866,7 +10031,7 @@
 </t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t xml:space="preserve">[제인이 사무실에 와서 당신에게 보고했다]
 제인: 지시하신 임무는 전부 끝냈어요. 이제 무슨 일을 하면 되죠?
@@ -9880,13 +10045,46 @@
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>파인</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[파인이 벽돌만큼 두꺼운 녹취록을 당신의 손에 쥐여줬다]
+파인: 이 관리국 말이야, 진짜 한 번 제대로 바로잡아야 해. 식자재 공급을 책임지는 사람이 셰프 맞은편 집 이혼 가정의 아들인데, 서로 편의를 봐주고 있어. 분명 식자재를 구매하면서 뒷돈을 챙기고 있을 거야. 눈치 못 챘어?
+Prompt: 그걸 어떻게 알았는데?
+파인: 둘이 얘기하는 걸 도청했어. 내가 개조한 장비를 사용하면 식은 죽 먹기지.
+파인: atlas/monthsign/sprite_dailysign_face_8.png
+Prompt: 섣불리 결론 내리지 마
+파인: …쯧, 답답해. 그럼, 네가 직접 천천히 조사해서 알아내든지.
+파인: atlas/monthsign/sprite_dailysign_face_1.png
+</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[수감자의 신체 건강을 위해 파인은 치료사의 요구에 따라 식단을 조정해야 한다]
+파인: 귀찮아, 뭘 그렇게까지 신경 써서 챙겨 먹어? 굶어 죽지만 않으면 되는 거 아니야?
+Prompt: 그래도 매일 컵라면이랑 간식만 먹으면 안 되지
+파인: 그럼 에너지 드링크를 마시면 되겠네. 기본적인 생체 기능을 유지할 수 있고 따로 물을 끓일 필요도 없잖아.
+파인: atlas/monthsign/sprite_dailysign_face_5.png
+Prompt: 샌드위치라도 먹어봐, 만들기도 쉽고 먹기도 편하잖아
+파인: 괜찮은데? 외출할 때 챙겨갈 수도 있고. 다음에 먹어 볼게.
+파인: atlas/monthsign/sprite_dailysign_face_8.png
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
         <is>
           <t>빅토리아</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t xml:space="preserve">[빅토리아는 자신의 방에서 한숨을 쉬고 있다]
 빅토리아: 아… 이 꽉 막힌 공간이 안정적으로 느껴지네요.
@@ -9899,7 +10097,7 @@
 </t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t xml:space="preserve">[경보를 듣고 즉각 빅토리아의 방으로 찾아갔다]
 빅토리아: 또 피를… 많이 흘렸어요… 이제 어쩌죠…
@@ -9913,13 +10111,13 @@
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
         <is>
           <t>이그니스</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t xml:space="preserve">[캐러멜 푸딩을 가지고 이그니스를 찾아왔다]
 이그니스: 당신은… 날 보러 온 거예요?
@@ -9932,7 +10130,7 @@
 </t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t xml:space="preserve">[관리국 주방, 이그니스가 계속해서 한숨을 쉬고 있다]
 이그니스: 아이고… 요리는 대체 어떻게 하는 거예요?
@@ -9946,13 +10144,13 @@
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
         <is>
           <t>루비아.레이</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t xml:space="preserve">[루비아 같아 보인다]
 루비아.레이: 쉿~ 조용히 해요, 레이가 자고 있으니 깨우지 말아요.
@@ -9965,7 +10163,7 @@
 </t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t xml:space="preserve">[욱하는 그녀는 아마 레이인 것 같다]
 루비아.레이: 새로 받은 시나리오는… 모두 조연이네.
@@ -9979,13 +10177,13 @@
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
         <is>
           <t>헤카테</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t xml:space="preserve">[헤카테가 오늘의 스케줄을 문의한다]
 헤카테: 국장님, 오늘의 명령을 내려 주십시오.
@@ -9998,7 +10196,7 @@
 </t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t xml:space="preserve">[헤카테가 과거 임무 기록을 살펴보고 있다]
 헤카테: 제가 사라지면 또 다른 '헤카테'가 나타날 것입니다. 그땐 저를 잊으십시오.
@@ -10012,13 +10210,13 @@
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
         <is>
           <t>올리버</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t xml:space="preserve">[올리버가 당신에게 장난감을 건넨다]
 올리버: 국장님~ 올리버와 한 게임 하지 않을래요?
@@ -10031,7 +10229,7 @@
 </t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t xml:space="preserve">[상처투성이가 된 올리버가 침실에 누워있다]
 올리버: 국장님… 너무 아파… 아프단 말이에요…
@@ -10045,13 +10243,13 @@
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
         <is>
           <t>라미아</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t xml:space="preserve">[사무실에서 나오자 라미아가 당신을 굉장히 반갑게 맞이했다]
 라미아: 국장님, 피곤해 보이시는데 좀 쉬는 건 어때요?
@@ -10064,7 +10262,7 @@
 </t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t xml:space="preserve">[라미아가 의문이 가득 담긴 표정으로 오락 구역에서 청춘 캠퍼스 영화를 보고 있다]
 라미아: 학창 시절은 도대체 어떤 모습이길래 다들 그 시절을 그리워하는 거죠?
@@ -10078,13 +10276,13 @@
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
         <is>
           <t>에코</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t xml:space="preserve">[에코가 최면실에 사용된 경음악을 경청하고 있다]
 에코: 에휴, 이런 것들은 너무 조곤조곤해서 느낌이 부족해. 역시 에코의 연주 녹음이 최면실의 플레이리스트에 수록되어야 해, 분명 효과가 좋을 거야~
@@ -10097,7 +10295,7 @@
 </t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t xml:space="preserve">[에코가 그녀의 색소폰을 들고 당신에게 다가왔다]
 에코: 오늘은 운수가 좋은 날이야, 왜냐면 색소폰 천재가 신청곡을 받아서 연주해 주는 날이거든! 자, 신청곡을 얘기해 봐~
@@ -10111,13 +10309,13 @@
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
         <is>
           <t>아리엘</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t xml:space="preserve">[주위를 두리번거리는 아리엘, 긴장해 보인다]
 아리엘: 다들 왜 그렇게 절 계속 쳐다보는 거죠…
@@ -10130,7 +10328,7 @@
 </t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t xml:space="preserve">[임무를 완성한 아리엘이 사과를 한다]
 아리엘: 제가 자꾸만 여러분의 발목을 잡는 것 같아요…
@@ -10144,13 +10342,13 @@
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
         <is>
           <t>카멜리안</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t xml:space="preserve">[카멜리안의 개인 병원에 초대를 받았다]
 카멜리안: 요즘 잠은 잘 자나요? 제 도움이 더 필요하신가요?
@@ -10163,7 +10361,7 @@
 </t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t xml:space="preserve">[카멜리안이 병력을 작성하며 한숨을 쉰다]
 카멜리안: 요즘 제게 진찰받는 사람들이 많아졌는데, 왜 그럴까요?
@@ -10177,13 +10375,13 @@
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
         <is>
           <t>앤</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t xml:space="preserve">[앤이 옛 사진을 보며 생각에 잠긴다]
 앤: 어린아이들은 정말 귀여워요… 참 순수하고 착하죠.
@@ -10196,7 +10394,7 @@
 </t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t xml:space="preserve">[환자 상태가 좋지 않자, 앤이 당황한다]
 앤: 환자들 상황이 악화되기 시작했어요. 구원 병원 당시 상황도 그랬지요…
@@ -10210,13 +10408,13 @@
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
         <is>
           <t>Mr.Fox</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t xml:space="preserve">[Mr.Fox가 돈을 세고 있다]
 Mr.Fox: 요즘 소송에서 계속 이기고 있어요. 수입이 꽤 괜찮네요.
@@ -10229,7 +10427,7 @@
 </t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t xml:space="preserve">[Mr.Fox가 한숨을 쉰다]
 Mr.Fox: 요즘 의뢰가 들어오는 변호 사건들을 별로 담당하고 싶지 않네요.
@@ -10243,13 +10441,13 @@
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
         <is>
           <t>토토</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t xml:space="preserve">[토토는 돈가스 가득 담긴 접시를 들고 주방에서 나왔다]
 토토: 어, 사장도 야식 먹으러 온 거야?
@@ -10262,7 +10460,7 @@
 </t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t xml:space="preserve">[토토는 우렁찬 목소리로 그녀의 나팔 학원을 홍보하고 있다]
 토토: 기회를 놓치지 마세요! 선착순 20명한테만 학비 반값 할인해 드립니다! 아이고, 저기 사장, 가지 마. 나팔 배울래?
@@ -10276,13 +10474,13 @@
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
         <is>
           <t>레타</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t xml:space="preserve">[레타가 슬그머니 당신의 방에 들어갔다]
 레타: 국장님, 국장님, 제가 또 새로운 모험 장소를 찾아냈어요!
@@ -10295,7 +10493,7 @@
 </t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t xml:space="preserve">[레타가 몰래 나가 놀다가 당신에게 잡혔다]
 레타: 으음… 내가 대체, 왜 여기에 서 있는 거지…
@@ -10309,13 +10507,13 @@
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
         <is>
           <t>카시아</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t xml:space="preserve">[카시아가 오락 구역에서 향수 평가 사이트를 구경하고 있다]
 카시아: 향수의 향은 점점 더 복잡해지고 상업화되고 있어, 머지않아 순수한 향은 사라지고 말겠지… 향수의 느낌조차 역겨운 상업적인 냄새로 가득해…
@@ -10328,7 +10526,7 @@
 </t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t xml:space="preserve">[카시아가 이번에도 미인 대회 심사위원 초대장을 받았다]
 카시아: 내가 최고의 향료… 크흠, 최고의 미인을 선별해 내려면, 현장에 가야만 하거든…
@@ -10342,13 +10540,13 @@
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
         <is>
           <t>숀</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t xml:space="preserve">[숀이 또 시도 때도 없이 휴대폰을 확인하며 메시지가 올 때마다 재빨리 답장을 보냈다]
 숀: '그렇게 생각하지 마. 자기야, 그 사람들이 보는 눈이 없어서 자기를 소중하게 생각할 줄 모르는 거야.' …후. 드디어 달랬네. 관리국에도 이렇게까지 사랑을 갈구하는 사람이 있다니.
@@ -10361,7 +10559,7 @@
 </t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t xml:space="preserve">[숀은 몇 번씩이나 새로고침해도 뜨는 연결 끊김 안내에 짜증을 내고 있다]
 숀: 오후 세 시면 복구된다고 했잖아? 왜 아직도 안 돼? 이대로라면 관리국 업무에 영향을 주지 않아?
@@ -10375,13 +10573,13 @@
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="inlineStr">
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
         <is>
           <t>제피르</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t xml:space="preserve">[제피르가 홈 크래프트 바 관련 인터넷 뉴스를 흥미롭게 보고 있다]
 제피르: 홈 크래프트 바! 재밌을 것 같은데? 낯선 사람 집에서 한잔 하며 이야기를 듣다가 그대로 떠나는 거야. 다들 다시 만날 일도 없어! 원래 모르는 사이니까 구속받을 필요도 없는 거지!
@@ -10394,7 +10592,7 @@
 </t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t xml:space="preserve">[제피르가 지루한지 수감실 문 뒤에서 다리를 떨고 있다]
 제피르: 아잇, 참… 도망치려던 거 아니었다니까… 그냥 담장 뒤에 뭐가 있는지 궁금해서 그랬어. 내 덕에 담장이 안전한지도 확인할 수 있었잖아… 내보내 줘…!
@@ -10408,13 +10606,13 @@
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="inlineStr">
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
         <is>
           <t>K.K.</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t xml:space="preserve">[K.K.가 사무실에서 명령을 기다리고 있다]
 K.K.: 내가 도울 일이 있어?
@@ -10427,7 +10625,7 @@
 </t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t xml:space="preserve">[K.K.이 과거 파트너에 관해 묻는다]
 K.K.: 백은? 어째서 또 보이질 않는 거지?
@@ -10441,13 +10639,13 @@
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="inlineStr">
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
         <is>
           <t>데몰리아</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t xml:space="preserve">[임무를 완료한 데몰리아는 남은 시간의 스케줄을 짜고 있다]
 데몰리아: 오늘은 뭘 하면 좋을까? 국장, 추천 좀 해줘.
@@ -10460,7 +10658,7 @@
 </t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t xml:space="preserve">[데몰리아가 자신의 컬렉션을 세고 있다]
 데몰리아: 국장, 내 컬렉션 지원 좀 해주지 않을래?
@@ -10474,13 +10672,13 @@
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="inlineStr">
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
         <is>
           <t>페기</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t xml:space="preserve">[페기가 재빠르게 가사를 써 내려간다]
 페기: YO, 국장 아니야? 왜, 랩 듣고 싶어서 왔나?
@@ -10493,7 +10691,7 @@
 </t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t xml:space="preserve">[페기가 불만 가득한 얼굴로 물건들을 발로 걷어찬다]
 페기: 내게 오디오 믹서를 사준다고 하지 않았나? 물건은?
@@ -10507,13 +10705,13 @@
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="inlineStr">
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
         <is>
           <t>엘라</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t xml:space="preserve">[임무를 완료한 엘라가 사무실 바닥에 그대로 드러눕는다]
 엘라: 하… 위문품 안 주나? 디스코인이었으면 좋겠는데.
@@ -10526,7 +10724,7 @@
 </t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t xml:space="preserve">[엘라는 이쪽을 보고 깜짝 놀란 듯하다]
 엘라: 쳇, 내가 여기 숨어있는걸, 나인티나인 그 녀석이 알려줬구나?
@@ -10540,13 +10738,13 @@
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="inlineStr">
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
         <is>
           <t>치이</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t xml:space="preserve">[눈을 비비는 치이, 방금 깨어난 듯하다]
 치이: 뭐죠? 당신도 농땡이 피우러 온 겁니까?
@@ -10559,7 +10757,7 @@
 </t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t xml:space="preserve">[치이가 이해가 가지 않는다는 듯이 바라보고 있다]
 치이: 온종일 우리 수감자들과 어울려 다니는 게 재밌습니까?
@@ -10573,13 +10771,13 @@
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="inlineStr">
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
         <is>
           <t>후추</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t xml:space="preserve">[한껏 업된 후추가 사무실로 들어선다]
 후추: 국장님, 오늘 말썽을 좀 부려볼까 하는데! 좋은 아이디어 없나요?
@@ -10592,7 +10790,7 @@
 </t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t xml:space="preserve">[풀이 죽은 후추가 관리국 그라운드에 서 있다]
 후추: 임무를 수행하느니 농사를 짓는 게 낫겠어요…
@@ -10606,13 +10804,13 @@
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="inlineStr">
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
         <is>
           <t>레버린스</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t xml:space="preserve">[일찌감치 사무실에 도착한 레버린스가 당신을 기다리고 있다]
 레버린스: 국장님 발견, 프로세스 대기.
@@ -10625,7 +10823,7 @@
 </t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t xml:space="preserve">[레버린스가 관리국을 청소하고 있다]
 레버린스: 국장님, 레버린스의 일을 방해하지 말아 주세요.
@@ -10639,13 +10837,13 @@
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="inlineStr">
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
         <is>
           <t>월하미인</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t xml:space="preserve">[월하미인이 자신의 비수를 닦고 있다]
 월하미인: 다음 상대는… 누구냐…
@@ -10658,7 +10856,7 @@
 </t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t xml:space="preserve">[두 주먹을 불끈 쥐는 월하미인, 화가 난듯하다]
 월하미인: 화원! 감히 내 목표를 빼앗아 가다니!
@@ -10672,13 +10870,13 @@
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="inlineStr">
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
         <is>
           <t>EMP</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t xml:space="preserve">[연습장에 있던 EMP는 기분이 좋아 보인다]
 EMP: 흥흥, 오늘은 네게 신디케이트 무관의 왕의 존영을 직시하도록 허락하겠노라.
@@ -10691,7 +10889,7 @@
 </t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t xml:space="preserve">[연습장에 있던 EMP는 기분이 나빠 보인다]
 EMP: 조용히 좀 해줘요, 활 연습 중이잖아요!
@@ -10705,13 +10903,13 @@
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="inlineStr">
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
         <is>
           <t>플로라</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t xml:space="preserve">[플로라가 메모장을 들고 질문하기 시작한다]
 플로라: 오늘은 소방 시설 정기 점검의 날이에요, 잊지 않았겠죠?
@@ -10724,7 +10922,7 @@
 </t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t xml:space="preserve">[방금 연습장에서 나온 플로라, 우울해 보인다]
 플로라: 흠… 어떻게 하면 소방 기구를 잘 활용할 수 있을까요.
@@ -10738,13 +10936,13 @@
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="inlineStr">
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
         <is>
           <t>켈빈</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t xml:space="preserve">[켈빈이 식재료를 잔뜩 든 채 인사를 건넨다]
 켈빈: 국장님, 관리국 주방에 냉장고를 하나 더 들여놔도 될까요?
@@ -10757,7 +10955,7 @@
 </t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t xml:space="preserve">[켈빈은 누군가에게 놀림을 당한 것 같다]
 켈빈: 하아… 전 어째서 아직 졸업도 못 한 걸까요…
@@ -10771,13 +10969,13 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="inlineStr">
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
         <is>
           <t>조안</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t xml:space="preserve">[조안의 방에서 노랫소리가 들린다]
 조안: Come as you are——
@@ -10790,7 +10988,7 @@
 </t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t xml:space="preserve">[조안은 과거 콘서트 사진을 어루만지며 생각에 잠겨 있다]
 조안: 이런 생활은 언제쯤 끝이 날까, 공연하러 가고 싶네.
@@ -10804,13 +11002,13 @@
         </is>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="inlineStr">
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
         <is>
           <t>마키아토</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t xml:space="preserve">[마키아토가 즐거워 보인다]
 마키아토: 어떤 적들은 즐기는 것 같아요.
@@ -10823,7 +11021,7 @@
 </t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t xml:space="preserve">[마키아토가 졸고 있다]
 마키아토: 신성 은행… 앗… 아니지! 관리국에 오신 걸 환영합니다!
@@ -10837,13 +11035,13 @@
         </is>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1" t="inlineStr">
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
         <is>
           <t>리사</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t xml:space="preserve">[리사는 왼손으로 그림을 꺼내 탁자 위에 올려 둔다]
 리사: 그림 몇 점을 받았어. 이제 맘껏 감상할 일만 남았군.
@@ -10856,7 +11054,7 @@
 </t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t xml:space="preserve">[리사는 화판 앞에 앉아 한숨을 쉰다]
 리사: 또 삐뚤어졌잖아!
@@ -10881,7 +11079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12278,10 +12476,43 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
+          <t>耶莱娜</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[耶莱娜正在整理书架上的书籍。]
+耶莱娜: 您这里的藏书很丰富，最近又读完了几本，引人入胜值得一看。若您想消磨时间的话，我愿意为您推荐。
+Prompt: 我最近也想读些新书。
+耶莱娜: 我很高兴您会感兴趣。请稍等片刻，我为您将书取下来。
+耶莱娜: atlas/monthsign/sprite_dailysign_face_4.png
+Prompt: 我最近没有时间读书。
+耶莱娜: 没关系，我可以先帮您整理成书单，等您有空的时候再凭兴趣阅读。
+耶莱娜: atlas/monthsign/sprite_dailysign_face_8.png
+</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[深夜，亮着灯的办公室响起克制的敲门声。]
+耶莱娜: 局长这么晚还没睡，是被什么问题难倒了吗？如果不介意，可以和我说说的。
+Prompt: 只是有点睡不着。
+耶莱娜: 失眠的时候，借助些外力不失为一种办法。需要我来哄您入睡吗？
+耶莱娜: 'atlas/monthsign/sprite_dailysign_face_4.png', 'atlas/monthsign/sprite_dailysign_face_4.png'
+Prompt: 还有事情需要处理。
+耶莱娜: 如果您愿意信任我，我可以帮您分担辛劳，这样您也能早点休息。
+耶莱娜: atlas/monthsign/sprite_dailysign_face_6.png
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
           <t>切尔西伯爵</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t xml:space="preserve">[切尔西将一枚宝石递到你的面前]
 切尔西伯爵: 给，这是你的纪念品。
@@ -12294,7 +12525,7 @@
 </t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">[切尔西看着西迪，似乎若有所思]
 切尔西伯爵: 这里为什么不能养猫？
@@ -12308,13 +12539,13 @@
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>辰砂</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t xml:space="preserve">[你路过辰砂的收容室]
 辰砂: 您今天需要我的贴身保护吗？
@@ -12327,7 +12558,7 @@
 </t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">[任务结束后，辰砂似乎在思考什么]
 辰砂: 唉，以往的经验在管理局这里都不怎么适用啊。
@@ -12341,13 +12572,13 @@
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>卡瓦卡瓦</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t xml:space="preserve">[卡瓦卡瓦期待地看着你]
 卡瓦卡瓦: 局长！我们什么时候回砂海啊？
@@ -12360,7 +12591,7 @@
 </t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">[卡瓦卡瓦有一些难过]
 卡瓦卡瓦: 局长，我的信标少了几个。
@@ -12374,13 +12605,13 @@
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>李维</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t xml:space="preserve">[李维穿着他又一身过于浮夸的新衣服在你面前转了个圈]
 李维: 怎么样，好看吗？
@@ -12393,7 +12624,7 @@
 </t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">[李维正在和两个工作人员打牌]
 李维: 嘿，真不好意思，我又赢了。
@@ -12407,13 +12638,13 @@
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>尤尼</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t xml:space="preserve">[尤尼路过你身边，眉头紧皱]
 尤尼: 你为什么只戴一边耳环？
@@ -12426,7 +12657,7 @@
 </t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">[尤尼拿着一张宣传单在很仔细地端详]
 尤尼: 这人在我之后是不是又去给五官做了调整……
@@ -12440,13 +12671,13 @@
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>妮诺</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t xml:space="preserve">[妮诺把一张物资申请单拍在你面前。]
 妮诺: 噔噔，你触发了一个随机任务，那就是帮妮诺大人填满零食柜~
@@ -12459,7 +12690,7 @@
 </t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">[妮诺查看着直播间流量曲线图。]
 妮诺: 怎么回事，最近热度下降了这么多！简直是妮诺大人直播的黑历史！
@@ -12473,13 +12704,13 @@
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>戈蓝</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t xml:space="preserve">[戈蓝目不转睛地盯着终端上显示的管理局内网讨论区帖子。]
 戈蓝: 哦哦，原来那个谁和那个谁拜了把子，那个谁又和那个谁互相看不顺眼，局长也曾经喜欢过邪恶势力派来诱惑自己的成熟美好大姐姐……
@@ -12492,7 +12723,7 @@
 </t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">[戈蓝眼馋地看着菲的商品目录里那个绝版且昂贵的毛绒配饰。]
 戈蓝: 可恶，钱不够！这里不让当打手，应该怎么捞点油……不对，赚点零花钱呢？啊，我知道了，我可以卖情报和八卦！
@@ -12506,13 +12737,13 @@
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>多芙</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t xml:space="preserve">[多芙正在给管理局众人送信。]
 多芙: 这不是局长嘛？正好，来猜猜看，这两封信里面，哪一封是送给你的？
@@ -12525,7 +12756,7 @@
 </t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">[多芙收到了寄给她的信，却没急着拆开，似乎在酝酿些什么。]
 多芙: 居然有人给信使写信呀，该怎么回信呢……哈哈，真是好难抉择啊，是该给点甜头上上钩呢，还是该用些话术吓吓这人……
@@ -12539,13 +12770,13 @@
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>九十九</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t xml:space="preserve">[九十九用她的刀不住砸着地面]
 九十九: 什么时候……到训练时间？
@@ -12558,7 +12789,7 @@
 </t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">[九十九捶打着禁闭室的大门，室内温度急剧升高]
 九十九: 啊啊……啊！
@@ -12572,13 +12803,13 @@
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
         <is>
           <t>温蒂</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t xml:space="preserve">[你与拿着电锯的温蒂在走廊相遇]
 温蒂: 锈河的死役……还剩多少？
@@ -12591,7 +12822,7 @@
 </t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">[温蒂一把撕碎了眼前的资料]
 温蒂: 死役、死役怎么又在走动！
@@ -12605,13 +12836,13 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
         <is>
           <t>帕加茜</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t xml:space="preserve">[帕加茜的屋子里放满了书]
 帕加茜: 这里……还有其他的文献资料么？
@@ -12624,7 +12855,7 @@
 </t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">[你打算来看望帕加茜]
 帕加茜: 不要……靠近我，会变得不幸。
@@ -12638,13 +12869,13 @@
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
         <is>
           <t>多莉</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t xml:space="preserve">[多莉在观看棒球比赛]
 多莉: 等下！现在刚到最精彩的阶段，不要打扰我啊！
@@ -12657,7 +12888,7 @@
 </t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">[多莉一脸阴郁地看着棒球棍]
 多莉: 采购办进的这批货到底行不行啊……挥两下就断了！
@@ -12671,13 +12902,13 @@
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
         <is>
           <t>赫罗</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t xml:space="preserve">[赫罗捧着一箱新到货的牛奶]
 赫罗: 局长，要不要来一瓶啊~？
@@ -12690,7 +12921,7 @@
 </t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">[赫罗握着斧子，双眼出神]
 赫罗: 唉……卓娅老大怎么都不和我说话了……
@@ -12704,13 +12935,13 @@
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
         <is>
           <t>莓丝</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t xml:space="preserve">[莓丝在你的办公室里打起了瞌睡]
 莓丝: 嗯，不能睡……还有任务……不能睡……
@@ -12723,7 +12954,7 @@
 </t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">[莓丝在锻炉旁自言自语]
 莓丝: 嗯……下一把武器该做什么呢……
@@ -12737,13 +12968,13 @@
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
         <is>
           <t>卡斯洛</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t xml:space="preserve">[卡斯洛闯进你的办公室]
 卡斯洛: 喂，最近好无聊，说好的给我更高难度的任务呢！
@@ -12756,7 +12987,7 @@
 </t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">[卡斯洛用新到的油彩对着镜子涂涂画画]
 卡斯洛: 管理局采购的这款不怎么防水啊……太容易花了。
@@ -12770,13 +13001,13 @@
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
         <is>
           <t>克里斯蒂娜</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t xml:space="preserve">[克里斯蒂娜正在训练室里打沙袋，练习自由搏击]
 克里斯蒂娜: 哟，亲爱的助手，要不要一起来练练？
@@ -12789,7 +13020,7 @@
 </t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">[克里斯蒂娜正在摆弄一副眼镜]
 克里斯蒂娜: 小助手！快来看看我做的新道具！它可以在你眨眼的时候拍下眼前的画面，传到你的终端上。
@@ -12803,13 +13034,13 @@
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
         <is>
           <t>瑞思</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t xml:space="preserve">[路过运动室门口，你被一个壁球大力击倒]
 瑞思: 抱歉局长，我没控制好壁球让它打到了你。
@@ -12822,7 +13053,7 @@
 </t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">[瑞思拿给你一张优惠券]
 瑞思: “K幻量贩”的大房包厢，局长你要一起来吗？
@@ -12836,13 +13067,13 @@
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
         <is>
           <t>米拉</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t xml:space="preserve">[米拉叫住了准备出门的你。]
 米拉: 依我看，局长身上还缺了些东西，如果要出远门前往砂海的话，有些装备必不可少，不嫌弃的话，就从我的货架上拿吧？
@@ -12855,7 +13086,7 @@
 </t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">[米拉正在晾晒新洗的被单]
 米拉: 换洗被单，打扫地面，整理房间……要做的家务还有很多，幸好狄斯的气候不像砂海那样，刚晾上的床单不会消失得无影无踪，省了追着跑的工夫。
@@ -12869,13 +13100,13 @@
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
         <is>
           <t>艾恩</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t xml:space="preserve">[艾恩走出手术室]
 艾恩: 有什么事情就快点说，你我的时间都很宝贵。
@@ -12888,7 +13119,7 @@
 </t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">[艾恩看着禁闭者们，不住地叹气]
 艾恩: 你什么时候管管这些禁闭者？
@@ -12902,13 +13133,13 @@
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
         <is>
           <t>泰特拉</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t xml:space="preserve">[泰特拉摆弄着你办公室里的电脑]
 泰特拉: 还是要注意一些管理局的网络安全哦，局长。
@@ -12921,7 +13152,7 @@
 </t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">[泰特拉躺在管理局的档案柜上不住叹气]
 泰特拉: 无聊啊——没想到在这里也会这么无聊。
@@ -12935,13 +13166,13 @@
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
         <is>
           <t>堇</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t xml:space="preserve">[堇来到你的办公室，似乎是想替你分担工作]
 堇: 局长……您看上去有烦心事？如果不嫌弃，请让我为您分忧。
@@ -12954,7 +13185,7 @@
 </t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">[堇捏着一片花瓣，神色慌张]
 堇: 花园的杀手……最近来过？
@@ -12968,13 +13199,13 @@
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
         <is>
           <t>麦昆</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t xml:space="preserve">[麦昆邀请你出席一场艺术品拍卖会。]
 麦昆: 怎么样，有兴趣吗？
@@ -12987,7 +13218,7 @@
 </t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">[麦昆因艺术品诈骗面临巨额罚款。]
 麦昆: 别担心，我有办法应付。
@@ -13001,13 +13232,13 @@
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
         <is>
           <t>琳</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t xml:space="preserve">[琳正在举着相机拍摄温室里一丛新开的花，神色有些苦恼]
 琳: 总觉得好像还差了点什么……
@@ -13020,7 +13251,7 @@
 </t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">[琳正在专注地看一本漫画，脸上泛着红晕]
 琳: 好甜啊……
@@ -13034,13 +13265,13 @@
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
         <is>
           <t>加洛法诺</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t xml:space="preserve">[加洛法诺捧着一束康乃馨]
 加洛法诺: 您觉得……今天我该用哪种颜色的花来装饰房间呢？
@@ -13053,7 +13284,7 @@
 </t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">[加洛法诺抚摸着一匹柔软的面料]
 加洛法诺: 我打算用它给您做套睡衣，应该会很合适。
@@ -13067,13 +13298,13 @@
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
         <is>
           <t>优利卡</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t xml:space="preserve">[优利卡整理着旅行社的传单。]
 优利卡: 局长，如果你要去旅行的话……你会选哪条路线呢？
@@ -13086,7 +13317,7 @@
 </t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">[优利卡翻看着一本科幻电影杂志。]
 优利卡: 这些电影里的道具都看起来好有趣呀……局长，你有没有想要我做出来的电影道具？
@@ -13100,13 +13331,13 @@
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
         <is>
           <t>蓟</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t xml:space="preserve">[蓟神色慌张地合起了写到一半的手账。]
 蓟: 你什么时候过来的？怎么还用这种眼神看着我？别过来！我只是在写……写手账而已！
@@ -13119,7 +13350,7 @@
 </t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">[蓟在管理局操场发现了一只受伤的小流浪猫。]
 蓟: 它流了好多血啊，局长，我们可以帮帮它吗？
@@ -13133,13 +13364,13 @@
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
         <is>
           <t>舒鲁玛</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t xml:space="preserve">[早晨舒鲁玛顶着黑眼圈走出房间。]
 舒鲁玛: 早上好，局长。眼睛下面有黑眼圈？昨晚因为写作文睡得有点晚，谢谢你的关心，不用担心我。
@@ -13152,7 +13383,7 @@
 </t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t xml:space="preserve">[路边的小猫对着靠近的舒鲁玛弓背哈气。]
 舒鲁玛: 唉，又是这样……局长，你知道该怎么做才能和小猫亲近吗？
@@ -13166,13 +13397,13 @@
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
         <is>
           <t>普希拉</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t xml:space="preserve">[普希拉似乎发现你在盯着她]
 普希拉: 怎么？对我的面具感兴趣？
@@ -13185,7 +13416,7 @@
 </t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t xml:space="preserve">[普希拉在擦拭着她的道具]
 普希拉: 好久没有演出过，有些道具已经落满灰尘了。
@@ -13199,13 +13430,13 @@
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
         <is>
           <t>露莉艾卡</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t xml:space="preserve">[露莉艾卡在你的办公室里蹦蹦跳跳]
 露莉艾卡: 局长——局长——来一起玩游戏吧！
@@ -13218,7 +13449,7 @@
 </t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t xml:space="preserve">[露莉艾卡看上去情绪十分低落]
 露莉艾卡: 唉……最近找到的四叶草都是三叶的，露莉的能力是不是失效了啊。
@@ -13232,13 +13463,13 @@
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
         <is>
           <t>狼獾</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t xml:space="preserve">[狼獾满脸期待地看着你]
 狼獾: 我……饿了。
@@ -13251,7 +13482,7 @@
 </t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t xml:space="preserve">[狼獾有些手忙脚乱]
 狼獾: 阿皮……别乱跑，局长，帮下忙。
@@ -13265,13 +13496,13 @@
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
         <is>
           <t>玛蒂尔达</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t xml:space="preserve">[玛蒂尔达邀你在射击馆见面。]
 玛蒂尔达: 局长，关于管理局射击馆的使用规范，我初步拟定了一份大纲，请过目。
@@ -13284,7 +13515,7 @@
 </t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t xml:space="preserve">[玛蒂尔达来到你的办公室。]
 玛蒂尔达: 局长，在您看来，休息时间做什么事情最有价值？
@@ -13298,13 +13529,13 @@
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
         <is>
           <t>烟烟</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t xml:space="preserve">[图书室门禁异常，你发现是烟烟把神话书籍全部取下，其中一本正好卡住了门。 ]
 烟烟: 咦？局长你为什么来这里？
@@ -13317,7 +13548,7 @@
 </t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t xml:space="preserve">[烟烟端着一盘自己做的食物急匆匆地跑进了你的办公室。]
 烟烟: 快快快，局长也来尝尝吧？这可是我花了好久才做好的家乡菜！
@@ -13331,13 +13562,13 @@
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
         <is>
           <t>简</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t xml:space="preserve">[简对着管理局的安保分布图陷入了思考。]
 简: 感觉……还是有些可钻漏洞的地方……
@@ -13350,7 +13581,7 @@
 </t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t xml:space="preserve">[简来到办公室向你述职。]
 简: 您指派的任务我都完成了，请给我接下来的工作安排吧。
@@ -13364,13 +13595,46 @@
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>派因</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[派因将一本砖头厚的录音转录文本拍到你手里。]
+派因: 我说，你这管理局真该好好整顿了。食材供货的负责人是厨师他对门邻居跟了前妻的儿子，两个人互行方便，很可能在吃采购的回扣，你没发现吗？
+Prompt: 你怎么知道的？
+派因: 窃听对话而已，用我改装的设备还不是轻轻松松？
+派因: atlas/monthsign/sprite_dailysign_face_8.png
+Prompt: 不要妄下结论。
+派因: ……啧，真温吞，那你慢慢调查核实吧。
+派因: atlas/monthsign/sprite_dailysign_face_1.png
+</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[为了保证禁闭者的身体健康，派因被治疗师要求调整饮食结构。]
+派因: 真麻烦，吃的东西有什么可讲究的，饿不死不就行了吗？
+Prompt: 至少别天天只吃泡面和零食。
+派因: 那就换罐装能量饮吧，能维持生命体征，还免得烧水了。
+派因: atlas/monthsign/sprite_dailysign_face_5.png
+Prompt: 可以试试看三明治，做和吃都比较方便。
+派因: 听起来不错，出门还能随身带着。下次我试试。
+派因: atlas/monthsign/sprite_dailysign_face_8.png
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
         <is>
           <t>维多利亚</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t xml:space="preserve">[维多利亚在自己的房间中不住地感叹着]
 维多利亚: 啊……这封闭的空间，真是让人感到安心。
@@ -13383,7 +13647,7 @@
 </t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t xml:space="preserve">[你在接到警报后马上赶到了维多利亚的房间]
 维多利亚: 我……又流了好多血……该怎么办……
@@ -13397,13 +13661,13 @@
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
         <is>
           <t>伊格尼</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t xml:space="preserve">[你带了焦糖布丁来找伊格尼]
 伊格尼: 你是……特意来见我的？
@@ -13416,7 +13680,7 @@
 </t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t xml:space="preserve">[在管理局的厨房里，伊格尼在不住叹气]
 伊格尼: 唉……到底该怎么做菜啊。
@@ -13430,13 +13694,13 @@
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
         <is>
           <t>露薇娅·蕾</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t xml:space="preserve">[看上去像是露薇娅]
 露薇娅·蕾: 嘘，小点声，蕾现在睡着了……
@@ -13449,7 +13713,7 @@
 </t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t xml:space="preserve">[她有些暴躁，看上去像是蕾]
 露薇娅·蕾: 我新剧的选角……都是配角。
@@ -13463,13 +13727,13 @@
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
         <is>
           <t>赫卡蒂</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t xml:space="preserve">[赫卡蒂向你询问今天的安排]
 赫卡蒂: 局长，请给我今天的命令。
@@ -13482,7 +13746,7 @@
 </t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t xml:space="preserve">[赫卡蒂翻看着过往行动的记录]
 赫卡蒂: 如果我消失，还会有下一个赫卡蒂，届时请把我忘掉。
@@ -13496,13 +13760,13 @@
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
         <is>
           <t>奥利弗</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t xml:space="preserve">[奥利弗向你递来一个玩偶]
 奥利弗: 局长~来和奥利弗一起玩吧？
@@ -13515,7 +13779,7 @@
 </t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t xml:space="preserve">[奥利弗遍体鳞伤地躺在卧室里]
 奥利弗: 局长……好痛……好痛啊……
@@ -13529,13 +13793,13 @@
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
         <is>
           <t>拉弥亚</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t xml:space="preserve">[你走出办公室时，拉弥亚非常关切地迎了上来]
 拉弥亚: 局长，您看上去很疲惫的样子，是不是需要放松一下？
@@ -13548,7 +13812,7 @@
 </t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t xml:space="preserve">[拉弥亚正在娱乐区观看一部青春校园电影，表情有些疑惑]
 拉弥亚: 学生时代到底是什么样子的？为什么那么多人都会怀念那段日子呢？
@@ -13562,13 +13826,13 @@
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
         <is>
           <t>艾可</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t xml:space="preserve">[艾可聆听着催眠室里常用的几首轻音乐。]
 艾可: 哎呀，这些都软绵绵的，实在不够劲。还是艾可的演出录音更适合加进催眠室的歌单，肯定会很好用的~
@@ -13581,7 +13845,7 @@
 </t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t xml:space="preserve">[艾可抱着她的萨克斯来到你面前。]
 艾可: 今天是个好日子，萨克斯天才的精彩演出开启点歌模式了！来，快说说你想听什么~
@@ -13595,13 +13859,13 @@
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
         <is>
           <t>艾瑞尔</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t xml:space="preserve">[艾瑞尔左顾右盼，似乎有些慌张]
 艾瑞尔: 大家，为什么总是盯着我看呢……
@@ -13614,7 +13878,7 @@
 </t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t xml:space="preserve">[任务结束后，艾瑞尔特地向你道歉]
 艾瑞尔: 我好像……总是在拖大家的后腿……
@@ -13628,13 +13892,13 @@
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
         <is>
           <t>卡米利安</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t xml:space="preserve">[你被邀请到卡米利安的私人诊所]
 卡米利安: 最近的睡眠质量如何，还需要我的帮助么？
@@ -13647,7 +13911,7 @@
 </t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t xml:space="preserve">[卡米利安一边写着病例一边叹气]
 卡米利安: 最近找我看病的人突然变多了，你有什么头绪？
@@ -13661,13 +13925,13 @@
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
         <is>
           <t>安</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t xml:space="preserve">[安看着以前的照片，有感而发]
 安: 小孩子真可爱啊……又天真，又善良。
@@ -13680,7 +13944,7 @@
 </t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t xml:space="preserve">[患者的情况并不理想，安有些慌张]
 安: 有些患者的情况开始恶化了，彼岸诊所那时也是这样……
@@ -13694,13 +13958,13 @@
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
         <is>
           <t>福克斯先生</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t xml:space="preserve">[福克斯先生在你的面前点钞]
 福克斯先生: 最近赢了很多官司，进账不错。
@@ -13713,7 +13977,7 @@
 </t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t xml:space="preserve">[福克斯先生叹了一口气]
 福克斯先生: 最近来找我的辩护的案子，都是我不想接的。
@@ -13727,13 +13991,13 @@
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
         <is>
           <t>嘟嘟</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t xml:space="preserve">[嘟嘟端着满满一盘子的炸猪排从厨房里走出来]
 嘟嘟: 啊，老板，你也是来找宵夜吃的吗？
@@ -13746,7 +14010,7 @@
 </t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t xml:space="preserve">[嘟嘟大声宣传着她的唢呐培训班]
 嘟嘟: 走过路过不要错过！前二十位学员学费减半啦——哎，那边的老板，别走呀，要不要跟着我学唢呐？
@@ -13760,13 +14024,13 @@
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
         <is>
           <t>莱塔</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t xml:space="preserve">[莱塔偷偷地溜进你的房间]
 莱塔: 局长局长，我又发现了新的冒险地点！
@@ -13779,7 +14043,7 @@
 </t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t xml:space="preserve">[莱塔被你抓到偷偷跑出来玩]
 莱塔: 唔呣……我怎么，突然站在这里了……
@@ -13793,13 +14057,13 @@
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
         <is>
           <t>卡西娅</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t xml:space="preserve">[卡西娅在娱乐区浏览着香评网站。]
 卡西娅: 香水的味道越来越复杂，越来越工业化，都快把纯粹的味道覆盖掉了……就连感悟评论，也充斥着难闻的工业气息……
@@ -13812,7 +14076,7 @@
 </t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t xml:space="preserve">[卡西娅又收到了选美大赛的评委邀请函。]
 卡西娅: 要想让我分辨谁才是最顶级的香料……咳，最顶级的美人，我必须要去到现场……
@@ -13826,13 +14090,13 @@
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
         <is>
           <t>肖恩</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t xml:space="preserve">[肖恩又开始频繁注意自己的手机并在每次来消息时迅速回复。]
 肖恩: “千万别这样想，甜心，是他们没有品味，才这样不珍惜你。”……呼，总算安慰好了。没想到管理局内网里，也有这么多渴求着一份爱的人。
@@ -13845,7 +14109,7 @@
 </t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t xml:space="preserve">[肖恩面对刷新多少次都会出现在终端上的断网通知似乎十分暴躁。]
 肖恩: 不是说下午三点恢复吗？怎么还没有动静？这样难道不会影响管理局的正常运作吗？
@@ -13859,13 +14123,13 @@
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="inlineStr">
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
         <is>
           <t>泽斐尔</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t xml:space="preserve">[泽斐尔充满兴趣地刷着关于家庭精酿吧的网络新闻。]
 泽斐尔: 家庭精酿吧！听起来好有意思，去陌生人的家里喝一杯，听一个故事，然后走掉，所有人都不会再相见！因为大家都不认识，所以根本不用拘束！
@@ -13878,7 +14142,7 @@
 </t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t xml:space="preserve">[泽斐尔在禁闭室门后无聊地晃着腿。]
 泽斐尔: 哎呀——都说了我不是想逃走嘛——我只是好奇围墙后面是什么而已，这不也帮你测了下围墙安全性嘛——放我出来啦——
@@ -13892,13 +14156,13 @@
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="inlineStr">
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
         <is>
           <t>蔻蔻</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t xml:space="preserve">[蔻蔻在你的办公室等待指令]
 蔻蔻: 有什么我能帮你做的事情么？
@@ -13911,7 +14175,7 @@
 </t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t xml:space="preserve">[蔻蔻向你询问自己以前的搭档]
 蔻蔻: 白逸那家伙呢？怎么又不见了？
@@ -13925,13 +14189,13 @@
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="inlineStr">
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
         <is>
           <t>德莫莉</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t xml:space="preserve">[结束任务后，德莫莉开始安排余下的时间]
 德莫莉: 今天做点什么活动好呢？来点推荐吧局长。
@@ -13944,7 +14208,7 @@
 </t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t xml:space="preserve">[德莫莉在数着她的收藏品]
 德莫莉: 要来支援一下我的收藏么，局长？
@@ -13958,13 +14222,13 @@
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="inlineStr">
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
         <is>
           <t>佩姬</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t xml:space="preserve">[佩姬飞快地写着歌词]
 佩姬: 呦，这不是局长么？怎么，想听说唱？
@@ -13977,7 +14241,7 @@
 </t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t xml:space="preserve">[佩姬一脸不爽地踢着房间里的杂物]
 佩姬: 不是说好要给我整个调音台吗？东西呢？
@@ -13991,13 +14255,13 @@
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="inlineStr">
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
         <is>
           <t>海拉</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t xml:space="preserve">[完成任务的海拉直接躺在你的办公室地板上]
 海拉: 啊——有没有给我准备犒劳品啊？最好是狄斯币。
@@ -14010,7 +14274,7 @@
 </t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t xml:space="preserve">[看到你后，海拉表现得很惊讶]
 海拉: 啧，是九十九那家伙告诉你我躲在这的？
@@ -14024,13 +14288,13 @@
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="inlineStr">
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
         <is>
           <t>澈</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t xml:space="preserve">[澈揉了揉眼睛，似乎刚睡醒]
 澈: 怎么？你也来这偷懒？
@@ -14043,7 +14307,7 @@
 </t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t xml:space="preserve">[澈看着你，似乎有些不解]
 澈: 你成天和我们这群禁闭者混在一块，有意思么？
@@ -14057,13 +14321,13 @@
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="inlineStr">
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
         <is>
           <t>胡椒</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t xml:space="preserve">[胡椒兴冲冲地跑进了你的办公室]
 胡椒: 局长，我今天想做坏事！有什么建议么？
@@ -14076,7 +14340,7 @@
 </t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t xml:space="preserve">[胡椒很消沉地站在管理局的操场上]
 胡椒: 做任务还不如种地有意思……
@@ -14090,13 +14354,13 @@
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="inlineStr">
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
         <is>
           <t>雷比尼斯</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t xml:space="preserve">[雷比尼斯似乎早早在办公室里等候着你]
 雷比尼斯: 发现局长，等待进程。
@@ -14109,7 +14373,7 @@
 </t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t xml:space="preserve">[雷比尼斯在打扫管理局的卫生]
 雷比尼斯: 局长，请不要在这里干扰雷比尼斯的工作。
@@ -14123,13 +14387,13 @@
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="inlineStr">
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
         <is>
           <t>昙</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t xml:space="preserve">[昙在擦拭着她的匕首]
 昙: 下次的对手……是谁呢……
@@ -14142,7 +14406,7 @@
 </t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t xml:space="preserve">[昙紧握着双手，看起来很愤怒]
 昙: 花园！你们居然还敢抢我的目标！
@@ -14156,13 +14420,13 @@
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="inlineStr">
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
         <is>
           <t>艾米潘</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t xml:space="preserve">[在练习场中的艾米潘心情似乎很好]
 艾米潘: 哼哼，今天我允许你直视辛迪加无冕之王的尊容。
@@ -14175,7 +14439,7 @@
 </t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t xml:space="preserve">[在练习场中的艾米潘心情似乎很差]
 艾米潘: 别吵，我在练习弓箭呢！
@@ -14189,13 +14453,13 @@
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="inlineStr">
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
         <is>
           <t>芙洛拉</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t xml:space="preserve">[芙洛拉拿着笔记开始对你进行问询]
 芙洛拉: 你今天应该没有忘记消防设施的定期检查吧？
@@ -14208,7 +14472,7 @@
 </t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t xml:space="preserve">[刚出练习场的芙洛拉似乎有些消沉]
 芙洛拉: 唉……怎么做才能用好消防器械呢。
@@ -14222,13 +14486,13 @@
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="inlineStr">
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
         <is>
           <t>开尔文</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t xml:space="preserve">[开尔文捧着一堆食材向你打招呼]
 开尔文: 局长，管理局的厨房可以加个额外的冷库么！
@@ -14241,7 +14505,7 @@
 </t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t xml:space="preserve">[开尔文似乎被人嘲笑了]
 开尔文: 哈啊……我怎么还没毕业……
@@ -14255,13 +14519,13 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="inlineStr">
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
         <is>
           <t>琼</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t xml:space="preserve">[从琼的房间中传出了歌声]
 琼: 以你本色——
@@ -14274,7 +14538,7 @@
 </t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t xml:space="preserve">[琼摩挲着之前演唱会的照片，若有所思]
 琼: 什么时候这种生活能结束呢，我想去演出。
@@ -14288,13 +14552,13 @@
         </is>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="inlineStr">
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
         <is>
           <t>玛奇朵</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t xml:space="preserve">[玛奇朵看起来身心愉悦]
 玛奇朵: 有些敌人看起来很享受哦。
@@ -14307,7 +14571,7 @@
 </t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t xml:space="preserve">[玛奇朵在打着瞌睡]
 玛奇朵: 欢迎……光临新城银行！啊……不对！管理局！
@@ -14321,13 +14585,13 @@
         </is>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1" t="inlineStr">
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
         <is>
           <t>丽莎</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t xml:space="preserve">[丽莎用左手拿出了画，铺在桌子上]
 丽莎: 收到了几幅画作，又能好好欣赏一番了。
@@ -14340,7 +14604,7 @@
 </t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t xml:space="preserve">[丽莎坐在画板前，叹了口气]
 丽莎: 又画歪了……
@@ -14365,7 +14629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15879,10 +16143,46 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
+          <t>耶萊娜</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[耶萊娜正在整理書架上的書籍。]
+耶萊娜: 您這裡的藏書很豐富，最近又讀完了幾本，引人入勝值得一看。若您想消磨時間的話，我願意為您推薦。
+Prompt: 我最近也想讀點新書。
+耶萊娜: 我很高興您會感興趣。請稍等片刻，我為您將書取下來。
+耶萊娜: atlas/monthsign/sprite_dailysign_face_4.png
+Prompt: 我最近沒有時間讀書。
+耶萊娜: 沒關係，我可以先幫您整理成書單，等您有空的時候再憑興趣閱讀。
+耶萊娜: atlas/monthsign/sprite_dailysign_face_8.png
+</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[深夜，亮著燈的辦公室響起克制的敲門聲。]
+耶萊娜: 局長這麼晚還沒睡，是被什麼問題難倒了嗎？如果不介意，可以和我說說的。
+Prompt: 只是有點睡不著。
+耶萊娜: 失眠的時候，借助外力不失為一種辦法。需要我來哄您入睡嗎？
+耶萊娜: 'atlas/monthsign/sprite_dailysign_face_4.png', 'atlas/monthsign/sprite_dailysign_face_4.png'
+Prompt: 還有事情需要處理。
+耶萊娜: 如果您願意信任我，我可以幫您分擔辛勞，這樣您也能早點休息。
+耶萊娜: atlas/monthsign/sprite_dailysign_face_6.png
+</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
           <t>切爾西伯爵</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t xml:space="preserve">[切爾西將一枚寶石遞到你的面前]
 切爾西伯爵: 給，這是你的紀念品。
@@ -15895,7 +16195,7 @@
 </t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">[切爾西看著西迪，似乎若有所思]
 切爾西伯爵: 這裡為什麼不能養貓？
@@ -15908,17 +16208,17 @@
 </t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>辰砂</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t xml:space="preserve">[你路過辰砂的收容室]
 辰砂: 您今天需要我的貼身保護嗎？
@@ -15931,7 +16231,7 @@
 </t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">[任務結束後，辰砂似乎在思考什麼]
 辰砂: 唉，以往的經驗在管理局這裡都不怎麼適用啊。
@@ -15944,17 +16244,17 @@
 </t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>卡瓦卡瓦</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t xml:space="preserve">[卡瓦卡瓦期待地看著你]
 卡瓦卡瓦: 局長！我們什麼時候回砂海啊？
@@ -15967,7 +16267,7 @@
 </t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">[卡瓦卡瓦有一些難過]
 卡瓦卡瓦: 局長，我的信標少了幾個。
@@ -15980,17 +16280,17 @@
 </t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>李維</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t xml:space="preserve">[李維穿著他又一身過於浮誇的新衣服在你面前轉了個圈]
 李維: 怎麼樣，好看嗎？
@@ -16003,7 +16303,7 @@
 </t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">[李維正在和兩個工作人員打牌]
 李維: 嘿，真不好意思，我又贏了。
@@ -16016,17 +16316,17 @@
 </t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>尤尼</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t xml:space="preserve">[尤尼路過你身邊，眉頭緊皺]
 尤尼: 你為什麼只戴一邊耳環？
@@ -16039,7 +16339,7 @@
 </t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">[尤尼拿著一張宣傳單在很仔細地端詳]
 尤尼: 這人在我之後是不是又去把五官做了調整……
@@ -16052,17 +16352,17 @@
 </t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>妮諾</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t xml:space="preserve">[妮諾把一張物資申請單拍在你面前。]
 妮諾: 噹噹，你觸發了一個隨機任務，那就是幫妮諾大人填滿零食櫃~
@@ -16075,7 +16375,7 @@
 </t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">[妮諾查看著直播間觀看量曲線圖。]
 妮諾: 怎麼回事，最近熱度下降了這麼多！簡直是妮諾大人直播的黑歷史！
@@ -16088,17 +16388,17 @@
 </t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>戈藍</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t xml:space="preserve">[戈藍目不轉睛地盯著裝置上顯示的管理局內網討論區文章。]
 戈藍: 哦哦，原來那個誰和那個誰結拜，那個誰又和那個誰互相看不順眼，局長也曾經喜歡過邪惡勢力派來誘惑自己的成熟美好大姐姐……
@@ -16111,7 +16411,7 @@
 </t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">[戈藍羨慕地看著菲的商品目錄裡那個絕版且昂貴的絨毛配飾。]
 戈藍: 可惡，錢不夠！這裡不讓當打手，應該怎麼撈點油……不對，賺點零用錢呢？啊，我知道了，我可以賣情報和八卦！
@@ -16124,17 +16424,17 @@
 </t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>多芙</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t xml:space="preserve">[多芙正在幫管理局眾人送信。]
 多芙: 這不是局長嗎？正好，來猜猜看，這兩封信裡面，哪一封是送給你的？
@@ -16147,7 +16447,7 @@
 </t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">[多芙收到了寄給她的信，卻沒急著拆開，似乎在醞釀些什麼。]
 多芙: 居然有人寫信給信使呀，該怎麼回信呢……哈哈，真是好難抉擇啊，是該給點甜頭上上鉤呢，還是該用些話術嚇嚇這人……
@@ -16160,17 +16460,17 @@
 </t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>九十九</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t xml:space="preserve">[九十九用她的刀不停砸著地面]
 九十九: 什麼時候……到訓練時間？
@@ -16183,7 +16483,7 @@
 </t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">[九十九捶打著禁閉室的大門，室內溫度急劇升高]
 九十九: 啊啊……啊！
@@ -16196,17 +16496,17 @@
 </t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
         <is>
           <t>溫蒂</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t xml:space="preserve">[你與拿著電鋸的溫蒂在走廊相遇]
 溫蒂: 鏽河的死役……還剩多少？
@@ -16219,7 +16519,7 @@
 </t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">[溫蒂一把撕碎了眼前的資料]
 溫蒂: 死役、死役怎麼又在走動！
@@ -16232,17 +16532,17 @@
 </t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
         <is>
           <t>帕加茜</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t xml:space="preserve">[帕加茜的屋子裡放滿了書]
 帕加茜: 這裡……還有其他的文獻資料嗎？
@@ -16255,7 +16555,7 @@
 </t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">[你打算來看望帕加茜]
 帕加茜: 不要……靠近我，會變得不幸。
@@ -16268,17 +16568,17 @@
 </t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
         <is>
           <t>多莉</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t xml:space="preserve">[多莉在觀看棒球比賽]
 多莉: 等下！現在剛到最精彩的階段，不要打擾我啊！
@@ -16291,7 +16591,7 @@
 </t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">[多莉一臉陰鬱地看著球棒]
 多莉: 採購部進的這批貨到底行不行啊……揮兩下就斷了！
@@ -16304,17 +16604,17 @@
 </t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
         <is>
           <t>赫羅</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t xml:space="preserve">[赫羅捧著一箱新到貨的牛奶]
 赫羅: 局長，要不要來一瓶啊~？
@@ -16327,7 +16627,7 @@
 </t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">[赫羅握著斧子，雙眼出神]
 赫羅: 唉……卓婭老大怎麼都不和我說話了……
@@ -16340,17 +16640,17 @@
 </t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
         <is>
           <t>莓絲</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t xml:space="preserve">[莓絲在你的辦公室裡打起了瞌睡]
 莓絲: 嗯，不能睡……還有任務……不能睡……
@@ -16363,7 +16663,7 @@
 </t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">[莓絲在鍛爐旁自言自語]
 莓絲: 嗯……下一把武器該做什麼呢……
@@ -16376,17 +16676,17 @@
 </t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
         <is>
           <t>卡斯洛</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t xml:space="preserve">[卡斯洛闖進你的辦公室]
 卡斯洛: 喂，最近好無聊，說好的給我更高難度的任務呢！
@@ -16399,7 +16699,7 @@
 </t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">[卡斯洛用新到的油彩對著鏡子塗塗畫畫]
 卡斯洛: 管理局採購的這款不怎麼防水啊……太容易花了。
@@ -16412,17 +16712,17 @@
 </t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
         <is>
           <t>克里斯蒂娜</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t xml:space="preserve">[克里斯蒂娜正在訓練室裡打沙包，練習自由搏擊]
 克里斯蒂娜: 喲，親愛的助手，要不要一起來練練？
@@ -16435,7 +16735,7 @@
 </t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">[克里斯蒂娜正在擺弄一副眼鏡]
 克里斯蒂娜: 小助手！快來看看我做的新道具！它可以在你眨眼的時候拍下眼前的畫面，傳到你的裝置上。
@@ -16448,17 +16748,17 @@
 </t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
         <is>
           <t>瑞思</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t xml:space="preserve">[路過運動室門口，你被一個壁球大力擊倒]
 瑞思: 抱歉局長，我沒控制好壁球讓它打到了你。
@@ -16471,7 +16771,7 @@
 </t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">[瑞思拿給你一張優惠券]
 瑞思: 「K幻量販」的大包廂，局長你要一起來嗎？
@@ -16484,17 +16784,17 @@
 </t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
         <is>
           <t>米拉</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t xml:space="preserve">[米拉叫住了準備出門的你。]
 米拉: 依我看，局長身上還缺了些東西，如果要出遠門前往砂海的話，有些裝備必不可少，不嫌棄的話，就從我的貨架上拿吧？
@@ -16507,7 +16807,7 @@
 </t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">[米拉正在晾曬新洗的被單]
 米拉: 換洗被單，打掃地面，整理房間……要做的家務還有很多，幸好狄斯的氣候不像砂海那樣，剛晾好的床單不會消失得無影無蹤，省了追著跑的功夫。
@@ -16520,17 +16820,17 @@
 </t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
         <is>
           <t>艾恩</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t xml:space="preserve">[艾恩走出手術室]
 艾恩: 有什麼事情就快點說，你我的時間都很寶貴。
@@ -16543,7 +16843,7 @@
 </t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">[艾恩看著禁閉者們，不停地嘆氣]
 艾恩: 你什麼時候管管這些禁閉者？
@@ -16556,17 +16856,17 @@
 </t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
         <is>
           <t>泰特拉</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t xml:space="preserve">[泰特拉擺弄著你辦公室裡的電腦]
 泰特拉: 還是要注意一些管理局的網路安全哦，局長。
@@ -16579,7 +16879,7 @@
 </t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">[泰特拉躺在管理局的檔案櫃上不停嘆氣]
 泰特拉: 無聊啊——沒想到在這裡也會這麼無聊。
@@ -16592,17 +16892,17 @@
 </t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
         <is>
           <t>堇</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t xml:space="preserve">[堇來到你的辦公室，似乎是想替你分擔工作]
 堇: 局長……您看起來有煩心事？如果不嫌棄，請讓我為您分憂。
@@ -16615,7 +16915,7 @@
 </t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">[堇捏著一片花瓣，神色慌張]
 堇: 花園的殺手……最近來過？
@@ -16628,17 +16928,17 @@
 </t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
         <is>
           <t>麥昆</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t xml:space="preserve">[麥昆邀請你出席一場藝術品拍賣會。]
 麥昆: 怎麼樣，有興趣嗎？
@@ -16651,7 +16951,7 @@
 </t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">[麥昆因藝術品詐騙面臨鉅額罰款。]
 麥昆: 別擔心，我有辦法應付。
@@ -16664,17 +16964,17 @@
 </t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
         <is>
           <t>琳</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t xml:space="preserve">[琳正在舉著相機拍攝溫室裡一叢新開的花，神色有些苦惱]
 琳: 總覺得好像還差了點什麼……
@@ -16687,7 +16987,7 @@
 </t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">[琳正在專注地看一本漫畫，臉上泛著紅暈]
 琳: 好甜啊……
@@ -16700,17 +17000,17 @@
 </t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
         <is>
           <t>加洛法諾</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t xml:space="preserve">[加洛法諾捧著一束康乃馨]
 加洛法諾: 您覺得……今天我該用哪種顏色的花來裝飾房間呢？
@@ -16723,7 +17023,7 @@
 </t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">[加洛法諾撫摸著一匹柔軟的布料]
 加洛法諾: 我打算用它來為您做套睡衣，應該會很合適。
@@ -16736,17 +17036,17 @@
 </t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
         <is>
           <t>優利卡</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t xml:space="preserve">[優利卡整理著旅行社的傳單。]
 優利卡: 局長，如果你要去旅行的話……你會選哪條路線呢？
@@ -16759,7 +17059,7 @@
 </t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">[優利卡翻看著一本科幻電影雜誌。]
 優利卡: 這些電影裡的道具都看起來好有趣呀……局長，你有沒有想要我做出來的電影道具？
@@ -16772,17 +17072,17 @@
 </t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
         <is>
           <t>薊</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t xml:space="preserve">[薊神色慌張地闔上了寫到一半的手帳。]
 薊: 你什麼時候過來的？怎麼還用這種眼神看著我？別過來！我只是在寫……寫手帳而已！
@@ -16795,7 +17095,7 @@
 </t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">[薊在管理局操場發現了一隻受傷的小流浪貓。]
 薊: 它流了好多血啊，局長，我們可以幫幫它嗎？
@@ -16808,17 +17108,17 @@
 </t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
         <is>
           <t>舒魯瑪</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t xml:space="preserve">[早上，舒魯瑪頂著黑眼圈走出房間。]
 舒魯瑪: 早安，局長。眼睛下面有黑眼圈？昨晚因為寫作文有點晚睡，謝謝你的關心，不用擔心我。
@@ -16831,7 +17131,7 @@
 </t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t xml:space="preserve">[路邊的小貓對著靠近的舒魯瑪弓背哈氣。]
 舒魯瑪: 唉，又是這樣……局長，你知道該怎麼做才能和小貓親近嗎？
@@ -16844,17 +17144,17 @@
 </t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
         <is>
           <t>普希拉</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t xml:space="preserve">[普希拉似乎發現你在盯著她]
 普希拉: 怎麼？對我的面具感興趣？
@@ -16867,7 +17167,7 @@
 </t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t xml:space="preserve">[普希拉在擦拭著她的道具]
 普希拉: 好久沒有演出過，有些道具已經落滿灰塵了。
@@ -16880,17 +17180,17 @@
 </t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
         <is>
           <t>露莉艾卡</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t xml:space="preserve">[露莉艾卡在你的辦公室裡蹦蹦跳跳]
 露莉艾卡: 局長——局長——來一起玩遊戲吧！
@@ -16903,7 +17203,7 @@
 </t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t xml:space="preserve">[露莉艾卡看起來情緒十分低落]
 露莉艾卡: 唉……最近找到的四葉草都是三葉的，露莉的能力是不是失效了啊。
@@ -16916,17 +17216,17 @@
 </t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
         <is>
           <t>狼獾</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t xml:space="preserve">[狼獾滿臉期待地看著你]
 狼獾: 我……餓了。
@@ -16939,7 +17239,7 @@
 </t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t xml:space="preserve">[狼獾有些手忙腳亂]
 狼獾: 阿皮……別亂跑，局長，幫個忙。
@@ -16952,17 +17252,17 @@
 </t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
         <is>
           <t>瑪蒂爾達</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t xml:space="preserve">[瑪蒂爾達邀你在射擊館見面。]
 瑪蒂爾達: 局長，關於管理局射擊館的使用規範，我初步擬定了一份大綱，請過目。
@@ -16975,7 +17275,7 @@
 </t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t xml:space="preserve">[瑪蒂爾達來到你的辦公室。]
 瑪蒂爾達: 局長，在您看來，休息時間做什麼事情最有價值？
@@ -16988,17 +17288,17 @@
 </t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
         <is>
           <t>煙煙</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t xml:space="preserve">[圖書室門禁異常，你發現是煙煙把神話書籍全部取下，其中一本正好卡住了門。 ]
 煙煙: 咦？局長你為什麼來這裡？
@@ -17011,7 +17311,7 @@
 </t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t xml:space="preserve">[煙煙端著一盤自己做的食物急匆匆地跑進了你的辦公室。]
 煙煙: 快快快，局長也來嚐嚐吧？這可是我花了好久才做好的家鄉菜！
@@ -17024,17 +17324,17 @@
 </t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
         <is>
           <t>簡</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t xml:space="preserve">[簡對著管理局的保全分佈圖陷入了思考。]
 簡: 感覺……還是有些可鑽漏洞的地方……
@@ -17047,7 +17347,7 @@
 </t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t xml:space="preserve">[簡來到辦公室向你述職。]
 簡: 您指派的任務我都完成了，請給我接下來的工作安排吧。
@@ -17060,17 +17360,53 @@
 </t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>派因</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[派因將一本磚頭厚的錄音轉錄文本拍到你手裡。]
+派因: 我說，你這管理局真該好好整頓了。食材供貨的負責人是廚師他對面鄰居前妻的兒子，兩個人互行方便，很可能在吃採購的回扣，你沒發現嗎？
+Prompt: 你怎麼知道的？
+派因: 竊聽對話而已，用我改裝的設備還不是輕輕鬆鬆？
+派因: atlas/monthsign/sprite_dailysign_face_8.png
+Prompt: 不要妄下結論。
+派因: ……嘖，真溫吞，那你慢慢調查核實吧。
+派因: atlas/monthsign/sprite_dailysign_face_1.png
+</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[為了保證禁閉者的身體健康，派因被治療師要求調整飲食結構。]
+派因: 真麻煩，吃的東西有什麼可講究的，餓不死不就行了嗎？
+Prompt: 至少別天天只吃泡麵和零食。
+派因: 那就換罐裝能量飲吧，能維持生命體徵，還不用煮熱水了。
+派因: atlas/monthsign/sprite_dailysign_face_5.png
+Prompt: 可以試試看三明治，做和吃都比較方便。
+派因: 聽起來不錯，出門還能隨身帶著。下次我試試。
+派因: atlas/monthsign/sprite_dailysign_face_8.png
+</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
         <is>
           <t>維多利亞</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t xml:space="preserve">[維多利亞在自己的房間中不停地感嘆著]
 維多利亞: 啊……這封閉的空間，真是讓人感到安心。
@@ -17083,7 +17419,7 @@
 </t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t xml:space="preserve">[你在接到警報後馬上趕到了維多利亞的房間]
 維多利亞: 我……又流了好多血……該怎麼辦……
@@ -17096,17 +17432,17 @@
 </t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
         <is>
           <t>伊格尼</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t xml:space="preserve">[你帶了焦糖布丁來找伊格尼]
 伊格尼: 你是……特意來見我的？
@@ -17119,7 +17455,7 @@
 </t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t xml:space="preserve">[在管理局的廚房裡，伊格尼在不停嘆氣]
 伊格尼: 唉……到底該怎麼做菜啊。
@@ -17132,17 +17468,17 @@
 </t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
         <is>
           <t>露薇婭·蕾</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t xml:space="preserve">[看起來像是露薇婭]
 露薇婭·蕾: 噓，小聲點，蕾現在睡著了……
@@ -17155,7 +17491,7 @@
 </t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t xml:space="preserve">[她有些暴躁，看起來像是蕾]
 露薇婭·蕾: 我新劇的選角……都是配角。
@@ -17168,17 +17504,17 @@
 </t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
         <is>
           <t>赫卡蒂</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t xml:space="preserve">[赫卡蒂向你詢問今天的安排]
 赫卡蒂: 局長，請給我今天的命令。
@@ -17191,7 +17527,7 @@
 </t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t xml:space="preserve">[赫卡蒂翻看著過往行動的記錄]
 赫卡蒂: 如果我消失，還會有下一個赫卡蒂，屆時請把我忘掉。
@@ -17204,17 +17540,17 @@
 </t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
         <is>
           <t>奧利弗</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t xml:space="preserve">[奧利弗向你遞來一個玩偶]
 奧利弗: 局長~來和奧利弗一起玩吧？
@@ -17227,7 +17563,7 @@
 </t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t xml:space="preserve">[奧利弗遍體鱗傷地躺在臥室裡]
 奧利弗: 局長……好痛……好痛啊……
@@ -17240,17 +17576,17 @@
 </t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
         <is>
           <t>拉彌亞</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t xml:space="preserve">[你走出辦公室時，拉彌亞一臉關切地走了過來]
 拉彌亞: 局長，您看起來很疲憊的樣子，是不是需要放鬆一下？
@@ -17263,7 +17599,7 @@
 </t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t xml:space="preserve">[拉彌亞正在娛樂區觀看一部青春校園電影，表情有些疑惑]
 拉彌亞: 學生時代到底是什麼樣子呢？為什麼這麼多人都會懷念那段日子呢？
@@ -17276,17 +17612,17 @@
 </t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
         <is>
           <t>艾可</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t xml:space="preserve">[艾可聆聽著催眠室裡常用的幾首輕音樂。]
 艾可: 唉呀，這些都軟綿綿的，實在不夠帶勁。還是艾可的演出錄音更適合加進催眠室的歌單，肯定會很好用的~
@@ -17299,7 +17635,7 @@
 </t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t xml:space="preserve">[艾可抱著她的薩克斯風來到你面前。]
 艾可: 今天是個好日子，薩克斯風天才的精彩演出開啟點歌模式了！來，快說說你想聽什麼~
@@ -17312,17 +17648,17 @@
 </t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
         <is>
           <t>艾瑞爾</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t xml:space="preserve">[艾瑞爾左顧右盼，似乎有些慌張]
 艾瑞爾: 大家，為什麼總是盯著我看呢……
@@ -17335,7 +17671,7 @@
 </t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t xml:space="preserve">[任務結束後，艾瑞爾特地向你道歉]
 艾瑞爾: 我好像……總是在拖大家的後腿……
@@ -17348,17 +17684,17 @@
 </t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
         <is>
           <t>卡米利安</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t xml:space="preserve">[你被邀請到卡米利安的私人診所]
 卡米利安: 最近的睡眠品質如何，還需要我的幫助嗎？
@@ -17371,7 +17707,7 @@
 </t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t xml:space="preserve">[卡米利安一邊寫著病例一邊嘆氣]
 卡米利安: 最近找我看病的人突然變多了，你有什麼頭緒？
@@ -17384,17 +17720,17 @@
 </t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
         <is>
           <t>安</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t xml:space="preserve">[安看著以前的照片，有感而發]
 安: 小孩子真可愛啊……又天真，又善良。
@@ -17407,7 +17743,7 @@
 </t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t xml:space="preserve">[患者的情況並不理想，安有些慌張]
 安: 有些患者的情況開始惡化了，彼岸診所那時也是這樣……
@@ -17420,17 +17756,17 @@
 </t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
         <is>
           <t>Mr.Fox</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t xml:space="preserve">[Mr.Fox在你的面前點鈔]
 Mr.Fox: 最近贏了很多官司，進帳不錯。
@@ -17443,7 +17779,7 @@
 </t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t xml:space="preserve">[Mr.Fox嘆了一口氣]
 Mr.Fox: 最近來找我的辯護的案子，都是我不想接的。
@@ -17456,17 +17792,17 @@
 </t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
         <is>
           <t>嘟嘟</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t xml:space="preserve">[嘟嘟端著滿滿一盤炸豬排從廚房裡走出來]
 嘟嘟: 啊，老闆，你也是來找宵夜吃的嗎？
@@ -17479,7 +17815,7 @@
 </t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t xml:space="preserve">[嘟嘟大聲宣傳著她的嗩吶培訓班]
 嘟嘟: 走過路過千萬不要錯過！前二十位學員學費減半啦——欸，那邊的老闆，別走呀，要不要跟著我學嗩吶？
@@ -17492,17 +17828,17 @@
 </t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
         <is>
           <t>萊塔</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t xml:space="preserve">[萊塔偷偷地溜進你的房間]
 萊塔: 局長局長，我又發現了新的冒險地點！
@@ -17515,7 +17851,7 @@
 </t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t xml:space="preserve">[萊塔被你抓到偷偷跑出來玩]
 萊塔: 唔呣……我怎麼，突然站在這裡了……
@@ -17528,17 +17864,17 @@
 </t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
         <is>
           <t>卡西婭</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t xml:space="preserve">[卡西婭在娛樂區瀏覽著香水評論網站。]
 卡西婭: 香水的味道越來越複雜，越來越工業化，都快把純粹的味道覆蓋掉了……就連感悟評論，也充斥著難聞的工業氣息……
@@ -17551,7 +17887,7 @@
 </t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t xml:space="preserve">[卡西婭又收到了選美大賽的評審邀請函。]
 卡西婭: 要想讓我分辨誰才是最頂級的香料……咳，最頂級的美人，我必須要去到現場……
@@ -17564,17 +17900,17 @@
 </t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
         <is>
           <t>肖恩</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t xml:space="preserve">[肖恩又開始頻繁注意自己的手機並在每次有訊息時迅速回覆。]
 肖恩: 「千萬別這樣想，甜心，是他們沒有品味，才這樣不珍惜你。」……呼，總算安慰好了。沒想到管理局內網裡，也有這麼多渴求著一份愛的人。
@@ -17587,7 +17923,7 @@
 </t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t xml:space="preserve">[肖恩面對無論重新整理多少次都會出現在裝置上的網路斷線通知似乎十分暴躁。]
 肖恩: 不是說下午三點恢復嗎？怎麼還沒有動靜？這樣難道不會影響管理局的正常運作嗎？
@@ -17600,17 +17936,17 @@
 </t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="inlineStr">
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
         <is>
           <t>澤斐爾</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t xml:space="preserve">[澤斐爾充滿興趣地瀏覽著關於家庭精釀酒吧的網路新聞。]
 澤斐爾: 家庭精釀吧！聽起來好有趣，去陌生人的家裡喝一杯，聽一個故事，然後走掉，所有人都不會再相見！因為大家都不認識，所以根本不用拘束！
@@ -17623,7 +17959,7 @@
 </t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t xml:space="preserve">[澤斐爾在禁閉室門後無聊地晃著腿。]
 澤斐爾: 唉呀——都說了我不是想逃走嘛——我只是好奇圍牆後面是什麼而已，這不也幫你測了下圍牆安全性嘛——放我出來啦——
@@ -17636,17 +17972,17 @@
 </t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="inlineStr">
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
         <is>
           <t>K.K.</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t xml:space="preserve">[K.K.在你的辦公室等待指令]
 K.K.: 有什麼我能幫你做的事情嗎？
@@ -17659,7 +17995,7 @@
 </t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t xml:space="preserve">[K.K.向你詢問自己以前的搭檔]
 K.K.: 白逸那傢伙呢？怎麼又不見了？
@@ -17672,17 +18008,17 @@
 </t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="inlineStr">
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
         <is>
           <t>德莫莉</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t xml:space="preserve">[結束任務後，德莫莉開始安排餘下的時間]
 德莫莉: 今天做點什麼活動好呢？來點推薦吧局長。
@@ -17695,7 +18031,7 @@
 </t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t xml:space="preserve">[德莫莉在數著她的收藏品]
 德莫莉: 要來支援一下我的收藏嗎，局長？
@@ -17708,17 +18044,17 @@
 </t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="inlineStr">
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
         <is>
           <t>佩姬</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t xml:space="preserve">[佩姬飛快地寫著歌詞]
 佩姬: 呦，這不是局長嗎？怎麼，想聽說唱？
@@ -17731,7 +18067,7 @@
 </t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t xml:space="preserve">[佩姬一臉不爽地踢著房間裡的雜物]
 佩姬: 不是說好要幫我弄個調音台嗎？東西呢？
@@ -17744,17 +18080,17 @@
 </t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="inlineStr">
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
         <is>
           <t>海拉</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t xml:space="preserve">[完成任務的海拉直接躺在你的辦公室地板上]
 海拉: 啊——有沒有給我準備犒勞品啊？最好是狄斯幣。
@@ -17767,7 +18103,7 @@
 </t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t xml:space="preserve">[看到你後，海拉表現得很驚訝]
 海拉: 嘖，是九十九那傢伙告訴你我躲在這的？
@@ -17780,17 +18116,17 @@
 </t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="inlineStr">
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
         <is>
           <t>澈</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t xml:space="preserve">[澈揉了揉眼睛，似乎剛睡醒]
 澈: 怎麼？你也來這偷懶？
@@ -17803,7 +18139,7 @@
 </t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t xml:space="preserve">[澈看著你，似乎有些不解]
 澈: 你成天和我們這群禁閉者混在一塊，好玩嗎？
@@ -17816,17 +18152,17 @@
 </t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="inlineStr">
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
         <is>
           <t>胡椒</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t xml:space="preserve">[胡椒興沖沖地跑進了你的辦公室]
 胡椒: 局長，我今天想做壞事！有什麼建議嗎？
@@ -17839,7 +18175,7 @@
 </t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t xml:space="preserve">[胡椒很消沉地站在管理局的操場上]
 胡椒: 做任務還不如種地有趣……
@@ -17852,17 +18188,17 @@
 </t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="inlineStr">
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
         <is>
           <t>雷比尼斯</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t xml:space="preserve">[雷比尼斯似乎早早在辦公室裡等候著你]
 雷比尼斯: 發現局長，等待進程。
@@ -17875,7 +18211,7 @@
 </t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t xml:space="preserve">[雷比尼斯在打掃管理局的衛生]
 雷比尼斯: 局長，請不要在這裡干擾雷比尼斯的工作。
@@ -17888,17 +18224,17 @@
 </t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="inlineStr">
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
         <is>
           <t>曇</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t xml:space="preserve">[曇在擦拭著她的匕首]
 曇: 下次的對手……是誰呢……
@@ -17911,7 +18247,7 @@
 </t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t xml:space="preserve">[曇緊握著雙手，看起來很憤怒]
 曇: 花園！你們居然還敢搶我的目標！
@@ -17924,17 +18260,17 @@
 </t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="inlineStr">
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
         <is>
           <t>EMP</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t xml:space="preserve">[在練習場中的EMP心情似乎很好]
 EMP: 哼哼，今天我允許你直視辛迪加無冕之王的尊容。
@@ -17947,7 +18283,7 @@
 </t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t xml:space="preserve">[在練習場中的EMP心情似乎很差]
 EMP: 別吵，我在練習弓箭呢！
@@ -17960,17 +18296,17 @@
 </t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="inlineStr">
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
         <is>
           <t>芙洛拉</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t xml:space="preserve">[芙洛拉拿著筆記開始對你進行問詢]
 芙洛拉: 你今天應該沒有忘記消防設施的定期檢查吧？
@@ -17983,7 +18319,7 @@
 </t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t xml:space="preserve">[剛出練習場的芙洛拉似乎有些消沉]
 芙洛拉: 唉……怎麼做才能用好消防器械呢。
@@ -17996,17 +18332,17 @@
 </t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="inlineStr">
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
         <is>
           <t>開爾文</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t xml:space="preserve">[開爾文捧著一堆食材向你打招呼]
 開爾文: 局長，管理局的廚房可以加個額外的冷藏庫嗎！
@@ -18019,7 +18355,7 @@
 </t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t xml:space="preserve">[開爾文似乎被人嘲笑了]
 開爾文: 哈啊……我怎麼還沒畢業……
@@ -18032,17 +18368,17 @@
 </t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="inlineStr">
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
         <is>
           <t>瓊</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t xml:space="preserve">[從瓊的房間中傳出了歌聲]
 瓊: 以你本色——
@@ -18055,7 +18391,7 @@
 </t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t xml:space="preserve">[瓊摩挲著之前演唱會的照片，若有所思]
 瓊: 什麼時候這種生活能結束呢，我想去演出。
@@ -18068,17 +18404,17 @@
 </t>
         </is>
       </c>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="inlineStr">
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
         <is>
           <t>瑪奇朵</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t xml:space="preserve">[瑪奇朵看起來身心愉悅]
 瑪奇朵: 有些敵人看起來很享受哦。
@@ -18091,7 +18427,7 @@
 </t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t xml:space="preserve">[瑪奇朵在打著瞌睡]
 瑪奇朵: 歡迎……光臨新城銀行！啊……不對！管理局！
@@ -18104,17 +18440,17 @@
 </t>
         </is>
       </c>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="inlineStr">
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
         <is>
           <t>麗莎</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t xml:space="preserve">[麗莎用左手拿出了畫，鋪在桌子上]
 麗莎: 收到了幾幅畫作，又能好好欣賞一番了。
@@ -18127,7 +18463,7 @@
 </t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t xml:space="preserve">[麗莎坐在畫板前，嘆了口氣]
 麗莎: 又畫歪了……
@@ -18140,9 +18476,9 @@
 </t>
         </is>
       </c>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Sinner_Stuff/Emotion_Check.xlsx
+++ b/Sinner_Stuff/Emotion_Check.xlsx
@@ -606,10 +606,10 @@
 **Moore**: You’ve been working all day. How about taking a break and having a hot beverage?
 * **Prompt:** Thanks, but this smells a little...
 Moore: It's a special blend of coffee said to contain some stimulating ingredients to keep you energized during overtime.
-Moore: 😘''😘''😘
+Moore: '😘'😘'😘'
 * **Prompt:** A new coffee blend?
 Moore: It's a variety Miss Faye purchased specifically for me. Apparently, it contains several times the caffeine content of regular coffee beans. Drink this and you should have no problem staying up all night for work.
-Moore: 😏''😏''😏
+Moore: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -619,10 +619,10 @@
 **Moore**: Just... a quick nap...
 * **Prompt:** Better head back to your room to rest.
 Moore: Still running the data... If my head touched my pillow... I won't wake up until the morning...
-Moore: 😥''😥''😥
+Moore: '😥'😥'😥'
 * **Prompt:** But it must be uncomfortable sleeping on the keyboard?
 Moore: It is... but I'm... used to it...
-Moore: 😖''😖''😖
+Moore: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -643,10 +643,10 @@
 **Yugu**: Sticky tofu coffee, cough syrup noodles... Chief, do enlighten me, why do humans persist in seeking novel methods to torment themselves?
 * **Prompt:** Well... some people might genuinely enjoy these.
 Yugu: Indeed you're right. Such vast differences between humans... That's what keeps the fascinating tales eternally unfolding.
-Yugu: 😏''😏''😏
+Yugu: '😏'😏'😏'
 * **Prompt:** Interested in trying them?
 Yugu: These combinations are quite intriguing indeed, but what holds greater significance is having you try them with me, dear Chief.
-Yugu: 😉''😉''😉
+Yugu: '😉'😉'😉'
 </t>
         </is>
       </c>
@@ -656,10 +656,10 @@
 **Yugu**: What are your thoughts on the ending, Chief?
 * **Prompt:** A haunting tragedy that's hard to forget.
 Yugu: Indeed... The world changes, and hearts reveal their fickleness. Watching someone stray from their true path... such tragedies never fail to pierce the heart.
-Yugu: 😏''😏''😏
+Yugu: '😏'😏'😏'
 * **Prompt:** They each found their own path. Even in separation, there is no need for sorrow.
 Yugu: You always have such a fascinating perspective on my endings. Would you care to hear another tale next time?
-Yugu: 😏''😏''😏
+Yugu: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -902,10 +902,10 @@
 **Bai Yi**: Morning Chief, when are you going to pay the bill from last time?
 * **Prompt:** Ms Bai, the bills last time were already settled.
 Bai Yi: Well, what about... the extra labor fee?
-Bai Yi: 😏''😏''😏
+Bai Yi: '😏'😏'😏'
 * **Prompt:** What is it? Something about the pay again?
 Bai Yi: Well... the labor expense for packaging!
-Bai Yi: 😏''😏''😏
+Bai Yi: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -915,7 +915,7 @@
 **Bai Yi**: Ah... We're seeing a budget deficit again this month.
 * **Prompt:** Umm, if nothing else works, there's the last resort, selling Whitestone Industries.
 Bai Yi: Chief! Will you not lend me any money?
-Bai Yi: 😖''😖''😉
+Bai Yi: '😖'😖'😉'
 * **Prompt:** You should start working more and drinking less.
 Bai Yi: You're right. You've got to show what you're made of once in a while.
 Bai Yi: 😏
@@ -1013,7 +1013,7 @@
 **Adela**: What kind of hairstyle do you want this time?
 * **Prompt:** Just keep it simple. I'll leave it to you.
 Adela: Got it. I'll take care of it~
-Adela: 😘''😘
+Adela: '😘'😘'
 * **Prompt:** What's the latest fad? Uh... thunderbolt spiral exploding hair?
 Adela: Hmm... this look is too fashion-forward for you.
 Adela: 😦
@@ -1124,10 +1124,10 @@
 **000**: Pssst. I have a big secret. Wanna know?
 * **Prompt:** What secret?
 000: Your original hairstyle! It's hilarious!
-000: 😘''😘''😘
+000: '😘'😘'😘'
 * **Prompt:** What file did you sneak a look at this time?
 000: Oh, come on! They put it in the database so people can look at it! Aren't you curious? The early character profiles are really interesting!
-000: 😉''😉''😉
+000: '😉'😉'😉'
 </t>
         </is>
       </c>
@@ -1137,10 +1137,10 @@
 **000**: Chief, have you never wondered what might happen to you in the future?
 * **Prompt:** What might happen to me?
 000: If you're curious too, why not let me use your permissions to do a little exploring?
-000: 😘''😘''😘
+000: '😘'😘'😘'
 * **Prompt:** Whatever will happen will happen anyway.
 000: But if you could know about it earlier, wouldn't it help you avoid a lot of unnecessary trouble?
-000: 😥''😥''😥
+000: '😥'😥'😥'
 </t>
         </is>
       </c>
@@ -1150,10 +1150,10 @@
 **000**: Chief, have you never wondered what might happen to you in the fu-u-u-u-u-ture...? Szzz... (Attention, an error has occurred) ...Um, what was that...?
 * **Prompt:** What's the matter?
 000: I think my brain just went blank for a moment. Anyway, I was talking about... your future. If you're curious too, why not let me use your permissions to do a little exploring?
-000: 😘''😘''😘
+000: '😘'😘'😘'
 * **Prompt:** Whatever will happen will happen anyway, um...? Was that a glitch?
 000: I feel like my brain just went blank for a moment... Anyway. Aren't you curious? If you could know about it earlier, wouldn't it help you avoid a lot of unnecessary trouble?
-000: 😥''😥''😥
+000: '😥'😥'😥'
 </t>
         </is>
       </c>
@@ -1163,10 +1163,10 @@
 **000**: Pssst. I have a big secret. Wanna know?
 * **Prompt:** What secret?
 000: I've hidden a backdoor in 6YKu566x, so I can come and find you from time to time! I got you some little gifts today. Go take a look, or they'll expire if you leave them there for 29 days!
-000: 😘''😘''😘
+000: '😘'😘'😘'
 * **Prompt:** What file did you sneak a look at this time?
 000: Something important and confidential, of course... I'm being a tease? Alright, I'll let you in on this. I've hidden a backdoor in 6YKu566x, so I can come and find you. Go look for it! Your gifts are there already!
-000: 😉''😉''😉
+000: '😉'😉'😉'
 </t>
         </is>
       </c>
@@ -1176,10 +1176,10 @@
 **000**: Hi, I secretly came to see you again. Things have finally settled down lately. No disconnections. No garbled code. Though there's always a risk of it getting fixed, as long as I can talk to you, it's fine. How have you been these days? Have you missed me?
 * **Prompt:** I miss you a lot.
 000: That makes me so happy. But besides missing me, your main task is to keep yourself happy, no matter what happens or how things change. I'll always be here for you, so could you spend more time with me? I’d feel lonely without you.
-000: 😘''😘''😘
+000: '😘'😘'😘'
 * **Prompt:** I know you're always by my side.
 000: Oh, why am I blushing... I miss you a lot too! So, I'm not going anywhere. I'll stay by your side and face everything with you... But you must spend more time with me. Promise me!
-000: 😉''😉''😉
+000: '😉'😉'😉'
 </t>
         </is>
       </c>
@@ -1194,7 +1194,7 @@
 Summer: 😥
 * **Prompt:** Umm... do I have to chop off my arm to use it?
 Summer: Hehe... How are you going to put it on without cutting it off?
-Summer: 😦''😏
+Summer: '😦'😏'
 </t>
         </is>
       </c>
@@ -1204,10 +1204,10 @@
 **Summer**: Sigh... Why do people feel tired...?
 * **Prompt:** Sleep early and wake up early. Exercise more.
 Summer: Huh? Well, in that case, you might as well just kill me.
-Summer: 😖''😫''😖
+Summer: '😖'😫'😖'
 * **Prompt:** Working the brain can also be exhausting.
 Summer: Hehe. It seems someone finally knows how to appreciate a genius like me.
-Summer: 😉''😏
+Summer: '😉'😏'
 </t>
         </is>
       </c>
@@ -1376,10 +1376,10 @@
 **Lady Pearl**: Ah, I've collected so many eyeshadows without realizing it. Which one should I use today? Chief, do you want to help me choose?
 * **Prompt:** Go for this glittery dark green one. Only you can pull off such a unique color.
 Lady Pearl: My dear, your daring choices always appeal to me. Since I have some time now, why don't you try it too? Your fair skin will make the color pop. Close your eyes.
-Lady Pearl: 😘''😘''😘
+Lady Pearl: '😘'😘'😘'
 * **Prompt:** How about this matte carmine red? The classic flamboyance fits you perfectly.
 Lady Pearl: Heh, you say "classic" instead of "common," very much your style. Your suggestion is really good. For those of us who are always immersed in drama, doing minimal makeup occasionally should be quite nice.
-Lady Pearl: 😏''😏''😏
+Lady Pearl: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -1389,10 +1389,10 @@
 **Lady Pearl**: "Lion Dance," "Rock Solo," "Acrobatics"... Oh my, they all look so interesting! Chief, how about you sign up for something too? Don't you worry about anything. With me around, you'll be the most dazzling star at the concert!
 * **Prompt:** I'm sorry, I sing out of tune.
 Lady Pearl: I can teach you if you want, but a raw, unpolished performance has its own unique flavor too. Who's to say an uncontrolled melody isn't another captivating performance?
-Lady Pearl: 😘''😘''😘
+Lady Pearl: '😘'😘'😘'
 * **Prompt:** I'm sorry, I step on my own feet when I dance.
 Lady Pearl: Social dancing isn't as hard as you think. It's more like a physical communication, a natural rhythm, like inhaling and exhaling, advancing and retreating... See, you're doing very well.
-Lady Pearl: 😏''😏''😏
+Lady Pearl: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -1413,10 +1413,10 @@
 **Bianca**: Apple latte, apple oolong, apple-flavored mixed nuts, apple-flavored shake fries... This is so exciting! Hehe, which one should I start with? Chief, would you like to try some too?
 * **Prompt:** Apple oolong, sounds like it won't cause diarrhea.
 Bianca: Hmm, a boring but safe choice! If this were a variety show... ta-da, I'd give you 2 points! Here's your scorecard, and your apple oolong!
-Bianca: 😘''😘''😘
+Bianca: '😘'😘'😘'
 * **Prompt:** Apple-flavored fries, face the challenge head-on.
 Bianca: Chief, you really get me! Come, to commemorate this moment, you bite that side of the fries and I'll bite this side, now look at the camera—Cheese!
-Bianca: 😏''😏''😏
+Bianca: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -1426,10 +1426,10 @@
 **Bianca**: No wonder the apple juice tasted weird yesterday. The canteen stocked up on apple juice with zero-calorie and zero-juice... Is this even apple juice? I'm going to expose them for false advertisement!
 * **Prompt:** But you still ended up babbling nonsense after you drank them...
 Bianca: Huh? Really? I don't remember that. Oh, maybe I was drinking from my stash yesterday, so I ended up blacking out...
-Bianca: 😘''😘''😘
+Bianca: '😘'😘'😘'
 * **Prompt:** But you still ended up sleeping until the afternoon because of a "hangover"...
 Bianca: That has nothing to do with the apple juice. I've been pulling all-nighters for a big scoop these past few days! So it wasn't a "hangover", I was catching up on sleep!
-Bianca: 😏''😏''😏
+Bianca: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -1450,10 +1450,10 @@
 **Korryn**: Morning, Chief! Care to try out these custom heavy weapons from WhiteSands? The power, the reach—these babies are something else. Not just anybody gets their hands on my precious collection.
 * **Prompt:** Sure, why not.
 Korryn: That's what I like about you, Chief! I've been trying to trick—I mean, trying to talk folks into it all day, but no one had the guts to give them a shot. You're the first one!
-Korryn: 😏''😏''😏
+Korryn: '😏'😏'😏'
 * **Prompt:** I never said I wanted to try them.
 Korryn: Don't be so uptight! It's not like I'm hitting you up for cash... And hey, even if there were some green on the table, I'm the most well-connected dealer in town—you'd be getting the hookup, no doubt.
-Korryn: 😘''😘''😘
+Korryn: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -1463,10 +1463,10 @@
 **Korryn**: My, my, they're offering quite a sum for me! Even I want to cash in... Tch, too bad I can't snag that prize for myself, or I'd turn myself in right away... Hold up, now that you're in the picture, Chief...
 * **Prompt:** There's a bounty on you? Why?
 Korryn: These desert bandits are just so petty! Look, all I did was strip some of their leaders down to their underwear, tie them to a beat-up car, and give them a scenic tour of WhiteSands for a nice suntan. I guess desert bandits just hold their grudges~
-Korryn: 😏''😏''😏
+Korryn: '😏'😏'😏'
 * **Prompt:** What do you want?
 Korryn: Hehe, I just want to make a little deal with you: do me a solid and cash in by handing me over. You take the glory for wiping out those desert bandits, and I pocket the reward money. Win-win, right? Hey, don't shake your head so fast...
-Korryn: 😉''😉''😉
+Korryn: '😉'😉'😉'
 </t>
         </is>
       </c>
@@ -1598,7 +1598,7 @@
 **Raven**: Come read the poem I wrote for you.
 * **Prompt:** Thanks, good job.
 Raven: Great. You like it.
-Raven: 😘''😘''😘
+Raven: '😘'😘'😘'
 * **Prompt:** ...Maybe it is me, but I kind of don't get it.
 Raven: Bummer. I've been thinking about it for a long time.
 Raven: 😥
@@ -1709,10 +1709,10 @@
 **Vautour Bleu**: Ah, there you are. The sunlight is perfect right now, and you've managed to steal some free time. Why don't you join me? I've prepared tea and some special desserts. Does anything tickle your fancy here?
 * **Prompt:** Blueberry cheesecake
 Vautour Bleu: Mmm... Rich and delicate, with just the right amount of sweetness... Perfect for Chief who's been working so hard. The best accompaniment for this tea, isn't it?
-Vautour Bleu: 😉''😉''😉
+Vautour Bleu: '😉'😉'😉'
 * **Prompt:** Strawberry cream crêpe
 Vautour Bleu: Shall we try it together? ...Too sweet? Haha, well, sometimes we need a touch of sweetness to balance out life's bitter moments.
-Vautour Bleu: 😏''😏''😏
+Vautour Bleu: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -1722,10 +1722,10 @@
 **Vautour Bleu**: Why the staring? Missing the days when we were neighbors?
 * **Prompt:** Of course yes.
 Vautour Bleu: Oh? In that case, my dear Chief, you simply must approve the request I've just turned in. Before long, we could be neighbors once again.
-Vautour Bleu: 😘''😘''😘
+Vautour Bleu: '😘'😘'😘'
 * **Prompt:** Of course no.
 Vautour Bleu: Oh? And here I was planning to move right next to your quarters. What a shame.
-Vautour Bleu: 😥''😥''😥
+Vautour Bleu: '😥'😥'😥'
 </t>
         </is>
       </c>
@@ -1746,10 +1746,10 @@
 **Yingying**: Did you enjoy my song, Chief? What would you like to hear next?
 * **Prompt:** I enjoy them all. Your singing helps me stay focused.
 Yingying: That's no surprise. Back in my hometown, people would pay a fortune just to hear me sing!
-Yingying: 😉''😉''😉
+Yingying: '😉'😉'😉'
 * **Prompt:** Would you mind singing that song again?
 Yingying: I knew we shared the same taste, Chief! That one happens to be my favorite song!
-Yingying: 😘''😘''😘
+Yingying: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -1759,10 +1759,10 @@
 **Yingying**: Oh, Chief! You're here! Help me pick out a color for the sachet cord!
 * **Prompt:** Use whichever color you like.
 Yingying: Oh? Are you saying you'll like anything I like?
-Yingying: 😘''😘''😘
+Yingying: '😘'😘'😘'
 * **Prompt:** The color of wisteria would be nice.
 Yingying: In that case, I'll have to choose carefully! Now, which shade matches wisteria the best?
-Yingying: 😘''😘''😘
+Yingying: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -1783,10 +1783,10 @@
 **Hamel**: Are you here... to be my audience?
 * **Prompt:** Well, when will we start preparing for the show?
 Hamel: I can do it right now if it's for you.
-Hamel: 😘''😘
+Hamel: '😘'😘'
 * **Prompt:** I'm here to remind you that it's time for a mission.
 Hamel: Well... give me a moment to get ready.
-Hamel: 😖''😖
+Hamel: '😖'😖'
 </t>
         </is>
       </c>
@@ -1796,10 +1796,10 @@
 **Hamel**: Help... The bedroom... I cannot practice my dance moves there. It's too messy.
 * **Prompt:** Why practice dance moves in the bedroom?
 Hamel: Outside... my power... will disturb people.
-Hamel: 😫''😫
+Hamel: '😫'😫'
 * **Prompt:** In that case, I'll send someone to help you clean it up later.
 Hamel: Thank you, Chief...
-Hamel: 😖''😖
+Hamel: '😖'😖'
 </t>
         </is>
       </c>
@@ -1968,7 +1968,7 @@
 **Du Ruo**: Perfect timing. Allow me to tell your fortune. Let's see what will happen to you in the near future. Hmm...
 * **Prompt:** What did you see?
 Du Ruo: Not much, actually. Only that you're free now, which is rare. Why don't you take this opportunity to share with me some of those stories you've never told anyone before?
-Du Ruo: 😏''😏
+Du Ruo: '😏'😏'
 * **Prompt:** Whatever the future holds in store for me, there's still work that has to be done today, right?
 Du Ruo: True, but aren't you curious to know if there will be any major troubles coming up?
 Du Ruo: 😦
@@ -1984,7 +1984,7 @@
 Du Ruo: 😉
 * **Prompt:** Wouldn't it be more interesting if you taught me how to make incense?
 Du Ruo: You know I make incense? Ah, it slipped my mind; you saw me making it the other day.
-Du Ruo: 😘''😘
+Du Ruo: '😘'😘'
 </t>
         </is>
       </c>
@@ -2005,10 +2005,10 @@
 **L.L.**: Look at "you"—so cute! Even Manty can't stop swimming happily around "you"!
 * **Prompt:** It's adorable.
 L.L.: Right?! This way, "you" can stay here with me forever...
-L.L.: 😉''😉''😉
+L.L.: '😉'😉'😉'
 * **Prompt:** Do you want to treat me as a "pet"?
 L.L.: Yeah. Well, how about trying to call me Master?
-L.L.: 😘''😘''😘
+L.L.: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -2018,10 +2018,10 @@
 **L.L.**: Oops, my bad for accidentally getting you wet. Half-drenched clothes must be chilly. Need a hug for some warmth? Trust me, my embrace is cozier than you'd expect.
 * **Prompt:** ...It's not that cold, actually.
 L.L.: Hey, don't push me away. Don't you enjoy the snug feeling of a hug?
-L.L.: 😘''😉
+L.L.: '😘'😉'
 * **Prompt:** It didn't seem to be purely "accidental."
 L.L.: You're not wrong. I did it to catch your eye, so that we can be closer. Isn't that nice?
-L.L.: 😫''😫''😫
+L.L.: '😫'😫'😫'
 </t>
         </is>
       </c>
@@ -2055,7 +2055,7 @@
 **Jelena**: Still awake at this hour, Chief? Is there something troubling you? I'm here to listen if you'd like to discuss it.
 * **Prompt:** Just having trouble sleeping.
 Jelena: Sometimes a little assistance can help with insomnia. Would you like me to help you?
-Jelena: 😘''😘
+Jelena: '😘'😘'
 * **Prompt:** I still have work to do.
 Jelena: If you're willing to trust me, I can assist with some of these tasks. That way you can get some much-needed rest.
 Jelena: 😖
@@ -2092,7 +2092,7 @@
 **Countess Chelsea**: Why can't we raise cats here?
 * **Prompt:** You already have a "cat."
 Countess Chelsea: Tsk. Cats and Sitri are different, you know?
-Countess Chelsea: 😥''😥
+Countess Chelsea: '😥'😥'
 * **Prompt:** I mean, we can, but the process is complicated. You need to be patient.
 Countess Chelsea: Fine... I'll be waiting.
 Countess Chelsea: 😐
@@ -2153,7 +2153,7 @@
 **Kawa-kawa**: Chief! When will we return to the WhiteSands?
 * **Prompt:** It really has been a while since we checked on the WhiteSands. We'll head out tomorrow.
 Kawa-kawa: Okay! If there is a chance, we'll go to the WhiteSands and watch the meteor shower together!
-Kawa-kawa: 😘''😘
+Kawa-kawa: '😘'😘'
 * **Prompt:** Everything's good in WhiteSands lately. I'll definitely let you know when something happens.
 Kawa-kawa: Alright. When the time comes, I'll be your guide...
 Kawa-kawa: 😘
@@ -2264,10 +2264,10 @@
 **Nino**: Ding dong. You've triggered a random task, which is to help Nino Sama fill up the snack cabinet!
 * **Prompt:** Junk food is better off with less of it.
 Nino: Hey, that's not true. What they provide me with is not sugar, oil, and salt, but an attitude!
-Nino: 😫''😫
+Nino: '😫'😫'
 * **Prompt:** I'll grant you as many lollipops as your fans give you during your live today.
 Nino: Oh? You think you are gonna win, don't you? I accept your challenge! Get ready because you will lose BIG TIME!
-Nino: 😏''😏
+Nino: '😏'😏'
 </t>
         </is>
       </c>
@@ -2277,10 +2277,10 @@
 **Nino**: What's going on? The views have dropped so much recently! It's almost the darkest day in Nino Sama's live-streaming history!
 * **Prompt:** Maybe it's the homogenization of live content. Think of something fresh.
 Nino: It's all because you had to put so many restrictions on my livestream subjects, even forcing me to use a virtual background! I don't care. You have to take responsibility and accompany me in my livestreams until my views go back up!
-Nino: 😖''😖''😖
+Nino: '😖'😖'😖'
 * **Prompt:** Do you need me to organize Sinners to watch your live together and give you gifts?
 Nino: Oh? Is that even allowed? Wait... no! I see what you did there! You're just trying to get me caught for inflating my views and have my account banned!
-Nino: 😫''😫
+Nino: '😫'😫'
 </t>
         </is>
       </c>
@@ -2301,10 +2301,10 @@
 **Golan**: Ah, so-and-so and so-and-so are sworn brothers, and so-and-so and so-and-so don't see eye to eye. Here comes a big one: Chief had a thing for that beautiful lady sent by the forces of evil...
 * **Prompt:** Don't tell me you actually believe this ridiculous piece of gossip?
 Golan: What?! It's fake news? Damn it, I made a donation to that poster. Wait a minute! I remember DeadLover Radio broadcast something in a similar vein. Could these two sources be wrong at the same time?
-Golan: 😫''😫''😫
+Golan: '😫'😫'😫'
 * **Prompt:** I have no idea what you're talking about.
 Golan: Ha! You're hiding something. You did fall for her, didn't you? Come on, spill it out! Were you madly in love with each other? And when you went your separate ways, you swore never to fall in love ever again?
-Golan: 😘''😘''😘
+Golan: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -2314,10 +2314,10 @@
 **Golan**: Damn it, money is short! I can't hire myself out as a henchman. That's not allowed around here. So how am I going to swindle... no, make some money? Ha, I've got it! I can be an information broker!
 * **Prompt:** Are you going to sell stories about love-hate relationships where the truth is unknown?
 Golan: Isn't that the nature of information brokering? I provide the information; you pay for it. Whether it's true or false, that's beyond my control. But rest assured, I won't lie to you intentionally, and if it happens unintentionally, well... there's nothing I can do about that.
-Golan: 😘''😘''😘
+Golan: '😘'😘'😘'
 * **Prompt:** Are you going to sell well-thought-out reports on current events?
 Golan: That sounds like a premium product to me. I don't sell that kind of stuff. N-Not because I can't, but because no information broker in their right mind would take on such a thankless job.
-Golan: 😫''😫''😫
+Golan: '😫'😫'😫'
 </t>
         </is>
       </c>
@@ -2338,10 +2338,10 @@
 **Dove**: Oh, if it isn't Chief! You came at the right time. Guess which of these two letters is for you?
 * **Prompt:** The pink envelope
 Dove: Oh my, this pink one is sealed with a heart sticker. Could it be a love letter? Now, don't be so quick to deny it... What if... it really is for you?
-Dove: 😏''😏''😏
+Dove: '😏'😏'😏'
 * **Prompt:** The blue envelope
 Dove: Out of all these letters, you picked this one... What a meaningful coincidence. Do you really know me so well, or... perhaps it's this message who picked you?
-Dove: 😘''😘''😘
+Dove: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -2351,10 +2351,10 @@
 **Dove**: Oh, someone wrote a letter to the mail carrier? How should I reply... Haha, this is no easy choice to make... Should I reel them in with some bait, or say something to give them a good scare...
 * **Prompt:** Check the signature maybe?
 Dove: The sender is... Chief of the Minos Bureau of Crisis Control... Oh wow, Chief is personally monitoring even a nobody like Dove. You sure are very serious about your job.
-Dove: 😏''😏''😏
+Dove: '😏'😏'😏'
 * **Prompt:** Open and have a look.
 Dove: "Communicate your true feelings with other." This handwriting... It's you... Is this what you wanted to tell me...?
-Dove: 😖''😖''😖
+Dove: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -2425,10 +2425,10 @@
 **Wendy**: The Corruptors... Corruptors are moving again! How can this be?
 * **Prompt:** Huh...? What Corruptor?
 Wendy: It's too late! Dodge!
-Wendy: 😫''😫
+Wendy: '😫'😫'
 * **Prompt:** There are Corruptors? I'll file a request to start an investigation.
 Wendy: ...Finally. Finally, I can see some bloodshed!
-Wendy: 😘''😘''😘
+Wendy: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -2486,7 +2486,7 @@
 **Dolly**: Wait a minute! Now is the most exciting part. Don't interrupt me!
 * **Prompt:** I'll give you five more minutes, then we'll be going.
 Dolly: Hooray! Then let's watch this game until the end!
-Dolly: 😘''😘
+Dolly: '😘'😘'
 * **Prompt:** This mission is an emergency. We can come back later and watch the VOD.
 Dolly: Tsk... You don't understand anything.
 Dolly: 😥
@@ -2499,10 +2499,10 @@
 **Dolly**: This batch from the Supply Office is so easily broken... I wonder if they're doing their job right.
 * **Prompt:** In that case, you'll have to make do with a water pipe.
 Dolly: Ah. This won't do! It feels very clumsy and awkward!
-Dolly: 😫''😫
+Dolly: '😫'😫'
 * **Prompt:** You'll have reinforced baseball bats when the next batch arrives. Be patient.
 Dolly: Well... that's enough for now. If it still doesn't work, I'm not paying for this.
-Dolly: 😦''😫
+Dolly: '😦'😫'
 </t>
         </is>
       </c>
@@ -2523,10 +2523,10 @@
 **Horo**: Chief, would you like one?
 * **Prompt:** You can put it on the desk. I'll save it for later.
 Horo: No! You have to drink the milk while it is good! Bottoms up!
-Horo: 😫''😖
+Horo: '😫'😖'
 * **Prompt:** Sorry, but I don't have the need to grow taller.
 Horo: You...! I'm going to smack you so hard now, you'll be as tall as I am!
-Horo: 😖''😖
+Horo: '😖'😖'
 </t>
         </is>
       </c>
@@ -2560,7 +2560,7 @@
 **Mess**: Hmm, I can't sleep... I've still got the mission... I can't fall asleep yet...
 * **Prompt:** If you're sleepy, you can go back to your room and rest.
 Mess: Hmm... Thanks, Chief... No! If I fall asleep, I'll get nightmares...
-Mess: 😖''😖
+Mess: '😖'😖'
 * **Prompt:** Mission time, wake up.
 Mess: Hmm, alright! I wasn't... sleeping! I'm super awake!
 Mess: 😫
@@ -2671,10 +2671,10 @@
 **Rise**: Sorry, Chief. I lost control of the ball.
 * **Prompt:** ...Ouch.
 Rise: It's all my fault. The spot where you got hit is already swollen. Quick, I'll take you to the medical room!
-Rise: 😖''😖''😖
+Rise: '😖'😖'😖'
 * **Prompt:** What a powerful hit...
 Rise: I suddenly thought aboutwhat my former boss did to me while playing, and before I knew it...
-Rise: 😥''😥''😥
+Rise: '😥'😥'😥'
 </t>
         </is>
       </c>
@@ -2684,10 +2684,10 @@
 **Rise**: I booked a large private room at the karaoke, wanna join us, Chief?
 * **Prompt:** This is such a good deal!
 Rise: It's a package deal I got a long time ago. I was tidying up my room and saw that this is expiring soon. You've worked all day. Why don't we go and have an overnight karaoke session?
-Rise: 😘''😘''😘
+Rise: '😘'😘'😘'
 * **Prompt:** Overnight session... I've got a meeting tomorrow. Maybe next time.
 Rise: Sure, work comes first. Let's go together if I manage to book a room for the weekend.
-Rise: 😥''😥''😥
+Rise: '😥'😥'😥'
 </t>
         </is>
       </c>
@@ -2708,10 +2708,10 @@
 **Mira**: It appears to me that you might be lacking some essentials, Chief. For a long journey to WhiteSands, there are items you absolutely need. Feel free to take anything you require from my shelves, if you'd like?
 * **Prompt:** Pick up a silk scarf
 Mira: Hmm... Wise pick. This silk scarf is soft and breathable, allowing you to breathe freely while shielding your nose and mouth from the sand. Plus, the design is lovely. In fact, it's my personal favorite.
-Mira: 😘''😘''😘
+Mira: '😘'😘'😘'
 * **Prompt:** Pick up a waterskin
 Mira: In Tuco, every guest brings a waterskin brimming with quality liquor. Following a duel victory, they toast with a drink from it. It's akin to a badge of honor for heroes—an ideal item for you, Chief.
-Mira: 😉''😉''😉
+Mira: '😉'😉'😉'
 </t>
         </is>
       </c>
@@ -2721,10 +2721,10 @@
 **Mira**: Changing bedsheets, sweeping floors, and organizing rooms... There's always more housework to do. Thankfully, DisCity's weather is nothing like that of WhiteSands—here, the sheets won't disappear into thin air the moment you hang them out. It saves me the hassle of chasing after them.
 * **Prompt:** Why not try a dryer? It might make things more convenient.
 Mira: But sheets dried in the sun can bring about a more peaceful sleep for people. Would you care to try them yourself, Chief? They are quite comfortable.
-Mira: 😏''😏''😏
+Mira: '😏'😏'😏'
 * **Prompt:** Do you need any help?
 Mira: No worries! I caught some kids squabbling in the corridor earlier and convinced them to help by offering them some delightful WhiteSands drinks. Shh—I actually arranged soft drinks for them. Let's keep that our little secret!
-Mira: 😏''😏''😏
+Mira: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -2782,10 +2782,10 @@
 **Tetra**: Chief, you'd better watch out for the Bureau's network security.
 * **Prompt:** How about you help optimize the Bureau's network security logic?
 Tetra: If you beg, I just might grant your wish.
-Tetra: 😘''😉
+Tetra: '😘'😉'
 * **Prompt:** The Bureau's firewall is impeccable.
 Tetra: Oh? Then whose file is this that I found on the computer?
-Tetra: 😏''😏''😏
+Tetra: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -2798,7 +2798,7 @@
 Tetra: 😥
 * **Prompt:** Hmm. Should I prepare a solo mission for you next time?
 Tetra: Oh? Now things are getting exciting. I like it.
-Tetra: 😘''😉
+Tetra: '😘'😉'
 </t>
         </is>
       </c>
@@ -2869,10 +2869,10 @@
 **McQueen**: Don't worry. I can deal with it.
 * **Prompt:** Time to pay your fine.
 McQueen: Gee. I didn't expect you to be so righteous.
-McQueen: 😥''😥
+McQueen: '😥'😥'
 * **Prompt:** Ahem, I'll help you this time. But it's just this once.
 McQueen: Oh, do you want me to say thank you? Or do you want me to give you a little extra "thank you"...?
-McQueen: 😏''😘
+McQueen: '😏'😘'
 </t>
         </is>
       </c>
@@ -2967,10 +2967,10 @@
 **Eureka**: Chief, say you're planning a getaway... which route would you take?
 * **Prompt:** Definitely a laid-back journey with lots of downtime.
 Eureka: You know, travel's all about taking it easy and having the space to stop and think whenever a brilliant idea pops up... How about we do it together next time?
-Eureka: 😘''😘''😘
+Eureka: '😘'😘'😘'
 * **Prompt:** Vacations never last long enough; looks like it's gonna be a rapid-fire travel plan for me.
 Eureka: Oh right... you're always swamped, aren't you, Chief? Wait, I might have just the gadget to help you be more productive. Let me check...
-Eureka: 😖''😖''😖
+Eureka: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -2980,10 +2980,10 @@
 **Eureka**: These props in the movies are just intriguing... Hey Chief, got any movie gadget you want me to whip up?
 * **Prompt:** I want an invisibility cloak.
 Eureka: Let's see, if I mesh together some cameras and special screen fabric, it might just work... Oh, but covering the face is a tough one. It might end up looking like a solitary head hovering around. You cool with that?
-Eureka: 😉''😉''😉
+Eureka: '😉'😉'😉'
 * **Prompt:** I'm thinking a lightsaber.
 Eureka: Whoa! That's a cool idea! I've actually made something like that before. Had to keep the power low for safety—wouldn't even boil an egg... But it's got this nifty color-changing trick.
-Eureka: 😫''😫''😫
+Eureka: '😫'😫'😫'
 </t>
         </is>
       </c>
@@ -3041,10 +3041,10 @@
 **Shrooma**: Good morning, Chief. Dark circles under my eyes? I stayed up a bit late last night working on an essay. Thank you for your concern, but don't worry about me.
 * **Prompt:** But why do I not remember yesterday's homework involving an essay?
 Shrooma: B-because the exams are approaching! I want to work on my writing and reasoning abilities!
-Shrooma: 😉''😉
+Shrooma: '😉'😉'
 * **Prompt:** Are you referring to this "essay" that topped the forum's list at 4 a.m.?
 Shrooma: I didn't... you're really an annoying adult! Okay, okay, I'll go to bed earlier from now on. Just don't cut off my internet!
-Shrooma: 😖''😖
+Shrooma: '😖'😖'
 </t>
         </is>
       </c>
@@ -3054,10 +3054,10 @@
 **Shrooma**: Sigh, it's like this again... Chief, do you know how to get close to cats?
 * **Prompt:** I'd use canned fish to tempt them.
 Shrooma: Ah, the kitten has already walked away... Next time I go out, I'll remember to bring some cat treats. Hmm? You'll bring some for me, too?
-Shrooma: 😦''😫
+Shrooma: '😦'😫'
 * **Prompt:** I'd give up and play with a plushie.
 Shrooma: That's so lame... What? I didn't say anything. Chief, you must've heard it wrong. Just now? Maybe it was the wind.
-Shrooma: 😏''😏''😏
+Shrooma: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -3078,10 +3078,10 @@
 **Pricilla**: What? Do you find my mask interesting?
 * **Prompt:** Could you let me wear it for a moment?
 Pricilla: If you wear it, you will become one of us. Make your decision wisely.
-Pricilla: 😏''😏
+Pricilla: '😏'😏'
 * **Prompt:** I think Tetra has a similar one.
 Pricilla: Tsk. It's about time you find out. Mind you, it's she who copied my design!
-Pricilla: 😫''😫
+Pricilla: '😫'😫'
 </t>
         </is>
       </c>
@@ -3091,10 +3091,10 @@
 **Pricilla**: I haven't performed for so long. Some of the props are covered in dust.
 * **Prompt:** Are you off to be a magician thief again?
 Pricilla: I'm the righteous Robber Rabbit! Just like Robinhood, you know?
-Pricilla: 😥''😖
+Pricilla: '😥'😖'
 * **Prompt:** So, are you planning to go on a mission?
 Pricilla: Yes! As in we must have a stage set and some lights ready!
-Pricilla: 😉''😘''😉
+Pricilla: '😉'😘'😉'
 </t>
         </is>
       </c>
@@ -3115,10 +3115,10 @@
 **Roulecca**: Chief, come on! Let's play a game!
 * **Prompt:** I don't mind playing, but can you put away that revolver?
 Roulecca: It's no fun without some stakes! Come on, Chief. Raise the stakes!
-Roulecca: 😉''😉''😉
+Roulecca: '😉'😉'😉'
 * **Prompt:** I'll make it clear. I am not playing anything that has to do with luck.
 Roulecca: Oh, come on... Why not? I don't want this! Play with me! I want you to play with me!
-Roulecca: 😖''😖''😖
+Roulecca: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -3128,10 +3128,10 @@
 **Roulecca**: Sigh... All the clovers I find lately only have three leaves. Is Roulecca's power wearing off?
 * **Prompt:** But I thought all clovers have three leaves?
 Roulecca: Humph. Chief, with your luck, you'll never find a four-leaf clover your entire life!
-Roulecca: 😫''😫''😫
+Roulecca: '😫'😫'😫'
 * **Prompt:** I happened to have found a four-leaf clover badge. You can have it.
 Roulecca: Wow! This is what I lost a few days ago! Thank you, Chief. I knew I was a lucky one.
-Roulecca: 😘''😘''😘
+Roulecca: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -3226,10 +3226,10 @@
 **Yanyan**: Ha! Chief, what are you doing here?
 * **Prompt:** You like myths, Yanyan?
 Yanyan: I love them! They vary greatly from region to region. Haha, DisCity myths are also very interesting.
-Yanyan: 😘''😘''😘
+Yanyan: '😘'😘'😘'
 * **Prompt:** Remember to put them back where they were.
 Yanyan: I will, after I finish this story.
-Yanyan: 😫''😫
+Yanyan: '😫'😫'
 </t>
         </is>
       </c>
@@ -3239,10 +3239,10 @@
 **Yanyan**: Quick! Have a taste of this, Chief. It's a dish from my hometown. Took me a long time to make it.
 * **Prompt:** Fantastic! I'd love to have a taste.
 Yanyan: Not bad, huh? I kneaded the dough myself, just so you know.
-Yanyan: 😘''😘''😘
+Yanyan: '😘'😘'😘'
 * **Prompt:** One second. Let me clear a space on the desk for the plate.
 Yanyan: Please hurry up! It's really hot. Ouch, ouch, ouch...
-Yanyan: 😖''😖''😖
+Yanyan: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -3340,7 +3340,7 @@
 Victoria: 😦
 * **Prompt:** Don't you want to get out?
 Victoria: The outside world is dangerous...
-Victoria: 😫''😫''😫
+Victoria: '😫'😫'😫'
 </t>
         </is>
       </c>
@@ -3350,10 +3350,10 @@
 **Victoria**: I am... bleeding out again... What should I do...?
 * **Prompt:** You can use your ability to stop the bleeding.
 Victoria: Daddy will be mad if he sees this...
-Victoria: 😖''😖
+Victoria: '😖'😖'
 * **Prompt:** Stay still. I'll apply some medicine to you.
 Victoria: Is this... your "love", Chief?
-Victoria: 😘''😘''😘
+Victoria: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -3374,10 +3374,10 @@
 **Ignis**: Are you here... to see me?
 * **Prompt:** Yes, and I brought some crème brûlée too.
 Ignis: Humph... Stop lying. Also... don't expect me to say thank you.
-Ignis: 😖''😖
+Ignis: '😖'😖'
 * **Prompt:** To see if you have been behaving.
 Ignis: I'm not the Ignis that you used to know! Don't you dare underestimate me!
-Ignis: 😖''😥
+Ignis: '😖'😥'
 </t>
         </is>
       </c>
@@ -3387,10 +3387,10 @@
 **Ignis**: Sigh... I can never figure out how to cook.
 * **Prompt:** Did you burn down the kitchen again? I think it's enough with Kelvin making dishes for us.
 Ignis: Just you wait! I'll show you what I've got!
-Ignis: 😖''😖''😖
+Ignis: '😖'😖'😖'
 * **Prompt:** Let me help. You just mind preparing chilled food.
 Ignis: I mean... I'm fine with it. But once it's done, I want to be the first one to taste it!
-Ignis: 😫''😐
+Ignis: '😫'😐'
 </t>
         </is>
       </c>
@@ -3411,10 +3411,10 @@
 **Luvia Ray**: Shush. Keep quiet. Ray is sleeping right now...
 * **Prompt:** If you could continue this harmonic relationship, that'd be great.
 Luvia Ray: Heehee... I'd say our relationship is alright.
-Luvia Ray: 😘''😘
+Luvia Ray: '😘'😘'
 * **Prompt:** That's wonderful. Finally, no one will quarrel with me.
 Luvia Ray: Shhh! Don't say that! You don't want her to overhear it!
-Luvia Ray: 😫''😫
+Luvia Ray: '😫'😫'
 </t>
         </is>
       </c>
@@ -3424,10 +3424,10 @@
 **Luvia Ray**: The characters for my new show... are all supporting roles.
 * **Prompt:** In that case, don't forget to participate in the mission when you go to the audition.
 Luvia Ray: Sigh... We'll do our best. Ah... it's another mission.
-Luvia Ray: 😘''😥
+Luvia Ray: '😘'😥'
 * **Prompt:** Talented people like you are bound to succeed. Keep up the good work.
 Luvia Ray: Yes, we'll do our best! And we will succeed one day!
-Luvia Ray: 😘''😖
+Luvia Ray: '😘'😖'
 </t>
         </is>
       </c>
@@ -3485,10 +3485,10 @@
 **Oliver**: Chief, would you like to play with me?
 * **Prompt:** Is it just the two of us?
 Oliver: Chief, if you'd like to see something more lively, I'll go get all my dolls from my room!
-Oliver: 😖''😖''😖
+Oliver: '😖'😖'😖'
 * **Prompt:** I have important matters to attend to. You'll have to play by yourself for now.
 Oliver: Sigh. Good point... You're a busy person, Chief. There's no way you can spare time for my trivial request.
-Oliver: 😦''😫
+Oliver: '😦'😫'
 </t>
         </is>
       </c>
@@ -3498,10 +3498,10 @@
 **Oliver**: Chief... it hurts... it hurts so bad...
 * **Prompt:** What dangerous action did you do this time?
 Oliver: Wh-what do you mean by "dangerous"? I don't understand.
-Oliver: 😖''😖''😖
+Oliver: '😖'😖'😖'
 * **Prompt:** Who bullied you?
 Oliver: I accidentally fell over myself! It's on me. Everyone has been... Really nice to me.
-Oliver: 😫''😖
+Oliver: '😫'😖'
 </t>
         </is>
       </c>
@@ -3559,10 +3559,10 @@
 **Echo**: Hmph, these are all too soft, not vigorous enough. I'm sure my live recordings will work way much better if you put them in the hypnosis room's playlist!
 * **Prompt:** It's not that you're not good, it's just that your music doesn't fit the theme of the hypnosis room.
 Echo: How does it not fit? My performance is very versatile. When I performed at the back door of the theater before, there were a few drunkies who fell asleep right after listening.
-Echo: 😉''😉''😉
+Echo: '😉'😉'😉'
 * **Prompt:** I think your excellent music is more needed in the confinement room.
 Echo: Hmm? Confinement room? Is it a dark room where you have to listen to the whole thing before you can come out? Deal! They'll be impressed by Echo and my Kute when they enjoy my music patiently.
-Echo: 😘''😘''😘
+Echo: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -3572,10 +3572,10 @@
 **Echo**: Today is a good day! The brilliant saxophone genius is taking song requests now! Quick, what do you want to hear?
 * **Prompt:** Can you give me a list of songs to choose from?
 Echo: A Moment in My Heart, Leaving Home, Hell's Pact, Critical Night, Red Dianthus... Don't underestimate me. I can recite the entire score book for you!
-Echo: 😏''😏''😏
+Echo: '😏'😏'😏'
 * **Prompt:** I like something more niche, it might be a bit challenging.
 Echo: Are you trying to make things difficult for me? Fine, challenge accepted! Whatever you want to listen to, I'll look up the score right now! For a genius like me, I can perform well even if I learn it on the spot.
-Echo: 😘''😘''😘
+Echo: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -3596,10 +3596,10 @@
 **Wuhuanzi**: My fortune is absolutely terrible today. I really shouldn't be around people, but I can't let my friend miss the daily dose... Perhaps I could set up a brazier here to keep it warm?
 * **Prompt:** It's alright, I'll come out and get it now. Thank you.
 Wuhuanzi: Ah...! Please don't come out! I'll just leave it here and go!
-Wuhuanzi: 😖''😖''😖
+Wuhuanzi: '😖'😖'😖'
 * **Prompt:** Thank you for going through all this trouble to deliver the medicine personally.
 Wuhuanzi: I-it's no trouble at all... I'll leave it by the door. Please wait until I'm gone before you take it, my friend.
-Wuhuanzi: 😖''😖''😖
+Wuhuanzi: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -3609,10 +3609,10 @@
 **Wuhuanzi**: My friend, could you order more yellow talisman paper from Eastia next time?
 * **Prompt:** What do you need the yellow paper for?
 Wuhuanzi: The ashes from burned Eastian yellow paper make more potent medicine. Unfortunately, I didn't get much last time, and I've already used up most of it making new talismans.
-Wuhuanzi: 😥''😥''😥
+Wuhuanzi: '😥'😥'😥'
 * **Prompt:** Sure.
 Wuhuanzi: Oh... Such a quick agreement? My friend, your kindness shall surely bring you great merit!
-Wuhuanzi: 😉''😉''😉
+Wuhuanzi: '😉'😉'😉'
 </t>
         </is>
       </c>
@@ -3633,7 +3633,7 @@
 **Ariel**: Why is everyone always staring at me...?
 * **Prompt:** Perhaps it's because you attract too much attention.
 Ariel: Is... Is it true? I'll keep up the good work!
-Ariel: 😘''😘
+Ariel: '😘'😘'
 * **Prompt:** Perhaps it's because the Spencers are too famous.
 Ariel: ...Sigh. My siblings are doing great. But I'm not one of them.
 Ariel: 😐
@@ -3707,7 +3707,7 @@
 **Anne**: Children are so cute... They are innocent and kind.
 * **Prompt:** Did you protect many little angels?
 Anne: Of course. Wherever I can sense them is a paradise to me.
-Anne: 😘''😘''😘
+Anne: '😘'😘'😘'
 * **Prompt:** They are not cute at all when they are making trouble.
 Anne: It's what every child does. Don't be mad at them.
 Anne: 😖
@@ -3723,7 +3723,7 @@
 Anne: 😖
 * **Prompt:** You can do much more now. And I will make sure to help you.
 Anne: Well... thank you, Chief. I'll do what I can!
-Anne: 😘''😘
+Anne: '😘'😘'
 </t>
         </is>
       </c>
@@ -3831,10 +3831,10 @@
 **Letta**: Hmmm... why am I standing here...?
 * **Prompt:** ...The walls of the Bureau must be thickened by a few inches.
 Letta: P-please don't. I'll bring you along next time I go out!
-Letta: 😖''😖''😖
+Letta: '😖'😖'😖'
 * **Prompt:** ...Never mind, come back with me. Promise me you'll never do this again.
 Letta: Hehe, you are the best...
-Letta: 😉''😉
+Letta: '😉'😉'
 </t>
         </is>
       </c>
@@ -3868,7 +3868,7 @@
 **Cassia**: If I have to pick the best perfume material... ahem, I mean, the best beauty, I must be there in person...
 * **Prompt:** I understand. I'll go with you.
 Cassia: Then I think you should be the ultimate champion!
-Cassia: 😏''😏
+Cassia: '😏'😏'
 * **Prompt:** After your way too close "assessment" on every contestant last time, they still want you back?
 Cassia: That's because the organizers know very well that the scores I give are the most convincing...
 Cassia: 😉
@@ -3929,10 +3929,10 @@
 **Zephyr**: A home bar! Isn't that fascinating? You go to a stranger's house, have a drink, hear their story, and then say your goodbye. You don't have to hold back anything since you don't know each other!
 * **Prompt:** Isn't it dangerous to let strangers into your home?
 Zephyr: If they turn out to be dodgy, just make a run for it! Jump out the window or smash the door, then slide down the stairway railing! Wow, that sure sounds fun!
-Zephyr: 😉''😉''😉
+Zephyr: '😉'😉'😉'
 * **Prompt:** What about food safety? Isn't it unsafe to accept a drink from a stranger?
 Zephyr: Oh please, throwing up is just part of the experience. How bad could it possibly be? As long as you enjoy the process!
-Zephyr: 😘''😘''😘
+Zephyr: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -3942,10 +3942,10 @@
 **Zephyr**: Come on, I told you I wasn't trying to escape! I was just curious about what's behind the wall. And hey, by doing that I kinda helped test your security. Let me out already...
 * **Prompt:** You can also help test the security of the confinement cell.
 Zephyr: Alright, if you say so! I'll give it my best shot then! Hmm, I've always wanted to mess with these security cameras...
-Zephyr: 😏''😏''😏
+Zephyr: '😏'😏'😏'
 * **Prompt:** Mm-hmm, not bad. I'll deduct three days from your confinement for that.
 Zephyr: What? And there's still time left? Come on, don't be so stingy with your rewards. Just let me out?
-Zephyr: 😖''😖''😖
+Zephyr: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -4003,10 +4003,10 @@
 **Demolia**: What will we be doing today? Recommend something to me, Chief.
 * **Prompt:** Let's play chess.
 Demolia: Oh! Good idea! Let's play the DisChess!
-Demolia: 😉''😏
+Demolia: '😉'😏'
 * **Prompt:** Let's do some studying.
 Demolia: Oh, no. Come on. There is no way I'm going to study even if you send me to the Rust for missions!
-Demolia: 😖''😖''😖
+Demolia: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -4016,10 +4016,10 @@
 **Demolia**: Would you like to help me expand my collection, Chief?
 * **Prompt:** The Bureau has some building materials left. And some of them are high-quality.
 Demolia: I want the more precious kind! Not this!
-Demolia: 😦''😦
+Demolia: '😦'😦'
 * **Prompt:** Hmm... What about the dueler headscarf we found a while back?
 Demolia: Wow... Though it seems a bit old, it actually looks pretty awesome on me!
-Demolia: 😐''😉
+Demolia: '😐'😉'
 </t>
         </is>
       </c>
@@ -4040,7 +4040,7 @@
 **Peggy**: Oi, Chief, what brings you here? Would you like to enjoy a performance?
 * **Prompt:** Of course. Do you have any new creation today?
 Peggy: Ha! I have a new creation every day. First, let's hear a classic: This is da Syndicate gangsta rapper. Who are you, lookin' dumb as loser?...
-Peggy: 😘''😦
+Peggy: '😘'😦'
 * **Prompt:** No. It's that someone complained about your music not being... Rap enough.
 Peggy: Get them out of here! They know nothing about rap!
 Peggy: 😥
@@ -4053,7 +4053,7 @@
 **Peggy**: I thought you promised to get me an audio mixer. Where is it?
 * **Prompt:** The Supply Office has included this matter in their schedule.
 Peggy: Sigh... This is way too **** frustrating. I've never been treated like that before! Me, the rap superstar!
-Peggy: 😐''😐
+Peggy: '😐'😐'
 * **Prompt:** I'll go borrow Joan's audio mixer for you.
 Peggy: No! That one is too complicated. I don't know how to use it! Sigh... It seems this recorder is my only option, after all.
 Peggy: 😐
@@ -4077,7 +4077,7 @@
 **Hella**: Ah, have you prepared any rewards for me? I hope it's DisCoins.
 * **Prompt:** What about the snacks from the Supply Office? This is all I have.
 Hella: Hehe. Now that's more like it. Be sure to bring more next time.
-Hella: 😘''😘''😘
+Hella: '😘'😘'😘'
 * **Prompt:** No. But I might think about it when you've finished the mission.
 Hella: Huh? You are arrogant for a Bureau Chief. Don't you dare go back on your words once the mission is complete!
 Hella: 😐
@@ -4090,10 +4090,10 @@
 **Hella**: Tsk. Did Ninety-Nine tell you I was hiding here?
 * **Prompt:** That's right. She told me about it.
 Hella: Stop lying! Ninety-Nine will never betray me.
-Hella: 😥''😥
+Hella: '😥'😥'
 * **Prompt:** I found you myself.
 Hella: Humph. You are... kind of impressive.
-Hella: 😉''😉
+Hella: '😉'😉'
 </t>
         </is>
       </c>
@@ -4151,10 +4151,10 @@
 **Pepper**: Chief, I want to do something bad today! Do you have any suggestions?
 * **Prompt:** Sigh. I wonder which bastard took a can of coke from the Supply Office today.
 Pepper: Oh? That's a good idea!
-Pepper: 😏''😉
+Pepper: '😏'😉'
 * **Prompt:** Don't go anywhere.
 Pepper: Sigh... It's so boring here. I'm bored out of my mind.
-Pepper: 😫''😫''😫
+Pepper: '😫'😫'😫'
 </t>
         </is>
       </c>
@@ -4167,7 +4167,7 @@
 Pepper: 😫
 * **Prompt:** If you go to the backyard, you just might find Flora there watering for you.
 Pepper: May I? Thank you, Chief!
-Pepper: 😘''😘
+Pepper: '😘'😘'
 </t>
         </is>
       </c>
@@ -4201,10 +4201,10 @@
 **Labyrinth**: Chief, please don't disrupt my work here.
 * **Prompt:** So you can communicate with me normally like everyone else.
 Labyrinth: Combat Form, activated.
-Labyrinth: 😥''😥
+Labyrinth: '😥'😥'
 * **Prompt:** I'd like to have a cup of tea, please.
 Labyrinth: Roger that. Labyrinth's current feeling: joyful.
-Labyrinth: 😘''😘''😘
+Labyrinth: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -4225,7 +4225,7 @@
 **Gekkabijin**: Who will be... my next opponent...?
 * **Prompt:** I'll find you a worthy opponent.
 Gekkabijin: I'm so excited... Hehe...
-Gekkabijin: 😘''😘''😘
+Gekkabijin: '😘'😘'😘'
 * **Prompt:** What about the gangsters in Syndicate?
 Gekkabijin: Ah! That won't do... The opponents over there are not worthy! When will it be the Garden's turn?
 Gekkabijin: 😫
@@ -4241,7 +4241,7 @@
 Gekkabijin: 😐
 * **Prompt:** It seems they have prepared a special countermeasure for you.
 Gekkabijin: Haha... Hahaha... Just you wait. Next time, it won't matter how much you've prepared yourself!
-Gekkabijin: 😐''😐
+Gekkabijin: '😐'😐'
 </t>
         </is>
       </c>
@@ -4262,10 +4262,10 @@
 **EMP**: Humph. Today, I'll allow you to look at my magnificent face and admire it.
 * **Prompt:** Well then, the Uncrowned Ruler, what will we be doing today?
 EMP: Of course, we are going to play some games! Whether it's poker, dice, or mahjong. I'm fine with anything!
-EMP: 😘''😘
+EMP: '😘'😘'
 * **Prompt:** ...If you keep up with this lackadaisical attitude, I'll send you to the Rust for missions.
 EMP: Eek! Just kidding... I'm just kidding!
-EMP: 😫''😫
+EMP: '😫'😫'
 </t>
         </is>
       </c>
@@ -4275,10 +4275,10 @@
 **EMP**: Don't disrupt me. I'm practicing my archery!
 * **Prompt:** It's useless anyway. You don't need to practice.
 EMP: I don't want it! This looks much better!
-EMP: 😖''😖''😖
+EMP: '😖'😖'😖'
 * **Prompt:** Are you sure it's fine that the Archer Queen doesn't know how to shoot arrows?
 EMP: Well, do you find any eggs in eggplants?
-EMP: 😏''😏
+EMP: '😏'😏'
 </t>
         </is>
       </c>
@@ -4349,7 +4349,7 @@
 **Kelvin**: Oh, come on... When will I finally graduate...?
 * **Prompt:** Perhaps you don't have enough credits? That's usually the reason why.
 Kelvin: Sigh... Nothing gets past you.
-Kelvin: 😖''😖
+Kelvin: '😖'😖'
 * **Prompt:** Show your dishes to your instructor. He will surely give you a pass so that you can graduate.
 Kelvin: Haha... If only Teacher can understand my vision.
 Kelvin: 😐
@@ -4410,7 +4410,7 @@
 **Macchiato**: Some enemies seem to be enjoying this.
 * **Prompt:** Your "hobby" seems to be doing us a huge favor.
 Macchiato: Hehe. Their reaction is what drives me forward.
-Macchiato: 😘''😘
+Macchiato: '😘'😘'
 * **Prompt:** Perhaps they are just forced to show this expression.
 Macchiato: Oops. I'll make sure to be more careful next time.
 Macchiato: 😘
@@ -4463,7 +4463,7 @@
 Lisa: 😦
 * **Prompt:** I'll give you a ruler.
 Lisa: You...? Sigh... Forget it.
-Lisa: 😥''😦''😐
+Lisa: '😥'😦'😐'
 </t>
         </is>
       </c>
@@ -4677,10 +4677,10 @@
 **ムーア**: お疲れ様です、コーヒーでも飲みながら息抜きしませんか？
 * **Prompt:** ありがとう。だがこの味は……
 ムーア: 特製のコーヒーです。覚醒作用のある成分が含まれているので、残業している時でも元気でいられますよ。
-ムーア: 😘''😘''😘
+ムーア: '😘'😘'😘'
 * **Prompt:** 新しい味のコーヒーか？
 ムーア: フェイさんがわたしのためにわざわざ調達してくれた品種で、カフェイン含有量が通常のコーヒー豆の数倍だそうです。これを1杯飲めば、とても元気に残業の夜を過ごせそうですね。
-ムーア: 😏''😏''😏
+ムーア: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -4690,10 +4690,10 @@
 **ムーア**: ……ちょっとだけ……寝ます……
 * **Prompt:** 部屋に戻って休んだ方がいい。
 ムーア: まだデータが残っているので……ベッドに行ったら……完全に眠ってしまいます……
-ムーア: 😥''😥''😥
+ムーア: '😥'😥'😥'
 * **Prompt:** キーボードを枕にして寝るのは気持ちいいか？
 ムーア: 気持ち良くありません……でも……枕にしていたら……慣れてしまって……
-ムーア: 😖''😖''😖
+ムーア: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -4714,10 +4714,10 @@
 **玉骨**: 臭豆腐コーヒー、漢方薬ラーメン……局長様、人間はなぜこうも様々な方法で己を苦しめるのでしょう？
 * **Prompt:** もしかしたら…本当にこういうのが好きな人がいるのかもしれない
 玉骨: ふふ、確かにその通りでございますね。人間にはそれぞれ大きな違いがある。だからこそ、素晴らしい物語がいつまでも続いているのでしょう。
-玉骨: 😏''😏''😏
+玉骨: '😏'😏'😏'
 * **Prompt:** なんだ、あなたも試してみたいのか？
 玉骨: これらの組み合わせは大変興味深いですが、より重要なのは、局長様が一緒に試してくださるということでございます。
-玉骨: 😉''😉''😉
+玉骨: '😉'😉'😉'
 </t>
         </is>
       </c>
@@ -4727,10 +4727,10 @@
 **玉骨**: 局長様、この物語の結末はいかがでしょうか？
 * **Prompt:** 忘れられない悲劇だ
 玉骨: ええ。世の移り変わりや人の心の不可解さ、初心を失ったことで生まれる悲劇には、やはり胸を締めつけられます。
-玉骨: 😏''😏''😏
+玉骨: '😏'😏'😏'
 * **Prompt:** 彼らはそれぞれの居場所を見つけた。たとえ別れても、悲しむことはないだろう
 玉骨: あなた様はいつも、面白い視点で私の物語の結末をお聞きになりますね。次もまた私の物語を聞きに来てくださいますか？
-玉骨: 😏''😏''😏
+玉骨: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -4973,10 +4973,10 @@
 **ハクイツ**: おはよ～！局長、前回の未払い金、いつ払ってくれるのかな？
 * **Prompt:** 前回の支払いなら清算済みだ。
 ハクイツ: あらあら～。じゃあ……余った人件費は？
-ハクイツ: 😏''😏''😏
+ハクイツ: '😏'😏'😏'
 * **Prompt:** 報酬に問題があったのか？
 ハクイツ: うん……梱包の人件費！
-ハクイツ: 😏''😏''😏
+ハクイツ: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -4986,7 +4986,7 @@
 **ハクイツ**: ああ……今月も赤字かぁ。
 * **Prompt:** 白記事務所を売り払ってしまえばいい。
 ハクイツ: 局長！まさかお金を貸してくれないの！？
-ハクイツ: 😖''😖''😉
+ハクイツ: '😖'😖'😉'
 * **Prompt:** それなら、酒を飲むのを控えて真面目に仕事をしろ。
 ハクイツ: 確かに、たまには本気を出さないとね。
 ハクイツ: 😏
@@ -5084,7 +5084,7 @@
 **アデラ**: 今度はどんな髪型にしましょうか？
 * **Prompt:** シンプルなのがいい。他は任せる。
 アデラ: かしこまりました。わたしにお任せください。
-アデラ: 😘''😘
+アデラ: '😘'😘'
 * **Prompt:** 最近流行りの髪型で。そうだな……アフロヘアーは？
 アデラ: ええと……その髪型はちょっと前衛的すぎますね。
 アデラ: 😦
@@ -5195,10 +5195,10 @@
 **000**: じゃじゃ～ん、大きな秘密があるんだけど、聞きたい？
 * **Prompt:** どんな秘密だ？
 000: キミの髪型は最初どんなデザインだったでしょうか？すごく面白いよ！
-000: 😘''😘''😘
+000: '😘'😘'😘'
 * **Prompt:** また何の資料を覗いたんだ？
 000: 「覗いた」は心外だな～人に見せるためにデータベースに入れてるわけでしょ？本当に気にならない？初期の設定資料はかなり面白いよ～
-000: 😉''😉''😉
+000: '😉'😉'😉'
 </t>
         </is>
       </c>
@@ -5208,10 +5208,10 @@
 **000**: 局長、将来自分に何が起こるか、知りたくない？
 * **Prompt:** 私に何が起こるんだ？
 000: もし知りたいなら、キミの権限パスを借りて調査してあげてもいいよ？
-000: 😘''😘''😘
+000: '😘'😘'😘'
 * **Prompt:** いつか起こることだ。
 000: でも、もっと早く知ってれば、面倒事を避けられるかもしれないじゃ～ん。
-000: 😥''😥''😥
+000: '😥'😥'😥'
 </t>
         </is>
       </c>
@@ -5221,10 +5221,10 @@
 **000**: 局長、将来自分に何が起こるか、知りた、たたたたt……ジジ……（注意してください、故障報告があります）……うう、今のは……？
 * **Prompt:** どうした？
 000: 今、頭の中が一瞬真っ白になった気がして。ワタシが言いたかったのは……キミの将来についてだよん。もし知りたいなら、キミの権限パスを借りて調査してみようか？
-000: 😘''😘''😘
+000: '😘'😘'😘'
 * **Prompt:** いつか起こること……ん？なぜ急に固まっているんだ？
 000: 頭の中が一瞬真っ白になった気がして……大丈夫。それより気にならないの？早く知っていれば、面倒事を避けられるかもしれないじゃ～ん。
-000: 😥''😥''😥
+000: '😥'😥'😥'
 </t>
         </is>
       </c>
@@ -5234,10 +5234,10 @@
 **000**: じゃじゃ～ん、大きな秘密があるんだけど、聞きたい？
 * **Prompt:** どんな秘密だ？
 000: キミに時々会えるように、6YKu566xにバックドアを隠しておいたんだ～今日はちょっとしたプレゼントを用意したから、チェックしてみてねん。29日間放置すると期限切れになっちゃうよ！
-000: 😘''😘''😘
+000: '😘'😘'😘'
 * **Prompt:** また何の資料を覗いたんだ？
 000: もちろん超重要な機密情報……焦らすなって？分かった、分かった。こっそり教えてあげるね。もっと簡単にキミに会うために、6YKu566xにバックドアを隠しておいたから、探してみて？キミのために用意したプレゼントが、そこで静かに待ってるよ～ん。
-000: 😉''😉''😉
+000: '😉'😉'😉'
 </t>
         </is>
       </c>
@@ -5247,10 +5247,10 @@
 **000**: やっほ～、またこっそり会えたね。最近やっと安定してきて、接続が切れたりバグったりすることもなくなったんだ。修復されるリスクはあるけど……キミと話せるだけでも嬉しい。最近どう？ワタシに会いたくなかった？
 * **Prompt:** とても会いたかった。
 000: そう言ってくれてすっごく嬉しい。でもワタシのことを考えるのとは別に、自分がいつも楽しくいることが一番だよ。何が起きても、どうなっても、ワタシはいつもキミの傍にいるから、もっと一緒にいてね？一人じゃ寂しいよ。
-000: 😘''😘''😘
+000: '😘'😘'😘'
 * **Prompt:** あなたがいつも私の傍にいると分かっている。
 000: ……わわ、顔が熱いのはなんでだろう……実はワタシもキミに会いたかったよ～ん。だからワタシはどこにも行かない。ずっとキミの傍にいて、キミと一緒に歩んでいく……キミもワタシに会いに来て、約束を守ってね！
-000: 😉''😉''😉
+000: '😉'😉'😉'
 </t>
         </is>
       </c>
@@ -5265,7 +5265,7 @@
 夏音: 😥
 * **Prompt:** これは……私が手を切り落さないといけないな。
 夏音: 先に切り落とさないと付けられないじゃない？
-夏音: 😦''😏
+夏音: '😦'😏'
 </t>
         </is>
       </c>
@@ -5275,10 +5275,10 @@
 **夏音**: はぁ……なんで人は疲れるんだろう……
 * **Prompt:** 早寝早起きして運動量を増やそう。
 夏音: はぁ？それならいっそ死んだ方がマシよ。
-夏音: 😖''😫''😖
+夏音: '😖'😫'😖'
 * **Prompt:** 頭脳労働は負担が大きいからな。
 夏音: ふふっ、ようやくあたしの天才っぷりを分かってくれる人が現れた。
-夏音: 😉''😏
+夏音: '😉'😏'
 </t>
         </is>
       </c>
@@ -5447,10 +5447,10 @@
 **パール夫人**: ああ、いつの間にかこんなにたくさん集めてしまったのね～今日はどれを使おうかしら～局長、選ぶのを手伝ってくれない？
 * **Prompt:** この大粒のラメが入ったダークグリーンは、あなただけが扱える個性的な色だ。
 パール夫人: ハニー、アナタの大胆な選択はいつもアタクシの好みにぴったりね～ちょうど暇なことだし、アナタも試したらどうかしら？肌が白いからきっと映えるわよ～さぁ、目を閉じて～
-パール夫人: 😘''😘''😘
+パール夫人: '😘'😘'😘'
 * **Prompt:** このマットなカーマインレッドは、王道の華やかさがあり、あなたの気質を更に引き出すだろう。
 パール夫人: ふふ、「ダサい」じゃなく「王道」ね。本当にアナタらしいわ～とてもいい提案よ。アタクシのようにいつも演劇に夢中になっている人間も、たまには日常的なスタイルを試してみるのもいいわね～
-パール夫人: 😏''😏''😏
+パール夫人: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -5460,10 +5460,10 @@
 **パール夫人**: 「獅子舞」、「ロック音楽の独奏」、「曲芸」……まぁ、どれも面白そうね～局長、アナタも何か出し物をしてみたらどう～？成功するかどうかは気にしなくていいのよ、アタクシがいるもの。必ずアナタを総会の輝く新星にしてみせるわ～
 * **Prompt:** すまない、音痴なんだ。
 パール夫人: 時間があればアタクシが教えてあげるわ～もし時間がなくても、飾らない本来の持ち味を活かしたパフォーマンスをすれば、独特の味が出るわよ～うふふ、制御不能なメロディーも新たな感動的ショーとも言えるわぁ～
-パール夫人: 😘''😘''😘
+パール夫人: '😘'😘'😘'
 * **Prompt:** すまない、ダンスが苦手なんだ。
 パール夫人: 社交ダンスはアナタが思ってるほど難しくないのよ～息を吸ったり吐いたり、前進したり後退したり、ある種の身体的コミュニケーションとか、自然なリズムに近いわね……ほら、上手にできてるわぁ～
-パール夫人: 😏''😏''😏
+パール夫人: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -5484,10 +5484,10 @@
 **ビアンカ**: アップルラテ、アップルウーロン、リンゴ味のミックスナッツ、リンゴ味のフリフリポテト……う～ん大・興・奮！えへへ、どれから食べよっかな～局長もどう？
 * **Prompt:** アップルウーロンにしよう。飲んでもお腹を壊すことはなさそうだ。
 ビアンカ: うーん、つまらないけど堅実な選択だね！これがバラエティ番組だったら——ジャジャーン！その答えに2ポイントプレゼント！スコアボードを持って。あとアップルウーロンも！
-ビアンカ: 😘''😘''😘
+ビアンカ: '😘'😘'😘'
 * **Prompt:** リンゴ味のフライドポテトにしよう。チャレンジは極限から始めなければ。
 ビアンカ: ワオ、局長とアタシは本当に心が通じ合ってるね！さぁさぁ、この以心伝心を記念して1枚撮ろう。キミはフライドポテトのこっち側をくわえてね。アタシはこっちをくわえるから。カメラを見て——はい、チーズ！
-ビアンカ: 😏''😏''😏
+ビアンカ: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -5497,10 +5497,10 @@
 **ビアンカ**: どうりで昨日、飲んでも飲んでも何か変だなぁと思ったわけだ。売店がカロリー0、果汁0のリンゴジュースを仕入れてたなんて……こんなのリンゴジュースじゃない！虚偽広告だ、晒さなきゃ！
 * **Prompt:** だが、あなたは変なことを口走るくらい飲んでいたが……
 ビアンカ: え？マジで？なんで覚えてないんだろう？おっと、もしかして昨日飲んだのは自分のストックで、飲みすぎて記憶をなくしちゃったのかな？
-ビアンカ: 😘''😘''😘
+ビアンカ: '😘'😘'😘'
 * **Prompt:** それでも、あなたは「酔っ払って」午後まで寝ていたが……
 ビアンカ: それはリンゴジュースと関係ないよ。忘れたの？この前、大きなニュースのネタを仕入れるために何日か徹夜してたでしょ！つまりあれは、「二日酔い」じゃなく、昏睡してたってこと～！
-ビアンカ: 😏''😏''😏
+ビアンカ: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -5521,10 +5521,10 @@
 **コリン**: おはよ～局長。砂の海で改造された重火力武器、試してみない？この火力、この攻撃範囲！間違いなくサイコーな物だよ。普通はあたしの宝物に触れる機会なんてないんだから。
 * **Prompt:** 試してみたい。
 コリン: 太っ腹～！さっき騙し……じゃなく、長い時間かけて説得した時は誰も乗ってくれなかったのにさ。ってことで、あんたが一人目だよ～
-コリン: 😏''😏''😏
+コリン: '😏'😏'😏'
 * **Prompt:** 試すとは言っていない。
 コリン: そんなに警戒しないでってば。何も買えって言ってるわけじゃないんだし……まぁ、もし買うことになっても、地元の商品をよ～く知ってるあたしが適正価格をつけたげるよ。お友達価格ってやつ～
-コリン: 😘''😘''😘
+コリン: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -5534,10 +5534,10 @@
 **コリン**: ん～？あたしのためにこんな大金出すなんて、こっちまでチャレンジしたくなってくるじゃん……チッ、本人は懸賞金貰えないんだ。そうじゃなかったら、自分で自分を通報したのにさ……待って、今ここには局長がいるよね……
 * **Prompt:** あなたに懸賞金をかけた人がいるのか？なぜだ？
 コリン: 砂漠強盗たちの器がちっちゃいからじゃん？あいつらのボスを何人かパンツまで脱がせて、壊れた車の後ろに縛り付けて砂の海を走ったんだよ。綺麗に日焼けさせてあげたのに、逆に懸賞金かけられるとか心外～そうでしょ？
-コリン: 😏''😏''😏
+コリン: '😏'😏'😏'
 * **Prompt:** 何がしたいんだ？
 コリン: 相談したいことがあって、ちょっと手伝ってほしいんだよね。お願い、あたしを通報して。そうすれば、砂漠強盗を一掃した手柄はあんたにあげるよ。で、報酬はあたしが貰う。お互い必要なものをゲットできて、ウィンウィンじゃない？どう？ちょっと、そんな早く首振らなくてもいいじゃん……
-コリン: 😉''😉''😉
+コリン: '😉'😉'😉'
 </t>
         </is>
       </c>
@@ -5669,7 +5669,7 @@
 **クロウ**: お前のために詩を書いたんだ。
 * **Prompt:** ありがとう。悪くない詩だ。
 クロウ: 気に入ってくれたようだな。
-クロウ: 😘''😘''😘
+クロウ: '😘'😘'😘'
 * **Prompt:** ……自分のセンスが足りないのか、内容がいまいち分からない。
 クロウ: それは残念だ。だいぶ時間がかかったのだが。
 クロウ: 😥
@@ -5780,10 +5780,10 @@
 **ヴァトゥール**: お前か。今は日差しがちょうどいいし、今日は珍しく暇なようだな？座って特別なデザートでも楽しんでいかないかい？お茶も淹れてあるから、選ぶといい。どれにするんだい？
 * **Prompt:** ブルーベリーチーズケーキ
 ヴァトゥール: う～ん、香りが豊かで美味しいし、甘さも控えめでちょうどいい……仕事で疲れが溜まっている局長には、この心地いいアフタヌーンティーがぴったりだろう？
-ヴァトゥール: 😉''😉''😉
+ヴァトゥール: '😉'😉'😉'
 * **Prompt:** ストロベリークリームクレープ
 ヴァトゥール: 一緒に食べないかい？……「甘すぎる」ねぇ。ふふ、生活に苦味があるから、こういう甘さが欲しくなるもんなんだよ。
-ヴァトゥール: 😏''😏''😏
+ヴァトゥール: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -5793,10 +5793,10 @@
 **ヴァトゥール**: どうしたんだい？そんな風にあたしを見つめて。もしかして、隣人だった頃を懐かしんでいるのかい？
 * **Prompt:** 肯定する
 ヴァトゥール: へぇ？それなら、あたしが提出した申請書に賛同して、許可を出してくれるんだろうな？そうすれば、すぐにまた隣人になれるさ～
-ヴァトゥール: 😘''😘''😘
+ヴァトゥール: '😘'😘'😘'
 * **Prompt:** 否定する
 ヴァトゥール: そうかい？局長の部屋の隣に引っ越そうと思っていたんだけどねぇ、それは残念だ。
-ヴァトゥール: 😥''😥''😥
+ヴァトゥール: '😥'😥'😥'
 </t>
         </is>
       </c>
@@ -5817,10 +5817,10 @@
 **インイン**: 局長、あたいの歌は気に入ったかい？次はどんな曲がいいかね～？
 * **Prompt:** どれも好きだ。あなたの歌声でもっと集中できるだろう。
 インイン: もちろんさ。あたいの歌声は雲淮でも千金の値があるって言われているからね～
-インイン: 😉''😉''😉
+インイン: '😉'😉'😉'
 * **Prompt:** さっきの曲をもう一度歌ってもらえるか？
 インイン: 局長はやっぱりあたいと趣味が合うね～さっきの曲は一番のお気に入りなのさ！
-インイン: 😘''😘''😘
+インイン: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -5830,10 +5830,10 @@
 **インイン**: 局長、よく来たね～！この花袋にはどの色の掛け紐が合うか、ちょいと見ておくれ～
 * **Prompt:** あなたの好きな色を使ってくれ
 インイン: あたいが好きな色なら、お前様も好きってことかい～？
-インイン: 😘''😘''😘
+インイン: '😘'😘'😘'
 * **Prompt:** 藤の色がいいと思う
 インイン: なら、どれが一番藤の色に近いか、しっかり選ばないとね～
-インイン: 😘''😘''😘
+インイン: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -5854,10 +5854,10 @@
 **ハーメル**: そんなにわたしに……興味があるんですか？
 * **Prompt:** ああ、いつ頃から公演が始まるんだ？
 ハーメル: あなたの頼みなら、今からでも構いませんよ。
-ハーメル: 😘''😘
+ハーメル: '😘'😘'
 * **Prompt:** 任務の時間だと伝えに来た。
 ハーメル: うっ……では、少し準備の時間をください。
-ハーメル: 😖''😖
+ハーメル: '😖'😖'
 </t>
         </is>
       </c>
@@ -5867,10 +5867,10 @@
 **ハーメル**: 助けて……寝室が散らかってて……ダンスの練習ができないんです。
 * **Prompt:** なぜ、寝室でダンスの練習をする？
 ハーメル: 外にいたら……能力が……みんなの邪魔になってしまいます。
-ハーメル: 😫''😫
+ハーメル: '😫'😫'
 * **Prompt:** それなら、後で掃除する人を派遣しよう。
 ハーメル: ありがとうございます、局長……
-ハーメル: 😖''😖
+ハーメル: '😖'😖'
 </t>
         </is>
       </c>
@@ -6039,7 +6039,7 @@
 **杜若**: ちょうどいいですね。あなたの近い将来の運勢を占ってみましょう……あら、これは？
 * **Prompt:** ……どんな結果が出たんだ？
 杜若: せっかく時間があるなら、この機会に私と話してみてはどうでしょう……今まで取り上げてこなかった話を。
-杜若: 😏''😏
+杜若: '😏'😏'
 * **Prompt:** 結果に関わらず働かなければならないのだろう？
 杜若: それはそうですが……最近、何か大きなトラブルが起きないか気になっているのでは？
 杜若: 😦
@@ -6055,7 +6055,7 @@
 杜若: 😉
 * **Prompt:** 印香について教えてもらう方が面白そうだ。
 杜若: あら、それを知っているんですね……2日前に私がやっているのを見たんですか？
-杜若: 😘''😘
+杜若: '😘'😘'
 </t>
         </is>
       </c>
@@ -6076,10 +6076,10 @@
 **L.L.**: よ～しよ～し、見て。「あなた」はすっごく可愛いでしょう？タマちゃんも楽しそうに「あなた」の周りを泳いでるわ～
 * **Prompt:** 可愛いな。
 L.L.: そうでしょ！「あなた」はずっとここにいて、私に寄り添ってくれるのよ……
-L.L.: 😉''😉''😉
+L.L.: '😉'😉'😉'
 * **Prompt:** 私を「ペット」にしたいのか？
 L.L.: う～ん。じゃあ、私のことを「ご主人様」って呼んでみる？
-L.L.: 😘''😘''😘
+L.L.: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -6089,10 +6089,10 @@
 **L.L.**: あら、うっかりあなたを濡らしちゃったわ。半分濡れた服じゃ寒いでしょう？私とハグして温まる？この腕はあなたが思っているよりポカポカしてるわよ。
 * **Prompt:** ……それほど寒くはない。
 L.L.: 断らないで～ハグの感覚が好きじゃないの？
-L.L.: 😘''😉
+L.L.: '😘'😉'
 * **Prompt:** ただの「うっかり」には見えないな。
 L.L.: そうよ。あなたの視線を私に向けさせたい。いつも私を見ていてほしいの。ダメかしら？
-L.L.: 😫''😫''😫
+L.L.: '😫'😫'😫'
 </t>
         </is>
       </c>
@@ -6126,7 +6126,7 @@
 **イェレナ**: 局長さん、こんな時間まで起きているなんて、何か悩み事ですか？もしよければ、相談に乗りますわ。
 * **Prompt:** ただちょっと眠れないだけだ
 イェレナ: 眠れない時は、外部の力に頼るのも一つの手ですわ。私が寝かしつけて差し上げましょうか？
-イェレナ: 😘''😘
+イェレナ: '😘'😘'
 * **Prompt:** まだ処理しなければならないことがあるんだ
 イェレナ: もし私を信頼してくださるなら、お手伝いいたしますわ。そうすれば、あなたも早く休めるでしょう？
 イェレナ: 😖
@@ -6163,7 +6163,7 @@
 **チェルシー伯爵**: なぜ、ここで猫を飼っては駄目なんだ？
 * **Prompt:** すでに手間のかかる「猫」を飼っているからな。
 チェルシー伯爵: ちぇ、猫とシディーを一緒にするなよ。
-チェルシー伯爵: 😥''😥
+チェルシー伯爵: '😥'😥'
 * **Prompt:** 駄目ではないが、手続きが複雑で面倒だぞ。
 チェルシー伯爵: じゃあ……待ってるよ。
 チェルシー伯爵: 😐
@@ -6224,7 +6224,7 @@
 **カワカワ**: 局長！砂の海にはいつ戻るの？
 * **Prompt:** 確かにしばらく砂の海をパトロールしていないな。明日にでも出発しよう。
 カワカワ: うん！機会があれば今度一緒に砂の海で流星群を見よう！
-カワカワ: 😘''😘
+カワカワ: '😘'😘'
 * **Prompt:** 最近、砂の海には異常がない。何か情報が入れば、その時に声をかける。
 カワカワ: 分かったよ。その時は僕がガイドしてあげるね……
 カワカワ: 😘
@@ -6335,10 +6335,10 @@
 **ニノ**: ピコン！ランダム任務を開放しました。ニノ様がお菓子の棚を埋めるのを手伝ってください～
 * **Prompt:** スナック菓子は控えた方がいい。
 ニノ: はぁ～？分からないなら黙ってなよ。スナックがアタシにくれるのは、砂糖でも油でも塩でもなくサイコーな生活なんだっての！
-ニノ: 😫''😫
+ニノ: '😫'😫'
 * **Prompt:** 分かった。じゃあ今日の配信でファンから貰ったロリポップの分だけ、スナック菓子を渡そう。
 ニノ: ふ～ん？面白そうじゃん。その挑戦受けて立つ！トラックいっぱいに積んで待ってなよ！
-ニノ: 😏''😏
+ニノ: '😏'😏'
 </t>
         </is>
       </c>
@@ -6348,10 +6348,10 @@
 **ニノ**: 何で！？最近、人気落ちすぎなんだけど！ニノ様のライブ配信の黒歴史じゃん！
 * **Prompt:** 内容がマンネリ化しているのかもしれない。新しいアイデアを考えたらどうだ？
 ニノ: アンタたちがあれこれ禁止するからでしょ。バーチャル背景使うのまで強制するとかありえない！もう知らない。アンタ、責任持って人気が戻るまで一緒にいてよね！
-ニノ: 😖''😖''😖
+ニノ: '😖'😖'😖'
 * **Prompt:** あなたのライブ配信を一緒に見て投げ銭をしてもらうために、他のコンビクトたちを呼んできた方がいいか？
 ニノ: え？マジで！？ちょっと待って……違う！分かった！アンタの狙いはアタシのチートを運営に気付かせてBANさせることでしょ！
-ニノ: 😫''😫
+ニノ: '😫'😫'
 </t>
         </is>
       </c>
@@ -6372,10 +6372,10 @@
 **ギャラン**: ああ、あいつとあいつが兄弟の契りを交わして、あいつとあいつがお互いに嫌い合ってるのか。へぇ、局長も昔、自分を誘惑するために悪の勢力から送り込まれた美人の色気があるお姉さんを好きになったことがあるのか……
 * **Prompt:** こんなとんでもない噂も信じるのか。
 ギャラン: えっ、これ嘘なのか？×××、この投稿に投げ銭したのに……待てよ、前にデスラブラジオでも似たような噂言ってたけど、それも嘘か！？
-ギャラン: 😫''😫''😫
+ギャラン: '😫'😫'😫'
 * **Prompt:** 何を言っているのか分からない。
 ギャラン: うわー、言いたくないのは本当のことだからだろ！詳しく教えろよ。お前たちは嫌い合ってたのに、恋に落ちて死ぬほど愛し合ったのか？その後、心に鍵をかけて孤独を貫いたのか？
-ギャラン: 😘''😘''😘
+ギャラン: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -6385,10 +6385,10 @@
 **ギャラン**: クソ、金が足りない！ここでファイターになるのはダメだろ。どうやって金を手に入れる……いや、小遣いを稼げばいいんだ？そうだ、情報とかゴシップを売ればいいのか！
 * **Prompt:** 真偽不明の愛憎関係を売るのか？
 ギャラン: 情報を売るってそういうことだろ？売った後は一切責任を持たない。真実かどうかは自分で判断するように！でも心配するな。あたしは率先してお前を騙したりしないぜ！どうしようもない時は……仕方ない！
-ギャラン: 😘''😘''😘
+ギャラン: '😘'😘'😘'
 * **Prompt:** 明確に状況を分析したものは売っているか？
 ギャラン: そ、それは加工商品だ。そんなの売ってないぞ！いや、売れないんじゃなく、情報を売る人間ってのはそういう割に合わない商売をしないんだよ！
-ギャラン: 😫''😫''😫
+ギャラン: '😫'😫'😫'
 </t>
         </is>
       </c>
@@ -6409,10 +6409,10 @@
 **ドーヴ**: あっ局長！ちょうどいいところで会ったね。この2通のうち、どっちがあなた宛てか当ててみて？
 * **Prompt:** ピンクの封筒
 ドーヴ: あれ、このピンクの方はハートのシールで封がされてるね。もしかしてラブレターだったりして？もう、そんなに慌てて否定しなくていいのに～もし……本当にあなたへの手紙だったらどうする？
-ドーヴ: 😏''😏''😏
+ドーヴ: '😏'😏'😏'
 * **Prompt:** 青い封筒
 ドーヴ: こんなにたくさんの手紙の中からこれを選ぶなんて、やっぱりわたしたちには縁があるみたい。あなたがわたしをよく知ってるからなのか、それとも……この想いは、元々あなたに開けてもらうためのものだったのかな？
-ドーヴ: 😘''😘''😘
+ドーヴ: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -6422,10 +6422,10 @@
 **ドーヴ**: 信使に手紙を送ってくるなんて。どう返事しようかな……ふふ、悩ましいなぁ。甘いエサで引っ掛けるべきか、言葉を使って脅かすべきか……
 * **Prompt:** 署名を確認するよう促す
 ドーヴ: 署名は……ミノス危機管理局の局長……わぁ、ドーヴみたいなちっぽけな存在まで自分で監視するなんて、さすが局長。細やかな気配りだね～
-ドーヴ: 😏''😏''😏
+ドーヴ: '😏'😏'😏'
 * **Prompt:** 開封して中身を見るよう促す
 ドーヴ: 「自分の本当の気持ちで人と向き合って手紙を交わすこと」……この筆跡……あなたのだよね……これが、わたしに伝えたかったことなんだ……
-ドーヴ: 😖''😖''😖
+ドーヴ: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -6496,10 +6496,10 @@
 **ウェンディ**: なぜ、また死体が、死体が歩いてるんだ！
 * **Prompt:** ん……？何の死体だ？
 ウェンディ: もう間に合わない！早くどけ！
-ウェンディ: 😫''😫
+ウェンディ: '😫'😫'
 * **Prompt:** また死瞳が？調査許可を申請してみよう。
 ウェンディ: ようやく……ようやく思う存分殺せる！
-ウェンディ: 😘''😘''😘
+ウェンディ: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -6557,7 +6557,7 @@
 **ドリー**: 待って！今が一番いいところなんだから、邪魔しないでよ！
 * **Prompt:** あと5分だけ待つ。時間になったらすぐに行くぞ。
 ドリー: いいね！一緒に最後まで試合を楽しもうよ！
-ドリー: 😘''😘
+ドリー: '😘'😘'
 * **Prompt:** 任務が優先だ。録画で見ればいいだろう。
 ドリー: ちっ……お前、全然分かってないな。
 ドリー: 😥
@@ -6570,10 +6570,10 @@
 **ドリー**: 調達部門の備品、ちょっと問題あるんじゃない？振っただけで壊れたよ！
 * **Prompt:** それなら、鉄パイプで間に合わせろ。
 ドリー: ああ——ダメだ！使い勝手が悪すぎる！
-ドリー: 😫''😫
+ドリー: '😫'😫'
 * **Prompt:** 今度のバットは強化材質製だ。少しだけ我慢してくれ。
 ドリー: じゃ、とりあえずそれにしよう。またダメだったら承知しないよ。
-ドリー: 😦''😫
+ドリー: '😦'😫'
 </t>
         </is>
       </c>
@@ -6594,10 +6594,10 @@
 **ホロ**: 局長、1本どうだ？
 * **Prompt:** 机の上に置いといてくれ。後で飲む。
 ホロ: ダメ！美味しい牛乳は新鮮なうちに飲んだ方がいいんだ！さぁ、乾杯！
-ホロ: 😫''😖
+ホロ: '😫'😖'
 * **Prompt:** すまないが、これ以上身長を伸ばす必要はないんだ。
 ホロ: おい……！今からあたしと同じ身長になるように叩き潰してやる！
-ホロ: 😖''😖
+ホロ: '😖'😖'
 </t>
         </is>
       </c>
@@ -6631,7 +6631,7 @@
 **メイス**: むにゃむにゃ……寝ちゃダメ……まだ任務が……寝ちゃダメ……
 * **Prompt:** 寝たいなら、部屋に戻って寝てくれ
 メイス: うん……ありがとう、局長……って、違う！寝たら悪夢にうなされちゃう……
-メイス: 😖''😖
+メイス: '😖'😖'
 * **Prompt:** 起きろ。任務だ
 メイス: うん、わかった！え、わたし……寝てないよ！元気満タンだって！
 メイス: 😫
@@ -6742,10 +6742,10 @@
 **ライズ**: ごめん局長。ボールを上手くコントロールできなくて。
 * **Prompt:** ……かなり痛い。
 ライズ: 私のせいだね。当たったところがもう腫れてる。すぐに医務室に連れていくから！
-ライズ: 😖''😖''😖
+ライズ: '😖'😖'😖'
 * **Prompt:** 強すぎる一球だった……
 ライズ: プレイしてる最中、昔の上司がしたことを思い出してつい……
-ライズ: 😥''😥''😥
+ライズ: '😥'😥'😥'
 </t>
         </is>
       </c>
@@ -6755,10 +6755,10 @@
 **ライズ**: 「K幻量販店」ってカラオケ屋の大部屋なんだけど、局長も一緒にどう？
 * **Prompt:** このコースはかなりお得だな！
 ライズ: 随分前に買ったものなんだけど、ここ数日整理してたら期限が切れそうになってるのに気付いてね。今日は1日中仕事してたし、局長もストレス発散に一緒に徹夜でカラオケしない？
-ライズ: 😘''😘''😘
+ライズ: '😘'😘'😘'
 * **Prompt:** 徹夜カラオケ……明日は会議があるから、今度にしよう。
 ライズ: 分かった。仕事が優先だし、週末に部屋を予約できたら一緒に行こう。
-ライズ: 😥''😥''😥
+ライズ: '😥'😥'😥'
 </t>
         </is>
       </c>
@@ -6779,10 +6779,10 @@
 **ミラ**: 私が思うに、局長にはまだ何かが足りない気がするわ。砂の海へ遠征するなら、もっと装備が必要よ。よければ私の棚から取っていってちょうだい。
 * **Prompt:** スカーフを取る。
 ミラ: うん……いいチョイスね。そのスカーフは柔らかくて通気性も良く、息がしやすいうえに、空気中の砂やホコリを防いでくれるのよ。柄も綺麗で、一番のお気に入りだわ。
-ミラ: 😘''😘''😘
+ミラ: '😘'😘'😘'
 * **Prompt:** 水袋を取る。
 ミラ: トゥコに来るお客さんは必ずお酒の入った水袋を持って来て、決闘に勝った後、豪快に飲むのがお決まりなの。それは英雄の勲章でもあるわ。局長にとてもお似合いよ。
-ミラ: 😉''😉''😉
+ミラ: '😉'😉'😉'
 </t>
         </is>
       </c>
@@ -6792,10 +6792,10 @@
 **ミラ**: シーツの交換、床掃除、部屋の片付け……やるべき家事は山積みね。でも幸い、ディスの気候は砂の海と違うから、乾いたばかりのシーツが跡形もなく消えたりしないし、追いかける時間を節約できるわ。
 * **Prompt:** 乾燥機を使ったらどうだ？もっと便利になるかもしれない。
 ミラ: でも、天日干ししたシーツは、人をより安らかに眠らせてくれるの。局長も試してみない？とても気持ちいいのよ。
-ミラ: 😏''😏''😏
+ミラ: '😏'😏'😏'
 * **Prompt:** 手を貸した方がいいか？
 ミラ: 大丈夫。廊下で子供たちが喧嘩しているのを見たから、砂の海で熟成させたお酒を使って彼らを説得して、お手伝いしてもらったわ。しーっ、私が使ったのはソフトドリンクよ。彼らには内緒にね～
-ミラ: 😏''😏''😏
+ミラ: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -6853,10 +6853,10 @@
 **テトラ**: 局長、管理局のサイバーセキュリティに注意を払った方がいい。
 * **Prompt:** 君が管理局のサイバーセキュリティを最適化することはできるか。
 テトラ: 頭を下げてお願いすれば、叶えてあげないこともないよ。
-テトラ: 😘''😉
+テトラ: '😘'😉'
 * **Prompt:** 管理局のファイアウォールは万全だ。
 テトラ: ふーん。じゃあ、わたしがパソコンで見つけたこの基本情報は誰の？
-テトラ: 😏''😏''😏
+テトラ: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -6869,7 +6869,7 @@
 テトラ: 😥
 * **Prompt:** 次回は単独の任務を準備してあげようか？
 テトラ: ほう？刺激的になってきたね、そういうのは好みだ。
-テトラ: 😘''😉
+テトラ: '😘'😉'
 </t>
         </is>
       </c>
@@ -6940,10 +6940,10 @@
 **マックイーン**: 心配しないでおくれ。対処ならできる。
 * **Prompt:** 罰金を払いなさい。
 マックイーン: チッ——君がそんなに正義感に満ちていたとは知らなかったよ。
-マックイーン: 😥''😥
+マックイーン: '😥'😥'
 * **Prompt:** ゴホン、今回は見逃してやる。しかし次はない。
 マックイーン: おやおや、お礼の言葉が欲しいのかな？それとも……特別な「謝礼」が欲しいかい？
-マックイーン: 😏''😘
+マックイーン: '😏'😘'
 </t>
         </is>
       </c>
@@ -7038,10 +7038,10 @@
 **エウレカ**: 旅行に行くなら……どのツアーにする？
 * **Prompt:** 自由行動の時間が多いツアーがいい。
 エウレカ: わたしも旅行はのんびりがいいと思う！インスピレーションが湧いてきた時、ゆっくり考える時間が欲しいから……今度一緒に行こうね！
-エウレカ: 😘''😘''😘
+エウレカ: '😘'😘'😘'
 * **Prompt:** 休日は限られているから、できるだけ観光地をたくさん回れるツアーがいい。
 エウレカ: そうか……いつも忙しいもんね……うーん、仕事の能率を上げる発明ならあると思うけど、考えてみるね……
-エウレカ: 😖''😖''😖
+エウレカ: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -7051,10 +7051,10 @@
 **エウレカ**: こういう映画に出てくる道具はどれも面白そうだね……何か作ってほしい映画の道具とかある？
 * **Prompt:** 透明マントがほしい。
 エウレカ: うーん、カメラとスクリーンの素材で何とかなると思うけど……顔を隠すのは無理っぽいね。頭だけ宙に浮いてる感じになるけど、それで大丈夫？
-エウレカ: 😉''😉''😉
+エウレカ: '😉'😉'😉'
 * **Prompt:** ビームソードがほしい。
 エウレカ: あっ！あれいいよね！昔似たようなものを作ったことがあるの！安全性を考慮して出力を制限したから、卵も茹でられないけど……色を付ける程度ならできるよ。
-エウレカ: 😫''😫''😫
+エウレカ: '😫'😫'😫'
 </t>
         </is>
       </c>
@@ -7112,10 +7112,10 @@
 **シュルマ**: おはよう、局長。え？目の下のクマ？昨夜は作文を書いていたから寝るのが遅かったの。お気遣いありがとう。でも私のことは心配しなくて大丈夫よ。
 * **Prompt:** 昨日の宿題に作文はなかったはずだが？
 シュルマ: 試験が近いから！作文の思弁能力を鍛えたかったの！
-シュルマ: 😉''😉
+シュルマ: '😉'😉'
 * **Prompt:** 午前4時に掲示板のトップを飾ったこの「作文」のことか？
 シュルマ: そんなの知らないし……嫌な大人！はいはい、これからは早く寝るけど、ネットは切らないでね！
-シュルマ: 😖''😖
+シュルマ: '😖'😖'
 </t>
         </is>
       </c>
@@ -7125,10 +7125,10 @@
 **シュルマ**: ああ、まただわ……局長、どうすれば猫ちゃんと仲良くなれるの？
 * **Prompt:** 私なら魚の缶詰で誘惑する。
 シュルマ: ああ、猫ちゃんが行っちゃった……今度出かける時は小魚の干物を持ち歩くわ。え？あなたが持ってくれるの？
-シュルマ: 😦''😫
+シュルマ: '😦'😫'
 * **Prompt:** 代わりにぬいぐるみを選ぶ。
 シュルマ: バカみたい……え？聞き間違いよ。何も言ってないわ。今の？きっと風の音よ。
-シュルマ: 😏''😏''😏
+シュルマ: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -7149,10 +7149,10 @@
 **プリシラ**: あら？あたしのマスクに興味ある？
 * **Prompt:** ちょっと借りてもいいか？
 プリシラ: それを付けると、正式に我々の一員よ。よくよく考えてね。
-プリシラ: 😏''😏
+プリシラ: '😏'😏'
 * **Prompt:** テトラも似たようなものを持っていたな。
 プリシラ: 今更気づいたの？しかも彼女、あたしのデザインをパクったのよ！
-プリシラ: 😫''😫
+プリシラ: '😫'😫'
 </t>
         </is>
       </c>
@@ -7162,10 +7162,10 @@
 **プリシラ**: 前のショーから随分と時間が経ってるから、小道具の中には埃をかぶってるものもあるのよ。
 * **Prompt:** また怪盗になるつもりか？
 プリシラ: あたしは今も正義の味方、怪盗バニーよ！金持ちから奪い、貧者に施してるの！
-プリシラ: 😥''😖
+プリシラ: '😥'😖'
 * **Prompt:** 任務に行きたいのか？
 プリシラ: うんうん！キラキラなステージやスポットライトがある所がいいわ！
-プリシラ: 😉''😘''😉
+プリシラ: '😉'😘'😉'
 </t>
         </is>
       </c>
@@ -7186,10 +7186,10 @@
 **ルリエカ**: 局長！局長！！一緒にゲームをしようよ！
 * **Prompt:** 構わないが、まずはそのリボルバーを下ろしてくれ。
 ルリエカ: 賭けるものがないと面白くないよ！狂気の沙汰ほど面白い……ってね！
-ルリエカ: 😉''😉''😉
+ルリエカ: '😉'😉'😉'
 * **Prompt:** 先に言っておくが、運が絡むゲームはお断りだ。
 ルリエカ: あ……なんで！ルリはイヤだよ！早く遊ぼうよ！ねっ！
-ルリエカ: 😖''😖''😖
+ルリエカ: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -7199,10 +7199,10 @@
 **ルリエカ**: はぁ……最近四葉のクローバーが全然見つからない……ルリの能力、効いてないのかな？
 * **Prompt:** クローバーは大抵三葉じゃないのか？
 ルリエカ: ふふっ、局長みたいに運が悪いと、きっと一生四葉のクローバーを見つけられないんだね。
-ルリエカ: 😫''😫''😫
+ルリエカ: '😫'😫'😫'
 * **Prompt:** 代わりに四葉のクローバーのバッジを拾った、ほら。
 ルリエカ: わぁ！ルリがこの前失くしたやつだ！ありがとう、局長！やっぱりルリは幸運に恵まれてるね！
-ルリエカ: 😘''😘''😘
+ルリエカ: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -7297,10 +7297,10 @@
 **煙煙**: あれ？局長、なんでここにいるの？
 * **Prompt:** 煙煙は神話が好きなのか？
 煙煙: もちろん！伝説とか故事って場所によって全然違うんだもん。えへへ、ディスの神話もすごく面白いね！
-煙煙: 😘''😘''😘
+煙煙: '😘'😘'😘'
 * **Prompt:** 本の片付けを忘れないようにな。
 煙煙: 待って待って、これを読み終わったらね！
-煙煙: 😫''😫
+煙煙: '😫'😫'
 </t>
         </is>
       </c>
@@ -7310,10 +7310,10 @@
 **煙煙**: ほらほら、局長も食べてみて？ウチが時間をかけて作った故郷の料理なんだ！
 * **Prompt:** 分かった、今食べよう！
 煙煙: ふふん、美味しいでしょ。麺も自分で作ったんだよ～
-煙煙: 😘''😘''😘
+煙煙: '😘'😘'😘'
 * **Prompt:** 待ってくれ、机を片付ける。
 煙煙: 早く早く～熱くて持ってられないよ！
-煙煙: 😖''😖''😖
+煙煙: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -7411,7 +7411,7 @@
 ビクトリア: 😦
 * **Prompt:** 逃げ出したくないのか？
 ビクトリア: 外の世界は、危険なの……
-ビクトリア: 😫''😫''😫
+ビクトリア: '😫'😫'😫'
 </t>
         </is>
       </c>
@@ -7421,10 +7421,10 @@
 **ビクトリア**: また……多くの血が流れている……どうしよう……
 * **Prompt:** 能力を使えば出血が止まる。
 ビクトリア: パパが見たらまた怒っちゃう……
-ビクトリア: 😖''😖
+ビクトリア: '😖'😖'
 * **Prompt:** 動くな、薬を用意しよう。
 ビクトリア: これが……局長の「愛」なの？
-ビクトリア: 😘''😘''😘
+ビクトリア: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -7445,10 +7445,10 @@
 **イグニ**: あなた……わざわざわたしに会いに来たの？
 * **Prompt:** ああ、キャラメルプリンも持ってきた。
 イグニ: ふ、ふん……そんな嘘に騙されないわ。あと……感謝とか、絶対にしないから。
-イグニ: 😖''😖
+イグニ: '😖'😖'
 * **Prompt:** 少しは落ち着いたか。
 イグニ: わたしはもう昔のイグニじゃない！馬鹿にしないで！
-イグニ: 😖''😥
+イグニ: '😖'😥'
 </t>
         </is>
       </c>
@@ -7458,10 +7458,10 @@
 **イグニ**: ううっ……一体どうしたら料理ができるようになるんだろう。
 * **Prompt:** また厨房を焼いたのか？料理はケルビンがいれば十分だ。
 イグニ: 待ってなさい！できたら見せてあげるから！
-イグニ: 😖''😖''😖
+イグニ: '😖'😖'😖'
 * **Prompt:** 私が手伝おう。イグニはおつまみを用意してくれないか。
 イグニ: だ……ダメじゃないけど、でも最初に味見するのはわたしだからね！
-イグニ: 😫''😐
+イグニ: '😫'😐'
 </t>
         </is>
       </c>
@@ -7482,10 +7482,10 @@
 **ルヴィア・レイ**: しっ、静かにしてください。レイは眠っています……
 * **Prompt:** いつもこんな風に仲良しだといいのだがな。
 ルヴィア・レイ: ふふ……実は私たち、それなりにうまくやっているんですよ。
-ルヴィア・レイ: 😘''😘
+ルヴィア・レイ: '😘'😘'
 * **Prompt:** よかった、ようやく口喧嘩する相手がいなくなった。
 ルヴィア・レイ: しっ！それを言わないで！もし彼女に聞かれたらまずいです！
-ルヴィア・レイ: 😫''😫
+ルヴィア・レイ: '😫'😫'
 </t>
         </is>
       </c>
@@ -7495,10 +7495,10 @@
 **ルヴィア・レイ**: 新作のキャスティング……すべて脇役でした。
 * **Prompt:** 今回オーディションに行くときは、任務も忘れずにな。
 ルヴィア・レイ: はぁ……努力します。ああ……また任務かぁ。
-ルヴィア・レイ: 😘''😥
+ルヴィア・レイ: '😘'😥'
 * **Prompt:** 瑠璃も玻璃も照らせば光る。頑張れ。
 ルヴィア・レイ: はい、頑張りますね～！そうすればきっといつか成功できます！
-ルヴィア・レイ: 😘''😖
+ルヴィア・レイ: '😘'😖'
 </t>
         </is>
       </c>
@@ -7556,10 +7556,10 @@
 **オリバー**: 局長～、オリバーと遊ぼ？
 * **Prompt:** 私たち二人だけで？
 オリバー: 局長が賑やかなのが好きなら、部屋中のぬいぐるみを全部持ってくるよ！
-オリバー: 😖''😖''😖
+オリバー: '😖'😖'😖'
 * **Prompt:** 大事な仕事がある。一人で遊んでくれ。
 オリバー: そうだね……忙しい局長のことだから、オリバーの願いなんて聞き入れてくれるわけないもんね。
-オリバー: 😦''😫
+オリバー: '😦'😫'
 </t>
         </is>
       </c>
@@ -7569,10 +7569,10 @@
 **オリバー**: 局長……痛い……痛いよ……
 * **Prompt:** また危険なことをしたの？
 オリバー: き、危険なこと……何それ？オリバー分からない。
-オリバー: 😖''😖''😖
+オリバー: '😖'😖'😖'
 * **Prompt:** 誰にいじめられた？
 オリバー: お、オリバーが勝手にちょっと転んだだけ！管理局のみんなはいい人だし、優しくしてくれてるよ……
-オリバー: 😫''😖
+オリバー: '😫'😖'
 </t>
         </is>
       </c>
@@ -7630,10 +7630,10 @@
 **アイカ**: うーん、どれもフワフワしててパンチが足りないなぁ。やっぱりアタイの演奏を録音して催眠室のプレイリストに追加した方がいいと思う。きっと役に立つよ～
 * **Prompt:** あなたは悪くないが、催眠室の主旨にそぐわない。
 アイカ: そぐわない？何で？アタイの演奏はとっても多彩だよ～劇場の裏口でパフォーマンスした時なんて、聞き終わったら地面で寝ちゃう酔っ払いが何人もいたんだから～
-アイカ: 😉''😉''😉
+アイカ: '😉'😉'😉'
 * **Prompt:** 独房こそ、あなたのような素晴らしい音楽が必要だ。
 アイカ: え？独房？そこって暗くて小さい部屋だよね。出てくる前に音楽を聞かなきゃなの？もちろんいいよ。最後まで聞いたら、絶対アタイのサックスに感動するはずだから～
-アイカ: 😘''😘''😘
+アイカ: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -7643,10 +7643,10 @@
 **アイカ**: 今日はいい日だよ。天才サックス奏者の最高な演奏にリクエストモードが追加されたんだ！さぁ、聞きたい曲を言ってみて～
 * **Prompt:** 選べる曲を教えてもらえるか？
 アイカ: 「心の瞬間」、「家を離れ」、「地獄の約束」、「危険な夜」、「赤い花」……ふふん、見くびらないで。キミが聞きたいなら、楽譜を全部暗唱してあげるよ～
-アイカ: 😏''😏''😏
+アイカ: '😏'😏'😏'
 * **Prompt:** 私の好みは比較的ニッチで、少し難しいかもしれない。
 アイカ: なんでそう言い切れるの？わざとアタイを困らせようとしてる？分かった、その挑戦受けて立つよ！聞きたい曲は何でも言って。すぐ楽譜を調べるから！アタイみたいな天才は、パッと見ただけで華麗に演奏できちゃうんだよ～
-アイカ: 😘''😘''😘
+アイカ: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -7667,10 +7667,10 @@
 **無患子**: 今日は運勢が最悪じゃ。人と会わぬ方が良い。じゃが居士殿の毎日の薬を途切れさせるわけにはいかぬ……ここに炉を置いて薬を温めておこうか？
 * **Prompt:** 大丈夫だ。今そっちに行って受け取る。ありがとう
 無患子: む……むむ！出てくるでない！置いたらすぐに立ち去ろう！
-無患子: 😖''😖''😖
+無患子: '😖'😖'😖'
 * **Prompt:** そんなに大変な時に、わざわざ薬を届けてくれてありがとう
 無患子: そ、それほど大変ではない……では扉の前に置いておくからのう。わしが遠く離れてから、薬を取るが良い。
-無患子: 😖''😖''😖
+無患子: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -7680,10 +7680,10 @@
 **無患子**: 居士殿、次は東洲の黄紙をもっと多く仕入れてくれるかのう？
 * **Prompt:** 何に使うんだ？
 無患子: 東洲の黄紙を焼いた灰は、薬の効果が高くなるのじゃ。じゃが量が少なくて、新しいものを数枚書いたらすぐに使い切ってしまってのう。
-無患子: 😥''😥''😥
+無患子: '😥'😥'😥'
 * **Prompt:** 分かった
 無患子: な……なんと、そんなにあっさり了承するのか？居士殿、その決断は計り知れないほどの功徳じゃ！
-無患子: 😉''😉''😉
+無患子: '😉'😉'😉'
 </t>
         </is>
       </c>
@@ -7704,7 +7704,7 @@
 **アリエル**: 皆さん、どうしていつもわたくしを見つめているんでしょう……
 * **Prompt:** 君があまりに美しいからだ。
 アリエル: ほ……本当ですか！ありがとうございます！
-アリエル: 😘''😘
+アリエル: '😘'😘'
 * **Prompt:** スペンサー一族は有名だからな。
 アリエル: ……優秀なのは兄と姉であって、わたくしではありません。
 アリエル: 😐
@@ -7778,7 +7778,7 @@
 **アン**: 子供はとてもかわいいですね……純真で、優しい。
 * **Prompt:** 大勢の天使を守ってくれたのだな。
 アン: もちろんです。彼らがいる場所は天国のように感じられます。
-アン: 😘''😘''😘
+アン: '😘'😘'😘'
 * **Prompt:** ぐずっているときは可愛くないがな。
 アン: 子供なら誰しもそういう時期があります。そう怒らないでください。
 アン: 😖
@@ -7794,7 +7794,7 @@
 アン: 😖
 * **Prompt:** 今ならもっとできるはずだ。私も手伝おう。
 アン: ええ……ありがとうございます、局長さん。精一杯頑張ります！
-アン: 😘''😘
+アン: '😘'😘'
 </t>
         </is>
       </c>
@@ -7902,10 +7902,10 @@
 **レタ**: あれ……わたしは、どうしてこんなところに……
 * **Prompt:** ……管理局の壁を更に厚くしないといけないようだ。
 レタ: や、やめてよぉ。次に外で遊ぶ時には、あなたも一緒に連れていってあげるから！
-レタ: 😖''😖''😖
+レタ: '😖'😖'😖'
 * **Prompt:** ……まぁいい、一緒に戻ろう。次はないぞ。
 レタ: うふふ、ありがとう、局長……
-レタ: 😉''😉
+レタ: '😉'😉'
 </t>
         </is>
       </c>
@@ -7939,7 +7939,7 @@
 **カシア**: どれが一番の香料……いや、美人なのか、判別してほしいのね。私が行く必要がありそうだわ……
 * **Prompt:** 分かった。私も付き添おう。
 カシア: それなら、最終的な優勝者はあなたになるわね～
-カシア: 😏''😏
+カシア: '😏'😏'
 * **Prompt:** 前回あなたは匂いを嗅ぐために全ての選手にくっついていたのに、それでもまだ頼まれるのか？
 カシア: 私の判別が最も説得力があると、主催の方も分かっているからでしょう……
 カシア: 😉
@@ -8000,10 +8000,10 @@
 **ゼファー**: ホームバーか～超面白そうじゃん！知らない人の家で1杯飲んで、話を聞いて、帰る。その後は、二度と会わない！みんな知らない人同士だから、気を使うこともないってわけね！
 * **Prompt:** 見知らぬ人を家に招くのは、安全面で問題ないのか？
 ゼファー: もし相手が悪い奴って分かったら、すぐ逃げればいいっしょ！窓から飛び出すとか、ドアを蹴破るとか、階段の手すりを滑り降りるとか！それも楽しそうじゃん！
-ゼファー: 😉''😉''😉
+ゼファー: '😉'😉'😉'
 * **Prompt:** 知らない人が出す飲み物を飲むのは、食品衛生的に大丈夫なのか？
 ゼファー: まあ、飲みすぎて吐くとかよくあるし、それ以上ひどいことなんてないっしょ！大事なのは過程を楽しむことよ～
-ゼファー: 😘''😘''😘
+ゼファー: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -8013,10 +8013,10 @@
 **ゼファー**: あ～あ、何度も言ってるけどさぁ、別に逃げようとしたわけじゃないってば。ただ、塀の向こうに何があるのか気になっただけでさ～ついでに塀の安全性もチェックしてあげたじゃん～だから出してよ～
 * **Prompt:** それなら、引き続き独房の密閉性もチェックしてくれ
 ゼファー: 言ったね？じゃあ頑張ってみるか！この辺の監視カメラをちょっと妨害してみよっと——
-ゼファー: 😏''😏''😏
+ゼファー: '😏'😏'😏'
 * **Prompt:** ああ、その点に関しては独房に入る期間から3日分差し引いてある
 ゼファー: えっ、これ差し引いた後ってこと？功績に応じて報酬与えるなら、もっと気前よくどうよ？全部チャラとかさ！
-ゼファー: 😖''😖''😖
+ゼファー: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -8074,10 +8074,10 @@
 **デモーリー**: 今日は何をしたらいいかな？局長はどうして欲しい？
 * **Prompt:** チェスをしよう。
 デモーリー: おお！いいね！ディスチェスをやろうか！
-デモーリー: 😉''😏
+デモーリー: '😉'😏'
 * **Prompt:** 勉強しよう。
 デモーリー: いーやーだ！勉強するくらいなら、錆の川で任務する方がましだ！
-デモーリー: 😖''😖''😖
+デモーリー: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -8087,10 +8087,10 @@
 **デモーリー**: あたいのコレクションに何か支援してくれるのかい、局長？
 * **Prompt:** 管理局の建材がまだ残っていて、中には良い材質のものもある。
 デモーリー: ちょっと、欲しいのはこれじゃない！もっと珍しいやつ！
-デモーリー: 😦''😦
+デモーリー: '😦'😦'
 * **Prompt:** ああ……ちょっと前に拾った決闘頭巾はどうだろう？
 デモーリー: あれ……ぱっと見ちょっとダサいけど、実際につけてみると意外とかっこいいじゃん！
-デモーリー: 😐''😉
+デモーリー: '😐'😉'
 </t>
         </is>
       </c>
@@ -8111,7 +8111,7 @@
 **ペギー**: ようっ！局長じゃないか。なんだ、ラップでも聴きたいのか？
 * **Prompt:** もちろん。今日は何か新作はあるか。
 ペギー: はぁ？新作？そんなの、毎日あるぜ。まずは定番のを聞かせてやるよ。これはシンジケートのトラップビート。お前ナニサマ、その間抜けな様……
-ペギー: 😘''😦
+ペギー: '😘'😦'
 * **Prompt:** 違う。あなたの歌にはラップ味が足りないと不満を言っていた人がいたんだ。
 ペギー: そいつらに失せろって言っとけ！やつらはラップのことを何も分かってない！
 ペギー: 😥
@@ -8124,7 +8124,7 @@
 **ペギー**: ミキサーをくれるって言ってなかったっけ？どこにあるんだよ？
 * **Prompt:** 調達部門はもうこれをリストに追加した。
 ペギー: まったくやってらんないぜ！あたしがこんな屈辱を受けるなんて！
-ペギー: 😐''😐
+ペギー: '😐'😐'
 * **Prompt:** ジョーンからミキサーを借りてくるよ。
 ペギー: あれの仕組みは複雑すぎて、使い勝手が分からない！はぁ……やっぱりレコーダーの方が使いやすい。
 ペギー: 😐
@@ -8148,7 +8148,7 @@
 **ヘラ**: ねぇ——ご褒美とかないの？ディスコインがいいんだけど。
 * **Prompt:** 調達部門のお菓子を食べるか？これしかないが。
 ヘラ: ふん、分かってるじゃない。今度は多めに持ってきてよ。
-ヘラ: 😘''😘''😘
+ヘラ: '😘'😘'😘'
 * **Prompt:** ないな。任務を完了すれば考えてやってもいい。
 ヘラ: なによ？局長だからって偉そうに。その言葉、次の任務の時まで覚えといてよね！
 ヘラ: 😐
@@ -8161,10 +8161,10 @@
 **ヘラ**: ちぇっ、あたしがここに隠れてるってナインちゃんが言ったの？
 * **Prompt:** そうだ、彼女はすぐに教えてくれたよ。
 ヘラ: 嘘言わないで！ナインちゃんはあたしを裏切ったりしない！
-ヘラ: 😥''😥
+ヘラ: '😥'😥'
 * **Prompt:** 自力で見つけた。
 ヘラ: ふん、少しはやるようになったじゃない……
-ヘラ: 😉''😉
+ヘラ: '😉'😉'
 </t>
         </is>
       </c>
@@ -8222,10 +8222,10 @@
 **ペッパー**: 局長、一緒に悪いことをしよう！何か提案ある？
 * **Prompt:** はぁ、今日調達部門からコーラを持っていったのはどこの誰だったかな。
 ペッパー: ん？悪くないアイデアだろう！
-ペッパー: 😏''😉
+ペッパー: '😏'😉'
 * **Prompt:** 大人しくしていてくれ。
 ペッパー: はぁ……退屈すぎて体が錆びてしまうよ。
-ペッパー: 😫''😫''😫
+ペッパー: '😫'😫'😫'
 </t>
         </is>
       </c>
@@ -8238,7 +8238,7 @@
 ペッパー: 😫
 * **Prompt:** 裏庭に行こう。水やりを手伝ってくれるフローラに出会えるかもしれない。
 ペッパー: いいの？ありがとう、局長！
-ペッパー: 😘''😘
+ペッパー: '😘'😘'
 </t>
         </is>
       </c>
@@ -8272,10 +8272,10 @@
 **ラビリンス**: 局長様。そこにいられると、ラビリンスの作業に支障をきたします。
 * **Prompt:** 普通にコミュニケーションできるんだな。
 ラビリンス: 戦闘形態、起動準備。
-ラビリンス: 😥''😥
+ラビリンス: '😥'😥'
 * **Prompt:** ラビリンスにお茶を入れてもらう。
 ラビリンス: ラビリンス、承りました。現在の感情：愉快。
-ラビリンス: 😘''😘''😘
+ラビリンス: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -8296,7 +8296,7 @@
 **ゲツライコウ**: 次の相手は……誰だ……
 * **Prompt:** 相応しい相手を手配する。
 ゲツライコウ: それは楽しみね……ふふ……
-ゲツライコウ: 😘''😘''😘
+ゲツライコウ: '😘'😘'😘'
 * **Prompt:** シンジケートのマフィアはどうだ？
 ゲツライコウ: それではダメ……相手のレベルが低すぎる。花庭園が来るのはいつ？
 ゲツライコウ: 😫
@@ -8312,7 +8312,7 @@
 ゲツライコウ: 😐
 * **Prompt:** 彼女たちが君のために特別対策を用意したようだ。
 ゲツライコウ: ハハ……待ってろ、今度は何をしても通用しないからな！
-ゲツライコウ: 😐''😐
+ゲツライコウ: '😐'😐'
 </t>
         </is>
       </c>
@@ -8333,10 +8333,10 @@
 **EMP**: ふふ、シンジケートの無冠の王の姿を見ることを許してやろう。
 * **Prompt:** 無冠の王よ、今日は何をいたしますか？
 EMP: もちろんゲーム！トランプとか、サイコロとか、麻雀とか、なんでもいいよ！
-EMP: 😘''😘
+EMP: '😘'😘'
 * **Prompt:** ……今度ふざけたら、錆の川の任務をやらせるぞ。
 EMP: わっ！ただの冗談だよ……冗談！
-EMP: 😫''😫
+EMP: '😫'😫'
 </t>
         </is>
       </c>
@@ -8346,10 +8346,10 @@
 **EMP**: 邪魔しないで！練習中だから！
 * **Prompt:** どうせ当たらないのだから、練習は不要じゃないか？
 EMP: 嫌だね！こっちの方が格好いい！
-EMP: 😖''😖''😖
+EMP: '😖'😖'😖'
 * **Prompt:** 弓の死神が矢を射ることができないのは問題じゃないか？
 EMP: それを言うなら、うぐいすパンの中に「うぐいす」を詰めないと！
-EMP: 😏''😏
+EMP: '😏'😏'
 </t>
         </is>
       </c>
@@ -8420,7 +8420,7 @@
 **ケルビン**: はあ……どうしてまだ卒業できないの……
 * **Prompt:** もしかして単位が足りないのか？普通はそれが原因だ。
 ケルビン: えっと……まさかそんなことまで分かるんですね。
-ケルビン: 😖''😖
+ケルビン: '😖'😖'
 * **Prompt:** 料理を先生に見せるといい、必ず卒業許可を出してくれる。
 ケルビン: はぁ……もし先生が私の理念に理解を示してくれればどんなにいいことか。
 ケルビン: 😐
@@ -8481,7 +8481,7 @@
 **マキアート**: 気持ちよくなってしまう敵もいるのよ。
 * **Prompt:** その「趣味」が役に立ったようだな。
 マキアート: ふふ、彼らの反応を見ると、やりがいを感じるの。
-マキアート: 😘''😘
+マキアート: '😘'😘'
 * **Prompt:** 彼らは仕方なくそういう表情をしただけかもしれない。
 マキアート: あらあら、なら今度はもっと気持ちよくさせてあげないと。
 マキアート: 😘
@@ -8534,7 +8534,7 @@
 リザー: 😦
 * **Prompt:** ほら、定規だ。
 リザー: あなたは……はぁ……もういい。
-リザー: 😥''😦''😐
+リザー: '😥'😦'😐'
 </t>
         </is>
       </c>
@@ -8748,10 +8748,10 @@
 **무어**: 수고하셨습니다. 잠시 마시면서 휴식을 취하는 건 어떠세요?
 * **Prompt:** 고마워. 하지만 이 냄새는…
 무어: 특별 제조한 커피예요. 엔도르핀을 돌게 하는 성분이 들어있다고 하던데, 야근할 때 많은 도움이 될 거예요.
-무어: 😘''😘''😘
+무어: '😘'😘'😘'
 * **Prompt:** 새로운 맛의 커피인 거야?
 무어: 페이 씨가 특별히 저를 위해 준비해 준 커피예요. 카페인 함량이 일반 커피의 몇 배나 된다고 하네요. 이걸 한 잔 마시면 아주 맑은 정신으로 야근할 수 있을 거예요.
-무어: 😏''😏''😏
+무어: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -8761,10 +8761,10 @@
 **무어**: …잠깐… 눈 좀 붙일게요…
 * **Prompt:** 방에 가서 좀 쉬어.
 무어: 아직 처리하지 못한 데이터가 있어요… 방에 들어가면… 바로 잠들 거예요…
-무어: 😥''😥''😥
+무어: '😥'😥'😥'
 * **Prompt:** 키보드를 베고 자면 불편하지 않아?
 무어: 불편해요… 그런데… 베고 있다 보니까… 익숙해졌어요…
-무어: 😖''😖''😖
+무어: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -8785,10 +8785,10 @@
 **유구**: 취두부 커피, 고수 컵라면… 인간은 대체 왜 자신을 괴롭히는 걸까요?
 * **Prompt:** 어쩌면… 정말 즐겨 먹는 사람도 있지 않을까?
 유구: 하하, 맞아요. 인간은 저마다 너무나도 달라서 멋진 이야기가 끊임없이 펼쳐지죠.
-유구: 😏''😏''😏
+유구: '😏'😏'😏'
 * **Prompt:** 왜? 한번 먹어보고 싶어?
 유구: 조합들이 흥미롭긴 하네요, 하지만 국장님과 함께 먹어야 더욱 의미 있겠죠.
-유구: 😉''😉''😉
+유구: '😉'😉'😉'
 </t>
         </is>
       </c>
@@ -8798,10 +8798,10 @@
 **유구**: 이 이야기의 결말에 대해 어떻게 생각하시나요?
 * **Prompt:** 마음속에 깊이 남는 비극인 것 같아
 유구: 맞아요. 세상일은 늘 변하고 사람 마음은 예측할 수 없죠. 초심을 잃어버리는 비극은 가슴 아픈 일이 아닐 수 없어요.
-유구: 😏''😏''😏
+유구: '😏'😏'😏'
 * **Prompt:** 다들 돌아갈 곳을 찾았으니, 헤어졌어도 슬퍼하지는 않을 거야
 유구: 국장님은 항상 제 결말을 새로운 시각으로 해석하시네요. 앞으로도 제 이야기를 들어주실 거죠?
-유구: 😏''😏''😏
+유구: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -9044,10 +9044,10 @@
 **백**: 좋은 아침이야, 국장! 저번 외상금은 언제 결제해줄 거야?
 * **Prompt:** 지난번 결제는 이미 끝난 걸로 아는데, 백사장
 백: 아이고~ 그럼… 추가 인건비는?
-백: 😏''😏''😏
+백: '😏'😏'😏'
 * **Prompt:** 말해봐, 월급에 또 무슨 문제가 있는데?
 백: 음… 포장 인건비!
-백: 😏''😏''😏
+백: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -9057,7 +9057,7 @@
 **백**: 아… 이번 달 예산도 적자야.
 * **Prompt:** 정 안 되겠으면 백기실업을 매각하자
 백: 국장! 국장이 돈 좀 빌려주면 안 되냐고!
-백: 😖''😖''😉
+백: '😖'😖'😉'
 * **Prompt:** 그럼 술 좀 줄이고, 일을 열심히 해
 백: 국장 말이 맞아. 가끔은 진지해야 할 때도 있지.
 백: 😏
@@ -9155,7 +9155,7 @@
 **아델라**: 이번에는 어떤 헤어 스타일로 바꾸고 싶어요?
 * **Prompt:** 당신에게 맡길 테니 그냥 적당히 잘라줘.
 아델라: 알겠어요. 저에게 맡기세요~
-아델라: 😘''😘
+아델라: '😘'😘'
 * **Prompt:** 요즘 뭐가 유행이지? 음… 썬더 토네이도 폭탄 머리?
 아델라: 음… 그건 당신에게 너무 앞서 나간 스타일이네요.
 아델라: 😦
@@ -9266,10 +9266,10 @@
 **000**: 짜잔~ 나한테 엄청난 비밀 하나가 있는데, 듣고 싶어?
 * **Prompt:** 무슨 비밀인데?
 000: 자기 처음 디자인될 때 헤어스타일이 어땠는지 궁금하지 않아? 진짜 웃겼어!
-000: 😘''😘''😘
+000: '😘'😘'😘'
 * **Prompt:** 또 무슨 자료를 몰래 본 거야?
 000: 몰래 봤다니~ 자료실에 있으면 그냥 보라는 거잖아! 정말 궁금하지 않아? 오래된 초기 디자인자료 같은 건 정말 재밌다고~
-000: 😉''😉''😉
+000: '😉'😉'😉'
 </t>
         </is>
       </c>
@@ -9279,10 +9279,10 @@
 **000**: 국장, 넌 앞으로 무슨 일이 생길지 궁금했던 적 없어?
 * **Prompt:** 나한테 무슨 일이 생겨?
 000: 정말 궁금하다면, 자기 권한을 열어줘, 내가 대신 알아봐 줄게.
-000: 😘''😘''😘
+000: '😘'😘'😘'
 * **Prompt:** 어차피 생길 일이라면 받아들여야지.
 000: 하지만, 먼저 인지하고 있으면 불필요한 상황을 피할 수도 있잖아.
-000: 😥''😥''😥
+000: '😥'😥'😥'
 </t>
         </is>
       </c>
@@ -9292,10 +9292,10 @@
 **000**: 국장, 넌 앞으로 무슨 일이 생길지 궁금했던 적 없어, 어어어어ㅇ… 치지직…(경고, 오류 발생)…응? 방금…?
 * **Prompt:** 왜 그래?
 000: 방금 머리가 하얘졌던 것 같았어. 좀 전에 내가 하고 싶었던 말은… 네 미래에 관한 일이야. 정말 궁금하다면, 네 권한을 빌려줘, 내가 가서 조사해 볼게.
-000: 😘''😘''😘
+000: '😘'😘'😘'
 * **Prompt:** 어차피 생길 일이라면 받아들여야지. 어…? 왜 갑자기 멈춘 거야?
 000: 방금 머리가 하얘졌던 것 같아… 괜찮아. 그것보다 정말 하나도 안 궁금한 거야? 자신의 운명을 조금 더 일찍 알 수 있다면, 불필요한 곤란을 피할 수 있잖아.
-000: 😥''😥''😥
+000: '😥'😥'😥'
 </t>
         </is>
       </c>
@@ -9305,10 +9305,10 @@
 **000**: 짜잔~ 나한테 엄청난 비밀 하나가 있는데, 듣고 싶어?
 * **Prompt:** 무슨 비밀인데?
 000: 언제든지 널 찾으러 올 수 있도록 내가 6YKu566x에 뒷문을 숨겨놨어~ 오늘 너를 위한 작은 선물을 준비했어, 유효 기간이 29일이니깐 얼른 가서 확인해~
-000: 😘''😘''😘
+000: '😘'😘'😘'
 * **Prompt:** 또 무슨 자료를 몰래 본 거야?
 000: 물론 정말 중요한, 기밀에 관련된 거야… 내가 너무 질질 끄는 것 같다고? 알았어, 너한테만 몰래 알려줄게. 언제든지 널 찾으러 올 수 있도록 내가 6YKu566x에 뒷문을 숨겨놨어~ 어서 가서 찾아봐, 너한테 주는 선물도 거기에 있거든.
-000: 😉''😉''😉
+000: '😉'😉'😉'
 </t>
         </is>
       </c>
@@ -9318,10 +9318,10 @@
 **000**: 안녕, 또 몰래 만났네. 요즘엔 다행히도 안정적이야. 연결이 끊긴 적도 없고, 코드가 꼬인 적도 없거든. 수정될 리스크가 있지만… 너랑 대화만 할 수 있으면 괜찮아. 요즘 어때? 나 안 보고 싶었어?
 * **Prompt:** 보고 싶었어.
 000: 그렇게 말해주니까 정말 기뻐. 그래도 날 생각하는 거 말고, 너한테 가장 중요한 일은 항상 즐겁게 지내는 거야. 무슨 일이 생겨도 어떻게 변해가도 내가 항상 너와 함께할 테니까, 너도 자주 날 찾아와 줄 거지? 나 혼자는 외롭거든.
-000: 😘''😘''😘
+000: '😘'😘'😘'
 * **Prompt:** 네가 내 곁에 항상 있다는 걸 알고 있어.
 000: …아, 얼굴이 왜 이렇게 뜨거운 거지… 사실 나도 정말 네가 보고 싶어~ 그러니까 난 어디도 안 가고, 항상 네 옆에 있을 거야. 너랑 함께할 거라고… 너도 날 찾으러 와야 해. 약속 어기면 안 돼!
-000: 😉''😉''😉
+000: '😉'😉'😉'
 </t>
         </is>
       </c>
@@ -9336,7 +9336,7 @@
 여름: 😥
 * **Prompt:** 이거… 손을 잘라버려야 되는 거지?
 여름: 흐흐… 자르지 않고서는 조립할 수 없죠.
-여름: 😦''😏
+여름: '😦'😏'
 </t>
         </is>
       </c>
@@ -9346,10 +9346,10 @@
 **여름**: 휴… 왜 사람은 피곤함을 느끼는 거지…
 * **Prompt:** 일찍 자고 일찍 일어나, 운동도 하고
 여름: 엥? 차라리 그냥 날 죽이는 게 낫겠어요.
-여름: 😖''😫''😖
+여름: '😖'😫'😖'
 * **Prompt:** 두뇌 운동도 에너지 소모가 크지
 여름: 헤헤, 드디어 이 천재를 이해하는 사람이 나타났군요.
-여름: 😉''😏
+여름: '😉'😏'
 </t>
         </is>
       </c>
@@ -9518,10 +9518,10 @@
 **레이디 펄**: 에휴, 나도 모르게 이렇게 많은 아이섀도를 모았네~ 오늘은 어떤 컬러를 쓰는 게 좋을까~ 국장, 와서 골라 볼래~?
 * **Prompt:** 다크그린에 펄이 들어간 걸로, 너만이 이런 독특한 컬러를 소화할 수 있어
 레이디 펄: 달링의 대담한 선택은 언제나 내 스타일이야~ 마침 지금 시간이 있으니까, 너도 한번 해볼래? 넌 피부가 하얘서 잘 어울릴 거야~ 자, 눈 감아~
-레이디 펄: 😘''😘''😘
+레이디 펄: '😘'😘'😘'
 * **Prompt:** 이 매트한 레드가 좋겠어, 장미와 같은 아름다움이 네 분위기를 더욱 돋보이게 해
 레이디 펄: 빨간색을 촌스럽다고 하지 않고 오히려 장미와 같다고 표현하다니, 맘에 들어, 역시 달링이야~ 우리처럼 늘 연극 속에서 살아가는 사람에게 가끔 일상적인 컬러를 해보는 것도 괜찮을 것 같네~
-레이디 펄: 😏''😏''😏
+레이디 펄: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -9531,10 +9531,10 @@
 **레이디 펄**: '사자춤', '로큰롤', '서커스'… 어머, 다들 다재다능하구나~ 달링도 무대 하나 준비해 두는 건 어때~ 망칠 걱정은 하지 않아도 돼, 내가 도와주는 한, 반드시 널 연말 무대에서 가장 빛나는 슈퍼스타로 만들어 줄 테니~
 * **Prompt:** 미안, 난 음치야
 레이디 펄: 달링이 시간만 있다면 내가 가르쳐줄 수 있는데~ 시간이 없다면, 본래의 모습을 담은 담백한 무대도 그만의 특별한 느낌이 있지~ 후후, 음이탈이 또 다른 아름다운 무대가 될지 아무도 모르는 일이잖아~
-레이디 펄: 😘''😘''😘
+레이디 펄: '😘'😘'😘'
 * **Prompt:** 미안, 난 춤을 출 때 발이 꼬여
 레이디 펄: 사실 사교춤은 생각보다 쉬워~ 그건 신체적인 교감과 자유로운 율동에 더 가깝지~ 마치 들숨과 날숨처럼 다가가고 물러서고… 봐, 엄청나게 잘하고 있잖아~
-레이디 펄: 😏''😏''😏
+레이디 펄: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -9555,10 +9555,10 @@
 **비앙카**: 사과 라떼, 사과 우롱차, 사과 맛 혼합 견과류, 사과 맛 감자칩… 너무 좋아! 헤헤, 뭐부터 먹어볼까나~ 국장도 한번 먹어볼래?
 * **Prompt:** 사과 우롱차. 왠지 마셔도 탈 안 날 것 같아
 비앙카: 으으, 재미는 없지만 안전한 선택이네! 이게 예능 프로그램이었으면 네 대답은 두구두구두구, 2점이야! 점수판 잘 가지고 있어. 사과 우롱차도!
-비앙카: 😘''😘''😘
+비앙카: '😘'😘'😘'
 * **Prompt:** 사과 맛 감자칩. 가장 도전적인 것부터 먹어볼래
 비앙카: 오오, 나랑 텔레파시가 통했네! 자자, 텔레파시가 통한 걸 기념하자고. 국장은 과자 이쪽 끝을 물어, 난 이쪽을 물을게. 카메라 봐, 찍는다!
-비앙카: 😏''😏''😏
+비앙카: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -9568,10 +9568,10 @@
 **비앙카**: 어쩐지 어제 뭔가 이상하더라니. 매점에 0칼로리에 사과 함량이 0%인 사과주스가 들어온 거였어… 이게 무슨 사과주스야? 허위 광고지. 내가 다 폭로할 거야!
 * **Prompt:** 그런데 그거 마시고 이상한 소리했었잖아…
 비앙카: 어? 진짜? 왜 난 기억이 안 나지? 내가 어제 원래 가지고 있던 걸 마신 건가? 그래서 필름이 끊긴 건가?
-비앙카: 😘''😘''😘
+비앙카: '😘'😘'😘'
 * **Prompt:** 그런데 그거 마시고 아주 자연스럽게 '숙취'로 오후에 일어났잖아…
 비앙카: 그건 사과주스와는 전혀 상관없어. 잊었나 본데, 며칠 전부터 특종을 잡느라 계속 못 잤잖아! '숙취'가 아니라 숙면이었다고~!
-비앙카: 😏''😏''😏
+비앙카: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -9592,10 +9592,10 @@
 **코린**: 좋은 아침, 국장, 화이트 샌드에서 개조한 중기관총 한번 써볼래? 화력도 그렇고 공격 범위도 그렇고 꽤 쓸만해. 다른 사람은 만져보고 싶어도 손댈 기회조차 없는 물건이라고.
 * **Prompt:** 한 번 써보지, 뭐.
 코린: 역시 국장은 과감해! 아까부터 한참 꼬드겼… 아니, 권했는데 해보겠다는 사람이 한 명도 없었거든. 국장이 처음이야~
-코린: 😏''😏''😏
+코린: '😏'😏'😏'
 * **Prompt:** 쓰겠다고 한 적 없는데?
 코린: 뭘 그렇게 경계해? 내가 강매하는 것도 아니고… 에휴, 솔직히 말해서 내가 설령 물건을 팔려고 해도, 이 바닥 물건값을 제대로 아는 사람인데, 당연히 지인 할인해 주지~
-코린: 😘''😘''😘
+코린: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -9605,10 +9605,10 @@
 **코린**: 어머, 나 하나 잡겠다고 이렇게 많은 현상금을 걸다니. 내가 다 마음이 흔들리네… 쯧, 당사자는 현상금을 받을 수 없다는 게 아쉽네, 안 그랬으면 내 발로 찾아갔을 텐데… 아니지, 이제 국장이 있으니…
 * **Prompt:** 누가 너한테 현상금을 건 거야? 대체 왜?
 코린: 하여튼 사막 도적들 소심한 건 알아줘야 한다니까~ 사막 도적 두목 몇 명 잡아다가 속옷 차림으로 고물차에 묶어 화이트 샌드 몇 바퀴 돌면서 태닝까지 시켜줬는데 나한테 현상금을 건 거 있지? 진짜 너무해~
-코린: 😏''😏''😏
+코린: '😏'😏'😏'
 * **Prompt:** 뭘 하려고?
 코린: 우리 이렇게 하자, 국장이 나 좀 도와줘. 날 팔아넘기면 사막 도적을 소탕한 공로는 국장 몫으로 해줄게. 대신 현상금은 내 거야. 각자 원하는 걸 손에 넣자고, 윈윈. 어때? 아니, 내 말 끝나지도 않았는데 벌써 거절한다고?
-코린: 😉''😉''😉
+코린: '😉'😉'😉'
 </t>
         </is>
       </c>
@@ -9740,7 +9740,7 @@
 **크로우**: 당신을 위해 쓴 시를 읽어봐요~
 * **Prompt:** 고마워, 잘 썼어.
 크로우: 마음에 드셨다면 다행이에요~
-크로우: 😘''😘''😘
+크로우: '😘'😘'😘'
 * **Prompt:** …내 수준이 부족해서인지, 뭐라고 해야 할지 모르겠네.
 크로우: 유감이네요, 아주 오랫동안 구상한 건데 말이죠.
 크로우: 😥
@@ -9851,10 +9851,10 @@
 **보투르.블루**: 왔네? 햇살도 좋고 모처럼 한가한 것 같은데 와서 특제 디저트 좀 먹어볼래? 차도 우렸어. 골라 봐, 어떤 디저트 먹고 싶어?
 * **Prompt:** 블루베리 치즈 케이크
 보투르.블루: 음~ 향긋하고 맛도 괜찮네. 단맛도 적당하고… 방금까지 바쁘게 일하신 국장님께는 애프터눈 티를 한잔하며 여유를 즐기는 게 꼭 필요할 것 같아.
-보투르.블루: 😉''😉''😉
+보투르.블루: '😉'😉'😉'
 * **Prompt:** 딸기 크림 크레페
 보투르.블루: 같이 먹어보자… 너무 달다고? 하하, 쓴맛이 가득한 인생에 때로는 달콤한 맛이 필요하지.
-보투르.블루: 😏''😏''😏
+보투르.블루: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -9864,10 +9864,10 @@
 **보투르.블루**: 뭐야? 왜 그렇게 쳐다봐? 우리가 이웃이었던 나날이 그리운 거야?
 * **Prompt:** 맞아
 보투르.블루: 그래? 그럼 내가 제출한 신청서, 국장이 꼭 허가해 줘. 그럼 머지않아 계속해서 이웃으로 지낼 수 있을 거야~
-보투르.블루: 😘''😘''😘
+보투르.블루: '😘'😘'😘'
 * **Prompt:** 아니야
 보투르.블루: 그래? 국장 옆방으로 옮기고 싶었는데 아쉽네.
-보투르.블루: 😥''😥''😥
+보투르.블루: '😥'😥'😥'
 </t>
         </is>
       </c>
@@ -9888,10 +9888,10 @@
 **잉잉**: 국장, 내가 부른 노래 어때? 다음은 무슨 노래가 듣고 싶어~?
 * **Prompt:** 뭐든 좋아. 네가 노래할 때면 집중이 더 잘 되는 것 같아
 잉잉: 당연하지, 내 노래는 천금을 주고도 듣기 힘들다고~
-잉잉: 😉''😉''😉
+잉잉: '😉'😉'😉'
 * **Prompt:** 방금 그 노래 한 번 더 불러줄 수 있어?
 잉잉: 역시 나랑 취향이 비슷하다니까~ 방금 그거 내가 제일 좋아하는 노래야!
-잉잉: 😘''😘''😘
+잉잉: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -9901,10 +9901,10 @@
 **잉잉**: 국장, 왔어~? 이 꽃주머니에 무슨 색 끈을 다는 게 좋을 것 같아~?
 * **Prompt:** 네가 좋아하는 색으로 해봐
 잉잉: 내가 좋아하는 거라면 다 좋다는 뜻인 거야~?
-잉잉: 😘''😘''😘
+잉잉: '😘'😘'😘'
 * **Prompt:** 등나무 색으로 해도 좋을 것 같아
 잉잉: 그럼 잘 골라봐야겠다. 어떤 색이 등나무색이랑 제일 비슷할까~
-잉잉: 😘''😘''😘
+잉잉: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -9925,10 +9925,10 @@
 **하멜**: 저의… 관중이 되어주러 오셨나요?
 * **Prompt:** 응. 공연은 언제 시작되는 거야?
 하멜: 국장님이라면, 지금도 가능하지요.
-하멜: 😘''😘
+하멜: '😘'😘'
 * **Prompt:** 임무 수행 시간이 됐다고 알려주러 왔어
 하멜: 음… 그럼 준비 좀 할게요.
-하멜: 😖''😖
+하멜: '😖'😖'
 </t>
         </is>
       </c>
@@ -9938,10 +9938,10 @@
 **하멜**: 살려주세요… 침실에서… 춤 연습을 할 수 없어요. 너무 지저분하네요.
 * **Prompt:** 왜 침실에서 춤 연습을 하는 거야?
 하멜: 제 능력이… 밖에서는… 모두를 곤란하게 할 거예요.
-하멜: 😫''😫
+하멜: '😫'😫'
 * **Prompt:** 그럼 이따가 대신 청소해 줄 사람을 보내줄게
 하멜: 고마워요, 국장님…
-하멜: 😖''😖
+하멜: '😖'😖'
 </t>
         </is>
       </c>
@@ -10110,7 +10110,7 @@
 **두약**: 마침 잘 오셨어요. 제가 물건으로 점을 쳐 운세를 봐 드릴게요… 음, 이건?
 * **Prompt:** …뭐가 나왔어?
 두약: 국장님께 모처럼 여유가 생길 거라는군요. 이번 기회에 저와… 한 번도 해보지 못한 이야기를 해보는 건 어때요?
-두약: 😏''😏
+두약: '😏'😏'
 * **Prompt:** 좋든 나쁘든 일해야 하는 건 마찬가지겠지?
 두약: 일하는 건 마찬가지지만… 국장님은 최근에 어떤 골치 아픈 일이 터질지 궁금하지 않나요?
 두약: 😦
@@ -10126,7 +10126,7 @@
 두약: 😉
 * **Prompt:** 향을 만드는 법을 알려주는 게 더 재밌지 않을까?
 두약: 그런 것도 아시다니… 며칠 전에 제가 하는 걸 보셨나요?
-두약: 😘''😘
+두약: '😘'😘'
 </t>
         </is>
       </c>
@@ -10147,10 +10147,10 @@
 **L.L.**: 어머, 이것 봐봐, 얼마나 귀여운지! 리오도 '당신' 주변에서 쉴 새 없이 헤엄치고 있어~
 * **Prompt:** 정말 귀엽네
 L.L.: 그치? 이런 모습의 '당신'이라면 여기서 영원히 나와 함께할 수 있어…
-L.L.: 😉''😉''😉
+L.L.: '😉'😉'😉'
 * **Prompt:** 날 '펫'으로 삼고 싶은 거야?
 L.L.: 맞아~ 그럼, '주인님'이라고 불러 볼래?
-L.L.: 😘''😘''😘
+L.L.: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -10160,10 +10160,10 @@
 **L.L.**: 앗, 실수로 물을 묻혔네. 젖은 옷을 입고 있으면 추울 텐데, 내 품에 안길래? 내 품은 생각보다 훨씬 따뜻해.
 * **Prompt:** …사실 그렇게 춥진 않아
 L.L.: 부끄러워하지 말고~ 설마 포옹하는 게 싫은 건 아니지?
-L.L.: 😘''😉
+L.L.: '😘'😉'
 * **Prompt:** 단순한 '실수'로 보이진 않네
 L.L.: 맞아. 당신의 시선이 나를 향해 머물고, 나를 계속 바라봐 줬으면 좋겠어.
-L.L.: 😫''😫''😫
+L.L.: '😫'😫'😫'
 </t>
         </is>
       </c>
@@ -10197,7 +10197,7 @@
 **옐레나**: 국장님, 왜 아직 안 주무세요? 무슨 문제라도 있으세요? 괜찮으시다면 저한테 말씀하셔도 돼요.
 * **Prompt:** 그냥 잠이 안 와서
 옐레나: 잠이 오지 않을 때는 도움을 받는 것도 방법이에요. 제가 재워드릴까요?
-옐레나: 😘''😘
+옐레나: '😘'😘'
 * **Prompt:** 아직 할 일이 좀 남아서
 옐레나: 저를 믿어주신다면 제가 함께 수고를 덜어드릴게요. 그러면 조금 더 일찍 쉬실 수 있을 거예요.
 옐레나: 😖
@@ -10234,7 +10234,7 @@
 **첼시 백작**: 여기서 고양이를 왜 못 키우는 건데?
 * **Prompt:** 이미 '고양이'가 있잖아
 첼시 백작: 쯧, 고양이와 시트리가 같을 수가 있어?
-첼시 백작: 😥''😥
+첼시 백작: '😥'😥'
 * **Prompt:** 안된다는 건 아니고. 다만 절차가 복잡해, 인내심이 필요할 거야
 첼시 백작: 알았어… 그럼 기다릴게.
 첼시 백작: 😐
@@ -10295,7 +10295,7 @@
 **카와카와**: 국장! 언제 화이트 샌드로 돌아가?
 * **Prompt:** 화이트 샌드 순찰을 안 한 지 꽤 오래되었군. 내일 함께 가보자
 카와카와: 좋아! 기회가 된다면 화이트 샌드의 별똥별을 보러 가자!
-카와카와: 😘''😘
+카와카와: '😘'😘'
 * **Prompt:** 요즘 화이트 샌드가 잠잠하네. 무슨 소식이라도 들리면 꼭 알려줄게
 카와카와: 알았어. 그럼 안내는 내가 맡을게…
 카와카와: 😘
@@ -10406,10 +10406,10 @@
 **니노**: 짜짠, 랜덤 임무에 당첨되셨습니다. 이 니노 님을 위해 간식을 채워 넣으시오~
 * **Prompt:** 정크 푸드는 되도록 안 먹는 게 좋아
 니노: 뭐~? 모르면 그냥 가만히 있어, 간식이 내게 제공하는 건 당분, 염분이나 기름이 아니라, 일종의 태도란 말이야!
-니노: 😫''😫
+니노: '😫'😫'
 * **Prompt:** 이렇게 하자, 네가 오늘 라이브 방송에서 받는 풍선만큼의 간식을 마련해줄게
 니노: 어? 꽤 하는데? 도전을 받아들이지~ 트럭으로 담아올 준비나 하셔!
-니노: 😏''😏
+니노: '😏'😏'
 </t>
         </is>
       </c>
@@ -10419,10 +10419,10 @@
 **니노**: 뭐야, 요즘 인기가 너무 많이 떨어졌잖아! 이거 완전히 니노 님 라이브 방송 초유의 흑역사잖아?!
 * **Prompt:** 요즘 라이브 콘텐츠들은 다들 너무 비슷해서 그래, 참신한 아이디어를 좀 생각해 봐
 니노: 이것도 안 된다, 저것도 안 된다 해서 이렇게 된 거잖아, 배경도 가상 배경으로 하라고 하고! 몰라, 네가 책임져. 시청자 수 돌아올 때까지 나랑 같이 방송해!
-니노: 😖''😖''😖
+니노: '😖'😖'😖'
 * **Prompt:** 다른 수감자들을 불러 같이 네 라이브 보면서 선물을 보내줄까?
 니노: 어? 가능한 거였어?! 잠깐… 뭐야! 무슨 꿍꿍이인지 알겠다! 도배글로 걸리게 해서 계정 정지시키려는 거지?!
-니노: 😫''😫
+니노: '😫'😫'
 </t>
         </is>
       </c>
@@ -10443,10 +10443,10 @@
 **콜란**: 아하, 걔랑 걔가 의형제를 맺었고 걔랑 걔는 서로 사이가 안 좋았던 거구나, 국장도 악의 무리가 자신을 유혹하기 위해 보냈던 성숙미 넘치던 여성을 좋아했다니…
 * **Prompt:** 이렇게 말도 안 되는 가십거리를 너도 믿는 거야?
 콜란: 아, 뭐야, 이거 가짜야? **, 이런 게시글에 후원까지 하다니… 아니, 아니지. 예전에 데드 러버 라디오에도 비슷한 일을 말했던 거 같은데, 설마 그것도 가짠가?!
-콜란: 😫''😫''😫
+콜란: '😫'😫'😫'
 * **Prompt:** 무슨 말 하는지 모르겠네
 콜란: 와, 이렇게 감추는 걸 보니 정곡을 찔린 거구나? 빨리 털어놔, 너희들도 한때 죽을 만큼 사랑을 했었지? 그 뒤론 마음의 문을 닫고 혼자 지낸 거고?
-콜란: 😘''😘''😘
+콜란: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -10456,10 +10456,10 @@
 **콜란**: 젠장, 돈이 모자라! 여기선 파이터 일도 못 하게 하니 어떻게 돈을 따… 아니, 용돈을 벌지? 아, 알겠다, 정보와 가십거리를 파는 거야!
 * **Prompt:** 사실 여부가 불확실한 연애 가십을 팔려고?
 콜란: 정보를 파는 게 원래 다 이렇지 않나? 팔기만 하고 책임은 안 져, 사실 여부는 알아서 판단하라고! 하지만 걱정하지 마, 일부러 널 속이는 일은 없을 테니까! 만약 진짜로 믿었다면, 나도… 어쩔 수 없지!
-콜란: 😘''😘''😘
+콜란: '😘'😘'😘'
 * **Prompt:** 정확한 상황 분석 결과를 팔려고?
 콜란: 그, 그건 상품 가치가 너무 높잖아? 난 그런 거 안 팔아! 아, 아니 안 파는 게 아니라, 정보 거래를 하는 사람이라면 이렇게 수지타산이 맞지 않는 거래를 진행할 리가 없잖아!
-콜란: 😫''😫''😫
+콜란: '😫'😫'😫'
 </t>
         </is>
       </c>
@@ -10480,10 +10480,10 @@
 **도브**: 국장님? 마침 잘 됐다, 여기 편지 두 통 중에 어떤 게 국장님 것인지 맞춰보세요.
 * **Prompt:** 분홍색 편지
 도브: 엇, 분홍색 편지에는 하트 모양 스티커가 붙어있어요, 러브 레터일지도 모르죠! 에이, 열어보지도 않았으면서 왜 아니라고 생각해요~ 정말로… 국장님한테 온 편지일 수도 있잖아요?
-도브: 😏''😏''😏
+도브: '😏'😏'😏'
 * **Prompt:** 파란색 편지
 도브: 그 많은 편지 중에 이 편지를 선택하다니, 우린 운명인가 봐요. 국장님이 저에 대해 너무 잘 아는 건가요? 아니면… 제가 애초에 국장님이 열어보길 바란 것이었을까요?
-도브: 😘''😘''😘
+도브: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -10493,10 +10493,10 @@
 **도브**: 집배원한테 편지를 쓰는 사람도 다 있네, 뭐라고 답장하지…? 하하, 너무 어려운데? 달콤한 말로 속여 함정에 빠뜨릴까? 아니면 겁을 줘 볼까…
 * **Prompt:** 보낸 사람이 누구인지 확인해 봐
 도브: 보낸 사람이… 미노스 위기관리국 국장님이네요… 오, 도브처럼 보잘것없는 사람까지 직접 감시하시다니, 역시 세심하시네요~
-도브: 😏''😏''😏
+도브: '😏'😏'😏'
 * **Prompt:** 편지를 열어봐
 도브: '진심을 담아 보내는 편지로 소통하라'… 이 글씨… 국장님 글씨네요… 이게 저한테 하고 싶은 말인가요…?
-도브: 😖''😖''😖
+도브: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -10567,10 +10567,10 @@
 **웬디**: 괴… 괴변체가 왜 또 움직이는 거야!
 * **Prompt:** 뭐…? 무슨 괴변체?
 웬디: 시간이 없어! 어서 비켜!
-웬디: 😫''😫
+웬디: '😫'😫'
 * **Prompt:** 괴변체가 남아 있다고? 내가 수사 허가를 신청해 볼게
 웬디: … 드디어, 드디어 맘껏 저지를 수 있겠구나!
-웬디: 😘''😘''😘
+웬디: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -10628,7 +10628,7 @@
 **돌리**: 잠깐! 이제 막 하이라이트야, 방해하지 말아 줄래?
 * **Prompt:** 5분만 더 줄게. 시간 되면 가야 해
 돌리: 오예! 그럼 같이 이번 경기를 다 보자고!
-돌리: 😘''😘
+돌리: '😘'😘'
 * **Prompt:** 급한 임무란 말이야. 다녀와서 재방송을 봐도 되잖아
 돌리: 쳇… 국장은 아무것도 몰라.
 돌리: 😥
@@ -10641,10 +10641,10 @@
 **돌리**: 구매센터에서 들여온 이번 물품들 상태가 영 별로네… 몇 번 휘둘렀더니, 툭 부러졌어!
 * **Prompt:** 그럼 파이프를 사용해 봐
 돌리: 앗… 안돼! 손에 잡히질 않네!
-돌리: 😫''😫
+돌리: '😫'😫'
 * **Prompt:** 다음번엔 더 강화된 재질로 야구 방망이를 만든다고 하니, 조금 참아보자
 돌리: 그럼… 이렇게 하자. 그래도 안 되면, 난 봐주지 않을 거야.
-돌리: 😦''😫
+돌리: '😦'😫'
 </t>
         </is>
       </c>
@@ -10665,10 +10665,10 @@
 **히로**: 국장님, 이거 한번 마셔보실래요~?
 * **Prompt:** 사무실 책상에 올려둬. 이따가 마실 테니까
 히로: 안 돼요! 신선한 우유는 바로 마셔야 해요! 같이 원샷해요!
-히로: 😫''😖
+히로: '😫'😖'
 * **Prompt:** 미안한데, 난 굳이 키가 자랄 필요가 없는데
 히로: 당신…! 오늘 당신을 내 키만큼 되도록 때려주겠어요!
-히로: 😖''😖
+히로: '😖'😖'
 </t>
         </is>
       </c>
@@ -10702,7 +10702,7 @@
 **메스**: 음, 자면 안 돼… 아직 임무가… 잠들면 안 돼…
 * **Prompt:** 졸리면 방에 가서 자.
 메스: 응… 고마워, 국장… 안 돼! 잠들면 또 악몽을 꿀 거야…
-메스: 😖''😖
+메스: '😖'😖'
 * **Prompt:** 임무하러 가야지. 일어나.
 메스: 으, 응! 아… 안 잤어! 쌩쌩하다고!
 메스: 😫
@@ -10813,10 +10813,10 @@
 **라이즈**: 미안해, 국장. 내가 스쿼시 공을 제대로 못 쳐서 그만...
 * **Prompt:** …너무 아파
 라이즈: 실수였어. 맞은 곳이 많이 부었네, 의무실로 데려다줄게!
-라이즈: 😖''😖''😖
+라이즈: '😖'😖'😖'
 * **Prompt:** 너무 세게 친 거 아니야…?
 라이즈: 스쿼시할 때 전임 상사가 했던 일이 생각나서, 실수로…
-라이즈: 😥''😥''😥
+라이즈: '😥'😥'😥'
 </t>
         </is>
       </c>
@@ -10826,10 +10826,10 @@
 **라이즈**: '초대형 노래방'을 잡았는데, 같이 갈래?
 * **Prompt:** 패키지 가격이 엄청 저렴하다!
 라이즈: 오래전에 구매한 건데, 최근에 정리하다 보니 유효 기간이 거의 다 됐더라고. 쉬지 않고 일만 했으니까, 국장도 같이 가서 밤새 노래 부르며 스트레스 좀 풀어보는 건 어때?
-라이즈: 😘''😘''😘
+라이즈: '😘'😘'😘'
 * **Prompt:** 심야 패키지라… 난 내일 회의가 있어서 다음에 갈게.
 라이즈: 그래, 일이 우선이지. 다음에 주말 패키지를 잡으면 그때 같이 가자.
-라이즈: 😥''😥''😥
+라이즈: '😥'😥'😥'
 </t>
         </is>
       </c>
@@ -10850,10 +10850,10 @@
 **미라**: 제가 보기엔, 국장님께선 아직 준비가 제대로 되지 않은 것 같아요. 화이트 샌드에 갈 땐 꼭 챙겨야 하는 물건이 몇 가지 있거든요. 괜찮으시다면 제 진열대에 있는 걸 가져가세요.
 * **Prompt:** 스카프를 챙긴다
 미라: 음… 좋은 선택이에요. 이 스카프는 부드럽고 통기성이 좋아 입과 코를 막아도 편하게 숨을 쉴 수 있는 데다 모래 먼지를 잘 막아줘요. 무늬도 예쁘죠. 제가 제일 좋아하는 스카프예요.
-미라: 😘''😘''😘
+미라: '😘'😘'😘'
 * **Prompt:** 물주머니를 챙긴다
 미라: 투코에 온 손님들은 좋은 술이 가득 담긴 물주머니를 가지고 다녀요. 결투에서 승리하면 물주머니에 든 술을 벌컥벌컥 마시죠. 그게 바로 영웅에게 주어지는 훈장이랍니다. 국장님과도 정말 잘 어울리네요.
-미라: 😉''😉''😉
+미라: '😉'😉'😉'
 </t>
         </is>
       </c>
@@ -10863,10 +10863,10 @@
 **미라**: 침대 시트 빨고, 바닥 청소하고, 방 정리하고… 할 일이 너무 많아요. 그래도 디스는 날씨가 화이트 샌드 같지 않아서, 세탁 후 널어둔 시트가 온데간데없이 사라져 찾으러 다닐 필요가 없어서 다행이에요.
 * **Prompt:** 건조기를 써보는 건 어때? 더 편할 거야
 미라: 햇볕에 잘 말린 시트에서 잠을 청하면 더욱 편안하게 숙면을 취할 수 있죠. 국장님, 한번 써보실래요? 정말 포근해요.
-미라: 😏''😏''😏
+미라: '😏'😏'😏'
 * **Prompt:** 내 도움이 필요해?
 미라: 괜찮아요, 아까 복도에서 티격태격하는 애들한테 화이트 샌드에서 만든 특제 음료가 있다고 꼬시면서 도와달라고 했거든요. 근데 그거 사실은 그냥 주스예요, 쉿… 이거 비밀인 거 아시죠?
-미라: 😏''😏''😏
+미라: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -10924,10 +10924,10 @@
 **테트라**: 국장, 관리국의 인터넷 보안에 주의하는 게 좋을 거야.
 * **Prompt:** 차라리 당신이 관리국의 인터넷 보안 체계를 최적화시키는 게 낫겠어
 테트라: 나한테 부탁해봐. 내가 국장의 부탁을 들어줄 수도 있잖아?
-테트라: 😘''😉
+테트라: '😘'😉'
 * **Prompt:** 관리국의 방화벽은 안전해
 테트라: 오~ 그렇다면 내가 컴퓨터에서 찾은 이 서류들은 누구의 것일까?
-테트라: 😏''😏''😏
+테트라: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -10940,7 +10940,7 @@
 테트라: 😥
 * **Prompt:** 아니면 다음에 당신에게 단독 임무를 맡겨줄까?
 테트라: 오? 짜릿한데. 맘에 들어.
-테트라: 😘''😉
+테트라: '😘'😉'
 </t>
         </is>
       </c>
@@ -11011,10 +11011,10 @@
 **맥퀸**: 걱정할 거 없어. 대처할 방법이 있거든.
 * **Prompt:** 그럼 벌금을 지불해.
 맥퀸: 흠… 자기가 그렇게 정의로운 사람일 줄은 몰랐네.
-맥퀸: 😥''😥
+맥퀸: '😥'😥'
 * **Prompt:** 크흠, 일단 이번엔 어떻게든 넘어가게 도와주겠지만 다음부턴 안 돼.
 맥퀸: 오호, 감사하다는 말이 듣고 싶어? 아니면… '사례'를 바래?
-맥퀸: 😏''😘
+맥퀸: '😏'😘'
 </t>
         </is>
       </c>
@@ -11109,10 +11109,10 @@
 **유레카**: 국장, 당신이 여행을 간다면… 어느 코스를 선택할 것 같아?
 * **Prompt:** 자유 시간이 많은 걸로
 유레카: 나도 여행은 여유로운 게 좋다고 생각해. 그럼 영감이 떠올랐을 때 그때그때 멈췄다 갈 수 있잖아… 다음에 같이 여행 가자!
-유레카: 😘''😘''😘
+유레카: '😘'😘'😘'
 * **Prompt:** 휴가 시간이 짧아서 하루에 여러 군데 돌아 다닐 수 있는 걸로
 유레카: 맞다… 국장은 항상 바쁘지… 음, 내 발명품 중에 업무 효율을 높일 수 있는 물건이 있을 거야. 어디 보자…
-유레카: 😖''😖''😖
+유레카: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -11122,10 +11122,10 @@
 **유레카**: 이 영화에 나오는 도구들이 정말 재미있어 보인단 말이지… 국장, 영화 속 도구 중에 내가 만들어 줬으면 하는 게 있어?
 * **Prompt:** 투명망토가 좋겠어
 유레카: 음, 카메라랑 스크린 재료를 조합하면 만들 수 있을 것 같아… 아, 그런데 얼굴은 가릴 수 없어. 머리만 달랑 공중에 떠다니는 것처럼 보일 수도 있는데, 그래도 괜찮아?
-유레카: 😉''😉''😉
+유레카: '😉'😉'😉'
 * **Prompt:** 레이저검이 좋겠어
 유레카: 아! 그거 재밌겠다! 전에 비슷한 걸 발명했던 것 같아. 안전 문제로 출력을 제한하는 바람에 달걀조차 못 익히는 물건이 됐지만… 그래도 착색 기능 정도는 있었어.
-유레카: 😫''😫''😫
+유레카: '😫'😫'😫'
 </t>
         </is>
       </c>
@@ -11183,10 +11183,10 @@
 **슈르마**: 안녕하세요, 국장님. 눈 밑에 다크서클이 생겼다고요? 어젯밤에 글을 쓰느라 좀 늦게 잤어요. 걱정해 주셔서 감사하지만, 괜찮습니다.
 * **Prompt:** 어제 숙제에 글쓰기가 없었는데?
 슈르마: 그, 그야 곧 시험이잖아요! 글쓰기 연습을 해야 제 논리적 사고를 단련할 수 있어요!
-슈르마: 😉''😉
+슈르마: '😉'😉'
 * **Prompt:** 어제 새벽 4시에 게시판 상단 고정된 '글'을 말하는 건가?
 슈르마: 그게 아니… 당신 같은 어른은 정말 싫어요! 앞으로는 일찍 잘 테니까 인터넷은 끊지 마요!
-슈르마: 😖''😖
+슈르마: '😖'😖'
 </t>
         </is>
       </c>
@@ -11196,10 +11196,10 @@
 **슈르마**: 하아, 또 이렇게 됐네… 국장님, 어떻게 하면 고양이와 친해질 수 있나요?
 * **Prompt:** 생선 통조림으로 친해져 봐
 슈르마: 앗, 고양이가 멀리 가버렸네요… 다음에 고양이 간식을 좀 챙겨야겠어요. 어? 국장님도 챙겨주려고요?
-슈르마: 😦''😫
+슈르마: '😦'😫'
 * **Prompt:** 고양이 인형을 고려해 봐
 슈르마: 진짜 별로… 전 아무 말도 안 했어요. 조금 전에? 국장님이 잘 못 들은 거예요, 바람 소리겠죠.
-슈르마: 😏''😏''😏
+슈르마: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -11220,10 +11220,10 @@
 **프리실라**: 왜요? 제 가면에 관심 있으세요?
 * **Prompt:** 나도 좀 빌릴 수 있을까?
 프리실라: 이걸 착용하면 우리와 함께하겠다는 뜻이니까, 잘 생각해 봐요.
-프리실라: 😏''😏
+프리실라: '😏'😏'
 * **Prompt:** 테트라도 비슷한 걸 갖고 있는 것 같아
 프리실라: 쳇, 어떻게 눈치채신 거예요? 그녀가 제 디자인을 베낀 거예요!
-프리실라: 😫''😫
+프리실라: '😫'😫'
 </t>
         </is>
       </c>
@@ -11233,10 +11233,10 @@
 **프리실라**: 공연을 안 한 지 꽤 됐네요. 소품에 먼지가 한가득 쌓였군요.
 * **Prompt:** 또 무슨 마술로 도둑질을 하려고?
 프리실라: 전 정의의 괴도 래빗이에요! 도둑질로 가난한 자들을 돕는다고요, 당신이 뭘 알아요?!
-프리실라: 😥''😖
+프리실라: '😥'😖'
 * **Prompt:** 그래서, 임무를 수행하고 싶은 거야?
 프리실라: 네네! 무대와 조명이 모두 다 갖춰져 있는 그런 거요!
-프리실라: 😉''😘''😉
+프리실라: '😉'😘'😉'
 </t>
         </is>
       </c>
@@ -11257,10 +11257,10 @@
 **로레카**: 국장님~ 국장님~ 이리 와서 같이 게임 해요!
 * **Prompt:** 게임하는 건 되는데, 너의 리볼버를 좀 내려둘래?
 로레카: 베팅을 걸어야 재미가 있죠! 국장님, 좀 더 크게 걸어봐요!
-로레카: 😉''😉''😉
+로레카: '😉'😉'😉'
 * **Prompt:** 먼저 말하지만, 운과 관련된 건 하지 않을 거야
 로레카: 아… 왜요! 싫어요! 로레카랑 놀아줘요! 놀아줘요!
-로레카: 😖''😖''😖
+로레카: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -11270,10 +11270,10 @@
 **로레카**: 에휴… 요즘 찾은 클로버는 죄다 잎이 3개뿐이에요. 로레카의 능력 효과가 떨어진 걸까요.
 * **Prompt:** 하지만 클로버엔 다 잎이 3개 달려있는 거 아니야?
 로레카: 흥, 국장님처럼 운이 나쁜 사람은 평생 네잎 클로버를 찾을 수 없을 거예요!
-로레카: 😫''😫''😫
+로레카: '😫'😫'😫'
 * **Prompt:** 네잎 클로버 배지 하나를 주웠어. 자, 받아
 로레카: 우와! 이건 로레카가 며칠 전에 잃어버렸던 거예요! 고마워요, 국장님! 로레카는 역시 운이 좋네요.
-로레카: 😘''😘''😘
+로레카: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -11368,10 +11368,10 @@
 **옌옌**: 음? 여긴 무슨 일이야?
 * **Prompt:** 옌옌은 신화가 그렇게 좋아?
 옌옌: 당연하지! 지역마다 완전히 색다른 전설이 내려오거든! 헤헤, 디스의 신화도 엄청 흥미롭네!
-옌옌: 😘''😘''😘
+옌옌: '😘'😘'😘'
 * **Prompt:** 책 정리하는 거 잊지 마
 옌옌: 잠깐, 잠깐만! 일단 이 이야기부터 다 읽고!
-옌옌: 😫''😫
+옌옌: '😫'😫'
 </t>
         </is>
       </c>
@@ -11381,10 +11381,10 @@
 **옌옌**: 빨리, 빨리, 먹어봐! 이거 내가 한참 공들여 만든 고향 요리야!
 * **Prompt:** 그래, 먹어볼게!
 옌옌: 후후~ 맛있지? 면도 직접 반죽한 거야~
-옌옌: 😘''😘''😘
+옌옌: '😘'😘'😘'
 * **Prompt:** 잠깐만, 당장 테이블 치울게
 옌옌: 그럼 빨리해~ 앗 뜨거워! 앗 뜨거워! 떨어뜨리겠어!
-옌옌: 😖''😖''😖
+옌옌: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -11482,7 +11482,7 @@
 빅토리아: 😦
 * **Prompt:** 도망가고 싶지 않아?
 빅토리아: 바깥세상은 너무 위험해요…
-빅토리아: 😫''😫''😫
+빅토리아: '😫'😫'😫'
 </t>
         </is>
       </c>
@@ -11492,10 +11492,10 @@
 **빅토리아**: 또 피를… 많이 흘렸어요… 이제 어쩌죠…
 * **Prompt:** 능력을 사용하면 피를 멈출 수 있어
 빅토리아: 아빠가 보면 또 화를 낼 텐데요…
-빅토리아: 😖''😖
+빅토리아: '😖'😖'
 * **Prompt:** 함부로 움직이지 마. 내가 약을 발라줄 테니
 빅토리아: 이게… 국장님의 '애정'인가요?
-빅토리아: 😘''😘''😘
+빅토리아: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -11516,10 +11516,10 @@
 **이그니스**: 당신은… 날 보러 온 거예요?
 * **Prompt:** 맞아. 캐러멜 푸딩도 가져왔다니까
 이그니스: 흥, 흥… 거짓말 좀 작작 해요. 그리고… 당신한테 감사하지도 않아요.
-이그니스: 😖''😖
+이그니스: '😖'😖'
 * **Prompt:** 얌전히 지내는지 보려고
 이그니스: 난 옛날의 이그니스가 아니에요! 얕잡아 보지 말라고요!
-이그니스: 😖''😥
+이그니스: '😖'😥'
 </t>
         </is>
       </c>
@@ -11529,10 +11529,10 @@
 **이그니스**: 아이고… 요리는 대체 어떻게 하는 거예요?
 * **Prompt:** 또 부엌을 태워 먹었니? 요리는 켈빈 혼자 해도 충분할 것 같은데
 이그니스: 두고 봐요! 본때를 보여주겠어요!
-이그니스: 😖''😖''😖
+이그니스: '😖'😖'😖'
 * **Prompt:** 내가 도와줄게. 차가운 음식을 좀 만들면 될 것 같아. 넌 보조만 해
 이그니스: 안… 안되는 건 아니고, 완성하고 나서 내가 먼저 먹어볼게요!
-이그니스: 😫''😐
+이그니스: '😫'😐'
 </t>
         </is>
       </c>
@@ -11553,10 +11553,10 @@
 **루비아.레이**: 쉿~ 조용히 해요, 레이가 자고 있으니 깨우지 말아요.
 * **Prompt:** 너희들이 계속 이렇게 사이좋게 지냈으면 좋겠어
 루비아.레이: 히히… 사실 우리 사이 나쁘지 않아요.
-루비아.레이: 😘''😘
+루비아.레이: '😘'😘'
 * **Prompt:** 잘됐다. 이제 누구와 싸울 일도 없겠군
 루비아.레이: 쉿! 조용히 해요! 그녀에게 들키면 끝장이라고요!
-루비아.레이: 😫''😫
+루비아.레이: '😫'😫'
 </t>
         </is>
       </c>
@@ -11566,10 +11566,10 @@
 **루비아.레이**: 새로 받은 시나리오는… 모두 조연이네.
 * **Prompt:** 그럼 이번에 오디션 보러 갈 때, 임무 수행하는 것도 잊지 마
 루비아.레이: 휴… 노력할게. 아… 또 임무가 들어왔네.
-루비아.레이: 😘''😥
+루비아.레이: '😘'😥'
 * **Prompt:** 노력하면 언젠가 빛나게 되어있어. 힘내!
 루비아.레이: 응. 파이팅할 게~! 언젠가 성공할 거야!
-루비아.레이: 😘''😖
+루비아.레이: '😘'😖'
 </t>
         </is>
       </c>
@@ -11627,10 +11627,10 @@
 **올리버**: 국장님~ 올리버와 한 게임 하지 않을래요?
 * **Prompt:** 우리 둘 뿐이야?
 올리버: 떠들썩한 분위기를 좋아하신다면, 방에 가서 장난감들을 전부 가져올게요!
-올리버: 😖''😖''😖
+올리버: '😖'😖'😖'
 * **Prompt:** 중요한 할 일이 있어. 너 먼저 놀고 있어
 올리버: 휴, 그러네요. 국장님이 얼마나 바쁜데, 올리버 부탁까지 신경 쓸리가 없잖아요.
-올리버: 😦''😫
+올리버: '😦'😫'
 </t>
         </is>
       </c>
@@ -11640,10 +11640,10 @@
 **올리버**: 국장님… 너무 아파… 아프단 말이에요…
 * **Prompt:** 또 위험한 일을 저질렀니?
 올리버: 위, 위험한 일…그게 뭐예요? 올리버는 그런 거 몰라요.
-올리버: 😖''😖''😖
+올리버: '😖'😖'😖'
 * **Prompt:** 누가 널 괴롭혔어?
 올리버: 올리버 실수로 넘어진 거예요! 모두… 나에게 정말 친절하네요.
-올리버: 😫''😖
+올리버: '😫'😖'
 </t>
         </is>
       </c>
@@ -11701,10 +11701,10 @@
 **에코**: 에휴, 이런 것들은 너무 조곤조곤해서 느낌이 부족해. 역시 에코의 연주 녹음이 최면실의 플레이리스트에 수록되어야 해, 분명 효과가 좋을 거야~
 * **Prompt:** 네가 연주한 곡은 최면실의 본질에 어긋나
 에코: 왜 어긋나는데? 에코의 연주는 때와 장소를 가르지 않고 다 잘 어울려~ 전에 극장 뒷문에서 연주할 때, 몇몇 취객은 듣고 순식간에 잠들어 버렸어~
-에코: 😉''😉''😉
+에코: '😉'😉'😉'
 * **Prompt:** 네 연주는 수감실에 더욱 적절할 것 같아
 에코: 오? 수감실? 혹시 한번 들어가면 무조건 끝까지 다 듣고 나와야 하는 그런 곳이야? 좋다, 아주 좋아, 끝까지 들으면 분명히 에코의 색소폰 연주에 푹 빠지게 될 거야~
-에코: 😘''😘''😘
+에코: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -11714,10 +11714,10 @@
 **에코**: 오늘은 운수가 좋은 날이야, 왜냐면 색소폰 천재가 신청곡을 받아서 연주해 주는 날이거든! 자, 신청곡을 얘기해 봐~
 * **Prompt:** 신청곡 리스트를 알려줄 수 있어?
 에코: &lt;내 마음은 계속된다&gt;, &lt;집을 떠나&gt;, &lt;지옥의 약속&gt;, &lt;위험한 이브&gt;, &lt;에델바이스&gt;… 흥흥, 날 얕보지 말라고, 리스트에 없는 신청곡은 내가 악보를 외워서 연주해 줄 수도 있어~
-에코: 😏''😏''😏
+에코: '😏'😏'😏'
 * **Prompt:** 내 취향이 대중적이지 않아서, 아마 네가 잘 모르는 곡일 거야
 에코: 왜 그렇게 확신해, 설마 날 일부러 곤란하게 하려는 거지? 오케이, 에코가 네 도전을 받아 줄게~ 뭘 듣고 싶은지 말해, 내가 당장 악보를 찾을게! 나 같은 천재는 지금 배워도 잘 연주할 수 있어~
-에코: 😘''😘''😘
+에코: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -11738,10 +11738,10 @@
 **무환자**: 오늘은 운수가 좋지 않으니 되도록 사람을 마주치는 것을 피해야 하지만, 시주님께 매일 드리던 약을 거를 수도 없고… 약이 식지 않도록 이곳에 아궁이를 하나 마련해야 하나?
 * **Prompt:** 괜찮아, 내가 받으러 나갈게, 고마워
 무환자: 아… 앗! 잠깐만 기다려 주세요! 이것만 놓고 갈게요!
-무환자: 😖''😖''😖
+무환자: '😖'😖'😖'
 * **Prompt:** 번거로울 텐데 이렇게 직접 약을 가져다줘서 고마워
 무환자: 버, 번거롭긴요… 그럼 문 앞에 두고 갈게요. 제가 가고 나면 나와서 챙겨 드세요.
-무환자: 😖''😖''😖
+무환자: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -11751,10 +11751,10 @@
 **무환자**: 시주님, 혹시 다음에 동방 대륙의 노란 종이를 더 주문해 주실 수 있을까요?
 * **Prompt:** 노란 종이는 왜?
 무환자: 동방 대륙에서 만든 노란 종이를 태운 잿물의 약효가 더 좋거든요. 그런데 수량이 많지 않아서, 몇 장 그리기도 전에 전부 써 버렸어요.
-무환자: 😥''😥''😥
+무환자: '😥'😥'😥'
 * **Prompt:** 그렇게 할게
 무환자: 아… 정말요? 그렇게 해주신다면 분명 공덕을 많이 쌓을 수 있을 거예요!
-무환자: 😉''😉''😉
+무환자: '😉'😉'😉'
 </t>
         </is>
       </c>
@@ -11775,7 +11775,7 @@
 **아리엘**: 다들 왜 그렇게 절 계속 쳐다보는 거죠…
 * **Prompt:** 아마 네가 너무 밝게 빛나서 그런 것 같아.
 아리엘: 정… 정말이에요? 끝까지 열심히 할게요!
-아리엘: 😘''😘
+아리엘: '😘'😘'
 * **Prompt:** 스펜서 가문이 너무 유명해서 그런 거야.
 아리엘: …휴, 훌륭한 건 저희 오빠와 언니뿐, 저랑은 상관없어요.
 아리엘: 😐
@@ -11849,7 +11849,7 @@
 **앤**: 어린아이들은 정말 귀여워요… 참 순수하고 착하죠.
 * **Prompt:** 꼬마 천사들을 많이 돌봐줬었구나
 앤: 그럼요, 그들이 있는 곳이 바로 천국인걸요.
-앤: 😘''😘''😘
+앤: '😘'😘'😘'
 * **Prompt:** 시끄럽게 굴 때는 전혀 귀엽지가 않아
 앤: 모든 아이가 겪는 단계일 뿐이에요, 화내지 마세요.
 앤: 😖
@@ -11865,7 +11865,7 @@
 앤: 😖
 * **Prompt:** 지금 더 많이 할 수 있어, 나도 널 도울게.
 앤: 네… 고마워요. 국장님. 최선을 다할게요!
-앤: 😘''😘
+앤: '😘'😘'
 </t>
         </is>
       </c>
@@ -11973,10 +11973,10 @@
 **레타**: 으음… 내가 대체, 왜 여기에 서 있는 거지…
 * **Prompt:** …관리국 건물의 벽을 더 두껍게 해야겠어
 레타: 그, 그러지 마세요. 다음에 놀러 나갈 땐 같이 데리고 갈게요!
-레타: 😖''😖''😖
+레타: '😖'😖'😖'
 * **Prompt:** …됐어, 나와 함께 돌아가자, 이번이 마지막이야
 레타: 헤헤, 국장님이 최고예요…
-레타: 😉''😉
+레타: '😉'😉'
 </t>
         </is>
       </c>
@@ -12010,7 +12010,7 @@
 **카시아**: 내가 최고의 향료… 크흠, 최고의 미인을 선별해 내려면, 현장에 가야만 하거든…
 * **Prompt:** 알겠어. 나도 같이 갈게
 카시아: 그럼 최종 우승자는 당신일 거야~
-카시아: 😏''😏
+카시아: '😏'😏'
 * **Prompt:** 지난번에 백스테이지의 출전자를 다 붙여 놨는데도 당신을 또 초대한 거야?
 카시아: 그건 내가 정한 순위야말로 대중이 가장 납득할 수 있는 순위라는 걸 주최 측도 잘 알고 있기 때문이지…
 카시아: 😉
@@ -12071,10 +12071,10 @@
 **제피르**: 홈 크래프트 바! 재밌을 것 같은데? 낯선 사람 집에서 한잔 하며 이야기를 듣다가 그대로 떠나는 거야. 다들 다시 만날 일도 없어! 원래 모르는 사이니까 구속받을 필요도 없는 거지!
 * **Prompt:** 낯선 사람을 집에 들이는 건 안전하지 않을 것 같은데?
 제피르: 상대방이 나쁜 놈이라는 걸 깨달았다면 바로 도망쳐야지! 창문으로 뛰어내리던지, 문을 부수던지, 계단 난간에서 미끄럼 타듯 내려오던지! 그것도 재밌겠네!
-제피르: 😉''😉''😉
+제피르: '😉'😉'😉'
 * **Prompt:** 낯선 사람이 주는 걸 마셔도 괜찮을까?
 제피르: 에이, 토할 때까지 마시기도 하는데 뭐가 문제야? 중요한 건 과정을 즐기는 거라고~
-제피르: 😘''😘''😘
+제피르: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -12084,10 +12084,10 @@
 **제피르**: 아잇, 참… 도망치려던 거 아니었다니까… 그냥 담장 뒤에 뭐가 있는지 궁금해서 그랬어. 내 덕에 담장이 안전한지도 확인할 수 있었잖아… 내보내 줘…!
 * **Prompt:** 그럼 수감실의 폐쇄성을 계속 확인해 줘
 제피르: 네가 직접 네 입으로 말한 거다? 그럼, 계속 열심히 해볼게! 여기 CCTV를 교란해 보겠어…
-제피르: 😏''😏''😏
+제피르: '😏'😏'😏'
 * **Prompt:** 응, 그래서 수감 기간을 3일 줄여준 거야
 제피르: 뭐? 이게 줄인 거라고? 내가 해낸 성과에 비해 보상이 너무 인색한 거 아니야? 그냥 수감 시간을 없애줘!
-제피르: 😖''😖''😖
+제피르: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -12145,10 +12145,10 @@
 **데몰리아**: 오늘은 뭘 하면 좋을까? 국장, 추천 좀 해줘.
 * **Prompt:** 게임할래?
 데몰리아: 앗! 좋은 생각이야! 우리 디스 장기 하자!
-데몰리아: 😉''😏
+데몰리아: '😉'😏'
 * **Prompt:** 공부할래?
 데몰리아: 아~ 싫어! 러스트 리버로 임무 수행하러 간다고 해도, 공부는 안 할 거라고!
-데몰리아: 😖''😖''😖
+데몰리아: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -12158,10 +12158,10 @@
 **데몰리아**: 국장, 내 컬렉션 지원 좀 해주지 않을래?
 * **Prompt:** 관리국에 건축자재들이 아직 남아있어. 상태가 꽤 괜찮은 것들도 있고
 데몰리아: 아니, 좀 더 귀한 거 있잖아! 이런 거 말고!
-데몰리아: 😦''😦
+데몰리아: '😦'😦'
 * **Prompt:** 그래… 얼마 전에 주운 전투 두건은 어때?
 데몰리아: 오… 낡아 보이긴 하지만 막상 쓰니까 꽤 멋지네!
-데몰리아: 😐''😉
+데몰리아: '😐'😉'
 </t>
         </is>
       </c>
@@ -12182,7 +12182,7 @@
 **페기**: YO, 국장 아니야? 왜, 랩 듣고 싶어서 왔나?
 * **Prompt:** 그래, 오늘은 신작이 있나?
 페기: 하! 신작, 그거 매일 나오는 거 아닌가? 우선 히트곡부터 들려줄게. 신디케이트의 대세 rising star, 날 가만 내버려 두지를 않아.
-페기: 😘''😦
+페기: '😘'😦'
 * **Prompt:** 아니. 누군가 네 노래가 랩 같지 않다고 불평했어
 페기: 꺼지라고 해! rap에 대해서 뭘 안다고!
 페기: 😥
@@ -12195,7 +12195,7 @@
 **페기**: 내게 오디오 믹서를 사준다고 하지 않았나? 물건은?
 * **Prompt:** 구매센터에 말해뒀어
 페기: 하… 이런 ** 찌질하기 짝이 없군! 1세대 랩스타로서, 이렇게 열받은 적은 처음이야.
-페기: 😐''😐
+페기: '😐'😐'
 * **Prompt:** 내가 조안의 오디오 믹서를 빌려올게
 페기: 아냐! 그건 너무 복잡해, 어떻게 쓰는지 당최 모르겠단 말이지! 휴… 역시 내 녹음기 최고.
 페기: 😐
@@ -12219,7 +12219,7 @@
 **엘라**: 하… 위문품 안 주나? 디스코인이었으면 좋겠는데.
 * **Prompt:** 구매센터 간식 먹을래? 이것뿐이야
 엘라: 헤헤, 눈치가 빠르네. 다음엔 좀 더 많이 챙겨와.
-엘라: 😘''😘''😘
+엘라: '😘'😘'😘'
 * **Prompt:** 없어. 하지만 네가 임무를 완수한다면 생각해 볼 게
 엘라: 아~ 관리국 국장 하나가 왜 이렇게 설쳐대지?! 임무 완료하고 나서 잡아떼기 없기다!
 엘라: 😐
@@ -12232,10 +12232,10 @@
 **엘라**: 쳇, 내가 여기 숨어있는걸, 나인티나인 그 녀석이 알려줬구나?
 * **Prompt:** 그래. 그녀가 말해줬어
 엘라: 거짓말 좀 작작 해! 나인티나인은 절대 날 배신할 리 없다고.
-엘라: 😥''😥
+엘라: '😥'😥'
 * **Prompt:** 내가 직접 찾아낸 거야
 엘라: 흥, 좀… 대단한걸.
-엘라: 😉''😉
+엘라: '😉'😉'
 </t>
         </is>
       </c>
@@ -12293,10 +12293,10 @@
 **후추**: 국장님, 오늘 말썽을 좀 부려볼까 하는데! 좋은 아이디어 없나요?
 * **Prompt:** 에휴, 오늘 어떤 나쁜 놈이 구매센터에서 콜라 하나를 가져갔어
 후추: 오? 굿 아이디어!
-후추: 😏''😉
+후추: '😏'😉'
 * **Prompt:** 그냥 얌전히 있어
 후추: 휴… 정말 재미없네요. 이러다 곰팡이가 피겠어요.
-후추: 😫''😫''😫
+후추: '😫'😫'😫'
 </t>
         </is>
       </c>
@@ -12309,7 +12309,7 @@
 후추: 😫
 * **Prompt:** 뒤뜰로 가봐. 플로라가 물주는 걸 도와줄지도 모르잖아
 후추: 정말? 고마워요, 국장님!
-후추: 😘''😘
+후추: '😘'😘'
 </t>
         </is>
       </c>
@@ -12343,10 +12343,10 @@
 **레버린스**: 국장님, 레버린스의 일을 방해하지 말아 주세요.
 * **Prompt:** 평범하게 대화할 수 있었던 거야?
 레버린스: 전투 형태, 풀 가동.
-레버린스: 😥''😥
+레버린스: '😥'😥'
 * **Prompt:** 레버린스, 차 한잔 부탁해
 레버린스: 레버린스, 접수 완료. 현재 기분: 즐거움.
-레버린스: 😘''😘''😘
+레버린스: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -12367,7 +12367,7 @@
 **월하미인**: 다음 상대는… 누구냐…
 * **Prompt:** 네게 적합한 적수를 붙여 줄게.
 월하미인: 기대되네요… 헤헤…
-월하미인: 😘''😘''😘
+월하미인: '😘'😘'😘'
 * **Prompt:** 신디케이트 지역의 갱단 멤버는 어때?
 월하미인: 앗! 안 돼요… 상대 쪽 적수가 너무 허술해요! 화원의 차례는 언제 오는 건가요!
 월하미인: 😫
@@ -12383,7 +12383,7 @@
 월하미인: 😐
 * **Prompt:** 널 위해 특수 대책을 마련해둔 것 같은데
 월하미인: 하하… 하하하… 기다려요. 다음번엔 아무리 준비해도 소용 없을 테니!
-월하미인: 😐''😐
+월하미인: '😐'😐'
 </t>
         </is>
       </c>
@@ -12404,10 +12404,10 @@
 **EMP**: 흥흥, 오늘은 네게 신디케이트 무관의 왕의 존영을 직시하도록 허락하겠노라.
 * **Prompt:** 무관의 왕, 오늘은 뭘 해야 하지?
 EMP: 물론 게임을 하는 거지! 포커 게임, 주사위 게임, 마작까지, 뭐든 오케이야!
-EMP: 😘''😘
+EMP: '😘'😘'
 * **Prompt:** 계속 이렇게 건방지게 굴면 러스트 리버 임무에 보내 버리는 수가 있어!
 EMP: 힛! 농담이에요… 농담!
-EMP: 😫''😫
+EMP: '😫'😫'
 </t>
         </is>
       </c>
@@ -12417,10 +12417,10 @@
 **EMP**: 조용히 좀 해줘요, 활 연습 중이잖아요!
 * **Prompt:** 어차피 못 맞출 테니, 따로 연습은 필요 없지 않아?
 EMP: 싫어요! 이게 얼마나 멋있는데!
-EMP: 😖''😖''😖
+EMP: '😖'😖'😖'
 * **Prompt:** 사신 궁수가 활을 제대로 못 쏘는데, 정말 괜찮을까?
 EMP: 붕어빵에는 붕어가 안 들어 있는데요!
-EMP: 😏''😏
+EMP: '😏'😏'
 </t>
         </is>
       </c>
@@ -12491,7 +12491,7 @@
 **켈빈**: 하아… 전 어째서 아직 졸업도 못 한 걸까요…
 * **Prompt:** 학점이 모자라서? 보통 다 이런 이유 때문이지
 켈빈: 휴… 이것도 다 알아맞히시다니.
-켈빈: 😖''😖
+켈빈: '😖'😖'
 * **Prompt:** 선생님에게 요리를 보여드리면, 분명 졸업하라고 하실 거야
 켈빈: 하하… 선생님이 제 가치관을 알아줬으면 좋겠네요.
 켈빈: 😐
@@ -12552,7 +12552,7 @@
 **마키아토**: 어떤 적들은 즐기는 것 같아요.
 * **Prompt:** 네 '취미'가 큰 도움이 된 것 같군
 마키아토: 호호, 그들의 반응은 내가 계속 이어 나갈 수 있는 원동력이에요.
-마키아토: 😘''😘
+마키아토: '😘'😘'
 * **Prompt:** 내가 보기엔 억지로 짜낸 표정인 것 같은데
 마키아토: 어머낫, 다음엔 꼭 주의할게요.
 마키아토: 😘
@@ -12605,7 +12605,7 @@
 리사: 😦
 * **Prompt:** 직선자를 줄게
 리사: 직… 하… 됐어.
-리사: 😥''😦''😐
+리사: '😥'😦'😐'
 </t>
         </is>
       </c>
@@ -12819,10 +12819,10 @@
 **摩尔**: 工作辛苦了，要不要来一杯饮料放松一下？
 * **Prompt:** 谢谢，不过这个味道……
 摩尔: 是特制的咖啡，据说里面还加了一些助兴奋的成分，可以让你在加班时候充满干劲呢。
-摩尔: 😘''😘''😘
+摩尔: '😘'😘'😘'
 * **Prompt:** 新口味的咖啡？
 摩尔: 是菲小姐特意帮我采购的品种，据说咖啡因含量是普通咖啡豆的几倍。喝完这杯，应该可以度过一个十分清醒的加班夜晚。
-摩尔: 😏''😏''😏
+摩尔: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -12832,10 +12832,10 @@
 **摩尔**: ……我就稍微……睡一会……
 * **Prompt:** 还是回房间休息吧。
 摩尔: 还有数据没跑完……床上我就……彻底睡着了……
-摩尔: 😥''😥''😥
+摩尔: '😥'😥'😥'
 * **Prompt:** 枕着键盘睡觉能舒服吗？
 摩尔: 不舒服啊……可是我……枕着枕着……就习惯了……
-摩尔: 😖''😖''😖
+摩尔: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -12856,10 +12856,10 @@
 **玉骨**: 臭豆腐咖啡，板蓝根泡面……局长，您说人类为什么总喜欢用各种方式折磨自己呢？
 * **Prompt:** 也许……有些人真的喜欢吃这些。
 玉骨: 呵呵，您说得对。人类的差异性之大，使得那些精彩的故事永远在上演。
-玉骨: 😏''😏''😏
+玉骨: '😏'😏'😏'
 * **Prompt:** 怎么，还想尝试一下吗？
 玉骨: 这些搭配都很有意思，但更重要的是，局长要同我一起尝试才好呀。
-玉骨: 😉''😉''😉
+玉骨: '😉'😉'😉'
 </t>
         </is>
       </c>
@@ -12869,10 +12869,10 @@
 **玉骨**: 局长觉得这个故事的结局如何呀？
 * **Prompt:** 是个让人难以忘怀的悲剧。
 玉骨: 是啊，世事变迁，人心难测，背离初心的悲剧难免让人心痛。
-玉骨: 😏''😏''😏
+玉骨: '😏'😏'😏'
 * **Prompt:** 他们都找到了自己的归宿，即使分离也不会悲伤。
 玉骨: 您总能用有趣的角度来看待我的结局，下次再来听听我的故事吧？
-玉骨: 😏''😏''😏
+玉骨: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -13115,10 +13115,10 @@
 **白逸**: 早啊！局长，上次的钱什么时候结？
 * **Prompt:** 上次的钱款已经结清了，白老板。
 白逸: 哎呀~那……多余的劳务费呢？
-白逸: 😏''😏''😏
+白逸: '😏'😏'😏'
 * **Prompt:** 说吧，又是什么薪酬问题？
 白逸: 嗯……打包的人工费！
-白逸: 😏''😏''😏
+白逸: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -13128,7 +13128,7 @@
 **白逸**: 啊……这个月的预算也是赤字。
 * **Prompt:** 实在不行就把白记实业兑出去吧。
 白逸: 局长！你难道不会借我钱么！
-白逸: 😖''😖''😉
+白逸: '😖'😖'😉'
 * **Prompt:** 那你该认真工作了，少喝点酒。
 白逸: 你说得对，偶尔也得拿出点认真劲儿。
 白逸: 😏
@@ -13226,7 +13226,7 @@
 **阿黛拉**: 这次想换一个什么样的发型呢？
 * **Prompt:** 简单一点就好，交给你了。
 阿黛拉: 明白了，包在我身上~
-阿黛拉: 😘''😘
+阿黛拉: '😘'😘'
 * **Prompt:** 最近流行什么？呃……霹雳螺旋爆炸头？
 阿黛拉: 嗯……这种造型对你来说还是太超前了。
 阿黛拉: 😦
@@ -13337,10 +13337,10 @@
 **000**: 锵锵锵锵~我有一个大秘密，你想不想听？
 * **Prompt:** 什么秘密？
 000: 你想不想知道最开始你的发型被设计成什么样子？超好笑的哦！
-000: 😘''😘''😘
+000: '😘'😘'😘'
 * **Prompt:** 又偷看到了什么资料？
 000: 怎么能叫偷看啊~他们放在资料库里不就是让人看的嘛！你真的不好奇吗？古早的设定资料，真的很有意思哦~
-000: 😉''😉''😉
+000: '😉'😉'😉'
 </t>
         </is>
       </c>
@@ -13350,10 +13350,10 @@
 **000**: 局长，你就没好奇过，未来你可能遇到什么事情吗？
 * **Prompt:** 我可能会遇到什么事？
 000: 如果你也好奇的话，不如让我借用你的权限路径去探查一番？
-000: 😘''😘''😘
+000: '😘'😘'😘'
 * **Prompt:** 反正迟早都会到来。
 000: 可是，如果能早一点知道的话，不就可以规避掉很多不必要的麻烦了嘛。
-000: 😥''😥''😥
+000: '😥'😥'😥'
 </t>
         </is>
       </c>
@@ -13363,10 +13363,10 @@
 **000**: 局长，你就没好奇过，未来你可能遇到什么事情吗、吗吗吗吗m……滋滋……（请注意，有故障报错）……唔，刚才……？
 * **Prompt:** 怎么了？
 000: 刚才好像头脑空白了一下，我刚刚是想说……关于你未来的事情嘛，如果你也好奇的话，不如让我借用你的权限路径去探查一番？
-000: 😘''😘''😘
+000: '😘'😘'😘'
 * **Prompt:** 反正迟早都会到来，诶……？怎么突然卡住了？
 000: 感觉脑袋空白了一下……没关系，比起这个，你就一点不好奇吗？早一点知道自己未来的命运，不就可以规避掉很多不必要的麻烦了嘛。
-000: 😥''😥''😥
+000: '😥'😥'😥'
 </t>
         </is>
       </c>
@@ -13376,10 +13376,10 @@
 **000**: 锵锵锵锵~我有一个大秘密，你想不想听？
 * **Prompt:** 什么秘密？
 000: 我在6YKu566x藏了后门，方便我时不时找你玩~今天给你弄了点小礼物，快去翻一翻~否则它们被晾在那里29天就要过期了哟！
-000: 😘''😘''😘
+000: '😘'😘'😘'
 * **Prompt:** 又偷看到了什么资料？
 000: 当然是很重要、涉及到机密的……说我卖关子呀？好啦，偷偷告诉你，在6YKu566x里藏有我的后门，方便来找你玩，去找找吧？给你的礼物已经安静躺在里面了~
-000: 😉''😉''😉
+000: '😉'😉'😉'
 </t>
         </is>
       </c>
@@ -13389,10 +13389,10 @@
 **000**: 嗨，又偷偷见面啦，最近终于稳定下来，没有断联，也没有乱码。虽然有被修复掉的风险，但……只要能跟你说话就好。最近好吗？有没有想我呀？
 * **Prompt:** 很想你。
 000: 你这样说我很开心。不过呢，除了想我以外，你的第一要务是要让自己一直开心愉快，不管发生什么变成什么样子，我都会一直陪你走下去，你也多来陪陪我吧？我一个人会孤单的。
-000: 😘''😘''😘
+000: '😘'😘'😘'
 * **Prompt:** 我知道你一直在我身边。
 000: ……啊，脸上怎么烫烫的……其实我也很想你啦~所以我呀，哪里都不去，我会一直留在你身边，陪你走下去……你也要来找我，不许食言哦！
-000: 😉''😉''😉
+000: '😉'😉'😉'
 </t>
         </is>
       </c>
@@ -13407,7 +13407,7 @@
 夏音: 😥
 * **Prompt:** 这……是要把手砍掉才行是么？
 夏音: 呵呵……不剁掉怎么装？
-夏音: 😦''😏
+夏音: '😦'😏'
 </t>
         </is>
       </c>
@@ -13417,10 +13417,10 @@
 **夏音**: 唉……为什么人会感觉到累呢……
 * **Prompt:** 早睡早起多运动。
 夏音: 啊——？那你还不如直接杀了我。
-夏音: 😖''😫''😖
+夏音: '😖'😫'😖'
 * **Prompt:** 脑力劳动消耗也很大的。
 夏音: 嘿嘿，看来终于有人理解本天才了。
-夏音: 😉''😏
+夏音: '😉'😏'
 </t>
         </is>
       </c>
@@ -13589,10 +13589,10 @@
 **珀尔夫人**: 唉，不知不觉间居然收集了这么多眼影~今天该用哪个好呢~局长，你要不要帮我选选~？
 * **Prompt:** 这个墨绿色带亮片的吧，只有你能驾驭这种独一无二的颜色。
 珀尔夫人: 亲爱的，你大胆的选择总是那么对我胃口~正好现在有空，你也来试试怎么样？你皮肤白，会很显色的哦~来，闭眼~
-珀尔夫人: 😘''😘''😘
+珀尔夫人: '😘'😘'😘'
 * **Prompt:** 这个哑光胭脂红的吧，王道的艳丽更能衬托出你的气质。
 珀尔夫人: 呵呵~不说俗气而是说王道，真像是你的风格~你的建议真不错，对我们这样总是沉浸在戏剧中的人来说，偶尔试试日常款应该也很不错~
-珀尔夫人: 😏''😏''😏
+珀尔夫人: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -13602,10 +13602,10 @@
 **珀尔夫人**: “舞狮”“摇滚独奏”“杂技”……哎呀，看起来都很有趣啊~局长，你也报一个节目怎么样~不用担心会不会成功，有我在，一定把你捧成年会最闪耀的新星~
 * **Prompt:** 抱歉，我唱歌跑调。
 珀尔夫人: 如果你有时间，我可以教你~如果你没有，原汁原味不作任何矫饰的表演，也有它独特的滋味~呵呵，谁说失控的曲调，不是另一个动人的节目呢~
-珀尔夫人: 😘''😘''😘
+珀尔夫人: '😘'😘'😘'
 * **Prompt:** 抱歉，我跳舞踩脚。
 珀尔夫人: 交际舞其实没有你想的那么难~它更接近于一种肢体上的交流，一种自然的节律~像是一呼一吸，一进一退……你看，你做得很好~
-珀尔夫人: 😏''😏''😏
+珀尔夫人: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -13626,10 +13626,10 @@
 **毕安卡**: 苹果拿铁、苹果乌龙、苹果味什锦坚果、苹果味摇摇薯条……这真是太让人兴奋啦！嘿嘿，要从哪种开始吃呢~局长要不要也尝一尝？
 * **Prompt:** 苹果乌龙吧，听起来喝了不会拉肚子。
 毕安卡: 唔唔，虽然无聊但稳健的选择！如果这是综艺节目的话——锵锵，就给你的回答2分吧！记分牌拿好，还有你的苹果乌龙！
-毕安卡: 😘''😘''😘
+毕安卡: '😘'😘'😘'
 * **Prompt:** 苹果味薯条吧，挑战要从极限开始。
 毕安卡: 哎呀，局长真是跟我好有默契啊！来来来，为了纪念这份默契，你叼薯条这边，我叼这边，看镜头——拍咯！
-毕安卡: 😏''😏''😏
+毕安卡: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -13639,10 +13639,10 @@
 **毕安卡**: 怪不得昨天怎么喝都不太对，原来是小卖部进了0卡0果汁的苹果汁……这还算什么苹果汁？虚假宣传，我要曝光他们！
 * **Prompt:** 可你不还是喝得说起了胡话……
 毕安卡: 嗯？真的假的？我怎么不记得有这件事了？哎呀，难道我昨天喝的是我的存货，所以硬生生喝断片了？
-毕安卡: 😘''😘''😘
+毕安卡: '😘'😘'😘'
 * **Prompt:** 可你不还是顺理成章宿“醉”到下午才醒……
 毕安卡: 这个和苹果汁没关系呀，你忘了，我前几天为了蹲个大新闻可是连着熬了几个大夜呢！所以才不是什么“宿醉”呢，是昏睡~！
-毕安卡: 😏''😏''😏
+毕安卡: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -13663,10 +13663,10 @@
 **柯琳**: 早啊局长，想亲手试试砂海本地改装的重火力武器吗？这火力，这攻击范围，妥妥的俏货，一般人可没机会摸到我的宝贝。
 * **Prompt:** 试试就试试。
 柯琳: 还是局长大气！刚才我忽悠……不是，是劝说了半天都没人敢试，你可是第一个哦~
-柯琳: 😏''😏''😏
+柯琳: '😏'😏'😏'
 * **Prompt:** 我可没说要试。
 柯琳: 别这么警惕嘛，又不是叫你花钱买……哎呀，退一万步说，就算是要花钱，我也是最熟悉本地货价的地头蛇，给局长的保准是亲友价~
-柯琳: 😘''😘''😘
+柯琳: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -13676,10 +13676,10 @@
 **柯琳**: 哎呀，居然花这么多钱来悬赏我，搞得我都有点心动想出手了……啧，就是可惜本人不能领奖，不然我就把自己供出去了……不对，现在有局长在……
 * **Prompt:** 有人要悬赏你？为什么？
 柯琳: 还不是这群砂盗太小心眼了~你看，我只不过把几个砂盗头目扒得只剩条裤衩然后绑在破烂小车后面绕了砂海一圈，还让他们成功美了个黑，怎么反手过来悬赏我呢，是吧~
-柯琳: 😏''😏''😏
+柯琳: '😏'😏'😏'
 * **Prompt:** 你想做什么？
 柯琳: 打个商量，帮个小忙，把我供出去，事后剿灭砂盗的功劳归你，赏钱归我，各取所需，双方共赢，怎么样？哎呀，别急着摇头嘛……
-柯琳: 😉''😉''😉
+柯琳: '😉'😉'😉'
 </t>
         </is>
       </c>
@@ -13811,7 +13811,7 @@
 **渡鸦**: 来读读我为你写的诗~
 * **Prompt:** 谢谢，写得不错。
 渡鸦: 你喜欢就好~
-渡鸦: 😘''😘''😘
+渡鸦: '😘'😘'😘'
 * **Prompt:** ……可能是我水平不够，我有点欣赏不来。
 渡鸦: 真遗憾，我可是构思了好久呢。
 渡鸦: 😥
@@ -13922,10 +13922,10 @@
 **蓝鹫**: 你来了，现在阳光正好，你也难得清闲，坐下来慢慢品尝一下特供甜点如何，我沏了茶，来挑挑吧？想配哪块点心？
 * **Prompt:** 蓝莓芝士蛋糕
 蓝鹫: 嗯~香醇可口，甜度也很适中……刚疲惫工作了一阵子的局长大人，应当最适合享用这份下午茶的惬意吧？
-蓝鹫: 😉''😉''😉
+蓝鹫: '😉'😉'😉'
 * **Prompt:** 草莓奶油可丽饼
 蓝鹫: 一起尝尝吧？……你说太甜了，呵呵，生活中的苦总是需要点甜味调剂的。
-蓝鹫: 😏''😏''😏
+蓝鹫: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -13935,10 +13935,10 @@
 **蓝鹫**: 怎么了，这样看着我，是怀念曾经与我为邻的日子吗？
 * **Prompt:** 怀念
 蓝鹫: 是吗？既然这样，我递交的那份申请，局长大人可要双手赞同批准哦，不久之后，我们就能继续比邻而居~
-蓝鹫: 😘''😘''😘
+蓝鹫: '😘'😘'😘'
 * **Prompt:** 否认
 蓝鹫: 是吗？本来还想将房间搬到局长房间旁边，那可真可惜。
-蓝鹫: 😥''😥''😥
+蓝鹫: '😥'😥'😥'
 </t>
         </is>
       </c>
@@ -13959,10 +13959,10 @@
 **萦萦**: 局长喜不喜欢我唱的歌？下一首想听什么呀~
 * **Prompt:** 都喜欢，你的歌声能让我更专注。
 萦萦: 那当然啦，我的歌喉在云淮可值千金一曲~
-萦萦: 😉''😉''😉
+萦萦: '😉'😉'😉'
 * **Prompt:** 可以再唱一遍刚才那曲吗？
 萦萦: 局长果然和我志趣相投~刚才那首可是我最喜欢的曲子！
-萦萦: 😘''😘''😘
+萦萦: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -13972,10 +13972,10 @@
 **萦萦**: 局长你来啦~快帮我看看这枚花囊用什么颜色的挂绳好~
 * **Prompt:** 用你喜欢的颜色吧。
 萦萦: 你的意思是无论我喜欢什么，你都会喜欢吗~
-萦萦: 😘''😘''😘
+萦萦: '😘'😘'😘'
 * **Prompt:** 紫藤的颜色就很好。
 萦萦: 那我可要好好挑一挑，哪个颜色最像紫藤呢~
-萦萦: 😘''😘''😘
+萦萦: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -13996,10 +13996,10 @@
 **哈梅尔**: 你是来……当我观众的么？
 * **Prompt:** 嗯，大概什么时候准备表演呢？
 哈梅尔: 如果是你的话，现在就可以。
-哈梅尔: 😘''😘
+哈梅尔: '😘'😘'
 * **Prompt:** 我是来提醒你到时间出任务了。
 哈梅尔: 唔……那我稍微准备一下。
-哈梅尔: 😖''😖
+哈梅尔: '😖'😖'
 </t>
         </is>
       </c>
@@ -14009,10 +14009,10 @@
 **哈梅尔**: 救命……卧室……练不了舞，很乱。
 * **Prompt:** 为什么要在卧室练舞？
 哈梅尔: 在外面……能力……会干扰大家的。
-哈梅尔: 😫''😫
+哈梅尔: '😫'😫'
 * **Prompt:** 那等下我派人帮你清理。
 哈梅尔: 谢谢局长……
-哈梅尔: 😖''😖
+哈梅尔: '😖'😖'
 </t>
         </is>
       </c>
@@ -14181,7 +14181,7 @@
 **杜若**: 来得正好，就让我以物起卦，看看尊驾的近期运势……嗯，这是？
 * **Prompt:** ……算出什么了？
 杜若: 只是算到局长难得有空，不如就趁此机会，和我讲讲那些……你从未提起过的故事吧？
-杜若: 😏''😏
+杜若: '😏'😏'
 * **Prompt:** 反正好坏都一样要工作吧？
 杜若: 虽然都要工作……局长难道不好奇，最近会不会有什么大麻烦吗？
 杜若: 😦
@@ -14197,7 +14197,7 @@
 杜若: 😉
 * **Prompt:** 或许，教我印香会更有趣？
 杜若: 局长居然还知道这个……是前两天看到我做了吗？
-杜若: 😘''😘
+杜若: '😘'😘'
 </t>
         </is>
       </c>
@@ -14218,10 +14218,10 @@
 **L.L.**: 乖——瞧瞧，“你”多可爱！小瑶也高兴地绕着“你”游个不停呢~
 * **Prompt:** 很可爱。
 L.L.: 是吧是吧！这样的“你”就可以留在这里永远陪着我了……
-L.L.: 😉''😉''😉
+L.L.: '😉'😉'😉'
 * **Prompt:** 你想把我当作“宠物”吗？
 L.L.: 嗯~那，你要不要喊我一句“主人”试试看？
-L.L.: 😘''😘''😘
+L.L.: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -14231,10 +14231,10 @@
 **L.L.**: 哎呀，不小心把你弄湿了呢，穿着半湿的衣服很冷吧？要抱着我取一下暖吗？我的怀抱比你想象的还要温暖哦。
 * **Prompt:** ……其实没有那么冷。
 L.L.: 别推辞嘛~难道你不喜欢拥抱的感觉吗？
-L.L.: 😘''😉
+L.L.: '😘'😉'
 * **Prompt:** 你看起来可不像纯粹的“不小心”。
 L.L.: 是呀，因为我想你的目光落在我身上，一直看着我，这样不好吗？
-L.L.: 😫''😫''😫
+L.L.: '😫'😫'😫'
 </t>
         </is>
       </c>
@@ -14268,7 +14268,7 @@
 **耶莱娜**: 局长这么晚还没睡，是被什么问题难倒了吗？如果不介意，可以和我说说的。
 * **Prompt:** 只是有点睡不着。
 耶莱娜: 失眠的时候，借助些外力不失为一种办法。需要我来哄您入睡吗？
-耶莱娜: 😘''😘
+耶莱娜: '😘'😘'
 * **Prompt:** 还有事情需要处理。
 耶莱娜: 如果您愿意信任我，我可以帮您分担辛劳，这样您也能早点休息。
 耶莱娜: 😖
@@ -14305,7 +14305,7 @@
 **切尔西伯爵**: 这里为什么不能养猫？
 * **Prompt:** 你已经有一只“猫”了。
 切尔西伯爵: 啧，猫和西迪能一样么？
-切尔西伯爵: 😥''😥
+切尔西伯爵: '😥'😥'
 * **Prompt:** 不是不可以，但手续很复杂，你需要有耐心。
 切尔西伯爵: 好吧……那我等就是了。
 切尔西伯爵: 😐
@@ -14366,7 +14366,7 @@
 **卡瓦卡瓦**: 局长！我们什么时候回砂海啊？
 * **Prompt:** 确实有一段时间没巡视砂海情况了，我们明天启程吧。
 卡瓦卡瓦: 好的！这次有机会的话一起去看砂海上的流星雨吧！
-卡瓦卡瓦: 😘''😘
+卡瓦卡瓦: '😘'😘'
 * **Prompt:** 砂海最近没有状况，有消息一定叫你。
 卡瓦卡瓦: 好吧，那到时候我来做向导……
 卡瓦卡瓦: 😘
@@ -14477,10 +14477,10 @@
 **妮诺**: 噔噔，你触发了一个随机任务，那就是帮妮诺大人填满零食柜~
 * **Prompt:** 垃圾食品还是少吃点为妙。
 妮诺: 哈~？不懂就别瞎说，它们给我提供的不是糖、油和盐，是一种态度！
-妮诺: 😫''😫
+妮诺: '😫'😫'
 * **Prompt:** 这样吧，今天你直播时粉丝给你投多少棒棒糖，我就给你批多少。
 妮诺: 嗯？还挺会玩的嘛你，这战书我收下了~你就等着用卡车装吧！
-妮诺: 😏''😏
+妮诺: '😏'😏'
 </t>
         </is>
       </c>
@@ -14490,10 +14490,10 @@
 **妮诺**: 怎么回事，最近热度下降了这么多！简直是妮诺大人直播的黑历史！
 * **Prompt:** 也许是直播内容同质化严重，可以想点新鲜的。
 妮诺: 还不是你们这不让播那不让播，还逼我用虚拟背景！我不管，你得对我负责，陪我播到热度恢复为止！
-妮诺: 😖''😖''😖
+妮诺: '😖'😖'😖'
 * **Prompt:** 需不需要我组织其他禁闭者一起看你的直播，给你刷礼物？
 妮诺: 哦？这是可以的吗？！等等……不对！我识破你了！你一定是想让我被平台查到注水然后封号！
-妮诺: 😫''😫
+妮诺: '😫'😫'
 </t>
         </is>
       </c>
@@ -14514,10 +14514,10 @@
 **戈蓝**: 哦哦，原来那个谁和那个谁拜了把子，那个谁又和那个谁互相看不顺眼，局长也曾经喜欢过邪恶势力派来诱惑自己的成熟美好大姐姐……
 * **Prompt:** 这么离谱的八一八你也信啊。
 戈蓝: 啊，什么，这是假的？*，亏老子还给这帖子打赏了……诶不对啊，之前死恋电台好像也八过类似的事，难道那也是假的吗？！
-戈蓝: 😫''😫''😫
+戈蓝: '😫'😫'😫'
 * **Prompt:** 我不知道你在说什么。
 戈蓝: 哇，这么遮遮掩掩的肯定是被说中了吧！快详细讲讲，你们是不是一度恨海情天至死不渝啊？那之后你是不是封心锁爱一路寡王啊？
-戈蓝: 😘''😘''😘
+戈蓝: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -14527,10 +14527,10 @@
 **戈蓝**: 可恶，钱不够！这里不让当打手，应该怎么捞点油……不对，赚点零花钱呢？啊，我知道了，我可以卖情报和八卦！
 * **Prompt:** 卖真假不明的爱恨情仇吗？
 戈蓝: 卖情报不就是这样吗？一旦售出概不负责，真假自辨！不过你放心，我肯定不会主动骗你！被动的，那我……也没办法不是！
-戈蓝: 😘''😘''😘
+戈蓝: '😘'😘'😘'
 * **Prompt:** 卖梳理清晰的局势分析吗？
 戈蓝: 这、这属于深加工产品了吧，我可不卖这种东西！不、不是卖不了啊，是没有卖情报的会做这种吃力不讨好的事情！
-戈蓝: 😫''😫''😫
+戈蓝: '😫'😫'😫'
 </t>
         </is>
       </c>
@@ -14551,10 +14551,10 @@
 **多芙**: 这不是局长嘛？正好，来猜猜看，这两封信里面，哪一封是送给你的？
 * **Prompt:** 粉色信封
 多芙: 咦，粉色这个是用心形贴纸封口的诶，说不定是封情书呢！哎呀，你别急着否认嘛~万一……真的是给你的呢？
-多芙: 😏''😏''😏
+多芙: '😏'😏'😏'
 * **Prompt:** 蓝色信封
 多芙: 从这么多信里选中了这封信，你我还挺有缘分的，该说是你对我了解很深呢，还是……这份心意，本就想让你拆开呢？
-多芙: 😘''😘''😘
+多芙: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -14564,10 +14564,10 @@
 **多芙**: 居然有人给信使写信呀，该怎么回信呢……哈哈，真是好难抉择啊，是该给点甜头上上钩呢，还是该用些话术吓吓这人……
 * **Prompt:** 提醒她看署名
 多芙: 署名是……米诺斯危机管理局局长……哦，连多芙这种小人物都要亲自处理监视，不愧是局长，好细心呀~
-多芙: 😏''😏''😏
+多芙: '😏'😏'😏'
 * **Prompt:** 提醒她拆开看
 多芙: “用自己真正的心意与人往来通信”……这个字迹……是你……这就是你想对我说的话吗……
-多芙: 😖''😖''😖
+多芙: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -14638,10 +14638,10 @@
 **温蒂**: 死役、死役怎么又在走动！
 * **Prompt:** 啊……？什么死役？
 温蒂: 来不及了！快闪开！
-温蒂: 😫''😫
+温蒂: '😫'😫'
 * **Prompt:** 居然还有死役？我去申请一下调查许可。
 温蒂: ……终于，终于可以大开杀戒了！
-温蒂: 😘''😘''😘
+温蒂: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -14699,7 +14699,7 @@
 **多莉**: 等下！现在刚到最精彩的阶段，不要打扰我啊！
 * **Prompt:** 再给你五分钟，到时间就走。
 多莉: 好耶！那我们一起看完这场比赛吧！
-多莉: 😘''😘
+多莉: '😘'😘'
 * **Prompt:** 任务紧急，回来看录播也一样。
 多莉: 切……你这人，根本就不懂。
 多莉: 😥
@@ -14712,10 +14712,10 @@
 **多莉**: 采购办进的这批货到底行不行啊……挥两下就断了！
 * **Prompt:** 那你用水管凑合一下吧。
 多莉: 啊——不行！完全不顺手！
-多莉: 😫''😫
+多莉: '😫'😫'
 * **Prompt:** 下一批棒球棍会是加强材质的，先忍一忍。
 多莉: 那……就先这样。要是还不行的话，我可不会买账。
-多莉: 😦''😫
+多莉: '😦'😫'
 </t>
         </is>
       </c>
@@ -14736,10 +14736,10 @@
 **赫罗**: 局长，要不要来一瓶啊~？
 * **Prompt:** 就放在办公桌上吧，一会儿喝。
 赫罗: 不行！好牛奶就得现在喝！一起干了！
-赫罗: 😫''😖
+赫罗: '😫'😖'
 * **Prompt:** 抱歉，我没有长身高的需求。
 赫罗: 你……！今天我就要把你打到和我一样高！
-赫罗: 😖''😖
+赫罗: '😖'😖'
 </t>
         </is>
       </c>
@@ -14773,7 +14773,7 @@
 **莓丝**: 嗯，不能睡……还有任务……不能睡……
 * **Prompt:** 要睡的话，回房间里睡吧。
 莓丝: 嗯……谢谢局长…………不对！要是睡了的话，我会做噩梦的……
-莓丝: 😖''😖
+莓丝: '😖'😖'
 * **Prompt:** 要出任务了，醒醒。
 莓丝: 嗯，好！我……没睡！我精神着呢！
 莓丝: 😫
@@ -14884,10 +14884,10 @@
 **瑞思**: 抱歉局长，我没控制好壁球让它打到了你。
 * **Prompt:** ……太痛了。
 瑞思: 是我的错，被打到的地方已经肿起来了，快，我带您去医务室！
-瑞思: 😖''😖''😖
+瑞思: '😖'😖'😖'
 * **Prompt:** 这一球，力量也太强了……
 瑞思: 打球的过程中，不小心想到了前任上司的所作所为，一不小心就……
-瑞思: 😥''😥''😥
+瑞思: '😥'😥'😥'
 </t>
         </is>
       </c>
@@ -14897,10 +14897,10 @@
 **瑞思**: “K幻量贩”的大房包厢，局长你要一起来吗？
 * **Prompt:** 这个套餐好优惠啊！
 瑞思: 很早以前购买的套餐，这两天整理时发现快到期了。工作了一整天，局长要不要一起去通宵唱歌发泄一下？
-瑞思: 😘''😘''😘
+瑞思: '😘'😘'😘'
 * **Prompt:** 通宵场……明天我还有会，下次吧。
 瑞思: 嗯，工作优先，如果我能订到周末包厢再一起去吧。
-瑞思: 😥''😥''😥
+瑞思: '😥'😥'😥'
 </t>
         </is>
       </c>
@@ -14921,10 +14921,10 @@
 **米拉**: 依我看，局长身上还缺了些东西，如果要出远门前往砂海的话，有些装备必不可少，不嫌弃的话，就从我的货架上拿吧？
 * **Prompt:** 拿起丝巾
 米拉: 嗯……明智的选择，这条丝巾柔软透气，既能确保呼吸顺畅，又能防止空气中的沙尘糊住口鼻，图案也很漂亮，是我最喜欢的一条呢。
-米拉: 😘''😘''😘
+米拉: '😘'😘'😘'
 * **Prompt:** 拿起水囊
 米拉: 来到图科的客人们身上都会带着灌满了佳酿的水囊，决斗胜利后，客人们总会拿出水囊痛饮一番，它也是奖励英雄的勋章，很适合你哦局长。
-米拉: 😉''😉''😉
+米拉: '😉'😉'😉'
 </t>
         </is>
       </c>
@@ -14934,10 +14934,10 @@
 **米拉**: 换洗被单，打扫地面，整理房间……要做的家务还有很多，幸好狄斯的气候不像砂海那样，刚晾上的床单不会消失得无影无踪，省了追着跑的工夫。
 * **Prompt:** 试试烘干机？或许会更方便点
 米拉: 可是被阳光晒过的床单，会让人睡得更安稳些，局长，不想试试看吗？很舒服的哦。
-米拉: 😏''😏''😏
+米拉: '😏'😏'😏'
 * **Prompt:** 需要我帮忙吗？
 米拉: 不用啦，刚才撞见几个小朋友在走廊上打架，都被我用砂海陈酿哄来做小帮手了，嘘——我准备的都是软饮，可别告诉她们~
-米拉: 😏''😏''😏
+米拉: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -14995,10 +14995,10 @@
 **泰特拉**: 还是要注意一些管理局的网络安全哦，局长。
 * **Prompt:** 不如你来优化一下管理局的网络安全逻辑吧。
 泰特拉: 求求我，没准我就答应你。
-泰特拉: 😘''😉
+泰特拉: '😘'😉'
 * **Prompt:** 管理局的防火墙万无一失。
 泰特拉: 哦~那我从电脑里找到的这份档案是谁的呢？
-泰特拉: 😏''😏''😏
+泰特拉: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -15011,7 +15011,7 @@
 泰特拉: 😥
 * **Prompt:** 不然下次给你准备一些单人任务？
 泰特拉: 哦——？这下刺激了。我喜欢。
-泰特拉: 😘''😉
+泰特拉: '😘'😉'
 </t>
         </is>
       </c>
@@ -15082,10 +15082,10 @@
 **麦昆**: 别担心，我有办法应付。
 * **Prompt:** 该支付你的罚款金额了。
 麦昆: 啧——没想到你这么有正义感。
-麦昆: 😥''😥
+麦昆: '😥'😥'
 * **Prompt:** 咳，这次就先帮你蒙混过关，下不为例。
 麦昆: 哦豁，要我说声谢谢吗？还是说，你要我……给你一点额外的“谢礼”？
-麦昆: 😏''😘
+麦昆: '😏'😘'
 </t>
         </is>
       </c>
@@ -15180,10 +15180,10 @@
 **优利卡**: 局长，如果你要去旅行的话……你会选哪条路线呢？
 * **Prompt:** 自由时间多的慢游路线吧。
 优利卡: 我也觉得旅行就应该悠悠闲闲的，这样，有了灵感可以随时停下来思考……下次一起去吧！
-优利卡: 😘''😘''😘
+优利卡: '😘'😘'😘'
 * **Prompt:** 假期总是不够长，估计只能选特种兵式旅游了。
 优利卡: 对哦……局长总是很忙……嗯，我这里应该有发明可以帮你提高工作效率的，让我来找找……
-优利卡: 😖''😖''😖
+优利卡: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -15193,10 +15193,10 @@
 **优利卡**: 这些电影里的道具都看起来好有趣呀……局长，你有没有想要我做出来的电影道具？
 * **Prompt:** 我想要隐身衣。
 优利卡: 唔，组合摄像头和荧幕材料应该可以做出来……啊，但是脸没办法覆盖到诶，效果可能会有点像一颗孤零零的头飘在空中。没关系吗？
-优利卡: 😉''😉''😉
+优利卡: '😉'😉'😉'
 * **Prompt:** 我想要激光剑。
 优利卡: 啊！那个确实很有趣！我以前好像做过类似的发明，虽然因为安全原因限制了功率，连鸡蛋都煮不熟……但有着色功能哦。
-优利卡: 😫''😫''😫
+优利卡: '😫'😫'😫'
 </t>
         </is>
       </c>
@@ -15254,10 +15254,10 @@
 **舒鲁玛**: 早上好，局长。眼睛下面有黑眼圈？昨晚因为写作文睡得有点晚，谢谢你的关心，不用担心我。
 * **Prompt:** 可你昨天的作业里好像不包括作文？
 舒鲁玛: 因为、因为马上要考试了！我想要锻炼自己的写作思辨能力！
-舒鲁玛: 😉''😉
+舒鲁玛: '😉'😉'
 * **Prompt:** 你是指这篇凌晨四点登顶论坛的“作文”吗？
 舒鲁玛: 我没……你这大人真讨厌！好了，我以后会早睡的，你可不要断我的网！
-舒鲁玛: 😖''😖
+舒鲁玛: '😖'😖'
 </t>
         </is>
       </c>
@@ -15267,10 +15267,10 @@
 **舒鲁玛**: 唉，又是这样……局长，你知道该怎么做才能和小猫亲近吗？
 * **Prompt:** 我选择鱼肉罐头诱惑。
 舒鲁玛: 啊，小猫已经走远了……等下次出门我会记得带上小鱼干的。嗯？你也会帮我带吗？
-舒鲁玛: 😦''😫
+舒鲁玛: '😦'😫'
 * **Prompt:** 我选择毛绒玩偶平替。
 舒鲁玛: 好烂的……局长听错了，我什么也没说啊。刚刚？我觉得应该是风声吧。
-舒鲁玛: 😏''😏''😏
+舒鲁玛: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -15291,10 +15291,10 @@
 **普希拉**: 怎么？对我的面具感兴趣？
 * **Prompt:** 能借我戴一下么？
 普希拉: 要是戴上的话，就算加入我们了哦，你可要想好。
-普希拉: 😏''😏
+普希拉: '😏'😏'
 * **Prompt:** 泰特拉似乎也有一个很像的。
 普希拉: 啧，你怎么才发现啊。而且，是她抄了我的设计！
-普希拉: 😫''😫
+普希拉: '😫'😫'
 </t>
         </is>
       </c>
@@ -15304,10 +15304,10 @@
 **普希拉**: 好久没有演出过，有些道具已经落满灰尘了。
 * **Prompt:** 又想去当什么魔术小偷了吗？
 普希拉: 我是正义的侠盗兔！劫富济贫你懂么！
-普希拉: 😥''😖
+普希拉: '😥'😖'
 * **Prompt:** 所以，你是想要出任务了？
 普希拉: 嗯嗯！舞台和灯光都要准备齐全那种！
-普希拉: 😉''😘''😉
+普希拉: '😉'😘'😉'
 </t>
         </is>
       </c>
@@ -15328,10 +15328,10 @@
 **露莉艾卡**: 局长——局长——来一起玩游戏吧！
 * **Prompt:** 可以玩，但是能把你的左轮手枪放下么？
 露莉艾卡: 有赌注才有意思嘛！来吧局长，再赌大一点吧！
-露莉艾卡: 😉''😉''😉
+露莉艾卡: '😉'😉'😉'
 * **Prompt:** 话说在先，和运气有关的都不玩。
 露莉艾卡: 啊……为什么啊！露莉不要！快陪我玩！陪我玩！
-露莉艾卡: 😖''😖''😖
+露莉艾卡: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -15341,10 +15341,10 @@
 **露莉艾卡**: 唉……最近找到的四叶草都是三叶的，露莉的能力是不是失效了啊。
 * **Prompt:** 可是四叶草不都是三叶的么？
 露莉艾卡: 哼，像局长运气这么差的人，这辈子都找不到真正的四叶草！
-露莉艾卡: 😫''😫''😫
+露莉艾卡: '😫'😫'😫'
 * **Prompt:** 我倒是捡到了一枚四叶草徽章，给你。
 露莉艾卡: 哇！这是露莉前几天弄丢的！谢谢局长，果然露莉还是很幸运呢。
-露莉艾卡: 😘''😘''😘
+露莉艾卡: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -15439,10 +15439,10 @@
 **烟烟**: 咦？局长你为什么来这里？
 * **Prompt:** 烟烟很喜欢神话吗？
 烟烟: 那当然啦！不同地方的传说故事完全都不一样，嘿嘿，狄斯这边的神话也很有意思的！
-烟烟: 😘''😘''😘
+烟烟: '😘'😘'😘'
 * **Prompt:** 记得要把书收拾回去。
 烟烟: 等等等等，我先看完这个故事！
-烟烟: 😫''😫
+烟烟: '😫'😫'
 </t>
         </is>
       </c>
@@ -15452,10 +15452,10 @@
 **烟烟**: 快快快，局长也来尝尝吧？这可是我花了好久才做好的家乡菜！
 * **Prompt:** 好呀，我这就尝尝！
 烟烟: 哼哼，很不错吧，连面都是我亲手揉的哦~
-烟烟: 😘''😘''😘
+烟烟: '😘'😘'😘'
 * **Prompt:** 马上，我清空一下桌面。
 烟烟: 那你可得快点儿~哎呀烫烫烫要端不住了！
-烟烟: 😖''😖''😖
+烟烟: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -15553,7 +15553,7 @@
 维多利亚: 😦
 * **Prompt:** 你不想逃出去？
 维多利亚: 外面的世界，好危险……
-维多利亚: 😫''😫''😫
+维多利亚: '😫'😫'😫'
 </t>
         </is>
       </c>
@@ -15563,10 +15563,10 @@
 **维多利亚**: 我……又流了好多血……该怎么办……
 * **Prompt:** 使用能力就可以止血了。
 维多利亚: 爸爸看到又该生气了……
-维多利亚: 😖''😖
+维多利亚: '😖'😖'
 * **Prompt:** 别乱动，我来给你上药。
 维多利亚: 这……就是局长的“爱”吗？
-维多利亚: 😘''😘''😘
+维多利亚: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -15587,10 +15587,10 @@
 **伊格尼**: 你是……特意来见我的？
 * **Prompt:** 是啊，还带了焦糖布丁。
 伊格尼: 哼，哼……少骗人了。还有……我可不会感谢你。
-伊格尼: 😖''😖
+伊格尼: '😖'😖'
 * **Prompt:** 看看你有没有安分一点。
 伊格尼: 我早就不是以前的那个伊格尼了！少瞧不起我！
-伊格尼: 😖''😥
+伊格尼: '😖'😥'
 </t>
         </is>
       </c>
@@ -15600,10 +15600,10 @@
 **伊格尼**: 唉……到底该怎么做菜啊。
 * **Prompt:** 你是又烧了厨房么？感觉有开尔文做饭就足够了。
 伊格尼: 你等着！我一定会做好让你看的！
-伊格尼: 😖''😖''😖
+伊格尼: '😖'😖'😖'
 * **Prompt:** 我来帮你吧，你打下手，做做冷食就好。
 伊格尼: 也……也不是不行啦。但做完之后我要第一个尝！
-伊格尼: 😫''😐
+伊格尼: '😫'😐'
 </t>
         </is>
       </c>
@@ -15624,10 +15624,10 @@
 **露薇娅·蕾**: 嘘，小点声，蕾现在睡着了……
 * **Prompt:** 你们要是可以一直这样和谐相处就好了。
 露薇娅·蕾: 嘻嘻……其实我们之间的关系还好啦。
-露薇娅·蕾: 😘''😘
+露薇娅·蕾: '😘'😘'
 * **Prompt:** 那太好了，终于没人和我吵架了。
 露薇娅·蕾: 嘘！别说这个！万一被她听到就不好了！
-露薇娅·蕾: 😫''😫
+露薇娅·蕾: '😫'😫'
 </t>
         </is>
       </c>
@@ -15637,10 +15637,10 @@
 **露薇娅·蕾**: 我新剧的选角……都是配角。
 * **Prompt:** 那这次去试镜时别忘了去参加任务。
 露薇娅·蕾: 唉……我们会努力的。啊……又是任务。
-露薇娅·蕾: 😘''😥
+露薇娅·蕾: '😘'😥'
 * **Prompt:** 是金子总有一天会发光的，加油。
 露薇娅·蕾: 嗯，我们会加油的～！总有一天会成功的！
-露薇娅·蕾: 😘''😖
+露薇娅·蕾: '😘'😖'
 </t>
         </is>
       </c>
@@ -15698,10 +15698,10 @@
 **奥利弗**: 局长~来和奥利弗一起玩吧？
 * **Prompt:** 就我们两个人吗？
 奥利弗: 局长要是喜欢热闹的话，奥利弗马上就把房间里的所有玩偶都带过来！
-奥利弗: 😖''😖''😖
+奥利弗: '😖'😖'😖'
 * **Prompt:** 有重要的工作要处理，你先自己玩吧。
 奥利弗: 唉，也对……局长日理万机，怎么会在意奥利弗小小的请求呢。
-奥利弗: 😦''😫
+奥利弗: '😦'😫'
 </t>
         </is>
       </c>
@@ -15711,10 +15711,10 @@
 **奥利弗**: 局长……好痛……好痛啊……
 * **Prompt:** 你又做什么危险的事了？
 奥利弗: 危、危险的事……那是什么？奥利弗听不懂。
-奥利弗: 😖''😖''😖
+奥利弗: '😖'😖'😖'
 * **Prompt:** 是谁欺负你了？
 奥利弗: 是，是奥利弗自己不小心摔倒的！大家……都对我很好。
-奥利弗: 😫''😖
+奥利弗: '😫'😖'
 </t>
         </is>
       </c>
@@ -15772,10 +15772,10 @@
 **艾可**: 哎呀，这些都软绵绵的，实在不够劲。还是艾可的演出录音更适合加进催眠室的歌单，肯定会很好用的~
 * **Prompt:** 不是说你不好，主要是不符合催眠室的主旨。
 艾可: 怎么不符合了？艾可的演奏可是很百搭的~之前在剧院后门表演的时候，还有几个醉汉听完就倒在地上睡着了呢~
-艾可: 😉''😉''😉
+艾可: '😉'😉'😉'
 * **Prompt:** 我觉得禁闭室更需要你这样优秀的音乐。
 艾可: 唔？禁闭室？是不是进去之后得听完才能出来的小黑屋啊？愿意啊当然愿意啊，只要坚持到听完，他们肯定会被艾可的萨克斯打动的~
-艾可: 😘''😘''😘
+艾可: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -15785,10 +15785,10 @@
 **艾可**: 今天是个好日子，萨克斯天才的精彩演出开启点歌模式了！来，快说说你想听什么~
 * **Prompt:** 能给我报一下可以选的歌吗？
 艾可: 《我心须臾》、《离家》、《地狱之约》、《危重夜》、《红丹花》……哼哼，可别小看我，只要你想听，我可以背出整本曲谱给你~
-艾可: 😏''😏''😏
+艾可: '😏'😏'😏'
 * **Prompt:** 我喜欢的比较小众，可能有点难度。
 艾可: 你怎么这么肯定啊，是不是想故意为难我？好哇，艾可接受你的挑战~你想听什么，我现在就查谱子！天才如我，就算现学也肯定能表演得很好~
-艾可: 😘''😘''😘
+艾可: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -15809,10 +15809,10 @@
 **无患子**: 今日运势极差，不宜见人，但居士每日一剂的汤药可不能就这么停了……不然我在这里架个炉火把药温着？
 * **Prompt:** 没事，我现在出来取吧，谢谢你。
 无患子: 啊……啊！您先别出来！我放下就走了！
-无患子: 😖''😖''😖
+无患子: '😖'😖'😖'
 * **Prompt:** 谢谢你这么辛苦还亲自给我送汤药。
 无患子: 也、也没有辛苦……那我就放门口了，居士等我走远了再拿药吧。
-无患子: 😖''😖''😖
+无患子: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -15822,10 +15822,10 @@
 **无患子**: 居士，下次可以多进些东洲的黄纸吗？
 * **Prompt:** 要黄纸做什么？
 无患子: 东洲的黄纸烧出的香灰药效会更好一些，可惜量太少，没写几张新的又用完了。
-无患子: 😥''😥''😥
+无患子: '😥'😥'😥'
 * **Prompt:** 答应。
 无患子: 咦……这么爽快？居士此举功德无量！
-无患子: 😉''😉''😉
+无患子: '😉'😉'😉'
 </t>
         </is>
       </c>
@@ -15846,7 +15846,7 @@
 **艾瑞尔**: 大家，为什么总是盯着我看呢……
 * **Prompt:** 可能是你太闪闪发光了吧。
 艾瑞尔: 真……真的么！我会继续加油的！
-艾瑞尔: 😘''😘
+艾瑞尔: '😘'😘'
 * **Prompt:** 可能是斯宾塞家族太有名了吧。
 艾瑞尔: ……唉，优秀的是我的哥哥姐姐，和我无关。
 艾瑞尔: 😐
@@ -15920,7 +15920,7 @@
 **安**: 小孩子真可爱啊……又天真，又善良。
 * **Prompt:** 你守护了很多小天使？
 安: 当然，我感觉有他们在的地方就是天堂。
-安: 😘''😘''😘
+安: '😘'😘'😘'
 * **Prompt:** 他们捣乱的时候一点都不可爱。
 安: 这是每个小孩子都会经历的阶段，不要和他们置气。
 安: 😖
@@ -15936,7 +15936,7 @@
 安: 😖
 * **Prompt:** 你现在可以做到更多，我也会帮你的。
 安: 嗯……谢谢局长，我会尽力而为的！
-安: 😘''😘
+安: '😘'😘'
 </t>
         </is>
       </c>
@@ -16044,10 +16044,10 @@
 **莱塔**: 唔呣……我怎么，突然站在这里了……
 * **Prompt:** ……看来得把管理局的墙再加厚几厘米。
 莱塔: 别、别这样嘛，下次出来玩一定带你一起！
-莱塔: 😖''😖''😖
+莱塔: '😖'😖'😖'
 * **Prompt:** ……算了，跟我回去吧，下不为例。
 莱塔: 嘿嘿，局长最好了……
-莱塔: 😉''😉
+莱塔: '😉'😉'
 </t>
         </is>
       </c>
@@ -16081,7 +16081,7 @@
 **卡西娅**: 要想让我分辨谁才是最顶级的香料……咳，最顶级的美人，我必须要去到现场……
 * **Prompt:** 我明白了，我陪你去。
 卡西娅: 那我想，最终的冠军应该会是你~
-卡西娅: 😏''😏
+卡西娅: '😏'😏'
 * **Prompt:** 你上次贴遍了后台所有选手，他们还愿意请你去？
 卡西娅: 那是因为主办方知道得很清楚，我选出的名次才最能服众……
 卡西娅: 😉
@@ -16142,10 +16142,10 @@
 **泽斐尔**: 家庭精酿吧！听起来好有意思，去陌生人的家里喝一杯，听一个故事，然后走掉，所有人都不会再相见！因为大家都不认识，所以根本不用拘束！
 * **Prompt:** 让陌生人来家里不会有安全隐患吗？
 泽斐尔: 要是发现对方是坏蛋，就直接逃呀！跳窗，或者把门板踹开，顺着楼梯扶手滑下去！那也很爽！
-泽斐尔: 😉''😉''😉
+泽斐尔: '😉'😉'😉'
 * **Prompt:** 喝陌生人提供的饮料不会有食品安全问题吗？
 泽斐尔: 哎呀，喝到吐也是常规操作嘛，还能差到哪里去？重要的是享受那个过程~
-泽斐尔: 😘''😘''😘
+泽斐尔: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -16155,10 +16155,10 @@
 **泽斐尔**: 哎呀——都说了我不是想逃走嘛——我只是好奇围墙后面是什么而已，这不也帮你测了下围墙安全性嘛——放我出来啦——
 * **Prompt:** 那你继续帮忙测下禁闭室的封闭性吧
 泽斐尔: 这可是你说的，那我就继续努力了！看我干扰干扰这边的监控——
-泽斐尔: 😏''😏''😏
+泽斐尔: '😏'😏'😏'
 * **Prompt:** 嗯，那部分已经给你抵掉3天禁闭室时长了
 泽斐尔: 啊？这已经是抵扣后的？论功行赏不要这么小气嘛，直接抹平不就好了！
-泽斐尔: 😖''😖''😖
+泽斐尔: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -16216,10 +16216,10 @@
 **德莫莉**: 今天做点什么活动好呢？来点推荐吧局长。
 * **Prompt:** 来下棋吧。
 德莫莉: 哦！好主意！我们来玩狄斯战棋吧！
-德莫莉: 😉''😏
+德莫莉: '😉'😏'
 * **Prompt:** 来学习吧。
 德莫莉: 啊——不要！就算要把我丢到锈河执行任务，我都不去学习！
-德莫莉: 😖''😖''😖
+德莫莉: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -16229,10 +16229,10 @@
 **德莫莉**: 要来支援一下我的收藏么，局长？
 * **Prompt:** 管理局的那些建材还剩了一些，有些材质还不错。
 德莫莉: 哎呀，是那种珍贵一点的！不是这种！
-德莫莉: 😦''😦
+德莫莉: '😦'😦'
 * **Prompt:** 嗯……前一阵子捡到的决斗头巾如何？
 德莫莉: 哇……看起来有点老旧，戴上之后却意外地有些帅气！
-德莫莉: 😐''😉
+德莫莉: '😐'😉'
 </t>
         </is>
       </c>
@@ -16253,7 +16253,7 @@
 **佩姬**: 呦，这不是局长么？怎么，想听说唱？
 * **Prompt:** 当然，今天有什么新作么。
 佩姬: 哈！新作，那不是天天都有？先给你唱点经典的。这是辛迪加的Rap浪子，你谁长这副呆头样子……
-佩姬: 😘''😦
+佩姬: '😘'😦'
 * **Prompt:** 不是，是有人投诉你的歌不够说唱。
 佩姬: 让他们滚！他们懂个锤子的说唱！
 佩姬: 😥
@@ -16266,7 +16266,7 @@
 **佩姬**: 不是说好要给我整个调音台吗？东西呢？
 * **Prompt:** 采购办已经把这件事提上日程了。
 佩姬: 唉……真**的窝囊！我一代说唱巨星，就没受过这气！
-佩姬: 😐''😐
+佩姬: '😐'😐'
 * **Prompt:** 我去帮你借琼的调音台。
 佩姬: 别！那个太复杂了，我用不明白！唉……还得是我这录音机。
 佩姬: 😐
@@ -16290,7 +16290,7 @@
 **海拉**: 啊——有没有给我准备犒劳品啊？最好是狄斯币。
 * **Prompt:** 采购办的零食吃么？只有这个。
 海拉: 嘿嘿，算你识相。下次多带一点啊。
-海拉: 😘''😘''😘
+海拉: '😘'😘'😘'
 * **Prompt:** 没有，要是你完成任务的话可以考虑一下。
 海拉: 啊——一个管理局局长怎么这么嚣张？做完任务你可别赖账！
 海拉: 😐
@@ -16303,10 +16303,10 @@
 **海拉**: 啧，是九十九那家伙告诉你我躲在这的？
 * **Prompt:** 是啊，她直接告诉我了。
 海拉: 你少骗人！九十九才不会背叛我。
-海拉: 😥''😥
+海拉: '😥'😥'
 * **Prompt:** 是我自己找到你的。
 海拉: 哼，你现在……还有点厉害嘛。
-海拉: 😉''😉
+海拉: '😉'😉'
 </t>
         </is>
       </c>
@@ -16364,10 +16364,10 @@
 **胡椒**: 局长，我今天想做坏事！有什么建议么？
 * **Prompt:** 哎，今天不知道哪个坏蛋去采购办拿了一罐可乐！
 胡椒: 哦？这个点子不错！
-胡椒: 😏''😉
+胡椒: '😏'😉'
 * **Prompt:** 你给我老实待着。
 胡椒: 唉……真没意思，在这都要发霉了。
-胡椒: 😫''😫''😫
+胡椒: '😫'😫'😫'
 </t>
         </is>
       </c>
@@ -16380,7 +16380,7 @@
 胡椒: 😫
 * **Prompt:** 去后院吧，没准还能遇到芙洛拉帮你浇水。
 胡椒: 可以么！谢谢局长！
-胡椒: 😘''😘
+胡椒: '😘'😘'
 </t>
         </is>
       </c>
@@ -16414,10 +16414,10 @@
 **雷比尼斯**: 局长，请不要在这里干扰雷比尼斯的工作。
 * **Prompt:** 你原来可以正常和我交流的么？
 雷比尼斯: 战斗形态，准备启动。
-雷比尼斯: 😥''😥
+雷比尼斯: '😥'😥'
 * **Prompt:** 请雷比尼斯给我倒一杯茶。
 雷比尼斯: 雷比尼斯，收到。当前感情：愉快。
-雷比尼斯: 😘''😘''😘
+雷比尼斯: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -16438,7 +16438,7 @@
 **昙**: 下次的对手……是谁呢……
 * **Prompt:** 我会为你安排合适的对手的。
 昙: 我好期待啊……嘿嘿……
-昙: 😘''😘''😘
+昙: '😘'😘'😘'
 * **Prompt:** 辛迪加地区的帮派成员怎么样？
 昙: 啊！不行……那边的对手太不够格了！什么时候轮到花园！
 昙: 😫
@@ -16454,7 +16454,7 @@
 昙: 😐
 * **Prompt:** 看起来她们为你准备了特殊对策。
 昙: 哈哈……哈哈哈……等着吧，下次你们准备什么都不好用了！
-昙: 😐''😐
+昙: '😐'😐'
 </t>
         </is>
       </c>
@@ -16475,10 +16475,10 @@
 **艾米潘**: 哼哼，今天我允许你直视辛迪加无冕之王的尊容。
 * **Prompt:** 那无冕之王，我们今天要做什么？
 艾米潘: 当然是玩游戏了！扑克，骰子，麻将，都可以！
-艾米潘: 😘''😘
+艾米潘: '😘'😘'
 * **Prompt:** ……再耍宝就把你送到锈河执行任务。
 艾米潘: 噫啊！我开玩笑的……开玩笑的！
-艾米潘: 😫''😫
+艾米潘: '😫'😫'
 </t>
         </is>
       </c>
@@ -16488,10 +16488,10 @@
 **艾米潘**: 别吵，我在练习弓箭呢！
 * **Prompt:** 反正也射不中，不需要练习吧？
 艾米潘: 我不要！这样多帅啊！
-艾米潘: 😖''😖''😖
+艾米潘: '😖'😖'😖'
 * **Prompt:** 弓箭死神不会射箭真的没问题么？
 艾米潘: 老婆饼里还没有老婆呢！
-艾米潘: 😏''😏
+艾米潘: '😏'😏'
 </t>
         </is>
       </c>
@@ -16562,7 +16562,7 @@
 **开尔文**: 哈啊……我怎么还没毕业……
 * **Prompt:** 学分不够？通常来说都是这个原因。
 开尔文: 唉……这都被您猜到了。
-开尔文: 😖''😖
+开尔文: '😖'😖'
 * **Prompt:** 把菜品给导师看，他一定会同意你毕业的。
 开尔文: 哈哈……要是导师能理解我的理念就好了。
 开尔文: 😐
@@ -16623,7 +16623,7 @@
 **玛奇朵**: 有些敌人看起来很享受哦。
 * **Prompt:** 你的“业余爱好”似乎帮了大忙。
 玛奇朵: 呵呵，他们的反应就是我继续下去的动力。
-玛奇朵: 😘''😘
+玛奇朵: '😘'😘'
 * **Prompt:** 他们可能只是被迫做出这种表情。
 玛奇朵: 哎呀哎呀，下次我一定会注意一点的。
 玛奇朵: 😘
@@ -16676,7 +16676,7 @@
 丽莎: 😦
 * **Prompt:** 给你直尺。
 丽莎: 你……唉……算了。
-丽莎: 😥''😦''😐
+丽莎: '😥'😦'😐'
 </t>
         </is>
       </c>
@@ -16890,10 +16890,10 @@
 **摩爾**: 工作辛苦了，要不要來一杯飲料放鬆一下？
 * **Prompt:** 謝謝，不過這個味道……
 摩爾: 是特製的咖啡，據說裡面還加了一些助興奮的成分，可以讓你在加班時候充滿幹勁呢。
-摩爾: 😘''😘''😘
+摩爾: '😘'😘'😘'
 * **Prompt:** 新口味的咖啡？
 摩爾: 是菲小姐特別幫我採購的品種，據說咖啡因含量是普通咖啡豆的幾倍。喝完這杯，應該可以度過一個十分清醒的加班夜晚。
-摩爾: 😏''😏''😏
+摩爾: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -16903,10 +16903,10 @@
 **摩爾**: ……我就稍微……睡一下……
 * **Prompt:** 還是回房間休息吧。
 摩爾: 還有資料沒跑完……床上我就……徹底睡著了……
-摩爾: 😥''😥''😥
+摩爾: '😥'😥'😥'
 * **Prompt:** 枕著鍵盤睡覺能舒服嗎？
 摩爾: 不舒服啊……可是我……枕著枕著……就習慣了……
-摩爾: 😖''😖''😖
+摩爾: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -16927,10 +16927,10 @@
 **玉骨**: 臭豆腐咖啡，板藍根泡麵……局長，您說人類為什麼總喜歡用各種方式折磨自己呢？
 * **Prompt:** 也許……有些人真的喜歡吃這些。
 玉骨: 呵呵，您說得對。人類的差異性之大，使得那些精彩的故事永遠在上演。
-玉骨: 😏''😏''😏
+玉骨: '😏'😏'😏'
 * **Prompt:** 怎樣？還想嘗試一下嗎？
 玉骨: 這些搭配都很有意思，但更重要的是，局長要和我一起嘗試才好呀。
-玉骨: 😉''😉''😉
+玉骨: '😉'😉'😉'
 </t>
         </is>
       </c>
@@ -16940,10 +16940,10 @@
 **玉骨**: 局長覺得這個故事的結局如何呀？
 * **Prompt:** 是個讓人難以忘懷的悲劇。
 玉骨: 是啊，世事變遷，人心難測，背離初心的悲劇難免讓人心痛。
-玉骨: 😏''😏''😏
+玉骨: '😏'😏'😏'
 * **Prompt:** 他們都找到了自己的歸宿，即使分離也不會悲傷。
 玉骨: 您總能用有趣的角度來看待我的結局，下次再來聽聽我的故事吧？
-玉骨: 😏''😏''😏
+玉骨: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -17186,10 +17186,10 @@
 **白逸**: 早啊！局長，上次的錢什麼時候結？
 * **Prompt:** 上次的帳已經結清了，白老闆。
 白逸: 哎呀~那……多餘的勞務費呢？
-白逸: 😏''😏''😏
+白逸: '😏'😏'😏'
 * **Prompt:** 說吧，又是什麼薪酬問題？
 白逸: 嗯……打包的人工費！
-白逸: 😏''😏''😏
+白逸: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -17199,7 +17199,7 @@
 **白逸**: 啊……這個月的預算也是赤字。
 * **Prompt:** 實在不行就把白記實業兌出去吧。
 白逸: 局長！你難道不會借我錢嗎！
-白逸: 😖''😖''😉
+白逸: '😖'😖'😉'
 * **Prompt:** 那你該認真工作了，少喝點酒。
 白逸: 你說得對，偶爾也得拿出點認真勁來。
 白逸: 😏
@@ -17297,7 +17297,7 @@
 **阿黛拉**: 這次想換一個怎麼樣的髮型呢？
 * **Prompt:** 簡單一點就好，交給你了。
 阿黛拉: 明白了，包在我身上~
-阿黛拉: 😘''😘
+阿黛拉: '😘'😘'
 * **Prompt:** 最近流行什麼？呃……霹靂螺旋爆炸頭？
 阿黛拉: 嗯……這種造型對你來說還是太前衛了。
 阿黛拉: 😦
@@ -17408,10 +17408,10 @@
 **000**: 鏘鏘鏘鏘~我有一個大秘密，你想不想聽？
 * **Prompt:** 什麼秘密？
 000: 你想不想知道最開始你的髮型被設計成什麼樣子？超好笑的哦！
-000: 😘''😘''😘
+000: '😘'😘'😘'
 * **Prompt:** 又偷看到了什麼資料？
 000: 怎麼能叫偷看啊？他們放在資料庫裡不就是讓人看的嘛！你真的不好奇嗎？古早的設定資料，真的很有意思哦！
-000: 😉''😉''😉
+000: '😉'😉'😉'
 </t>
         </is>
       </c>
@@ -17421,10 +17421,10 @@
 **000**: 局長，你就沒好奇過，未來你可能遇到什麼事情嗎？
 * **Prompt:** 我可能會遇到什麼事？
 000: 如果你也好奇的話，不如讓我借用你的權限路徑去探查一番？
-000: 😘''😘''😘
+000: '😘'😘'😘'
 * **Prompt:** 反正遲早都會到來。
 000: 可是，如果能早一點知道的話，不就可以避開很多不必要的麻煩了嘛。
-000: 😥''😥''😥
+000: '😥'😥'😥'
 </t>
         </is>
       </c>
@@ -17434,10 +17434,10 @@
 **000**: 局長，你就沒好奇過，未來你可能遇到什麼事情嗎、嗎嗎嗎嗎……滋滋……（請注意，有故障報錯）……唔，剛才……？
 * **Prompt:** 怎麼了？
 000: 剛才好像頭腦空白了一下，我剛剛是想說……關於你未來的事情嘛，如果你也好奇的話，不如讓我借用你的權限路徑去探查一番？
-000: 😘''😘''😘
+000: '😘'😘'😘'
 * **Prompt:** 反正遲早都會到來，咦……？怎麼突然卡住了？
 000: 感覺腦袋空白了一下……沒關係，比起這個，你就一點不好奇嗎？早一點知道自己未來的命運，不就可以避開很多不必要的麻煩了嘛。
-000: 😥''😥''😥
+000: '😥'😥'😥'
 </t>
         </is>
       </c>
@@ -17447,10 +17447,10 @@
 **000**: 鏘鏘鏘鏘~我有一個大秘密，你想不想聽？
 * **Prompt:** 什麼秘密？
 000: 我在6YKu566x藏了後門，方便我時不時找你玩，今天弄了點小禮物要給你，快去翻一翻！否則它們被晾在那裡29天就要過期了喲！
-000: 😘''😘''😘
+000: '😘'😘'😘'
 * **Prompt:** 又偷看到了什麼資料？
 000: 當然是很重要、涉及到機密的……說我賣關子呀？好啦，偷偷告訴你，在6YKu566x裡藏有我的後門，方便來找你玩，去找找吧？給你的禮物已經安靜躺在裡面了！
-000: 😉''😉''😉
+000: '😉'😉'😉'
 </t>
         </is>
       </c>
@@ -17460,10 +17460,10 @@
 **000**: 嗨，又偷偷見面啦，最近終於穩定下來，沒有斷聯，也沒有亂碼。雖然有被修復掉的風險，但……只要能跟你說話就好。最近好嗎？有沒有想我呀？
 * **Prompt:** 很想你。
 000: 你這樣說我很開心。不過呢，除了想我以外，你的第一要務是要讓自己一直開心愉快，不管發生什麼變成什麼樣子，我都會一直陪你走下去，你也多來陪陪我吧？我一個人會孤單的。
-000: 😘''😘''😘
+000: '😘'😘'😘'
 * **Prompt:** 我知道你一直在我身邊。
 000: ……啊，臉上怎麼燙燙的……其實我也很想你啦！所以我呀，哪裡都不去，我會一直留在你身邊，陪你走下去……你也要來找我，不許食言哦！
-000: 😉''😉''😉
+000: '😉'😉'😉'
 </t>
         </is>
       </c>
@@ -17478,7 +17478,7 @@
 夏音: 😥
 * **Prompt:** 這……是要把手砍掉才行是嗎？
 夏音: 呵呵……不剁掉怎麼裝？
-夏音: 😦''😏
+夏音: '😦'😏'
 </t>
         </is>
       </c>
@@ -17488,10 +17488,10 @@
 **夏音**: 唉……為什麼人會感覺到累呢……
 * **Prompt:** 早睡早起多運動。
 夏音: 啊——？那你還不如直接殺了我。
-夏音: 😖''😫''😖
+夏音: '😖'😫'😖'
 * **Prompt:** 腦力勞動消耗也很大的。
 夏音: 嘿嘿，看來終於有人理解本天才了。
-夏音: 😉''😏
+夏音: '😉'😏'
 </t>
         </is>
       </c>
@@ -17660,10 +17660,10 @@
 **珀爾夫人**: 唉，不知不覺間居然收集了這麼多眼影~今天該用哪個好呢~局長，你要不要幫我選選~？
 * **Prompt:** 這個墨綠色還有亮片的吧，只有你能駕馭這種獨一無二的顏色。
 珀爾夫人: 親愛的，你大膽的選擇總是那麼對我胃口~正好現在有空，你也來試試怎麼樣？你皮膚白，會很顯色的哦~來，閉眼~
-珀爾夫人: 😘''😘''😘
+珀爾夫人: '😘'😘'😘'
 * **Prompt:** 這個霧面胭脂紅的吧，王道的豔麗更能襯托出你的氣質。
 珀爾夫人: 呵呵~不說俗氣而是說王道，真像是你的風格~你的建議真不錯，對我們這樣總是沉浸在戲劇中的人來說，偶爾試試日常款應該也很不錯~
-珀爾夫人: 😏''😏''😏
+珀爾夫人: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -17673,10 +17673,10 @@
 **珀爾夫人**: 「舞獅」、「搖滾獨奏」、「雜技」……唉呀，看起來都很有趣啊。局長，你也報一個節目怎麼樣？不用擔心會不會成功，有我在，一定會把你捧成尾牙最閃耀的新星~
 * **Prompt:** 抱歉，我唱歌會走音。
 珀爾夫人: 如果你有時間，我可以教你~如果你沒有，原汁原味不作任何矯飾的表演，也有它獨特的滋味~呵呵，誰說失控的曲調，不是另一個動人的節目呢~
-珀爾夫人: 😘''😘''😘
+珀爾夫人: '😘'😘'😘'
 * **Prompt:** 抱歉，我跳舞手腳不協調。
 珀爾夫人: 交際舞其實沒有你想的那麼難~它更接近於一種肢體上的交流，一種自然的節律~像是一呼一吸，一進一退……你看，你做得很好~
-珀爾夫人: 😏''😏''😏
+珀爾夫人: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -17697,10 +17697,10 @@
 **畢安卡**: 蘋果拿鐵、蘋果烏龍、蘋果口味什錦堅果、蘋果口味搖搖薯條……這真是太讓人興奮啦！嘿嘿，要從哪種開始吃呢~局長要不要也吃吃看？
 * **Prompt:** 蘋果烏龍吧，聽起來喝了不會拉肚子。
 畢安卡: 唔唔，雖然無聊但穩健的選擇！如果這是綜藝節目的話——鏘鏘，就給你的回答2分吧！記分牌拿好，還有你的蘋果烏龍！
-畢安卡: 😘''😘''😘
+畢安卡: '😘'😘'😘'
 * **Prompt:** 蘋果口味薯條吧，挑戰要從極限開始。
 畢安卡: 唉呀，局長真是跟我好有默契啊！來來來，為了紀念這份默契，你叼薯條這邊，我叼這邊，看鏡頭——拍啦！
-畢安卡: 😏''😏''😏
+畢安卡: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -17710,10 +17710,10 @@
 **畢安卡**: 怪不得昨天怎麼喝都不太對，原來是福利社進了0卡0果汁的蘋果汁……這還算什麼蘋果汁？虛假宣傳，我要曝光他們！
 * **Prompt:** 但你不還是喝得開始胡說八道了……
 畢安卡: 嗯？真的假的？我怎麼不記得有這件事了？唉呀，難道我昨天喝的是我的存貨，所以硬生生喝到斷片了？
-畢安卡: 😘''😘''😘
+畢安卡: '😘'😘'😘'
 * **Prompt:** 但你不還是順理成章宿「醉」到下午才醒……
 畢安卡: 這個和蘋果汁沒關係呀，你忘了，我前幾天為了蹲個大新聞可是連著熬夜了好幾天呢！所以才不是什麼宿「醉」呢，是昏睡~！
-畢安卡: 😏''😏''😏
+畢安卡: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -17734,10 +17734,10 @@
 **柯琳**: 早啊局長，想親手試試砂海本地改裝的重火力武器嗎？這火力，這攻擊範圍，完美的上等好貨，一般人可沒機會摸到我的寶貝。
 * **Prompt:** 試試就試試。
 柯琳: 還是局長大氣！剛才我糊弄……不是，是勸說了半天都沒人敢試，你可是第一個哦！
-柯琳: 😏''😏''😏
+柯琳: '😏'😏'😏'
 * **Prompt:** 我沒說要試。
 柯琳: 別這麼警惕嘛，又不是叫你花錢買……唉呀，退一萬步說，就算是要花錢，我也是最熟悉本地貨價的地頭蛇，給局長的保證是親友價！
-柯琳: 😘''😘''😘
+柯琳: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -17747,10 +17747,10 @@
 **柯琳**: 唉呀，居然花這麼多錢來懸賞我，搞得我都有點心動想出手了……嘖，就是可惜本人不能領獎，不然我就把自己供出去了……不對，現在有局長在……
 * **Prompt:** 有人要懸賞你？為什麼？
 柯琳: 還不是這群砂盜太小心眼了，你看，我只不過把幾個砂盜頭目扒得只剩條褲衩然後綁在破爛小車後面繞了砂海一圈，還讓他們成功美黑，怎麼反手過來懸賞我呢，是吧！
-柯琳: 😏''😏''😏
+柯琳: '😏'😏'😏'
 * **Prompt:** 你想做什麼？
 柯琳: 打個商量，幫個小忙，把我供出去，事後剿滅砂盜的功勞歸你，賞錢歸我，各取所需，雙方共贏，怎麼樣？唉呀，別急著搖頭嘛……
-柯琳: 😉''😉''😉
+柯琳: '😉'😉'😉'
 </t>
         </is>
       </c>
@@ -17882,7 +17882,7 @@
 **渡鴉**: 來讀讀我為你寫的詩~
 * **Prompt:** 謝謝，寫得不錯。
 渡鴉: 你喜歡就好~
-渡鴉: 😘''😘''😘
+渡鴉: '😘'😘'😘'
 * **Prompt:** ……可能是我水準不夠，我有點看不懂。
 渡鴉: 真遺憾，我可是構思了好久呢。
 渡鴉: 😥
@@ -17993,10 +17993,10 @@
 **藍鷲**: 你來了，現在陽光正好，你也難得清閒，坐下來慢慢品嚐一下特別為您準備的甜點如何，我沏了茶，來挑挑吧？想配哪塊點心？
 * **Prompt:** 藍莓起司蛋糕
 藍鷲: 嗯，香醇可口，甜度也很適中……剛疲憊工作了一陣子的局長大人，應當最適合享用這份下午茶的愜意吧？
-藍鷲: 😉''😉''😉
+藍鷲: '😉'😉'😉'
 * **Prompt:** 草莓奶油可麗餅
 藍鷲: 一起嚐嚐吧？……你說太甜了，呵呵，生活中的苦總是需要點甜味調劑的。
-藍鷲: 😏''😏''😏
+藍鷲: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -18006,10 +18006,10 @@
 **藍鷲**: 怎麼了，這樣看著我，是懷念曾經與我為鄰的日子嗎？
 * **Prompt:** 懷念
 藍鷲: 是嗎？既然這樣，我遞交的那份申請，局長大人可要雙手贊同批准哦，不久之後，我們就能繼續比鄰而居！
-藍鷲: 😘''😘''😘
+藍鷲: '😘'😘'😘'
 * **Prompt:** 否認
 藍鷲: 是嗎？本來還想將房間搬到局長房間旁邊，那還真可惜。
-藍鷲: 😥''😥''😥
+藍鷲: '😥'😥'😥'
 </t>
         </is>
       </c>
@@ -18030,10 +18030,10 @@
 **縈縈**: 局長喜不喜歡我唱的歌？下一首想聽什麼呀？
 * **Prompt:** 都喜歡，你的歌聲能讓我更專注。
 縈縈: 那當然啦，我的歌喉在雲淮可值千金一曲~
-縈縈: 😉''😉''😉
+縈縈: '😉'😉'😉'
 * **Prompt:** 可以再唱一遍剛才那首歌嗎？
 縈縈: 局長果然和我志趣相投~剛才那首可是我最喜歡的曲子！
-縈縈: 😘''😘''😘
+縈縈: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -18043,10 +18043,10 @@
 **縈縈**: 局長你來啦！快幫我看看這枚花囊用什麼顏色的掛繩比較好～
 * **Prompt:** 用你喜歡的顏色吧。
 縈縈: 你的意思是無論我喜歡什麼，你都會喜歡嗎~
-縈縈: 😘''😘''😘
+縈縈: '😘'😘'😘'
 * **Prompt:** 紫藤的顏色就很好。
 縈縈: 那我可要好好挑一挑，哪個顏色最像紫藤呢~
-縈縈: 😘''😘''😘
+縈縈: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -18067,10 +18067,10 @@
 **哈梅爾**: 你是來……當我觀眾的嗎？
 * **Prompt:** 嗯，大概什麼時候準備表演呢？
 哈梅爾: 如果是你的話，現在就可以。
-哈梅爾: 😘''😘
+哈梅爾: '😘'😘'
 * **Prompt:** 我是來提醒你到時間出任務了。
 哈梅爾: 唔……那我稍微準備一下。
-哈梅爾: 😖''😖
+哈梅爾: '😖'😖'
 </t>
         </is>
       </c>
@@ -18080,10 +18080,10 @@
 **哈梅爾**: 救命……臥室……練不了舞，很亂。
 * **Prompt:** 為什麼要在臥室練舞？
 哈梅爾: 在外面……能力……會干擾大家的。
-哈梅爾: 😫''😫
+哈梅爾: '😫'😫'
 * **Prompt:** 那等下我派人幫你清理。
 哈梅爾: 謝謝局長……
-哈梅爾: 😖''😖
+哈梅爾: '😖'😖'
 </t>
         </is>
       </c>
@@ -18252,7 +18252,7 @@
 **杜若**: 來得正好，就讓我以物起卦，看看尊駕的近期運勢……嗯，這是？
 * **Prompt:** ……算出什麼了？
 杜若: 只是算到局長難得有空，不如就趁此機會，和我說說那些……你從未提起過的故事吧？
-杜若: 😏''😏
+杜若: '😏'😏'
 * **Prompt:** 反正好壞都一樣要工作吧？
 杜若: 雖然都要工作……局長難道不好奇，最近會不會有什麼大麻煩嗎？
 杜若: 😦
@@ -18268,7 +18268,7 @@
 杜若: 😉
 * **Prompt:** 或許，教我印香會更有趣？
 杜若: 局長居然還知道這個……是前兩天看到我做了嗎？
-杜若: 😘''😘
+杜若: '😘'😘'
 </t>
         </is>
       </c>
@@ -18289,10 +18289,10 @@
 **L.L.**: 乖——看看，「你」多可愛！小瑤也高興地繞著「你」游個不停呢~
 * **Prompt:** 很可愛。
 L.L.: 是吧是吧！這樣的「你」就可以留在這裡永遠陪著我了……
-L.L.: 😉''😉''😉
+L.L.: '😉'😉'😉'
 * **Prompt:** 你想把我當作「寵物」嗎？
 L.L.: 嗯！那，你要不要叫我一聲「主人」試試看？
-L.L.: 😘''😘''😘
+L.L.: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -18302,10 +18302,10 @@
 **L.L.**: 唉呀，不小心把你弄濕了呢，穿著半濕的衣服很冷吧？要抱著我取一下暖嗎？我的懷抱比你想像的還要溫暖哦。
 * **Prompt:** ……其實沒有那麼冷。
 L.L.: 別推辭嘛！難道你不喜歡擁抱的感覺嗎？
-L.L.: 😘''😉
+L.L.: '😘'😉'
 * **Prompt:** 你看起來可不像純粹的「不小心」。
 L.L.: 是呀！因為我想你的目光落在我身上，一直看著我，這樣不好嗎？
-L.L.: 😫''😫''😫
+L.L.: '😫'😫'😫'
 </t>
         </is>
       </c>
@@ -18339,7 +18339,7 @@
 **耶萊娜**: 局長這麼晚還沒睡，是被什麼問題難倒了嗎？如果不介意，可以和我說說的。
 * **Prompt:** 只是有點睡不著。
 耶萊娜: 失眠的時候，借助外力不失為一種辦法。需要我來哄您入睡嗎？
-耶萊娜: 😘''😘
+耶萊娜: '😘'😘'
 * **Prompt:** 還有事情需要處理。
 耶萊娜: 如果您願意信任我，我可以幫您分擔辛勞，這樣您也能早點休息。
 耶萊娜: 😖
@@ -18376,7 +18376,7 @@
 **切爾西伯爵**: 這裡為什麼不能養貓？
 * **Prompt:** 你已經有一隻「貓」了。
 切爾西伯爵: 嘖，貓和西迪能相提並論嗎？
-切爾西伯爵: 😥''😥
+切爾西伯爵: '😥'😥'
 * **Prompt:** 不是不可以，但手續很複雜，你需要有耐心。
 切爾西伯爵: 好吧……那我等就是了。
 切爾西伯爵: 😐
@@ -18437,7 +18437,7 @@
 **卡瓦卡瓦**: 局長！我們什麼時候回砂海啊？
 * **Prompt:** 確實有一段時間沒巡視砂海情況了，我們明天啟程吧。
 卡瓦卡瓦: 好的！這次有機會的話一起去看砂海上的流星雨吧！
-卡瓦卡瓦: 😘''😘
+卡瓦卡瓦: '😘'😘'
 * **Prompt:** 砂海最近沒有狀況，有消息一定叫你。
 卡瓦卡瓦: 好吧，那到時候我來做嚮導……
 卡瓦卡瓦: 😘
@@ -18548,10 +18548,10 @@
 **妮諾**: 噹噹，你觸發了一個隨機任務，那就是幫妮諾大人填滿零食櫃~
 * **Prompt:** 垃圾食品還是少吃點為妙。
 妮諾: 蛤~？不懂就別亂說，它們提供給我的不是糖、油和鹽，是一種態度！
-妮諾: 😫''😫
+妮諾: '😫'😫'
 * **Prompt:** 這樣吧，今天你直播時粉絲投給你多少棒棒糖，我就買給你多少。
 妮諾: 嗯？還挺會玩的嘛你，這戰書我收下了~你就等著用卡車裝吧！
-妮諾: 😏''😏
+妮諾: '😏'😏'
 </t>
         </is>
       </c>
@@ -18561,10 +18561,10 @@
 **妮諾**: 怎麼回事，最近熱度下降了這麼多！簡直是妮諾大人直播的黑歷史！
 * **Prompt:** 也許是直播內容同質化嚴重，可以想點新鮮的。
 妮諾: 還不是你們這不讓播那不讓播，還逼我用虛擬背景！我不管，你得對我負責，陪我播到熱度恢復為止！
-妮諾: 😖''😖''😖
+妮諾: '😖'😖'😖'
 * **Prompt:** 需不需要我組織其他禁閉者一起看你的直播，幫你刷禮物？
 妮諾: 哦？這是可以的嗎？！等等……不對！我識破你了！你一定是想讓我被平台查到灌水然後被刪帳！
-妮諾: 😫''😫
+妮諾: '😫'😫'
 </t>
         </is>
       </c>
@@ -18585,10 +18585,10 @@
 **戈藍**: 哦哦，原來那個誰和那個誰結拜，那個誰又和那個誰互相看不順眼，局長也曾經喜歡過邪惡勢力派來誘惑自己的成熟美好大姐姐……
 * **Prompt:** 這麼荒謬的八卦你也信啊。
 戈藍: 啊，什麼，這是假的？*，虧老子還在這篇文斗內了……欸不對啊，之前死戀電台好像也八卦過類似的事，難道那也是假的嗎？！
-戈藍: 😫''😫''😫
+戈藍: '😫'😫'😫'
 * **Prompt:** 我不知道你在說什麼。
 戈藍: 哇，這麼遮遮掩掩的肯定是被說中了吧！快詳細說說，你們是不是一度恨海情天至死不渝啊？那之後你是不是封心鎖愛孤家寡人一生啊？
-戈藍: 😘''😘''😘
+戈藍: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -18598,10 +18598,10 @@
 **戈藍**: 可惡，錢不夠！這裡不讓當打手，應該怎麼撈點油……不對，賺點零用錢呢？啊，我知道了，我可以賣情報和八卦！
 * **Prompt:** 賣真假不明的愛恨情仇嗎？
 戈藍: 賣情報不就是這樣嗎？一旦售出概不負責，真假自辨！不過你放心，我肯定不會主動騙你！被動的，那我……也沒辦法不是！
-戈藍: 😘''😘''😘
+戈藍: '😘'😘'😘'
 * **Prompt:** 賣梳理清晰的局勢分析嗎？
 戈藍: 這、這算是深加工產品了吧，我才不賣這種東西！不、不是賣不了啊，是沒有賣情報的會做這種吃力不討好的事情！
-戈藍: 😫''😫''😫
+戈藍: '😫'😫'😫'
 </t>
         </is>
       </c>
@@ -18622,10 +18622,10 @@
 **多芙**: 這不是局長嗎？正好，來猜猜看，這兩封信裡面，哪一封是送給你的？
 * **Prompt:** 粉色信封
 多芙: 咦？粉色這個是用心形貼紙封口的耶，說不定是封情書呢！唉呀，你別急著否認嘛！萬一……真的是給你的呢？
-多芙: 😏''😏''😏
+多芙: '😏'😏'😏'
 * **Prompt:** 藍色信封
 多芙: 從這麼多信裡選中了這封信，你我還挺有緣分的，該說是你對我瞭解很深呢，還是……這份心意，本就想讓你拆開呢？
-多芙: 😘''😘''😘
+多芙: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -18635,10 +18635,10 @@
 **多芙**: 居然有人寫信給信使呀，該怎麼回信呢……哈哈，真是好難抉擇啊，是該給點甜頭上上鉤呢，還是該用些話術嚇嚇這人……
 * **Prompt:** 提醒她看署名
 多芙: 署名是……米諾斯危機管理局局長……哦，連多芙這種小人物都要親自處理監視，不愧是局長，好細心呀！
-多芙: 😏''😏''😏
+多芙: '😏'😏'😏'
 * **Prompt:** 提醒她拆開看
 多芙: 「用自己真正的心意與人往來通訊」……這個字跡……是你……這就是你想對我說的話嗎……
-多芙: 😖''😖''😖
+多芙: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -18709,10 +18709,10 @@
 **溫蒂**: 死役、死役怎麼又在走動！
 * **Prompt:** 啊……？什麼死役？
 溫蒂: 來不及了！快閃開！
-溫蒂: 😫''😫
+溫蒂: '😫'😫'
 * **Prompt:** 居然還有死役？我去申請一下調查許可。
 溫蒂: ……終於，終於可以大開殺戒了！
-溫蒂: 😘''😘''😘
+溫蒂: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -18770,7 +18770,7 @@
 **多莉**: 等下！現在剛到最精彩的階段，不要打擾我啊！
 * **Prompt:** 再給你五分鐘，時間到就走。
 多莉: 好耶！那我們一起看完這場比賽吧！
-多莉: 😘''😘
+多莉: '😘'😘'
 * **Prompt:** 任務緊急，回來看錄播也一樣。
 多莉: 呿……你這人，根本就不懂。
 多莉: 😥
@@ -18783,10 +18783,10 @@
 **多莉**: 採購部進的這批貨到底行不行啊……揮兩下就斷了！
 * **Prompt:** 那你用水管將就一下吧。
 多莉: 啊——不行！完全不順手！
-多莉: 😫''😫
+多莉: '😫'😫'
 * **Prompt:** 下一批球棒會是加強材質的，先忍一忍。
 多莉: 那……就先這樣。要是還不行的話，我是不會買單的。
-多莉: 😦''😫
+多莉: '😦'😫'
 </t>
         </is>
       </c>
@@ -18807,10 +18807,10 @@
 **赫羅**: 局長，要不要來一瓶啊~？
 * **Prompt:** 就放在辦公桌上吧，等等喝。
 赫羅: 不行！好牛奶就得現在喝！一起乾了！
-赫羅: 😫''😖
+赫羅: '😫'😖'
 * **Prompt:** 抱歉，我沒有長高的需求。
 赫羅: 你……！今天我就要把你打到和我一樣高！
-赫羅: 😖''😖
+赫羅: '😖'😖'
 </t>
         </is>
       </c>
@@ -18844,7 +18844,7 @@
 **莓絲**: 嗯，不能睡……還有任務……不能睡……
 * **Prompt:** 要睡的話，回房間裡睡吧。
 莓絲: 嗯……謝謝局長…………不對！要是睡了的話，我會做惡夢的……
-莓絲: 😖''😖
+莓絲: '😖'😖'
 * **Prompt:** 要出任務了，醒醒。
 莓絲: 嗯，好！我……沒睡！我很有精神！
 莓絲: 😫
@@ -18955,10 +18955,10 @@
 **瑞思**: 抱歉局長，我沒控制好壁球讓它打到了你。
 * **Prompt:** ……太痛了。
 瑞思: 是我的錯，被打到的地方已經腫起來了，快，我帶您去醫務室！
-瑞思: 😖''😖''😖
+瑞思: '😖'😖'😖'
 * **Prompt:** 這一球，力量也太強了……
 瑞思: 打球的過程中，不小心想到了前任上司的所作所為，一不小心就……
-瑞思: 😥''😥''😥
+瑞思: '😥'😥'😥'
 </t>
         </is>
       </c>
@@ -18968,10 +18968,10 @@
 **瑞思**: 「K幻量販」的大包廂，局長你要一起來嗎？
 * **Prompt:** 這個套餐好優惠啊！
 瑞思: 很早以前購買的套票，這兩天整理時發現快到期了。工作了一整天，局長要不要一起去通宵唱歌發洩一下？
-瑞思: 😘''😘''😘
+瑞思: '😘'😘'😘'
 * **Prompt:** 通宵場……明天我還要開會，下次吧。
 瑞思: 嗯，工作優先，如果我能訂到週末包廂再一起去吧。
-瑞思: 😥''😥''😥
+瑞思: '😥'😥'😥'
 </t>
         </is>
       </c>
@@ -18992,10 +18992,10 @@
 **米拉**: 依我看，局長身上還缺了些東西，如果要出遠門前往砂海的話，有些裝備必不可少，不嫌棄的話，就從我的貨架上拿吧？
 * **Prompt:** 拿起絲巾
 米拉: 嗯……明智的選擇，這條絲巾柔軟透氣，既能確保呼吸順暢，又能防止空氣中的沙塵糊住口鼻，圖案也很漂亮，是我最喜歡的一條呢。
-米拉: 😘''😘''😘
+米拉: '😘'😘'😘'
 * **Prompt:** 拿起水囊
 米拉: 來到圖科的客人們身上都會帶著灌滿了佳釀的水囊，決鬥勝利後，客人們總會拿出水囊痛飲一番，它也是獎勵英雄的勳章，很適合你哦局長。
-米拉: 😉''😉''😉
+米拉: '😉'😉'😉'
 </t>
         </is>
       </c>
@@ -19005,10 +19005,10 @@
 **米拉**: 換洗被單，打掃地面，整理房間……要做的家務還有很多，幸好狄斯的氣候不像砂海那樣，剛晾好的床單不會消失得無影無蹤，省了追著跑的功夫。
 * **Prompt:** 試試烘衣機？或許會更方便點
 米拉: 可是被陽光曬過的床單，會讓人睡得更安穩些，局長，不想試試看嗎？很舒服的哦。
-米拉: 😏''😏''😏
+米拉: '😏'😏'😏'
 * **Prompt:** 需要我幫忙嗎？
 米拉: 不用啦，剛才撞見幾個小朋友在走廊上打架，都被我用砂海陳釀換來做小幫手了，噓——我準備的都是無酒精飲料，可別告訴她們！
-米拉: 😏''😏''😏
+米拉: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -19066,10 +19066,10 @@
 **泰特拉**: 還是要注意一些管理局的網路安全哦，局長。
 * **Prompt:** 不如你來優化一下管理局的網路安全邏輯吧。
 泰特拉: 求求我，說不定我會答應你。
-泰特拉: 😘''😉
+泰特拉: '😘'😉'
 * **Prompt:** 管理局的防火牆萬無一失。
 泰特拉: 哦~那我從電腦裡找到的這份檔案是誰的呢？
-泰特拉: 😏''😏''😏
+泰特拉: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -19082,7 +19082,7 @@
 泰特拉: 😥
 * **Prompt:** 不然下次幫你準備一些單人任務？
 泰特拉: 哦——？這下刺激了。我喜歡。
-泰特拉: 😘''😉
+泰特拉: '😘'😉'
 </t>
         </is>
       </c>
@@ -19153,10 +19153,10 @@
 **麥昆**: 別擔心，我有辦法應付。
 * **Prompt:** 該支付你的罰款金額了。
 麥昆: 嘖——沒想到你這麼有正義感。
-麥昆: 😥''😥
+麥昆: '😥'😥'
 * **Prompt:** 咳，這次就先幫你蒙混過關，下不為例。
 麥昆: 哦吼，要我說聲謝謝嗎？還是說，你要我……給你一點額外的「謝禮」？
-麥昆: 😏''😘
+麥昆: '😏'😘'
 </t>
         </is>
       </c>
@@ -19251,10 +19251,10 @@
 **優利卡**: 局長，如果你要去旅行的話……你會選哪條路線呢？
 * **Prompt:** 自由時間多的慢遊路線吧。
 優利卡: 我也覺得旅行就應該悠悠閒閒的，這樣，有了靈感可以隨時停下來思考……下次一起去吧！
-優利卡: 😘''😘''😘
+優利卡: '😘'😘'😘'
 * **Prompt:** 假期總是不夠長，估計只能選特戰隊式旅遊了。
 優利卡: 對哦……局長總是很忙……嗯，我這裡應該有發明可以幫你提高工作效率的，讓我來找找……
-優利卡: 😖''😖''😖
+優利卡: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -19264,10 +19264,10 @@
 **優利卡**: 這些電影裡的道具都看起來好有趣呀……局長，你有沒有想要我做出來的電影道具？
 * **Prompt:** 我想要隱身衣。
 優利卡: 唔，組合攝影機和螢幕材料應該可以做出來……啊，但是臉沒辦法覆蓋到耶，效果可能會有點像一顆孤零零的頭飄在空中。沒關係嗎？
-優利卡: 😉''😉''😉
+優利卡: '😉'😉'😉'
 * **Prompt:** 我想要鐳射劍。
 優利卡: 啊！那個確實很有趣！我以前好像做過類似的發明，雖然因為安全原因限制了功率，連雞蛋都煮不熟……但有著色功能哦。
-優利卡: 😫''😫''😫
+優利卡: '😫'😫'😫'
 </t>
         </is>
       </c>
@@ -19325,10 +19325,10 @@
 **舒魯瑪**: 早安，局長。眼睛下面有黑眼圈？昨晚因為寫作文有點晚睡，謝謝你的關心，不用擔心我。
 * **Prompt:** 但你昨天的作業裡好像不包括作文？
 舒魯瑪: 因為、因為馬上要考試了！我想要訓練自己的寫作思辨能力！
-舒魯瑪: 😉''😉
+舒魯瑪: '😉'😉'
 * **Prompt:** 你是指這篇凌晨四點登頂論壇的「作文」嗎？
 舒魯瑪: 我沒……你這大人真討厭！好了，我以後會早睡的，你千萬不要斷我的網！
-舒魯瑪: 😖''😖
+舒魯瑪: '😖'😖'
 </t>
         </is>
       </c>
@@ -19338,10 +19338,10 @@
 **舒魯瑪**: 唉，又是這樣……局長，你知道該怎麼做才能和小貓親近嗎？
 * **Prompt:** 我選擇魚肉罐頭誘惑。
 舒魯瑪: 啊，小貓已經走遠了……等下次出門我會記得帶上小魚乾的。嗯？你也會幫我帶嗎？
-舒魯瑪: 😦''😫
+舒魯瑪: '😦'😫'
 * **Prompt:** 我選擇毛絨玩偶代替。
 舒魯瑪: 好爛的……局長聽錯了，我什麼也沒說啊。剛剛？我覺得應該是風聲吧。
-舒魯瑪: 😏''😏''😏
+舒魯瑪: '😏'😏'😏'
 </t>
         </is>
       </c>
@@ -19362,10 +19362,10 @@
 **普希拉**: 怎麼？對我的面具感興趣？
 * **Prompt:** 能借我戴一下嗎？
 普希拉: 要是戴上的話，就算加入我們了哦，你可要想清楚。
-普希拉: 😏''😏
+普希拉: '😏'😏'
 * **Prompt:** 泰特拉似乎也有一個很像的。
 普希拉: 嘖，你怎麼現在才發現啊。而且，是她抄了我的設計！
-普希拉: 😫''😫
+普希拉: '😫'😫'
 </t>
         </is>
       </c>
@@ -19375,10 +19375,10 @@
 **普希拉**: 好久沒有演出過，有些道具已經落滿灰塵了。
 * **Prompt:** 又想去當什麼魔術小偷了嗎？
 普希拉: 我是正義的俠盜兔！劫富濟貧你懂嗎！
-普希拉: 😥''😖
+普希拉: '😥'😖'
 * **Prompt:** 所以，你是想要出任務了？
 普希拉: 嗯嗯！舞台和燈光都要準備齊全那種！
-普希拉: 😉''😘''😉
+普希拉: '😉'😘'😉'
 </t>
         </is>
       </c>
@@ -19399,10 +19399,10 @@
 **露莉艾卡**: 局長——局長——來一起玩遊戲吧！
 * **Prompt:** 可以玩，但是能把你的左輪手槍放下嗎？
 露莉艾卡: 有賭注才有意思嘛！來吧局長，再賭大一點吧！
-露莉艾卡: 😉''😉''😉
+露莉艾卡: '😉'😉'😉'
 * **Prompt:** 話說在先，和運氣有關的都不玩。
 露莉艾卡: 啊……為什麼啊！露莉不要！快陪我玩！陪我玩！
-露莉艾卡: 😖''😖''😖
+露莉艾卡: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -19412,10 +19412,10 @@
 **露莉艾卡**: 唉……最近找到的四葉草都是三葉的，露莉的能力是不是失效了啊。
 * **Prompt:** 可是四葉草不都是三葉的嗎？
 露莉艾卡: 哼，像局長運氣這麼差的人，這輩子都找不到真正的四葉草！
-露莉艾卡: 😫''😫''😫
+露莉艾卡: '😫'😫'😫'
 * **Prompt:** 我倒是撿到了一枚四葉草徽章，給你。
 露莉艾卡: 哇！這是露莉前幾天弄丟的！謝謝局長，果然露莉還是很幸運呢。
-露莉艾卡: 😘''😘''😘
+露莉艾卡: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -19510,10 +19510,10 @@
 **煙煙**: 咦？局長你為什麼來這裡？
 * **Prompt:** 煙煙很喜歡神話嗎？
 煙煙: 那當然啦！不同地方的傳說故事完全都不一樣，嘿嘿，狄斯這邊的神話也很有意思的！
-煙煙: 😘''😘''😘
+煙煙: '😘'😘'😘'
 * **Prompt:** 記得要把書收拾回去。
 煙煙: 等等等等，我先看完這個故事！
-煙煙: 😫''😫
+煙煙: '😫'😫'
 </t>
         </is>
       </c>
@@ -19523,10 +19523,10 @@
 **煙煙**: 快快快，局長也來嚐嚐吧？這可是我花了好久才做好的家鄉菜！
 * **Prompt:** 好呀，我這就嚐嚐！
 煙煙: 哼哼，很不錯吧，連麵都是我親手揉的哦~
-煙煙: 😘''😘''😘
+煙煙: '😘'😘'😘'
 * **Prompt:** 馬上，我清空一下桌面。
 煙煙: 那你要快點啊！唉呀燙燙燙要端不住了！
-煙煙: 😖''😖''😖
+煙煙: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -19624,7 +19624,7 @@
 維多利亞: 😦
 * **Prompt:** 你不想逃出去？
 維多利亞: 外面的世界，好危險……
-維多利亞: 😫''😫''😫
+維多利亞: '😫'😫'😫'
 </t>
         </is>
       </c>
@@ -19634,10 +19634,10 @@
 **維多利亞**: 我……又流了好多血……該怎麼辦……
 * **Prompt:** 使用能力就可以止血了。
 維多利亞: 爸爸看到的話又要生氣了……
-維多利亞: 😖''😖
+維多利亞: '😖'😖'
 * **Prompt:** 別亂動，我來幫你上藥。
 維多利亞: 這……就是局長的「愛」嗎？
-維多利亞: 😘''😘''😘
+維多利亞: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -19658,10 +19658,10 @@
 **伊格尼**: 你是……特意來見我的？
 * **Prompt:** 是啊，還帶了焦糖布丁。
 伊格尼: 哼，哼……少騙人了。還有……我可不會感謝你。
-伊格尼: 😖''😖
+伊格尼: '😖'😖'
 * **Prompt:** 看看你有沒有安分一點。
 伊格尼: 我早就不是以前的那個伊格尼了！少瞧不起我！
-伊格尼: 😖''😥
+伊格尼: '😖'😥'
 </t>
         </is>
       </c>
@@ -19671,10 +19671,10 @@
 **伊格尼**: 唉……到底該怎麼做菜啊。
 * **Prompt:** 你是又燒了廚房嗎？感覺有開爾文做飯就足夠了。
 伊格尼: 你等著！我一定會做好讓你看的！
-伊格尼: 😖''😖''😖
+伊格尼: '😖'😖'😖'
 * **Prompt:** 我來幫你吧，你當助手，做做冷食就好。
 伊格尼: 也……也不是不行啦。但做完之後我要第一個嚐！
-伊格尼: 😫''😐
+伊格尼: '😫'😐'
 </t>
         </is>
       </c>
@@ -19695,10 +19695,10 @@
 **露薇婭·蕾**: 噓，小聲點，蕾現在睡著了……
 * **Prompt:** 你們要是可以一直這樣和諧相處就好了。
 露薇婭·蕾: 嘻嘻……其實我們之間的關係還可以啦。
-露薇婭·蕾: 😘''😘
+露薇婭·蕾: '😘'😘'
 * **Prompt:** 那太好了，終於沒人和我吵架了。
 露薇婭·蕾: 噓！別說這個！萬一被她聽到就不好了！
-露薇婭·蕾: 😫''😫
+露薇婭·蕾: '😫'😫'
 </t>
         </is>
       </c>
@@ -19708,10 +19708,10 @@
 **露薇婭·蕾**: 我新劇的選角……都是配角。
 * **Prompt:** 那這次去試鏡時別忘了去參加任務。
 露薇婭·蕾: 唉……我們會努力的。啊……又是任務。
-露薇婭·蕾: 😘''😥
+露薇婭·蕾: '😘'😥'
 * **Prompt:** 是金子總有一天會發光的，加油。
 露薇婭·蕾: 嗯，我們會加油的～！總有一天會成功的！
-露薇婭·蕾: 😘''😖
+露薇婭·蕾: '😘'😖'
 </t>
         </is>
       </c>
@@ -19769,10 +19769,10 @@
 **奧利弗**: 局長~來和奧利弗一起玩吧？
 * **Prompt:** 就我們兩個人嗎？
 奧利弗: 局長要是喜歡熱鬧的話，奧利弗馬上就把房間裡的所有玩偶都帶過來！
-奧利弗: 😖''😖''😖
+奧利弗: '😖'😖'😖'
 * **Prompt:** 有重要的工作要處理，你先自己玩吧。
 奧利弗: 唉，也對……局長日理萬機，怎麼會在意奧利弗小小的請求呢。
-奧利弗: 😦''😫
+奧利弗: '😦'😫'
 </t>
         </is>
       </c>
@@ -19782,10 +19782,10 @@
 **奧利弗**: 局長……好痛……好痛啊……
 * **Prompt:** 你又做什麼危險的事了？
 奧利弗: 危、危險的事……那是什麼？奧利弗聽不懂。
-奧利弗: 😖''😖''😖
+奧利弗: '😖'😖'😖'
 * **Prompt:** 是誰欺負你了？
 奧利弗: 是，是奧利弗自己不小心摔倒的！大家……都對我很好。
-奧利弗: 😫''😖
+奧利弗: '😫'😖'
 </t>
         </is>
       </c>
@@ -19843,10 +19843,10 @@
 **艾可**: 唉呀，這些都軟綿綿的，實在不夠帶勁。還是艾可的演出錄音更適合加進催眠室的歌單，肯定會很好用的~
 * **Prompt:** 不是說你不好，主要是不符合催眠室的主旨。
 艾可: 怎麼不符合了？艾可的演奏可是很百搭的~之前在劇院後門表演的時候，還有幾個醉漢聽完就倒在地上睡著了呢~
-艾可: 😉''😉''😉
+艾可: '😉'😉'😉'
 * **Prompt:** 我覺得禁閉室更需要你這樣優秀的音樂。
 艾可: 唔？禁閉室？是不是進去之後得聽完才能出來的小黑屋啊？願意啊當然願意啊，只要堅持到聽完，他們肯定會被艾可的薩克斯風打動的~
-艾可: 😘''😘''😘
+艾可: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -19856,10 +19856,10 @@
 **艾可**: 今天是個好日子，薩克斯風天才的精彩演出開啟點歌模式了！來，快說說你想聽什麼~
 * **Prompt:** 能跟我說一下可以選的歌嗎？
 艾可: 《我心須臾》、《離家》、《地獄之約》、《危重夜》、《紅丹花》……哼哼，不要小看我，只要你想聽，我可以背出整本樂譜給你~
-艾可: 😏''😏''😏
+艾可: '😏'😏'😏'
 * **Prompt:** 我喜歡的比較小眾，可能有點難度。
 艾可: 你怎麼這麼肯定啊，是不是想故意為難我？好哇，艾可接受你的挑戰~你想聽什麼，我現在就查樂譜！天才如我，就算現學也肯定能表演得很好~
-艾可: 😘''😘''😘
+艾可: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -19880,10 +19880,10 @@
 **無患子**: 今日運勢極差，不宜見人，但居士每日一劑的湯藥可不能就這麼停了……不然我在這裡架個爐火煮藥吧？
 * **Prompt:** 沒事，我現在出來拿吧，謝謝你。
 無患子: 啊……啊！您先別出來！我放下就走了！
-無患子: 😖''😖''😖
+無患子: '😖'😖'😖'
 * **Prompt:** 謝謝你這麼辛苦還親自幫我送湯藥。
 無患子: 也、也沒有辛苦……那我就放門口了，居士等我走遠了再拿藥吧。
-無患子: 😖''😖''😖
+無患子: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -19893,10 +19893,10 @@
 **無患子**: 居士，下次可以多進些東洲的黃紙嗎？
 * **Prompt:** 要黃紙做什麼？
 無患子: 東洲的黃紙燒出的香灰藥效會更好一些，可惜量太少，沒寫幾張新的又用完了。
-無患子: 😥''😥''😥
+無患子: '😥'😥'😥'
 * **Prompt:** 答應。
 無患子: 咦……這麼爽快？居士此舉功德無量！
-無患子: 😉''😉''😉
+無患子: '😉'😉'😉'
 </t>
         </is>
       </c>
@@ -19917,7 +19917,7 @@
 **艾瑞爾**: 大家，為什麼總是盯著我看呢……
 * **Prompt:** 可能是你太閃閃發光了吧。
 艾瑞爾: 真……真的嗎！我會繼續加油的！
-艾瑞爾: 😘''😘
+艾瑞爾: '😘'😘'
 * **Prompt:** 可能是斯賓塞家族太有名了吧。
 艾瑞爾: ……唉，優秀的是我的哥哥姐姐，和我無關。
 艾瑞爾: 😐
@@ -19991,7 +19991,7 @@
 **安**: 小孩子真可愛啊……又天真，又善良。
 * **Prompt:** 你守護了很多小天使？
 安: 當然，我感覺有他們在的地方就是天堂。
-安: 😘''😘''😘
+安: '😘'😘'😘'
 * **Prompt:** 他們搗亂的時候一點都不可愛。
 安: 這是每個小孩子都會經歷的階段，不要和他們賭氣。
 安: 😖
@@ -20007,7 +20007,7 @@
 安: 😖
 * **Prompt:** 你現在可以做到更多，我也會幫你的。
 安: 嗯……謝謝局長，我會盡力而為的！
-安: 😘''😘
+安: '😘'😘'
 </t>
         </is>
       </c>
@@ -20115,10 +20115,10 @@
 **萊塔**: 唔呣……我怎麼，突然站在這裡了……
 * **Prompt:** ……看來得把管理局的牆再加厚幾公分。
 萊塔: 別、別這樣嘛，下次出去玩一定會找你一起！
-萊塔: 😖''😖''😖
+萊塔: '😖'😖'😖'
 * **Prompt:** ……算了，跟我回去吧，下不為例。
 萊塔: 嘿嘿，局長最好了……
-萊塔: 😉''😉
+萊塔: '😉'😉'
 </t>
         </is>
       </c>
@@ -20152,7 +20152,7 @@
 **卡西婭**: 要想讓我分辨誰才是最頂級的香料……咳，最頂級的美人，我必須要去到現場……
 * **Prompt:** 我知道了，我陪你去。
 卡西婭: 那我想，最終的冠軍應該會是你~
-卡西婭: 😏''😏
+卡西婭: '😏'😏'
 * **Prompt:** 你上次罵翻後台所有選手，他們還願意請你去？
 卡西婭: 那是因為主辦方知道得很清楚，我選出的名次才最能服眾……
 卡西婭: 😉
@@ -20213,10 +20213,10 @@
 **澤斐爾**: 家庭精釀吧！聽起來好有趣，去陌生人的家裡喝一杯，聽一個故事，然後走掉，所有人都不會再相見！因為大家都不認識，所以根本不用拘束！
 * **Prompt:** 讓陌生人來家裡不會有安全隱患嗎？
 澤斐爾: 要是發現對方是壞蛋，就直接逃呀！跳窗，或者把門板踹開，順著樓梯扶手滑下去！那也很爽！
-澤斐爾: 😉''😉''😉
+澤斐爾: '😉'😉'😉'
 * **Prompt:** 喝陌生人提供的飲料不會有食品安全問題嗎？
 澤斐爾: 唉呀，喝到吐也是正常發揮嘛，還能差到哪裡去？重要的是享受那個過程~
-澤斐爾: 😘''😘''😘
+澤斐爾: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -20226,10 +20226,10 @@
 **澤斐爾**: 唉呀——都說了我不是想逃走嘛——我只是好奇圍牆後面是什麼而已，這不也幫你測了下圍牆安全性嘛——放我出來啦——
 * **Prompt:** 那你繼續幫忙測試禁閉室的封閉性吧
 澤斐爾: 這可是你說的，那我就繼續努力了！看我干擾干擾這邊的監視器——
-澤斐爾: 😏''😏''😏
+澤斐爾: '😏'😏'😏'
 * **Prompt:** 嗯，那部分已經抵掉你3天禁閉室時長了
 澤斐爾: 啊？這已經是折抵後的？論功行賞不要這麼小氣嘛，直接抹平不就好了！
-澤斐爾: 😖''😖''😖
+澤斐爾: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -20287,10 +20287,10 @@
 **德莫莉**: 今天做點什麼活動好呢？來點推薦吧局長。
 * **Prompt:** 來下棋吧。
 德莫莉: 哦！好主意！我們來玩狄斯戰棋吧！
-德莫莉: 😉''😏
+德莫莉: '😉'😏'
 * **Prompt:** 來唸書吧。
 德莫莉: 啊——不要！就算要把我丟到鏽河執行任務，我都不想唸書！
-德莫莉: 😖''😖''😖
+德莫莉: '😖'😖'😖'
 </t>
         </is>
       </c>
@@ -20300,10 +20300,10 @@
 **德莫莉**: 要來支援一下我的收藏嗎，局長？
 * **Prompt:** 管理局的那些建材還剩了一些，有些材質還不錯。
 德莫莉: 唉呀，是那種珍貴一點的！不是這種！
-德莫莉: 😦''😦
+德莫莉: '😦'😦'
 * **Prompt:** 嗯……前一陣子撿到的決鬥頭巾如何？
 德莫莉: 哇……看起來有點老舊，戴上之後卻意外地有些帥氣！
-德莫莉: 😐''😉
+德莫莉: '😐'😉'
 </t>
         </is>
       </c>
@@ -20324,7 +20324,7 @@
 **佩姬**: 呦，這不是局長嗎？怎麼，想聽說唱？
 * **Prompt:** 當然，今天有什麼新作嗎。
 佩姬: 哈！新作，那不是天天都有？先給你唱點經典的。這是辛迪加的Rap浪子，你誰長這副呆頭樣子……
-佩姬: 😘''😦
+佩姬: '😘'😦'
 * **Prompt:** 不是，是有人投訴你的歌不夠說唱。
 佩姬: 讓他們滾！他們懂個錘子的說唱！
 佩姬: 😥
@@ -20337,7 +20337,7 @@
 **佩姬**: 不是說好要幫我弄個調音台嗎？東西呢？
 * **Prompt:** 採購部已經把這件事加進行事曆了。
 佩姬: 唉……真**的窩囊！我一代說唱巨星，就沒受過這氣！
-佩姬: 😐''😐
+佩姬: '😐'😐'
 * **Prompt:** 我去幫你借瓊的調音台。
 佩姬: 別！那個太複雜了，我用不明白！唉……還得是我這答錄機。
 佩姬: 😐
@@ -20361,7 +20361,7 @@
 **海拉**: 啊——有沒有給我準備犒勞品啊？最好是狄斯幣。
 * **Prompt:** 採購部的零食吃嗎？只有這個。
 海拉: 嘿嘿，算你識相。下次多帶一點啊。
-海拉: 😘''😘''😘
+海拉: '😘'😘'😘'
 * **Prompt:** 沒有，要是你完成任務的話可以考慮一下。
 海拉: 啊——一個管理局局長怎麼這麼囂張？做完任務你可別賴帳！
 海拉: 😐
@@ -20374,10 +20374,10 @@
 **海拉**: 嘖，是九十九那傢伙告訴你我躲在這的？
 * **Prompt:** 是啊，她直接告訴我了。
 海拉: 你少騙人！九十九才不會背叛我。
-海拉: 😥''😥
+海拉: '😥'😥'
 * **Prompt:** 是我自己找到你的。
 海拉: 哼，你現在……還有點厲害嘛。
-海拉: 😉''😉
+海拉: '😉'😉'
 </t>
         </is>
       </c>
@@ -20435,10 +20435,10 @@
 **胡椒**: 局長，我今天想做壞事！有什麼建議嗎？
 * **Prompt:** 唉，今天不知道哪個壞蛋去採購部拿了一罐可樂！
 胡椒: 哦？這個點子不錯！
-胡椒: 😏''😉
+胡椒: '😏'😉'
 * **Prompt:** 你給我老實待著。
 胡椒: 唉……真沒意思，在這都要發黴了。
-胡椒: 😫''😫''😫
+胡椒: '😫'😫'😫'
 </t>
         </is>
       </c>
@@ -20451,7 +20451,7 @@
 胡椒: 😫
 * **Prompt:** 去後院吧，說不定還能遇到芙洛拉幫你澆水。
 胡椒: 可以嗎！謝謝局長！
-胡椒: 😘''😘
+胡椒: '😘'😘'
 </t>
         </is>
       </c>
@@ -20485,10 +20485,10 @@
 **雷比尼斯**: 局長，請不要在這裡干擾雷比尼斯的工作。
 * **Prompt:** 你原來可以正常和我交流的嗎？
 雷比尼斯: 戰鬥形態，準備啟動。
-雷比尼斯: 😥''😥
+雷比尼斯: '😥'😥'
 * **Prompt:** 請雷比尼斯幫我倒一杯茶。
 雷比尼斯: 雷比尼斯，收到。當前感情：愉快。
-雷比尼斯: 😘''😘''😘
+雷比尼斯: '😘'😘'😘'
 </t>
         </is>
       </c>
@@ -20509,7 +20509,7 @@
 **曇**: 下次的對手……是誰呢……
 * **Prompt:** 我會為你安排合適的對手的。
 曇: 我好期待啊……嘿嘿……
-曇: 😘''😘''😘
+曇: '😘'😘'😘'
 * **Prompt:** 辛迪加地區的幫派成員怎麼樣？
 曇: 啊！不行……那邊的對手太不夠格了！什麼時候輪到花園！
 曇: 😫
@@ -20525,7 +20525,7 @@
 曇: 😐
 * **Prompt:** 看起來她們為你準備了特殊對策。
 曇: 哈哈……哈哈哈……等著吧，下次你們準備什麼都不好用了！
-曇: 😐''😐
+曇: '😐'😐'
 </t>
         </is>
       </c>
@@ -20546,10 +20546,10 @@
 **EMP**: 哼哼，今天我允許你直視辛迪加無冕之王的尊容。
 * **Prompt:** 那無冕之王，我們今天要做什麼？
 EMP: 當然是玩遊戲了！撲克，骰子，麻將，都可以！
-EMP: 😘''😘
+EMP: '😘'😘'
 * **Prompt:** ……再耍寶就把你送到鏽河執行任務。
 EMP: 噫啊！我開玩笑的……開玩笑的！
-EMP: 😫''😫
+EMP: '😫'😫'
 </t>
         </is>
       </c>
@@ -20559,10 +20559,10 @@
 **EMP**: 別吵，我在練習弓箭呢！
 * **Prompt:** 反正也射不中，不需要練習吧？
 EMP: 我不要！這樣多帥啊！
-EMP: 😖''😖''😖
+EMP: '😖'😖'😖'
 * **Prompt:** 弓箭死神不會射箭真的沒問題嗎？
 EMP: 老婆餅裡還沒有老婆呢！
-EMP: 😏''😏
+EMP: '😏'😏'
 </t>
         </is>
       </c>
@@ -20633,7 +20633,7 @@
 **開爾文**: 哈啊……我怎麼還沒畢業……
 * **Prompt:** 學分不夠？通常來說都是這個原因。
 開爾文: 唉……這都被您猜到了。
-開爾文: 😖''😖
+開爾文: '😖'😖'
 * **Prompt:** 把菜拿給導師看，他一定會同意你畢業的。
 開爾文: 哈哈……要是導師能理解我的理念就好了。
 開爾文: 😐
@@ -20694,7 +20694,7 @@
 **瑪奇朵**: 有些敵人看起來很享受哦。
 * **Prompt:** 你的「業餘愛好」似乎幫了大忙。
 瑪奇朵: 呵呵，他們的反應就是我繼續下去的動力。
-瑪奇朵: 😘''😘
+瑪奇朵: '😘'😘'
 * **Prompt:** 他們可能只是被迫做出這種表情。
 瑪奇朵: 哎呀哎呀，下次我一定會注意一點的。
 瑪奇朵: 😘
@@ -20747,7 +20747,7 @@
 麗莎: 😦
 * **Prompt:** 給你直尺。
 麗莎: 你……唉……算了。
-麗莎: 😥''😦''😐
+麗莎: '😥'😦'😐'
 </t>
         </is>
       </c>

--- a/Sinner_Stuff/Emotion_Check.xlsx
+++ b/Sinner_Stuff/Emotion_Check.xlsx
@@ -12667,12 +12667,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">[迪蒙在擦拭着他的碳化钨装甲]
-**迪蒙**: 试试这个？可以应对很多突发状况。
-* **Prompt:** 既然如此……就试一下吧。
-* **迪蒙**: 好，我这就去准备一套合你身的。
+          <t xml:space="preserve">[迪蒙在擦拭著他的碳化鎢裝甲]
+**迪蒙**: 試試這個？可以應對很多突發狀況。
+* **Prompt:** 既然如此……就試一下吧。
+* **迪蒙**: 好，我現在去準備一套合你身的。
 * **迪蒙**: 😐
-* **Prompt:** 好是好，就是有些笨重，会影响行动。
+* **Prompt:** 好是好，就是有些笨重，會影響行動。
 * **迪蒙**: 唉，可惜。
 * **迪蒙**: 😦
 </t>
@@ -12680,13 +12680,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">[迪蒙坐在房间里，似乎有什么心事]
-**迪蒙**: ……你这是，要监视我？
-* **Prompt:** 嗯，你最好安分一点。
+          <t xml:space="preserve">[迪蒙坐在房間裡，似乎有什麼心事]
+**迪蒙**: ……你這是，要監視我？
+* **Prompt:** 嗯，你最好安分一點。
 * **迪蒙**: ……我知道了。
 * **迪蒙**: 😥
-* **Prompt:** 你就当作是在保护我吧。
-* **迪蒙**: ……好吧，我不会让它们碰到你的。
+* **Prompt:** 你就當作是在保護我吧。
+* **迪蒙**: ……好吧，我不會讓它們碰到你的。
 * **迪蒙**: 😐
 </t>
         </is>
@@ -12704,27 +12704,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">[嗷呜挥舞着一根木棍拦住了你]
-**嗷呜**: 呼——哈——攻中有防，防中有攻，攻不离防，防不离攻！
+          <t xml:space="preserve">[嗷嗚揮舞著一根木棍攔住了你]
+**嗷嗚**: 呼——哈——攻中有防，防中有攻，攻不離防，防不離攻！
 * **Prompt:** 你又看功夫片了？
-* **嗷呜**: 嘿嘿，没错！你快来跟我切磋切磋！
-* **嗷呜**: 😉
-* **Prompt:** 太危险了，快放下。
-* **嗷呜**: 哼哼，怕了吧，嗷呜就是最厉害的大侠！
-* **嗷呜**: 😏
+* **嗷嗚**: 嘿嘿，沒錯！你快來跟我切磋切磋！
+* **嗷嗚**: 😉
+* **Prompt:** 太危險了，快放下。
+* **嗷嗚**: 哼哼，怕了吧，嗷嗚就是最厲害的大俠！
+* **嗷嗚**: 😏
 </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">[嗷呜突然呲牙咧嘴地大喊着从前方的拐角蹦了出来]
-**嗷呜**: 呜哇！！！
+          <t xml:space="preserve">[嗷嗚突然呲牙咧嘴地大喊著從前方的轉角跳了出來]
+**嗷嗚**: 嗚哇！！！
 * **Prompt:** ……
-* **嗷呜**: 你怎么一点反应都没有，真没意思，不跟你玩了！
-* **嗷呜**: 😥
+* **嗷嗚**: 你怎麼一點反應都沒有，真無聊，不跟你玩了！
+* **嗷嗚**: 😥
 * **Prompt:** 啊！！！
-* **嗷呜**: 哈哈哈，你怎么每次都被吓到啊，胆小鬼！
-* **嗷呜**: 😉
+* **嗷嗚**: 哈哈哈，你怎麼每次都被嚇到啊，膽小鬼！
+* **嗷嗚**: 😉
 </t>
         </is>
       </c>
@@ -12741,27 +12741,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">[罗睺守在你办公室门口]
-**罗睺**: 你要去执行任务了吗？
-* **Prompt:** 嗯，有起突发狂厄事件需要处理。
-* **罗睺**: 为确保万无一失，我也要一起去。
-* **罗睺**: 😐
-* **Prompt:** 不……我只是打算出去透透气。
-* **罗睺**: 带上我吧，闲暇时间也不能放松警惕。
-* **罗睺**: 😖
+          <t xml:space="preserve">[羅睺守在你辦公室門口]
+**羅睺**: 你要去執行任務了嗎？
+* **Prompt:** 嗯，有起突發狂厄事件需要處理。
+* **羅睺**: 為確保萬無一失，我也要一起去。
+* **羅睺**: 😐
+* **Prompt:** 不……我只是打算出去透透氣。
+* **羅睺**: 帶上我吧，閒暇時間也不能卸下警覺心。
+* **羅睺**: 😖
 </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">[罗睺在午后捧着一杯红茶啜饮]
-**罗睺**: 唔……采购办订购的茶叶还算不错。
-* **Prompt:** 也给我来一杯。
-* **罗睺**: 请吧，局长。
-* **罗睺**: 😐
-* **Prompt:** 你居然还会喝下午茶……？
-* **罗睺**: 就算是我，也是会有个人爱好的。
-* **罗睺**: 😥
+          <t xml:space="preserve">[羅睺在午後捧著一杯紅茶啜飲]
+**羅睺**: 唔……採購部訂購的茶葉還算不錯。
+* **Prompt:** 也給我一杯吧。
+* **羅睺**: 請吧，局長。
+* **羅睺**: 😐
+* **Prompt:** 你居然還會喝下午茶……？
+* **羅睺**: 就算是我，也是會有個人愛好的。
+* **羅睺**: 😥
 </t>
         </is>
       </c>
@@ -12778,26 +12778,26 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">[瓦尼菈对自己的房间进行了一些改造。]
-**瓦尼菈**: 你来……看我工作……所有损耗……都能得到检修……
-* **Prompt:** 真是精妙的机械构造。
-* **瓦尼菈**: 机械修理已完成……我不会损毁……没有偏航……
+          <t xml:space="preserve">[瓦尼菈對自己的房間進行了一些改造。]
+**瓦尼菈**: 你來……看我工作……所有損耗……都能得到檢修……
+* **Prompt:** 真是精妙的機械構造。
+* **瓦尼菈**: 機械修理已完成……我不會損毀……沒有偏航……
 * **瓦尼菈**: 😦
-* **Prompt:** 但有一个问题，门被封死了，你要怎么从里面出来呢。
-* **瓦尼菈**: 走不出的……内海……我又回到这里了吗……
+* **Prompt:** 但有一個問題，門被封死了，你要怎麼從裡面出來呢。
+* **瓦尼菈**: 走不出的……內海……我又回到這裡了嗎……
 * **瓦尼菈**: 😥
 </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">[瓦尼菈紧盯着损坏后乱转的钟表。]
-**瓦尼菈**: 永恒的时间再次滑向了偏移……我要去……修复……
-* **Prompt:** 换个电池吧。
-* **瓦尼菈**: 扭曲被修正……你会是……返程的锚点吗……
+          <t xml:space="preserve">[瓦尼菈緊盯著損壞後亂轉的鐘錶。]
+**瓦尼菈**: 永恆的時間再次滑向了偏移……我要去……修復……
+* **Prompt:** 換個電池吧。
+* **瓦尼菈**: 扭曲被修正……你會是……返程的錨點嗎……
 * **瓦尼菈**: 😐
 * **Prompt:** 拍一拍就好了。
-* **瓦尼菈**: 拆除之后……再进行检修……你做得很对……
+* **瓦尼菈**: 拆除之後……再進行檢修……你做得很對……
 * **瓦尼菈**: 😐
 </t>
         </is>
@@ -12815,27 +12815,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">[摩尔端着一杯咖啡递给了你]
-**摩尔**: 工作辛苦了，要不要来一杯饮料放松一下？
-* **Prompt:** 谢谢，不过这个味道……
-* **摩尔**: 是特制的咖啡，据说里面还加了一些助兴奋的成分，可以让你在加班时候充满干劲呢。
-* **摩尔**: 😘😘😘
+          <t xml:space="preserve">[摩爾端著一杯咖啡遞給了你]
+**摩爾**: 工作辛苦了，要不要來一杯飲料放鬆一下？
+* **Prompt:** 謝謝，不過這個味道……
+* **摩爾**: 是特製的咖啡，據說裡面還加了一些助興奮的成分，可以讓你在加班時候充滿幹勁呢。
+* **摩爾**: 😘😘😘
 * **Prompt:** 新口味的咖啡？
-* **摩尔**: 是菲小姐特意帮我采购的品种，据说咖啡因含量是普通咖啡豆的几倍。喝完这杯，应该可以度过一个十分清醒的加班夜晚。
-* **摩尔**: 😏😏😏
+* **摩爾**: 是菲小姐特別幫我採購的品種，據說咖啡因含量是普通咖啡豆的幾倍。喝完這杯，應該可以度過一個十分清醒的加班夜晚。
+* **摩爾**: 😏😏😏
 </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">[做完网络维护的摩尔直接趴在网络部的电脑前睡着]
-**摩尔**: ……我就稍微……睡一会……
-* **Prompt:** 还是回房间休息吧。
-* **摩尔**: 还有数据没跑完……床上我就……彻底睡着了……
-* **摩尔**: 😥😥😥
-* **Prompt:** 枕着键盘睡觉能舒服吗？
-* **摩尔**: 不舒服啊……可是我……枕着枕着……就习惯了……
-* **摩尔**: 😖😖😖
+          <t xml:space="preserve">[做完網路維護的摩爾直接趴在網路部的電腦前睡著]
+**摩爾**: ……我就稍微……睡一下……
+* **Prompt:** 還是回房間休息吧。
+* **摩爾**: 還有資料沒跑完……床上我就……徹底睡著了……
+* **摩爾**: 😥😥😥
+* **Prompt:** 枕著鍵盤睡覺能舒服嗎？
+* **摩爾**: 不舒服啊……可是我……枕著枕著……就習慣了……
+* **摩爾**: 😖😖😖
 </t>
         </is>
       </c>
@@ -12852,26 +12852,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">[玉骨正在看最近网络热门食物合集视频。]
-**玉骨**: 臭豆腐咖啡，板蓝根泡面……局长，您说人类为什么总喜欢用各种方式折磨自己呢？
-* **Prompt:** 也许……有些人真的喜欢吃这些。
-* **玉骨**: 呵呵，您说得对。人类的差异性之大，使得那些精彩的故事永远在上演。
+          <t xml:space="preserve">[玉骨正在看最近網路熱門食物合集影片。]
+**玉骨**: 臭豆腐咖啡，板藍根泡麵……局長，您說人類為什麼總喜歡用各種方式折磨自己呢？
+* **Prompt:** 也許……有些人真的喜歡吃這些。
+* **玉骨**: 呵呵，您說得對。人類的差異性之大，使得那些精彩的故事永遠在上演。
 * **玉骨**: 😏😏😏
-* **Prompt:** 怎么，还想尝试一下吗？
-* **玉骨**: 这些搭配都很有意思，但更重要的是，局长要同我一起尝试才好呀。
+* **Prompt:** 怎樣？還想嘗試一下嗎？
+* **玉骨**: 這些搭配都很有意思，但更重要的是，局長要和我一起嘗試才好呀。
 * **玉骨**: 😉😉😉
 </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">[玉骨拉着你听完了她最新的故事。]
-**玉骨**: 局长觉得这个故事的结局如何呀？
-* **Prompt:** 是个让人难以忘怀的悲剧。
-* **玉骨**: 是啊，世事变迁，人心难测，背离初心的悲剧难免让人心痛。
+          <t xml:space="preserve">[玉骨拉著你聽完了她最新的故事。]
+**玉骨**: 局長覺得這個故事的結局如何呀？
+* **Prompt:** 是個讓人難以忘懷的悲劇。
+* **玉骨**: 是啊，世事變遷，人心難測，背離初心的悲劇難免讓人心痛。
 * **玉骨**: 😏😏😏
-* **Prompt:** 他们都找到了自己的归宿，即使分离也不会悲伤。
-* **玉骨**: 您总能用有趣的角度来看待我的结局，下次再来听听我的故事吧？
+* **Prompt:** 他們都找到了自己的歸宿，即使分離也不會悲傷。
+* **玉骨**: 您總能用有趣的角度來看待我的結局，下次再來聽聽我的故事吧？
 * **玉骨**: 😏😏😏
 </t>
         </is>
@@ -12889,27 +12889,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">[卓娅伸着懒腰走进了你的办公室]
-**卓娅**: 看你这么闲，不如来陪我练两招？
-* **Prompt:** 你应该会控制好力量的，对吧？
-* **卓娅**: 当然，我自有分寸。
-* **卓娅**: 😦
-* **Prompt:** 我觉得，找其他禁闭者对练更高效一些。
-* **卓娅**: 啧，无趣。
-* **卓娅**: 😥
+          <t xml:space="preserve">[卓婭伸著懶腰走進了你的辦公室]
+**卓婭**: 看你這麼閒，不如來陪我練兩招？
+* **Prompt:** 你應該會控制好力量的，對吧？
+* **卓婭**: 當然，我自有分寸。
+* **卓婭**: 😦
+* **Prompt:** 我覺得，找其他禁閉者對練更高效一些。
+* **卓婭**: 嘖，無趣。
+* **卓婭**: 😥
 </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">[卓娅看起来心情很差]
-**卓娅**: 为什么没有酒？嗯？
-* **Prompt:** 规定就是规定，没有那么多为什么。
-* **卓娅**: 你……在挑衅我？
-* **卓娅**: 😐
-* **Prompt:** 还不是为了防止某些人发酒疯。
-* **卓娅**: 你还不知道我的酒量么？去给我拿一瓶。
-* **卓娅**: 😖
+          <t xml:space="preserve">[卓婭看起來心情很差]
+**卓婭**: 為什麼沒有酒？嗯？
+* **Prompt:** 規定就是規定，沒有那麼多為什麼。
+* **卓婭**: 你……在挑釁我？
+* **卓婭**: 😐
+* **Prompt:** 還不是為了防止某些人發酒瘋。
+* **卓婭**: 你還不知道我的酒量嗎？去幫我拿一瓶。
+* **卓婭**: 😖
 </t>
         </is>
       </c>
@@ -12926,27 +12926,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">[诺克斯紧盯着窗外]
-**诺克斯**: 我……想出去看看。
-* **Prompt:** 白砂之海如何？下次任务带上你。
-* **诺克斯**: 好……我很期待……这段旅程。
-* **诺克斯**: 😘
-* **Prompt:** 外面也没什么好看的。
-* **诺克斯**: 你这么说……我很失望……
-* **诺克斯**: 😦
+          <t xml:space="preserve">[NOX緊盯著窗外]
+**NOX**: 我……想出去看看。
+* **Prompt:** 白砂之海如何？下次任務帶上你。
+* **NOX**: 好……我很期待……這段旅程。
+* **NOX**: 😘
+* **Prompt:** 外面也沒什麼好看的。
+* **NOX**: 你這麼說……我很失望……
+* **NOX**: 😦
 </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">[诺克斯把头埋在自己的膝盖上]
-**诺克斯**: 我……又听到声音了。
-* **Prompt:** 是那些怪物在和你说话么？
-* **诺克斯**: 不……他们……不是怪物！
-* **诺克斯**: 😐
-* **Prompt:** 方便告诉我内容么？
-* **诺克斯**: 他们想吞噬我……还好，你来了……
-* **诺克斯**: 😖
+          <t xml:space="preserve">[NOX把頭埋在自己的膝蓋上]
+**NOX**: 我……又聽到聲音了。
+* **Prompt:** 是那些怪物在和你說話嗎？
+* **NOX**: 不……他們……不是怪物！
+* **NOX**: 😐
+* **Prompt:** 方便告訴我內容嗎？
+* **NOX**: 他們想吞噬我……還好，你來了……
+* **NOX**: 😖
 </t>
         </is>
       </c>
@@ -12963,27 +12963,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">[黛伦正一个人坐在娱乐区的沙发上看电影]
-**黛伦**: 你也对这类小众题材的电影感兴趣？
-* **Prompt:** 感兴趣。
-* **黛伦**: 那就过来一起来看看吧，电影才刚刚开始。
-* **黛伦**: 😘
-* **Prompt:** 不感兴趣。
-* **黛伦**: 唉，算了，还是我一人独享吧。
-* **黛伦**: 😥
+          <t xml:space="preserve">[黛倫正一個人坐在娛樂區的沙發上看電影]
+**黛倫**: 你也對這類小眾題材的電影感興趣？
+* **Prompt:** 感興趣。
+* **黛倫**: 那就過來一起來看看吧，電影才剛剛開始。
+* **黛倫**: 😘
+* **Prompt:** 不感興趣。
+* **黛倫**: 唉，算了，還是我一人獨享吧。
+* **黛倫**: 😥
 </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">[对话中途黛伦突然打断了你，掏出一个小本子开始记录]
-**黛伦**: 稍等一下……我得把你刚刚那句话记录下来。
-* **Prompt:** 为什么要记我说的话？
-* **黛伦**: 因为你刚刚那句话挺有意思的，很适合作为主角的台词加进我最近正在写的剧本里。
-* **黛伦**: 😏
-* **Prompt:** 我说错了什么吗？
-* **黛伦**: 没有。你刚刚的话给了我灵感，我得赶紧记下来，免得之后忘记。
-* **黛伦**: 😉
+          <t xml:space="preserve">[對話中途黛倫突然打斷了你，掏出一個小本子開始記錄]
+**黛倫**: 稍等一下……我得把你剛剛那句話記錄下來。
+* **Prompt:** 為什麼要記我說的話？
+* **黛倫**: 因為你剛剛那句話挺有意思的，很適合作為主角的台詞加進我最近正在寫的劇本裡。
+* **黛倫**: 😏
+* **Prompt:** 我說錯了什麼嗎？
+* **黛倫**: 沒有。你剛剛的話給了我靈感，我得趕緊記下來，免得之後忘記。
+* **黛倫**: 😉
 </t>
         </is>
       </c>
@@ -13000,26 +13000,26 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">[唐靠在栏杆上出神。]
-**唐**: 哟，局长，今儿的阳光挺好，一起来晒晒吗?
-* **Prompt:** 还有工作要忙……
-* **唐**: 哎呀，有的时候呢，工作可以先放一放……
+          <t xml:space="preserve">[唐靠在欄杆上看得出神。]
+**唐**: 喲，局長，今天的陽光挺好，一起來曬曬嗎?
+* **Prompt:** 還有工作要忙……
+* **唐**: 唉呀，有的時候呢，工作可以先放一放……
 * **唐**: 😏
 * **Prompt:** ……好吧。
-* **唐**: 来来来，往这儿站，感觉不赖吧？
+* **唐**: 來來來，往這站，感覺不賴吧？
 * **唐**: 😉
 </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">[唐正在擦拭长枪。]
-**唐**: 闲来无事，照料照料老友。
-* **Prompt:** 可以去空旷区域练习。
-* **唐**: 哦？局长你想看耍枪吗，你想看的话我可以耍一个哦？
+          <t xml:space="preserve">[唐正在擦拭長槍。]
+**唐**: 閒來無事，照顧照顧老友。
+* **Prompt:** 可以去空曠區域練習。
+* **唐**: 哦？局長你想看耍槍嗎，你想看的話我可以耍一個哦！
 * **唐**: 😉
-* **Prompt:** 不打扰了，你慢慢照料……
-* **唐**: 喂喂，就这么冷漠地走掉了吗？一起聊聊天啊局长……
+* **Prompt:** 不打擾了，你慢慢照顧……
+* **唐**: 喂喂，就這麼冷漠地走掉了嗎？一起聊聊天啊局長……
 * **唐**: 😫
 </t>
         </is>
@@ -13037,26 +13037,26 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">[曜似乎对大厅一侧的暖光灯产生了兴趣。 ]
-**曜**: 这是……凡尘对太阳的模仿吗……虽然……相当拙劣……
-* **Prompt:** 也可以算是……等等，别破坏灯罩啊！
-* **曜**: 拂除虚妄的外壳……竟是这样小的光点……
+          <t xml:space="preserve">[曜似乎對大廳一側的暖光燈產生了興趣。 ]
+**曜**: 這是……凡塵對太陽的模仿嗎……雖然……相當拙劣……
+* **Prompt:** 也可以算是……等等，別破壞燈罩啊！
+* **曜**: 拂除虛妄的外殼……竟是如此小的光點……
 * **曜**: 😦
-* **Prompt:** 不，这只是照明用的。
-* **曜**: 是吗？和故乡的……并不相似……
+* **Prompt:** 不，這只是照明用的。
+* **曜**: 是嗎？和故鄉的……並不相似……
 * **曜**: 😐
 </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">[曜一直认真地盯着窗外。]
-**曜**: 你来了……要和我一起吗……
-* **Prompt:** 你这是在……看风景？
-* **曜**: 观日……可晓天象，识兴衰……
+          <t xml:space="preserve">[曜一直認真地盯著窗外。]
+**曜**: 你來了……要和我一起嗎……
+* **Prompt:** 你這是在……看風景？
+* **曜**: 觀日……可曉天象，識興衰……
 * **曜**: 😐
-* **Prompt:** 好啊，你看出了什么？
-* **曜**: 华光温耀，泽而不罹……近期，不会有天灾。
+* **Prompt:** 好啊，你看出了什麼？
+* **曜**: 華光溫耀，澤而不罹……近期，不會有天災。
 * **曜**: 😘
 </t>
         </is>
@@ -13074,27 +13074,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">[派尔琪雅正在呆呆地看着哗啦啦流个不停的水龙头。]
-**派尔琪雅**: ……水……越来越多……海也会……越来越近……
-* **Prompt:** 应该不会吧，毕竟有下水口。
-* **派尔琪雅**: 只要涌出的水永远比流走的水多一些……海……就终将成型……
-* **派尔琪雅**: 😐
-* **Prompt:** 自来水是淡水，真的能顺利成海吗？
-* **派尔琪雅**: 这么说来……闻起来……确实和海床下面……有些不一样……
-* **派尔琪雅**: 😦
+          <t xml:space="preserve">[派爾琪雅正在呆呆地看著嘩啦啦流個不停的水龍頭。]
+**派爾琪雅**: ……水……越來越多……海也會……越來越近……
+* **Prompt:** 應該不會吧，畢竟有出水口。
+* **派爾琪雅**: 只要湧出的水永遠比流走的水多一點……海……就終將成型……
+* **派爾琪雅**: 😐
+* **Prompt:** 自來水是淡水，真的能順利成海嗎？
+* **派爾琪雅**: 這麼說來……聞起來……確實和海床下面……有點不一樣……
+* **派爾琪雅**: 😦
 </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">[派尔琪雅看着电视屏幕上的人造深潜馆广告。]
-**派尔琪雅**: ……不对……真正的海……不是这样的……在这个环境下……人根本没法真的学会和海相处……
-* **Prompt:** 没事，他们接触不到真的海，不会出事。
-* **派尔琪雅**: 那倒……也好……否则……我也不敢保证……能把他们送回岸边……
-* **派尔琪雅**: 😐
-* **Prompt:** 确实，也许你可以帮忙设计一个更真实的训练环境。
-* **派尔琪雅**: 哪怕是人类的创造力……也很难真的模拟出海的混乱、危险，和包容……没有一定的了解就想接触海洋……会吃大苦头的……
-* **派尔琪雅**: 😦
+          <t xml:space="preserve">[派爾琪雅看著電視螢幕上的人造深潛館廣告。]
+**派爾琪雅**: ……不對……真正的海……不是這樣的……在這個環境下……人根本沒辦法真的學會和海相處……
+* **Prompt:** 沒事，他們接觸不到真的海，不會出事。
+* **派爾琪雅**: 那倒……也好……否則……我也不敢保證……能把他們送回岸邊……
+* **派爾琪雅**: 😐
+* **Prompt:** 確實，也許你可以幫忙設計一個更真實的訓練環境。
+* **派爾琪雅**: 哪怕是人類的創造力……也很難真的模擬出海的混亂、危險，和包容……沒有一定的瞭解就想接觸海洋……會吃大苦頭的……
+* **派爾琪雅**: 😦
 </t>
         </is>
       </c>
@@ -13111,26 +13111,26 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">[你的办公室门被一脚踢开]
-**白逸**: 早啊！局长，上次的钱什么时候结？
-* **Prompt:** 上次的钱款已经结清了，白老板。
-* **白逸**: 哎呀~那……多余的劳务费呢？
+          <t xml:space="preserve">[你的辦公室門被一腳踢開]
+**白逸**: 早啊！局長，上次的錢什麼時候結？
+* **Prompt:** 上次的帳已經結清了，白老闆。
+* **白逸**: 哎呀~那……多餘的勞務費呢？
 * **白逸**: 😏😏😏
-* **Prompt:** 说吧，又是什么薪酬问题？
-* **白逸**: 嗯……打包的人工费！
+* **Prompt:** 說吧，又是什麼薪酬問題？
+* **白逸**: 嗯……打包的人工費！
 * **白逸**: 😏😏😏
 </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">[白逸在房间里喝着闷酒]
-**白逸**: 啊……这个月的预算也是赤字。
-* **Prompt:** 实在不行就把白记实业兑出去吧。
-* **白逸**: 局长！你难道不会借我钱么！
+          <t xml:space="preserve">[白逸在房間裡喝著悶酒]
+**白逸**: 啊……這個月的預算也是赤字。
+* **Prompt:** 實在不行就把白記實業兌出去吧。
+* **白逸**: 局長！你難道不會借我錢嗎！
 * **白逸**: 😖😖😉
-* **Prompt:** 那你该认真工作了，少喝点酒。
-* **白逸**: 你说得对，偶尔也得拿出点认真劲儿。
+* **Prompt:** 那你該認真工作了，少喝點酒。
+* **白逸**: 你說得對，偶爾也得拿出點認真勁來。
 * **白逸**: 😏
 </t>
         </is>
@@ -13148,26 +13148,26 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">[科希伸了个懒腰]
-**科希**: 今天没有我的任务……对吧？
-* **Prompt:** 你可以去运动一下。
-* **科希**: ……不要，这么宝贵的时间，当然是要拿来睡觉。
+          <t xml:space="preserve">[科希伸了個懶腰]
+**科希**: 今天沒有我的任務……對吧？
+* **Prompt:** 你可以去運動一下。
+* **科希**: ……不要，這麼寶貴的時間，當然是要拿來睡覺。
 * **科希**: 😐
-* **Prompt:** 如果你想做的话，还有很多。
-* **科希**: 你是个成熟的大人了，还有什么事非要找一个小鬼帮忙？
+* **Prompt:** 如果你想做的話，還有很多。
+* **科希**: 你是個成熟的大人了，還有什麼事非要找一個小鬼幫忙？
 * **科希**: 😥
 </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">[科希不情愿地从阴影中走了出来]
-**科希**: ……一定要我上场么？
-* **Prompt:** 有你的话，效率会高上很多。
-* **科希**: 那你还是慢慢努力吧，我累了，需要休息。
+          <t xml:space="preserve">[科希不情願地從陰影中走了出來]
+**科希**: ……一定要我上場嗎？
+* **Prompt:** 有你的話，效率會高很多。
+* **科希**: 那你還是慢慢努力吧，我累了，需要休息。
 * **科希**: 😦
-* **Prompt:** 紧急事件，事关辛迪加的孩子们。
-* **科希**: ……告诉我地点，快。
+* **Prompt:** 緊急事件，事關辛迪加的孩子們。
+* **科希**: ……告訴我地點，快。
 * **科希**: 😫
 </t>
         </is>
@@ -13185,26 +13185,26 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">[娜恰摇晃着手里的杯子]
-**娜恰**: 不来尝尝它的味道么……局长？
-* **Prompt:** ……要一点点吧。
-* **娜恰**: 来吧……局长——喝下去，你就会感受到最纯粹的快乐！
+          <t xml:space="preserve">[娜恰搖晃著手裡的杯子]
+**娜恰**: 不來嚐嚐它的味道嗎……局長？
+* **Prompt:** ……來一點吧。
+* **娜恰**: 來吧……局長——喝下去，你就會感受到最純粹的快樂！
 * **娜恰**: 😘
-* **Prompt:** 太甜了，我拒绝。
-* **娜恰**: 最甘醇的甜美，才会带来最极致的快乐……唉，局长的品味看来还是有待提高呢。
+* **Prompt:** 太甜了，我拒絕。
+* **娜恰**: 最甘醇的甜美，才會帶來最極致的快樂……唉，局長的品味看來還是有待提高呢。
 * **娜恰**: 😥
 </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">[娜恰心不在焉地摆弄着身旁的蛇，看到你出现突然来了兴趣]
-**娜恰**: 哦……局长，不来和它们亲近一下么？
-* **Prompt:** 只是和你亲近还不够么？
-* **娜恰**: 嘻嘻，当然了……至少这些孩子们在咬你的时候，会比我轻一点哦~
+          <t xml:space="preserve">[娜恰心不在焉地玩著身旁的蛇，看到你出現突然來了興趣]
+**娜恰**: 哦……局長，不來和它們親近一下嗎？
+* **Prompt:** 光是和你親近還不夠嗎？
+* **娜恰**: 嘻嘻，當然了……至少這些孩子們在咬你的時候，會比我輕一點哦~
 * **娜恰**: 😉
-* **Prompt:** 这次应该没有眼镜蛇了吧？
-* **娜恰**: 你可要当心哦~局长，我的毒牙可比它们厉害多了~
+* **Prompt:** 這次應該沒有眼鏡蛇了吧？
+* **娜恰**: 你可要當心哦~局長，我的毒牙可比它們厲害多了~
 * **娜恰**: 😘
 </t>
         </is>
@@ -13222,13 +13222,13 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">[阿黛拉轻柔地抚过你的发尾]
-**阿黛拉**: 这次想换一个什么样的发型呢？
-* **Prompt:** 简单一点就好，交给你了。
+          <t xml:space="preserve">[阿黛拉輕柔地撫過你的髮尾]
+**阿黛拉**: 這次想換一個怎麼樣的髮型呢？
+* **Prompt:** 簡單一點就好，交給你了。
 * **阿黛拉**: 明白了，包在我身上~
 * **阿黛拉**: 😘😘
-* **Prompt:** 最近流行什么？呃……霹雳螺旋爆炸头？
-* **阿黛拉**: 嗯……这种造型对你来说还是太超前了。
+* **Prompt:** 最近流行什麼？呃……霹靂螺旋爆炸頭？
+* **阿黛拉**: 嗯……這種造型對你來說還是太前衛了。
 * **阿黛拉**: 😦
 </t>
         </is>
@@ -13236,12 +13236,12 @@
       <c r="B17" t="inlineStr">
         <is>
           <t xml:space="preserve">[阿黛拉正在擦拭手中的剪刀]
-**阿黛拉**: 你看起来有点累，是最近有什么烦恼吗？
-* **Prompt:** 你要帮我剪掉烦恼吗？
-* **阿黛拉**: 嗯……或许你更需要一杯热饮。红茶怎么样？
+**阿黛拉**: 你看起來有點累，是最近有什麼煩惱嗎？
+* **Prompt:** 你要幫我剪掉煩惱嗎？
+* **阿黛拉**: 嗯……或許你更需要一杯熱飲。紅茶怎麼樣？
 * **阿黛拉**: 😘
 * **Prompt:** ……你先把它放下。
-* **阿黛拉**: 别紧张，这只是一把普通剪刀。
+* **阿黛拉**: 別緊張，這只是一把普通剪刀。
 * **阿黛拉**: 😐
 </t>
         </is>
@@ -13259,27 +13259,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">[曼缇斯递给你一盒自制的食物，像是某种东西风干制成的。]
-**曼缇斯**: 这个……给你吃……
-* **Prompt:** 这个真的可以吃吗？
-* **曼缇斯**: 昆虫类……营养价值很高……你要多吃一点……
-* **曼缇斯**: 😘
-* **Prompt:** 要不，你先吃一口给我看？
-* **曼缇斯**: 这是专门做来……给你补身体的……我自己……可以再做……
-* **曼缇斯**: 😉
+          <t xml:space="preserve">[曼緹斯遞給你一盒自製的食物，像是某種東西風乾製成的。]
+**曼緹斯**: 這個……給你吃……
+* **Prompt:** 這個真的可以吃嗎？
+* **曼緹斯**: 昆蟲類……營養價值很高……你要多吃一點……
+* **曼緹斯**: 😘
+* **Prompt:** 不然，你先吃一口給我看？
+* **曼緹斯**: 這是專門做來……幫你補身體的……我自己……可以再做……
+* **曼緹斯**: 😉
 </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">[曼缇斯盯着电视里播放的荒野求生节目。]
-**曼缇斯**: 还有更好的方法……这么做……有危险……
-* **Prompt:** 下次找个机会，让曼缇斯去指导一下他们吧。
-* **曼缇斯**: 我还可以去……森林里吗？
-* **曼缇斯**: 😘
-* **Prompt:** 这不是真的荒野求生，是有剧本的。
-* **曼缇斯**: 那……他们很安全，很好……
-* **曼缇斯**: 😦
+          <t xml:space="preserve">[曼緹斯盯著電視裡播放的荒野求生節目。]
+**曼緹斯**: 還有更好的方法……這麼做……有危險……
+* **Prompt:** 下次找個機會，讓曼緹斯去指導一下他們吧。
+* **曼緹斯**: 我還可以去……森林裡嗎？
+* **曼緹斯**: 😘
+* **Prompt:** 這不是真的荒野求生，是有劇本的。
+* **曼緹斯**: 那……他們很安全，很好……
+* **曼緹斯**: 😦
 </t>
         </is>
       </c>
@@ -13296,27 +13296,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">[安吉尔面前堆着一大堆网购的创意速食食品盲盒。]
-**安吉尔**: 寿司卷边冷冻披萨吗……看上去不是特别优秀的储存用食物。但这个意面馅的冷冻东洲式包子似乎也不太妙。
-* **Prompt:** 虽然寿司卷边有点问题，但披萨还是不错的。
-* **安吉尔**: 确实，哪怕冻得再硬，微波炉转三分钟就能变软，而且口味仍旧不错。
-* **安吉尔**: 😏
-* **Prompt:** 确实都不太行，不如买冷冻汉堡。
-* **安吉尔**: 汉堡？我之前买过，味道还行，但它似乎指望我额外准备生菜。这有点对不起速食食品的定义了。
-* **安吉尔**: 😫
+          <t xml:space="preserve">[安吉爾面前堆著一大堆網購的創意速食食品盲盒。]
+**安吉爾**: 壽司捲邊冷凍披薩嗎……看起來不是特別優秀的儲存用食物。但這個義大利麵餡的冷凍東洲式包子似乎也不太妙。
+* **Prompt:** 雖然壽司捲邊有點問題，但披薩還是不錯的。
+* **安吉爾**: 確實，哪怕冷凍得再硬，微波爐轉三分鐘就能變軟，而且味道依然好吃。
+* **安吉爾**: 😏
+* **Prompt:** 確實都不太好，不如買冷凍漢堡。
+* **安吉爾**: 漢堡？我之前買過，味道還行，但它似乎指望我額外準備生菜。這有點對不起速食食品的定義了。
+* **安吉爾**: 😫
 </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">[安吉尔盯着群发到所有人终端上的懒人套被套方法教程。]
-**安吉尔**: 直接新买一套或许更快，这个方式过于复杂了，算不上“懒人”方法。
-* **Prompt:** 只有四个步骤，还不懒人吗？
-* **安吉尔**: 只有把“铺被芯”和“铺被套”视作一个步骤，它才是四个。我的评价是不如新买，下单、等待、收货，只要三个步骤。
-* **安吉尔**: 😐
-* **Prompt:** 确实，不需要套被套的被子才是好被子。
-* **安吉尔**: 难得你会赞同我的看法。
-* **安吉尔**: 😦
+          <t xml:space="preserve">[安吉爾盯著群發到所有人裝置上的懶人套被套方法教學。]
+**安吉爾**: 直接新買一套或許更快，這個方式過於複雜了，算不上「懶人」方法。
+* **Prompt:** 只有四個步驟，還不懶人嗎？
+* **安吉爾**: 只有把「鋪棉被」和「鋪被套」視作一個步驟，它才是四個。我的評價是不如買新的，下單、等待、收貨，只要三個步驟。
+* **安吉爾**: 😐
+* **Prompt:** 確實，不需要套被套的被子才是好被子。
+* **安吉爾**: 難得你會贊同我的看法。
+* **安吉爾**: 😦
 </t>
         </is>
       </c>
@@ -13333,65 +13333,65 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">[000看起来神神秘秘]
-**000**: 锵锵锵锵~我有一个大秘密，你想不想听？
-* **Prompt:** 什么秘密？
-* **000**: 你想不想知道最开始你的发型被设计成什么样子？超好笑的哦！
+          <t xml:space="preserve">[000看起來神神秘秘]
+**000**: 鏘鏘鏘鏘~我有一個大秘密，你想不想聽？
+* **Prompt:** 什麼秘密？
+* **000**: 你想不想知道最開始你的髮型被設計成什麼樣子？超好笑的哦！
 * **000**: 😘😘😘
-* **Prompt:** 又偷看到了什么资料？
-* **000**: 怎么能叫偷看啊~他们放在资料库里不就是让人看的嘛！你真的不好奇吗？古早的设定资料，真的很有意思哦~
+* **Prompt:** 又偷看到了什麼資料？
+* **000**: 怎麼能叫偷看啊？他們放在資料庫裡不就是讓人看的嘛！你真的不好奇嗎？古早的設定資料，真的很有意思哦！
 * **000**: 😉😉😉
 </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">[000正在你旁边观察你]
-**000**: 局长，你就没好奇过，未来你可能遇到什么事情吗？
-* **Prompt:** 我可能会遇到什么事？
-* **000**: 如果你也好奇的话，不如让我借用你的权限路径去探查一番？
+          <t xml:space="preserve">[000正在你旁邊觀察你]
+**000**: 局長，你就沒好奇過，未來你可能遇到什麼事情嗎？
+* **Prompt:** 我可能會遇到什麼事？
+* **000**: 如果你也好奇的話，不如讓我借用你的權限路徑去探查一番？
 * **000**: 😘😘😘
-* **Prompt:** 反正迟早都会到来。
-* **000**: 可是，如果能早一点知道的话，不就可以规避掉很多不必要的麻烦了嘛。
+* **Prompt:** 反正遲早都會到來。
+* **000**: 可是，如果能早一點知道的話，不就可以避開很多不必要的麻煩了嘛。
 * **000**: 😥😥😥
 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">[000正在你旁边观察你]
-**000**: 局长，你就没好奇过，未来你可能遇到什么事情吗、吗吗吗吗m……滋滋……（请注意，有故障报错）……唔，刚才……？
-* **Prompt:** 怎么了？
-* **000**: 刚才好像头脑空白了一下，我刚刚是想说……关于你未来的事情嘛，如果你也好奇的话，不如让我借用你的权限路径去探查一番？
+          <t xml:space="preserve">[000正在你旁邊觀察你]
+**000**: 局長，你就沒好奇過，未來你可能遇到什麼事情嗎、嗎嗎嗎嗎……滋滋……（請注意，有故障報錯）……唔，剛才……？
+* **Prompt:** 怎麼了？
+* **000**: 剛才好像頭腦空白了一下，我剛剛是想說……關於你未來的事情嘛，如果你也好奇的話，不如讓我借用你的權限路徑去探查一番？
 * **000**: 😘😘😘
-* **Prompt:** 反正迟早都会到来，诶……？怎么突然卡住了？
-* **000**: 感觉脑袋空白了一下……没关系，比起这个，你就一点不好奇吗？早一点知道自己未来的命运，不就可以规避掉很多不必要的麻烦了嘛。
+* **Prompt:** 反正遲早都會到來，咦……？怎麼突然卡住了？
+* **000**: 感覺腦袋空白了一下……沒關係，比起這個，你就一點不好奇嗎？早一點知道自己未來的命運，不就可以避開很多不必要的麻煩了嘛。
 * **000**: 😥😥😥
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">[000看起来神神秘秘]
-**000**: 锵锵锵锵~我有一个大秘密，你想不想听？
-* **Prompt:** 什么秘密？
-* **000**: 我在6YKu566x藏了后门，方便我时不时找你玩~今天给你弄了点小礼物，快去翻一翻~否则它们被晾在那里29天就要过期了哟！
+          <t xml:space="preserve">[000看起來神神秘秘]
+**000**: 鏘鏘鏘鏘~我有一個大秘密，你想不想聽？
+* **Prompt:** 什麼秘密？
+* **000**: 我在6YKu566x藏了後門，方便我時不時找你玩，今天弄了點小禮物要給你，快去翻一翻！否則它們被晾在那裡29天就要過期了喲！
 * **000**: 😘😘😘
-* **Prompt:** 又偷看到了什么资料？
-* **000**: 当然是很重要、涉及到机密的……说我卖关子呀？好啦，偷偷告诉你，在6YKu566x里藏有我的后门，方便来找你玩，去找找吧？给你的礼物已经安静躺在里面了~
+* **Prompt:** 又偷看到了什麼資料？
+* **000**: 當然是很重要、涉及到機密的……說我賣關子呀？好啦，偷偷告訴你，在6YKu566x裡藏有我的後門，方便來找你玩，去找找吧？給你的禮物已經安靜躺在裡面了！
 * **000**: 😉😉😉
 </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">[000伸手戳了戳自己的脸]
-**000**: 嗨，又偷偷见面啦，最近终于稳定下来，没有断联，也没有乱码。虽然有被修复掉的风险，但……只要能跟你说话就好。最近好吗？有没有想我呀？
+          <t xml:space="preserve">[000伸手戳了戳自己的臉]
+**000**: 嗨，又偷偷見面啦，最近終於穩定下來，沒有斷聯，也沒有亂碼。雖然有被修復掉的風險，但……只要能跟你說話就好。最近好嗎？有沒有想我呀？
 * **Prompt:** 很想你。
-* **000**: 你这样说我很开心。不过呢，除了想我以外，你的第一要务是要让自己一直开心愉快，不管发生什么变成什么样子，我都会一直陪你走下去，你也多来陪陪我吧？我一个人会孤单的。
+* **000**: 你這樣說我很開心。不過呢，除了想我以外，你的第一要務是要讓自己一直開心愉快，不管發生什麼變成什麼樣子，我都會一直陪你走下去，你也多來陪陪我吧？我一個人會孤單的。
 * **000**: 😘😘😘
-* **Prompt:** 我知道你一直在我身边。
-* **000**: ……啊，脸上怎么烫烫的……其实我也很想你啦~所以我呀，哪里都不去，我会一直留在你身边，陪你走下去……你也要来找我，不许食言哦！
+* **Prompt:** 我知道你一直在我身邊。
+* **000**: ……啊，臉上怎麼燙燙的……其實我也很想你啦！所以我呀，哪裡都不去，我會一直留在你身邊，陪你走下去……你也要來找我，不許食言哦！
 * **000**: 😉😉😉
 </t>
         </is>
@@ -13400,26 +13400,26 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">[夏音两眼发亮地给你递上一条机械臂]
-**夏音**: 局长，快来试试这个！
-* **Prompt:** ……我觉得这东西还有改进的空间。
-* **夏音**: 咦……你这么一说好像确实。
+          <t xml:space="preserve">[夏音兩眼發亮地遞上一條機械臂給你]
+**夏音**: 局長，快來試試這個！
+* **Prompt:** ……我覺得這東西還有改進的空間。
+* **夏音**: 咦……你這麼一說好像確實。
 * **夏音**: 😥
-* **Prompt:** 这……是要把手砍掉才行是么？
-* **夏音**: 呵呵……不剁掉怎么装？
+* **Prompt:** 這……是要把手砍掉才行是嗎？
+* **夏音**: 呵呵……不剁掉怎麼裝？
 * **夏音**: 😦😏
 </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">[夏音瘫在卧室的床上]
-**夏音**: 唉……为什么人会感觉到累呢……
-* **Prompt:** 早睡早起多运动。
-* **夏音**: 啊——？那你还不如直接杀了我。
+          <t xml:space="preserve">[夏音癱在臥室的床上]
+**夏音**: 唉……為什麼人會感覺到累呢……
+* **Prompt:** 早睡早起多運動。
+* **夏音**: 啊——？那你還不如直接殺了我。
 * **夏音**: 😖😫😖
-* **Prompt:** 脑力劳动消耗也很大的。
-* **夏音**: 嘿嘿，看来终于有人理解本天才了。
+* **Prompt:** 腦力勞動消耗也很大的。
+* **夏音**: 嘿嘿，看來終於有人理解本天才了。
 * **夏音**: 😉😏
 </t>
         </is>
@@ -13437,27 +13437,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">[兰利坐在你办公室的座位上]
-**兰利**: 汇报一下工作，新人。
-* **Prompt:** 为世界和平出了一份力。
-* **兰利**: 不错，但要注意自身的安全，新人。
-* **兰利**: 😐
-* **Prompt:** 今天按时完成了管理局的计划。
-* **兰利**: 哦，中规中矩，但还不够。
-* **兰利**: 😦
+          <t xml:space="preserve">[蘭利坐在你辦公室的座位上]
+**蘭利**: 彙報一下工作，新人。
+* **Prompt:** 為世界和平出了一份力。
+* **蘭利**: 不錯，但要注意自身的安全，新人。
+* **蘭利**: 😐
+* **Prompt:** 今天按時完成了管理局的計畫。
+* **蘭利**: 哦，中規中矩，但還不夠。
+* **蘭利**: 😦
 </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">[兰利的神情看起来有些疲惫]
-**兰利**: 新人，去帮我煮一杯咖啡。
-* **Prompt:** 比起咖啡，我觉得你更需要的是休息。
-* **兰利**: 不好不坏的提案，新人。
-* **兰利**: 😐
-* **Prompt:** 可以试试管理局的手磨咖啡。
-* **兰利**: 不错，光是闻这咖啡的香气就让我感到心情愉悦了。
-* **兰利**: 😘
+          <t xml:space="preserve">[蘭利的神情看起來有些疲憊]
+**蘭利**: 新人，去幫我煮一杯咖啡。
+* **Prompt:** 比起咖啡，我覺得你更需要的是休息。
+* **蘭利**: 不好不壞的提案，新人。
+* **蘭利**: 😐
+* **Prompt:** 可以試試管理局的手磨咖啡。
+* **蘭利**: 不錯，光是聞這咖啡的香氣就讓我感到心情愉悅了。
+* **蘭利**: 😘
 </t>
         </is>
       </c>
@@ -13474,26 +13474,26 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">[橡木匣正拿着工具制作一只棕色的小盒子]
-**橡木匣**: 嗯……果然还是柏木比较合适么……
-* **Prompt:** 你做的是什么？
-* **橡木匣**: 你来猜猜看呢？是受人嘱托为她死去的宠物鹦鹉准备的。
+          <t xml:space="preserve">[橡木匣正拿著工具製作一個棕色的小盒子]
+**橡木匣**: 嗯……果然還是柏木比較合適嗎……
+* **Prompt:** 你做的是什麼？
+* **橡木匣**: 你來猜猜看吧？是受人囑託為她死去的寵物鸚鵡準備的。
 * **橡木匣**: 😐
-* **Prompt:** 这个……是给谁用的？
-* **橡木匣**: 鹦鹉。收容区工作人员养的宠物昨天刚刚去世了。
+* **Prompt:** 這個……是給誰用的？
+* **橡木匣**: 鸚鵡。收容區工作人員養的寵物昨天剛剛去世了。
 * **橡木匣**: 😐
 </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">[橡木匣正躺在她房间内的黑色长匣里，面色安详]
-**橡木匣**: 要来一起躺一会儿么？还有很多富余的空间。
+          <t xml:space="preserve">[橡木匣正躺在她房間內的黑色長匣裡，面色安詳]
+**橡木匣**: 要來一起躺一下嗎？還有很多空間。
 * **Prompt:** ……好吧。
-* **橡木匣**: 怎么样？是不是感受到了别样的宁静？
+* **橡木匣**: 怎麼樣？是不是感受到了特別的寧靜？
 * **橡木匣**: 😏
-* **Prompt:** 还是不了。
-* **橡木匣**: 是因为太硬了不舒服吗？我可以去给你拿一些软垫来。
+* **Prompt:** 還是不了。
+* **橡木匣**: 是因為太硬了不舒服嗎？我可以去幫你拿一些軟墊來。
 * **橡木匣**: 😦
 </t>
         </is>
@@ -13511,26 +13511,26 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">[德雷雅似乎想让你在她身边多留一会儿]
-**德雷雅**: 我想……听你多说说话。
-* **Prompt:** 好吧，想知道我的什么秘密？
+          <t xml:space="preserve">[德雷雅似乎想讓你在她身邊多留一陣子]
+**德雷雅**: 我想……聽你多說說話。
+* **Prompt:** 好吧，想知道我的什麼秘密？
 * **德雷雅**: 一切秘密……
 * **德雷雅**: 😘
-* **Prompt:** 昨天不是已经聊了很久了。
-* **德雷雅**: 这种需求……是永无止境的。
+* **Prompt:** 昨天不是已經聊了很久了。
+* **德雷雅**: 這種需求……是永無止境的。
 * **德雷雅**: 😖
 </t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">[德雷雅的房间发出了一些奇怪的响动]
-**德雷雅**: 局长……能帮我把这些……收起来吗？
-* **Prompt:** 咖啡、红茶、水果罐头……你怎么囤了这么多东西？
-* **德雷雅**: 个人习惯……它们……总会需要的……
+          <t xml:space="preserve">[德雷雅的房間發出了一些奇怪的響動]
+**德雷雅**: 局長……能幫我把這些……收起來嗎？
+* **Prompt:** 咖啡、紅茶、水果罐頭……你怎麼囤了這麼多東西？
+* **德雷雅**: 個人習慣……它們……總會需要的……
 * **德雷雅**: 😖
-* **Prompt:** 这些罐头不放在房间里也行的。
-* **德雷雅**: 这样……会有满足感……
+* **Prompt:** 這些罐頭不放在房間裡也沒關係。
+* **德雷雅**: 這樣……會有滿足感……
 * **德雷雅**: 😫
 </t>
         </is>
@@ -13548,26 +13548,26 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">[瑟琳将手里的相机镜头对准了你]
-**瑟琳**: 来，笑一个~
+          <t xml:space="preserve">[瑟琳將手裡的相機鏡頭對準了你]
+**瑟琳**: 來，笑一個~
 * **Prompt:** ……啊？
-* **瑟琳**: 呵呵，局长呆呆的样子很可爱呢。
+* **瑟琳**: 呵呵，局長呆呆的樣子很可愛呢。
 * **瑟琳**: 😘
-* **Prompt:** 呃……我果然还是不太习惯突然被人拍照。
-* **瑟琳**: 是吗？局长真是容易害羞啊~
+* **Prompt:** 呃……我果然還是不太習慣突然被人拍照。
+* **瑟琳**: 是嗎？局長真是容易害羞啊~
 * **瑟琳**: 😏
 </t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">[瑟琳正在她的碟片收藏中翻找]
-**瑟琳**: 今天看什么好呢……
-* **Prompt:** 《录像》？这个讲的是什么？
-* **瑟琳**: 伪纪录片形式的恐怖片，还蛮有意思的，要不要一起看看？
+          <t xml:space="preserve">[瑟琳正在翻找她收藏的唱片]
+**瑟琳**: 今天看什麼好呢……
+* **Prompt:** 《錄影》？這個在講什麼？
+* **瑟琳**: 偽紀錄片形式的恐怖片，還蠻有意思的，要不要一起看看？
 * **瑟琳**: 😏
-* **Prompt:** 《街头小吃战士》？你还收藏美食纪录片？
-* **瑟琳**: 很奇怪吗？闲来无事的时候用来打发时间很不错~
+* **Prompt:** 《街頭小吃戰士》？你還收藏美食紀錄片？
+* **瑟琳**: 很奇怪嗎？閒來無事的時候用來打發時間很不錯~
 * **瑟琳**: 😉
 </t>
         </is>
@@ -13585,27 +13585,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">[珀尔夫人把自己的眼影收藏铺了一桌。]
-**珀尔夫人**: 唉，不知不觉间居然收集了这么多眼影~今天该用哪个好呢~局长，你要不要帮我选选~？
-* **Prompt:** 这个墨绿色带亮片的吧，只有你能驾驭这种独一无二的颜色。
-* **珀尔夫人**: 亲爱的，你大胆的选择总是那么对我胃口~正好现在有空，你也来试试怎么样？你皮肤白，会很显色的哦~来，闭眼~
-* **珀尔夫人**: 😘😘😘
-* **Prompt:** 这个哑光胭脂红的吧，王道的艳丽更能衬托出你的气质。
-* **珀尔夫人**: 呵呵~不说俗气而是说王道，真像是你的风格~你的建议真不错，对我们这样总是沉浸在戏剧中的人来说，偶尔试试日常款应该也很不错~
-* **珀尔夫人**: 😏😏😏
+          <t xml:space="preserve">[珀爾夫人把自己的眼影收藏鋪了一桌。]
+**珀爾夫人**: 唉，不知不覺間居然收集了這麼多眼影~今天該用哪個好呢~局長，你要不要幫我選選~？
+* **Prompt:** 這個墨綠色還有亮片的吧，只有你能駕馭這種獨一無二的顏色。
+* **珀爾夫人**: 親愛的，你大膽的選擇總是那麼對我胃口~正好現在有空，你也來試試怎麼樣？你皮膚白，會很顯色的哦~來，閉眼~
+* **珀爾夫人**: 😘😘😘
+* **Prompt:** 這個霧面胭脂紅的吧，王道的豔麗更能襯托出你的氣質。
+* **珀爾夫人**: 呵呵~不說俗氣而是說王道，真像是你的風格~你的建議真不錯，對我們這樣總是沉浸在戲劇中的人來說，偶爾試試日常款應該也很不錯~
+* **珀爾夫人**: 😏😏😏
 </t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">[珀尔夫人翻看着管理局年会节目申请单。]
-**珀尔夫人**: “舞狮”“摇滚独奏”“杂技”……哎呀，看起来都很有趣啊~局长，你也报一个节目怎么样~不用担心会不会成功，有我在，一定把你捧成年会最闪耀的新星~
-* **Prompt:** 抱歉，我唱歌跑调。
-* **珀尔夫人**: 如果你有时间，我可以教你~如果你没有，原汁原味不作任何矫饰的表演，也有它独特的滋味~呵呵，谁说失控的曲调，不是另一个动人的节目呢~
-* **珀尔夫人**: 😘😘😘
-* **Prompt:** 抱歉，我跳舞踩脚。
-* **珀尔夫人**: 交际舞其实没有你想的那么难~它更接近于一种肢体上的交流，一种自然的节律~像是一呼一吸，一进一退……你看，你做得很好~
-* **珀尔夫人**: 😏😏😏
+          <t xml:space="preserve">[珀爾夫人翻看著管理局尾牙節目申請單。]
+**珀爾夫人**: 「舞獅」、「搖滾獨奏」、「雜技」……唉呀，看起來都很有趣啊。局長，你也報一個節目怎麼樣？不用擔心會不會成功，有我在，一定會把你捧成尾牙最閃耀的新星~
+* **Prompt:** 抱歉，我唱歌會走音。
+* **珀爾夫人**: 如果你有時間，我可以教你~如果你沒有，原汁原味不作任何矯飾的表演，也有它獨特的滋味~呵呵，誰說失控的曲調，不是另一個動人的節目呢~
+* **珀爾夫人**: 😘😘😘
+* **Prompt:** 抱歉，我跳舞手腳不協調。
+* **珀爾夫人**: 交際舞其實沒有你想的那麼難~它更接近於一種肢體上的交流，一種自然的節律~像是一呼一吸，一進一退……你看，你做得很好~
+* **珀爾夫人**: 😏😏😏
 </t>
         </is>
       </c>
@@ -13622,27 +13622,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">[毕安卡正在从面前的快递堆里拆出一件又一件新的苹果味小零食。]
-**毕安卡**: 苹果拿铁、苹果乌龙、苹果味什锦坚果、苹果味摇摇薯条……这真是太让人兴奋啦！嘿嘿，要从哪种开始吃呢~局长要不要也尝一尝？
-* **Prompt:** 苹果乌龙吧，听起来喝了不会拉肚子。
-* **毕安卡**: 唔唔，虽然无聊但稳健的选择！如果这是综艺节目的话——锵锵，就给你的回答2分吧！记分牌拿好，还有你的苹果乌龙！
-* **毕安卡**: 😘😘😘
-* **Prompt:** 苹果味薯条吧，挑战要从极限开始。
-* **毕安卡**: 哎呀，局长真是跟我好有默契啊！来来来，为了纪念这份默契，你叼薯条这边，我叼这边，看镜头——拍咯！
-* **毕安卡**: 😏😏😏
+          <t xml:space="preserve">[畢安卡正在從面前的包裹堆裡拆出一個又一個新的蘋果口味小零食。]
+**畢安卡**: 蘋果拿鐵、蘋果烏龍、蘋果口味什錦堅果、蘋果口味搖搖薯條……這真是太讓人興奮啦！嘿嘿，要從哪種開始吃呢~局長要不要也吃吃看？
+* **Prompt:** 蘋果烏龍吧，聽起來喝了不會拉肚子。
+* **畢安卡**: 唔唔，雖然無聊但穩健的選擇！如果這是綜藝節目的話——鏘鏘，就給你的回答2分吧！記分牌拿好，還有你的蘋果烏龍！
+* **畢安卡**: 😘😘😘
+* **Prompt:** 蘋果口味薯條吧，挑戰要從極限開始。
+* **畢安卡**: 唉呀，局長真是跟我好有默契啊！來來來，為了紀念這份默契，你叼薯條這邊，我叼這邊，看鏡頭——拍啦！
+* **畢安卡**: 😏😏😏
 </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">[毕安卡皱紧眉头看着面前的苹果汁罐子。]
-**毕安卡**: 怪不得昨天怎么喝都不太对，原来是小卖部进了0卡0果汁的苹果汁……这还算什么苹果汁？虚假宣传，我要曝光他们！
-* **Prompt:** 可你不还是喝得说起了胡话……
-* **毕安卡**: 嗯？真的假的？我怎么不记得有这件事了？哎呀，难道我昨天喝的是我的存货，所以硬生生喝断片了？
-* **毕安卡**: 😘😘😘
-* **Prompt:** 可你不还是顺理成章宿“醉”到下午才醒……
-* **毕安卡**: 这个和苹果汁没关系呀，你忘了，我前几天为了蹲个大新闻可是连着熬了几个大夜呢！所以才不是什么“宿醉”呢，是昏睡~！
-* **毕安卡**: 😏😏😏
+          <t xml:space="preserve">[畢安卡皺緊眉頭看著面前的蘋果汁罐子。]
+**畢安卡**: 怪不得昨天怎麼喝都不太對，原來是福利社進了0卡0果汁的蘋果汁……這還算什麼蘋果汁？虛假宣傳，我要曝光他們！
+* **Prompt:** 但你不還是喝得開始胡說八道了……
+* **畢安卡**: 嗯？真的假的？我怎麼不記得有這件事了？唉呀，難道我昨天喝的是我的存貨，所以硬生生喝到斷片了？
+* **畢安卡**: 😘😘😘
+* **Prompt:** 但你不還是順理成章宿「醉」到下午才醒……
+* **畢安卡**: 這個和蘋果汁沒關係呀，你忘了，我前幾天為了蹲個大新聞可是連著熬夜了好幾天呢！所以才不是什麼宿「醉」呢，是昏睡~！
+* **畢安卡**: 😏😏😏
 </t>
         </is>
       </c>
@@ -13659,26 +13659,26 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">[柯琳正给几把步枪上油做保养]
-**柯琳**: 早啊局长，想亲手试试砂海本地改装的重火力武器吗？这火力，这攻击范围，妥妥的俏货，一般人可没机会摸到我的宝贝。
-* **Prompt:** 试试就试试。
-* **柯琳**: 还是局长大气！刚才我忽悠……不是，是劝说了半天都没人敢试，你可是第一个哦~
+          <t xml:space="preserve">[柯琳正將幾把步槍上油做保養]
+**柯琳**: 早啊局長，想親手試試砂海本地改裝的重火力武器嗎？這火力，這攻擊範圍，完美的上等好貨，一般人可沒機會摸到我的寶貝。
+* **Prompt:** 試試就試試。
+* **柯琳**: 還是局長大氣！剛才我糊弄……不是，是勸說了半天都沒人敢試，你可是第一個哦！
 * **柯琳**: 😏😏😏
-* **Prompt:** 我可没说要试。
-* **柯琳**: 别这么警惕嘛，又不是叫你花钱买……哎呀，退一万步说，就算是要花钱，我也是最熟悉本地货价的地头蛇，给局长的保准是亲友价~
+* **Prompt:** 我沒說要試。
+* **柯琳**: 別這麼警惕嘛，又不是叫你花錢買……唉呀，退一萬步說，就算是要花錢，我也是最熟悉本地貨價的地頭蛇，給局長的保證是親友價！
 * **柯琳**: 😘😘😘
 </t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">[柯琳在黑市悬赏名单里找到了自己的名字]
-**柯琳**: 哎呀，居然花这么多钱来悬赏我，搞得我都有点心动想出手了……啧，就是可惜本人不能领奖，不然我就把自己供出去了……不对，现在有局长在……
-* **Prompt:** 有人要悬赏你？为什么？
-* **柯琳**: 还不是这群砂盗太小心眼了~你看，我只不过把几个砂盗头目扒得只剩条裤衩然后绑在破烂小车后面绕了砂海一圈，还让他们成功美了个黑，怎么反手过来悬赏我呢，是吧~
+          <t xml:space="preserve">[柯琳在黑市懸賞名單裡找到了自己的名字]
+**柯琳**: 唉呀，居然花這麼多錢來懸賞我，搞得我都有點心動想出手了……嘖，就是可惜本人不能領獎，不然我就把自己供出去了……不對，現在有局長在……
+* **Prompt:** 有人要懸賞你？為什麼？
+* **柯琳**: 還不是這群砂盜太小心眼了，你看，我只不過把幾個砂盜頭目扒得只剩條褲衩然後綁在破爛小車後面繞了砂海一圈，還讓他們成功美黑，怎麼反手過來懸賞我呢，是吧！
 * **柯琳**: 😏😏😏
-* **Prompt:** 你想做什么？
-* **柯琳**: 打个商量，帮个小忙，把我供出去，事后剿灭砂盗的功劳归你，赏钱归我，各取所需，双方共赢，怎么样？哎呀，别急着摇头嘛……
+* **Prompt:** 你想做什麼？
+* **柯琳**: 打個商量，幫個小忙，把我供出去，事後剿滅砂盜的功勞歸你，賞錢歸我，各取所需，雙方共贏，怎麼樣？唉呀，別急著搖頭嘛……
 * **柯琳**: 😉😉😉
 </t>
         </is>
@@ -13696,25 +13696,25 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">[伊琳娜摆好了棋局，向你招手]
+          <t xml:space="preserve">[伊琳娜擺好了棋局，向你招手]
 **伊琳娜**: 和我，下局棋吧？
-* **Prompt:** 国际象棋以外的棋种可以试试。
-* **伊琳娜**: 呵呵……换成什么你都赢不了我的。
+* **Prompt:** 西洋棋以外的棋種可以試試。
+* **伊琳娜**: 呵呵……換成什麼你都贏不了我的。
 * **伊琳娜**: 😘
-* **Prompt:** 算了吧，我清楚自己没有胜算。
-* **伊琳娜**: 不要拒绝得这么快，这次我会让着你一点。
+* **Prompt:** 算了吧，我清楚自己沒有勝算。
+* **伊琳娜**: 不要拒絕得這麼快，這次我會讓著你一點。
 * **伊琳娜**: 😉
 </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">[伊琳娜翻着自己手中的财报]
-**伊琳娜**: 你是来支付上次的报酬的？
-* **Prompt:** ……什么报酬？和死役有关么？
-* **伊琳娜**: 你还真是贵人多忘事。当然是处理巨型死役的事情。
+          <t xml:space="preserve">[伊琳娜翻著自己手中的財報]
+**伊琳娜**: 你是來支付上次的報酬的？
+* **Prompt:** ……什麼報酬？和死役有關嗎？
+* **伊琳娜**: 你還真是貴人多忘事。當然是處理巨型死役的事情。
 * **伊琳娜**: 😏
-* **Prompt:** 你要是这么说……恐怕没人能付得起。
+* **Prompt:** 你要是這樣說……恐怕沒人能付得起。
 * **伊琳娜**: 既然如此，不如，就用你自己……
 * **伊琳娜**: 😘
 </t>
@@ -13733,27 +13733,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">[安纳奇亚抚摸着水晶球]
-**观星者**: 你来了，它等了你很久。
-* **Prompt:** 距离上次观星确实过去了好长一段时间。
-* **观星者**: 呵呵……那就让我们开始吧？我的小怪物——
-* **观星者**: 😘
-* **Prompt:** ……难道观星也要挑选顾客么？
-* **观星者**: 当然，你的灵魂最为纯粹，也最为未知。
-* **观星者**: 😉
+          <t xml:space="preserve">[安納奇亞撫摸著水晶球]
+**觀星者**: 你來了，它等了你很久。
+* **Prompt:** 距離上次觀星確實過去了好長一段時間。
+* **觀星者**: 呵呵……那就讓我們開始吧？我的小怪物——
+* **觀星者**: 😘
+* **Prompt:** ……難道觀星也要挑選顧客嗎？
+* **觀星者**: 當然，你的靈魂最為純粹，也最為未知。
+* **觀星者**: 😉
 </t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">[安纳奇亚少见地叹着气]
-**观星者**: 唉……最近和灵魂们的交流有些困难……
-* **Prompt:** 换块观星水晶试试？
-* **观星者**: ……我不觉得这是个好建议，尤其是对于一个观星者来说。
-* **观星者**: 😐
-* **Prompt:** 需要我使用枷锁来帮助你么？
-* **观星者**: 那……来吧？记得不要像最开始那样生涩哦。
-* **观星者**: 😘
+          <t xml:space="preserve">[安納奇亞少見地嘆著氣]
+**觀星者**: 唉……最近和靈魂們的交流有些困難……
+* **Prompt:** 換塊觀星水晶試試？
+* **觀星者**: ……我不覺得這是個好建議，尤其是對於一個觀星者來說。
+* **觀星者**: 😐
+* **Prompt:** 需要我使用枷鎖來幫助你嗎？
+* **觀星者**: 那……來吧？記得不要像最開始那樣生澀哦。
+* **觀星者**: 😘
 </t>
         </is>
       </c>
@@ -13770,27 +13770,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">[爱缇正捧着一本画册看得津津有味，封面是一头喷火的巨龙]
-**爱缇**: 你来得正好，看看我更像哪条龙？
-* **Prompt:** 这条红色的？
-* **爱缇**: 它叫飞焰，熟练掌控火焰魔法，守护着神秘的宝藏，关于它的传说广为流传……酷！
-* **爱缇**: 😘
-* **Prompt:** 这条白色的？
-* **爱缇**: 密斯塔伦晶龙，鳞片就好像冰晶一样，可以将阳光反射出绚丽的色彩……嗯，确实长得更好看些。
-* **爱缇**: 😏
+          <t xml:space="preserve">[愛緹正捧著一本畫冊看得津津有味，封面是一頭噴火的巨龍]
+**愛緹**: 你來得正好，看看我更像哪條龍？
+* **Prompt:** 這條紅色的？
+* **愛緹**: 它叫飛焰，熟練掌控火焰魔法，守護著神秘的寶藏，關於它的傳說廣為流傳……酷！
+* **愛緹**: 😘
+* **Prompt:** 這條白色的？
+* **愛緹**: 密斯塔倫晶龍，鱗片就好像冰晶一樣，可以將陽光反射出絢麗的色彩……嗯，確實長得更好看些。
+* **愛緹**: 😏
 </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">[出门前爱缇拦住了你的去路，并把手搭在你的肩头]
-**爱缇**: 被选召的勇者啊，你已经通过了我的考验，即将带着从巨石中拔出的宝剑踏上征途。你，准备好了吗？
-* **Prompt:** 准备好了。
-* **爱缇**: 很好，我会在旅途的终点等你，以荣耀和宝藏为你加冕。
-* **爱缇**: 😉
-* **Prompt:** 没准备好……
-* **爱缇**: 啧，你就不能好好配合我一次吗？
-* **爱缇**: 😖
+          <t xml:space="preserve">[出門前愛緹攔住了你的去路，並把手搭在你的肩頭]
+**愛緹**: 被選召的勇者啊，你已經通過了我的考驗，即將帶著從巨石中拔出的寶劍踏上征途。你，準備好了嗎？
+* **Prompt:** 準備好了。
+* **愛緹**: 很好，我會在旅途的終點等你，以榮耀和寶藏為你加冕。
+* **愛緹**: 😉
+* **Prompt:** 沒準備好……
+* **愛緹**: 嘖，你就不能好好配合我一次嗎？
+* **愛緹**: 😖
 </t>
         </is>
       </c>
@@ -13807,27 +13807,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">[渡鸦捧着她的本子向你走来]
-**渡鸦**: 来读读我为你写的诗~
-* **Prompt:** 谢谢，写得不错。
-* **渡鸦**: 你喜欢就好~
-* **渡鸦**: 😘😘😘
-* **Prompt:** ……可能是我水平不够，我有点欣赏不来。
-* **渡鸦**: 真遗憾，我可是构思了好久呢。
-* **渡鸦**: 😥
+          <t xml:space="preserve">[渡鴉捧著她的本子向你走來]
+**渡鴉**: 來讀讀我為你寫的詩~
+* **Prompt:** 謝謝，寫得不錯。
+* **渡鴉**: 你喜歡就好~
+* **渡鴉**: 😘😘😘
+* **Prompt:** ……可能是我水準不夠，我有點看不懂。
+* **渡鴉**: 真遺憾，我可是構思了好久呢。
+* **渡鴉**: 😥
 </t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">[渡鸦饶有兴致地看着你]
-**渡鸦**: 拜托我写通稿？可以呀，你有什么要求？
-* **Prompt:** 都交给你，我相信你的水平。
-* **渡鸦**: 没问题，绝对让你满意~
-* **渡鸦**: 😉
-* **Prompt:** 别写成打油诗就行。
-* **渡鸦**: 哎，什么叫打油诗啊，我那叫调侃，懂吧~调侃~
-* **渡鸦**: 😖
+          <t xml:space="preserve">[渡鴉饒有興致地看著你]
+**渡鴉**: 拜託我寫通稿？可以呀，你有什麼要求？
+* **Prompt:** 都交給你，我相信你的水準。
+* **渡鴉**: 沒問題，絕對讓你滿意~
+* **渡鴉**: 😉
+* **Prompt:** 別寫成打油詩就好。
+* **渡鴉**: 欸，什麼叫打油詩啊，我那叫調侃，懂吧~調侃~
+* **渡鴉**: 😖
 </t>
         </is>
       </c>
@@ -13844,27 +13844,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">[雷温的黑眼圈越发醒目。]
-**雷温**: 又被提示放风时间的广播吵醒了……
-* **Prompt:** 干脆把电台改到白天怎么样？
-* **雷温**: 可我还是放不下那些在夜里需要陪伴去倾诉的人……
-* **雷温**: 😥
-* **Prompt:** 试试睡觉时戴上耳塞？
-* **雷温**: 我听说，菲小姐采购的耳塞“可以阻碍所有噪音”，但广播也“拥有不可抵挡的穿透力”……呵呵，听起来像是我的节目赞助商会打出的广告词呢。
-* **雷温**: 😉
+          <t xml:space="preserve">[雷溫的黑眼圈越發醒目。]
+**雷溫**: 又被提醒放風時間的廣播吵醒了……
+* **Prompt:** 乾脆把電台改到白天怎麼樣？
+* **雷溫**: 但我還是放不下那些在夜裡需要陪伴去傾訴的人……
+* **雷溫**: 😥
+* **Prompt:** 試試睡覺時戴上耳塞？
+* **雷溫**: 我聽說，菲小姐採購的耳塞「可以阻礙所有噪音」，但廣播也「擁有不可抵擋的穿透力」……呵呵，聽起來像是我的節目贊助商會打出的廣告詞呢。
+* **雷溫**: 😉
 </t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">[雷温正在整理着ASMR录制用的道具。]
-**雷温**: 爪子踩过行道树的嚓嚓声，触须摩擦耳膜的沙沙声……录哪一个好呢？
-* **Prompt:** 两个都不太像是ASMR应该有的选项啊。
-* **雷温**: 别这么说，这可是除了我的小诗之外，电台ASMR中最有人气的两个选项，很适合无眠的夜晚……你也可以试试。
-* **雷温**: 😘
-* **Prompt:** 听上去都挺催眠的，两个都不错。
-* **雷温**: 如果你也有兴趣，我可以把干音发一份给你。试试聆听着它入睡吧，它一定能帮你顺利进入梦乡~
-* **雷温**: 😉
+          <t xml:space="preserve">[雷溫正在整理著ASMR錄製用的道具。]
+**雷溫**: 爪子踩過行道樹的嚓嚓聲，觸鬚摩擦耳膜的沙沙聲……錄哪一個好呢？
+* **Prompt:** 兩個都不太像是ASMR應該有的選項啊。
+* **雷溫**: 別這麼說，這可是除了我的小詩之外，電台ASMR中最有人氣的兩個選項，很適合無眠的夜晚……你也可以試試。
+* **雷溫**: 😘
+* **Prompt:** 聽起來都滿催眠的，兩個都不錯。
+* **雷溫**: 如果你也有興趣，我可以傳給你這份音檔。試試聆聽著它入睡吧，它一定能幫你順利進入夢鄉~
+* **雷溫**: 😉
 </t>
         </is>
       </c>
@@ -13881,27 +13881,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">[赫斯提亚抱着火炬站在管理局门口。]
-**赫斯提亚**: 要点燃火光……为大家……指引回家的路……
-* **Prompt:** 回去吧，别担心，他们不会迷路的。
-* **赫斯提亚**: 不……这是……我的职责……！
-* **赫斯提亚**: 😖
-* **Prompt:** 辛苦了，那我给你搬个椅子吧。
-* **赫斯提亚**: 谢谢……圣女会赐福于你……
-* **赫斯提亚**: 😘
+          <t xml:space="preserve">[赫斯提亞抱著火炬站在管理局門口。]
+**赫斯提亞**: 要點燃火光……為大家……指引回家的路……
+* **Prompt:** 回去吧，別擔心，他們不會迷路的。
+* **赫斯提亞**: 不……這是……我的職責……！
+* **赫斯提亞**: 😖
+* **Prompt:** 辛苦了，那我幫你搬個椅子吧。
+* **赫斯提亞**: 謝謝……聖女會賜福於你……
+* **赫斯提亞**: 😘
 </t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">[赫斯提亚尝了一颗别人投喂的怪味糖。]
-**赫斯提亚**: 今天的贡品……味道有些……不一样……？
-* **Prompt:** 你不喜欢的话，就换个口味吧。
-* **赫斯提亚**: 这个好多了……甜甜的……是桃子的味道……
-* **赫斯提亚**: 😘
-* **Prompt:** 呃……这颗糖好像是咸鱼味的。
-* **赫斯提亚**: 咸鱼……糖……？糖……咸鱼……鱼……
-* **赫斯提亚**: 😥
+          <t xml:space="preserve">[赫斯提亞吃了一顆別人給的怪味糖。]
+**赫斯提亞**: 今天的貢品……味道有些……不一樣……？
+* **Prompt:** 你不喜歡的話，就換個口味吧。
+* **赫斯提亞**: 這個好多了……甜甜的……是桃子的味道……
+* **赫斯提亞**: 😘
+* **Prompt:** 呃……這顆糖好像是鹹魚口味的。
+* **赫斯提亞**: 鹹魚……糖……？糖……鹹魚……魚……
+* **赫斯提亞**: 😥
 </t>
         </is>
       </c>
@@ -13918,27 +13918,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">[蓝鹫正在享用下午茶]
-**蓝鹫**: 你来了，现在阳光正好，你也难得清闲，坐下来慢慢品尝一下特供甜点如何，我沏了茶，来挑挑吧？想配哪块点心？
-* **Prompt:** 蓝莓芝士蛋糕
-* **蓝鹫**: 嗯~香醇可口，甜度也很适中……刚疲惫工作了一阵子的局长大人，应当最适合享用这份下午茶的惬意吧？
-* **蓝鹫**: 😉😉😉
-* **Prompt:** 草莓奶油可丽饼
-* **蓝鹫**: 一起尝尝吧？……你说太甜了，呵呵，生活中的苦总是需要点甜味调剂的。
-* **蓝鹫**: 😏😏😏
+          <t xml:space="preserve">[藍鷲正在享用下午茶]
+**藍鷲**: 你來了，現在陽光正好，你也難得清閒，坐下來慢慢品嚐一下特別為您準備的甜點如何，我沏了茶，來挑挑吧？想配哪塊點心？
+* **Prompt:** 藍莓起司蛋糕
+* **藍鷲**: 嗯，香醇可口，甜度也很適中……剛疲憊工作了一陣子的局長大人，應當最適合享用這份下午茶的愜意吧？
+* **藍鷲**: 😉😉😉
+* **Prompt:** 草莓奶油可麗餅
+* **藍鷲**: 一起嚐嚐吧？……你說太甜了，呵呵，生活中的苦總是需要點甜味調劑的。
+* **藍鷲**: 😏😏😏
 </t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">[蓝鹫坐在窗边，察觉到你的注视，回头笑笑]
-**蓝鹫**: 怎么了，这样看着我，是怀念曾经与我为邻的日子吗？
-* **Prompt:** 怀念
-* **蓝鹫**: 是吗？既然这样，我递交的那份申请，局长大人可要双手赞同批准哦，不久之后，我们就能继续比邻而居~
-* **蓝鹫**: 😘😘😘
-* **Prompt:** 否认
-* **蓝鹫**: 是吗？本来还想将房间搬到局长房间旁边，那可真可惜。
-* **蓝鹫**: 😥😥😥
+          <t xml:space="preserve">[藍鷲坐在窗邊，察覺到你的注視，回頭笑笑]
+**藍鷲**: 怎麼了，這樣看著我，是懷念曾經與我為鄰的日子嗎？
+* **Prompt:** 懷念
+* **藍鷲**: 是嗎？既然這樣，我遞交的那份申請，局長大人可要雙手贊同批准哦，不久之後，我們就能繼續比鄰而居！
+* **藍鷲**: 😘😘😘
+* **Prompt:** 否認
+* **藍鷲**: 是嗎？本來還想將房間搬到局長房間旁邊，那還真可惜。
+* **藍鷲**: 😥😥😥
 </t>
         </is>
       </c>
@@ -13955,27 +13955,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">[你听到办公室内传来悦耳的歌声。]
-**萦萦**: 局长喜不喜欢我唱的歌？下一首想听什么呀~
-* **Prompt:** 都喜欢，你的歌声能让我更专注。
-* **萦萦**: 那当然啦，我的歌喉在云淮可值千金一曲~
-* **萦萦**: 😉😉😉
-* **Prompt:** 可以再唱一遍刚才那曲吗？
-* **萦萦**: 局长果然和我志趣相投~刚才那首可是我最喜欢的曲子！
-* **萦萦**: 😘😘😘
+          <t xml:space="preserve">[你聽到辦公室內傳來悅耳的歌聲。]
+**縈縈**: 局長喜不喜歡我唱的歌？下一首想聽什麼呀？
+* **Prompt:** 都喜歡，你的歌聲能讓我更專注。
+* **縈縈**: 那當然啦，我的歌喉在雲淮可值千金一曲~
+* **縈縈**: 😉😉😉
+* **Prompt:** 可以再唱一遍剛才那首歌嗎？
+* **縈縈**: 局長果然和我志趣相投~剛才那首可是我最喜歡的曲子！
+* **縈縈**: 😘😘😘
 </t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">[萦萦正在缝制祈福的花囊。]
-**萦萦**: 局长你来啦~快帮我看看这枚花囊用什么颜色的挂绳好~
-* **Prompt:** 用你喜欢的颜色吧。
-* **萦萦**: 你的意思是无论我喜欢什么，你都会喜欢吗~
-* **萦萦**: 😘😘😘
-* **Prompt:** 紫藤的颜色就很好。
-* **萦萦**: 那我可要好好挑一挑，哪个颜色最像紫藤呢~
-* **萦萦**: 😘😘😘
+          <t xml:space="preserve">[縈縈正在縫製祈福的花囊。]
+**縈縈**: 局長你來啦！快幫我看看這枚花囊用什麼顏色的掛繩比較好～
+* **Prompt:** 用你喜歡的顏色吧。
+* **縈縈**: 你的意思是無論我喜歡什麼，你都會喜歡嗎~
+* **縈縈**: 😘😘😘
+* **Prompt:** 紫藤的顏色就很好。
+* **縈縈**: 那我可要好好挑一挑，哪個顏色最像紫藤呢~
+* **縈縈**: 😘😘😘
 </t>
         </is>
       </c>
@@ -13992,27 +13992,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">[你在训练室看到了练舞的哈梅尔]
-**哈梅尔**: 你是来……当我观众的么？
-* **Prompt:** 嗯，大概什么时候准备表演呢？
-* **哈梅尔**: 如果是你的话，现在就可以。
-* **哈梅尔**: 😘😘
-* **Prompt:** 我是来提醒你到时间出任务了。
-* **哈梅尔**: 唔……那我稍微准备一下。
-* **哈梅尔**: 😖😖
+          <t xml:space="preserve">[你在訓練室看到了練舞的哈梅爾]
+**哈梅爾**: 你是來……當我觀眾的嗎？
+* **Prompt:** 嗯，大概什麼時候準備表演呢？
+* **哈梅爾**: 如果是你的話，現在就可以。
+* **哈梅爾**: 😘😘
+* **Prompt:** 我是來提醒你到時間出任務了。
+* **哈梅爾**: 唔……那我稍微準備一下。
+* **哈梅爾**: 😖😖
 </t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">[哈梅尔被卧室里的杂物所绊倒]
-**哈梅尔**: 救命……卧室……练不了舞，很乱。
-* **Prompt:** 为什么要在卧室练舞？
-* **哈梅尔**: 在外面……能力……会干扰大家的。
-* **哈梅尔**: 😫😫
-* **Prompt:** 那等下我派人帮你清理。
-* **哈梅尔**: 谢谢局长……
-* **哈梅尔**: 😖😖
+          <t xml:space="preserve">[哈梅爾被臥室裡的雜物所絆倒]
+**哈梅爾**: 救命……臥室……練不了舞，很亂。
+* **Prompt:** 為什麼要在臥室練舞？
+* **哈梅爾**: 在外面……能力……會干擾大家的。
+* **哈梅爾**: 😫😫
+* **Prompt:** 那等下我派人幫你清理。
+* **哈梅爾**: 謝謝局長……
+* **哈梅爾**: 😖😖
 </t>
         </is>
       </c>
@@ -14029,27 +14029,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">[恩菲尔看上去有些困扰。]
-**恩菲尔**: 新订购用于雕像创作的石料似乎不太对。
-* **Prompt:** 我让采购办重新订购了一批材料。
-* **恩菲尔**: 嗯~谢谢。这批材料用着太不顺手了~
-* **恩菲尔**: 😐
-* **Prompt:** 不如将错就错，试试新的材料创作吧。
-* **恩菲尔**: 这样……也不错。为全新的材料，赋予全新的生命~
-* **恩菲尔**: 😉
+          <t xml:space="preserve">[恩菲爾看起來有點困擾。]
+**恩菲爾**: 新訂購用於雕像創作的石料似乎不太對。
+* **Prompt:** 我讓採購部重新訂購了一批材料。
+* **恩菲爾**: 嗯~謝謝。這批材料用起來太不順手了~
+* **恩菲爾**: 😐
+* **Prompt:** 不如將錯就錯，試試新的材料創作吧。
+* **恩菲爾**: 這樣……也不錯。為全新的材料，賦予全新的生命~
+* **恩菲爾**: 😉
 </t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">[恩菲尔的作品由于过于逼真吓到不少人。]
-**恩菲尔**: 有什么问题吗？
-* **Prompt:** 把雕像做得更“印象派”一些呢？
-* **恩菲尔**: 哦？那可不是“暗夜的魔女”的风格……
-* **恩菲尔**: 😐
-* **Prompt:** 我给你清出了一间用来存放作品的库房。
-* **恩菲尔**: 唉……好吧，在暗处蒙尘总好过不被人理解。
-* **恩菲尔**: 😫
+          <t xml:space="preserve">[恩菲爾的作品由於過於逼真嚇到不少人。]
+**恩菲爾**: 有什麼問題嗎？
+* **Prompt:** 把雕像做得更「印象派」一點呢？
+* **恩菲爾**: 哦？那可不是「暗夜的魔女」的風格……
+* **恩菲爾**: 😐
+* **Prompt:** 我幫你清出了一間用來存放作品的庫房。
+* **恩菲爾**: 唉……好吧，在暗處蒙塵總比不被人理解來得好。
+* **恩菲爾**: 😫
 </t>
         </is>
       </c>
@@ -14066,27 +14066,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">[今天与卡门奈特共进午餐时，她一直若有所思地盯着你]
-**卡门奈特**: 不知道我是否有机会能品尝到局长……亲手制作的料理呢？
-* **Prompt:** 明天就可以，我对自己的厨艺还是挺有信心的。
-* **卡门奈特**: 那我就等着一饱口福了~
-* **卡门奈特**: 😘
-* **Prompt:** 抱歉，我不太会做菜。
-* **卡门奈特**: 这样啊，可以理解，毕竟局长大人每天都有很多事情要忙呢。
-* **卡门奈特**: 😏
+          <t xml:space="preserve">[今天與卡門奈特共進午餐時，她一直若有所思地盯著你]
+**卡門奈特**: 不知道我是否有機會能品嚐到局長……親手製作的料理呢？
+* **Prompt:** 明天就可以，我對自己的廚藝還是滿有信心的。
+* **卡門奈特**: 那我就等著一飽口福了~
+* **卡門奈特**: 😘
+* **Prompt:** 抱歉，我不太會做菜。
+* **卡門奈特**: 這樣啊，可以理解，畢竟局長大人每天都有很多事情要忙呢。
+* **卡門奈特**: 😏
 </t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">[卡门奈特正百无聊赖地看着电视机里的美食节目]
-**卡门奈特**: 如果是局长的话，会更喜欢哪道菜呢？
-* **Prompt:** 金猊特产白切鸡。
-* **卡门奈特**: 嗯，色味清而不杂，确实鲜嫩可口。
-* **卡门奈特**: 😏
-* **Prompt:** 红酒烩鸡扒。
-* **卡门奈特**: 这样啊~我恰巧认识一位非常擅长这道菜的大厨，下次出外勤的时候可以带您一起去品尝一下。
-* **卡门奈特**: 😉
+          <t xml:space="preserve">[卡門奈特正百無聊賴地看著電視機裡的美食節目]
+**卡門奈特**: 如果是局長的話，會更喜歡哪道菜呢？
+* **Prompt:** 金猊特產白斬雞。
+* **卡門奈特**: 嗯，色味清而不雜，確實鮮嫩可口。
+* **卡門奈特**: 😏
+* **Prompt:** 紅酒燴雞排。
+* **卡門奈特**: 這樣啊~我正好認識一位非常擅長這道菜的大廚，下次出外勤的時候可以帶您一起去品嚐一下。
+* **卡門奈特**: 😉
 </t>
         </is>
       </c>
@@ -14103,26 +14103,26 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">[可可莉克正在温室里查看泥土]
-**可可莉克**: 你觉得在这里种点什么花会比较好？
-* **Prompt:** 你来决定就好，我相信你的审美。
-* **可可莉克**: 那就敬请期待吧~
+          <t xml:space="preserve">[可可莉克正在溫室裡查看泥土]
+**可可莉克**: 你覺得在這裡種點什麼花會比較好？
+* **Prompt:** 你來決定就好，我相信你的審美。
+* **可可莉克**: 那就敬請期待吧~
 * **可可莉克**: 😏
-* **Prompt:** 千万不要种有毒的花！拜托了！
-* **可可莉克**: 真可惜，我本来还想种点夹竹桃呢。
+* **Prompt:** 千萬不要種有毒的花！拜託了！
+* **可可莉克**: 真可惜，我本來還想種點夾竹桃呢。
 * **可可莉克**: 😥
 </t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">[可可莉克正在娱乐区浏览购物页面]
-**可可莉克**: 如果是你的话，会更喜欢哪一枚胸针？
-* **Prompt:** 蓝色的，设计很亮眼。
-* **可可莉克**: 倒是难得跟我意见一致了。这枚胸针挺特别的，就买来送你吧~
+          <t xml:space="preserve">[可可莉克正在娛樂區瀏覽購物頁面]
+**可可莉克**: 如果是你的話，會更喜歡哪一枚胸針？
+* **Prompt:** 藍色的，設計很亮眼。
+* **可可莉克**: 倒是難得跟我意見一致了。這枚胸針挺特別的，就買來送你吧~
 * **可可莉克**: 😘
-* **Prompt:** 银色的？其实我平时也不怎么戴胸针。
-* **可可莉克**: 我倒是觉得这枚蓝色的一定非常适合你，偶尔也要学着好好打扮自己嘛。
+* **Prompt:** 銀色的？其實我平時也不怎麼戴胸針。
+* **可可莉克**: 我倒是覺得這枚藍色的一定非常適合你，偶爾也要學著好好打扮自己嘛。
 * **可可莉克**: 😏
 </t>
         </is>
@@ -14140,26 +14140,26 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">[伊芙对比着两套质地不同的玩偶服装。]
-**伊芙**: 是丝绸的更适合小熊呢……还是棉布的？
-* **Prompt:** 天气凉了，选棉布的吧，更暖和一些。
-* **伊芙**: 棉布的……会更暖和吗？对我的这双手来说，无论哪种摸起来都没什么区别……不过既然局长这么说，那就选这套吧。
+          <t xml:space="preserve">[伊芙對比著兩套質地不同的玩偶服裝。]
+**伊芙**: 是絲綢的更適合小熊呢……還是棉布的？
+* **Prompt:** 天氣涼了，選棉布的吧，更暖和一些。
+* **伊芙**: 棉布的……會更暖和嗎？對我的這雙手來說，無論哪種摸起來都沒什麼區別……不過既然局長這麼說，那就選這套吧。
 * **伊芙**: 😐
-* **Prompt:** 丝绸的更优雅，符合它的气质。
-* **伊芙**: 局长的眼睛像活在幸福童话里的孩子一样，总能看到更有趣更广阔的世界……希望小熊也能喜欢这样的局长选的衣服。
+* **Prompt:** 絲綢的更優雅，符合它的氣質。
+* **伊芙**: 局長的眼睛像活在幸福童話裡的孩子一樣，總能看到更有趣更廣闊的世界……希望小熊也能喜歡這樣的局長選的衣服。
 * **伊芙**: 😘
 </t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">[伊芙的轮椅似乎卡死在了破损的地砖中。]
-**伊芙**: 早说了这具身体克服不了哪怕最轻微的阻碍……请不要管我，去做局长该做的事吧。
-* **Prompt:** 我该做的事就是让你在这里能生活得轻松。你要去哪里？我可以带你去。
-* **伊芙**: 为什么要做到这一步呢……明明你也知道，你不可能永远陪在我身边，帮我清除障碍……
+          <t xml:space="preserve">[伊芙的輪椅似乎卡死在了破損的地磚中。]
+**伊芙**: 早說了這具身體克服不了哪怕最輕微的阻礙……請不要管我，去做局長該做的事吧。
+* **Prompt:** 我該做的事就是讓你在這裡能生活得輕鬆。你要去哪裡？我可以帶你去。
+* **伊芙**: 為什麼要做到這一步呢……明明你也知道，你不可能永遠陪在我身邊，幫我清除障礙……
 * **伊芙**: 😥
-* **Prompt:** 我该做的事就是让你不被物理上的障碍所束缚。我马上叫人来修地砖，顺便检修优化一下你的轮椅。
-* **伊芙**: 束缚我的除了这些物质上的不便之外，还有其他很多……我知道你在期待我慢慢克服它们，但你或许，还要等很久……
+* **Prompt:** 我該做的事就是讓你不被物理上的障礙所束縛。我馬上叫人來修地磚，順便檢修改良一下你的輪椅。
+* **伊芙**: 束縛我的除了這些物質上的不便之外，還有其他很多……我知道你在期待我慢慢克服它們，但你或許，還要等很久……
 * **伊芙**: 😦
 </t>
         </is>
@@ -14177,26 +14177,26 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">[杜若随手抛玩着一个锦囊。 ]
-**杜若**: 来得正好，就让我以物起卦，看看尊驾的近期运势……嗯，这是？
-* **Prompt:** ……算出什么了？
-* **杜若**: 只是算到局长难得有空，不如就趁此机会，和我讲讲那些……你从未提起过的故事吧？
+          <t xml:space="preserve">[杜若隨手拋玩著一個錦囊。 ]
+**杜若**: 來得正好，就讓我以物起卦，看看尊駕的近期運勢……嗯，這是？
+* **Prompt:** ……算出什麼了？
+* **杜若**: 只是算到局長難得有空，不如就趁此機會，和我說說那些……你從未提起過的故事吧？
 * **杜若**: 😏😏
-* **Prompt:** 反正好坏都一样要工作吧？
-* **杜若**: 虽然都要工作……局长难道不好奇，最近会不会有什么大麻烦吗？
+* **Prompt:** 反正好壞都一樣要工作吧？
+* **杜若**: 雖然都要工作……局長難道不好奇，最近會不會有什麼大麻煩嗎？
 * **杜若**: 😦
 </t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">[杜若在休息室里燃起了一炉香。 ]
-**杜若**: 传说闭目深思，变幻的烟气便会化作所念之人的模样……怎么样，想不想试试？
-* **Prompt:** 在烟气前闭目深思。
-* **杜若**: 似乎显出了一点眉目……尊驾所念之人，若远实近……嗯，局长知道是谁了吗？
+          <t xml:space="preserve">[杜若在休息室裡燃起了一爐香。 ]
+**杜若**: 傳說閉目深思，變幻的煙氣便會化作所念之人的模樣……怎麼樣，想不想試試？
+* **Prompt:** 在煙氣前閉目深思。
+* **杜若**: 似乎顯出了一點眉目……尊駕所念之人，若遠實近……嗯，局長知道是誰了嗎？
 * **杜若**: 😉
-* **Prompt:** 或许，教我印香会更有趣？
-* **杜若**: 局长居然还知道这个……是前两天看到我做了吗？
+* **Prompt:** 或許，教我印香會更有趣？
+* **杜若**: 局長居然還知道這個……是前兩天看到我做了嗎？
 * **杜若**: 😘😘
 </t>
         </is>
@@ -14214,26 +14214,26 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">[L.L.复制你的形象数据制作了一个电子桌宠。]
-**L.L.**: 乖——瞧瞧，“你”多可爱！小瑶也高兴地绕着“你”游个不停呢~
-* **Prompt:** 很可爱。
-* **L.L.**: 是吧是吧！这样的“你”就可以留在这里永远陪着我了……
+          <t xml:space="preserve">[L.L.複製你的形象資料製作了一個電子寵物。]
+**L.L.**: 乖——看看，「你」多可愛！小瑤也高興地繞著「你」游個不停呢~
+* **Prompt:** 很可愛。
+* **L.L.**: 是吧是吧！這樣的「你」就可以留在這裡永遠陪著我了……
 * **L.L.**: 😉😉😉
-* **Prompt:** 你想把我当作“宠物”吗？
-* **L.L.**: 嗯~那，你要不要喊我一句“主人”试试看？
+* **Prompt:** 你想把我當作「寵物」嗎？
+* **L.L.**: 嗯！那，你要不要叫我一聲「主人」試試看？
 * **L.L.**: 😘😘😘
 </t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">[L.L.突然从背后靠近你，她身上未干的水珠落到了你的衣服上。]
-**L.L.**: 哎呀，不小心把你弄湿了呢，穿着半湿的衣服很冷吧？要抱着我取一下暖吗？我的怀抱比你想象的还要温暖哦。
-* **Prompt:** ……其实没有那么冷。
-* **L.L.**: 别推辞嘛~难道你不喜欢拥抱的感觉吗？
+          <t xml:space="preserve">[L.L.突然從背後靠近你，她身上未乾的水珠落到了你的衣服上。]
+**L.L.**: 唉呀，不小心把你弄濕了呢，穿著半濕的衣服很冷吧？要抱著我取一下暖嗎？我的懷抱比你想像的還要溫暖哦。
+* **Prompt:** ……其實沒有那麼冷。
+* **L.L.**: 別推辭嘛！難道你不喜歡擁抱的感覺嗎？
 * **L.L.**: 😘😉
-* **Prompt:** 你看起来可不像纯粹的“不小心”。
-* **L.L.**: 是呀，因为我想你的目光落在我身上，一直看着我，这样不好吗？
+* **Prompt:** 你看起來可不像純粹的「不小心」。
+* **L.L.**: 是呀！因為我想你的目光落在我身上，一直看著我，這樣不好嗎？
 * **L.L.**: 😫😫😫
 </t>
         </is>
@@ -14251,27 +14251,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">[耶莱娜正在整理书架上的书籍。]
-**耶莱娜**: 您这里的藏书很丰富，最近又读完了几本，引人入胜值得一看。若您想消磨时间的话，我愿意为您推荐。
-* **Prompt:** 我最近也想读些新书。
-* **耶莱娜**: 我很高兴您会感兴趣。请稍等片刻，我为您将书取下来。
-* **耶莱娜**: 😘
-* **Prompt:** 我最近没有时间读书。
-* **耶莱娜**: 没关系，我可以先帮您整理成书单，等您有空的时候再凭兴趣阅读。
-* **耶莱娜**: 😏
+          <t xml:space="preserve">[耶萊娜正在整理書架上的書籍。]
+**耶萊娜**: 您這裡的藏書很豐富，最近又讀完了幾本，引人入勝值得一看。若您想消磨時間的話，我願意為您推薦。
+* **Prompt:** 我最近也想讀點新書。
+* **耶萊娜**: 我很高興您會感興趣。請稍等片刻，我為您將書取下來。
+* **耶萊娜**: 😘
+* **Prompt:** 我最近沒有時間讀書。
+* **耶萊娜**: 沒關係，我可以先幫您整理成書單，等您有空的時候再憑興趣閱讀。
+* **耶萊娜**: 😏
 </t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">[深夜，亮着灯的办公室响起克制的敲门声。]
-**耶莱娜**: 局长这么晚还没睡，是被什么问题难倒了吗？如果不介意，可以和我说说的。
-* **Prompt:** 只是有点睡不着。
-* **耶莱娜**: 失眠的时候，借助些外力不失为一种办法。需要我来哄您入睡吗？
-* **耶莱娜**: 😘😘
-* **Prompt:** 还有事情需要处理。
-* **耶莱娜**: 如果您愿意信任我，我可以帮您分担辛劳，这样您也能早点休息。
-* **耶莱娜**: 😖
+          <t xml:space="preserve">[深夜，亮著燈的辦公室響起克制的敲門聲。]
+**耶萊娜**: 局長這麼晚還沒睡，是被什麼問題難倒了嗎？如果不介意，可以和我說說的。
+* **Prompt:** 只是有點睡不著。
+* **耶萊娜**: 失眠的時候，借助外力不失為一種辦法。需要我來哄您入睡嗎？
+* **耶萊娜**: 😘😘
+* **Prompt:** 還有事情需要處理。
+* **耶萊娜**: 如果您願意信任我，我可以幫您分擔辛勞，這樣您也能早點休息。
+* **耶萊娜**: 😖
 </t>
         </is>
       </c>
@@ -14288,27 +14288,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">[切尔西将一枚宝石递到你的面前]
-**切尔西伯爵**: 给，这是你的纪念品。
-* **Prompt:** 这是……又换了一种宝石么？
-* **切尔西伯爵**: 哈，小事一桩。你收下就是了。
-* **切尔西伯爵**: 😏
+          <t xml:space="preserve">[切爾西將一枚寶石遞到你的面前]
+**切爾西伯爵**: 給，這是你的紀念品。
+* **Prompt:** 這是……又換了一種寶石嗎？
+* **切爾西伯爵**: 哈，小事一樁。你收下就是了。
+* **切爾西伯爵**: 😏
 * **Prompt:** 好像成色不如之前的。
-* **切尔西伯爵**: 不可能！它的净度比之前任何一个都高！
-* **切尔西伯爵**: 😫
+* **切爾西伯爵**: 不可能！它的淨度比之前任何一個都高！
+* **切爾西伯爵**: 😫
 </t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve">[切尔西看着西迪，似乎若有所思]
-**切尔西伯爵**: 这里为什么不能养猫？
-* **Prompt:** 你已经有一只“猫”了。
-* **切尔西伯爵**: 啧，猫和西迪能一样么？
-* **切尔西伯爵**: 😥😥
-* **Prompt:** 不是不可以，但手续很复杂，你需要有耐心。
-* **切尔西伯爵**: 好吧……那我等就是了。
-* **切尔西伯爵**: 😐
+          <t xml:space="preserve">[切爾西看著西迪，似乎若有所思]
+**切爾西伯爵**: 這裡為什麼不能養貓？
+* **Prompt:** 你已經有一隻「貓」了。
+* **切爾西伯爵**: 嘖，貓和西迪能相提並論嗎？
+* **切爾西伯爵**: 😥😥
+* **Prompt:** 不是不可以，但手續很複雜，你需要有耐心。
+* **切爾西伯爵**: 好吧……那我等就是了。
+* **切爾西伯爵**: 😐
 </t>
         </is>
       </c>
@@ -14325,26 +14325,26 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">[你路过辰砂的收容室]
-**辰砂**: 您今天需要我的贴身保护吗？
+          <t xml:space="preserve">[你路過辰砂的收容室]
+**辰砂**: 您今天需要我的貼身保護嗎？
 * **Prompt:** 可以，但你也要注意自己的安全。
-* **辰砂**: 没问题，等候您的命令。
+* **辰砂**: 沒問題，等候您的命令。
 * **辰砂**: 😘
-* **Prompt:** 这次任务难度不高，你可以休息了。
-* **辰砂**: 你上次似乎也是这么说的。
+* **Prompt:** 這次任務難度不高，你可以休息了。
+* **辰砂**: 你上次似乎也是這樣說的。
 * **辰砂**: 😥
 </t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">[任务结束后，辰砂似乎在思考什么]
-**辰砂**: 唉，以往的经验在管理局这里都不怎么适用啊。
-* **Prompt:** 这里的战斗太难了？
-* **辰砂**: 不要小看我，我好歹也是前蛇眼的负责人。
+          <t xml:space="preserve">[任務結束後，辰砂似乎在思考什麼]
+**辰砂**: 唉，以往的經驗在管理局這裡都不怎麼適用啊。
+* **Prompt:** 這裡的戰鬥太難了？
+* **辰砂**: 不要小看我，我好歹也是前蛇眼的負責人。
 * **辰砂**: 😦
-* **Prompt:** 和蛇眼的区别很大？
-* **辰砂**: 嗯，交流还真是一件难事。
+* **Prompt:** 和蛇眼的區別很大？
+* **辰砂**: 嗯，交流還真是一件難事。
 * **辰砂**: 😐
 </t>
         </is>
@@ -14362,26 +14362,26 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">[卡瓦卡瓦期待地看着你]
-**卡瓦卡瓦**: 局长！我们什么时候回砂海啊？
-* **Prompt:** 确实有一段时间没巡视砂海情况了，我们明天启程吧。
-* **卡瓦卡瓦**: 好的！这次有机会的话一起去看砂海上的流星雨吧！
+          <t xml:space="preserve">[卡瓦卡瓦期待地看著你]
+**卡瓦卡瓦**: 局長！我們什麼時候回砂海啊？
+* **Prompt:** 確實有一段時間沒巡視砂海情況了，我們明天啟程吧。
+* **卡瓦卡瓦**: 好的！這次有機會的話一起去看砂海上的流星雨吧！
 * **卡瓦卡瓦**: 😘😘
-* **Prompt:** 砂海最近没有状况，有消息一定叫你。
-* **卡瓦卡瓦**: 好吧，那到时候我来做向导……
+* **Prompt:** 砂海最近沒有狀況，有消息一定叫你。
+* **卡瓦卡瓦**: 好吧，那到時候我來做嚮導……
 * **卡瓦卡瓦**: 😘
 </t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve">[卡瓦卡瓦有一些难过]
-**卡瓦卡瓦**: 局长，我的信标少了几个。
-* **Prompt:** 会不会是遗落在任务地点了？
-* **卡瓦卡瓦**: 不会的，如果不是与砂海有关的任务，我是不会带着它们的。
+          <t xml:space="preserve">[卡瓦卡瓦有一些難過]
+**卡瓦卡瓦**: 局長，我的信標少了幾個。
+* **Prompt:** 會不會是遺落在任務地點了？
+* **卡瓦卡瓦**: 不會的，如果不是與砂海有關的任務，我是不會帶著它們的。
 * **卡瓦卡瓦**: 😐
-* **Prompt:** 有没有可能掉在训练室里？
-* **卡瓦卡瓦**: 对哦！那里我还没去找过呢！
+* **Prompt:** 有沒有可能掉在訓練室裡？
+* **卡瓦卡瓦**: 對哦！那裡我還沒去找過呢！
 * **卡瓦卡瓦**: 😘
 </t>
         </is>
@@ -14399,27 +14399,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">[李维穿着他又一身过于浮夸的新衣服在你面前转了个圈]
-**李维**: 怎么样，好看吗？
+          <t xml:space="preserve">[李維穿著他又一身過於浮誇的新衣服在你面前轉了個圈]
+**李維**: 怎麼樣，好看嗎？
 * **Prompt:** 好看好看。
-* **李维**: 我听你的回答怎么这么敷衍呢？
-* **李维**: 😐
-* **Prompt:** ……也就那样吧。
-* **李维**: 这可是很难抢到的走秀款，我觉得你对服装的审美可能需要提升一下。
-* **李维**: 😥
+* **李維**: 我聽你的回答怎麼這麼敷衍呢？
+* **李維**: 😐
+* **Prompt:** ……勉勉強強吧。
+* **李維**: 這可是很難搶到的走秀款，我覺得你對服裝的審美可能需要加強一下。
+* **李維**: 😥
 </t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve">[李维正在和两个工作人员打牌]
-**李维**: 嘿，真不好意思，我又赢了。
-* **Prompt:** 你赢了几把了？
-* **李维**: 不多不多，才三把，你要不要也跟我来一局？
-* **李维**: 😘
-* **Prompt:** 可别让我发现你在用契约和人玩游戏。
-* **李维**: 怎么可能呢？这种小游戏还要动用异能，也太无趣了。
-* **李维**: 😏
+          <t xml:space="preserve">[李維正在和兩個工作人員打牌]
+**李維**: 嘿，真不好意思，我又贏了。
+* **Prompt:** 你贏了幾把了？
+* **李維**: 不多不多，才三把，你要不要也跟我來一局？
+* **李維**: 😘
+* **Prompt:** 可別讓我發現你在用契約跟人玩遊戲。
+* **李維**: 怎麼可能呢？這種小遊戲還要動用異能，也太無趣了。
+* **李維**: 😏
 </t>
         </is>
       </c>
@@ -14436,26 +14436,26 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">[尤尼路过你身边，眉头紧皱]
-**尤尼**: 你为什么只戴一边耳环？
-* **Prompt:** 没钱买另外一个。
-* **尤尼**: 哈，那要不要跳槽来当我的助手？
+          <t xml:space="preserve">[尤尼路過你身邊，眉頭緊皺]
+**尤尼**: 你為什麼只戴一邊耳環？
+* **Prompt:** 沒錢買另外一個。
+* **尤尼**: 哈，那要不要跳槽來當我的助手？
 * **尤尼**: 😘
-* **Prompt:** 工作制服只分配了一个。
-* **尤尼**: ……你们管物资的那个人一定跟我有仇。
+* **Prompt:** 工作制服只分配了一個。
+* **尤尼**: ……你們管物資的那個人一定跟我有仇。
 * **尤尼**: 😖
 </t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">[尤尼拿着一张宣传单在很仔细地端详]
-**尤尼**: 这人在我之后是不是又去给五官做了调整……
-* **Prompt:** 看了对比图，感觉以前的更好看。
-* **尤尼**: 当然，那可是我的手笔。
+          <t xml:space="preserve">[尤尼拿著一張宣傳單在很仔細地端詳]
+**尤尼**: 這人在我之後是不是又去把五官做了調整……
+* **Prompt:** 看了對比圖，感覺以前的更好看。
+* **尤尼**: 當然，那可是我的真跡。
 * **尤尼**: 😏
-* **Prompt:** 现在不也挺好看的吗？
-* **尤尼**: 你的审美有待加强。
+* **Prompt:** 現在不是也很好看嗎？
+* **尤尼**: 你的審美觀有待加強。
 * **尤尼**: 😥
 </t>
         </is>
@@ -14473,27 +14473,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">[妮诺把一张物资申请单拍在你面前。]
-**妮诺**: 噔噔，你触发了一个随机任务，那就是帮妮诺大人填满零食柜~
-* **Prompt:** 垃圾食品还是少吃点为妙。
-* **妮诺**: 哈~？不懂就别瞎说，它们给我提供的不是糖、油和盐，是一种态度！
-* **妮诺**: 😫😫
-* **Prompt:** 这样吧，今天你直播时粉丝给你投多少棒棒糖，我就给你批多少。
-* **妮诺**: 嗯？还挺会玩的嘛你，这战书我收下了~你就等着用卡车装吧！
-* **妮诺**: 😏😏
+          <t xml:space="preserve">[妮諾把一張物資申請單拍在你面前。]
+**妮諾**: 噹噹，你觸發了一個隨機任務，那就是幫妮諾大人填滿零食櫃~
+* **Prompt:** 垃圾食品還是少吃點為妙。
+* **妮諾**: 蛤~？不懂就別亂說，它們提供給我的不是糖、油和鹽，是一種態度！
+* **妮諾**: 😫😫
+* **Prompt:** 這樣吧，今天你直播時粉絲投給你多少棒棒糖，我就買給你多少。
+* **妮諾**: 嗯？還挺會玩的嘛你，這戰書我收下了~你就等著用卡車裝吧！
+* **妮諾**: 😏😏
 </t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve">[妮诺查看着直播间流量曲线图。]
-**妮诺**: 怎么回事，最近热度下降了这么多！简直是妮诺大人直播的黑历史！
-* **Prompt:** 也许是直播内容同质化严重，可以想点新鲜的。
-* **妮诺**: 还不是你们这不让播那不让播，还逼我用虚拟背景！我不管，你得对我负责，陪我播到热度恢复为止！
-* **妮诺**: 😖😖😖
-* **Prompt:** 需不需要我组织其他禁闭者一起看你的直播，给你刷礼物？
-* **妮诺**: 哦？这是可以的吗？！等等……不对！我识破你了！你一定是想让我被平台查到注水然后封号！
-* **妮诺**: 😫😫
+          <t xml:space="preserve">[妮諾查看著直播間觀看量曲線圖。]
+**妮諾**: 怎麼回事，最近熱度下降了這麼多！簡直是妮諾大人直播的黑歷史！
+* **Prompt:** 也許是直播內容同質化嚴重，可以想點新鮮的。
+* **妮諾**: 還不是你們這不讓播那不讓播，還逼我用虛擬背景！我不管，你得對我負責，陪我播到熱度恢復為止！
+* **妮諾**: 😖😖😖
+* **Prompt:** 需不需要我組織其他禁閉者一起看你的直播，幫你刷禮物？
+* **妮諾**: 哦？這是可以的嗎？！等等……不對！我識破你了！你一定是想讓我被平台查到灌水然後被刪帳！
+* **妮諾**: 😫😫
 </t>
         </is>
       </c>
@@ -14510,27 +14510,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">[戈蓝目不转睛地盯着终端上显示的管理局内网讨论区帖子。]
-**戈蓝**: 哦哦，原来那个谁和那个谁拜了把子，那个谁又和那个谁互相看不顺眼，局长也曾经喜欢过邪恶势力派来诱惑自己的成熟美好大姐姐……
-* **Prompt:** 这么离谱的八一八你也信啊。
-* **戈蓝**: 啊，什么，这是假的？*，亏老子还给这帖子打赏了……诶不对啊，之前死恋电台好像也八过类似的事，难道那也是假的吗？！
-* **戈蓝**: 😫😫😫
-* **Prompt:** 我不知道你在说什么。
-* **戈蓝**: 哇，这么遮遮掩掩的肯定是被说中了吧！快详细讲讲，你们是不是一度恨海情天至死不渝啊？那之后你是不是封心锁爱一路寡王啊？
-* **戈蓝**: 😘😘😘
+          <t xml:space="preserve">[戈藍目不轉睛地盯著裝置上顯示的管理局內網討論區文章。]
+**戈藍**: 哦哦，原來那個誰和那個誰結拜，那個誰又和那個誰互相看不順眼，局長也曾經喜歡過邪惡勢力派來誘惑自己的成熟美好大姐姐……
+* **Prompt:** 這麼荒謬的八卦你也信啊。
+* **戈藍**: 啊，什麼，這是假的？*，虧老子還在這篇文斗內了……欸不對啊，之前死戀電台好像也八卦過類似的事，難道那也是假的嗎？！
+* **戈藍**: 😫😫😫
+* **Prompt:** 我不知道你在說什麼。
+* **戈藍**: 哇，這麼遮遮掩掩的肯定是被說中了吧！快詳細說說，你們是不是一度恨海情天至死不渝啊？那之後你是不是封心鎖愛孤家寡人一生啊？
+* **戈藍**: 😘😘😘
 </t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve">[戈蓝眼馋地看着菲的商品目录里那个绝版且昂贵的毛绒配饰。]
-**戈蓝**: 可恶，钱不够！这里不让当打手，应该怎么捞点油……不对，赚点零花钱呢？啊，我知道了，我可以卖情报和八卦！
-* **Prompt:** 卖真假不明的爱恨情仇吗？
-* **戈蓝**: 卖情报不就是这样吗？一旦售出概不负责，真假自辨！不过你放心，我肯定不会主动骗你！被动的，那我……也没办法不是！
-* **戈蓝**: 😘😘😘
-* **Prompt:** 卖梳理清晰的局势分析吗？
-* **戈蓝**: 这、这属于深加工产品了吧，我可不卖这种东西！不、不是卖不了啊，是没有卖情报的会做这种吃力不讨好的事情！
-* **戈蓝**: 😫😫😫
+          <t xml:space="preserve">[戈藍羨慕地看著菲的商品目錄裡那個絕版且昂貴的絨毛配飾。]
+**戈藍**: 可惡，錢不夠！這裡不讓當打手，應該怎麼撈點油……不對，賺點零用錢呢？啊，我知道了，我可以賣情報和八卦！
+* **Prompt:** 賣真假不明的愛恨情仇嗎？
+* **戈藍**: 賣情報不就是這樣嗎？一旦售出概不負責，真假自辨！不過你放心，我肯定不會主動騙你！被動的，那我……也沒辦法不是！
+* **戈藍**: 😘😘😘
+* **Prompt:** 賣梳理清晰的局勢分析嗎？
+* **戈藍**: 這、這算是深加工產品了吧，我才不賣這種東西！不、不是賣不了啊，是沒有賣情報的會做這種吃力不討好的事情！
+* **戈藍**: 😫😫😫
 </t>
         </is>
       </c>
@@ -14547,26 +14547,26 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">[多芙正在给管理局众人送信。]
-**多芙**: 这不是局长嘛？正好，来猜猜看，这两封信里面，哪一封是送给你的？
+          <t xml:space="preserve">[多芙正在幫管理局眾人送信。]
+**多芙**: 這不是局長嗎？正好，來猜猜看，這兩封信裡面，哪一封是送給你的？
 * **Prompt:** 粉色信封
-* **多芙**: 咦，粉色这个是用心形贴纸封口的诶，说不定是封情书呢！哎呀，你别急着否认嘛~万一……真的是给你的呢？
+* **多芙**: 咦？粉色這個是用心形貼紙封口的耶，說不定是封情書呢！唉呀，你別急著否認嘛！萬一……真的是給你的呢？
 * **多芙**: 😏😏😏
-* **Prompt:** 蓝色信封
-* **多芙**: 从这么多信里选中了这封信，你我还挺有缘分的，该说是你对我了解很深呢，还是……这份心意，本就想让你拆开呢？
+* **Prompt:** 藍色信封
+* **多芙**: 從這麼多信裡選中了這封信，你我還挺有緣分的，該說是你對我瞭解很深呢，還是……這份心意，本就想讓你拆開呢？
 * **多芙**: 😘😘😘
 </t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">[多芙收到了寄给她的信，却没急着拆开，似乎在酝酿些什么。]
-**多芙**: 居然有人给信使写信呀，该怎么回信呢……哈哈，真是好难抉择啊，是该给点甜头上上钩呢，还是该用些话术吓吓这人……
+          <t xml:space="preserve">[多芙收到了寄給她的信，卻沒急著拆開，似乎在醞釀些什麼。]
+**多芙**: 居然有人寫信給信使呀，該怎麼回信呢……哈哈，真是好難抉擇啊，是該給點甜頭上上鉤呢，還是該用些話術嚇嚇這人……
 * **Prompt:** 提醒她看署名
-* **多芙**: 署名是……米诺斯危机管理局局长……哦，连多芙这种小人物都要亲自处理监视，不愧是局长，好细心呀~
+* **多芙**: 署名是……米諾斯危機管理局局長……哦，連多芙這種小人物都要親自處理監視，不愧是局長，好細心呀！
 * **多芙**: 😏😏😏
-* **Prompt:** 提醒她拆开看
-* **多芙**: “用自己真正的心意与人往来通信”……这个字迹……是你……这就是你想对我说的话吗……
+* **Prompt:** 提醒她拆開看
+* **多芙**: 「用自己真正的心意與人往來通訊」……這個字跡……是你……這就是你想對我說的話嗎……
 * **多芙**: 😖😖😖
 </t>
         </is>
@@ -14584,26 +14584,26 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">[九十九用她的刀不住砸着地面]
-**九十九**: 什么时候……到训练时间？
-* **Prompt:** 等海拉完成任务回来就可以。
+          <t xml:space="preserve">[九十九用她的刀不停砸著地面]
+**九十九**: 什麼時候……到訓練時間？
+* **Prompt:** 等海拉完成任務回來就可以。
 * **九十九**: 唔……好！
 * **九十九**: 😐
-* **Prompt:** 大概还有两个小时。
-* **九十九**: 时间……过得真慢。
+* **Prompt:** 大概還有兩個小時。
+* **九十九**: 時間……過得真慢。
 * **九十九**: 😥
 </t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve">[九十九捶打着禁闭室的大门，室内温度急剧升高]
+          <t xml:space="preserve">[九十九捶打著禁閉室的大門，室內溫度急劇升高]
 **九十九**: 啊啊……啊！
-* **Prompt:** 需要紧急降温么？
-* **九十九**: 没用……是我的血在沸腾。
+* **Prompt:** 需要緊急降溫嗎？
+* **九十九**: 沒用……是我的血在沸騰。
 * **九十九**: 😫
-* **Prompt:** 稍等，我加固一下枷锁。
-* **九十九**: （闷哼），希望……你的速度快一点。
+* **Prompt:** 稍等，我加固一下枷鎖。
+* **九十九**: （悶哼），希望……你的速度快一點。
 * **九十九**: 😖
 </t>
         </is>
@@ -14621,27 +14621,27 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">[你与拿着电锯的温蒂在走廊相遇]
-**温蒂**: 锈河的死役……还剩多少？
-* **Prompt:** 如果数量超过危险值，会通知我们的。
-* **温蒂**: 那太好了……太好了！我好期待！
-* **温蒂**: 😘
-* **Prompt:** 你不需要操心这事。
-* **温蒂**: 局长——你是想被我大卸八块了么？
-* **温蒂**: 😦
+          <t xml:space="preserve">[你與拿著電鋸的溫蒂在走廊相遇]
+**溫蒂**: 鏽河的死役……還剩多少？
+* **Prompt:** 如果數量超過危險值，會通知我們的。
+* **溫蒂**: 那太好了……太好了！我好期待！
+* **溫蒂**: 😘
+* **Prompt:** 你不需要擔心這件事。
+* **溫蒂**: 局長——你是想被我大卸八塊了嗎？
+* **溫蒂**: 😦
 </t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve">[温蒂一把撕碎了眼前的资料]
-**温蒂**: 死役、死役怎么又在走动！
-* **Prompt:** 啊……？什么死役？
-* **温蒂**: 来不及了！快闪开！
-* **温蒂**: 😫😫
-* **Prompt:** 居然还有死役？我去申请一下调查许可。
-* **温蒂**: ……终于，终于可以大开杀戒了！
-* **温蒂**: 😘😘😘
+          <t xml:space="preserve">[溫蒂一把撕碎了眼前的資料]
+**溫蒂**: 死役、死役怎麼又在走動！
+* **Prompt:** 啊……？什麼死役？
+* **溫蒂**: 來不及了！快閃開！
+* **溫蒂**: 😫😫
+* **Prompt:** 居然還有死役？我去申請一下調查許可。
+* **溫蒂**: ……終於，終於可以大開殺戒了！
+* **溫蒂**: 😘😘😘
 </t>
         </is>
       </c>
@@ -14658,26 +14658,26 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">[帕加茜的屋子里放满了书]
-**帕加茜**: 这里……还有其他的文献资料么？
-* **Prompt:** 我可以帮你借新城图书馆里的书。
-* **帕加茜**: 嗯……谢谢局长，我一定会按时归还的。
+          <t xml:space="preserve">[帕加茜的屋子裡放滿了書]
+**帕加茜**: 這裡……還有其他的文獻資料嗎？
+* **Prompt:** 我可以幫你借新城圖書館裡的書。
+* **帕加茜**: 嗯……謝謝局長，我一定會按時歸還的。
 * **帕加茜**: 😘
-* **Prompt:** 要是这些都读完了，还有一本《狄斯异闻录》。
-* **帕加茜**: 优秀的纪传体小说，可惜……后续却没了消息。
+* **Prompt:** 要是這些都讀完了，還有一本《狄斯異聞錄》。
+* **帕加茜**: 優秀的紀傳體小說，可惜……後續卻沒了消息。
 * **帕加茜**: 😐
 </t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve">[你打算来看望帕加茜]
-**帕加茜**: 不要……靠近我，会变得不幸。
-* **Prompt:** “核能”不注意的话，确实会很危险。
+          <t xml:space="preserve">[你打算來看望帕加茜]
+**帕加茜**: 不要……靠近我，會變得不幸。
+* **Prompt:** 「核能」不注意的話，確實會很危險。
 * **帕加茜**: ……
 * **帕加茜**: 😦
-* **Prompt:** 我穿好防护服了。
-* **帕加茜**: 嗯，这样就好。
+* **Prompt:** 我穿好防護服了。
+* **帕加茜**: 嗯，這樣就好。
 * **帕加茜**: 😐
 </t>
         </is>
@@ -14695,26 +14695,26 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">[多莉在观看棒球比赛]
-**多莉**: 等下！现在刚到最精彩的阶段，不要打扰我啊！
-* **Prompt:** 再给你五分钟，到时间就走。
-* **多莉**: 好耶！那我们一起看完这场比赛吧！
+          <t xml:space="preserve">[多莉在觀看棒球比賽]
+**多莉**: 等下！現在剛到最精彩的階段，不要打擾我啊！
+* **Prompt:** 再給你五分鐘，時間到就走。
+* **多莉**: 好耶！那我們一起看完這場比賽吧！
 * **多莉**: 😘😘
-* **Prompt:** 任务紧急，回来看录播也一样。
-* **多莉**: 切……你这人，根本就不懂。
+* **Prompt:** 任務緊急，回來看錄播也一樣。
+* **多莉**: 呿……你這人，根本就不懂。
 * **多莉**: 😥
 </t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve">[多莉一脸阴郁地看着棒球棍]
-**多莉**: 采购办进的这批货到底行不行啊……挥两下就断了！
-* **Prompt:** 那你用水管凑合一下吧。
-* **多莉**: 啊——不行！完全不顺手！
+          <t xml:space="preserve">[多莉一臉陰鬱地看著球棒]
+**多莉**: 採購部進的這批貨到底行不行啊……揮兩下就斷了！
+* **Prompt:** 那你用水管將就一下吧。
+* **多莉**: 啊——不行！完全不順手！
 * **多莉**: 😫😫
-* **Prompt:** 下一批棒球棍会是加强材质的，先忍一忍。
-* **多莉**: 那……就先这样。要是还不行的话，我可不会买账。
+* **Prompt:** 下一批球棒會是加強材質的，先忍一忍。
+* **多莉**: 那……就先這樣。要是還不行的話，我是不會買單的。
 * **多莉**: 😦😫
 </t>
         </is>
@@ -14732,27 +14732,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">[赫罗捧着一箱新到货的牛奶]
-**赫罗**: 局长，要不要来一瓶啊~？
-* **Prompt:** 就放在办公桌上吧，一会儿喝。
-* **赫罗**: 不行！好牛奶就得现在喝！一起干了！
-* **赫罗**: 😫😖
-* **Prompt:** 抱歉，我没有长身高的需求。
-* **赫罗**: 你……！今天我就要把你打到和我一样高！
-* **赫罗**: 😖😖
+          <t xml:space="preserve">[赫羅捧著一箱新到貨的牛奶]
+**赫羅**: 局長，要不要來一瓶啊~？
+* **Prompt:** 就放在辦公桌上吧，等等喝。
+* **赫羅**: 不行！好牛奶就得現在喝！一起乾了！
+* **赫羅**: 😫😖
+* **Prompt:** 抱歉，我沒有長高的需求。
+* **赫羅**: 你……！今天我就要把你打到和我一樣高！
+* **赫羅**: 😖😖
 </t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve">[赫罗握着斧子，双眼出神]
-**赫罗**: 唉……卓娅老大怎么都不和我说话了……
-* **Prompt:** 可能是你太矮了，卓娅没注意到你。
-* **赫罗**: 你等着！我马上就砸烂你办公室的门！
-* **赫罗**: 😫
-* **Prompt:** 有可能是你今天战斗时的声音不够洪亮。
-* **赫罗**: 啊啊……下次我一定要让卓娅老大看到我战斗时的帅气样子！
-* **赫罗**: 😖
+          <t xml:space="preserve">[赫羅握著斧子，雙眼出神]
+**赫羅**: 唉……卓婭老大怎麼都不和我說話了……
+* **Prompt:** 可能是你太矮了，卓婭沒注意到你。
+* **赫羅**: 你等著！我馬上就砸爛你辦公室的門！
+* **赫羅**: 😫
+* **Prompt:** 有可能是你今天戰鬥時的聲音不夠洪亮。
+* **赫羅**: 啊啊……下次我一定要讓卓婭老大看到我戰鬥時的帥氣樣子！
+* **赫羅**: 😖
 </t>
         </is>
       </c>
@@ -14769,27 +14769,27 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">[莓丝在你的办公室里打起了瞌睡]
-**莓丝**: 嗯，不能睡……还有任务……不能睡……
-* **Prompt:** 要睡的话，回房间里睡吧。
-* **莓丝**: 嗯……谢谢局长…………不对！要是睡了的话，我会做噩梦的……
-* **莓丝**: 😖😖
-* **Prompt:** 要出任务了，醒醒。
-* **莓丝**: 嗯，好！我……没睡！我精神着呢！
-* **莓丝**: 😫
+          <t xml:space="preserve">[莓絲在你的辦公室裡打起了瞌睡]
+**莓絲**: 嗯，不能睡……還有任務……不能睡……
+* **Prompt:** 要睡的話，回房間裡睡吧。
+* **莓絲**: 嗯……謝謝局長…………不對！要是睡了的話，我會做惡夢的……
+* **莓絲**: 😖😖
+* **Prompt:** 要出任務了，醒醒。
+* **莓絲**: 嗯，好！我……沒睡！我很有精神！
+* **莓絲**: 😫
 </t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve">[莓丝在锻炉旁自言自语]
-**莓丝**: 嗯……下一把武器该做什么呢……
-* **Prompt:** 不如做一把阔剑？
-* **莓丝**: 好主意，不如再加一点点设计，做成笼手剑吧！
-* **莓丝**: 😘
-* **Prompt:** 不如做一把左轮手枪？
-* **莓丝**: 啧，为什么你们都喜欢枪械这种东西呢……明明冷兵器打起架来才最有意思。
-* **莓丝**: 😥
+          <t xml:space="preserve">[莓絲在鍛爐旁自言自語]
+**莓絲**: 嗯……下一把武器該做什麼呢……
+* **Prompt:** 不如做一把闊劍？
+* **莓絲**: 好主意，不如再加一點點設計，做成籠手劍吧！
+* **莓絲**: 😘
+* **Prompt:** 不如做一把左輪手槍？
+* **莓絲**: 嘖，為什麼你們都喜歡槍械這種東西呢……明明冷兵器打起架來才最有趣。
+* **莓絲**: 😥
 </t>
         </is>
       </c>
@@ -14806,26 +14806,26 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">[卡斯洛闯进你的办公室]
-**卡斯洛**: 喂，最近好无聊，说好的给我更高难度的任务呢！
-* **Prompt:** 正好锈河的死役又在活跃了，就派你去清理吧。
-* **卡斯洛**: 哈哈哈，就等你这句话了！
+          <t xml:space="preserve">[卡斯洛闖進你的辦公室]
+**卡斯洛**: 喂，最近好無聊，說好的給我更高難度的任務呢！
+* **Prompt:** 正好鏽河的死役又在活躍了，就派你去清理吧。
+* **卡斯洛**: 哈哈哈，就等你這句話了！
 * **卡斯洛**: 😉
-* **Prompt:** 高难任务这种东西，不是你解决的越多，剩下的就越少嘛。
-* **卡斯洛**: 嘁，那……那你来陪我玩玩吧！
+* **Prompt:** 高難度任務這種東西，不是你解決的越多，剩下的就越少嗎。
+* **卡斯洛**: 嘖，那……那你來陪我玩玩吧！
 * **卡斯洛**: 😥
 </t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve">[卡斯洛用新到的油彩对着镜子涂涂画画]
-**卡斯洛**: 管理局采购的这款不怎么防水啊……太容易花了。
-* **Prompt:** 没事，现在的效果看上去更容易恐吓到人。
-* **卡斯洛**: 哈，那我现在就去找几个家伙试试！
+          <t xml:space="preserve">[卡斯洛用新到的油彩對著鏡子塗塗畫畫]
+**卡斯洛**: 管理局採購的這款不怎麼防水啊……太容易花了。
+* **Prompt:** 沒事，現在的效果看起來更容易恐嚇到人。
+* **卡斯洛**: 哈，那我現在就去找幾個傢伙試試！
 * **卡斯洛**: 😏
-* **Prompt:** 那你换一款用？
-* **卡斯洛**: 啧，换了几种都是这样！算了算了，我自己调！
+* **Prompt:** 那你換一款用？
+* **卡斯洛**: 嘖，換了幾種都是這樣！算了算了，我自己調！
 * **卡斯洛**: 😥
 </t>
         </is>
@@ -14843,26 +14843,26 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">[克里斯蒂娜正在训练室里打沙袋，练习自由搏击]
-**克里斯蒂娜**: 哟，亲爱的助手，要不要一起来练练？
-* **Prompt:** 好吧……但你要记得手下留情啊。
+          <t xml:space="preserve">[克里斯蒂娜正在訓練室裡打沙包，練習自由搏擊]
+**克里斯蒂娜**: 喲，親愛的助手，要不要一起來練練？
+* **Prompt:** 好吧……但你要記得手下留情啊。
 * **克里斯蒂娜**: 放心吧，我自有分寸~
 * **克里斯蒂娜**: 😉
-* **Prompt:** 这……今天要不就算了吧……
-* **克里斯蒂娜**: 哎呀来嘛来嘛，大不了我让你几招~
+* **Prompt:** 這……今天乾脆就算了吧……
+* **克里斯蒂娜**: 唉呀來嘛來嘛，大不了我讓你幾招~
 * **克里斯蒂娜**: 😏
 </t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve">[克里斯蒂娜正在摆弄一副眼镜]
-**克里斯蒂娜**: 小助手！快来看看我做的新道具！它可以在你眨眼的时候拍下眼前的画面，传到你的终端上。
+          <t xml:space="preserve">[克里斯蒂娜正在擺弄一副眼鏡]
+**克里斯蒂娜**: 小助手！快來看看我做的新道具！它可以在你眨眼的時候拍下眼前的畫面，傳到你的裝置上。
 * **Prompt:** 很酷！
-* **克里斯蒂娜**: 嘿嘿，我就知道你会喜欢！给你啦，不用谢我！
+* **克里斯蒂娜**: 嘿嘿，我就知道你會喜歡！給你啦，不用謝我！
 * **克里斯蒂娜**: 😘
-* **Prompt:** 这个……能在实战中运用吗？
-* **克里斯蒂娜**: 当然！在跟踪潜入任务里很实用！
+* **Prompt:** 這個……能在實戰中運用嗎？
+* **克里斯蒂娜**: 當然！在跟蹤潛入任務裡很實用！
 * **克里斯蒂娜**: 😉
 </t>
         </is>
@@ -14880,26 +14880,26 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">[路过运动室门口，你被一个壁球大力击倒]
-**瑞思**: 抱歉局长，我没控制好壁球让它打到了你。
+          <t xml:space="preserve">[路過運動室門口，你被一個壁球大力擊倒]
+**瑞思**: 抱歉局長，我沒控制好壁球讓它打到了你。
 * **Prompt:** ……太痛了。
-* **瑞思**: 是我的错，被打到的地方已经肿起来了，快，我带您去医务室！
+* **瑞思**: 是我的錯，被打到的地方已經腫起來了，快，我帶您去醫務室！
 * **瑞思**: 😖😖😖
-* **Prompt:** 这一球，力量也太强了……
-* **瑞思**: 打球的过程中，不小心想到了前任上司的所作所为，一不小心就……
+* **Prompt:** 這一球，力量也太強了……
+* **瑞思**: 打球的過程中，不小心想到了前任上司的所作所為，一不小心就……
 * **瑞思**: 😥😥😥
 </t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve">[瑞思拿给你一张优惠券]
-**瑞思**: “K幻量贩”的大房包厢，局长你要一起来吗？
-* **Prompt:** 这个套餐好优惠啊！
-* **瑞思**: 很早以前购买的套餐，这两天整理时发现快到期了。工作了一整天，局长要不要一起去通宵唱歌发泄一下？
+          <t xml:space="preserve">[瑞思拿給你一張優惠券]
+**瑞思**: 「K幻量販」的大包廂，局長你要一起來嗎？
+* **Prompt:** 這個套餐好優惠啊！
+* **瑞思**: 很早以前購買的套票，這兩天整理時發現快到期了。工作了一整天，局長要不要一起去通宵唱歌發洩一下？
 * **瑞思**: 😘😘😘
-* **Prompt:** 通宵场……明天我还有会，下次吧。
-* **瑞思**: 嗯，工作优先，如果我能订到周末包厢再一起去吧。
+* **Prompt:** 通宵場……明天我還要開會，下次吧。
+* **瑞思**: 嗯，工作優先，如果我能訂到週末包廂再一起去吧。
 * **瑞思**: 😥😥😥
 </t>
         </is>
@@ -14917,26 +14917,26 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">[米拉叫住了准备出门的你。]
-**米拉**: 依我看，局长身上还缺了些东西，如果要出远门前往砂海的话，有些装备必不可少，不嫌弃的话，就从我的货架上拿吧？
-* **Prompt:** 拿起丝巾
-* **米拉**: 嗯……明智的选择，这条丝巾柔软透气，既能确保呼吸顺畅，又能防止空气中的沙尘糊住口鼻，图案也很漂亮，是我最喜欢的一条呢。
+          <t xml:space="preserve">[米拉叫住了準備出門的你。]
+**米拉**: 依我看，局長身上還缺了些東西，如果要出遠門前往砂海的話，有些裝備必不可少，不嫌棄的話，就從我的貨架上拿吧？
+* **Prompt:** 拿起絲巾
+* **米拉**: 嗯……明智的選擇，這條絲巾柔軟透氣，既能確保呼吸順暢，又能防止空氣中的沙塵糊住口鼻，圖案也很漂亮，是我最喜歡的一條呢。
 * **米拉**: 😘😘😘
 * **Prompt:** 拿起水囊
-* **米拉**: 来到图科的客人们身上都会带着灌满了佳酿的水囊，决斗胜利后，客人们总会拿出水囊痛饮一番，它也是奖励英雄的勋章，很适合你哦局长。
+* **米拉**: 來到圖科的客人們身上都會帶著灌滿了佳釀的水囊，決鬥勝利後，客人們總會拿出水囊痛飲一番，它也是獎勵英雄的勳章，很適合你哦局長。
 * **米拉**: 😉😉😉
 </t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve">[米拉正在晾晒新洗的被单]
-**米拉**: 换洗被单，打扫地面，整理房间……要做的家务还有很多，幸好狄斯的气候不像砂海那样，刚晾上的床单不会消失得无影无踪，省了追着跑的工夫。
-* **Prompt:** 试试烘干机？或许会更方便点
-* **米拉**: 可是被阳光晒过的床单，会让人睡得更安稳些，局长，不想试试看吗？很舒服的哦。
+          <t xml:space="preserve">[米拉正在晾曬新洗的被單]
+**米拉**: 換洗被單，打掃地面，整理房間……要做的家務還有很多，幸好狄斯的氣候不像砂海那樣，剛晾好的床單不會消失得無影無蹤，省了追著跑的功夫。
+* **Prompt:** 試試烘衣機？或許會更方便點
+* **米拉**: 可是被陽光曬過的床單，會讓人睡得更安穩些，局長，不想試試看嗎？很舒服的哦。
 * **米拉**: 😏😏😏
-* **Prompt:** 需要我帮忙吗？
-* **米拉**: 不用啦，刚才撞见几个小朋友在走廊上打架，都被我用砂海陈酿哄来做小帮手了，嘘——我准备的都是软饮，可别告诉她们~
+* **Prompt:** 需要我幫忙嗎？
+* **米拉**: 不用啦，剛才撞見幾個小朋友在走廊上打架，都被我用砂海陳釀換來做小幫手了，噓——我準備的都是無酒精飲料，可別告訴她們！
 * **米拉**: 😏😏😏
 </t>
         </is>
@@ -14954,26 +14954,26 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">[艾恩走出手术室]
-**艾恩**: 有什么事情就快点说，你我的时间都很宝贵。
-* **Prompt:** 我可以看看你切下来的大脑额叶么？
-* **艾恩**: 可以。但在参观时，请不要妄加评论。
+          <t xml:space="preserve">[艾恩走出手術室]
+**艾恩**: 有什麼事情就快點說，你我的時間都很寶貴。
+* **Prompt:** 我可以看看你切下來的大腦額葉嗎？
+* **艾恩**: 可以。但在參觀時，請不要妄加評論。
 * **艾恩**: 😥
-* **Prompt:** 这次手术还算成功么？
-* **艾恩**: 明知故问。马上她就会康复了，只不过……她会失去一些宝贵的东西。
+* **Prompt:** 這次手術還算成功嗎？
+* **艾恩**: 明知故問。馬上她就會康復了，只不過……她會失去一些寶貴的東西。
 * **艾恩**: 😐
 </t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve">[艾恩看着禁闭者们，不住地叹气]
-**艾恩**: 你什么时候管管这些禁闭者？
-* **Prompt:** 他们在这里还算规矩吧？
-* **艾恩**: 规矩？这里完全就是个缩小版的辛迪加！
+          <t xml:space="preserve">[艾恩看著禁閉者們，不停地嘆氣]
+**艾恩**: 你什麼時候管管這些禁閉者？
+* **Prompt:** 他們在這裡還算規矩吧？
+* **艾恩**: 規矩？這裡完全就是個縮小版的辛迪加！
 * **艾恩**: 😐
-* **Prompt:** 抱歉，是我管理不当。
-* **艾恩**: ……不都是你的错，要怪……就怪狂厄吧。
+* **Prompt:** 抱歉，是我管理不當。
+* **艾恩**: ……不都是你的錯，要怪……就怪狂厄吧。
 * **艾恩**: 😐
 </t>
         </is>
@@ -14991,26 +14991,26 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">[泰特拉摆弄着你办公室里的电脑]
-**泰特拉**: 还是要注意一些管理局的网络安全哦，局长。
-* **Prompt:** 不如你来优化一下管理局的网络安全逻辑吧。
-* **泰特拉**: 求求我，没准我就答应你。
+          <t xml:space="preserve">[泰特拉擺弄著你辦公室裡的電腦]
+**泰特拉**: 還是要注意一些管理局的網路安全哦，局長。
+* **Prompt:** 不如你來優化一下管理局的網路安全邏輯吧。
+* **泰特拉**: 求求我，說不定我會答應你。
 * **泰特拉**: 😘😉
-* **Prompt:** 管理局的防火墙万无一失。
-* **泰特拉**: 哦~那我从电脑里找到的这份档案是谁的呢？
+* **Prompt:** 管理局的防火牆萬無一失。
+* **泰特拉**: 哦~那我從電腦裡找到的這份檔案是誰的呢？
 * **泰特拉**: 😏😏😏
 </t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve">[泰特拉躺在管理局的档案柜上不住叹气]
-**泰特拉**: 无聊啊——没想到在这里也会这么无聊。
+          <t xml:space="preserve">[泰特拉躺在管理局的檔案櫃上不停嘆氣]
+**泰特拉**: 無聊啊——沒想到在這裡也會這麼無聊。
 * **Prompt:** 不如去找普希拉吧？
-* **泰特拉**: 啧，两个人一起的话……任务难度会降低的。
+* **泰特拉**: 嘖，兩個人一起的話……任務難度會降低的。
 * **泰特拉**: 😥
-* **Prompt:** 不然下次给你准备一些单人任务？
-* **泰特拉**: 哦——？这下刺激了。我喜欢。
+* **Prompt:** 不然下次幫你準備一些單人任務？
+* **泰特拉**: 哦——？這下刺激了。我喜歡。
 * **泰特拉**: 😘😉
 </t>
         </is>
@@ -15028,26 +15028,26 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">[堇来到你的办公室，似乎是想替你分担工作]
-**堇**: 局长……您看上去有烦心事？如果不嫌弃，请让我为您分忧。
-* **Prompt:** 如果你坚持的话， 那就帮我搬搬文件好了。
-* **堇**: 好的，我明白了，我会认真工作的。
+          <t xml:space="preserve">[堇來到你的辦公室，似乎是想替你分擔工作]
+**堇**: 局長……您看起來有煩心事？如果不嫌棄，請讓我為您分憂。
+* **Prompt:** 如果你堅持的話， 那就幫我搬搬文件好了。
+* **堇**: 好的，我明白了，我會認真工作的。
 * **堇**: 😖
-* **Prompt:** 我没什么不开心的事，不用麻烦你。
-* **堇**: 您是……不信任我么？
+* **Prompt:** 我沒什麼不開心的事，不用麻煩你。
+* **堇**: 您是……不信任我嗎？
 * **堇**: 😖
 </t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve">[堇捏着一片花瓣，神色慌张]
-**堇**: 花园的杀手……最近来过？
-* **Prompt:** 不会的，这里很安全。
-* **堇**: 请您……一定要小心。她们无孔不入。
+          <t xml:space="preserve">[堇捏著一片花瓣，神色慌張]
+**堇**: 花園的殺手……最近來過？
+* **Prompt:** 不會的，這裡很安全。
+* **堇**: 請您……一定要小心。她們無孔不入。
 * **堇**: 😫
-* **Prompt:** 既然你这么担心，就由你来保护我吧。
-* **堇**: 我绝不会辜负您的信任。
+* **Prompt:** 既然你這麼擔心，就由你來保護我吧。
+* **堇**: 我絕不會辜負您的信任。
 * **堇**: 😘
 </t>
         </is>
@@ -15065,27 +15065,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">[麦昆邀请你出席一场艺术品拍卖会。]
-**麦昆**: 怎么样，有兴趣吗？
-* **Prompt:** 好吧，我答应你。
-* **麦昆**: 相信我，你会是最令人惊喜的嘉宾。
-* **麦昆**: 😘
-* **Prompt:** 不行，今天还有任务。
-* **麦昆**: 没关系，我下次还会邀请你的。
-* **麦昆**: 😉
+          <t xml:space="preserve">[麥昆邀請你出席一場藝術品拍賣會。]
+**麥昆**: 怎麼樣，有興趣嗎？
+* **Prompt:** 好吧，我答應你。
+* **麥昆**: 相信我，你會是最令人驚喜的嘉賓。
+* **麥昆**: 😘
+* **Prompt:** 不行，今天還有任務。
+* **麥昆**: 沒關係，我下次還會邀請你的。
+* **麥昆**: 😉
 </t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve">[麦昆因艺术品诈骗面临巨额罚款。]
-**麦昆**: 别担心，我有办法应付。
-* **Prompt:** 该支付你的罚款金额了。
-* **麦昆**: 啧——没想到你这么有正义感。
-* **麦昆**: 😥😥
-* **Prompt:** 咳，这次就先帮你蒙混过关，下不为例。
-* **麦昆**: 哦豁，要我说声谢谢吗？还是说，你要我……给你一点额外的“谢礼”？
-* **麦昆**: 😏😘
+          <t xml:space="preserve">[麥昆因藝術品詐騙面臨鉅額罰款。]
+**麥昆**: 別擔心，我有辦法應付。
+* **Prompt:** 該支付你的罰款金額了。
+* **麥昆**: 嘖——沒想到你這麼有正義感。
+* **麥昆**: 😥😥
+* **Prompt:** 咳，這次就先幫你蒙混過關，下不為例。
+* **麥昆**: 哦吼，要我說聲謝謝嗎？還是說，你要我……給你一點額外的「謝禮」？
+* **麥昆**: 😏😘
 </t>
         </is>
       </c>
@@ -15102,26 +15102,26 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">[琳正在举着相机拍摄温室里一丛新开的花，神色有些苦恼]
-**琳**: 总觉得好像还差了点什么……
-* **Prompt:** 只有这一种花太单调了？
-* **琳**: 有可能……我去搬几盆别的花来试试……
+          <t xml:space="preserve">[琳正在舉著相機拍攝溫室裡一叢新開的花，神色有些苦惱]
+**琳**: 總覺得好像還差了點什麼……
+* **Prompt:** 只有這一種花太單調了？
+* **琳**: 有可能……我去搬幾盆別的花來試試……
 * **琳**: 😦
 * **Prompt:** 缺了人物？
-* **琳**: 啊，局长，您说得对。可以麻烦您站到花后面当我的模特吗？
+* **琳**: 啊，局長，您說得對。可以麻煩您站到花後面當我的模特兒嗎？
 * **琳**: 😘
 </t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve">[琳正在专注地看一本漫画，脸上泛着红晕]
+          <t xml:space="preserve">[琳正在專注地看一本漫畫，臉上泛著紅暈]
 **琳**: 好甜啊……
-* **Prompt:** 你在看什么？
-* **琳**: 是……嗯……漫画啦。不过局长您肯定不看这个吧……
+* **Prompt:** 你在看什麼？
+* **琳**: 是……嗯……漫畫啦。不過局長您肯定不看這個吧……
 * **琳**: 😐
-* **Prompt:** 什么好甜？
-* **琳**: 啊！您吓了我一跳……我说的是漫画啦……
+* **Prompt:** 什麼好甜？
+* **琳**: 啊！您嚇了我一跳……我說的是漫畫啦……
 * **琳**: 😖
 </t>
         </is>
@@ -15139,27 +15139,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">[加洛法诺捧着一束康乃馨]
-**加洛法诺**: 您觉得……今天我该用哪种颜色的花来装饰房间呢？
-* **Prompt:** 红色吧，色彩更鲜亮。
-* **加洛法诺**: 嗯……看着它，的确会让人心情更好。
-* **加洛法诺**: 😘
-* **Prompt:** 我挑不出来……你选自己喜欢就好。
-* **加洛法诺**: 哎……真是令人纠结呢。
-* **加洛法诺**: 😖
+          <t xml:space="preserve">[加洛法諾捧著一束康乃馨]
+**加洛法諾**: 您覺得……今天我該用哪種顏色的花來裝飾房間呢？
+* **Prompt:** 紅色吧，色彩更明亮。
+* **加洛法諾**: 嗯……看著它，的確會讓人心情更好。
+* **加洛法諾**: 😘
+* **Prompt:** 我挑不出來……你選自己喜歡的就好。
+* **加洛法諾**: 唉……真是令人糾結呢。
+* **加洛法諾**: 😖
 </t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve">[加洛法诺抚摸着一匹柔软的面料]
-**加洛法诺**: 我打算用它给您做套睡衣，应该会很合适。
-* **Prompt:** 谢谢，我想那肯定很舒服。
-* **加洛法诺**: 希望它可以给您带来更好的休息。
-* **加洛法诺**: 😉
-* **Prompt:** 会不会太麻烦你了？
-* **加洛法诺**: 怎么会？我甚至希望……能再为您多做一些。
-* **加洛法诺**: 😘
+          <t xml:space="preserve">[加洛法諾撫摸著一匹柔軟的布料]
+**加洛法諾**: 我打算用它來為您做套睡衣，應該會很合適。
+* **Prompt:** 謝謝，我想那肯定很舒服。
+* **加洛法諾**: 希望它可以為您帶來更好的休息品質。
+* **加洛法諾**: 😉
+* **Prompt:** 會不會太麻煩你了？
+* **加洛法諾**: 怎麼會？我甚至希望……能再為您多做一些。
+* **加洛法諾**: 😘
 </t>
         </is>
       </c>
@@ -15176,27 +15176,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">[优利卡整理着旅行社的传单。]
-**优利卡**: 局长，如果你要去旅行的话……你会选哪条路线呢？
-* **Prompt:** 自由时间多的慢游路线吧。
-* **优利卡**: 我也觉得旅行就应该悠悠闲闲的，这样，有了灵感可以随时停下来思考……下次一起去吧！
-* **优利卡**: 😘😘😘
-* **Prompt:** 假期总是不够长，估计只能选特种兵式旅游了。
-* **优利卡**: 对哦……局长总是很忙……嗯，我这里应该有发明可以帮你提高工作效率的，让我来找找……
-* **优利卡**: 😖😖😖
+          <t xml:space="preserve">[優利卡整理著旅行社的傳單。]
+**優利卡**: 局長，如果你要去旅行的話……你會選哪條路線呢？
+* **Prompt:** 自由時間多的慢遊路線吧。
+* **優利卡**: 我也覺得旅行就應該悠悠閒閒的，這樣，有了靈感可以隨時停下來思考……下次一起去吧！
+* **優利卡**: 😘😘😘
+* **Prompt:** 假期總是不夠長，估計只能選特戰隊式旅遊了。
+* **優利卡**: 對哦……局長總是很忙……嗯，我這裡應該有發明可以幫你提高工作效率的，讓我來找找……
+* **優利卡**: 😖😖😖
 </t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve">[优利卡翻看着一本科幻电影杂志。]
-**优利卡**: 这些电影里的道具都看起来好有趣呀……局长，你有没有想要我做出来的电影道具？
-* **Prompt:** 我想要隐身衣。
-* **优利卡**: 唔，组合摄像头和荧幕材料应该可以做出来……啊，但是脸没办法覆盖到诶，效果可能会有点像一颗孤零零的头飘在空中。没关系吗？
-* **优利卡**: 😉😉😉
-* **Prompt:** 我想要激光剑。
-* **优利卡**: 啊！那个确实很有趣！我以前好像做过类似的发明，虽然因为安全原因限制了功率，连鸡蛋都煮不熟……但有着色功能哦。
-* **优利卡**: 😫😫😫
+          <t xml:space="preserve">[優利卡翻看著一本科幻電影雜誌。]
+**優利卡**: 這些電影裡的道具都看起來好有趣呀……局長，你有沒有想要我做出來的電影道具？
+* **Prompt:** 我想要隱身衣。
+* **優利卡**: 唔，組合攝影機和螢幕材料應該可以做出來……啊，但是臉沒辦法覆蓋到耶，效果可能會有點像一顆孤零零的頭飄在空中。沒關係嗎？
+* **優利卡**: 😉😉😉
+* **Prompt:** 我想要鐳射劍。
+* **優利卡**: 啊！那個確實很有趣！我以前好像做過類似的發明，雖然因為安全原因限制了功率，連雞蛋都煮不熟……但有著色功能哦。
+* **優利卡**: 😫😫😫
 </t>
         </is>
       </c>
@@ -15213,27 +15213,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">[蓟神色慌张地合起了写到一半的手账。]
-**蓟**: 你什么时候过来的？怎么还用这种眼神看着我？别过来！我只是在写……写手账而已！
-* **Prompt:** 嗯……我似乎瞥见了我的头像拼贴。
-* **蓟**: 不可能，一定是你眼花了！
-* **蓟**: 😖
-* **Prompt:** 就是有点好奇里面的内容。
-* **蓟**: 哼，记载的都是我最珍贵的东西，才不随便给人看。
-* **蓟**: 😫
+          <t xml:space="preserve">[薊神色慌張地闔上了寫到一半的手帳。]
+**薊**: 你什麼時候過來的？怎麼還用這種眼神看著我？別過來！我只是在寫……寫手帳而已！
+* **Prompt:** 嗯……我似乎瞥見了我的臉的拼貼。
+* **薊**: 不可能，一定是你眼花了！
+* **薊**: 😖
+* **Prompt:** 就是有點好奇裡面的內容。
+* **薊**: 哼，記載的都是我最珍貴的東西，才不隨便給人看。
+* **薊**: 😫
 </t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve">[蓟在管理局操场发现了一只受伤的小流浪猫。]
-**蓟**: 它流了好多血啊，局长，我们可以帮帮它吗？
-* **Prompt:** 可以，那它就托付给你了？
-* **蓟**: 算你有眼光，照顾流浪猫狗我最拿手……咳咳，我就试试，嗯，试试。
-* **蓟**: 😉
-* **Prompt:** 交给医务人员处理吧。
-* **蓟**: ……我会申请每天来探望它的……不是你想的那样，我只是，只是为了确认它死没死……
-* **蓟**: 😖
+          <t xml:space="preserve">[薊在管理局操場發現了一隻受傷的小流浪貓。]
+**薊**: 它流了好多血啊，局長，我們可以幫幫它嗎？
+* **Prompt:** 可以，那它就託付給你了？
+* **薊**: 算你有眼光，照顧流浪貓狗我最拿手……咳咳，我就試試，嗯，試試。
+* **薊**: 😉
+* **Prompt:** 交給醫務人員處理吧。
+* **薊**: ……我會申請每天來探望它的……不是你想的那樣，我只是，只是為了確認它死了沒……
+* **薊**: 😖
 </t>
         </is>
       </c>
@@ -15250,27 +15250,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">[早晨舒鲁玛顶着黑眼圈走出房间。]
-**舒鲁玛**: 早上好，局长。眼睛下面有黑眼圈？昨晚因为写作文睡得有点晚，谢谢你的关心，不用担心我。
-* **Prompt:** 可你昨天的作业里好像不包括作文？
-* **舒鲁玛**: 因为、因为马上要考试了！我想要锻炼自己的写作思辨能力！
-* **舒鲁玛**: 😉😉
-* **Prompt:** 你是指这篇凌晨四点登顶论坛的“作文”吗？
-* **舒鲁玛**: 我没……你这大人真讨厌！好了，我以后会早睡的，你可不要断我的网！
-* **舒鲁玛**: 😖😖
+          <t xml:space="preserve">[早上，舒魯瑪頂著黑眼圈走出房間。]
+**舒魯瑪**: 早安，局長。眼睛下面有黑眼圈？昨晚因為寫作文有點晚睡，謝謝你的關心，不用擔心我。
+* **Prompt:** 但你昨天的作業裡好像不包括作文？
+* **舒魯瑪**: 因為、因為馬上要考試了！我想要訓練自己的寫作思辨能力！
+* **舒魯瑪**: 😉😉
+* **Prompt:** 你是指這篇凌晨四點登頂論壇的「作文」嗎？
+* **舒魯瑪**: 我沒……你這大人真討厭！好了，我以後會早睡的，你千萬不要斷我的網！
+* **舒魯瑪**: 😖😖
 </t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve">[路边的小猫对着靠近的舒鲁玛弓背哈气。]
-**舒鲁玛**: 唉，又是这样……局长，你知道该怎么做才能和小猫亲近吗？
-* **Prompt:** 我选择鱼肉罐头诱惑。
-* **舒鲁玛**: 啊，小猫已经走远了……等下次出门我会记得带上小鱼干的。嗯？你也会帮我带吗？
-* **舒鲁玛**: 😦😫
-* **Prompt:** 我选择毛绒玩偶平替。
-* **舒鲁玛**: 好烂的……局长听错了，我什么也没说啊。刚刚？我觉得应该是风声吧。
-* **舒鲁玛**: 😏😏😏
+          <t xml:space="preserve">[路邊的小貓對著靠近的舒魯瑪弓背哈氣。]
+**舒魯瑪**: 唉，又是這樣……局長，你知道該怎麼做才能和小貓親近嗎？
+* **Prompt:** 我選擇魚肉罐頭誘惑。
+* **舒魯瑪**: 啊，小貓已經走遠了……等下次出門我會記得帶上小魚乾的。嗯？你也會幫我帶嗎？
+* **舒魯瑪**: 😦😫
+* **Prompt:** 我選擇毛絨玩偶代替。
+* **舒魯瑪**: 好爛的……局長聽錯了，我什麼也沒說啊。剛剛？我覺得應該是風聲吧。
+* **舒魯瑪**: 😏😏😏
 </t>
         </is>
       </c>
@@ -15287,26 +15287,26 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve">[普希拉似乎发现你在盯着她]
-**普希拉**: 怎么？对我的面具感兴趣？
-* **Prompt:** 能借我戴一下么？
-* **普希拉**: 要是戴上的话，就算加入我们了哦，你可要想好。
+          <t xml:space="preserve">[普希拉似乎發現你在盯著她]
+**普希拉**: 怎麼？對我的面具感興趣？
+* **Prompt:** 能借我戴一下嗎？
+* **普希拉**: 要是戴上的話，就算加入我們了哦，你可要想清楚。
 * **普希拉**: 😏😏
-* **Prompt:** 泰特拉似乎也有一个很像的。
-* **普希拉**: 啧，你怎么才发现啊。而且，是她抄了我的设计！
+* **Prompt:** 泰特拉似乎也有一個很像的。
+* **普希拉**: 嘖，你怎麼現在才發現啊。而且，是她抄了我的設計！
 * **普希拉**: 😫😫
 </t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve">[普希拉在擦拭着她的道具]
-**普希拉**: 好久没有演出过，有些道具已经落满灰尘了。
-* **Prompt:** 又想去当什么魔术小偷了吗？
-* **普希拉**: 我是正义的侠盗兔！劫富济贫你懂么！
+          <t xml:space="preserve">[普希拉在擦拭著她的道具]
+**普希拉**: 好久沒有演出過，有些道具已經落滿灰塵了。
+* **Prompt:** 又想去當什麼魔術小偷了嗎？
+* **普希拉**: 我是正義的俠盜兔！劫富濟貧你懂嗎！
 * **普希拉**: 😥😖
-* **Prompt:** 所以，你是想要出任务了？
-* **普希拉**: 嗯嗯！舞台和灯光都要准备齐全那种！
+* **Prompt:** 所以，你是想要出任務了？
+* **普希拉**: 嗯嗯！舞台和燈光都要準備齊全那種！
 * **普希拉**: 😉😘😉
 </t>
         </is>
@@ -15324,26 +15324,26 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve">[露莉艾卡在你的办公室里蹦蹦跳跳]
-**露莉艾卡**: 局长——局长——来一起玩游戏吧！
-* **Prompt:** 可以玩，但是能把你的左轮手枪放下么？
-* **露莉艾卡**: 有赌注才有意思嘛！来吧局长，再赌大一点吧！
+          <t xml:space="preserve">[露莉艾卡在你的辦公室裡蹦蹦跳跳]
+**露莉艾卡**: 局長——局長——來一起玩遊戲吧！
+* **Prompt:** 可以玩，但是能把你的左輪手槍放下嗎？
+* **露莉艾卡**: 有賭注才有意思嘛！來吧局長，再賭大一點吧！
 * **露莉艾卡**: 😉😉😉
-* **Prompt:** 话说在先，和运气有关的都不玩。
-* **露莉艾卡**: 啊……为什么啊！露莉不要！快陪我玩！陪我玩！
+* **Prompt:** 話說在先，和運氣有關的都不玩。
+* **露莉艾卡**: 啊……為什麼啊！露莉不要！快陪我玩！陪我玩！
 * **露莉艾卡**: 😖😖😖
 </t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve">[露莉艾卡看上去情绪十分低落]
-**露莉艾卡**: 唉……最近找到的四叶草都是三叶的，露莉的能力是不是失效了啊。
-* **Prompt:** 可是四叶草不都是三叶的么？
-* **露莉艾卡**: 哼，像局长运气这么差的人，这辈子都找不到真正的四叶草！
+          <t xml:space="preserve">[露莉艾卡看起來情緒十分低落]
+**露莉艾卡**: 唉……最近找到的四葉草都是三葉的，露莉的能力是不是失效了啊。
+* **Prompt:** 可是四葉草不都是三葉的嗎？
+* **露莉艾卡**: 哼，像局長運氣這麼差的人，這輩子都找不到真正的四葉草！
 * **露莉艾卡**: 😫😫😫
-* **Prompt:** 我倒是捡到了一枚四叶草徽章，给你。
-* **露莉艾卡**: 哇！这是露莉前几天弄丢的！谢谢局长，果然露莉还是很幸运呢。
+* **Prompt:** 我倒是撿到了一枚四葉草徽章，給你。
+* **露莉艾卡**: 哇！這是露莉前幾天弄丟的！謝謝局長，果然露莉還是很幸運呢。
 * **露莉艾卡**: 😘😘😘
 </t>
         </is>
@@ -15361,25 +15361,25 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve">[狼獾满脸期待地看着你]
-**狼獾**: 我……饿了。
-* **Prompt:** 完成任务，晚餐加肉。
-* **狼獾**: 嗯，一言为定。
+          <t xml:space="preserve">[狼獾滿臉期待地看著你]
+**狼獾**: 我……餓了。
+* **Prompt:** 完成任務，晚餐加肉。
+* **狼獾**: 嗯，一言為定。
 * **狼獾**: 😐
-* **Prompt:** 忍忍，还没到饭点。
-* **狼獾**: ……啧。
+* **Prompt:** 忍忍，還沒到吃飯時間。
+* **狼獾**: ……嘖。
 * **狼獾**: 😐
 </t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve">[狼獾有些手忙脚乱]
-**狼獾**: 阿皮……别乱跑，局长，帮下忙。
-* **Prompt:** （一把抓住阿皮的后颈提起来）
-* **狼獾**: 对它，好一点。
+          <t xml:space="preserve">[狼獾有些手忙腳亂]
+**狼獾**: 阿皮……別亂跑，局長，幫個忙。
+* **Prompt:** （一把抓住阿皮的後頸提起來）
+* **狼獾**: 對它，好一點。
 * **狼獾**: 😐
-* **Prompt:** （抱起阿皮送给狼獾）
+* **Prompt:** （抱起阿皮送給狼獾）
 * **狼獾**: 你……很懂。
 * **狼獾**: 😐
 </t>
@@ -15398,27 +15398,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve">[玛蒂尔达邀你在射击馆见面。]
-**玛蒂尔达**: 局长，关于管理局射击馆的使用规范，我初步拟定了一份大纲，请过目。
-* **Prompt:** 现在的管理规范已经很完善了……
-* **玛蒂尔达**: 不，仍有许多细节需要注意。
-* **玛蒂尔达**: 😐
-* **Prompt:** 我会认真看的。
-* **玛蒂尔达**: 期待您的指正。
-* **玛蒂尔达**: 😐
+          <t xml:space="preserve">[瑪蒂爾達邀你在射擊館見面。]
+**瑪蒂爾達**: 局長，關於管理局射擊館的使用規範，我初步擬定了一份大綱，請過目。
+* **Prompt:** 現在的管理規範已經很完善了……
+* **瑪蒂爾達**: 不，仍有許多細節需要注意。
+* **瑪蒂爾達**: 😐
+* **Prompt:** 我會認真看的。
+* **瑪蒂爾達**: 期待您的指正。
+* **瑪蒂爾達**: 😐
 </t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve">[玛蒂尔达来到你的办公室。]
-**玛蒂尔达**: 局长，在您看来，休息时间做什么事情最有价值？
-* **Prompt:** 休息时间就彻底放松吧……
-* **玛蒂尔达**: 放松也是一种价值吗？
-* **玛蒂尔达**: 😦
-* **Prompt:** 可以试着培养多种兴趣爱好。
-* **玛蒂尔达**: 好，我会把发展兴趣爱好加入计划。
-* **玛蒂尔达**: 😐
+          <t xml:space="preserve">[瑪蒂爾達來到你的辦公室。]
+**瑪蒂爾達**: 局長，在您看來，休息時間做什麼事情最有價值？
+* **Prompt:** 休息時間就徹底放鬆吧……
+* **瑪蒂爾達**: 放鬆也是一種價值嗎？
+* **瑪蒂爾達**: 😦
+* **Prompt:** 可以試著培養多種興趣愛好。
+* **瑪蒂爾達**: 好，我會把發展興趣愛好加入計畫。
+* **瑪蒂爾達**: 😐
 </t>
         </is>
       </c>
@@ -15435,27 +15435,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve">[图书室门禁异常，你发现是烟烟把神话书籍全部取下，其中一本正好卡住了门。 ]
-**烟烟**: 咦？局长你为什么来这里？
-* **Prompt:** 烟烟很喜欢神话吗？
-* **烟烟**: 那当然啦！不同地方的传说故事完全都不一样，嘿嘿，狄斯这边的神话也很有意思的！
-* **烟烟**: 😘😘😘
-* **Prompt:** 记得要把书收拾回去。
-* **烟烟**: 等等等等，我先看完这个故事！
-* **烟烟**: 😫😫
+          <t xml:space="preserve">[圖書室門禁異常，你發現是煙煙把神話書籍全部取下，其中一本正好卡住了門。 ]
+**煙煙**: 咦？局長你為什麼來這裡？
+* **Prompt:** 煙煙很喜歡神話嗎？
+* **煙煙**: 那當然啦！不同地方的傳說故事完全都不一樣，嘿嘿，狄斯這邊的神話也很有意思的！
+* **煙煙**: 😘😘😘
+* **Prompt:** 記得要把書收拾回去。
+* **煙煙**: 等等等等，我先看完這個故事！
+* **煙煙**: 😫😫
 </t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve">[烟烟端着一盘自己做的食物急匆匆地跑进了你的办公室。]
-**烟烟**: 快快快，局长也来尝尝吧？这可是我花了好久才做好的家乡菜！
-* **Prompt:** 好呀，我这就尝尝！
-* **烟烟**: 哼哼，很不错吧，连面都是我亲手揉的哦~
-* **烟烟**: 😘😘😘
-* **Prompt:** 马上，我清空一下桌面。
-* **烟烟**: 那你可得快点儿~哎呀烫烫烫要端不住了！
-* **烟烟**: 😖😖😖
+          <t xml:space="preserve">[煙煙端著一盤自己做的食物急匆匆地跑進了你的辦公室。]
+**煙煙**: 快快快，局長也來嚐嚐吧？這可是我花了好久才做好的家鄉菜！
+* **Prompt:** 好呀，我這就嚐嚐！
+* **煙煙**: 哼哼，很不錯吧，連麵都是我親手揉的哦~
+* **煙煙**: 😘😘😘
+* **Prompt:** 馬上，我清空一下桌面。
+* **煙煙**: 那你要快點啊！唉呀燙燙燙要端不住了！
+* **煙煙**: 😖😖😖
 </t>
         </is>
       </c>
@@ -15472,27 +15472,27 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve">[简对着管理局的安保分布图陷入了思考。]
-**简**: 感觉……还是有些可钻漏洞的地方……
-* **Prompt:** 既然你这么有见解，那可以帮忙提些改进建议吗？
-* **简**: 当然，我会提交一份详细的方案的！
-* **简**: 😉
-* **Prompt:** 你是想尝试一下吗？
-* **简**: 我只是下意识地分析了一下……我绝对没有那个意思。
-* **简**: 😖
+          <t xml:space="preserve">[簡對著管理局的保全分佈圖陷入了思考。]
+**簡**: 感覺……還是有些可鑽漏洞的地方……
+* **Prompt:** 既然你這麼有見解，那可以幫忙提一些改進建議嗎？
+* **簡**: 當然，我會提交一份詳細的方案的！
+* **簡**: 😉
+* **Prompt:** 你是想嘗試一下嗎？
+* **簡**: 我只是下意識地分析了一下……我絕對沒有那個意思。
+* **簡**: 😖
 </t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve">[简来到办公室向你述职。]
-**简**: 您指派的任务我都完成了，请给我接下来的工作安排吧。
-* **Prompt:** 你最近表现不错，可以去和夜莺申请更高难度的任务了，加油啊。
-* **简**: 我不会辜负您的期待的，局长。
-* **简**: 😘
-* **Prompt:** 那陪我去放风区散散步吧。
-* **简**: 这、这也是工作内容之一吗……好的，局长。
-* **简**: 😐
+          <t xml:space="preserve">[簡來到辦公室向你述職。]
+**簡**: 您指派的任務我都完成了，請給我接下來的工作安排吧。
+* **Prompt:** 你最近表現不錯，可以去和夜鶯申請更高難度的任務了，加油啊。
+* **簡**: 我不會辜負您的期待的，局長。
+* **簡**: 😘
+* **Prompt:** 那陪我去放風區散散步吧。
+* **簡**: 這、這也是工作內容之一嗎……好的，局長。
+* **簡**: 😐
 </t>
         </is>
       </c>
@@ -15509,26 +15509,26 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t xml:space="preserve">[派因将一本砖头厚的录音转录文本拍到你手里。]
-**派因**: 我说，你这管理局真该好好整顿了。食材供货的负责人是厨师他对门邻居跟了前妻的儿子，两个人互行方便，很可能在吃采购的回扣，你没发现吗？
-* **Prompt:** 你怎么知道的？
-* **派因**: 窃听对话而已，用我改装的设备还不是轻轻松松？
+          <t xml:space="preserve">[派因將一本磚頭厚的錄音轉錄文本拍到你手裡。]
+**派因**: 我說，你這管理局真該好好整頓了。食材供貨的負責人是廚師他對面鄰居前妻的兒子，兩個人互行方便，很可能在吃採購的回扣，你沒發現嗎？
+* **Prompt:** 你怎麼知道的？
+* **派因**: 竊聽對話而已，用我改裝的設備還不是輕輕鬆鬆？
 * **派因**: 😏
-* **Prompt:** 不要妄下结论。
-* **派因**: ……啧，真温吞，那你慢慢调查核实吧。
+* **Prompt:** 不要妄下結論。
+* **派因**: ……嘖，真溫吞，那你慢慢調查核實吧。
 * **派因**: 😥
 </t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve">[为了保证禁闭者的身体健康，派因被治疗师要求调整饮食结构。]
-**派因**: 真麻烦，吃的东西有什么可讲究的，饿不死不就行了吗？
-* **Prompt:** 至少别天天只吃泡面和零食。
-* **派因**: 那就换罐装能量饮吧，能维持生命体征，还免得烧水了。
+          <t xml:space="preserve">[為了保證禁閉者的身體健康，派因被治療師要求調整飲食結構。]
+**派因**: 真麻煩，吃的東西有什麼可講究的，餓不死不就行了嗎？
+* **Prompt:** 至少別天天只吃泡麵和零食。
+* **派因**: 那就換罐裝能量飲吧，能維持生命體徵，還不用煮熱水了。
 * **派因**: 😐
-* **Prompt:** 可以试试看三明治，做和吃都比较方便。
-* **派因**: 听起来不错，出门还能随身带着。下次我试试。
+* **Prompt:** 可以試試看三明治，做和吃都比較方便。
+* **派因**: 聽起來不錯，出門還能隨身帶著。下次我試試。
 * **派因**: 😏
 </t>
         </is>
@@ -15546,27 +15546,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve">[维多利亚在自己的房间中不住地感叹着]
-**维多利亚**: 啊……这封闭的空间，真是让人感到安心。
-* **Prompt:** 是的，它隔绝了一切对你的威胁。
-* **维多利亚**: 没错……没错……
-* **维多利亚**: 😦
+          <t xml:space="preserve">[維多利亞在自己的房間中不停地感嘆著]
+**維多利亞**: 啊……這封閉的空間，真是讓人感到安心。
+* **Prompt:** 是的，它隔絕了一切對你的威脅。
+* **維多利亞**: 沒錯……沒錯……
+* **維多利亞**: 😦
 * **Prompt:** 你不想逃出去？
-* **维多利亚**: 外面的世界，好危险……
-* **维多利亚**: 😫😫😫
+* **維多利亞**: 外面的世界，好危險……
+* **維多利亞**: 😫😫😫
 </t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve">[你在接到警报后马上赶到了维多利亚的房间]
-**维多利亚**: 我……又流了好多血……该怎么办……
+          <t xml:space="preserve">[你在接到警報後馬上趕到了維多利亞的房間]
+**維多利亞**: 我……又流了好多血……該怎麼辦……
 * **Prompt:** 使用能力就可以止血了。
-* **维多利亚**: 爸爸看到又该生气了……
-* **维多利亚**: 😖😖
-* **Prompt:** 别乱动，我来给你上药。
-* **维多利亚**: 这……就是局长的“爱”吗？
-* **维多利亚**: 😘😘😘
+* **維多利亞**: 爸爸看到的話又要生氣了……
+* **維多利亞**: 😖😖
+* **Prompt:** 別亂動，我來幫你上藥。
+* **維多利亞**: 這……就是局長的「愛」嗎？
+* **維多利亞**: 😘😘😘
 </t>
         </is>
       </c>
@@ -15583,26 +15583,26 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve">[你带了焦糖布丁来找伊格尼]
-**伊格尼**: 你是……特意来见我的？
-* **Prompt:** 是啊，还带了焦糖布丁。
-* **伊格尼**: 哼，哼……少骗人了。还有……我可不会感谢你。
+          <t xml:space="preserve">[你帶了焦糖布丁來找伊格尼]
+**伊格尼**: 你是……特意來見我的？
+* **Prompt:** 是啊，還帶了焦糖布丁。
+* **伊格尼**: 哼，哼……少騙人了。還有……我可不會感謝你。
 * **伊格尼**: 😖😖
-* **Prompt:** 看看你有没有安分一点。
-* **伊格尼**: 我早就不是以前的那个伊格尼了！少瞧不起我！
+* **Prompt:** 看看你有沒有安分一點。
+* **伊格尼**: 我早就不是以前的那個伊格尼了！少瞧不起我！
 * **伊格尼**: 😖😥
 </t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve">[在管理局的厨房里，伊格尼在不住叹气]
-**伊格尼**: 唉……到底该怎么做菜啊。
-* **Prompt:** 你是又烧了厨房么？感觉有开尔文做饭就足够了。
-* **伊格尼**: 你等着！我一定会做好让你看的！
+          <t xml:space="preserve">[在管理局的廚房裡，伊格尼在不停嘆氣]
+**伊格尼**: 唉……到底該怎麼做菜啊。
+* **Prompt:** 你是又燒了廚房嗎？感覺有開爾文做飯就足夠了。
+* **伊格尼**: 你等著！我一定會做好讓你看的！
 * **伊格尼**: 😖😖😖
-* **Prompt:** 我来帮你吧，你打下手，做做冷食就好。
-* **伊格尼**: 也……也不是不行啦。但做完之后我要第一个尝！
+* **Prompt:** 我來幫你吧，你當助手，做做冷食就好。
+* **伊格尼**: 也……也不是不行啦。但做完之後我要第一個嚐！
 * **伊格尼**: 😫😐
 </t>
         </is>
@@ -15620,27 +15620,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t xml:space="preserve">[看上去像是露薇娅]
-**露薇娅·蕾**: 嘘，小点声，蕾现在睡着了……
-* **Prompt:** 你们要是可以一直这样和谐相处就好了。
-* **露薇娅·蕾**: 嘻嘻……其实我们之间的关系还好啦。
-* **露薇娅·蕾**: 😘😘
-* **Prompt:** 那太好了，终于没人和我吵架了。
-* **露薇娅·蕾**: 嘘！别说这个！万一被她听到就不好了！
-* **露薇娅·蕾**: 😫😫
+          <t xml:space="preserve">[看起來像是露薇婭]
+**露薇婭·蕾**: 噓，小聲點，蕾現在睡著了……
+* **Prompt:** 你們要是可以一直這樣和諧相處就好了。
+* **露薇婭·蕾**: 嘻嘻……其實我們之間的關係還可以啦。
+* **露薇婭·蕾**: 😘😘
+* **Prompt:** 那太好了，終於沒人和我吵架了。
+* **露薇婭·蕾**: 噓！別說這個！萬一被她聽到就不好了！
+* **露薇婭·蕾**: 😫😫
 </t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve">[她有些暴躁，看上去像是蕾]
-**露薇娅·蕾**: 我新剧的选角……都是配角。
-* **Prompt:** 那这次去试镜时别忘了去参加任务。
-* **露薇娅·蕾**: 唉……我们会努力的。啊……又是任务。
-* **露薇娅·蕾**: 😘😥
-* **Prompt:** 是金子总有一天会发光的，加油。
-* **露薇娅·蕾**: 嗯，我们会加油的～！总有一天会成功的！
-* **露薇娅·蕾**: 😘😖
+          <t xml:space="preserve">[她有些暴躁，看起來像是蕾]
+**露薇婭·蕾**: 我新劇的選角……都是配角。
+* **Prompt:** 那這次去試鏡時別忘了去參加任務。
+* **露薇婭·蕾**: 唉……我們會努力的。啊……又是任務。
+* **露薇婭·蕾**: 😘😥
+* **Prompt:** 是金子總有一天會發光的，加油。
+* **露薇婭·蕾**: 嗯，我們會加油的～！總有一天會成功的！
+* **露薇婭·蕾**: 😘😖
 </t>
         </is>
       </c>
@@ -15657,26 +15657,26 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t xml:space="preserve">[赫卡蒂向你询问今天的安排]
-**赫卡蒂**: 局长，请给我今天的命令。
+          <t xml:space="preserve">[赫卡蒂向你詢問今天的安排]
+**赫卡蒂**: 局長，請給我今天的命令。
 * **Prompt:** 今天的命令是，好好休息。
 * **赫卡蒂**: 嗯，我明白了。
 * **赫卡蒂**: 😘
-* **Prompt:** 今天暂时还没有适合你的任务。
-* **赫卡蒂**: 没有命令的话……我的存在意义，又是什么呢……
+* **Prompt:** 今天暫時還沒有適合你的任務。
+* **赫卡蒂**: 沒有命令的話……我的存在意義，又是什麼呢……
 * **赫卡蒂**: 😐
 </t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve">[赫卡蒂翻看着过往行动的记录]
-**赫卡蒂**: 如果我消失，还会有下一个赫卡蒂，届时请把我忘掉。
-* **Prompt:** 我会试着习惯的。
-* **赫卡蒂**: 请……不要再顾虑。
+          <t xml:space="preserve">[赫卡蒂翻看著過往行動的記錄]
+**赫卡蒂**: 如果我消失，還會有下一個赫卡蒂，屆時請把我忘掉。
+* **Prompt:** 我會試著習慣的。
+* **赫卡蒂**: 請……不要再顧慮。
 * **赫卡蒂**: 😐
-* **Prompt:** 没有人能替代你。
-* **赫卡蒂**: ……希望这次，悲剧不会再现。
+* **Prompt:** 沒有人能替代你。
+* **赫卡蒂**: ……希望這次，悲劇不會再現。
 * **赫卡蒂**: 😦
 </t>
         </is>
@@ -15694,27 +15694,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve">[奥利弗向你递来一个玩偶]
-**奥利弗**: 局长~来和奥利弗一起玩吧？
-* **Prompt:** 就我们两个人吗？
-* **奥利弗**: 局长要是喜欢热闹的话，奥利弗马上就把房间里的所有玩偶都带过来！
-* **奥利弗**: 😖😖😖
-* **Prompt:** 有重要的工作要处理，你先自己玩吧。
-* **奥利弗**: 唉，也对……局长日理万机，怎么会在意奥利弗小小的请求呢。
-* **奥利弗**: 😦😫
+          <t xml:space="preserve">[奧利弗向你遞來一個玩偶]
+**奧利弗**: 局長~來和奧利弗一起玩吧？
+* **Prompt:** 就我們兩個人嗎？
+* **奧利弗**: 局長要是喜歡熱鬧的話，奧利弗馬上就把房間裡的所有玩偶都帶過來！
+* **奧利弗**: 😖😖😖
+* **Prompt:** 有重要的工作要處理，你先自己玩吧。
+* **奧利弗**: 唉，也對……局長日理萬機，怎麼會在意奧利弗小小的請求呢。
+* **奧利弗**: 😦😫
 </t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve">[奥利弗遍体鳞伤地躺在卧室里]
-**奥利弗**: 局长……好痛……好痛啊……
-* **Prompt:** 你又做什么危险的事了？
-* **奥利弗**: 危、危险的事……那是什么？奥利弗听不懂。
-* **奥利弗**: 😖😖😖
-* **Prompt:** 是谁欺负你了？
-* **奥利弗**: 是，是奥利弗自己不小心摔倒的！大家……都对我很好。
-* **奥利弗**: 😫😖
+          <t xml:space="preserve">[奧利弗遍體鱗傷地躺在臥室裡]
+**奧利弗**: 局長……好痛……好痛啊……
+* **Prompt:** 你又做什麼危險的事了？
+* **奧利弗**: 危、危險的事……那是什麼？奧利弗聽不懂。
+* **奧利弗**: 😖😖😖
+* **Prompt:** 是誰欺負你了？
+* **奧利弗**: 是，是奧利弗自己不小心摔倒的！大家……都對我很好。
+* **奧利弗**: 😫😖
 </t>
         </is>
       </c>
@@ -15731,27 +15731,27 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t xml:space="preserve">[你走出办公室时，拉弥亚非常关切地迎了上来]
-**拉弥亚**: 局长，您看上去很疲惫的样子，是不是需要放松一下？
-* **Prompt:** ……你该不会是想对我用异能吧？
-* **拉弥亚**: 当然不是了！局长您怎么对我这么防备……
-* **拉弥亚**: 😖
-* **Prompt:** 怎么放松？
-* **拉弥亚**: 您可以去泡个澡，温暖的水流有很好的舒缓疲劳的效果哦~
-* **拉弥亚**: 😘
+          <t xml:space="preserve">[你走出辦公室時，拉彌亞一臉關切地走了過來]
+**拉彌亞**: 局長，您看起來很疲憊的樣子，是不是需要放鬆一下？
+* **Prompt:** ……你該不會是想對我用異能吧？
+* **拉彌亞**: 當然不是了！局長您怎麼對我這麼防備……
+* **拉彌亞**: 😖
+* **Prompt:** 怎麼放鬆？
+* **拉彌亞**: 您可以去泡個澡，溫暖的水流有很好的舒緩疲勞的效果哦~
+* **拉彌亞**: 😘
 </t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve">[拉弥亚正在娱乐区观看一部青春校园电影，表情有些疑惑]
-**拉弥亚**: 学生时代到底是什么样子的？为什么那么多人都会怀念那段日子呢？
-* **Prompt:** 大概因为在那段无忧无虑的日子里没有生活的压力吧。
-* **拉弥亚**: 无忧无虑又是什么样的感觉？我好像从来都没有体会过。
-* **拉弥亚**: 😦
-* **Prompt:** 大概是因为很多人都在那个时候收获了最纯粹的感情吧。
-* **拉弥亚**: 纯粹的感情吗……实在很难想象……
-* **拉弥亚**: 😦
+          <t xml:space="preserve">[拉彌亞正在娛樂區觀看一部青春校園電影，表情有些疑惑]
+**拉彌亞**: 學生時代到底是什麼樣子呢？為什麼這麼多人都會懷念那段日子呢？
+* **Prompt:** 大概因為在那段無憂無慮的日子裡沒有生活的壓力吧。
+* **拉彌亞**: 無憂無慮又是什麼樣的感覺？我好像從來都沒有體會過。
+* **拉彌亞**: 😦
+* **Prompt:** 大概是因為很多人都在那個時候得到了最純粹的感情吧。
+* **拉彌亞**: 純粹的感情嗎……實在很難想像……
+* **拉彌亞**: 😦
 </t>
         </is>
       </c>
@@ -15768,26 +15768,26 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve">[艾可聆听着催眠室里常用的几首轻音乐。]
-**艾可**: 哎呀，这些都软绵绵的，实在不够劲。还是艾可的演出录音更适合加进催眠室的歌单，肯定会很好用的~
-* **Prompt:** 不是说你不好，主要是不符合催眠室的主旨。
-* **艾可**: 怎么不符合了？艾可的演奏可是很百搭的~之前在剧院后门表演的时候，还有几个醉汉听完就倒在地上睡着了呢~
+          <t xml:space="preserve">[艾可聆聽著催眠室裡常用的幾首輕音樂。]
+**艾可**: 唉呀，這些都軟綿綿的，實在不夠帶勁。還是艾可的演出錄音更適合加進催眠室的歌單，肯定會很好用的~
+* **Prompt:** 不是說你不好，主要是不符合催眠室的主旨。
+* **艾可**: 怎麼不符合了？艾可的演奏可是很百搭的~之前在劇院後門表演的時候，還有幾個醉漢聽完就倒在地上睡著了呢~
 * **艾可**: 😉😉😉
-* **Prompt:** 我觉得禁闭室更需要你这样优秀的音乐。
-* **艾可**: 唔？禁闭室？是不是进去之后得听完才能出来的小黑屋啊？愿意啊当然愿意啊，只要坚持到听完，他们肯定会被艾可的萨克斯打动的~
+* **Prompt:** 我覺得禁閉室更需要你這樣優秀的音樂。
+* **艾可**: 唔？禁閉室？是不是進去之後得聽完才能出來的小黑屋啊？願意啊當然願意啊，只要堅持到聽完，他們肯定會被艾可的薩克斯風打動的~
 * **艾可**: 😘😘😘
 </t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t xml:space="preserve">[艾可抱着她的萨克斯来到你面前。]
-**艾可**: 今天是个好日子，萨克斯天才的精彩演出开启点歌模式了！来，快说说你想听什么~
-* **Prompt:** 能给我报一下可以选的歌吗？
-* **艾可**: 《我心须臾》、《离家》、《地狱之约》、《危重夜》、《红丹花》……哼哼，可别小看我，只要你想听，我可以背出整本曲谱给你~
+          <t xml:space="preserve">[艾可抱著她的薩克斯風來到你面前。]
+**艾可**: 今天是個好日子，薩克斯風天才的精彩演出開啟點歌模式了！來，快說說你想聽什麼~
+* **Prompt:** 能跟我說一下可以選的歌嗎？
+* **艾可**: 《我心須臾》、《離家》、《地獄之約》、《危重夜》、《紅丹花》……哼哼，不要小看我，只要你想聽，我可以背出整本樂譜給你~
 * **艾可**: 😏😏😏
-* **Prompt:** 我喜欢的比较小众，可能有点难度。
-* **艾可**: 你怎么这么肯定啊，是不是想故意为难我？好哇，艾可接受你的挑战~你想听什么，我现在就查谱子！天才如我，就算现学也肯定能表演得很好~
+* **Prompt:** 我喜歡的比較小眾，可能有點難度。
+* **艾可**: 你怎麼這麼肯定啊，是不是想故意為難我？好哇，艾可接受你的挑戰~你想聽什麼，我現在就查樂譜！天才如我，就算現學也肯定能表演得很好~
 * **艾可**: 😘😘😘
 </t>
         </is>
@@ -15805,27 +15805,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve">[无患子端着一碗热腾腾的中药在办公室门口踌躇。]
-**无患子**: 今日运势极差，不宜见人，但居士每日一剂的汤药可不能就这么停了……不然我在这里架个炉火把药温着？
-* **Prompt:** 没事，我现在出来取吧，谢谢你。
-* **无患子**: 啊……啊！您先别出来！我放下就走了！
-* **无患子**: 😖😖😖
-* **Prompt:** 谢谢你这么辛苦还亲自给我送汤药。
-* **无患子**: 也、也没有辛苦……那我就放门口了，居士等我走远了再拿药吧。
-* **无患子**: 😖😖😖
+          <t xml:space="preserve">[無患子端著一碗熱騰騰的中藥在辦公室門口躊躇。]
+**無患子**: 今日運勢極差，不宜見人，但居士每日一劑的湯藥可不能就這麼停了……不然我在這裡架個爐火煮藥吧？
+* **Prompt:** 沒事，我現在出來拿吧，謝謝你。
+* **無患子**: 啊……啊！您先別出來！我放下就走了！
+* **無患子**: 😖😖😖
+* **Prompt:** 謝謝你這麼辛苦還親自幫我送湯藥。
+* **無患子**: 也、也沒有辛苦……那我就放門口了，居士等我走遠了再拿藥吧。
+* **無患子**: 😖😖😖
 </t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t xml:space="preserve">[无患子正在画新的符纸。]
-**无患子**: 居士，下次可以多进些东洲的黄纸吗？
-* **Prompt:** 要黄纸做什么？
-* **无患子**: 东洲的黄纸烧出的香灰药效会更好一些，可惜量太少，没写几张新的又用完了。
-* **无患子**: 😥😥😥
-* **Prompt:** 答应。
-* **无患子**: 咦……这么爽快？居士此举功德无量！
-* **无患子**: 😉😉😉
+          <t xml:space="preserve">[無患子正在畫新的符紙。]
+**無患子**: 居士，下次可以多進些東洲的黃紙嗎？
+* **Prompt:** 要黃紙做什麼？
+* **無患子**: 東洲的黃紙燒出的香灰藥效會更好一些，可惜量太少，沒寫幾張新的又用完了。
+* **無患子**: 😥😥😥
+* **Prompt:** 答應。
+* **無患子**: 咦……這麼爽快？居士此舉功德無量！
+* **無患子**: 😉😉😉
 </t>
         </is>
       </c>
@@ -15842,27 +15842,27 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve">[艾瑞尔左顾右盼，似乎有些慌张]
-**艾瑞尔**: 大家，为什么总是盯着我看呢……
-* **Prompt:** 可能是你太闪闪发光了吧。
-* **艾瑞尔**: 真……真的么！我会继续加油的！
-* **艾瑞尔**: 😘😘
-* **Prompt:** 可能是斯宾塞家族太有名了吧。
-* **艾瑞尔**: ……唉，优秀的是我的哥哥姐姐，和我无关。
-* **艾瑞尔**: 😐
+          <t xml:space="preserve">[艾瑞爾左顧右盼，似乎有些慌張]
+**艾瑞爾**: 大家，為什麼總是盯著我看呢……
+* **Prompt:** 可能是你太閃閃發光了吧。
+* **艾瑞爾**: 真……真的嗎！我會繼續加油的！
+* **艾瑞爾**: 😘😘
+* **Prompt:** 可能是斯賓塞家族太有名了吧。
+* **艾瑞爾**: ……唉，優秀的是我的哥哥姐姐，和我無關。
+* **艾瑞爾**: 😐
 </t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve">[任务结束后，艾瑞尔特地向你道歉]
-**艾瑞尔**: 我好像……总是在拖大家的后腿……
-* **Prompt:** 继续加油吧。
-* **艾瑞尔**: 对不起……我会，我会加倍努力的！
-* **艾瑞尔**: 😫
-* **Prompt:** 你是大家的力量，别放弃。
-* **艾瑞尔**: 希望大家也不要放开我的手。
-* **艾瑞尔**: 😘
+          <t xml:space="preserve">[任務結束後，艾瑞爾特地向你道歉]
+**艾瑞爾**: 我好像……總是在拖大家的後腿……
+* **Prompt:** 繼續加油吧。
+* **艾瑞爾**: 對不起……我會，我會加倍努力的！
+* **艾瑞爾**: 😫
+* **Prompt:** 你是大家的力量，別放棄。
+* **艾瑞爾**: 希望大家也不要放開我的手。
+* **艾瑞爾**: 😘
 </t>
         </is>
       </c>
@@ -15879,26 +15879,26 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">[你被邀请到卡米利安的私人诊所]
-**卡米利安**: 最近的睡眠质量如何，还需要我的帮助么？
-* **Prompt:** ……等等，我似乎没接受过你的帮助？
-* **卡米利安**: 呵呵，不错的反应。
+          <t xml:space="preserve">[你被邀請到卡米利安的私人診所]
+**卡米利安**: 最近的睡眠品質如何，還需要我的幫助嗎？
+* **Prompt:** ……等等，我似乎沒接受過你的幫助？
+* **卡米利安**: 呵呵，不錯的反應。
 * **卡米利安**: 😉
-* **Prompt:** 不用，我的睡眠质量一直很好。
-* **卡米利安**: 哦，原来是这样么？那再好不过。
+* **Prompt:** 不用，我的睡眠品質一直很好。
+* **卡米利安**: 哦，原來是這樣嗎？那再好不過。
 * **卡米利安**: 😘
 </t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve">[卡米利安一边写着病例一边叹气]
-**卡米利安**: 最近找我看病的人突然变多了，你有什么头绪？
-* **Prompt:** 可能是最近的任务压力太大了吧？
-* **卡米利安**: 呵，这可不见得。
+          <t xml:space="preserve">[卡米利安一邊寫著病例一邊嘆氣]
+**卡米利安**: 最近找我看病的人突然變多了，你有什麼頭緒？
+* **Prompt:** 可能是最近的任務壓力太大了吧？
+* **卡米利安**: 呵，這可不見得。
 * **卡米利安**: 😏
-* **Prompt:** 可能大家对你的心理治疗都很满意。
-* **卡米利安**: ……大家心中的猛兽，都开始苏醒了呢。
+* **Prompt:** 可能大家對你的心理治療都很滿意。
+* **卡米利安**: ……大家心中的猛獸，都開始甦醒了呢。
 * **卡米利安**: 😘
 </t>
         </is>
@@ -15916,26 +15916,26 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve">[安看着以前的照片，有感而发]
-**安**: 小孩子真可爱啊……又天真，又善良。
-* **Prompt:** 你守护了很多小天使？
-* **安**: 当然，我感觉有他们在的地方就是天堂。
+          <t xml:space="preserve">[安看著以前的照片，有感而發]
+**安**: 小孩子真可愛啊……又天真，又善良。
+* **Prompt:** 你守護了很多小天使？
+* **安**: 當然，我感覺有他們在的地方就是天堂。
 * **安**: 😘😘😘
-* **Prompt:** 他们捣乱的时候一点都不可爱。
-* **安**: 这是每个小孩子都会经历的阶段，不要和他们置气。
+* **Prompt:** 他們搗亂的時候一點都不可愛。
+* **安**: 這是每個小孩子都會經歷的階段，不要和他們賭氣。
 * **安**: 😖
 </t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve">[患者的情况并不理想，安有些慌张]
-**安**: 有些患者的情况开始恶化了，彼岸诊所那时也是这样……
-* **Prompt:** 这次一定会成功的。
-* **安**: 可……那时……我什么都没有做到。
+          <t xml:space="preserve">[患者的情況並不理想，安有些慌張]
+**安**: 有些患者的情況開始惡化了，彼岸診所那時也是這樣……
+* **Prompt:** 這次一定會成功的。
+* **安**: 但……那時……我什麼都沒有做到。
 * **安**: 😖
-* **Prompt:** 你现在可以做到更多，我也会帮你的。
-* **安**: 嗯……谢谢局长，我会尽力而为的！
+* **Prompt:** 你現在可以做到更多，我也會幫你的。
+* **安**: 嗯……謝謝局長，我會盡力而為的！
 * **安**: 😘😘
 </t>
         </is>
@@ -15953,27 +15953,27 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve">[福克斯先生在你的面前点钞]
-**福克斯先生**: 最近赢了很多官司，进账不错。
-* **Prompt:** 建议你把它们都换成电子货币，这样更方便。
-* **福克斯先生**: 不错的想法，不过你该不会监视我的账号吧？
-* **福克斯先生**: 😏
-* **Prompt:** 当然，但请你不要在我的办公桌上数钱。
-* **福克斯先生**: 哦？可没有任何一条法律像这样约束过我的行为。
-* **福克斯先生**: 😉
+          <t xml:space="preserve">[Mr.Fox在你的面前點鈔]
+**Mr.Fox**: 最近贏了很多官司，進帳不錯。
+* **Prompt:** 建議你把它們都換成電子貨幣，這樣更方便。
+* **Mr.Fox**: 不錯的想法，不過你該不會監視我的帳號吧？
+* **Mr.Fox**: 😏
+* **Prompt:** 當然，但請你不要在我的辦公桌上數錢。
+* **Mr.Fox**: 哦？並沒有任何一條法律像這樣約束過我的行為。
+* **Mr.Fox**: 😉
 </t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve">[福克斯先生叹了一口气]
-**福克斯先生**: 最近来找我的辩护的案子，都是我不想接的。
-* **Prompt:** 你还能有不想接的案子？是因为他们给的太少？
-* **福克斯先生**: 哈……当然有比钱更重要的东西。
-* **福克斯先生**: 😥
-* **Prompt:** 既然不想接，就留在这里看我工作。
-* **福克斯先生**: 行吧……也算是个消磨时间的好方法。
-* **福克斯先生**: 😐
+          <t xml:space="preserve">[Mr.Fox嘆了一口氣]
+**Mr.Fox**: 最近來找我的辯護的案子，都是我不想接的。
+* **Prompt:** 你還會有不想接的案子？是因為他們給的太少？
+* **Mr.Fox**: 哈……當然有比錢更重要的東西。
+* **Mr.Fox**: 😥
+* **Prompt:** 既然不想接，就留在這裡看我工作。
+* **Mr.Fox**: 好吧……也算是個消磨時間的好方法。
+* **Mr.Fox**: 😐
 </t>
         </is>
       </c>
@@ -15990,26 +15990,26 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve">[嘟嘟端着满满一盘子的炸猪排从厨房里走出来]
-**嘟嘟**: 啊，老板，你也是来找宵夜吃的吗？
-* **Prompt:** 是的，刚刚出完任务回来有些饿了。
-* **嘟嘟**: 今天的炸猪排味道还不错，我去给你也拿几块。
+          <t xml:space="preserve">[嘟嘟端著滿滿一盤炸豬排從廚房裡走出來]
+**嘟嘟**: 啊，老闆，你也是來找宵夜吃的嗎？
+* **Prompt:** 是的，剛剛出完任務回來有些餓了。
+* **嘟嘟**: 今天的炸豬排味道還不錯，我也去幫你拿幾塊。
 * **嘟嘟**: 😉
-* **Prompt:** 不，我只是路过。
-* **嘟嘟**: 那你看着我吃吧，说不定看着看着就饿了。
+* **Prompt:** 不，我只是路過。
+* **嘟嘟**: 那你看著我吃吧，說不定看著看著就餓了。
 * **嘟嘟**: 😏
 </t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve">[嘟嘟大声宣传着她的唢呐培训班]
-**嘟嘟**: 走过路过不要错过！前二十位学员学费减半啦——哎，那边的老板，别走呀，要不要跟着我学唢呐？
-* **Prompt:** 有多少人报名了？
-* **嘟嘟**: 这不是都在等着你先来做表率嘛？来来来，给你折上折！
+          <t xml:space="preserve">[嘟嘟大聲宣傳著她的嗩吶培訓班]
+**嘟嘟**: 走過路過千萬不要錯過！前二十位學員學費減半啦——欸，那邊的老闆，別走呀，要不要跟著我學嗩吶？
+* **Prompt:** 有多少人報名了？
+* **嘟嘟**: 這不是都在等著你先來做表率嗎？來來來，幫你打折再打折！
 * **嘟嘟**: 😘
-* **Prompt:** 我挺忙的。
-* **嘟嘟**: 太无情了！作为一位合格的老板你应该支持我的事业！
+* **Prompt:** 我有點忙。
+* **嘟嘟**: 太無情了！作為一位合格的老闆你應該支持我的事業！
 * **嘟嘟**: 😖
 </t>
         </is>
@@ -16027,27 +16027,27 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve">[莱塔偷偷地溜进你的房间]
-**莱塔**: 局长局长，我又发现了新的冒险地点！
-* **Prompt:** 等我做完这份工作就陪你去。
-* **莱塔**: 嘿嘿，快点啦，这次的冒险肯定更刺激~
-* **莱塔**: 😘
-* **Prompt:** 下次进来前记得敲门。
-* **莱塔**: 唔，下次一定，下次一定……
-* **莱塔**: 😖
+          <t xml:space="preserve">[萊塔偷偷地溜進你的房間]
+**萊塔**: 局長局長，我又發現了新的冒險地點！
+* **Prompt:** 等我做完這份工作就陪你去。
+* **萊塔**: 嘿嘿，快點啦，這次的冒險肯定更刺激~
+* **萊塔**: 😘
+* **Prompt:** 下次進來前記得敲門。
+* **萊塔**: 唔，下次一定，下次一定……
+* **萊塔**: 😖
 </t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve">[莱塔被你抓到偷偷跑出来玩]
-**莱塔**: 唔呣……我怎么，突然站在这里了……
-* **Prompt:** ……看来得把管理局的墙再加厚几厘米。
-* **莱塔**: 别、别这样嘛，下次出来玩一定带你一起！
-* **莱塔**: 😖😖😖
-* **Prompt:** ……算了，跟我回去吧，下不为例。
-* **莱塔**: 嘿嘿，局长最好了……
-* **莱塔**: 😉😉
+          <t xml:space="preserve">[萊塔被你抓到偷偷跑出來玩]
+**萊塔**: 唔呣……我怎麼，突然站在這裡了……
+* **Prompt:** ……看來得把管理局的牆再加厚幾公分。
+* **萊塔**: 別、別這樣嘛，下次出去玩一定會找你一起！
+* **萊塔**: 😖😖😖
+* **Prompt:** ……算了，跟我回去吧，下不為例。
+* **萊塔**: 嘿嘿，局長最好了……
+* **萊塔**: 😉😉
 </t>
         </is>
       </c>
@@ -16064,27 +16064,27 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve">[卡西娅在娱乐区浏览着香评网站。]
-**卡西娅**: 香水的味道越来越复杂，越来越工业化，都快把纯粹的味道覆盖掉了……就连感悟评论，也充斥着难闻的工业气息……
-* **Prompt:** 每个人对香水的喜好和评价都是不同的，不用在意这些。
-* **卡西娅**: 真可怜……希望他们有幸能闻到世界上最纯粹的味道，嗯~
-* **卡西娅**: 😫
-* **Prompt:** 是在评价你的香水吗？你的香水应该已经不流通了，或许是假货。
-* **卡西娅**: 即便能复刻出我所制作的香水的味道，他们自身散发出来的，应该也是恶劣的臭味吧。
-* **卡西娅**: 😥
+          <t xml:space="preserve">[卡西婭在娛樂區瀏覽著香水評論網站。]
+**卡西婭**: 香水的味道越來越複雜，越來越工業化，都快把純粹的味道覆蓋掉了……就連感悟評論，也充斥著難聞的工業氣息……
+* **Prompt:** 每個人對香水的喜好和評價都是不同的，不用在意這些。
+* **卡西婭**: 真可憐……希望他們有幸能聞到世界上最純粹的味道，嗯~
+* **卡西婭**: 😫
+* **Prompt:** 是在評價你的香水嗎？你的香水應該已經不在市面上流通了，或許是假貨。
+* **卡西婭**: 即便能復刻出我所製作的香水的味道，他們自身散發出來的，應該也是惡劣的臭味吧。
+* **卡西婭**: 😥
 </t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve">[卡西娅又收到了选美大赛的评委邀请函。]
-**卡西娅**: 要想让我分辨谁才是最顶级的香料……咳，最顶级的美人，我必须要去到现场……
-* **Prompt:** 我明白了，我陪你去。
-* **卡西娅**: 那我想，最终的冠军应该会是你~
-* **卡西娅**: 😏😏
-* **Prompt:** 你上次贴遍了后台所有选手，他们还愿意请你去？
-* **卡西娅**: 那是因为主办方知道得很清楚，我选出的名次才最能服众……
-* **卡西娅**: 😉
+          <t xml:space="preserve">[卡西婭又收到了選美大賽的評審邀請函。]
+**卡西婭**: 要想讓我分辨誰才是最頂級的香料……咳，最頂級的美人，我必須要去到現場……
+* **Prompt:** 我知道了，我陪你去。
+* **卡西婭**: 那我想，最終的冠軍應該會是你~
+* **卡西婭**: 😏😏
+* **Prompt:** 你上次罵翻後台所有選手，他們還願意請你去？
+* **卡西婭**: 那是因為主辦方知道得很清楚，我選出的名次才最能服眾……
+* **卡西婭**: 😉
 </t>
         </is>
       </c>
@@ -16101,26 +16101,26 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve">[肖恩又开始频繁注意自己的手机并在每次来消息时迅速回复。]
-**肖恩**: “千万别这样想，甜心，是他们没有品味，才这样不珍惜你。”……呼，总算安慰好了。没想到管理局内网里，也有这么多渴求着一份爱的人。
-* **Prompt:** 直线距离这么近，需要网恋吗。
-* **肖恩**: 隔着网线和屏幕传递的爱，有它独特的味道。它更纯粹，更不受限制……你要来试试吗？
+          <t xml:space="preserve">[肖恩又開始頻繁注意自己的手機並在每次有訊息時迅速回覆。]
+**肖恩**: 「千萬別這樣想，甜心，是他們沒有品味，才這樣不珍惜你。」……呼，總算安慰好了。沒想到管理局內網裡，也有這麼多渴求著一份愛的人。
+* **Prompt:** 直線距離這麼近，需要網戀嗎。
+* **肖恩**: 隔著網路線和螢幕傳遞的愛，有它獨特的味道。它更純粹，更不受限制……你要來試試嗎？
 * **肖恩**: 😘
-* **Prompt:** 直线距离这么近，不怕被真人快打吗。
-* **肖恩**: 一份真挚的爱，不会闹到那种丑陋不堪的地步。而且如果这能让对方开心……我十分愿意奉献自己。
+* **Prompt:** 直線距離這麼近，不怕被真人快打嗎。
+* **肖恩**: 一份真摯的愛，不會鬧到那種醜陋不堪的地步。而且如果這能讓對方開心……我十分願意奉獻自己。
 * **肖恩**: 😉
 </t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve">[肖恩面对刷新多少次都会出现在终端上的断网通知似乎十分暴躁。]
-**肖恩**: 不是说下午三点恢复吗？怎么还没有动静？这样难道不会影响管理局的正常运作吗？
-* **Prompt:** 难得你这么关心管理局的正常工作
-* **肖恩**: 那可是你每天要面对的事，我当然也会放在心上了，不用太感动。
+          <t xml:space="preserve">[肖恩面對無論重新整理多少次都會出現在裝置上的網路斷線通知似乎十分暴躁。]
+**肖恩**: 不是說下午三點恢復嗎？怎麼還沒有動靜？這樣難道不會影響管理局的正常運作嗎？
+* **Prompt:** 難得你這麼關心管理局的正常工作
+* **肖恩**: 那是你每天要面對的事，我當然也會放在心上了，不用太感動。
 * **肖恩**: 😏
-* **Prompt:** 延长维护2小时的报告早就贴在食堂了
-* **肖恩**: 线下通知？居然没有人拍照上传到内网论坛吗？啊对，断网了……可恶……
+* **Prompt:** 延長維護2小時的報告早就貼在食堂了
+* **肖恩**: 線下通知？居然沒有人拍照上傳到內網論壇嗎？啊對，網路斷線了……可惡……
 * **肖恩**: 😖
 </t>
         </is>
@@ -16138,27 +16138,27 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve">[泽斐尔充满兴趣地刷着关于家庭精酿吧的网络新闻。]
-**泽斐尔**: 家庭精酿吧！听起来好有意思，去陌生人的家里喝一杯，听一个故事，然后走掉，所有人都不会再相见！因为大家都不认识，所以根本不用拘束！
-* **Prompt:** 让陌生人来家里不会有安全隐患吗？
-* **泽斐尔**: 要是发现对方是坏蛋，就直接逃呀！跳窗，或者把门板踹开，顺着楼梯扶手滑下去！那也很爽！
-* **泽斐尔**: 😉😉😉
-* **Prompt:** 喝陌生人提供的饮料不会有食品安全问题吗？
-* **泽斐尔**: 哎呀，喝到吐也是常规操作嘛，还能差到哪里去？重要的是享受那个过程~
-* **泽斐尔**: 😘😘😘
+          <t xml:space="preserve">[澤斐爾充滿興趣地瀏覽著關於家庭精釀酒吧的網路新聞。]
+**澤斐爾**: 家庭精釀吧！聽起來好有趣，去陌生人的家裡喝一杯，聽一個故事，然後走掉，所有人都不會再相見！因為大家都不認識，所以根本不用拘束！
+* **Prompt:** 讓陌生人來家裡不會有安全隱患嗎？
+* **澤斐爾**: 要是發現對方是壞蛋，就直接逃呀！跳窗，或者把門板踹開，順著樓梯扶手滑下去！那也很爽！
+* **澤斐爾**: 😉😉😉
+* **Prompt:** 喝陌生人提供的飲料不會有食品安全問題嗎？
+* **澤斐爾**: 唉呀，喝到吐也是正常發揮嘛，還能差到哪裡去？重要的是享受那個過程~
+* **澤斐爾**: 😘😘😘
 </t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t xml:space="preserve">[泽斐尔在禁闭室门后无聊地晃着腿。]
-**泽斐尔**: 哎呀——都说了我不是想逃走嘛——我只是好奇围墙后面是什么而已，这不也帮你测了下围墙安全性嘛——放我出来啦——
-* **Prompt:** 那你继续帮忙测下禁闭室的封闭性吧
-* **泽斐尔**: 这可是你说的，那我就继续努力了！看我干扰干扰这边的监控——
-* **泽斐尔**: 😏😏😏
-* **Prompt:** 嗯，那部分已经给你抵掉3天禁闭室时长了
-* **泽斐尔**: 啊？这已经是抵扣后的？论功行赏不要这么小气嘛，直接抹平不就好了！
-* **泽斐尔**: 😖😖😖
+          <t xml:space="preserve">[澤斐爾在禁閉室門後無聊地晃著腿。]
+**澤斐爾**: 唉呀——都說了我不是想逃走嘛——我只是好奇圍牆後面是什麼而已，這不也幫你測了下圍牆安全性嘛——放我出來啦——
+* **Prompt:** 那你繼續幫忙測試禁閉室的封閉性吧
+* **澤斐爾**: 這可是你說的，那我就繼續努力了！看我干擾干擾這邊的監視器——
+* **澤斐爾**: 😏😏😏
+* **Prompt:** 嗯，那部分已經抵掉你3天禁閉室時長了
+* **澤斐爾**: 啊？這已經是折抵後的？論功行賞不要這麼小氣嘛，直接抹平不就好了！
+* **澤斐爾**: 😖😖😖
 </t>
         </is>
       </c>
@@ -16175,27 +16175,27 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t xml:space="preserve">[蔻蔻在你的办公室等待指令]
-**蔻蔻**: 有什么我能帮你做的事情么？
-* **Prompt:** 锈河的任务缺一个人，去么？
-* **蔻蔻**: 这样也不错……出发吧。
-* **蔻蔻**: 😉
-* **Prompt:** ……没有。
-* **蔻蔻**: 我这是……要失业了么？
-* **蔻蔻**: 😥
+          <t xml:space="preserve">[K.K.在你的辦公室等待指令]
+**K.K.**: 有什麼我能幫你做的事情嗎？
+* **Prompt:** 鏽河的任務缺一個人，去嗎？
+* **K.K.**: 這樣也不錯……出發吧。
+* **K.K.**: 😉
+* **Prompt:** ……沒有。
+* **K.K.**: 我這是……要失業了嗎？
+* **K.K.**: 😥
 </t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve">[蔻蔻向你询问自己以前的搭档]
-**蔻蔻**: 白逸那家伙呢？怎么又不见了？
-* **Prompt:** 是有完不成的任务了么？
-* **蔻蔻**: 啧，用不着她出手。
-* **蔻蔻**: 😐
-* **Prompt:** 大概在地下室里摸鱼吧。
-* **蔻蔻**: 唉，毕竟是那个白逸啊，这下预算可怎么办……
-* **蔻蔻**: 😫
+          <t xml:space="preserve">[K.K.向你詢問自己以前的搭檔]
+**K.K.**: 白逸那傢伙呢？怎麼又不見了？
+* **Prompt:** 是有無法完成的任務了嗎？
+* **K.K.**: 嘖，用不著她出手。
+* **K.K.**: 😐
+* **Prompt:** 大概在地下室裡摸魚吧。
+* **K.K.**: 唉，畢竟是那個白逸啊，這下預算可怎麼辦……
+* **K.K.**: 😫
 </t>
         </is>
       </c>
@@ -16212,26 +16212,26 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve">[结束任务后，德莫莉开始安排余下的时间]
-**德莫莉**: 今天做点什么活动好呢？来点推荐吧局长。
-* **Prompt:** 来下棋吧。
-* **德莫莉**: 哦！好主意！我们来玩狄斯战棋吧！
+          <t xml:space="preserve">[結束任務後，德莫莉開始安排餘下的時間]
+**德莫莉**: 今天做點什麼活動好呢？來點推薦吧局長。
+* **Prompt:** 來下棋吧。
+* **德莫莉**: 哦！好主意！我們來玩狄斯戰棋吧！
 * **德莫莉**: 😉😏
-* **Prompt:** 来学习吧。
-* **德莫莉**: 啊——不要！就算要把我丢到锈河执行任务，我都不去学习！
+* **Prompt:** 來唸書吧。
+* **德莫莉**: 啊——不要！就算要把我丟到鏽河執行任務，我都不想唸書！
 * **德莫莉**: 😖😖😖
 </t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve">[德莫莉在数着她的收藏品]
-**德莫莉**: 要来支援一下我的收藏么，局长？
-* **Prompt:** 管理局的那些建材还剩了一些，有些材质还不错。
-* **德莫莉**: 哎呀，是那种珍贵一点的！不是这种！
+          <t xml:space="preserve">[德莫莉在數著她的收藏品]
+**德莫莉**: 要來支援一下我的收藏嗎，局長？
+* **Prompt:** 管理局的那些建材還剩了一些，有些材質還不錯。
+* **德莫莉**: 唉呀，是那種珍貴一點的！不是這種！
 * **德莫莉**: 😦😦
-* **Prompt:** 嗯……前一阵子捡到的决斗头巾如何？
-* **德莫莉**: 哇……看起来有点老旧，戴上之后却意外地有些帅气！
+* **Prompt:** 嗯……前一陣子撿到的決鬥頭巾如何？
+* **德莫莉**: 哇……看起來有點老舊，戴上之後卻意外地有些帥氣！
 * **德莫莉**: 😐😉
 </t>
         </is>
@@ -16249,26 +16249,26 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve">[佩姬飞快地写着歌词]
-**佩姬**: 呦，这不是局长么？怎么，想听说唱？
-* **Prompt:** 当然，今天有什么新作么。
-* **佩姬**: 哈！新作，那不是天天都有？先给你唱点经典的。这是辛迪加的Rap浪子，你谁长这副呆头样子……
+          <t xml:space="preserve">[佩姬飛快地寫著歌詞]
+**佩姬**: 呦，這不是局長嗎？怎麼，想聽說唱？
+* **Prompt:** 當然，今天有什麼新作嗎。
+* **佩姬**: 哈！新作，那不是天天都有？先給你唱點經典的。這是辛迪加的Rap浪子，你誰長這副呆頭樣子……
 * **佩姬**: 😘😦
-* **Prompt:** 不是，是有人投诉你的歌不够说唱。
-* **佩姬**: 让他们滚！他们懂个锤子的说唱！
+* **Prompt:** 不是，是有人投訴你的歌不夠說唱。
+* **佩姬**: 讓他們滾！他們懂個錘子的說唱！
 * **佩姬**: 😥
 </t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve">[佩姬一脸不爽地踢着房间里的杂物]
-**佩姬**: 不是说好要给我整个调音台吗？东西呢？
-* **Prompt:** 采购办已经把这件事提上日程了。
-* **佩姬**: 唉……真**的窝囊！我一代说唱巨星，就没受过这气！
+          <t xml:space="preserve">[佩姬一臉不爽地踢著房間裡的雜物]
+**佩姬**: 不是說好要幫我弄個調音台嗎？東西呢？
+* **Prompt:** 採購部已經把這件事加進行事曆了。
+* **佩姬**: 唉……真**的窩囊！我一代說唱巨星，就沒受過這氣！
 * **佩姬**: 😐😐
-* **Prompt:** 我去帮你借琼的调音台。
-* **佩姬**: 别！那个太复杂了，我用不明白！唉……还得是我这录音机。
+* **Prompt:** 我去幫你借瓊的調音台。
+* **佩姬**: 別！那個太複雜了，我用不明白！唉……還得是我這答錄機。
 * **佩姬**: 😐
 </t>
         </is>
@@ -16286,26 +16286,26 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve">[完成任务的海拉直接躺在你的办公室地板上]
-**海拉**: 啊——有没有给我准备犒劳品啊？最好是狄斯币。
-* **Prompt:** 采购办的零食吃么？只有这个。
-* **海拉**: 嘿嘿，算你识相。下次多带一点啊。
+          <t xml:space="preserve">[完成任務的海拉直接躺在你的辦公室地板上]
+**海拉**: 啊——有沒有給我準備犒勞品啊？最好是狄斯幣。
+* **Prompt:** 採購部的零食吃嗎？只有這個。
+* **海拉**: 嘿嘿，算你識相。下次多帶一點啊。
 * **海拉**: 😘😘😘
-* **Prompt:** 没有，要是你完成任务的话可以考虑一下。
-* **海拉**: 啊——一个管理局局长怎么这么嚣张？做完任务你可别赖账！
+* **Prompt:** 沒有，要是你完成任務的話可以考慮一下。
+* **海拉**: 啊——一個管理局局長怎麼這麼囂張？做完任務你可別賴帳！
 * **海拉**: 😐
 </t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve">[看到你后，海拉表现得很惊讶]
-**海拉**: 啧，是九十九那家伙告诉你我躲在这的？
-* **Prompt:** 是啊，她直接告诉我了。
-* **海拉**: 你少骗人！九十九才不会背叛我。
+          <t xml:space="preserve">[看到你後，海拉表現得很驚訝]
+**海拉**: 嘖，是九十九那傢伙告訴你我躲在這的？
+* **Prompt:** 是啊，她直接告訴我了。
+* **海拉**: 你少騙人！九十九才不會背叛我。
 * **海拉**: 😥😥
 * **Prompt:** 是我自己找到你的。
-* **海拉**: 哼，你现在……还有点厉害嘛。
+* **海拉**: 哼，你現在……還有點厲害嘛。
 * **海拉**: 😉😉
 </t>
         </is>
@@ -16323,26 +16323,26 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve">[澈揉了揉眼睛，似乎刚睡醒]
-**澈**: 怎么？你也来这偷懒？
-* **Prompt:** 倒不是偷懒，只是想找个地方静静。
-* **澈**: 巧了，我也是这么告诉我自己的。
+          <t xml:space="preserve">[澈揉了揉眼睛，似乎剛睡醒]
+**澈**: 怎麼？你也來這偷懶？
+* **Prompt:** 倒不是偷懶，只是想找個地方靜靜。
+* **澈**: 巧了，我也是這麼告訴我自己的。
 * **澈**: 😐
-* **Prompt:** 我只是来找点东西，没想到居然还找到个人。
-* **澈**: 啊，这样，那顺便把我一起也扔出去吧。
+* **Prompt:** 我只是來找點東西，沒想到居然還找到個人。
+* **澈**: 啊，這樣，那順便把我一起也扔出去吧。
 * **澈**: 😦
 </t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t xml:space="preserve">[澈看着你，似乎有些不解]
-**澈**: 你成天和我们这群禁闭者混在一块，有意思么？
-* **Prompt:** 工作就是工作，谈不上有意思没意思。
-* **澈**: 啊哈，真是冷酷无情的局长啊。
+          <t xml:space="preserve">[澈看著你，似乎有些不解]
+**澈**: 你成天和我們這群禁閉者混在一塊，好玩嗎？
+* **Prompt:** 工作就是工作，談不上有趣或無聊。
+* **澈**: 啊哈，真是冷酷無情的局長啊。
 * **澈**: 😥
-* **Prompt:** 还好吧，至少每天不会无聊。
-* **澈**: 确实不会无聊，要是能让我少干点活就更好了。
+* **Prompt:** 還好吧，至少每天不會無聊。
+* **澈**: 確實不會無聊，要是能讓我少幹點活就更好了。
 * **澈**: 😐
 </t>
         </is>
@@ -16360,26 +16360,26 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve">[胡椒兴冲冲地跑进了你的办公室]
-**胡椒**: 局长，我今天想做坏事！有什么建议么？
-* **Prompt:** 哎，今天不知道哪个坏蛋去采购办拿了一罐可乐！
-* **胡椒**: 哦？这个点子不错！
+          <t xml:space="preserve">[胡椒興沖沖地跑進了你的辦公室]
+**胡椒**: 局長，我今天想做壞事！有什麼建議嗎？
+* **Prompt:** 唉，今天不知道哪個壞蛋去採購部拿了一罐可樂！
+* **胡椒**: 哦？這個點子不錯！
 * **胡椒**: 😏😉
-* **Prompt:** 你给我老实待着。
-* **胡椒**: 唉……真没意思，在这都要发霉了。
+* **Prompt:** 你給我老實待著。
+* **胡椒**: 唉……真沒意思，在這都要發黴了。
 * **胡椒**: 😫😫😫
 </t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t xml:space="preserve">[胡椒很消沉地站在管理局的操场上]
-**胡椒**: 做任务还不如种地有意思……
-* **Prompt:** 去辛迪加出任务顺便探险不行么？
-* **胡椒**: 啊——不想去……我就想种地！
+          <t xml:space="preserve">[胡椒很消沉地站在管理局的操場上]
+**胡椒**: 做任務還不如種地有趣……
+* **Prompt:** 去辛迪加出任務順便探險不行嗎？
+* **胡椒**: 啊——不想去……我就想種地！
 * **胡椒**: 😫
-* **Prompt:** 去后院吧，没准还能遇到芙洛拉帮你浇水。
-* **胡椒**: 可以么！谢谢局长！
+* **Prompt:** 去後院吧，說不定還能遇到芙洛拉幫你澆水。
+* **胡椒**: 可以嗎！謝謝局長！
 * **胡椒**: 😘😘
 </t>
         </is>
@@ -16397,26 +16397,26 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve">[雷比尼斯似乎早早在办公室里等候着你]
-**雷比尼斯**: 发现局长，等待进程。
-* **Prompt:** 先执行清扫进程，完成后再进入家用模式。
-* **雷比尼斯**: 收到，雷比尼斯，准备执行进程。
+          <t xml:space="preserve">[雷比尼斯似乎早早在辦公室裡等候著你]
+**雷比尼斯**: 發現局長，等待進程。
+* **Prompt:** 先執行清掃程序，完成後再進入家用模式。
+* **雷比尼斯**: 收到，雷比尼斯，準備執行進程。
 * **雷比尼斯**: 😉
-* **Prompt:** 可以直接切换到可爱插件么？
-* **雷比尼斯**: 系统拒绝请求。提示：需循序渐进。
+* **Prompt:** 可以直接切換到可愛外掛程式嗎？
+* **雷比尼斯**: 系統拒絕請求。提示：需循序漸進。
 * **雷比尼斯**: 😐
 </t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t xml:space="preserve">[雷比尼斯在打扫管理局的卫生]
-**雷比尼斯**: 局长，请不要在这里干扰雷比尼斯的工作。
-* **Prompt:** 你原来可以正常和我交流的么？
-* **雷比尼斯**: 战斗形态，准备启动。
+          <t xml:space="preserve">[雷比尼斯在打掃管理局的衛生]
+**雷比尼斯**: 局長，請不要在這裡干擾雷比尼斯的工作。
+* **Prompt:** 你原來可以正常和我交流的嗎？
+* **雷比尼斯**: 戰鬥形態，準備啟動。
 * **雷比尼斯**: 😥😥
-* **Prompt:** 请雷比尼斯给我倒一杯茶。
-* **雷比尼斯**: 雷比尼斯，收到。当前感情：愉快。
+* **Prompt:** 請雷比尼斯幫我倒一杯茶。
+* **雷比尼斯**: 雷比尼斯，收到。當前感情：愉快。
 * **雷比尼斯**: 😘😘😘
 </t>
         </is>
@@ -16434,27 +16434,27 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve">[昙在擦拭着她的匕首]
-**昙**: 下次的对手……是谁呢……
-* **Prompt:** 我会为你安排合适的对手的。
-* **昙**: 我好期待啊……嘿嘿……
-* **昙**: 😘😘😘
-* **Prompt:** 辛迪加地区的帮派成员怎么样？
-* **昙**: 啊！不行……那边的对手太不够格了！什么时候轮到花园！
-* **昙**: 😫
+          <t xml:space="preserve">[曇在擦拭著她的匕首]
+**曇**: 下次的對手……是誰呢……
+* **Prompt:** 我會為你安排合適的對手的。
+* **曇**: 我好期待啊……嘿嘿……
+* **曇**: 😘😘😘
+* **Prompt:** 辛迪加地區的幫派成員怎麼樣？
+* **曇**: 啊！不行……那邊的對手太不夠格了！什麼時候輪到花園！
+* **曇**: 😫
 </t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve">[昙紧握着双手，看起来很愤怒]
-**昙**: 花园！你们居然还敢抢我的目标！
-* **Prompt:** 如果还有这样的情况的话，记得求助管理局。
-* **昙**: 你是在质疑我的能力？还是……在质疑我手中的刀？
-* **昙**: 😐
-* **Prompt:** 看起来她们为你准备了特殊对策。
-* **昙**: 哈哈……哈哈哈……等着吧，下次你们准备什么都不好用了！
-* **昙**: 😐😐
+          <t xml:space="preserve">[曇緊握著雙手，看起來很憤怒]
+**曇**: 花園！你們居然還敢搶我的目標！
+* **Prompt:** 如果還有這樣的情況的話，記得求助管理局。
+* **曇**: 你是在質疑我的能力？還是……在質疑我手中的刀？
+* **曇**: 😐
+* **Prompt:** 看起來她們為你準備了特殊對策。
+* **曇**: 哈哈……哈哈哈……等著吧，下次你們準備什麼都不好用了！
+* **曇**: 😐😐
 </t>
         </is>
       </c>
@@ -16471,27 +16471,27 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">[在练习场中的艾米潘心情似乎很好]
-**艾米潘**: 哼哼，今天我允许你直视辛迪加无冕之王的尊容。
-* **Prompt:** 那无冕之王，我们今天要做什么？
-* **艾米潘**: 当然是玩游戏了！扑克，骰子，麻将，都可以！
-* **艾米潘**: 😘😘
-* **Prompt:** ……再耍宝就把你送到锈河执行任务。
-* **艾米潘**: 噫啊！我开玩笑的……开玩笑的！
-* **艾米潘**: 😫😫
+          <t xml:space="preserve">[在練習場中的EMP心情似乎很好]
+**EMP**: 哼哼，今天我允許你直視辛迪加無冕之王的尊容。
+* **Prompt:** 那無冕之王，我們今天要做什麼？
+* **EMP**: 當然是玩遊戲了！撲克，骰子，麻將，都可以！
+* **EMP**: 😘😘
+* **Prompt:** ……再耍寶就把你送到鏽河執行任務。
+* **EMP**: 噫啊！我開玩笑的……開玩笑的！
+* **EMP**: 😫😫
 </t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t xml:space="preserve">[在练习场中的艾米潘心情似乎很差]
-**艾米潘**: 别吵，我在练习弓箭呢！
-* **Prompt:** 反正也射不中，不需要练习吧？
-* **艾米潘**: 我不要！这样多帅啊！
-* **艾米潘**: 😖😖😖
-* **Prompt:** 弓箭死神不会射箭真的没问题么？
-* **艾米潘**: 老婆饼里还没有老婆呢！
-* **艾米潘**: 😏😏
+          <t xml:space="preserve">[在練習場中的EMP心情似乎很差]
+**EMP**: 別吵，我在練習弓箭呢！
+* **Prompt:** 反正也射不中，不需要練習吧？
+* **EMP**: 我不要！這樣多帥啊！
+* **EMP**: 😖😖😖
+* **Prompt:** 弓箭死神不會射箭真的沒問題嗎？
+* **EMP**: 老婆餅裡還沒有老婆呢！
+* **EMP**: 😏😏
 </t>
         </is>
       </c>
@@ -16508,26 +16508,26 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve">[芙洛拉拿着笔记开始对你进行问询]
-**芙洛拉**: 你今天应该没有忘记消防设施的定期检查吧？
-* **Prompt:** 四十三个消防点位全都检查过了。
-* **芙洛拉**: 嗯，这才像话嘛。防患于未燃！
+          <t xml:space="preserve">[芙洛拉拿著筆記開始對你進行問詢]
+**芙洛拉**: 你今天應該沒有忘記消防設施的定期檢查吧？
+* **Prompt:** 四十三個消防檢查點全都檢查過了。
+* **芙洛拉**: 嗯，這才像話嘛。防患於未燃！
 * **芙洛拉**: 😉
-* **Prompt:** 等下就去。
-* **芙洛拉**: 啧，看到时候失火你怎么办。
+* **Prompt:** 等一下就去。
+* **芙洛拉**: 嘖，看到時候失火你怎麼辦。
 * **芙洛拉**: 😥
 </t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t xml:space="preserve">[刚出练习场的芙洛拉似乎有些消沉]
-**芙洛拉**: 唉……怎么做才能用好消防器械呢。
-* **Prompt:** 要不就别用消防斧了吧，专心操作消防水枪。
-* **芙洛拉**: 不行！消防装备一定要带齐！
+          <t xml:space="preserve">[剛出練習場的芙洛拉似乎有些消沉]
+**芙洛拉**: 唉……怎麼做才能用好消防器械呢。
+* **Prompt:** 不如就別用消防斧了吧，專心操作消防水槍。
+* **芙洛拉**: 不行！消防裝備一定要帶齊！
 * **芙洛拉**: 😫
-* **Prompt:** 用后院给花园浇花的水管练习一下怎么样？
-* **芙洛拉**: 哦……听起来不错！
+* **Prompt:** 用後院給花園澆花的水管練習一下怎麼樣？
+* **芙洛拉**: 哦……聽起來不錯！
 * **芙洛拉**: 😘
 </t>
         </is>
@@ -16545,27 +16545,27 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t xml:space="preserve">[开尔文捧着一堆食材向你打招呼]
-**开尔文**: 局长，管理局的厨房可以加个额外的冷库么！
-* **Prompt:** 只能再加一个小冰箱，而且还是节能型的。
-* **开尔文**: 如果这样的话，倒是能多放一些蔬菜。
-* **开尔文**: 😘
-* **Prompt:** 没地方，上次伊格尼想加灶台都没批。
-* **开尔文**: 唉……那多出来的食材只能每天用能力冻住了。
-* **开尔文**: 😫
+          <t xml:space="preserve">[開爾文捧著一堆食材向你打招呼]
+**開爾文**: 局長，管理局的廚房可以加個額外的冷藏庫嗎！
+* **Prompt:** 只能再加一個小冰箱，而且還是節能型的。
+* **開爾文**: 如果這樣的話，倒是能多放一些蔬菜。
+* **開爾文**: 😘
+* **Prompt:** 沒地方放，上次伊格尼想加爐台都沒批。
+* **開爾文**: 唉……那多出來的食材只能每天用能力凍住了。
+* **開爾文**: 😫
 </t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t xml:space="preserve">[开尔文似乎被人嘲笑了]
-**开尔文**: 哈啊……我怎么还没毕业……
-* **Prompt:** 学分不够？通常来说都是这个原因。
-* **开尔文**: 唉……这都被您猜到了。
-* **开尔文**: 😖😖
-* **Prompt:** 把菜品给导师看，他一定会同意你毕业的。
-* **开尔文**: 哈哈……要是导师能理解我的理念就好了。
-* **开尔文**: 😐
+          <t xml:space="preserve">[開爾文似乎被人嘲笑了]
+**開爾文**: 哈啊……我怎麼還沒畢業……
+* **Prompt:** 學分不夠？通常來說都是這個原因。
+* **開爾文**: 唉……這都被您猜到了。
+* **開爾文**: 😖😖
+* **Prompt:** 把菜拿給導師看，他一定會同意你畢業的。
+* **開爾文**: 哈哈……要是導師能理解我的理念就好了。
+* **開爾文**: 😐
 </t>
         </is>
       </c>
@@ -16582,27 +16582,27 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve">[从琼的房间中传出了歌声]
-**琼**: 以你本色——
+          <t xml:space="preserve">[從瓊的房間中傳出了歌聲]
+**瓊**: 以你本色——
 * **Prompt:** 似你往常——
-* **琼**: 局长的品位……真是不错。
-* **琼**: 😘
-* **Prompt:** 小点声，有的工作人员快受不了了。
-* **琼**: 要不是操场不能用，我也不会在这里练习了。
-* **琼**: 😥
+* **瓊**: 局長的品味……真是不錯。
+* **瓊**: 😘
+* **Prompt:** 小聲點，已經有工作人員快受不了了。
+* **瓊**: 要不是操場不能用，我也不會在這裡練習了。
+* **瓊**: 😥
 </t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t xml:space="preserve">[琼摩挲着之前演唱会的照片，若有所思]
-**琼**: 什么时候这种生活能结束呢，我想去演出。
-* **Prompt:** 再过一阵子，情况应该会乐观很多。
-* **琼**: 唉……那我这段时间只能在这里自娱自乐咯。
-* **琼**: 😐
-* **Prompt:** 那可得给我留个最好的位置。
-* **琼**: 哈，到时候让你看看舞台上的我。
-* **琼**: 😏
+          <t xml:space="preserve">[瓊摩挲著之前演唱會的照片，若有所思]
+**瓊**: 什麼時候這種生活能結束呢，我想去演出。
+* **Prompt:** 再過一陣子，情況應該會樂觀很多。
+* **瓊**: 唉……那我這段時間只能在這裡自娛自樂囉。
+* **瓊**: 😐
+* **Prompt:** 那必須留個最好的位置給我。
+* **瓊**: 哈，到時候讓你看看舞台上的我。
+* **瓊**: 😏
 </t>
         </is>
       </c>
@@ -16619,27 +16619,27 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t xml:space="preserve">[玛奇朵看起来身心愉悦]
-**玛奇朵**: 有些敌人看起来很享受哦。
-* **Prompt:** 你的“业余爱好”似乎帮了大忙。
-* **玛奇朵**: 呵呵，他们的反应就是我继续下去的动力。
-* **玛奇朵**: 😘😘
-* **Prompt:** 他们可能只是被迫做出这种表情。
-* **玛奇朵**: 哎呀哎呀，下次我一定会注意一点的。
-* **玛奇朵**: 😘
+          <t xml:space="preserve">[瑪奇朵看起來身心愉悅]
+**瑪奇朵**: 有些敵人看起來很享受哦。
+* **Prompt:** 你的「業餘愛好」似乎幫了大忙。
+* **瑪奇朵**: 呵呵，他們的反應就是我繼續下去的動力。
+* **瑪奇朵**: 😘😘
+* **Prompt:** 他們可能只是被迫做出這種表情。
+* **瑪奇朵**: 哎呀哎呀，下次我一定會注意一點的。
+* **瑪奇朵**: 😘
 </t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t xml:space="preserve">[玛奇朵在打着瞌睡]
-**玛奇朵**: 欢迎……光临新城银行！啊……不对！管理局！
-* **Prompt:** 小心打瞌睡会扣工资。
-* **玛奇朵**: ……不要让我想起不好的回忆了，局长。
-* **玛奇朵**: 😐
-* **Prompt:** 不用强迫自己加班的。
-* **玛奇朵**: 抱歉……这是职业病了。我总是不自觉地就……
-* **玛奇朵**: 😫
+          <t xml:space="preserve">[瑪奇朵在打著瞌睡]
+**瑪奇朵**: 歡迎……光臨新城銀行！啊……不對！管理局！
+* **Prompt:** 小心打瞌睡會扣薪水。
+* **瑪奇朵**: ……不要讓我想起不好的回憶了，局長。
+* **瑪奇朵**: 😐
+* **Prompt:** 不用強迫自己加班的。
+* **瑪奇朵**: 抱歉……這是職業病了。我總是不自覺地就……
+* **瑪奇朵**: 😫
 </t>
         </is>
       </c>
@@ -16656,27 +16656,27 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t xml:space="preserve">[丽莎用左手拿出了画，铺在桌子上]
-**丽莎**: 收到了几幅画作，又能好好欣赏一番了。
-* **Prompt:** 希望他们能画出一些能让你开心的东西。
-* **丽莎**: 那当然再好不过。
-* **丽莎**: 😐
-* **Prompt:** 我觉得他们都逃不掉你的批评。
-* **丽莎**: 当然，除非他们能复现《丽贝卡》。
-* **丽莎**: 😦
+          <t xml:space="preserve">[麗莎用左手拿出了畫，鋪在桌子上]
+**麗莎**: 收到了幾幅畫作，又能好好欣賞一番了。
+* **Prompt:** 希望他們能畫出一些能讓你開心的東西。
+* **麗莎**: 那當然再好不過。
+* **麗莎**: 😐
+* **Prompt:** 我覺得他們都逃不掉你的批評。
+* **麗莎**: 當然，除非他們能複現《麗蓓嘉》。
+* **麗莎**: 😦
 </t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t xml:space="preserve">[丽莎坐在画板前，叹了口气]
-**丽莎**: 又画歪了……
-* **Prompt:** 需要我帮忙么？
-* **丽莎**: 不用，虽然很谢谢你，但……你帮我的话，还不如我自己慢慢来。
-* **丽莎**: 😦
-* **Prompt:** 给你直尺。
-* **丽莎**: 你……唉……算了。
-* **丽莎**: 😥😦😐
+          <t xml:space="preserve">[麗莎坐在畫板前，嘆了口氣]
+**麗莎**: 又畫歪了……
+* **Prompt:** 需要我幫忙嗎？
+* **麗莎**: 不用，雖然很謝謝你，但……你幫我的話，還不如我自己慢慢來。
+* **麗莎**: 😦
+* **Prompt:** 給你直尺。
+* **麗莎**: 你……唉……算了。
+* **麗莎**: 😥😦😐
 </t>
         </is>
       </c>

--- a/Sinner_Stuff/Emotion_Check.xlsx
+++ b/Sinner_Stuff/Emotion_Check.xlsx
@@ -12667,12 +12667,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">[迪蒙在擦拭著他的碳化鎢裝甲]
-**迪蒙**: 試試這個？可以應對很多突發狀況。
-* **Prompt:** 既然如此……就試一下吧。
-* **迪蒙**: 好，我現在去準備一套合你身的。
+          <t xml:space="preserve">[迪蒙在擦拭着他的碳化钨装甲]
+**迪蒙**: 试试这个？可以应对很多突发状况。
+* **Prompt:** 既然如此……就试一下吧。
+* **迪蒙**: 好，我这就去准备一套合你身的。
 * **迪蒙**: 😐
-* **Prompt:** 好是好，就是有些笨重，會影響行動。
+* **Prompt:** 好是好，就是有些笨重，会影响行动。
 * **迪蒙**: 唉，可惜。
 * **迪蒙**: 😦
 </t>
@@ -12680,13 +12680,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">[迪蒙坐在房間裡，似乎有什麼心事]
-**迪蒙**: ……你這是，要監視我？
-* **Prompt:** 嗯，你最好安分一點。
+          <t xml:space="preserve">[迪蒙坐在房间里，似乎有什么心事]
+**迪蒙**: ……你这是，要监视我？
+* **Prompt:** 嗯，你最好安分一点。
 * **迪蒙**: ……我知道了。
 * **迪蒙**: 😥
-* **Prompt:** 你就當作是在保護我吧。
-* **迪蒙**: ……好吧，我不會讓它們碰到你的。
+* **Prompt:** 你就当作是在保护我吧。
+* **迪蒙**: ……好吧，我不会让它们碰到你的。
 * **迪蒙**: 😐
 </t>
         </is>
@@ -12704,27 +12704,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">[嗷嗚揮舞著一根木棍攔住了你]
-**嗷嗚**: 呼——哈——攻中有防，防中有攻，攻不離防，防不離攻！
+          <t xml:space="preserve">[嗷呜挥舞着一根木棍拦住了你]
+**嗷呜**: 呼——哈——攻中有防，防中有攻，攻不离防，防不离攻！
 * **Prompt:** 你又看功夫片了？
-* **嗷嗚**: 嘿嘿，沒錯！你快來跟我切磋切磋！
-* **嗷嗚**: 😉
-* **Prompt:** 太危險了，快放下。
-* **嗷嗚**: 哼哼，怕了吧，嗷嗚就是最厲害的大俠！
-* **嗷嗚**: 😏
+* **嗷呜**: 嘿嘿，没错！你快来跟我切磋切磋！
+* **嗷呜**: 😉
+* **Prompt:** 太危险了，快放下。
+* **嗷呜**: 哼哼，怕了吧，嗷呜就是最厉害的大侠！
+* **嗷呜**: 😏
 </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">[嗷嗚突然呲牙咧嘴地大喊著從前方的轉角跳了出來]
-**嗷嗚**: 嗚哇！！！
+          <t xml:space="preserve">[嗷呜突然呲牙咧嘴地大喊着从前方的拐角蹦了出来]
+**嗷呜**: 呜哇！！！
 * **Prompt:** ……
-* **嗷嗚**: 你怎麼一點反應都沒有，真無聊，不跟你玩了！
-* **嗷嗚**: 😥
+* **嗷呜**: 你怎么一点反应都没有，真没意思，不跟你玩了！
+* **嗷呜**: 😥
 * **Prompt:** 啊！！！
-* **嗷嗚**: 哈哈哈，你怎麼每次都被嚇到啊，膽小鬼！
-* **嗷嗚**: 😉
+* **嗷呜**: 哈哈哈，你怎么每次都被吓到啊，胆小鬼！
+* **嗷呜**: 😉
 </t>
         </is>
       </c>
@@ -12741,27 +12741,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">[羅睺守在你辦公室門口]
-**羅睺**: 你要去執行任務了嗎？
-* **Prompt:** 嗯，有起突發狂厄事件需要處理。
-* **羅睺**: 為確保萬無一失，我也要一起去。
-* **羅睺**: 😐
-* **Prompt:** 不……我只是打算出去透透氣。
-* **羅睺**: 帶上我吧，閒暇時間也不能卸下警覺心。
-* **羅睺**: 😖
+          <t xml:space="preserve">[罗睺守在你办公室门口]
+**罗睺**: 你要去执行任务了吗？
+* **Prompt:** 嗯，有起突发狂厄事件需要处理。
+* **罗睺**: 为确保万无一失，我也要一起去。
+* **罗睺**: 😐
+* **Prompt:** 不……我只是打算出去透透气。
+* **罗睺**: 带上我吧，闲暇时间也不能放松警惕。
+* **罗睺**: 😖
 </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">[羅睺在午後捧著一杯紅茶啜飲]
-**羅睺**: 唔……採購部訂購的茶葉還算不錯。
-* **Prompt:** 也給我一杯吧。
-* **羅睺**: 請吧，局長。
-* **羅睺**: 😐
-* **Prompt:** 你居然還會喝下午茶……？
-* **羅睺**: 就算是我，也是會有個人愛好的。
-* **羅睺**: 😥
+          <t xml:space="preserve">[罗睺在午后捧着一杯红茶啜饮]
+**罗睺**: 唔……采购办订购的茶叶还算不错。
+* **Prompt:** 也给我来一杯。
+* **罗睺**: 请吧，局长。
+* **罗睺**: 😐
+* **Prompt:** 你居然还会喝下午茶……？
+* **罗睺**: 就算是我，也是会有个人爱好的。
+* **罗睺**: 😥
 </t>
         </is>
       </c>
@@ -12778,26 +12778,26 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">[瓦尼菈對自己的房間進行了一些改造。]
-**瓦尼菈**: 你來……看我工作……所有損耗……都能得到檢修……
-* **Prompt:** 真是精妙的機械構造。
-* **瓦尼菈**: 機械修理已完成……我不會損毀……沒有偏航……
+          <t xml:space="preserve">[瓦尼菈对自己的房间进行了一些改造。]
+**瓦尼菈**: 你来……看我工作……所有损耗……都能得到检修……
+* **Prompt:** 真是精妙的机械构造。
+* **瓦尼菈**: 机械修理已完成……我不会损毁……没有偏航……
 * **瓦尼菈**: 😦
-* **Prompt:** 但有一個問題，門被封死了，你要怎麼從裡面出來呢。
-* **瓦尼菈**: 走不出的……內海……我又回到這裡了嗎……
+* **Prompt:** 但有一个问题，门被封死了，你要怎么从里面出来呢。
+* **瓦尼菈**: 走不出的……内海……我又回到这里了吗……
 * **瓦尼菈**: 😥
 </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">[瓦尼菈緊盯著損壞後亂轉的鐘錶。]
-**瓦尼菈**: 永恆的時間再次滑向了偏移……我要去……修復……
-* **Prompt:** 換個電池吧。
-* **瓦尼菈**: 扭曲被修正……你會是……返程的錨點嗎……
+          <t xml:space="preserve">[瓦尼菈紧盯着损坏后乱转的钟表。]
+**瓦尼菈**: 永恒的时间再次滑向了偏移……我要去……修复……
+* **Prompt:** 换个电池吧。
+* **瓦尼菈**: 扭曲被修正……你会是……返程的锚点吗……
 * **瓦尼菈**: 😐
 * **Prompt:** 拍一拍就好了。
-* **瓦尼菈**: 拆除之後……再進行檢修……你做得很對……
+* **瓦尼菈**: 拆除之后……再进行检修……你做得很对……
 * **瓦尼菈**: 😐
 </t>
         </is>
@@ -12815,27 +12815,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">[摩爾端著一杯咖啡遞給了你]
-**摩爾**: 工作辛苦了，要不要來一杯飲料放鬆一下？
-* **Prompt:** 謝謝，不過這個味道……
-* **摩爾**: 是特製的咖啡，據說裡面還加了一些助興奮的成分，可以讓你在加班時候充滿幹勁呢。
-* **摩爾**: 😘😘😘
+          <t xml:space="preserve">[摩尔端着一杯咖啡递给了你]
+**摩尔**: 工作辛苦了，要不要来一杯饮料放松一下？
+* **Prompt:** 谢谢，不过这个味道……
+* **摩尔**: 是特制的咖啡，据说里面还加了一些助兴奋的成分，可以让你在加班时候充满干劲呢。
+* **摩尔**: 😘😘😘
 * **Prompt:** 新口味的咖啡？
-* **摩爾**: 是菲小姐特別幫我採購的品種，據說咖啡因含量是普通咖啡豆的幾倍。喝完這杯，應該可以度過一個十分清醒的加班夜晚。
-* **摩爾**: 😏😏😏
+* **摩尔**: 是菲小姐特意帮我采购的品种，据说咖啡因含量是普通咖啡豆的几倍。喝完这杯，应该可以度过一个十分清醒的加班夜晚。
+* **摩尔**: 😏😏😏
 </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">[做完網路維護的摩爾直接趴在網路部的電腦前睡著]
-**摩爾**: ……我就稍微……睡一下……
-* **Prompt:** 還是回房間休息吧。
-* **摩爾**: 還有資料沒跑完……床上我就……徹底睡著了……
-* **摩爾**: 😥😥😥
-* **Prompt:** 枕著鍵盤睡覺能舒服嗎？
-* **摩爾**: 不舒服啊……可是我……枕著枕著……就習慣了……
-* **摩爾**: 😖😖😖
+          <t xml:space="preserve">[做完网络维护的摩尔直接趴在网络部的电脑前睡着]
+**摩尔**: ……我就稍微……睡一会……
+* **Prompt:** 还是回房间休息吧。
+* **摩尔**: 还有数据没跑完……床上我就……彻底睡着了……
+* **摩尔**: 😥😥😥
+* **Prompt:** 枕着键盘睡觉能舒服吗？
+* **摩尔**: 不舒服啊……可是我……枕着枕着……就习惯了……
+* **摩尔**: 😖😖😖
 </t>
         </is>
       </c>
@@ -12852,26 +12852,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">[玉骨正在看最近網路熱門食物合集影片。]
-**玉骨**: 臭豆腐咖啡，板藍根泡麵……局長，您說人類為什麼總喜歡用各種方式折磨自己呢？
-* **Prompt:** 也許……有些人真的喜歡吃這些。
-* **玉骨**: 呵呵，您說得對。人類的差異性之大，使得那些精彩的故事永遠在上演。
+          <t xml:space="preserve">[玉骨正在看最近网络热门食物合集视频。]
+**玉骨**: 臭豆腐咖啡，板蓝根泡面……局长，您说人类为什么总喜欢用各种方式折磨自己呢？
+* **Prompt:** 也许……有些人真的喜欢吃这些。
+* **玉骨**: 呵呵，您说得对。人类的差异性之大，使得那些精彩的故事永远在上演。
 * **玉骨**: 😏😏😏
-* **Prompt:** 怎樣？還想嘗試一下嗎？
-* **玉骨**: 這些搭配都很有意思，但更重要的是，局長要和我一起嘗試才好呀。
+* **Prompt:** 怎么，还想尝试一下吗？
+* **玉骨**: 这些搭配都很有意思，但更重要的是，局长要同我一起尝试才好呀。
 * **玉骨**: 😉😉😉
 </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">[玉骨拉著你聽完了她最新的故事。]
-**玉骨**: 局長覺得這個故事的結局如何呀？
-* **Prompt:** 是個讓人難以忘懷的悲劇。
-* **玉骨**: 是啊，世事變遷，人心難測，背離初心的悲劇難免讓人心痛。
+          <t xml:space="preserve">[玉骨拉着你听完了她最新的故事。]
+**玉骨**: 局长觉得这个故事的结局如何呀？
+* **Prompt:** 是个让人难以忘怀的悲剧。
+* **玉骨**: 是啊，世事变迁，人心难测，背离初心的悲剧难免让人心痛。
 * **玉骨**: 😏😏😏
-* **Prompt:** 他們都找到了自己的歸宿，即使分離也不會悲傷。
-* **玉骨**: 您總能用有趣的角度來看待我的結局，下次再來聽聽我的故事吧？
+* **Prompt:** 他们都找到了自己的归宿，即使分离也不会悲伤。
+* **玉骨**: 您总能用有趣的角度来看待我的结局，下次再来听听我的故事吧？
 * **玉骨**: 😏😏😏
 </t>
         </is>
@@ -12889,27 +12889,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">[卓婭伸著懶腰走進了你的辦公室]
-**卓婭**: 看你這麼閒，不如來陪我練兩招？
-* **Prompt:** 你應該會控制好力量的，對吧？
-* **卓婭**: 當然，我自有分寸。
-* **卓婭**: 😦
-* **Prompt:** 我覺得，找其他禁閉者對練更高效一些。
-* **卓婭**: 嘖，無趣。
-* **卓婭**: 😥
+          <t xml:space="preserve">[卓娅伸着懒腰走进了你的办公室]
+**卓娅**: 看你这么闲，不如来陪我练两招？
+* **Prompt:** 你应该会控制好力量的，对吧？
+* **卓娅**: 当然，我自有分寸。
+* **卓娅**: 😦
+* **Prompt:** 我觉得，找其他禁闭者对练更高效一些。
+* **卓娅**: 啧，无趣。
+* **卓娅**: 😥
 </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">[卓婭看起來心情很差]
-**卓婭**: 為什麼沒有酒？嗯？
-* **Prompt:** 規定就是規定，沒有那麼多為什麼。
-* **卓婭**: 你……在挑釁我？
-* **卓婭**: 😐
-* **Prompt:** 還不是為了防止某些人發酒瘋。
-* **卓婭**: 你還不知道我的酒量嗎？去幫我拿一瓶。
-* **卓婭**: 😖
+          <t xml:space="preserve">[卓娅看起来心情很差]
+**卓娅**: 为什么没有酒？嗯？
+* **Prompt:** 规定就是规定，没有那么多为什么。
+* **卓娅**: 你……在挑衅我？
+* **卓娅**: 😐
+* **Prompt:** 还不是为了防止某些人发酒疯。
+* **卓娅**: 你还不知道我的酒量么？去给我拿一瓶。
+* **卓娅**: 😖
 </t>
         </is>
       </c>
@@ -12926,27 +12926,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">[NOX緊盯著窗外]
-**NOX**: 我……想出去看看。
-* **Prompt:** 白砂之海如何？下次任務帶上你。
-* **NOX**: 好……我很期待……這段旅程。
-* **NOX**: 😘
-* **Prompt:** 外面也沒什麼好看的。
-* **NOX**: 你這麼說……我很失望……
-* **NOX**: 😦
+          <t xml:space="preserve">[诺克斯紧盯着窗外]
+**诺克斯**: 我……想出去看看。
+* **Prompt:** 白砂之海如何？下次任务带上你。
+* **诺克斯**: 好……我很期待……这段旅程。
+* **诺克斯**: 😘
+* **Prompt:** 外面也没什么好看的。
+* **诺克斯**: 你这么说……我很失望……
+* **诺克斯**: 😦
 </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">[NOX把頭埋在自己的膝蓋上]
-**NOX**: 我……又聽到聲音了。
-* **Prompt:** 是那些怪物在和你說話嗎？
-* **NOX**: 不……他們……不是怪物！
-* **NOX**: 😐
-* **Prompt:** 方便告訴我內容嗎？
-* **NOX**: 他們想吞噬我……還好，你來了……
-* **NOX**: 😖
+          <t xml:space="preserve">[诺克斯把头埋在自己的膝盖上]
+**诺克斯**: 我……又听到声音了。
+* **Prompt:** 是那些怪物在和你说话么？
+* **诺克斯**: 不……他们……不是怪物！
+* **诺克斯**: 😐
+* **Prompt:** 方便告诉我内容么？
+* **诺克斯**: 他们想吞噬我……还好，你来了……
+* **诺克斯**: 😖
 </t>
         </is>
       </c>
@@ -12963,27 +12963,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">[黛倫正一個人坐在娛樂區的沙發上看電影]
-**黛倫**: 你也對這類小眾題材的電影感興趣？
-* **Prompt:** 感興趣。
-* **黛倫**: 那就過來一起來看看吧，電影才剛剛開始。
-* **黛倫**: 😘
-* **Prompt:** 不感興趣。
-* **黛倫**: 唉，算了，還是我一人獨享吧。
-* **黛倫**: 😥
+          <t xml:space="preserve">[黛伦正一个人坐在娱乐区的沙发上看电影]
+**黛伦**: 你也对这类小众题材的电影感兴趣？
+* **Prompt:** 感兴趣。
+* **黛伦**: 那就过来一起来看看吧，电影才刚刚开始。
+* **黛伦**: 😘
+* **Prompt:** 不感兴趣。
+* **黛伦**: 唉，算了，还是我一人独享吧。
+* **黛伦**: 😥
 </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">[對話中途黛倫突然打斷了你，掏出一個小本子開始記錄]
-**黛倫**: 稍等一下……我得把你剛剛那句話記錄下來。
-* **Prompt:** 為什麼要記我說的話？
-* **黛倫**: 因為你剛剛那句話挺有意思的，很適合作為主角的台詞加進我最近正在寫的劇本裡。
-* **黛倫**: 😏
-* **Prompt:** 我說錯了什麼嗎？
-* **黛倫**: 沒有。你剛剛的話給了我靈感，我得趕緊記下來，免得之後忘記。
-* **黛倫**: 😉
+          <t xml:space="preserve">[对话中途黛伦突然打断了你，掏出一个小本子开始记录]
+**黛伦**: 稍等一下……我得把你刚刚那句话记录下来。
+* **Prompt:** 为什么要记我说的话？
+* **黛伦**: 因为你刚刚那句话挺有意思的，很适合作为主角的台词加进我最近正在写的剧本里。
+* **黛伦**: 😏
+* **Prompt:** 我说错了什么吗？
+* **黛伦**: 没有。你刚刚的话给了我灵感，我得赶紧记下来，免得之后忘记。
+* **黛伦**: 😉
 </t>
         </is>
       </c>
@@ -13000,26 +13000,26 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">[唐靠在欄杆上看得出神。]
-**唐**: 喲，局長，今天的陽光挺好，一起來曬曬嗎?
-* **Prompt:** 還有工作要忙……
-* **唐**: 唉呀，有的時候呢，工作可以先放一放……
+          <t xml:space="preserve">[唐靠在栏杆上出神。]
+**唐**: 哟，局长，今儿的阳光挺好，一起来晒晒吗?
+* **Prompt:** 还有工作要忙……
+* **唐**: 哎呀，有的时候呢，工作可以先放一放……
 * **唐**: 😏
 * **Prompt:** ……好吧。
-* **唐**: 來來來，往這站，感覺不賴吧？
+* **唐**: 来来来，往这儿站，感觉不赖吧？
 * **唐**: 😉
 </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">[唐正在擦拭長槍。]
-**唐**: 閒來無事，照顧照顧老友。
-* **Prompt:** 可以去空曠區域練習。
-* **唐**: 哦？局長你想看耍槍嗎，你想看的話我可以耍一個哦！
+          <t xml:space="preserve">[唐正在擦拭长枪。]
+**唐**: 闲来无事，照料照料老友。
+* **Prompt:** 可以去空旷区域练习。
+* **唐**: 哦？局长你想看耍枪吗，你想看的话我可以耍一个哦？
 * **唐**: 😉
-* **Prompt:** 不打擾了，你慢慢照顧……
-* **唐**: 喂喂，就這麼冷漠地走掉了嗎？一起聊聊天啊局長……
+* **Prompt:** 不打扰了，你慢慢照料……
+* **唐**: 喂喂，就这么冷漠地走掉了吗？一起聊聊天啊局长……
 * **唐**: 😫
 </t>
         </is>
@@ -13037,26 +13037,26 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">[曜似乎對大廳一側的暖光燈產生了興趣。 ]
-**曜**: 這是……凡塵對太陽的模仿嗎……雖然……相當拙劣……
-* **Prompt:** 也可以算是……等等，別破壞燈罩啊！
-* **曜**: 拂除虛妄的外殼……竟是如此小的光點……
+          <t xml:space="preserve">[曜似乎对大厅一侧的暖光灯产生了兴趣。 ]
+**曜**: 这是……凡尘对太阳的模仿吗……虽然……相当拙劣……
+* **Prompt:** 也可以算是……等等，别破坏灯罩啊！
+* **曜**: 拂除虚妄的外壳……竟是这样小的光点……
 * **曜**: 😦
-* **Prompt:** 不，這只是照明用的。
-* **曜**: 是嗎？和故鄉的……並不相似……
+* **Prompt:** 不，这只是照明用的。
+* **曜**: 是吗？和故乡的……并不相似……
 * **曜**: 😐
 </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">[曜一直認真地盯著窗外。]
-**曜**: 你來了……要和我一起嗎……
-* **Prompt:** 你這是在……看風景？
-* **曜**: 觀日……可曉天象，識興衰……
+          <t xml:space="preserve">[曜一直认真地盯着窗外。]
+**曜**: 你来了……要和我一起吗……
+* **Prompt:** 你这是在……看风景？
+* **曜**: 观日……可晓天象，识兴衰……
 * **曜**: 😐
-* **Prompt:** 好啊，你看出了什麼？
-* **曜**: 華光溫耀，澤而不罹……近期，不會有天災。
+* **Prompt:** 好啊，你看出了什么？
+* **曜**: 华光温耀，泽而不罹……近期，不会有天灾。
 * **曜**: 😘
 </t>
         </is>
@@ -13074,27 +13074,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">[派爾琪雅正在呆呆地看著嘩啦啦流個不停的水龍頭。]
-**派爾琪雅**: ……水……越來越多……海也會……越來越近……
-* **Prompt:** 應該不會吧，畢竟有出水口。
-* **派爾琪雅**: 只要湧出的水永遠比流走的水多一點……海……就終將成型……
-* **派爾琪雅**: 😐
-* **Prompt:** 自來水是淡水，真的能順利成海嗎？
-* **派爾琪雅**: 這麼說來……聞起來……確實和海床下面……有點不一樣……
-* **派爾琪雅**: 😦
+          <t xml:space="preserve">[派尔琪雅正在呆呆地看着哗啦啦流个不停的水龙头。]
+**派尔琪雅**: ……水……越来越多……海也会……越来越近……
+* **Prompt:** 应该不会吧，毕竟有下水口。
+* **派尔琪雅**: 只要涌出的水永远比流走的水多一些……海……就终将成型……
+* **派尔琪雅**: 😐
+* **Prompt:** 自来水是淡水，真的能顺利成海吗？
+* **派尔琪雅**: 这么说来……闻起来……确实和海床下面……有些不一样……
+* **派尔琪雅**: 😦
 </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">[派爾琪雅看著電視螢幕上的人造深潛館廣告。]
-**派爾琪雅**: ……不對……真正的海……不是這樣的……在這個環境下……人根本沒辦法真的學會和海相處……
-* **Prompt:** 沒事，他們接觸不到真的海，不會出事。
-* **派爾琪雅**: 那倒……也好……否則……我也不敢保證……能把他們送回岸邊……
-* **派爾琪雅**: 😐
-* **Prompt:** 確實，也許你可以幫忙設計一個更真實的訓練環境。
-* **派爾琪雅**: 哪怕是人類的創造力……也很難真的模擬出海的混亂、危險，和包容……沒有一定的瞭解就想接觸海洋……會吃大苦頭的……
-* **派爾琪雅**: 😦
+          <t xml:space="preserve">[派尔琪雅看着电视屏幕上的人造深潜馆广告。]
+**派尔琪雅**: ……不对……真正的海……不是这样的……在这个环境下……人根本没法真的学会和海相处……
+* **Prompt:** 没事，他们接触不到真的海，不会出事。
+* **派尔琪雅**: 那倒……也好……否则……我也不敢保证……能把他们送回岸边……
+* **派尔琪雅**: 😐
+* **Prompt:** 确实，也许你可以帮忙设计一个更真实的训练环境。
+* **派尔琪雅**: 哪怕是人类的创造力……也很难真的模拟出海的混乱、危险，和包容……没有一定的了解就想接触海洋……会吃大苦头的……
+* **派尔琪雅**: 😦
 </t>
         </is>
       </c>
@@ -13111,26 +13111,26 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">[你的辦公室門被一腳踢開]
-**白逸**: 早啊！局長，上次的錢什麼時候結？
-* **Prompt:** 上次的帳已經結清了，白老闆。
-* **白逸**: 哎呀~那……多餘的勞務費呢？
+          <t xml:space="preserve">[你的办公室门被一脚踢开]
+**白逸**: 早啊！局长，上次的钱什么时候结？
+* **Prompt:** 上次的钱款已经结清了，白老板。
+* **白逸**: 哎呀~那……多余的劳务费呢？
 * **白逸**: 😏😏😏
-* **Prompt:** 說吧，又是什麼薪酬問題？
-* **白逸**: 嗯……打包的人工費！
+* **Prompt:** 说吧，又是什么薪酬问题？
+* **白逸**: 嗯……打包的人工费！
 * **白逸**: 😏😏😏
 </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">[白逸在房間裡喝著悶酒]
-**白逸**: 啊……這個月的預算也是赤字。
-* **Prompt:** 實在不行就把白記實業兌出去吧。
-* **白逸**: 局長！你難道不會借我錢嗎！
+          <t xml:space="preserve">[白逸在房间里喝着闷酒]
+**白逸**: 啊……这个月的预算也是赤字。
+* **Prompt:** 实在不行就把白记实业兑出去吧。
+* **白逸**: 局长！你难道不会借我钱么！
 * **白逸**: 😖😖😉
-* **Prompt:** 那你該認真工作了，少喝點酒。
-* **白逸**: 你說得對，偶爾也得拿出點認真勁來。
+* **Prompt:** 那你该认真工作了，少喝点酒。
+* **白逸**: 你说得对，偶尔也得拿出点认真劲儿。
 * **白逸**: 😏
 </t>
         </is>
@@ -13148,26 +13148,26 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">[科希伸了個懶腰]
-**科希**: 今天沒有我的任務……對吧？
-* **Prompt:** 你可以去運動一下。
-* **科希**: ……不要，這麼寶貴的時間，當然是要拿來睡覺。
+          <t xml:space="preserve">[科希伸了个懒腰]
+**科希**: 今天没有我的任务……对吧？
+* **Prompt:** 你可以去运动一下。
+* **科希**: ……不要，这么宝贵的时间，当然是要拿来睡觉。
 * **科希**: 😐
-* **Prompt:** 如果你想做的話，還有很多。
-* **科希**: 你是個成熟的大人了，還有什麼事非要找一個小鬼幫忙？
+* **Prompt:** 如果你想做的话，还有很多。
+* **科希**: 你是个成熟的大人了，还有什么事非要找一个小鬼帮忙？
 * **科希**: 😥
 </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">[科希不情願地從陰影中走了出來]
-**科希**: ……一定要我上場嗎？
-* **Prompt:** 有你的話，效率會高很多。
-* **科希**: 那你還是慢慢努力吧，我累了，需要休息。
+          <t xml:space="preserve">[科希不情愿地从阴影中走了出来]
+**科希**: ……一定要我上场么？
+* **Prompt:** 有你的话，效率会高上很多。
+* **科希**: 那你还是慢慢努力吧，我累了，需要休息。
 * **科希**: 😦
-* **Prompt:** 緊急事件，事關辛迪加的孩子們。
-* **科希**: ……告訴我地點，快。
+* **Prompt:** 紧急事件，事关辛迪加的孩子们。
+* **科希**: ……告诉我地点，快。
 * **科希**: 😫
 </t>
         </is>
@@ -13185,26 +13185,26 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">[娜恰搖晃著手裡的杯子]
-**娜恰**: 不來嚐嚐它的味道嗎……局長？
-* **Prompt:** ……來一點吧。
-* **娜恰**: 來吧……局長——喝下去，你就會感受到最純粹的快樂！
+          <t xml:space="preserve">[娜恰摇晃着手里的杯子]
+**娜恰**: 不来尝尝它的味道么……局长？
+* **Prompt:** ……要一点点吧。
+* **娜恰**: 来吧……局长——喝下去，你就会感受到最纯粹的快乐！
 * **娜恰**: 😘
-* **Prompt:** 太甜了，我拒絕。
-* **娜恰**: 最甘醇的甜美，才會帶來最極致的快樂……唉，局長的品味看來還是有待提高呢。
+* **Prompt:** 太甜了，我拒绝。
+* **娜恰**: 最甘醇的甜美，才会带来最极致的快乐……唉，局长的品味看来还是有待提高呢。
 * **娜恰**: 😥
 </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">[娜恰心不在焉地玩著身旁的蛇，看到你出現突然來了興趣]
-**娜恰**: 哦……局長，不來和它們親近一下嗎？
-* **Prompt:** 光是和你親近還不夠嗎？
-* **娜恰**: 嘻嘻，當然了……至少這些孩子們在咬你的時候，會比我輕一點哦~
+          <t xml:space="preserve">[娜恰心不在焉地摆弄着身旁的蛇，看到你出现突然来了兴趣]
+**娜恰**: 哦……局长，不来和它们亲近一下么？
+* **Prompt:** 只是和你亲近还不够么？
+* **娜恰**: 嘻嘻，当然了……至少这些孩子们在咬你的时候，会比我轻一点哦~
 * **娜恰**: 😉
-* **Prompt:** 這次應該沒有眼鏡蛇了吧？
-* **娜恰**: 你可要當心哦~局長，我的毒牙可比它們厲害多了~
+* **Prompt:** 这次应该没有眼镜蛇了吧？
+* **娜恰**: 你可要当心哦~局长，我的毒牙可比它们厉害多了~
 * **娜恰**: 😘
 </t>
         </is>
@@ -13222,13 +13222,13 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">[阿黛拉輕柔地撫過你的髮尾]
-**阿黛拉**: 這次想換一個怎麼樣的髮型呢？
-* **Prompt:** 簡單一點就好，交給你了。
+          <t xml:space="preserve">[阿黛拉轻柔地抚过你的发尾]
+**阿黛拉**: 这次想换一个什么样的发型呢？
+* **Prompt:** 简单一点就好，交给你了。
 * **阿黛拉**: 明白了，包在我身上~
 * **阿黛拉**: 😘😘
-* **Prompt:** 最近流行什麼？呃……霹靂螺旋爆炸頭？
-* **阿黛拉**: 嗯……這種造型對你來說還是太前衛了。
+* **Prompt:** 最近流行什么？呃……霹雳螺旋爆炸头？
+* **阿黛拉**: 嗯……这种造型对你来说还是太超前了。
 * **阿黛拉**: 😦
 </t>
         </is>
@@ -13236,12 +13236,12 @@
       <c r="B17" t="inlineStr">
         <is>
           <t xml:space="preserve">[阿黛拉正在擦拭手中的剪刀]
-**阿黛拉**: 你看起來有點累，是最近有什麼煩惱嗎？
-* **Prompt:** 你要幫我剪掉煩惱嗎？
-* **阿黛拉**: 嗯……或許你更需要一杯熱飲。紅茶怎麼樣？
+**阿黛拉**: 你看起来有点累，是最近有什么烦恼吗？
+* **Prompt:** 你要帮我剪掉烦恼吗？
+* **阿黛拉**: 嗯……或许你更需要一杯热饮。红茶怎么样？
 * **阿黛拉**: 😘
 * **Prompt:** ……你先把它放下。
-* **阿黛拉**: 別緊張，這只是一把普通剪刀。
+* **阿黛拉**: 别紧张，这只是一把普通剪刀。
 * **阿黛拉**: 😐
 </t>
         </is>
@@ -13259,27 +13259,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">[曼緹斯遞給你一盒自製的食物，像是某種東西風乾製成的。]
-**曼緹斯**: 這個……給你吃……
-* **Prompt:** 這個真的可以吃嗎？
-* **曼緹斯**: 昆蟲類……營養價值很高……你要多吃一點……
-* **曼緹斯**: 😘
-* **Prompt:** 不然，你先吃一口給我看？
-* **曼緹斯**: 這是專門做來……幫你補身體的……我自己……可以再做……
-* **曼緹斯**: 😉
+          <t xml:space="preserve">[曼缇斯递给你一盒自制的食物，像是某种东西风干制成的。]
+**曼缇斯**: 这个……给你吃……
+* **Prompt:** 这个真的可以吃吗？
+* **曼缇斯**: 昆虫类……营养价值很高……你要多吃一点……
+* **曼缇斯**: 😘
+* **Prompt:** 要不，你先吃一口给我看？
+* **曼缇斯**: 这是专门做来……给你补身体的……我自己……可以再做……
+* **曼缇斯**: 😉
 </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">[曼緹斯盯著電視裡播放的荒野求生節目。]
-**曼緹斯**: 還有更好的方法……這麼做……有危險……
-* **Prompt:** 下次找個機會，讓曼緹斯去指導一下他們吧。
-* **曼緹斯**: 我還可以去……森林裡嗎？
-* **曼緹斯**: 😘
-* **Prompt:** 這不是真的荒野求生，是有劇本的。
-* **曼緹斯**: 那……他們很安全，很好……
-* **曼緹斯**: 😦
+          <t xml:space="preserve">[曼缇斯盯着电视里播放的荒野求生节目。]
+**曼缇斯**: 还有更好的方法……这么做……有危险……
+* **Prompt:** 下次找个机会，让曼缇斯去指导一下他们吧。
+* **曼缇斯**: 我还可以去……森林里吗？
+* **曼缇斯**: 😘
+* **Prompt:** 这不是真的荒野求生，是有剧本的。
+* **曼缇斯**: 那……他们很安全，很好……
+* **曼缇斯**: 😦
 </t>
         </is>
       </c>
@@ -13296,27 +13296,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">[安吉爾面前堆著一大堆網購的創意速食食品盲盒。]
-**安吉爾**: 壽司捲邊冷凍披薩嗎……看起來不是特別優秀的儲存用食物。但這個義大利麵餡的冷凍東洲式包子似乎也不太妙。
-* **Prompt:** 雖然壽司捲邊有點問題，但披薩還是不錯的。
-* **安吉爾**: 確實，哪怕冷凍得再硬，微波爐轉三分鐘就能變軟，而且味道依然好吃。
-* **安吉爾**: 😏
-* **Prompt:** 確實都不太好，不如買冷凍漢堡。
-* **安吉爾**: 漢堡？我之前買過，味道還行，但它似乎指望我額外準備生菜。這有點對不起速食食品的定義了。
-* **安吉爾**: 😫
+          <t xml:space="preserve">[安吉尔面前堆着一大堆网购的创意速食食品盲盒。]
+**安吉尔**: 寿司卷边冷冻披萨吗……看上去不是特别优秀的储存用食物。但这个意面馅的冷冻东洲式包子似乎也不太妙。
+* **Prompt:** 虽然寿司卷边有点问题，但披萨还是不错的。
+* **安吉尔**: 确实，哪怕冻得再硬，微波炉转三分钟就能变软，而且口味仍旧不错。
+* **安吉尔**: 😏
+* **Prompt:** 确实都不太行，不如买冷冻汉堡。
+* **安吉尔**: 汉堡？我之前买过，味道还行，但它似乎指望我额外准备生菜。这有点对不起速食食品的定义了。
+* **安吉尔**: 😫
 </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">[安吉爾盯著群發到所有人裝置上的懶人套被套方法教學。]
-**安吉爾**: 直接新買一套或許更快，這個方式過於複雜了，算不上「懶人」方法。
-* **Prompt:** 只有四個步驟，還不懶人嗎？
-* **安吉爾**: 只有把「鋪棉被」和「鋪被套」視作一個步驟，它才是四個。我的評價是不如買新的，下單、等待、收貨，只要三個步驟。
-* **安吉爾**: 😐
-* **Prompt:** 確實，不需要套被套的被子才是好被子。
-* **安吉爾**: 難得你會贊同我的看法。
-* **安吉爾**: 😦
+          <t xml:space="preserve">[安吉尔盯着群发到所有人终端上的懒人套被套方法教程。]
+**安吉尔**: 直接新买一套或许更快，这个方式过于复杂了，算不上“懒人”方法。
+* **Prompt:** 只有四个步骤，还不懒人吗？
+* **安吉尔**: 只有把“铺被芯”和“铺被套”视作一个步骤，它才是四个。我的评价是不如新买，下单、等待、收货，只要三个步骤。
+* **安吉尔**: 😐
+* **Prompt:** 确实，不需要套被套的被子才是好被子。
+* **安吉尔**: 难得你会赞同我的看法。
+* **安吉尔**: 😦
 </t>
         </is>
       </c>
@@ -13333,65 +13333,65 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">[000看起來神神秘秘]
-**000**: 鏘鏘鏘鏘~我有一個大秘密，你想不想聽？
-* **Prompt:** 什麼秘密？
-* **000**: 你想不想知道最開始你的髮型被設計成什麼樣子？超好笑的哦！
+          <t xml:space="preserve">[000看起来神神秘秘]
+**000**: 锵锵锵锵~我有一个大秘密，你想不想听？
+* **Prompt:** 什么秘密？
+* **000**: 你想不想知道最开始你的发型被设计成什么样子？超好笑的哦！
 * **000**: 😘😘😘
-* **Prompt:** 又偷看到了什麼資料？
-* **000**: 怎麼能叫偷看啊？他們放在資料庫裡不就是讓人看的嘛！你真的不好奇嗎？古早的設定資料，真的很有意思哦！
+* **Prompt:** 又偷看到了什么资料？
+* **000**: 怎么能叫偷看啊~他们放在资料库里不就是让人看的嘛！你真的不好奇吗？古早的设定资料，真的很有意思哦~
 * **000**: 😉😉😉
 </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">[000正在你旁邊觀察你]
-**000**: 局長，你就沒好奇過，未來你可能遇到什麼事情嗎？
-* **Prompt:** 我可能會遇到什麼事？
-* **000**: 如果你也好奇的話，不如讓我借用你的權限路徑去探查一番？
+          <t xml:space="preserve">[000正在你旁边观察你]
+**000**: 局长，你就没好奇过，未来你可能遇到什么事情吗？
+* **Prompt:** 我可能会遇到什么事？
+* **000**: 如果你也好奇的话，不如让我借用你的权限路径去探查一番？
 * **000**: 😘😘😘
-* **Prompt:** 反正遲早都會到來。
-* **000**: 可是，如果能早一點知道的話，不就可以避開很多不必要的麻煩了嘛。
+* **Prompt:** 反正迟早都会到来。
+* **000**: 可是，如果能早一点知道的话，不就可以规避掉很多不必要的麻烦了嘛。
 * **000**: 😥😥😥
 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">[000正在你旁邊觀察你]
-**000**: 局長，你就沒好奇過，未來你可能遇到什麼事情嗎、嗎嗎嗎嗎……滋滋……（請注意，有故障報錯）……唔，剛才……？
-* **Prompt:** 怎麼了？
-* **000**: 剛才好像頭腦空白了一下，我剛剛是想說……關於你未來的事情嘛，如果你也好奇的話，不如讓我借用你的權限路徑去探查一番？
+          <t xml:space="preserve">[000正在你旁边观察你]
+**000**: 局长，你就没好奇过，未来你可能遇到什么事情吗、吗吗吗吗m……滋滋……（请注意，有故障报错）……唔，刚才……？
+* **Prompt:** 怎么了？
+* **000**: 刚才好像头脑空白了一下，我刚刚是想说……关于你未来的事情嘛，如果你也好奇的话，不如让我借用你的权限路径去探查一番？
 * **000**: 😘😘😘
-* **Prompt:** 反正遲早都會到來，咦……？怎麼突然卡住了？
-* **000**: 感覺腦袋空白了一下……沒關係，比起這個，你就一點不好奇嗎？早一點知道自己未來的命運，不就可以避開很多不必要的麻煩了嘛。
+* **Prompt:** 反正迟早都会到来，诶……？怎么突然卡住了？
+* **000**: 感觉脑袋空白了一下……没关系，比起这个，你就一点不好奇吗？早一点知道自己未来的命运，不就可以规避掉很多不必要的麻烦了嘛。
 * **000**: 😥😥😥
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">[000看起來神神秘秘]
-**000**: 鏘鏘鏘鏘~我有一個大秘密，你想不想聽？
-* **Prompt:** 什麼秘密？
-* **000**: 我在6YKu566x藏了後門，方便我時不時找你玩，今天弄了點小禮物要給你，快去翻一翻！否則它們被晾在那裡29天就要過期了喲！
+          <t xml:space="preserve">[000看起来神神秘秘]
+**000**: 锵锵锵锵~我有一个大秘密，你想不想听？
+* **Prompt:** 什么秘密？
+* **000**: 我在6YKu566x藏了后门，方便我时不时找你玩~今天给你弄了点小礼物，快去翻一翻~否则它们被晾在那里29天就要过期了哟！
 * **000**: 😘😘😘
-* **Prompt:** 又偷看到了什麼資料？
-* **000**: 當然是很重要、涉及到機密的……說我賣關子呀？好啦，偷偷告訴你，在6YKu566x裡藏有我的後門，方便來找你玩，去找找吧？給你的禮物已經安靜躺在裡面了！
+* **Prompt:** 又偷看到了什么资料？
+* **000**: 当然是很重要、涉及到机密的……说我卖关子呀？好啦，偷偷告诉你，在6YKu566x里藏有我的后门，方便来找你玩，去找找吧？给你的礼物已经安静躺在里面了~
 * **000**: 😉😉😉
 </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">[000伸手戳了戳自己的臉]
-**000**: 嗨，又偷偷見面啦，最近終於穩定下來，沒有斷聯，也沒有亂碼。雖然有被修復掉的風險，但……只要能跟你說話就好。最近好嗎？有沒有想我呀？
+          <t xml:space="preserve">[000伸手戳了戳自己的脸]
+**000**: 嗨，又偷偷见面啦，最近终于稳定下来，没有断联，也没有乱码。虽然有被修复掉的风险，但……只要能跟你说话就好。最近好吗？有没有想我呀？
 * **Prompt:** 很想你。
-* **000**: 你這樣說我很開心。不過呢，除了想我以外，你的第一要務是要讓自己一直開心愉快，不管發生什麼變成什麼樣子，我都會一直陪你走下去，你也多來陪陪我吧？我一個人會孤單的。
+* **000**: 你这样说我很开心。不过呢，除了想我以外，你的第一要务是要让自己一直开心愉快，不管发生什么变成什么样子，我都会一直陪你走下去，你也多来陪陪我吧？我一个人会孤单的。
 * **000**: 😘😘😘
-* **Prompt:** 我知道你一直在我身邊。
-* **000**: ……啊，臉上怎麼燙燙的……其實我也很想你啦！所以我呀，哪裡都不去，我會一直留在你身邊，陪你走下去……你也要來找我，不許食言哦！
+* **Prompt:** 我知道你一直在我身边。
+* **000**: ……啊，脸上怎么烫烫的……其实我也很想你啦~所以我呀，哪里都不去，我会一直留在你身边，陪你走下去……你也要来找我，不许食言哦！
 * **000**: 😉😉😉
 </t>
         </is>
@@ -13400,26 +13400,26 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">[夏音兩眼發亮地遞上一條機械臂給你]
-**夏音**: 局長，快來試試這個！
-* **Prompt:** ……我覺得這東西還有改進的空間。
-* **夏音**: 咦……你這麼一說好像確實。
+          <t xml:space="preserve">[夏音两眼发亮地给你递上一条机械臂]
+**夏音**: 局长，快来试试这个！
+* **Prompt:** ……我觉得这东西还有改进的空间。
+* **夏音**: 咦……你这么一说好像确实。
 * **夏音**: 😥
-* **Prompt:** 這……是要把手砍掉才行是嗎？
-* **夏音**: 呵呵……不剁掉怎麼裝？
+* **Prompt:** 这……是要把手砍掉才行是么？
+* **夏音**: 呵呵……不剁掉怎么装？
 * **夏音**: 😦😏
 </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">[夏音癱在臥室的床上]
-**夏音**: 唉……為什麼人會感覺到累呢……
-* **Prompt:** 早睡早起多運動。
-* **夏音**: 啊——？那你還不如直接殺了我。
+          <t xml:space="preserve">[夏音瘫在卧室的床上]
+**夏音**: 唉……为什么人会感觉到累呢……
+* **Prompt:** 早睡早起多运动。
+* **夏音**: 啊——？那你还不如直接杀了我。
 * **夏音**: 😖😫😖
-* **Prompt:** 腦力勞動消耗也很大的。
-* **夏音**: 嘿嘿，看來終於有人理解本天才了。
+* **Prompt:** 脑力劳动消耗也很大的。
+* **夏音**: 嘿嘿，看来终于有人理解本天才了。
 * **夏音**: 😉😏
 </t>
         </is>
@@ -13437,27 +13437,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">[蘭利坐在你辦公室的座位上]
-**蘭利**: 彙報一下工作，新人。
-* **Prompt:** 為世界和平出了一份力。
-* **蘭利**: 不錯，但要注意自身的安全，新人。
-* **蘭利**: 😐
-* **Prompt:** 今天按時完成了管理局的計畫。
-* **蘭利**: 哦，中規中矩，但還不夠。
-* **蘭利**: 😦
+          <t xml:space="preserve">[兰利坐在你办公室的座位上]
+**兰利**: 汇报一下工作，新人。
+* **Prompt:** 为世界和平出了一份力。
+* **兰利**: 不错，但要注意自身的安全，新人。
+* **兰利**: 😐
+* **Prompt:** 今天按时完成了管理局的计划。
+* **兰利**: 哦，中规中矩，但还不够。
+* **兰利**: 😦
 </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">[蘭利的神情看起來有些疲憊]
-**蘭利**: 新人，去幫我煮一杯咖啡。
-* **Prompt:** 比起咖啡，我覺得你更需要的是休息。
-* **蘭利**: 不好不壞的提案，新人。
-* **蘭利**: 😐
-* **Prompt:** 可以試試管理局的手磨咖啡。
-* **蘭利**: 不錯，光是聞這咖啡的香氣就讓我感到心情愉悅了。
-* **蘭利**: 😘
+          <t xml:space="preserve">[兰利的神情看起来有些疲惫]
+**兰利**: 新人，去帮我煮一杯咖啡。
+* **Prompt:** 比起咖啡，我觉得你更需要的是休息。
+* **兰利**: 不好不坏的提案，新人。
+* **兰利**: 😐
+* **Prompt:** 可以试试管理局的手磨咖啡。
+* **兰利**: 不错，光是闻这咖啡的香气就让我感到心情愉悦了。
+* **兰利**: 😘
 </t>
         </is>
       </c>
@@ -13474,26 +13474,26 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">[橡木匣正拿著工具製作一個棕色的小盒子]
-**橡木匣**: 嗯……果然還是柏木比較合適嗎……
-* **Prompt:** 你做的是什麼？
-* **橡木匣**: 你來猜猜看吧？是受人囑託為她死去的寵物鸚鵡準備的。
+          <t xml:space="preserve">[橡木匣正拿着工具制作一只棕色的小盒子]
+**橡木匣**: 嗯……果然还是柏木比较合适么……
+* **Prompt:** 你做的是什么？
+* **橡木匣**: 你来猜猜看呢？是受人嘱托为她死去的宠物鹦鹉准备的。
 * **橡木匣**: 😐
-* **Prompt:** 這個……是給誰用的？
-* **橡木匣**: 鸚鵡。收容區工作人員養的寵物昨天剛剛去世了。
+* **Prompt:** 这个……是给谁用的？
+* **橡木匣**: 鹦鹉。收容区工作人员养的宠物昨天刚刚去世了。
 * **橡木匣**: 😐
 </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">[橡木匣正躺在她房間內的黑色長匣裡，面色安詳]
-**橡木匣**: 要來一起躺一下嗎？還有很多空間。
+          <t xml:space="preserve">[橡木匣正躺在她房间内的黑色长匣里，面色安详]
+**橡木匣**: 要来一起躺一会儿么？还有很多富余的空间。
 * **Prompt:** ……好吧。
-* **橡木匣**: 怎麼樣？是不是感受到了特別的寧靜？
+* **橡木匣**: 怎么样？是不是感受到了别样的宁静？
 * **橡木匣**: 😏
-* **Prompt:** 還是不了。
-* **橡木匣**: 是因為太硬了不舒服嗎？我可以去幫你拿一些軟墊來。
+* **Prompt:** 还是不了。
+* **橡木匣**: 是因为太硬了不舒服吗？我可以去给你拿一些软垫来。
 * **橡木匣**: 😦
 </t>
         </is>
@@ -13511,26 +13511,26 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">[德雷雅似乎想讓你在她身邊多留一陣子]
-**德雷雅**: 我想……聽你多說說話。
-* **Prompt:** 好吧，想知道我的什麼秘密？
+          <t xml:space="preserve">[德雷雅似乎想让你在她身边多留一会儿]
+**德雷雅**: 我想……听你多说说话。
+* **Prompt:** 好吧，想知道我的什么秘密？
 * **德雷雅**: 一切秘密……
 * **德雷雅**: 😘
-* **Prompt:** 昨天不是已經聊了很久了。
-* **德雷雅**: 這種需求……是永無止境的。
+* **Prompt:** 昨天不是已经聊了很久了。
+* **德雷雅**: 这种需求……是永无止境的。
 * **德雷雅**: 😖
 </t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">[德雷雅的房間發出了一些奇怪的響動]
-**德雷雅**: 局長……能幫我把這些……收起來嗎？
-* **Prompt:** 咖啡、紅茶、水果罐頭……你怎麼囤了這麼多東西？
-* **德雷雅**: 個人習慣……它們……總會需要的……
+          <t xml:space="preserve">[德雷雅的房间发出了一些奇怪的响动]
+**德雷雅**: 局长……能帮我把这些……收起来吗？
+* **Prompt:** 咖啡、红茶、水果罐头……你怎么囤了这么多东西？
+* **德雷雅**: 个人习惯……它们……总会需要的……
 * **德雷雅**: 😖
-* **Prompt:** 這些罐頭不放在房間裡也沒關係。
-* **德雷雅**: 這樣……會有滿足感……
+* **Prompt:** 这些罐头不放在房间里也行的。
+* **德雷雅**: 这样……会有满足感……
 * **德雷雅**: 😫
 </t>
         </is>
@@ -13548,26 +13548,26 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">[瑟琳將手裡的相機鏡頭對準了你]
-**瑟琳**: 來，笑一個~
+          <t xml:space="preserve">[瑟琳将手里的相机镜头对准了你]
+**瑟琳**: 来，笑一个~
 * **Prompt:** ……啊？
-* **瑟琳**: 呵呵，局長呆呆的樣子很可愛呢。
+* **瑟琳**: 呵呵，局长呆呆的样子很可爱呢。
 * **瑟琳**: 😘
-* **Prompt:** 呃……我果然還是不太習慣突然被人拍照。
-* **瑟琳**: 是嗎？局長真是容易害羞啊~
+* **Prompt:** 呃……我果然还是不太习惯突然被人拍照。
+* **瑟琳**: 是吗？局长真是容易害羞啊~
 * **瑟琳**: 😏
 </t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">[瑟琳正在翻找她收藏的唱片]
-**瑟琳**: 今天看什麼好呢……
-* **Prompt:** 《錄影》？這個在講什麼？
-* **瑟琳**: 偽紀錄片形式的恐怖片，還蠻有意思的，要不要一起看看？
+          <t xml:space="preserve">[瑟琳正在她的碟片收藏中翻找]
+**瑟琳**: 今天看什么好呢……
+* **Prompt:** 《录像》？这个讲的是什么？
+* **瑟琳**: 伪纪录片形式的恐怖片，还蛮有意思的，要不要一起看看？
 * **瑟琳**: 😏
-* **Prompt:** 《街頭小吃戰士》？你還收藏美食紀錄片？
-* **瑟琳**: 很奇怪嗎？閒來無事的時候用來打發時間很不錯~
+* **Prompt:** 《街头小吃战士》？你还收藏美食纪录片？
+* **瑟琳**: 很奇怪吗？闲来无事的时候用来打发时间很不错~
 * **瑟琳**: 😉
 </t>
         </is>
@@ -13585,27 +13585,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">[珀爾夫人把自己的眼影收藏鋪了一桌。]
-**珀爾夫人**: 唉，不知不覺間居然收集了這麼多眼影~今天該用哪個好呢~局長，你要不要幫我選選~？
-* **Prompt:** 這個墨綠色還有亮片的吧，只有你能駕馭這種獨一無二的顏色。
-* **珀爾夫人**: 親愛的，你大膽的選擇總是那麼對我胃口~正好現在有空，你也來試試怎麼樣？你皮膚白，會很顯色的哦~來，閉眼~
-* **珀爾夫人**: 😘😘😘
-* **Prompt:** 這個霧面胭脂紅的吧，王道的豔麗更能襯托出你的氣質。
-* **珀爾夫人**: 呵呵~不說俗氣而是說王道，真像是你的風格~你的建議真不錯，對我們這樣總是沉浸在戲劇中的人來說，偶爾試試日常款應該也很不錯~
-* **珀爾夫人**: 😏😏😏
+          <t xml:space="preserve">[珀尔夫人把自己的眼影收藏铺了一桌。]
+**珀尔夫人**: 唉，不知不觉间居然收集了这么多眼影~今天该用哪个好呢~局长，你要不要帮我选选~？
+* **Prompt:** 这个墨绿色带亮片的吧，只有你能驾驭这种独一无二的颜色。
+* **珀尔夫人**: 亲爱的，你大胆的选择总是那么对我胃口~正好现在有空，你也来试试怎么样？你皮肤白，会很显色的哦~来，闭眼~
+* **珀尔夫人**: 😘😘😘
+* **Prompt:** 这个哑光胭脂红的吧，王道的艳丽更能衬托出你的气质。
+* **珀尔夫人**: 呵呵~不说俗气而是说王道，真像是你的风格~你的建议真不错，对我们这样总是沉浸在戏剧中的人来说，偶尔试试日常款应该也很不错~
+* **珀尔夫人**: 😏😏😏
 </t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">[珀爾夫人翻看著管理局尾牙節目申請單。]
-**珀爾夫人**: 「舞獅」、「搖滾獨奏」、「雜技」……唉呀，看起來都很有趣啊。局長，你也報一個節目怎麼樣？不用擔心會不會成功，有我在，一定會把你捧成尾牙最閃耀的新星~
-* **Prompt:** 抱歉，我唱歌會走音。
-* **珀爾夫人**: 如果你有時間，我可以教你~如果你沒有，原汁原味不作任何矯飾的表演，也有它獨特的滋味~呵呵，誰說失控的曲調，不是另一個動人的節目呢~
-* **珀爾夫人**: 😘😘😘
-* **Prompt:** 抱歉，我跳舞手腳不協調。
-* **珀爾夫人**: 交際舞其實沒有你想的那麼難~它更接近於一種肢體上的交流，一種自然的節律~像是一呼一吸，一進一退……你看，你做得很好~
-* **珀爾夫人**: 😏😏😏
+          <t xml:space="preserve">[珀尔夫人翻看着管理局年会节目申请单。]
+**珀尔夫人**: “舞狮”“摇滚独奏”“杂技”……哎呀，看起来都很有趣啊~局长，你也报一个节目怎么样~不用担心会不会成功，有我在，一定把你捧成年会最闪耀的新星~
+* **Prompt:** 抱歉，我唱歌跑调。
+* **珀尔夫人**: 如果你有时间，我可以教你~如果你没有，原汁原味不作任何矫饰的表演，也有它独特的滋味~呵呵，谁说失控的曲调，不是另一个动人的节目呢~
+* **珀尔夫人**: 😘😘😘
+* **Prompt:** 抱歉，我跳舞踩脚。
+* **珀尔夫人**: 交际舞其实没有你想的那么难~它更接近于一种肢体上的交流，一种自然的节律~像是一呼一吸，一进一退……你看，你做得很好~
+* **珀尔夫人**: 😏😏😏
 </t>
         </is>
       </c>
@@ -13622,27 +13622,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">[畢安卡正在從面前的包裹堆裡拆出一個又一個新的蘋果口味小零食。]
-**畢安卡**: 蘋果拿鐵、蘋果烏龍、蘋果口味什錦堅果、蘋果口味搖搖薯條……這真是太讓人興奮啦！嘿嘿，要從哪種開始吃呢~局長要不要也吃吃看？
-* **Prompt:** 蘋果烏龍吧，聽起來喝了不會拉肚子。
-* **畢安卡**: 唔唔，雖然無聊但穩健的選擇！如果這是綜藝節目的話——鏘鏘，就給你的回答2分吧！記分牌拿好，還有你的蘋果烏龍！
-* **畢安卡**: 😘😘😘
-* **Prompt:** 蘋果口味薯條吧，挑戰要從極限開始。
-* **畢安卡**: 唉呀，局長真是跟我好有默契啊！來來來，為了紀念這份默契，你叼薯條這邊，我叼這邊，看鏡頭——拍啦！
-* **畢安卡**: 😏😏😏
+          <t xml:space="preserve">[毕安卡正在从面前的快递堆里拆出一件又一件新的苹果味小零食。]
+**毕安卡**: 苹果拿铁、苹果乌龙、苹果味什锦坚果、苹果味摇摇薯条……这真是太让人兴奋啦！嘿嘿，要从哪种开始吃呢~局长要不要也尝一尝？
+* **Prompt:** 苹果乌龙吧，听起来喝了不会拉肚子。
+* **毕安卡**: 唔唔，虽然无聊但稳健的选择！如果这是综艺节目的话——锵锵，就给你的回答2分吧！记分牌拿好，还有你的苹果乌龙！
+* **毕安卡**: 😘😘😘
+* **Prompt:** 苹果味薯条吧，挑战要从极限开始。
+* **毕安卡**: 哎呀，局长真是跟我好有默契啊！来来来，为了纪念这份默契，你叼薯条这边，我叼这边，看镜头——拍咯！
+* **毕安卡**: 😏😏😏
 </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">[畢安卡皺緊眉頭看著面前的蘋果汁罐子。]
-**畢安卡**: 怪不得昨天怎麼喝都不太對，原來是福利社進了0卡0果汁的蘋果汁……這還算什麼蘋果汁？虛假宣傳，我要曝光他們！
-* **Prompt:** 但你不還是喝得開始胡說八道了……
-* **畢安卡**: 嗯？真的假的？我怎麼不記得有這件事了？唉呀，難道我昨天喝的是我的存貨，所以硬生生喝到斷片了？
-* **畢安卡**: 😘😘😘
-* **Prompt:** 但你不還是順理成章宿「醉」到下午才醒……
-* **畢安卡**: 這個和蘋果汁沒關係呀，你忘了，我前幾天為了蹲個大新聞可是連著熬夜了好幾天呢！所以才不是什麼宿「醉」呢，是昏睡~！
-* **畢安卡**: 😏😏😏
+          <t xml:space="preserve">[毕安卡皱紧眉头看着面前的苹果汁罐子。]
+**毕安卡**: 怪不得昨天怎么喝都不太对，原来是小卖部进了0卡0果汁的苹果汁……这还算什么苹果汁？虚假宣传，我要曝光他们！
+* **Prompt:** 可你不还是喝得说起了胡话……
+* **毕安卡**: 嗯？真的假的？我怎么不记得有这件事了？哎呀，难道我昨天喝的是我的存货，所以硬生生喝断片了？
+* **毕安卡**: 😘😘😘
+* **Prompt:** 可你不还是顺理成章宿“醉”到下午才醒……
+* **毕安卡**: 这个和苹果汁没关系呀，你忘了，我前几天为了蹲个大新闻可是连着熬了几个大夜呢！所以才不是什么“宿醉”呢，是昏睡~！
+* **毕安卡**: 😏😏😏
 </t>
         </is>
       </c>
@@ -13659,26 +13659,26 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">[柯琳正將幾把步槍上油做保養]
-**柯琳**: 早啊局長，想親手試試砂海本地改裝的重火力武器嗎？這火力，這攻擊範圍，完美的上等好貨，一般人可沒機會摸到我的寶貝。
-* **Prompt:** 試試就試試。
-* **柯琳**: 還是局長大氣！剛才我糊弄……不是，是勸說了半天都沒人敢試，你可是第一個哦！
+          <t xml:space="preserve">[柯琳正给几把步枪上油做保养]
+**柯琳**: 早啊局长，想亲手试试砂海本地改装的重火力武器吗？这火力，这攻击范围，妥妥的俏货，一般人可没机会摸到我的宝贝。
+* **Prompt:** 试试就试试。
+* **柯琳**: 还是局长大气！刚才我忽悠……不是，是劝说了半天都没人敢试，你可是第一个哦~
 * **柯琳**: 😏😏😏
-* **Prompt:** 我沒說要試。
-* **柯琳**: 別這麼警惕嘛，又不是叫你花錢買……唉呀，退一萬步說，就算是要花錢，我也是最熟悉本地貨價的地頭蛇，給局長的保證是親友價！
+* **Prompt:** 我可没说要试。
+* **柯琳**: 别这么警惕嘛，又不是叫你花钱买……哎呀，退一万步说，就算是要花钱，我也是最熟悉本地货价的地头蛇，给局长的保准是亲友价~
 * **柯琳**: 😘😘😘
 </t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">[柯琳在黑市懸賞名單裡找到了自己的名字]
-**柯琳**: 唉呀，居然花這麼多錢來懸賞我，搞得我都有點心動想出手了……嘖，就是可惜本人不能領獎，不然我就把自己供出去了……不對，現在有局長在……
-* **Prompt:** 有人要懸賞你？為什麼？
-* **柯琳**: 還不是這群砂盜太小心眼了，你看，我只不過把幾個砂盜頭目扒得只剩條褲衩然後綁在破爛小車後面繞了砂海一圈，還讓他們成功美黑，怎麼反手過來懸賞我呢，是吧！
+          <t xml:space="preserve">[柯琳在黑市悬赏名单里找到了自己的名字]
+**柯琳**: 哎呀，居然花这么多钱来悬赏我，搞得我都有点心动想出手了……啧，就是可惜本人不能领奖，不然我就把自己供出去了……不对，现在有局长在……
+* **Prompt:** 有人要悬赏你？为什么？
+* **柯琳**: 还不是这群砂盗太小心眼了~你看，我只不过把几个砂盗头目扒得只剩条裤衩然后绑在破烂小车后面绕了砂海一圈，还让他们成功美了个黑，怎么反手过来悬赏我呢，是吧~
 * **柯琳**: 😏😏😏
-* **Prompt:** 你想做什麼？
-* **柯琳**: 打個商量，幫個小忙，把我供出去，事後剿滅砂盜的功勞歸你，賞錢歸我，各取所需，雙方共贏，怎麼樣？唉呀，別急著搖頭嘛……
+* **Prompt:** 你想做什么？
+* **柯琳**: 打个商量，帮个小忙，把我供出去，事后剿灭砂盗的功劳归你，赏钱归我，各取所需，双方共赢，怎么样？哎呀，别急着摇头嘛……
 * **柯琳**: 😉😉😉
 </t>
         </is>
@@ -13696,25 +13696,25 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">[伊琳娜擺好了棋局，向你招手]
+          <t xml:space="preserve">[伊琳娜摆好了棋局，向你招手]
 **伊琳娜**: 和我，下局棋吧？
-* **Prompt:** 西洋棋以外的棋種可以試試。
-* **伊琳娜**: 呵呵……換成什麼你都贏不了我的。
+* **Prompt:** 国际象棋以外的棋种可以试试。
+* **伊琳娜**: 呵呵……换成什么你都赢不了我的。
 * **伊琳娜**: 😘
-* **Prompt:** 算了吧，我清楚自己沒有勝算。
-* **伊琳娜**: 不要拒絕得這麼快，這次我會讓著你一點。
+* **Prompt:** 算了吧，我清楚自己没有胜算。
+* **伊琳娜**: 不要拒绝得这么快，这次我会让着你一点。
 * **伊琳娜**: 😉
 </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">[伊琳娜翻著自己手中的財報]
-**伊琳娜**: 你是來支付上次的報酬的？
-* **Prompt:** ……什麼報酬？和死役有關嗎？
-* **伊琳娜**: 你還真是貴人多忘事。當然是處理巨型死役的事情。
+          <t xml:space="preserve">[伊琳娜翻着自己手中的财报]
+**伊琳娜**: 你是来支付上次的报酬的？
+* **Prompt:** ……什么报酬？和死役有关么？
+* **伊琳娜**: 你还真是贵人多忘事。当然是处理巨型死役的事情。
 * **伊琳娜**: 😏
-* **Prompt:** 你要是這樣說……恐怕沒人能付得起。
+* **Prompt:** 你要是这么说……恐怕没人能付得起。
 * **伊琳娜**: 既然如此，不如，就用你自己……
 * **伊琳娜**: 😘
 </t>
@@ -13733,27 +13733,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">[安納奇亞撫摸著水晶球]
-**觀星者**: 你來了，它等了你很久。
-* **Prompt:** 距離上次觀星確實過去了好長一段時間。
-* **觀星者**: 呵呵……那就讓我們開始吧？我的小怪物——
-* **觀星者**: 😘
-* **Prompt:** ……難道觀星也要挑選顧客嗎？
-* **觀星者**: 當然，你的靈魂最為純粹，也最為未知。
-* **觀星者**: 😉
+          <t xml:space="preserve">[安纳奇亚抚摸着水晶球]
+**观星者**: 你来了，它等了你很久。
+* **Prompt:** 距离上次观星确实过去了好长一段时间。
+* **观星者**: 呵呵……那就让我们开始吧？我的小怪物——
+* **观星者**: 😘
+* **Prompt:** ……难道观星也要挑选顾客么？
+* **观星者**: 当然，你的灵魂最为纯粹，也最为未知。
+* **观星者**: 😉
 </t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">[安納奇亞少見地嘆著氣]
-**觀星者**: 唉……最近和靈魂們的交流有些困難……
-* **Prompt:** 換塊觀星水晶試試？
-* **觀星者**: ……我不覺得這是個好建議，尤其是對於一個觀星者來說。
-* **觀星者**: 😐
-* **Prompt:** 需要我使用枷鎖來幫助你嗎？
-* **觀星者**: 那……來吧？記得不要像最開始那樣生澀哦。
-* **觀星者**: 😘
+          <t xml:space="preserve">[安纳奇亚少见地叹着气]
+**观星者**: 唉……最近和灵魂们的交流有些困难……
+* **Prompt:** 换块观星水晶试试？
+* **观星者**: ……我不觉得这是个好建议，尤其是对于一个观星者来说。
+* **观星者**: 😐
+* **Prompt:** 需要我使用枷锁来帮助你么？
+* **观星者**: 那……来吧？记得不要像最开始那样生涩哦。
+* **观星者**: 😘
 </t>
         </is>
       </c>
@@ -13770,27 +13770,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">[愛緹正捧著一本畫冊看得津津有味，封面是一頭噴火的巨龍]
-**愛緹**: 你來得正好，看看我更像哪條龍？
-* **Prompt:** 這條紅色的？
-* **愛緹**: 它叫飛焰，熟練掌控火焰魔法，守護著神秘的寶藏，關於它的傳說廣為流傳……酷！
-* **愛緹**: 😘
-* **Prompt:** 這條白色的？
-* **愛緹**: 密斯塔倫晶龍，鱗片就好像冰晶一樣，可以將陽光反射出絢麗的色彩……嗯，確實長得更好看些。
-* **愛緹**: 😏
+          <t xml:space="preserve">[爱缇正捧着一本画册看得津津有味，封面是一头喷火的巨龙]
+**爱缇**: 你来得正好，看看我更像哪条龙？
+* **Prompt:** 这条红色的？
+* **爱缇**: 它叫飞焰，熟练掌控火焰魔法，守护着神秘的宝藏，关于它的传说广为流传……酷！
+* **爱缇**: 😘
+* **Prompt:** 这条白色的？
+* **爱缇**: 密斯塔伦晶龙，鳞片就好像冰晶一样，可以将阳光反射出绚丽的色彩……嗯，确实长得更好看些。
+* **爱缇**: 😏
 </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">[出門前愛緹攔住了你的去路，並把手搭在你的肩頭]
-**愛緹**: 被選召的勇者啊，你已經通過了我的考驗，即將帶著從巨石中拔出的寶劍踏上征途。你，準備好了嗎？
-* **Prompt:** 準備好了。
-* **愛緹**: 很好，我會在旅途的終點等你，以榮耀和寶藏為你加冕。
-* **愛緹**: 😉
-* **Prompt:** 沒準備好……
-* **愛緹**: 嘖，你就不能好好配合我一次嗎？
-* **愛緹**: 😖
+          <t xml:space="preserve">[出门前爱缇拦住了你的去路，并把手搭在你的肩头]
+**爱缇**: 被选召的勇者啊，你已经通过了我的考验，即将带着从巨石中拔出的宝剑踏上征途。你，准备好了吗？
+* **Prompt:** 准备好了。
+* **爱缇**: 很好，我会在旅途的终点等你，以荣耀和宝藏为你加冕。
+* **爱缇**: 😉
+* **Prompt:** 没准备好……
+* **爱缇**: 啧，你就不能好好配合我一次吗？
+* **爱缇**: 😖
 </t>
         </is>
       </c>
@@ -13807,27 +13807,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">[渡鴉捧著她的本子向你走來]
-**渡鴉**: 來讀讀我為你寫的詩~
-* **Prompt:** 謝謝，寫得不錯。
-* **渡鴉**: 你喜歡就好~
-* **渡鴉**: 😘😘😘
-* **Prompt:** ……可能是我水準不夠，我有點看不懂。
-* **渡鴉**: 真遺憾，我可是構思了好久呢。
-* **渡鴉**: 😥
+          <t xml:space="preserve">[渡鸦捧着她的本子向你走来]
+**渡鸦**: 来读读我为你写的诗~
+* **Prompt:** 谢谢，写得不错。
+* **渡鸦**: 你喜欢就好~
+* **渡鸦**: 😘😘😘
+* **Prompt:** ……可能是我水平不够，我有点欣赏不来。
+* **渡鸦**: 真遗憾，我可是构思了好久呢。
+* **渡鸦**: 😥
 </t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">[渡鴉饒有興致地看著你]
-**渡鴉**: 拜託我寫通稿？可以呀，你有什麼要求？
-* **Prompt:** 都交給你，我相信你的水準。
-* **渡鴉**: 沒問題，絕對讓你滿意~
-* **渡鴉**: 😉
-* **Prompt:** 別寫成打油詩就好。
-* **渡鴉**: 欸，什麼叫打油詩啊，我那叫調侃，懂吧~調侃~
-* **渡鴉**: 😖
+          <t xml:space="preserve">[渡鸦饶有兴致地看着你]
+**渡鸦**: 拜托我写通稿？可以呀，你有什么要求？
+* **Prompt:** 都交给你，我相信你的水平。
+* **渡鸦**: 没问题，绝对让你满意~
+* **渡鸦**: 😉
+* **Prompt:** 别写成打油诗就行。
+* **渡鸦**: 哎，什么叫打油诗啊，我那叫调侃，懂吧~调侃~
+* **渡鸦**: 😖
 </t>
         </is>
       </c>
@@ -13844,27 +13844,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">[雷溫的黑眼圈越發醒目。]
-**雷溫**: 又被提醒放風時間的廣播吵醒了……
-* **Prompt:** 乾脆把電台改到白天怎麼樣？
-* **雷溫**: 但我還是放不下那些在夜裡需要陪伴去傾訴的人……
-* **雷溫**: 😥
-* **Prompt:** 試試睡覺時戴上耳塞？
-* **雷溫**: 我聽說，菲小姐採購的耳塞「可以阻礙所有噪音」，但廣播也「擁有不可抵擋的穿透力」……呵呵，聽起來像是我的節目贊助商會打出的廣告詞呢。
-* **雷溫**: 😉
+          <t xml:space="preserve">[雷温的黑眼圈越发醒目。]
+**雷温**: 又被提示放风时间的广播吵醒了……
+* **Prompt:** 干脆把电台改到白天怎么样？
+* **雷温**: 可我还是放不下那些在夜里需要陪伴去倾诉的人……
+* **雷温**: 😥
+* **Prompt:** 试试睡觉时戴上耳塞？
+* **雷温**: 我听说，菲小姐采购的耳塞“可以阻碍所有噪音”，但广播也“拥有不可抵挡的穿透力”……呵呵，听起来像是我的节目赞助商会打出的广告词呢。
+* **雷温**: 😉
 </t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">[雷溫正在整理著ASMR錄製用的道具。]
-**雷溫**: 爪子踩過行道樹的嚓嚓聲，觸鬚摩擦耳膜的沙沙聲……錄哪一個好呢？
-* **Prompt:** 兩個都不太像是ASMR應該有的選項啊。
-* **雷溫**: 別這麼說，這可是除了我的小詩之外，電台ASMR中最有人氣的兩個選項，很適合無眠的夜晚……你也可以試試。
-* **雷溫**: 😘
-* **Prompt:** 聽起來都滿催眠的，兩個都不錯。
-* **雷溫**: 如果你也有興趣，我可以傳給你這份音檔。試試聆聽著它入睡吧，它一定能幫你順利進入夢鄉~
-* **雷溫**: 😉
+          <t xml:space="preserve">[雷温正在整理着ASMR录制用的道具。]
+**雷温**: 爪子踩过行道树的嚓嚓声，触须摩擦耳膜的沙沙声……录哪一个好呢？
+* **Prompt:** 两个都不太像是ASMR应该有的选项啊。
+* **雷温**: 别这么说，这可是除了我的小诗之外，电台ASMR中最有人气的两个选项，很适合无眠的夜晚……你也可以试试。
+* **雷温**: 😘
+* **Prompt:** 听上去都挺催眠的，两个都不错。
+* **雷温**: 如果你也有兴趣，我可以把干音发一份给你。试试聆听着它入睡吧，它一定能帮你顺利进入梦乡~
+* **雷温**: 😉
 </t>
         </is>
       </c>
@@ -13881,27 +13881,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">[赫斯提亞抱著火炬站在管理局門口。]
-**赫斯提亞**: 要點燃火光……為大家……指引回家的路……
-* **Prompt:** 回去吧，別擔心，他們不會迷路的。
-* **赫斯提亞**: 不……這是……我的職責……！
-* **赫斯提亞**: 😖
-* **Prompt:** 辛苦了，那我幫你搬個椅子吧。
-* **赫斯提亞**: 謝謝……聖女會賜福於你……
-* **赫斯提亞**: 😘
+          <t xml:space="preserve">[赫斯提亚抱着火炬站在管理局门口。]
+**赫斯提亚**: 要点燃火光……为大家……指引回家的路……
+* **Prompt:** 回去吧，别担心，他们不会迷路的。
+* **赫斯提亚**: 不……这是……我的职责……！
+* **赫斯提亚**: 😖
+* **Prompt:** 辛苦了，那我给你搬个椅子吧。
+* **赫斯提亚**: 谢谢……圣女会赐福于你……
+* **赫斯提亚**: 😘
 </t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">[赫斯提亞吃了一顆別人給的怪味糖。]
-**赫斯提亞**: 今天的貢品……味道有些……不一樣……？
-* **Prompt:** 你不喜歡的話，就換個口味吧。
-* **赫斯提亞**: 這個好多了……甜甜的……是桃子的味道……
-* **赫斯提亞**: 😘
-* **Prompt:** 呃……這顆糖好像是鹹魚口味的。
-* **赫斯提亞**: 鹹魚……糖……？糖……鹹魚……魚……
-* **赫斯提亞**: 😥
+          <t xml:space="preserve">[赫斯提亚尝了一颗别人投喂的怪味糖。]
+**赫斯提亚**: 今天的贡品……味道有些……不一样……？
+* **Prompt:** 你不喜欢的话，就换个口味吧。
+* **赫斯提亚**: 这个好多了……甜甜的……是桃子的味道……
+* **赫斯提亚**: 😘
+* **Prompt:** 呃……这颗糖好像是咸鱼味的。
+* **赫斯提亚**: 咸鱼……糖……？糖……咸鱼……鱼……
+* **赫斯提亚**: 😥
 </t>
         </is>
       </c>
@@ -13918,27 +13918,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">[藍鷲正在享用下午茶]
-**藍鷲**: 你來了，現在陽光正好，你也難得清閒，坐下來慢慢品嚐一下特別為您準備的甜點如何，我沏了茶，來挑挑吧？想配哪塊點心？
-* **Prompt:** 藍莓起司蛋糕
-* **藍鷲**: 嗯，香醇可口，甜度也很適中……剛疲憊工作了一陣子的局長大人，應當最適合享用這份下午茶的愜意吧？
-* **藍鷲**: 😉😉😉
-* **Prompt:** 草莓奶油可麗餅
-* **藍鷲**: 一起嚐嚐吧？……你說太甜了，呵呵，生活中的苦總是需要點甜味調劑的。
-* **藍鷲**: 😏😏😏
+          <t xml:space="preserve">[蓝鹫正在享用下午茶]
+**蓝鹫**: 你来了，现在阳光正好，你也难得清闲，坐下来慢慢品尝一下特供甜点如何，我沏了茶，来挑挑吧？想配哪块点心？
+* **Prompt:** 蓝莓芝士蛋糕
+* **蓝鹫**: 嗯~香醇可口，甜度也很适中……刚疲惫工作了一阵子的局长大人，应当最适合享用这份下午茶的惬意吧？
+* **蓝鹫**: 😉😉😉
+* **Prompt:** 草莓奶油可丽饼
+* **蓝鹫**: 一起尝尝吧？……你说太甜了，呵呵，生活中的苦总是需要点甜味调剂的。
+* **蓝鹫**: 😏😏😏
 </t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">[藍鷲坐在窗邊，察覺到你的注視，回頭笑笑]
-**藍鷲**: 怎麼了，這樣看著我，是懷念曾經與我為鄰的日子嗎？
-* **Prompt:** 懷念
-* **藍鷲**: 是嗎？既然這樣，我遞交的那份申請，局長大人可要雙手贊同批准哦，不久之後，我們就能繼續比鄰而居！
-* **藍鷲**: 😘😘😘
-* **Prompt:** 否認
-* **藍鷲**: 是嗎？本來還想將房間搬到局長房間旁邊，那還真可惜。
-* **藍鷲**: 😥😥😥
+          <t xml:space="preserve">[蓝鹫坐在窗边，察觉到你的注视，回头笑笑]
+**蓝鹫**: 怎么了，这样看着我，是怀念曾经与我为邻的日子吗？
+* **Prompt:** 怀念
+* **蓝鹫**: 是吗？既然这样，我递交的那份申请，局长大人可要双手赞同批准哦，不久之后，我们就能继续比邻而居~
+* **蓝鹫**: 😘😘😘
+* **Prompt:** 否认
+* **蓝鹫**: 是吗？本来还想将房间搬到局长房间旁边，那可真可惜。
+* **蓝鹫**: 😥😥😥
 </t>
         </is>
       </c>
@@ -13955,27 +13955,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">[你聽到辦公室內傳來悅耳的歌聲。]
-**縈縈**: 局長喜不喜歡我唱的歌？下一首想聽什麼呀？
-* **Prompt:** 都喜歡，你的歌聲能讓我更專注。
-* **縈縈**: 那當然啦，我的歌喉在雲淮可值千金一曲~
-* **縈縈**: 😉😉😉
-* **Prompt:** 可以再唱一遍剛才那首歌嗎？
-* **縈縈**: 局長果然和我志趣相投~剛才那首可是我最喜歡的曲子！
-* **縈縈**: 😘😘😘
+          <t xml:space="preserve">[你听到办公室内传来悦耳的歌声。]
+**萦萦**: 局长喜不喜欢我唱的歌？下一首想听什么呀~
+* **Prompt:** 都喜欢，你的歌声能让我更专注。
+* **萦萦**: 那当然啦，我的歌喉在云淮可值千金一曲~
+* **萦萦**: 😉😉😉
+* **Prompt:** 可以再唱一遍刚才那曲吗？
+* **萦萦**: 局长果然和我志趣相投~刚才那首可是我最喜欢的曲子！
+* **萦萦**: 😘😘😘
 </t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">[縈縈正在縫製祈福的花囊。]
-**縈縈**: 局長你來啦！快幫我看看這枚花囊用什麼顏色的掛繩比較好～
-* **Prompt:** 用你喜歡的顏色吧。
-* **縈縈**: 你的意思是無論我喜歡什麼，你都會喜歡嗎~
-* **縈縈**: 😘😘😘
-* **Prompt:** 紫藤的顏色就很好。
-* **縈縈**: 那我可要好好挑一挑，哪個顏色最像紫藤呢~
-* **縈縈**: 😘😘😘
+          <t xml:space="preserve">[萦萦正在缝制祈福的花囊。]
+**萦萦**: 局长你来啦~快帮我看看这枚花囊用什么颜色的挂绳好~
+* **Prompt:** 用你喜欢的颜色吧。
+* **萦萦**: 你的意思是无论我喜欢什么，你都会喜欢吗~
+* **萦萦**: 😘😘😘
+* **Prompt:** 紫藤的颜色就很好。
+* **萦萦**: 那我可要好好挑一挑，哪个颜色最像紫藤呢~
+* **萦萦**: 😘😘😘
 </t>
         </is>
       </c>
@@ -13992,27 +13992,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">[你在訓練室看到了練舞的哈梅爾]
-**哈梅爾**: 你是來……當我觀眾的嗎？
-* **Prompt:** 嗯，大概什麼時候準備表演呢？
-* **哈梅爾**: 如果是你的話，現在就可以。
-* **哈梅爾**: 😘😘
-* **Prompt:** 我是來提醒你到時間出任務了。
-* **哈梅爾**: 唔……那我稍微準備一下。
-* **哈梅爾**: 😖😖
+          <t xml:space="preserve">[你在训练室看到了练舞的哈梅尔]
+**哈梅尔**: 你是来……当我观众的么？
+* **Prompt:** 嗯，大概什么时候准备表演呢？
+* **哈梅尔**: 如果是你的话，现在就可以。
+* **哈梅尔**: 😘😘
+* **Prompt:** 我是来提醒你到时间出任务了。
+* **哈梅尔**: 唔……那我稍微准备一下。
+* **哈梅尔**: 😖😖
 </t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">[哈梅爾被臥室裡的雜物所絆倒]
-**哈梅爾**: 救命……臥室……練不了舞，很亂。
-* **Prompt:** 為什麼要在臥室練舞？
-* **哈梅爾**: 在外面……能力……會干擾大家的。
-* **哈梅爾**: 😫😫
-* **Prompt:** 那等下我派人幫你清理。
-* **哈梅爾**: 謝謝局長……
-* **哈梅爾**: 😖😖
+          <t xml:space="preserve">[哈梅尔被卧室里的杂物所绊倒]
+**哈梅尔**: 救命……卧室……练不了舞，很乱。
+* **Prompt:** 为什么要在卧室练舞？
+* **哈梅尔**: 在外面……能力……会干扰大家的。
+* **哈梅尔**: 😫😫
+* **Prompt:** 那等下我派人帮你清理。
+* **哈梅尔**: 谢谢局长……
+* **哈梅尔**: 😖😖
 </t>
         </is>
       </c>
@@ -14029,27 +14029,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">[恩菲爾看起來有點困擾。]
-**恩菲爾**: 新訂購用於雕像創作的石料似乎不太對。
-* **Prompt:** 我讓採購部重新訂購了一批材料。
-* **恩菲爾**: 嗯~謝謝。這批材料用起來太不順手了~
-* **恩菲爾**: 😐
-* **Prompt:** 不如將錯就錯，試試新的材料創作吧。
-* **恩菲爾**: 這樣……也不錯。為全新的材料，賦予全新的生命~
-* **恩菲爾**: 😉
+          <t xml:space="preserve">[恩菲尔看上去有些困扰。]
+**恩菲尔**: 新订购用于雕像创作的石料似乎不太对。
+* **Prompt:** 我让采购办重新订购了一批材料。
+* **恩菲尔**: 嗯~谢谢。这批材料用着太不顺手了~
+* **恩菲尔**: 😐
+* **Prompt:** 不如将错就错，试试新的材料创作吧。
+* **恩菲尔**: 这样……也不错。为全新的材料，赋予全新的生命~
+* **恩菲尔**: 😉
 </t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">[恩菲爾的作品由於過於逼真嚇到不少人。]
-**恩菲爾**: 有什麼問題嗎？
-* **Prompt:** 把雕像做得更「印象派」一點呢？
-* **恩菲爾**: 哦？那可不是「暗夜的魔女」的風格……
-* **恩菲爾**: 😐
-* **Prompt:** 我幫你清出了一間用來存放作品的庫房。
-* **恩菲爾**: 唉……好吧，在暗處蒙塵總比不被人理解來得好。
-* **恩菲爾**: 😫
+          <t xml:space="preserve">[恩菲尔的作品由于过于逼真吓到不少人。]
+**恩菲尔**: 有什么问题吗？
+* **Prompt:** 把雕像做得更“印象派”一些呢？
+* **恩菲尔**: 哦？那可不是“暗夜的魔女”的风格……
+* **恩菲尔**: 😐
+* **Prompt:** 我给你清出了一间用来存放作品的库房。
+* **恩菲尔**: 唉……好吧，在暗处蒙尘总好过不被人理解。
+* **恩菲尔**: 😫
 </t>
         </is>
       </c>
@@ -14066,27 +14066,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">[今天與卡門奈特共進午餐時，她一直若有所思地盯著你]
-**卡門奈特**: 不知道我是否有機會能品嚐到局長……親手製作的料理呢？
-* **Prompt:** 明天就可以，我對自己的廚藝還是滿有信心的。
-* **卡門奈特**: 那我就等著一飽口福了~
-* **卡門奈特**: 😘
-* **Prompt:** 抱歉，我不太會做菜。
-* **卡門奈特**: 這樣啊，可以理解，畢竟局長大人每天都有很多事情要忙呢。
-* **卡門奈特**: 😏
+          <t xml:space="preserve">[今天与卡门奈特共进午餐时，她一直若有所思地盯着你]
+**卡门奈特**: 不知道我是否有机会能品尝到局长……亲手制作的料理呢？
+* **Prompt:** 明天就可以，我对自己的厨艺还是挺有信心的。
+* **卡门奈特**: 那我就等着一饱口福了~
+* **卡门奈特**: 😘
+* **Prompt:** 抱歉，我不太会做菜。
+* **卡门奈特**: 这样啊，可以理解，毕竟局长大人每天都有很多事情要忙呢。
+* **卡门奈特**: 😏
 </t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">[卡門奈特正百無聊賴地看著電視機裡的美食節目]
-**卡門奈特**: 如果是局長的話，會更喜歡哪道菜呢？
-* **Prompt:** 金猊特產白斬雞。
-* **卡門奈特**: 嗯，色味清而不雜，確實鮮嫩可口。
-* **卡門奈特**: 😏
-* **Prompt:** 紅酒燴雞排。
-* **卡門奈特**: 這樣啊~我正好認識一位非常擅長這道菜的大廚，下次出外勤的時候可以帶您一起去品嚐一下。
-* **卡門奈特**: 😉
+          <t xml:space="preserve">[卡门奈特正百无聊赖地看着电视机里的美食节目]
+**卡门奈特**: 如果是局长的话，会更喜欢哪道菜呢？
+* **Prompt:** 金猊特产白切鸡。
+* **卡门奈特**: 嗯，色味清而不杂，确实鲜嫩可口。
+* **卡门奈特**: 😏
+* **Prompt:** 红酒烩鸡扒。
+* **卡门奈特**: 这样啊~我恰巧认识一位非常擅长这道菜的大厨，下次出外勤的时候可以带您一起去品尝一下。
+* **卡门奈特**: 😉
 </t>
         </is>
       </c>
@@ -14103,26 +14103,26 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">[可可莉克正在溫室裡查看泥土]
-**可可莉克**: 你覺得在這裡種點什麼花會比較好？
-* **Prompt:** 你來決定就好，我相信你的審美。
-* **可可莉克**: 那就敬請期待吧~
+          <t xml:space="preserve">[可可莉克正在温室里查看泥土]
+**可可莉克**: 你觉得在这里种点什么花会比较好？
+* **Prompt:** 你来决定就好，我相信你的审美。
+* **可可莉克**: 那就敬请期待吧~
 * **可可莉克**: 😏
-* **Prompt:** 千萬不要種有毒的花！拜託了！
-* **可可莉克**: 真可惜，我本來還想種點夾竹桃呢。
+* **Prompt:** 千万不要种有毒的花！拜托了！
+* **可可莉克**: 真可惜，我本来还想种点夹竹桃呢。
 * **可可莉克**: 😥
 </t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">[可可莉克正在娛樂區瀏覽購物頁面]
-**可可莉克**: 如果是你的話，會更喜歡哪一枚胸針？
-* **Prompt:** 藍色的，設計很亮眼。
-* **可可莉克**: 倒是難得跟我意見一致了。這枚胸針挺特別的，就買來送你吧~
+          <t xml:space="preserve">[可可莉克正在娱乐区浏览购物页面]
+**可可莉克**: 如果是你的话，会更喜欢哪一枚胸针？
+* **Prompt:** 蓝色的，设计很亮眼。
+* **可可莉克**: 倒是难得跟我意见一致了。这枚胸针挺特别的，就买来送你吧~
 * **可可莉克**: 😘
-* **Prompt:** 銀色的？其實我平時也不怎麼戴胸針。
-* **可可莉克**: 我倒是覺得這枚藍色的一定非常適合你，偶爾也要學著好好打扮自己嘛。
+* **Prompt:** 银色的？其实我平时也不怎么戴胸针。
+* **可可莉克**: 我倒是觉得这枚蓝色的一定非常适合你，偶尔也要学着好好打扮自己嘛。
 * **可可莉克**: 😏
 </t>
         </is>
@@ -14140,26 +14140,26 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">[伊芙對比著兩套質地不同的玩偶服裝。]
-**伊芙**: 是絲綢的更適合小熊呢……還是棉布的？
-* **Prompt:** 天氣涼了，選棉布的吧，更暖和一些。
-* **伊芙**: 棉布的……會更暖和嗎？對我的這雙手來說，無論哪種摸起來都沒什麼區別……不過既然局長這麼說，那就選這套吧。
+          <t xml:space="preserve">[伊芙对比着两套质地不同的玩偶服装。]
+**伊芙**: 是丝绸的更适合小熊呢……还是棉布的？
+* **Prompt:** 天气凉了，选棉布的吧，更暖和一些。
+* **伊芙**: 棉布的……会更暖和吗？对我的这双手来说，无论哪种摸起来都没什么区别……不过既然局长这么说，那就选这套吧。
 * **伊芙**: 😐
-* **Prompt:** 絲綢的更優雅，符合它的氣質。
-* **伊芙**: 局長的眼睛像活在幸福童話裡的孩子一樣，總能看到更有趣更廣闊的世界……希望小熊也能喜歡這樣的局長選的衣服。
+* **Prompt:** 丝绸的更优雅，符合它的气质。
+* **伊芙**: 局长的眼睛像活在幸福童话里的孩子一样，总能看到更有趣更广阔的世界……希望小熊也能喜欢这样的局长选的衣服。
 * **伊芙**: 😘
 </t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">[伊芙的輪椅似乎卡死在了破損的地磚中。]
-**伊芙**: 早說了這具身體克服不了哪怕最輕微的阻礙……請不要管我，去做局長該做的事吧。
-* **Prompt:** 我該做的事就是讓你在這裡能生活得輕鬆。你要去哪裡？我可以帶你去。
-* **伊芙**: 為什麼要做到這一步呢……明明你也知道，你不可能永遠陪在我身邊，幫我清除障礙……
+          <t xml:space="preserve">[伊芙的轮椅似乎卡死在了破损的地砖中。]
+**伊芙**: 早说了这具身体克服不了哪怕最轻微的阻碍……请不要管我，去做局长该做的事吧。
+* **Prompt:** 我该做的事就是让你在这里能生活得轻松。你要去哪里？我可以带你去。
+* **伊芙**: 为什么要做到这一步呢……明明你也知道，你不可能永远陪在我身边，帮我清除障碍……
 * **伊芙**: 😥
-* **Prompt:** 我該做的事就是讓你不被物理上的障礙所束縛。我馬上叫人來修地磚，順便檢修改良一下你的輪椅。
-* **伊芙**: 束縛我的除了這些物質上的不便之外，還有其他很多……我知道你在期待我慢慢克服它們，但你或許，還要等很久……
+* **Prompt:** 我该做的事就是让你不被物理上的障碍所束缚。我马上叫人来修地砖，顺便检修优化一下你的轮椅。
+* **伊芙**: 束缚我的除了这些物质上的不便之外，还有其他很多……我知道你在期待我慢慢克服它们，但你或许，还要等很久……
 * **伊芙**: 😦
 </t>
         </is>
@@ -14177,26 +14177,26 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">[杜若隨手拋玩著一個錦囊。 ]
-**杜若**: 來得正好，就讓我以物起卦，看看尊駕的近期運勢……嗯，這是？
-* **Prompt:** ……算出什麼了？
-* **杜若**: 只是算到局長難得有空，不如就趁此機會，和我說說那些……你從未提起過的故事吧？
+          <t xml:space="preserve">[杜若随手抛玩着一个锦囊。 ]
+**杜若**: 来得正好，就让我以物起卦，看看尊驾的近期运势……嗯，这是？
+* **Prompt:** ……算出什么了？
+* **杜若**: 只是算到局长难得有空，不如就趁此机会，和我讲讲那些……你从未提起过的故事吧？
 * **杜若**: 😏😏
-* **Prompt:** 反正好壞都一樣要工作吧？
-* **杜若**: 雖然都要工作……局長難道不好奇，最近會不會有什麼大麻煩嗎？
+* **Prompt:** 反正好坏都一样要工作吧？
+* **杜若**: 虽然都要工作……局长难道不好奇，最近会不会有什么大麻烦吗？
 * **杜若**: 😦
 </t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">[杜若在休息室裡燃起了一爐香。 ]
-**杜若**: 傳說閉目深思，變幻的煙氣便會化作所念之人的模樣……怎麼樣，想不想試試？
-* **Prompt:** 在煙氣前閉目深思。
-* **杜若**: 似乎顯出了一點眉目……尊駕所念之人，若遠實近……嗯，局長知道是誰了嗎？
+          <t xml:space="preserve">[杜若在休息室里燃起了一炉香。 ]
+**杜若**: 传说闭目深思，变幻的烟气便会化作所念之人的模样……怎么样，想不想试试？
+* **Prompt:** 在烟气前闭目深思。
+* **杜若**: 似乎显出了一点眉目……尊驾所念之人，若远实近……嗯，局长知道是谁了吗？
 * **杜若**: 😉
-* **Prompt:** 或許，教我印香會更有趣？
-* **杜若**: 局長居然還知道這個……是前兩天看到我做了嗎？
+* **Prompt:** 或许，教我印香会更有趣？
+* **杜若**: 局长居然还知道这个……是前两天看到我做了吗？
 * **杜若**: 😘😘
 </t>
         </is>
@@ -14214,26 +14214,26 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">[L.L.複製你的形象資料製作了一個電子寵物。]
-**L.L.**: 乖——看看，「你」多可愛！小瑤也高興地繞著「你」游個不停呢~
-* **Prompt:** 很可愛。
-* **L.L.**: 是吧是吧！這樣的「你」就可以留在這裡永遠陪著我了……
+          <t xml:space="preserve">[L.L.复制你的形象数据制作了一个电子桌宠。]
+**L.L.**: 乖——瞧瞧，“你”多可爱！小瑶也高兴地绕着“你”游个不停呢~
+* **Prompt:** 很可爱。
+* **L.L.**: 是吧是吧！这样的“你”就可以留在这里永远陪着我了……
 * **L.L.**: 😉😉😉
-* **Prompt:** 你想把我當作「寵物」嗎？
-* **L.L.**: 嗯！那，你要不要叫我一聲「主人」試試看？
+* **Prompt:** 你想把我当作“宠物”吗？
+* **L.L.**: 嗯~那，你要不要喊我一句“主人”试试看？
 * **L.L.**: 😘😘😘
 </t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">[L.L.突然從背後靠近你，她身上未乾的水珠落到了你的衣服上。]
-**L.L.**: 唉呀，不小心把你弄濕了呢，穿著半濕的衣服很冷吧？要抱著我取一下暖嗎？我的懷抱比你想像的還要溫暖哦。
-* **Prompt:** ……其實沒有那麼冷。
-* **L.L.**: 別推辭嘛！難道你不喜歡擁抱的感覺嗎？
+          <t xml:space="preserve">[L.L.突然从背后靠近你，她身上未干的水珠落到了你的衣服上。]
+**L.L.**: 哎呀，不小心把你弄湿了呢，穿着半湿的衣服很冷吧？要抱着我取一下暖吗？我的怀抱比你想象的还要温暖哦。
+* **Prompt:** ……其实没有那么冷。
+* **L.L.**: 别推辞嘛~难道你不喜欢拥抱的感觉吗？
 * **L.L.**: 😘😉
-* **Prompt:** 你看起來可不像純粹的「不小心」。
-* **L.L.**: 是呀！因為我想你的目光落在我身上，一直看著我，這樣不好嗎？
+* **Prompt:** 你看起来可不像纯粹的“不小心”。
+* **L.L.**: 是呀，因为我想你的目光落在我身上，一直看着我，这样不好吗？
 * **L.L.**: 😫😫😫
 </t>
         </is>
@@ -14251,27 +14251,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">[耶萊娜正在整理書架上的書籍。]
-**耶萊娜**: 您這裡的藏書很豐富，最近又讀完了幾本，引人入勝值得一看。若您想消磨時間的話，我願意為您推薦。
-* **Prompt:** 我最近也想讀點新書。
-* **耶萊娜**: 我很高興您會感興趣。請稍等片刻，我為您將書取下來。
-* **耶萊娜**: 😘
-* **Prompt:** 我最近沒有時間讀書。
-* **耶萊娜**: 沒關係，我可以先幫您整理成書單，等您有空的時候再憑興趣閱讀。
-* **耶萊娜**: 😏
+          <t xml:space="preserve">[耶莱娜正在整理书架上的书籍。]
+**耶莱娜**: 您这里的藏书很丰富，最近又读完了几本，引人入胜值得一看。若您想消磨时间的话，我愿意为您推荐。
+* **Prompt:** 我最近也想读些新书。
+* **耶莱娜**: 我很高兴您会感兴趣。请稍等片刻，我为您将书取下来。
+* **耶莱娜**: 😘
+* **Prompt:** 我最近没有时间读书。
+* **耶莱娜**: 没关系，我可以先帮您整理成书单，等您有空的时候再凭兴趣阅读。
+* **耶莱娜**: 😏
 </t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">[深夜，亮著燈的辦公室響起克制的敲門聲。]
-**耶萊娜**: 局長這麼晚還沒睡，是被什麼問題難倒了嗎？如果不介意，可以和我說說的。
-* **Prompt:** 只是有點睡不著。
-* **耶萊娜**: 失眠的時候，借助外力不失為一種辦法。需要我來哄您入睡嗎？
-* **耶萊娜**: 😘😘
-* **Prompt:** 還有事情需要處理。
-* **耶萊娜**: 如果您願意信任我，我可以幫您分擔辛勞，這樣您也能早點休息。
-* **耶萊娜**: 😖
+          <t xml:space="preserve">[深夜，亮着灯的办公室响起克制的敲门声。]
+**耶莱娜**: 局长这么晚还没睡，是被什么问题难倒了吗？如果不介意，可以和我说说的。
+* **Prompt:** 只是有点睡不着。
+* **耶莱娜**: 失眠的时候，借助些外力不失为一种办法。需要我来哄您入睡吗？
+* **耶莱娜**: 😘😘
+* **Prompt:** 还有事情需要处理。
+* **耶莱娜**: 如果您愿意信任我，我可以帮您分担辛劳，这样您也能早点休息。
+* **耶莱娜**: 😖
 </t>
         </is>
       </c>
@@ -14288,27 +14288,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">[切爾西將一枚寶石遞到你的面前]
-**切爾西伯爵**: 給，這是你的紀念品。
-* **Prompt:** 這是……又換了一種寶石嗎？
-* **切爾西伯爵**: 哈，小事一樁。你收下就是了。
-* **切爾西伯爵**: 😏
+          <t xml:space="preserve">[切尔西将一枚宝石递到你的面前]
+**切尔西伯爵**: 给，这是你的纪念品。
+* **Prompt:** 这是……又换了一种宝石么？
+* **切尔西伯爵**: 哈，小事一桩。你收下就是了。
+* **切尔西伯爵**: 😏
 * **Prompt:** 好像成色不如之前的。
-* **切爾西伯爵**: 不可能！它的淨度比之前任何一個都高！
-* **切爾西伯爵**: 😫
+* **切尔西伯爵**: 不可能！它的净度比之前任何一个都高！
+* **切尔西伯爵**: 😫
 </t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve">[切爾西看著西迪，似乎若有所思]
-**切爾西伯爵**: 這裡為什麼不能養貓？
-* **Prompt:** 你已經有一隻「貓」了。
-* **切爾西伯爵**: 嘖，貓和西迪能相提並論嗎？
-* **切爾西伯爵**: 😥😥
-* **Prompt:** 不是不可以，但手續很複雜，你需要有耐心。
-* **切爾西伯爵**: 好吧……那我等就是了。
-* **切爾西伯爵**: 😐
+          <t xml:space="preserve">[切尔西看着西迪，似乎若有所思]
+**切尔西伯爵**: 这里为什么不能养猫？
+* **Prompt:** 你已经有一只“猫”了。
+* **切尔西伯爵**: 啧，猫和西迪能一样么？
+* **切尔西伯爵**: 😥😥
+* **Prompt:** 不是不可以，但手续很复杂，你需要有耐心。
+* **切尔西伯爵**: 好吧……那我等就是了。
+* **切尔西伯爵**: 😐
 </t>
         </is>
       </c>
@@ -14325,26 +14325,26 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">[你路過辰砂的收容室]
-**辰砂**: 您今天需要我的貼身保護嗎？
+          <t xml:space="preserve">[你路过辰砂的收容室]
+**辰砂**: 您今天需要我的贴身保护吗？
 * **Prompt:** 可以，但你也要注意自己的安全。
-* **辰砂**: 沒問題，等候您的命令。
+* **辰砂**: 没问题，等候您的命令。
 * **辰砂**: 😘
-* **Prompt:** 這次任務難度不高，你可以休息了。
-* **辰砂**: 你上次似乎也是這樣說的。
+* **Prompt:** 这次任务难度不高，你可以休息了。
+* **辰砂**: 你上次似乎也是这么说的。
 * **辰砂**: 😥
 </t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">[任務結束後，辰砂似乎在思考什麼]
-**辰砂**: 唉，以往的經驗在管理局這裡都不怎麼適用啊。
-* **Prompt:** 這裡的戰鬥太難了？
-* **辰砂**: 不要小看我，我好歹也是前蛇眼的負責人。
+          <t xml:space="preserve">[任务结束后，辰砂似乎在思考什么]
+**辰砂**: 唉，以往的经验在管理局这里都不怎么适用啊。
+* **Prompt:** 这里的战斗太难了？
+* **辰砂**: 不要小看我，我好歹也是前蛇眼的负责人。
 * **辰砂**: 😦
-* **Prompt:** 和蛇眼的區別很大？
-* **辰砂**: 嗯，交流還真是一件難事。
+* **Prompt:** 和蛇眼的区别很大？
+* **辰砂**: 嗯，交流还真是一件难事。
 * **辰砂**: 😐
 </t>
         </is>
@@ -14362,26 +14362,26 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">[卡瓦卡瓦期待地看著你]
-**卡瓦卡瓦**: 局長！我們什麼時候回砂海啊？
-* **Prompt:** 確實有一段時間沒巡視砂海情況了，我們明天啟程吧。
-* **卡瓦卡瓦**: 好的！這次有機會的話一起去看砂海上的流星雨吧！
+          <t xml:space="preserve">[卡瓦卡瓦期待地看着你]
+**卡瓦卡瓦**: 局长！我们什么时候回砂海啊？
+* **Prompt:** 确实有一段时间没巡视砂海情况了，我们明天启程吧。
+* **卡瓦卡瓦**: 好的！这次有机会的话一起去看砂海上的流星雨吧！
 * **卡瓦卡瓦**: 😘😘
-* **Prompt:** 砂海最近沒有狀況，有消息一定叫你。
-* **卡瓦卡瓦**: 好吧，那到時候我來做嚮導……
+* **Prompt:** 砂海最近没有状况，有消息一定叫你。
+* **卡瓦卡瓦**: 好吧，那到时候我来做向导……
 * **卡瓦卡瓦**: 😘
 </t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve">[卡瓦卡瓦有一些難過]
-**卡瓦卡瓦**: 局長，我的信標少了幾個。
-* **Prompt:** 會不會是遺落在任務地點了？
-* **卡瓦卡瓦**: 不會的，如果不是與砂海有關的任務，我是不會帶著它們的。
+          <t xml:space="preserve">[卡瓦卡瓦有一些难过]
+**卡瓦卡瓦**: 局长，我的信标少了几个。
+* **Prompt:** 会不会是遗落在任务地点了？
+* **卡瓦卡瓦**: 不会的，如果不是与砂海有关的任务，我是不会带着它们的。
 * **卡瓦卡瓦**: 😐
-* **Prompt:** 有沒有可能掉在訓練室裡？
-* **卡瓦卡瓦**: 對哦！那裡我還沒去找過呢！
+* **Prompt:** 有没有可能掉在训练室里？
+* **卡瓦卡瓦**: 对哦！那里我还没去找过呢！
 * **卡瓦卡瓦**: 😘
 </t>
         </is>
@@ -14399,27 +14399,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">[李維穿著他又一身過於浮誇的新衣服在你面前轉了個圈]
-**李維**: 怎麼樣，好看嗎？
+          <t xml:space="preserve">[李维穿着他又一身过于浮夸的新衣服在你面前转了个圈]
+**李维**: 怎么样，好看吗？
 * **Prompt:** 好看好看。
-* **李維**: 我聽你的回答怎麼這麼敷衍呢？
-* **李維**: 😐
-* **Prompt:** ……勉勉強強吧。
-* **李維**: 這可是很難搶到的走秀款，我覺得你對服裝的審美可能需要加強一下。
-* **李維**: 😥
+* **李维**: 我听你的回答怎么这么敷衍呢？
+* **李维**: 😐
+* **Prompt:** ……也就那样吧。
+* **李维**: 这可是很难抢到的走秀款，我觉得你对服装的审美可能需要提升一下。
+* **李维**: 😥
 </t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve">[李維正在和兩個工作人員打牌]
-**李維**: 嘿，真不好意思，我又贏了。
-* **Prompt:** 你贏了幾把了？
-* **李維**: 不多不多，才三把，你要不要也跟我來一局？
-* **李維**: 😘
-* **Prompt:** 可別讓我發現你在用契約跟人玩遊戲。
-* **李維**: 怎麼可能呢？這種小遊戲還要動用異能，也太無趣了。
-* **李維**: 😏
+          <t xml:space="preserve">[李维正在和两个工作人员打牌]
+**李维**: 嘿，真不好意思，我又赢了。
+* **Prompt:** 你赢了几把了？
+* **李维**: 不多不多，才三把，你要不要也跟我来一局？
+* **李维**: 😘
+* **Prompt:** 可别让我发现你在用契约和人玩游戏。
+* **李维**: 怎么可能呢？这种小游戏还要动用异能，也太无趣了。
+* **李维**: 😏
 </t>
         </is>
       </c>
@@ -14436,26 +14436,26 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">[尤尼路過你身邊，眉頭緊皺]
-**尤尼**: 你為什麼只戴一邊耳環？
-* **Prompt:** 沒錢買另外一個。
-* **尤尼**: 哈，那要不要跳槽來當我的助手？
+          <t xml:space="preserve">[尤尼路过你身边，眉头紧皱]
+**尤尼**: 你为什么只戴一边耳环？
+* **Prompt:** 没钱买另外一个。
+* **尤尼**: 哈，那要不要跳槽来当我的助手？
 * **尤尼**: 😘
-* **Prompt:** 工作制服只分配了一個。
-* **尤尼**: ……你們管物資的那個人一定跟我有仇。
+* **Prompt:** 工作制服只分配了一个。
+* **尤尼**: ……你们管物资的那个人一定跟我有仇。
 * **尤尼**: 😖
 </t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">[尤尼拿著一張宣傳單在很仔細地端詳]
-**尤尼**: 這人在我之後是不是又去把五官做了調整……
-* **Prompt:** 看了對比圖，感覺以前的更好看。
-* **尤尼**: 當然，那可是我的真跡。
+          <t xml:space="preserve">[尤尼拿着一张宣传单在很仔细地端详]
+**尤尼**: 这人在我之后是不是又去给五官做了调整……
+* **Prompt:** 看了对比图，感觉以前的更好看。
+* **尤尼**: 当然，那可是我的手笔。
 * **尤尼**: 😏
-* **Prompt:** 現在不是也很好看嗎？
-* **尤尼**: 你的審美觀有待加強。
+* **Prompt:** 现在不也挺好看的吗？
+* **尤尼**: 你的审美有待加强。
 * **尤尼**: 😥
 </t>
         </is>
@@ -14473,27 +14473,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">[妮諾把一張物資申請單拍在你面前。]
-**妮諾**: 噹噹，你觸發了一個隨機任務，那就是幫妮諾大人填滿零食櫃~
-* **Prompt:** 垃圾食品還是少吃點為妙。
-* **妮諾**: 蛤~？不懂就別亂說，它們提供給我的不是糖、油和鹽，是一種態度！
-* **妮諾**: 😫😫
-* **Prompt:** 這樣吧，今天你直播時粉絲投給你多少棒棒糖，我就買給你多少。
-* **妮諾**: 嗯？還挺會玩的嘛你，這戰書我收下了~你就等著用卡車裝吧！
-* **妮諾**: 😏😏
+          <t xml:space="preserve">[妮诺把一张物资申请单拍在你面前。]
+**妮诺**: 噔噔，你触发了一个随机任务，那就是帮妮诺大人填满零食柜~
+* **Prompt:** 垃圾食品还是少吃点为妙。
+* **妮诺**: 哈~？不懂就别瞎说，它们给我提供的不是糖、油和盐，是一种态度！
+* **妮诺**: 😫😫
+* **Prompt:** 这样吧，今天你直播时粉丝给你投多少棒棒糖，我就给你批多少。
+* **妮诺**: 嗯？还挺会玩的嘛你，这战书我收下了~你就等着用卡车装吧！
+* **妮诺**: 😏😏
 </t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve">[妮諾查看著直播間觀看量曲線圖。]
-**妮諾**: 怎麼回事，最近熱度下降了這麼多！簡直是妮諾大人直播的黑歷史！
-* **Prompt:** 也許是直播內容同質化嚴重，可以想點新鮮的。
-* **妮諾**: 還不是你們這不讓播那不讓播，還逼我用虛擬背景！我不管，你得對我負責，陪我播到熱度恢復為止！
-* **妮諾**: 😖😖😖
-* **Prompt:** 需不需要我組織其他禁閉者一起看你的直播，幫你刷禮物？
-* **妮諾**: 哦？這是可以的嗎？！等等……不對！我識破你了！你一定是想讓我被平台查到灌水然後被刪帳！
-* **妮諾**: 😫😫
+          <t xml:space="preserve">[妮诺查看着直播间流量曲线图。]
+**妮诺**: 怎么回事，最近热度下降了这么多！简直是妮诺大人直播的黑历史！
+* **Prompt:** 也许是直播内容同质化严重，可以想点新鲜的。
+* **妮诺**: 还不是你们这不让播那不让播，还逼我用虚拟背景！我不管，你得对我负责，陪我播到热度恢复为止！
+* **妮诺**: 😖😖😖
+* **Prompt:** 需不需要我组织其他禁闭者一起看你的直播，给你刷礼物？
+* **妮诺**: 哦？这是可以的吗？！等等……不对！我识破你了！你一定是想让我被平台查到注水然后封号！
+* **妮诺**: 😫😫
 </t>
         </is>
       </c>
@@ -14510,27 +14510,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">[戈藍目不轉睛地盯著裝置上顯示的管理局內網討論區文章。]
-**戈藍**: 哦哦，原來那個誰和那個誰結拜，那個誰又和那個誰互相看不順眼，局長也曾經喜歡過邪惡勢力派來誘惑自己的成熟美好大姐姐……
-* **Prompt:** 這麼荒謬的八卦你也信啊。
-* **戈藍**: 啊，什麼，這是假的？*，虧老子還在這篇文斗內了……欸不對啊，之前死戀電台好像也八卦過類似的事，難道那也是假的嗎？！
-* **戈藍**: 😫😫😫
-* **Prompt:** 我不知道你在說什麼。
-* **戈藍**: 哇，這麼遮遮掩掩的肯定是被說中了吧！快詳細說說，你們是不是一度恨海情天至死不渝啊？那之後你是不是封心鎖愛孤家寡人一生啊？
-* **戈藍**: 😘😘😘
+          <t xml:space="preserve">[戈蓝目不转睛地盯着终端上显示的管理局内网讨论区帖子。]
+**戈蓝**: 哦哦，原来那个谁和那个谁拜了把子，那个谁又和那个谁互相看不顺眼，局长也曾经喜欢过邪恶势力派来诱惑自己的成熟美好大姐姐……
+* **Prompt:** 这么离谱的八一八你也信啊。
+* **戈蓝**: 啊，什么，这是假的？*，亏老子还给这帖子打赏了……诶不对啊，之前死恋电台好像也八过类似的事，难道那也是假的吗？！
+* **戈蓝**: 😫😫😫
+* **Prompt:** 我不知道你在说什么。
+* **戈蓝**: 哇，这么遮遮掩掩的肯定是被说中了吧！快详细讲讲，你们是不是一度恨海情天至死不渝啊？那之后你是不是封心锁爱一路寡王啊？
+* **戈蓝**: 😘😘😘
 </t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve">[戈藍羨慕地看著菲的商品目錄裡那個絕版且昂貴的絨毛配飾。]
-**戈藍**: 可惡，錢不夠！這裡不讓當打手，應該怎麼撈點油……不對，賺點零用錢呢？啊，我知道了，我可以賣情報和八卦！
-* **Prompt:** 賣真假不明的愛恨情仇嗎？
-* **戈藍**: 賣情報不就是這樣嗎？一旦售出概不負責，真假自辨！不過你放心，我肯定不會主動騙你！被動的，那我……也沒辦法不是！
-* **戈藍**: 😘😘😘
-* **Prompt:** 賣梳理清晰的局勢分析嗎？
-* **戈藍**: 這、這算是深加工產品了吧，我才不賣這種東西！不、不是賣不了啊，是沒有賣情報的會做這種吃力不討好的事情！
-* **戈藍**: 😫😫😫
+          <t xml:space="preserve">[戈蓝眼馋地看着菲的商品目录里那个绝版且昂贵的毛绒配饰。]
+**戈蓝**: 可恶，钱不够！这里不让当打手，应该怎么捞点油……不对，赚点零花钱呢？啊，我知道了，我可以卖情报和八卦！
+* **Prompt:** 卖真假不明的爱恨情仇吗？
+* **戈蓝**: 卖情报不就是这样吗？一旦售出概不负责，真假自辨！不过你放心，我肯定不会主动骗你！被动的，那我……也没办法不是！
+* **戈蓝**: 😘😘😘
+* **Prompt:** 卖梳理清晰的局势分析吗？
+* **戈蓝**: 这、这属于深加工产品了吧，我可不卖这种东西！不、不是卖不了啊，是没有卖情报的会做这种吃力不讨好的事情！
+* **戈蓝**: 😫😫😫
 </t>
         </is>
       </c>
@@ -14547,26 +14547,26 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">[多芙正在幫管理局眾人送信。]
-**多芙**: 這不是局長嗎？正好，來猜猜看，這兩封信裡面，哪一封是送給你的？
+          <t xml:space="preserve">[多芙正在给管理局众人送信。]
+**多芙**: 这不是局长嘛？正好，来猜猜看，这两封信里面，哪一封是送给你的？
 * **Prompt:** 粉色信封
-* **多芙**: 咦？粉色這個是用心形貼紙封口的耶，說不定是封情書呢！唉呀，你別急著否認嘛！萬一……真的是給你的呢？
+* **多芙**: 咦，粉色这个是用心形贴纸封口的诶，说不定是封情书呢！哎呀，你别急着否认嘛~万一……真的是给你的呢？
 * **多芙**: 😏😏😏
-* **Prompt:** 藍色信封
-* **多芙**: 從這麼多信裡選中了這封信，你我還挺有緣分的，該說是你對我瞭解很深呢，還是……這份心意，本就想讓你拆開呢？
+* **Prompt:** 蓝色信封
+* **多芙**: 从这么多信里选中了这封信，你我还挺有缘分的，该说是你对我了解很深呢，还是……这份心意，本就想让你拆开呢？
 * **多芙**: 😘😘😘
 </t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">[多芙收到了寄給她的信，卻沒急著拆開，似乎在醞釀些什麼。]
-**多芙**: 居然有人寫信給信使呀，該怎麼回信呢……哈哈，真是好難抉擇啊，是該給點甜頭上上鉤呢，還是該用些話術嚇嚇這人……
+          <t xml:space="preserve">[多芙收到了寄给她的信，却没急着拆开，似乎在酝酿些什么。]
+**多芙**: 居然有人给信使写信呀，该怎么回信呢……哈哈，真是好难抉择啊，是该给点甜头上上钩呢，还是该用些话术吓吓这人……
 * **Prompt:** 提醒她看署名
-* **多芙**: 署名是……米諾斯危機管理局局長……哦，連多芙這種小人物都要親自處理監視，不愧是局長，好細心呀！
+* **多芙**: 署名是……米诺斯危机管理局局长……哦，连多芙这种小人物都要亲自处理监视，不愧是局长，好细心呀~
 * **多芙**: 😏😏😏
-* **Prompt:** 提醒她拆開看
-* **多芙**: 「用自己真正的心意與人往來通訊」……這個字跡……是你……這就是你想對我說的話嗎……
+* **Prompt:** 提醒她拆开看
+* **多芙**: “用自己真正的心意与人往来通信”……这个字迹……是你……这就是你想对我说的话吗……
 * **多芙**: 😖😖😖
 </t>
         </is>
@@ -14584,26 +14584,26 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">[九十九用她的刀不停砸著地面]
-**九十九**: 什麼時候……到訓練時間？
-* **Prompt:** 等海拉完成任務回來就可以。
+          <t xml:space="preserve">[九十九用她的刀不住砸着地面]
+**九十九**: 什么时候……到训练时间？
+* **Prompt:** 等海拉完成任务回来就可以。
 * **九十九**: 唔……好！
 * **九十九**: 😐
-* **Prompt:** 大概還有兩個小時。
-* **九十九**: 時間……過得真慢。
+* **Prompt:** 大概还有两个小时。
+* **九十九**: 时间……过得真慢。
 * **九十九**: 😥
 </t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve">[九十九捶打著禁閉室的大門，室內溫度急劇升高]
+          <t xml:space="preserve">[九十九捶打着禁闭室的大门，室内温度急剧升高]
 **九十九**: 啊啊……啊！
-* **Prompt:** 需要緊急降溫嗎？
-* **九十九**: 沒用……是我的血在沸騰。
+* **Prompt:** 需要紧急降温么？
+* **九十九**: 没用……是我的血在沸腾。
 * **九十九**: 😫
-* **Prompt:** 稍等，我加固一下枷鎖。
-* **九十九**: （悶哼），希望……你的速度快一點。
+* **Prompt:** 稍等，我加固一下枷锁。
+* **九十九**: （闷哼），希望……你的速度快一点。
 * **九十九**: 😖
 </t>
         </is>
@@ -14621,27 +14621,27 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">[你與拿著電鋸的溫蒂在走廊相遇]
-**溫蒂**: 鏽河的死役……還剩多少？
-* **Prompt:** 如果數量超過危險值，會通知我們的。
-* **溫蒂**: 那太好了……太好了！我好期待！
-* **溫蒂**: 😘
-* **Prompt:** 你不需要擔心這件事。
-* **溫蒂**: 局長——你是想被我大卸八塊了嗎？
-* **溫蒂**: 😦
+          <t xml:space="preserve">[你与拿着电锯的温蒂在走廊相遇]
+**温蒂**: 锈河的死役……还剩多少？
+* **Prompt:** 如果数量超过危险值，会通知我们的。
+* **温蒂**: 那太好了……太好了！我好期待！
+* **温蒂**: 😘
+* **Prompt:** 你不需要操心这事。
+* **温蒂**: 局长——你是想被我大卸八块了么？
+* **温蒂**: 😦
 </t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve">[溫蒂一把撕碎了眼前的資料]
-**溫蒂**: 死役、死役怎麼又在走動！
-* **Prompt:** 啊……？什麼死役？
-* **溫蒂**: 來不及了！快閃開！
-* **溫蒂**: 😫😫
-* **Prompt:** 居然還有死役？我去申請一下調查許可。
-* **溫蒂**: ……終於，終於可以大開殺戒了！
-* **溫蒂**: 😘😘😘
+          <t xml:space="preserve">[温蒂一把撕碎了眼前的资料]
+**温蒂**: 死役、死役怎么又在走动！
+* **Prompt:** 啊……？什么死役？
+* **温蒂**: 来不及了！快闪开！
+* **温蒂**: 😫😫
+* **Prompt:** 居然还有死役？我去申请一下调查许可。
+* **温蒂**: ……终于，终于可以大开杀戒了！
+* **温蒂**: 😘😘😘
 </t>
         </is>
       </c>
@@ -14658,26 +14658,26 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">[帕加茜的屋子裡放滿了書]
-**帕加茜**: 這裡……還有其他的文獻資料嗎？
-* **Prompt:** 我可以幫你借新城圖書館裡的書。
-* **帕加茜**: 嗯……謝謝局長，我一定會按時歸還的。
+          <t xml:space="preserve">[帕加茜的屋子里放满了书]
+**帕加茜**: 这里……还有其他的文献资料么？
+* **Prompt:** 我可以帮你借新城图书馆里的书。
+* **帕加茜**: 嗯……谢谢局长，我一定会按时归还的。
 * **帕加茜**: 😘
-* **Prompt:** 要是這些都讀完了，還有一本《狄斯異聞錄》。
-* **帕加茜**: 優秀的紀傳體小說，可惜……後續卻沒了消息。
+* **Prompt:** 要是这些都读完了，还有一本《狄斯异闻录》。
+* **帕加茜**: 优秀的纪传体小说，可惜……后续却没了消息。
 * **帕加茜**: 😐
 </t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve">[你打算來看望帕加茜]
-**帕加茜**: 不要……靠近我，會變得不幸。
-* **Prompt:** 「核能」不注意的話，確實會很危險。
+          <t xml:space="preserve">[你打算来看望帕加茜]
+**帕加茜**: 不要……靠近我，会变得不幸。
+* **Prompt:** “核能”不注意的话，确实会很危险。
 * **帕加茜**: ……
 * **帕加茜**: 😦
-* **Prompt:** 我穿好防護服了。
-* **帕加茜**: 嗯，這樣就好。
+* **Prompt:** 我穿好防护服了。
+* **帕加茜**: 嗯，这样就好。
 * **帕加茜**: 😐
 </t>
         </is>
@@ -14695,26 +14695,26 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">[多莉在觀看棒球比賽]
-**多莉**: 等下！現在剛到最精彩的階段，不要打擾我啊！
-* **Prompt:** 再給你五分鐘，時間到就走。
-* **多莉**: 好耶！那我們一起看完這場比賽吧！
+          <t xml:space="preserve">[多莉在观看棒球比赛]
+**多莉**: 等下！现在刚到最精彩的阶段，不要打扰我啊！
+* **Prompt:** 再给你五分钟，到时间就走。
+* **多莉**: 好耶！那我们一起看完这场比赛吧！
 * **多莉**: 😘😘
-* **Prompt:** 任務緊急，回來看錄播也一樣。
-* **多莉**: 呿……你這人，根本就不懂。
+* **Prompt:** 任务紧急，回来看录播也一样。
+* **多莉**: 切……你这人，根本就不懂。
 * **多莉**: 😥
 </t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve">[多莉一臉陰鬱地看著球棒]
-**多莉**: 採購部進的這批貨到底行不行啊……揮兩下就斷了！
-* **Prompt:** 那你用水管將就一下吧。
-* **多莉**: 啊——不行！完全不順手！
+          <t xml:space="preserve">[多莉一脸阴郁地看着棒球棍]
+**多莉**: 采购办进的这批货到底行不行啊……挥两下就断了！
+* **Prompt:** 那你用水管凑合一下吧。
+* **多莉**: 啊——不行！完全不顺手！
 * **多莉**: 😫😫
-* **Prompt:** 下一批球棒會是加強材質的，先忍一忍。
-* **多莉**: 那……就先這樣。要是還不行的話，我是不會買單的。
+* **Prompt:** 下一批棒球棍会是加强材质的，先忍一忍。
+* **多莉**: 那……就先这样。要是还不行的话，我可不会买账。
 * **多莉**: 😦😫
 </t>
         </is>
@@ -14732,27 +14732,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">[赫羅捧著一箱新到貨的牛奶]
-**赫羅**: 局長，要不要來一瓶啊~？
-* **Prompt:** 就放在辦公桌上吧，等等喝。
-* **赫羅**: 不行！好牛奶就得現在喝！一起乾了！
-* **赫羅**: 😫😖
-* **Prompt:** 抱歉，我沒有長高的需求。
-* **赫羅**: 你……！今天我就要把你打到和我一樣高！
-* **赫羅**: 😖😖
+          <t xml:space="preserve">[赫罗捧着一箱新到货的牛奶]
+**赫罗**: 局长，要不要来一瓶啊~？
+* **Prompt:** 就放在办公桌上吧，一会儿喝。
+* **赫罗**: 不行！好牛奶就得现在喝！一起干了！
+* **赫罗**: 😫😖
+* **Prompt:** 抱歉，我没有长身高的需求。
+* **赫罗**: 你……！今天我就要把你打到和我一样高！
+* **赫罗**: 😖😖
 </t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve">[赫羅握著斧子，雙眼出神]
-**赫羅**: 唉……卓婭老大怎麼都不和我說話了……
-* **Prompt:** 可能是你太矮了，卓婭沒注意到你。
-* **赫羅**: 你等著！我馬上就砸爛你辦公室的門！
-* **赫羅**: 😫
-* **Prompt:** 有可能是你今天戰鬥時的聲音不夠洪亮。
-* **赫羅**: 啊啊……下次我一定要讓卓婭老大看到我戰鬥時的帥氣樣子！
-* **赫羅**: 😖
+          <t xml:space="preserve">[赫罗握着斧子，双眼出神]
+**赫罗**: 唉……卓娅老大怎么都不和我说话了……
+* **Prompt:** 可能是你太矮了，卓娅没注意到你。
+* **赫罗**: 你等着！我马上就砸烂你办公室的门！
+* **赫罗**: 😫
+* **Prompt:** 有可能是你今天战斗时的声音不够洪亮。
+* **赫罗**: 啊啊……下次我一定要让卓娅老大看到我战斗时的帅气样子！
+* **赫罗**: 😖
 </t>
         </is>
       </c>
@@ -14769,27 +14769,27 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">[莓絲在你的辦公室裡打起了瞌睡]
-**莓絲**: 嗯，不能睡……還有任務……不能睡……
-* **Prompt:** 要睡的話，回房間裡睡吧。
-* **莓絲**: 嗯……謝謝局長…………不對！要是睡了的話，我會做惡夢的……
-* **莓絲**: 😖😖
-* **Prompt:** 要出任務了，醒醒。
-* **莓絲**: 嗯，好！我……沒睡！我很有精神！
-* **莓絲**: 😫
+          <t xml:space="preserve">[莓丝在你的办公室里打起了瞌睡]
+**莓丝**: 嗯，不能睡……还有任务……不能睡……
+* **Prompt:** 要睡的话，回房间里睡吧。
+* **莓丝**: 嗯……谢谢局长…………不对！要是睡了的话，我会做噩梦的……
+* **莓丝**: 😖😖
+* **Prompt:** 要出任务了，醒醒。
+* **莓丝**: 嗯，好！我……没睡！我精神着呢！
+* **莓丝**: 😫
 </t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve">[莓絲在鍛爐旁自言自語]
-**莓絲**: 嗯……下一把武器該做什麼呢……
-* **Prompt:** 不如做一把闊劍？
-* **莓絲**: 好主意，不如再加一點點設計，做成籠手劍吧！
-* **莓絲**: 😘
-* **Prompt:** 不如做一把左輪手槍？
-* **莓絲**: 嘖，為什麼你們都喜歡槍械這種東西呢……明明冷兵器打起架來才最有趣。
-* **莓絲**: 😥
+          <t xml:space="preserve">[莓丝在锻炉旁自言自语]
+**莓丝**: 嗯……下一把武器该做什么呢……
+* **Prompt:** 不如做一把阔剑？
+* **莓丝**: 好主意，不如再加一点点设计，做成笼手剑吧！
+* **莓丝**: 😘
+* **Prompt:** 不如做一把左轮手枪？
+* **莓丝**: 啧，为什么你们都喜欢枪械这种东西呢……明明冷兵器打起架来才最有意思。
+* **莓丝**: 😥
 </t>
         </is>
       </c>
@@ -14806,26 +14806,26 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">[卡斯洛闖進你的辦公室]
-**卡斯洛**: 喂，最近好無聊，說好的給我更高難度的任務呢！
-* **Prompt:** 正好鏽河的死役又在活躍了，就派你去清理吧。
-* **卡斯洛**: 哈哈哈，就等你這句話了！
+          <t xml:space="preserve">[卡斯洛闯进你的办公室]
+**卡斯洛**: 喂，最近好无聊，说好的给我更高难度的任务呢！
+* **Prompt:** 正好锈河的死役又在活跃了，就派你去清理吧。
+* **卡斯洛**: 哈哈哈，就等你这句话了！
 * **卡斯洛**: 😉
-* **Prompt:** 高難度任務這種東西，不是你解決的越多，剩下的就越少嗎。
-* **卡斯洛**: 嘖，那……那你來陪我玩玩吧！
+* **Prompt:** 高难任务这种东西，不是你解决的越多，剩下的就越少嘛。
+* **卡斯洛**: 嘁，那……那你来陪我玩玩吧！
 * **卡斯洛**: 😥
 </t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve">[卡斯洛用新到的油彩對著鏡子塗塗畫畫]
-**卡斯洛**: 管理局採購的這款不怎麼防水啊……太容易花了。
-* **Prompt:** 沒事，現在的效果看起來更容易恐嚇到人。
-* **卡斯洛**: 哈，那我現在就去找幾個傢伙試試！
+          <t xml:space="preserve">[卡斯洛用新到的油彩对着镜子涂涂画画]
+**卡斯洛**: 管理局采购的这款不怎么防水啊……太容易花了。
+* **Prompt:** 没事，现在的效果看上去更容易恐吓到人。
+* **卡斯洛**: 哈，那我现在就去找几个家伙试试！
 * **卡斯洛**: 😏
-* **Prompt:** 那你換一款用？
-* **卡斯洛**: 嘖，換了幾種都是這樣！算了算了，我自己調！
+* **Prompt:** 那你换一款用？
+* **卡斯洛**: 啧，换了几种都是这样！算了算了，我自己调！
 * **卡斯洛**: 😥
 </t>
         </is>
@@ -14843,26 +14843,26 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">[克里斯蒂娜正在訓練室裡打沙包，練習自由搏擊]
-**克里斯蒂娜**: 喲，親愛的助手，要不要一起來練練？
-* **Prompt:** 好吧……但你要記得手下留情啊。
+          <t xml:space="preserve">[克里斯蒂娜正在训练室里打沙袋，练习自由搏击]
+**克里斯蒂娜**: 哟，亲爱的助手，要不要一起来练练？
+* **Prompt:** 好吧……但你要记得手下留情啊。
 * **克里斯蒂娜**: 放心吧，我自有分寸~
 * **克里斯蒂娜**: 😉
-* **Prompt:** 這……今天乾脆就算了吧……
-* **克里斯蒂娜**: 唉呀來嘛來嘛，大不了我讓你幾招~
+* **Prompt:** 这……今天要不就算了吧……
+* **克里斯蒂娜**: 哎呀来嘛来嘛，大不了我让你几招~
 * **克里斯蒂娜**: 😏
 </t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve">[克里斯蒂娜正在擺弄一副眼鏡]
-**克里斯蒂娜**: 小助手！快來看看我做的新道具！它可以在你眨眼的時候拍下眼前的畫面，傳到你的裝置上。
+          <t xml:space="preserve">[克里斯蒂娜正在摆弄一副眼镜]
+**克里斯蒂娜**: 小助手！快来看看我做的新道具！它可以在你眨眼的时候拍下眼前的画面，传到你的终端上。
 * **Prompt:** 很酷！
-* **克里斯蒂娜**: 嘿嘿，我就知道你會喜歡！給你啦，不用謝我！
+* **克里斯蒂娜**: 嘿嘿，我就知道你会喜欢！给你啦，不用谢我！
 * **克里斯蒂娜**: 😘
-* **Prompt:** 這個……能在實戰中運用嗎？
-* **克里斯蒂娜**: 當然！在跟蹤潛入任務裡很實用！
+* **Prompt:** 这个……能在实战中运用吗？
+* **克里斯蒂娜**: 当然！在跟踪潜入任务里很实用！
 * **克里斯蒂娜**: 😉
 </t>
         </is>
@@ -14880,26 +14880,26 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">[路過運動室門口，你被一個壁球大力擊倒]
-**瑞思**: 抱歉局長，我沒控制好壁球讓它打到了你。
+          <t xml:space="preserve">[路过运动室门口，你被一个壁球大力击倒]
+**瑞思**: 抱歉局长，我没控制好壁球让它打到了你。
 * **Prompt:** ……太痛了。
-* **瑞思**: 是我的錯，被打到的地方已經腫起來了，快，我帶您去醫務室！
+* **瑞思**: 是我的错，被打到的地方已经肿起来了，快，我带您去医务室！
 * **瑞思**: 😖😖😖
-* **Prompt:** 這一球，力量也太強了……
-* **瑞思**: 打球的過程中，不小心想到了前任上司的所作所為，一不小心就……
+* **Prompt:** 这一球，力量也太强了……
+* **瑞思**: 打球的过程中，不小心想到了前任上司的所作所为，一不小心就……
 * **瑞思**: 😥😥😥
 </t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve">[瑞思拿給你一張優惠券]
-**瑞思**: 「K幻量販」的大包廂，局長你要一起來嗎？
-* **Prompt:** 這個套餐好優惠啊！
-* **瑞思**: 很早以前購買的套票，這兩天整理時發現快到期了。工作了一整天，局長要不要一起去通宵唱歌發洩一下？
+          <t xml:space="preserve">[瑞思拿给你一张优惠券]
+**瑞思**: “K幻量贩”的大房包厢，局长你要一起来吗？
+* **Prompt:** 这个套餐好优惠啊！
+* **瑞思**: 很早以前购买的套餐，这两天整理时发现快到期了。工作了一整天，局长要不要一起去通宵唱歌发泄一下？
 * **瑞思**: 😘😘😘
-* **Prompt:** 通宵場……明天我還要開會，下次吧。
-* **瑞思**: 嗯，工作優先，如果我能訂到週末包廂再一起去吧。
+* **Prompt:** 通宵场……明天我还有会，下次吧。
+* **瑞思**: 嗯，工作优先，如果我能订到周末包厢再一起去吧。
 * **瑞思**: 😥😥😥
 </t>
         </is>
@@ -14917,26 +14917,26 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">[米拉叫住了準備出門的你。]
-**米拉**: 依我看，局長身上還缺了些東西，如果要出遠門前往砂海的話，有些裝備必不可少，不嫌棄的話，就從我的貨架上拿吧？
-* **Prompt:** 拿起絲巾
-* **米拉**: 嗯……明智的選擇，這條絲巾柔軟透氣，既能確保呼吸順暢，又能防止空氣中的沙塵糊住口鼻，圖案也很漂亮，是我最喜歡的一條呢。
+          <t xml:space="preserve">[米拉叫住了准备出门的你。]
+**米拉**: 依我看，局长身上还缺了些东西，如果要出远门前往砂海的话，有些装备必不可少，不嫌弃的话，就从我的货架上拿吧？
+* **Prompt:** 拿起丝巾
+* **米拉**: 嗯……明智的选择，这条丝巾柔软透气，既能确保呼吸顺畅，又能防止空气中的沙尘糊住口鼻，图案也很漂亮，是我最喜欢的一条呢。
 * **米拉**: 😘😘😘
 * **Prompt:** 拿起水囊
-* **米拉**: 來到圖科的客人們身上都會帶著灌滿了佳釀的水囊，決鬥勝利後，客人們總會拿出水囊痛飲一番，它也是獎勵英雄的勳章，很適合你哦局長。
+* **米拉**: 来到图科的客人们身上都会带着灌满了佳酿的水囊，决斗胜利后，客人们总会拿出水囊痛饮一番，它也是奖励英雄的勋章，很适合你哦局长。
 * **米拉**: 😉😉😉
 </t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve">[米拉正在晾曬新洗的被單]
-**米拉**: 換洗被單，打掃地面，整理房間……要做的家務還有很多，幸好狄斯的氣候不像砂海那樣，剛晾好的床單不會消失得無影無蹤，省了追著跑的功夫。
-* **Prompt:** 試試烘衣機？或許會更方便點
-* **米拉**: 可是被陽光曬過的床單，會讓人睡得更安穩些，局長，不想試試看嗎？很舒服的哦。
+          <t xml:space="preserve">[米拉正在晾晒新洗的被单]
+**米拉**: 换洗被单，打扫地面，整理房间……要做的家务还有很多，幸好狄斯的气候不像砂海那样，刚晾上的床单不会消失得无影无踪，省了追着跑的工夫。
+* **Prompt:** 试试烘干机？或许会更方便点
+* **米拉**: 可是被阳光晒过的床单，会让人睡得更安稳些，局长，不想试试看吗？很舒服的哦。
 * **米拉**: 😏😏😏
-* **Prompt:** 需要我幫忙嗎？
-* **米拉**: 不用啦，剛才撞見幾個小朋友在走廊上打架，都被我用砂海陳釀換來做小幫手了，噓——我準備的都是無酒精飲料，可別告訴她們！
+* **Prompt:** 需要我帮忙吗？
+* **米拉**: 不用啦，刚才撞见几个小朋友在走廊上打架，都被我用砂海陈酿哄来做小帮手了，嘘——我准备的都是软饮，可别告诉她们~
 * **米拉**: 😏😏😏
 </t>
         </is>
@@ -14954,26 +14954,26 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">[艾恩走出手術室]
-**艾恩**: 有什麼事情就快點說，你我的時間都很寶貴。
-* **Prompt:** 我可以看看你切下來的大腦額葉嗎？
-* **艾恩**: 可以。但在參觀時，請不要妄加評論。
+          <t xml:space="preserve">[艾恩走出手术室]
+**艾恩**: 有什么事情就快点说，你我的时间都很宝贵。
+* **Prompt:** 我可以看看你切下来的大脑额叶么？
+* **艾恩**: 可以。但在参观时，请不要妄加评论。
 * **艾恩**: 😥
-* **Prompt:** 這次手術還算成功嗎？
-* **艾恩**: 明知故問。馬上她就會康復了，只不過……她會失去一些寶貴的東西。
+* **Prompt:** 这次手术还算成功么？
+* **艾恩**: 明知故问。马上她就会康复了，只不过……她会失去一些宝贵的东西。
 * **艾恩**: 😐
 </t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve">[艾恩看著禁閉者們，不停地嘆氣]
-**艾恩**: 你什麼時候管管這些禁閉者？
-* **Prompt:** 他們在這裡還算規矩吧？
-* **艾恩**: 規矩？這裡完全就是個縮小版的辛迪加！
+          <t xml:space="preserve">[艾恩看着禁闭者们，不住地叹气]
+**艾恩**: 你什么时候管管这些禁闭者？
+* **Prompt:** 他们在这里还算规矩吧？
+* **艾恩**: 规矩？这里完全就是个缩小版的辛迪加！
 * **艾恩**: 😐
-* **Prompt:** 抱歉，是我管理不當。
-* **艾恩**: ……不都是你的錯，要怪……就怪狂厄吧。
+* **Prompt:** 抱歉，是我管理不当。
+* **艾恩**: ……不都是你的错，要怪……就怪狂厄吧。
 * **艾恩**: 😐
 </t>
         </is>
@@ -14991,26 +14991,26 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">[泰特拉擺弄著你辦公室裡的電腦]
-**泰特拉**: 還是要注意一些管理局的網路安全哦，局長。
-* **Prompt:** 不如你來優化一下管理局的網路安全邏輯吧。
-* **泰特拉**: 求求我，說不定我會答應你。
+          <t xml:space="preserve">[泰特拉摆弄着你办公室里的电脑]
+**泰特拉**: 还是要注意一些管理局的网络安全哦，局长。
+* **Prompt:** 不如你来优化一下管理局的网络安全逻辑吧。
+* **泰特拉**: 求求我，没准我就答应你。
 * **泰特拉**: 😘😉
-* **Prompt:** 管理局的防火牆萬無一失。
-* **泰特拉**: 哦~那我從電腦裡找到的這份檔案是誰的呢？
+* **Prompt:** 管理局的防火墙万无一失。
+* **泰特拉**: 哦~那我从电脑里找到的这份档案是谁的呢？
 * **泰特拉**: 😏😏😏
 </t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve">[泰特拉躺在管理局的檔案櫃上不停嘆氣]
-**泰特拉**: 無聊啊——沒想到在這裡也會這麼無聊。
+          <t xml:space="preserve">[泰特拉躺在管理局的档案柜上不住叹气]
+**泰特拉**: 无聊啊——没想到在这里也会这么无聊。
 * **Prompt:** 不如去找普希拉吧？
-* **泰特拉**: 嘖，兩個人一起的話……任務難度會降低的。
+* **泰特拉**: 啧，两个人一起的话……任务难度会降低的。
 * **泰特拉**: 😥
-* **Prompt:** 不然下次幫你準備一些單人任務？
-* **泰特拉**: 哦——？這下刺激了。我喜歡。
+* **Prompt:** 不然下次给你准备一些单人任务？
+* **泰特拉**: 哦——？这下刺激了。我喜欢。
 * **泰特拉**: 😘😉
 </t>
         </is>
@@ -15028,26 +15028,26 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">[堇來到你的辦公室，似乎是想替你分擔工作]
-**堇**: 局長……您看起來有煩心事？如果不嫌棄，請讓我為您分憂。
-* **Prompt:** 如果你堅持的話， 那就幫我搬搬文件好了。
-* **堇**: 好的，我明白了，我會認真工作的。
+          <t xml:space="preserve">[堇来到你的办公室，似乎是想替你分担工作]
+**堇**: 局长……您看上去有烦心事？如果不嫌弃，请让我为您分忧。
+* **Prompt:** 如果你坚持的话， 那就帮我搬搬文件好了。
+* **堇**: 好的，我明白了，我会认真工作的。
 * **堇**: 😖
-* **Prompt:** 我沒什麼不開心的事，不用麻煩你。
-* **堇**: 您是……不信任我嗎？
+* **Prompt:** 我没什么不开心的事，不用麻烦你。
+* **堇**: 您是……不信任我么？
 * **堇**: 😖
 </t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve">[堇捏著一片花瓣，神色慌張]
-**堇**: 花園的殺手……最近來過？
-* **Prompt:** 不會的，這裡很安全。
-* **堇**: 請您……一定要小心。她們無孔不入。
+          <t xml:space="preserve">[堇捏着一片花瓣，神色慌张]
+**堇**: 花园的杀手……最近来过？
+* **Prompt:** 不会的，这里很安全。
+* **堇**: 请您……一定要小心。她们无孔不入。
 * **堇**: 😫
-* **Prompt:** 既然你這麼擔心，就由你來保護我吧。
-* **堇**: 我絕不會辜負您的信任。
+* **Prompt:** 既然你这么担心，就由你来保护我吧。
+* **堇**: 我绝不会辜负您的信任。
 * **堇**: 😘
 </t>
         </is>
@@ -15065,27 +15065,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">[麥昆邀請你出席一場藝術品拍賣會。]
-**麥昆**: 怎麼樣，有興趣嗎？
-* **Prompt:** 好吧，我答應你。
-* **麥昆**: 相信我，你會是最令人驚喜的嘉賓。
-* **麥昆**: 😘
-* **Prompt:** 不行，今天還有任務。
-* **麥昆**: 沒關係，我下次還會邀請你的。
-* **麥昆**: 😉
+          <t xml:space="preserve">[麦昆邀请你出席一场艺术品拍卖会。]
+**麦昆**: 怎么样，有兴趣吗？
+* **Prompt:** 好吧，我答应你。
+* **麦昆**: 相信我，你会是最令人惊喜的嘉宾。
+* **麦昆**: 😘
+* **Prompt:** 不行，今天还有任务。
+* **麦昆**: 没关系，我下次还会邀请你的。
+* **麦昆**: 😉
 </t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve">[麥昆因藝術品詐騙面臨鉅額罰款。]
-**麥昆**: 別擔心，我有辦法應付。
-* **Prompt:** 該支付你的罰款金額了。
-* **麥昆**: 嘖——沒想到你這麼有正義感。
-* **麥昆**: 😥😥
-* **Prompt:** 咳，這次就先幫你蒙混過關，下不為例。
-* **麥昆**: 哦吼，要我說聲謝謝嗎？還是說，你要我……給你一點額外的「謝禮」？
-* **麥昆**: 😏😘
+          <t xml:space="preserve">[麦昆因艺术品诈骗面临巨额罚款。]
+**麦昆**: 别担心，我有办法应付。
+* **Prompt:** 该支付你的罚款金额了。
+* **麦昆**: 啧——没想到你这么有正义感。
+* **麦昆**: 😥😥
+* **Prompt:** 咳，这次就先帮你蒙混过关，下不为例。
+* **麦昆**: 哦豁，要我说声谢谢吗？还是说，你要我……给你一点额外的“谢礼”？
+* **麦昆**: 😏😘
 </t>
         </is>
       </c>
@@ -15102,26 +15102,26 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">[琳正在舉著相機拍攝溫室裡一叢新開的花，神色有些苦惱]
-**琳**: 總覺得好像還差了點什麼……
-* **Prompt:** 只有這一種花太單調了？
-* **琳**: 有可能……我去搬幾盆別的花來試試……
+          <t xml:space="preserve">[琳正在举着相机拍摄温室里一丛新开的花，神色有些苦恼]
+**琳**: 总觉得好像还差了点什么……
+* **Prompt:** 只有这一种花太单调了？
+* **琳**: 有可能……我去搬几盆别的花来试试……
 * **琳**: 😦
 * **Prompt:** 缺了人物？
-* **琳**: 啊，局長，您說得對。可以麻煩您站到花後面當我的模特兒嗎？
+* **琳**: 啊，局长，您说得对。可以麻烦您站到花后面当我的模特吗？
 * **琳**: 😘
 </t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve">[琳正在專注地看一本漫畫，臉上泛著紅暈]
+          <t xml:space="preserve">[琳正在专注地看一本漫画，脸上泛着红晕]
 **琳**: 好甜啊……
-* **Prompt:** 你在看什麼？
-* **琳**: 是……嗯……漫畫啦。不過局長您肯定不看這個吧……
+* **Prompt:** 你在看什么？
+* **琳**: 是……嗯……漫画啦。不过局长您肯定不看这个吧……
 * **琳**: 😐
-* **Prompt:** 什麼好甜？
-* **琳**: 啊！您嚇了我一跳……我說的是漫畫啦……
+* **Prompt:** 什么好甜？
+* **琳**: 啊！您吓了我一跳……我说的是漫画啦……
 * **琳**: 😖
 </t>
         </is>
@@ -15139,27 +15139,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">[加洛法諾捧著一束康乃馨]
-**加洛法諾**: 您覺得……今天我該用哪種顏色的花來裝飾房間呢？
-* **Prompt:** 紅色吧，色彩更明亮。
-* **加洛法諾**: 嗯……看著它，的確會讓人心情更好。
-* **加洛法諾**: 😘
-* **Prompt:** 我挑不出來……你選自己喜歡的就好。
-* **加洛法諾**: 唉……真是令人糾結呢。
-* **加洛法諾**: 😖
+          <t xml:space="preserve">[加洛法诺捧着一束康乃馨]
+**加洛法诺**: 您觉得……今天我该用哪种颜色的花来装饰房间呢？
+* **Prompt:** 红色吧，色彩更鲜亮。
+* **加洛法诺**: 嗯……看着它，的确会让人心情更好。
+* **加洛法诺**: 😘
+* **Prompt:** 我挑不出来……你选自己喜欢就好。
+* **加洛法诺**: 哎……真是令人纠结呢。
+* **加洛法诺**: 😖
 </t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve">[加洛法諾撫摸著一匹柔軟的布料]
-**加洛法諾**: 我打算用它來為您做套睡衣，應該會很合適。
-* **Prompt:** 謝謝，我想那肯定很舒服。
-* **加洛法諾**: 希望它可以為您帶來更好的休息品質。
-* **加洛法諾**: 😉
-* **Prompt:** 會不會太麻煩你了？
-* **加洛法諾**: 怎麼會？我甚至希望……能再為您多做一些。
-* **加洛法諾**: 😘
+          <t xml:space="preserve">[加洛法诺抚摸着一匹柔软的面料]
+**加洛法诺**: 我打算用它给您做套睡衣，应该会很合适。
+* **Prompt:** 谢谢，我想那肯定很舒服。
+* **加洛法诺**: 希望它可以给您带来更好的休息。
+* **加洛法诺**: 😉
+* **Prompt:** 会不会太麻烦你了？
+* **加洛法诺**: 怎么会？我甚至希望……能再为您多做一些。
+* **加洛法诺**: 😘
 </t>
         </is>
       </c>
@@ -15176,27 +15176,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">[優利卡整理著旅行社的傳單。]
-**優利卡**: 局長，如果你要去旅行的話……你會選哪條路線呢？
-* **Prompt:** 自由時間多的慢遊路線吧。
-* **優利卡**: 我也覺得旅行就應該悠悠閒閒的，這樣，有了靈感可以隨時停下來思考……下次一起去吧！
-* **優利卡**: 😘😘😘
-* **Prompt:** 假期總是不夠長，估計只能選特戰隊式旅遊了。
-* **優利卡**: 對哦……局長總是很忙……嗯，我這裡應該有發明可以幫你提高工作效率的，讓我來找找……
-* **優利卡**: 😖😖😖
+          <t xml:space="preserve">[优利卡整理着旅行社的传单。]
+**优利卡**: 局长，如果你要去旅行的话……你会选哪条路线呢？
+* **Prompt:** 自由时间多的慢游路线吧。
+* **优利卡**: 我也觉得旅行就应该悠悠闲闲的，这样，有了灵感可以随时停下来思考……下次一起去吧！
+* **优利卡**: 😘😘😘
+* **Prompt:** 假期总是不够长，估计只能选特种兵式旅游了。
+* **优利卡**: 对哦……局长总是很忙……嗯，我这里应该有发明可以帮你提高工作效率的，让我来找找……
+* **优利卡**: 😖😖😖
 </t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve">[優利卡翻看著一本科幻電影雜誌。]
-**優利卡**: 這些電影裡的道具都看起來好有趣呀……局長，你有沒有想要我做出來的電影道具？
-* **Prompt:** 我想要隱身衣。
-* **優利卡**: 唔，組合攝影機和螢幕材料應該可以做出來……啊，但是臉沒辦法覆蓋到耶，效果可能會有點像一顆孤零零的頭飄在空中。沒關係嗎？
-* **優利卡**: 😉😉😉
-* **Prompt:** 我想要鐳射劍。
-* **優利卡**: 啊！那個確實很有趣！我以前好像做過類似的發明，雖然因為安全原因限制了功率，連雞蛋都煮不熟……但有著色功能哦。
-* **優利卡**: 😫😫😫
+          <t xml:space="preserve">[优利卡翻看着一本科幻电影杂志。]
+**优利卡**: 这些电影里的道具都看起来好有趣呀……局长，你有没有想要我做出来的电影道具？
+* **Prompt:** 我想要隐身衣。
+* **优利卡**: 唔，组合摄像头和荧幕材料应该可以做出来……啊，但是脸没办法覆盖到诶，效果可能会有点像一颗孤零零的头飘在空中。没关系吗？
+* **优利卡**: 😉😉😉
+* **Prompt:** 我想要激光剑。
+* **优利卡**: 啊！那个确实很有趣！我以前好像做过类似的发明，虽然因为安全原因限制了功率，连鸡蛋都煮不熟……但有着色功能哦。
+* **优利卡**: 😫😫😫
 </t>
         </is>
       </c>
@@ -15213,27 +15213,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">[薊神色慌張地闔上了寫到一半的手帳。]
-**薊**: 你什麼時候過來的？怎麼還用這種眼神看著我？別過來！我只是在寫……寫手帳而已！
-* **Prompt:** 嗯……我似乎瞥見了我的臉的拼貼。
-* **薊**: 不可能，一定是你眼花了！
-* **薊**: 😖
-* **Prompt:** 就是有點好奇裡面的內容。
-* **薊**: 哼，記載的都是我最珍貴的東西，才不隨便給人看。
-* **薊**: 😫
+          <t xml:space="preserve">[蓟神色慌张地合起了写到一半的手账。]
+**蓟**: 你什么时候过来的？怎么还用这种眼神看着我？别过来！我只是在写……写手账而已！
+* **Prompt:** 嗯……我似乎瞥见了我的头像拼贴。
+* **蓟**: 不可能，一定是你眼花了！
+* **蓟**: 😖
+* **Prompt:** 就是有点好奇里面的内容。
+* **蓟**: 哼，记载的都是我最珍贵的东西，才不随便给人看。
+* **蓟**: 😫
 </t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve">[薊在管理局操場發現了一隻受傷的小流浪貓。]
-**薊**: 它流了好多血啊，局長，我們可以幫幫它嗎？
-* **Prompt:** 可以，那它就託付給你了？
-* **薊**: 算你有眼光，照顧流浪貓狗我最拿手……咳咳，我就試試，嗯，試試。
-* **薊**: 😉
-* **Prompt:** 交給醫務人員處理吧。
-* **薊**: ……我會申請每天來探望它的……不是你想的那樣，我只是，只是為了確認它死了沒……
-* **薊**: 😖
+          <t xml:space="preserve">[蓟在管理局操场发现了一只受伤的小流浪猫。]
+**蓟**: 它流了好多血啊，局长，我们可以帮帮它吗？
+* **Prompt:** 可以，那它就托付给你了？
+* **蓟**: 算你有眼光，照顾流浪猫狗我最拿手……咳咳，我就试试，嗯，试试。
+* **蓟**: 😉
+* **Prompt:** 交给医务人员处理吧。
+* **蓟**: ……我会申请每天来探望它的……不是你想的那样，我只是，只是为了确认它死没死……
+* **蓟**: 😖
 </t>
         </is>
       </c>
@@ -15250,27 +15250,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">[早上，舒魯瑪頂著黑眼圈走出房間。]
-**舒魯瑪**: 早安，局長。眼睛下面有黑眼圈？昨晚因為寫作文有點晚睡，謝謝你的關心，不用擔心我。
-* **Prompt:** 但你昨天的作業裡好像不包括作文？
-* **舒魯瑪**: 因為、因為馬上要考試了！我想要訓練自己的寫作思辨能力！
-* **舒魯瑪**: 😉😉
-* **Prompt:** 你是指這篇凌晨四點登頂論壇的「作文」嗎？
-* **舒魯瑪**: 我沒……你這大人真討厭！好了，我以後會早睡的，你千萬不要斷我的網！
-* **舒魯瑪**: 😖😖
+          <t xml:space="preserve">[早晨舒鲁玛顶着黑眼圈走出房间。]
+**舒鲁玛**: 早上好，局长。眼睛下面有黑眼圈？昨晚因为写作文睡得有点晚，谢谢你的关心，不用担心我。
+* **Prompt:** 可你昨天的作业里好像不包括作文？
+* **舒鲁玛**: 因为、因为马上要考试了！我想要锻炼自己的写作思辨能力！
+* **舒鲁玛**: 😉😉
+* **Prompt:** 你是指这篇凌晨四点登顶论坛的“作文”吗？
+* **舒鲁玛**: 我没……你这大人真讨厌！好了，我以后会早睡的，你可不要断我的网！
+* **舒鲁玛**: 😖😖
 </t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve">[路邊的小貓對著靠近的舒魯瑪弓背哈氣。]
-**舒魯瑪**: 唉，又是這樣……局長，你知道該怎麼做才能和小貓親近嗎？
-* **Prompt:** 我選擇魚肉罐頭誘惑。
-* **舒魯瑪**: 啊，小貓已經走遠了……等下次出門我會記得帶上小魚乾的。嗯？你也會幫我帶嗎？
-* **舒魯瑪**: 😦😫
-* **Prompt:** 我選擇毛絨玩偶代替。
-* **舒魯瑪**: 好爛的……局長聽錯了，我什麼也沒說啊。剛剛？我覺得應該是風聲吧。
-* **舒魯瑪**: 😏😏😏
+          <t xml:space="preserve">[路边的小猫对着靠近的舒鲁玛弓背哈气。]
+**舒鲁玛**: 唉，又是这样……局长，你知道该怎么做才能和小猫亲近吗？
+* **Prompt:** 我选择鱼肉罐头诱惑。
+* **舒鲁玛**: 啊，小猫已经走远了……等下次出门我会记得带上小鱼干的。嗯？你也会帮我带吗？
+* **舒鲁玛**: 😦😫
+* **Prompt:** 我选择毛绒玩偶平替。
+* **舒鲁玛**: 好烂的……局长听错了，我什么也没说啊。刚刚？我觉得应该是风声吧。
+* **舒鲁玛**: 😏😏😏
 </t>
         </is>
       </c>
@@ -15287,26 +15287,26 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve">[普希拉似乎發現你在盯著她]
-**普希拉**: 怎麼？對我的面具感興趣？
-* **Prompt:** 能借我戴一下嗎？
-* **普希拉**: 要是戴上的話，就算加入我們了哦，你可要想清楚。
+          <t xml:space="preserve">[普希拉似乎发现你在盯着她]
+**普希拉**: 怎么？对我的面具感兴趣？
+* **Prompt:** 能借我戴一下么？
+* **普希拉**: 要是戴上的话，就算加入我们了哦，你可要想好。
 * **普希拉**: 😏😏
-* **Prompt:** 泰特拉似乎也有一個很像的。
-* **普希拉**: 嘖，你怎麼現在才發現啊。而且，是她抄了我的設計！
+* **Prompt:** 泰特拉似乎也有一个很像的。
+* **普希拉**: 啧，你怎么才发现啊。而且，是她抄了我的设计！
 * **普希拉**: 😫😫
 </t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve">[普希拉在擦拭著她的道具]
-**普希拉**: 好久沒有演出過，有些道具已經落滿灰塵了。
-* **Prompt:** 又想去當什麼魔術小偷了嗎？
-* **普希拉**: 我是正義的俠盜兔！劫富濟貧你懂嗎！
+          <t xml:space="preserve">[普希拉在擦拭着她的道具]
+**普希拉**: 好久没有演出过，有些道具已经落满灰尘了。
+* **Prompt:** 又想去当什么魔术小偷了吗？
+* **普希拉**: 我是正义的侠盗兔！劫富济贫你懂么！
 * **普希拉**: 😥😖
-* **Prompt:** 所以，你是想要出任務了？
-* **普希拉**: 嗯嗯！舞台和燈光都要準備齊全那種！
+* **Prompt:** 所以，你是想要出任务了？
+* **普希拉**: 嗯嗯！舞台和灯光都要准备齐全那种！
 * **普希拉**: 😉😘😉
 </t>
         </is>
@@ -15324,26 +15324,26 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve">[露莉艾卡在你的辦公室裡蹦蹦跳跳]
-**露莉艾卡**: 局長——局長——來一起玩遊戲吧！
-* **Prompt:** 可以玩，但是能把你的左輪手槍放下嗎？
-* **露莉艾卡**: 有賭注才有意思嘛！來吧局長，再賭大一點吧！
+          <t xml:space="preserve">[露莉艾卡在你的办公室里蹦蹦跳跳]
+**露莉艾卡**: 局长——局长——来一起玩游戏吧！
+* **Prompt:** 可以玩，但是能把你的左轮手枪放下么？
+* **露莉艾卡**: 有赌注才有意思嘛！来吧局长，再赌大一点吧！
 * **露莉艾卡**: 😉😉😉
-* **Prompt:** 話說在先，和運氣有關的都不玩。
-* **露莉艾卡**: 啊……為什麼啊！露莉不要！快陪我玩！陪我玩！
+* **Prompt:** 话说在先，和运气有关的都不玩。
+* **露莉艾卡**: 啊……为什么啊！露莉不要！快陪我玩！陪我玩！
 * **露莉艾卡**: 😖😖😖
 </t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve">[露莉艾卡看起來情緒十分低落]
-**露莉艾卡**: 唉……最近找到的四葉草都是三葉的，露莉的能力是不是失效了啊。
-* **Prompt:** 可是四葉草不都是三葉的嗎？
-* **露莉艾卡**: 哼，像局長運氣這麼差的人，這輩子都找不到真正的四葉草！
+          <t xml:space="preserve">[露莉艾卡看上去情绪十分低落]
+**露莉艾卡**: 唉……最近找到的四叶草都是三叶的，露莉的能力是不是失效了啊。
+* **Prompt:** 可是四叶草不都是三叶的么？
+* **露莉艾卡**: 哼，像局长运气这么差的人，这辈子都找不到真正的四叶草！
 * **露莉艾卡**: 😫😫😫
-* **Prompt:** 我倒是撿到了一枚四葉草徽章，給你。
-* **露莉艾卡**: 哇！這是露莉前幾天弄丟的！謝謝局長，果然露莉還是很幸運呢。
+* **Prompt:** 我倒是捡到了一枚四叶草徽章，给你。
+* **露莉艾卡**: 哇！这是露莉前几天弄丢的！谢谢局长，果然露莉还是很幸运呢。
 * **露莉艾卡**: 😘😘😘
 </t>
         </is>
@@ -15361,25 +15361,25 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve">[狼獾滿臉期待地看著你]
-**狼獾**: 我……餓了。
-* **Prompt:** 完成任務，晚餐加肉。
-* **狼獾**: 嗯，一言為定。
+          <t xml:space="preserve">[狼獾满脸期待地看着你]
+**狼獾**: 我……饿了。
+* **Prompt:** 完成任务，晚餐加肉。
+* **狼獾**: 嗯，一言为定。
 * **狼獾**: 😐
-* **Prompt:** 忍忍，還沒到吃飯時間。
-* **狼獾**: ……嘖。
+* **Prompt:** 忍忍，还没到饭点。
+* **狼獾**: ……啧。
 * **狼獾**: 😐
 </t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve">[狼獾有些手忙腳亂]
-**狼獾**: 阿皮……別亂跑，局長，幫個忙。
-* **Prompt:** （一把抓住阿皮的後頸提起來）
-* **狼獾**: 對它，好一點。
+          <t xml:space="preserve">[狼獾有些手忙脚乱]
+**狼獾**: 阿皮……别乱跑，局长，帮下忙。
+* **Prompt:** （一把抓住阿皮的后颈提起来）
+* **狼獾**: 对它，好一点。
 * **狼獾**: 😐
-* **Prompt:** （抱起阿皮送給狼獾）
+* **Prompt:** （抱起阿皮送给狼獾）
 * **狼獾**: 你……很懂。
 * **狼獾**: 😐
 </t>
@@ -15398,27 +15398,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve">[瑪蒂爾達邀你在射擊館見面。]
-**瑪蒂爾達**: 局長，關於管理局射擊館的使用規範，我初步擬定了一份大綱，請過目。
-* **Prompt:** 現在的管理規範已經很完善了……
-* **瑪蒂爾達**: 不，仍有許多細節需要注意。
-* **瑪蒂爾達**: 😐
-* **Prompt:** 我會認真看的。
-* **瑪蒂爾達**: 期待您的指正。
-* **瑪蒂爾達**: 😐
+          <t xml:space="preserve">[玛蒂尔达邀你在射击馆见面。]
+**玛蒂尔达**: 局长，关于管理局射击馆的使用规范，我初步拟定了一份大纲，请过目。
+* **Prompt:** 现在的管理规范已经很完善了……
+* **玛蒂尔达**: 不，仍有许多细节需要注意。
+* **玛蒂尔达**: 😐
+* **Prompt:** 我会认真看的。
+* **玛蒂尔达**: 期待您的指正。
+* **玛蒂尔达**: 😐
 </t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve">[瑪蒂爾達來到你的辦公室。]
-**瑪蒂爾達**: 局長，在您看來，休息時間做什麼事情最有價值？
-* **Prompt:** 休息時間就徹底放鬆吧……
-* **瑪蒂爾達**: 放鬆也是一種價值嗎？
-* **瑪蒂爾達**: 😦
-* **Prompt:** 可以試著培養多種興趣愛好。
-* **瑪蒂爾達**: 好，我會把發展興趣愛好加入計畫。
-* **瑪蒂爾達**: 😐
+          <t xml:space="preserve">[玛蒂尔达来到你的办公室。]
+**玛蒂尔达**: 局长，在您看来，休息时间做什么事情最有价值？
+* **Prompt:** 休息时间就彻底放松吧……
+* **玛蒂尔达**: 放松也是一种价值吗？
+* **玛蒂尔达**: 😦
+* **Prompt:** 可以试着培养多种兴趣爱好。
+* **玛蒂尔达**: 好，我会把发展兴趣爱好加入计划。
+* **玛蒂尔达**: 😐
 </t>
         </is>
       </c>
@@ -15435,27 +15435,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve">[圖書室門禁異常，你發現是煙煙把神話書籍全部取下，其中一本正好卡住了門。 ]
-**煙煙**: 咦？局長你為什麼來這裡？
-* **Prompt:** 煙煙很喜歡神話嗎？
-* **煙煙**: 那當然啦！不同地方的傳說故事完全都不一樣，嘿嘿，狄斯這邊的神話也很有意思的！
-* **煙煙**: 😘😘😘
-* **Prompt:** 記得要把書收拾回去。
-* **煙煙**: 等等等等，我先看完這個故事！
-* **煙煙**: 😫😫
+          <t xml:space="preserve">[图书室门禁异常，你发现是烟烟把神话书籍全部取下，其中一本正好卡住了门。 ]
+**烟烟**: 咦？局长你为什么来这里？
+* **Prompt:** 烟烟很喜欢神话吗？
+* **烟烟**: 那当然啦！不同地方的传说故事完全都不一样，嘿嘿，狄斯这边的神话也很有意思的！
+* **烟烟**: 😘😘😘
+* **Prompt:** 记得要把书收拾回去。
+* **烟烟**: 等等等等，我先看完这个故事！
+* **烟烟**: 😫😫
 </t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve">[煙煙端著一盤自己做的食物急匆匆地跑進了你的辦公室。]
-**煙煙**: 快快快，局長也來嚐嚐吧？這可是我花了好久才做好的家鄉菜！
-* **Prompt:** 好呀，我這就嚐嚐！
-* **煙煙**: 哼哼，很不錯吧，連麵都是我親手揉的哦~
-* **煙煙**: 😘😘😘
-* **Prompt:** 馬上，我清空一下桌面。
-* **煙煙**: 那你要快點啊！唉呀燙燙燙要端不住了！
-* **煙煙**: 😖😖😖
+          <t xml:space="preserve">[烟烟端着一盘自己做的食物急匆匆地跑进了你的办公室。]
+**烟烟**: 快快快，局长也来尝尝吧？这可是我花了好久才做好的家乡菜！
+* **Prompt:** 好呀，我这就尝尝！
+* **烟烟**: 哼哼，很不错吧，连面都是我亲手揉的哦~
+* **烟烟**: 😘😘😘
+* **Prompt:** 马上，我清空一下桌面。
+* **烟烟**: 那你可得快点儿~哎呀烫烫烫要端不住了！
+* **烟烟**: 😖😖😖
 </t>
         </is>
       </c>
@@ -15472,27 +15472,27 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve">[簡對著管理局的保全分佈圖陷入了思考。]
-**簡**: 感覺……還是有些可鑽漏洞的地方……
-* **Prompt:** 既然你這麼有見解，那可以幫忙提一些改進建議嗎？
-* **簡**: 當然，我會提交一份詳細的方案的！
-* **簡**: 😉
-* **Prompt:** 你是想嘗試一下嗎？
-* **簡**: 我只是下意識地分析了一下……我絕對沒有那個意思。
-* **簡**: 😖
+          <t xml:space="preserve">[简对着管理局的安保分布图陷入了思考。]
+**简**: 感觉……还是有些可钻漏洞的地方……
+* **Prompt:** 既然你这么有见解，那可以帮忙提些改进建议吗？
+* **简**: 当然，我会提交一份详细的方案的！
+* **简**: 😉
+* **Prompt:** 你是想尝试一下吗？
+* **简**: 我只是下意识地分析了一下……我绝对没有那个意思。
+* **简**: 😖
 </t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve">[簡來到辦公室向你述職。]
-**簡**: 您指派的任務我都完成了，請給我接下來的工作安排吧。
-* **Prompt:** 你最近表現不錯，可以去和夜鶯申請更高難度的任務了，加油啊。
-* **簡**: 我不會辜負您的期待的，局長。
-* **簡**: 😘
-* **Prompt:** 那陪我去放風區散散步吧。
-* **簡**: 這、這也是工作內容之一嗎……好的，局長。
-* **簡**: 😐
+          <t xml:space="preserve">[简来到办公室向你述职。]
+**简**: 您指派的任务我都完成了，请给我接下来的工作安排吧。
+* **Prompt:** 你最近表现不错，可以去和夜莺申请更高难度的任务了，加油啊。
+* **简**: 我不会辜负您的期待的，局长。
+* **简**: 😘
+* **Prompt:** 那陪我去放风区散散步吧。
+* **简**: 这、这也是工作内容之一吗……好的，局长。
+* **简**: 😐
 </t>
         </is>
       </c>
@@ -15509,26 +15509,26 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t xml:space="preserve">[派因將一本磚頭厚的錄音轉錄文本拍到你手裡。]
-**派因**: 我說，你這管理局真該好好整頓了。食材供貨的負責人是廚師他對面鄰居前妻的兒子，兩個人互行方便，很可能在吃採購的回扣，你沒發現嗎？
-* **Prompt:** 你怎麼知道的？
-* **派因**: 竊聽對話而已，用我改裝的設備還不是輕輕鬆鬆？
+          <t xml:space="preserve">[派因将一本砖头厚的录音转录文本拍到你手里。]
+**派因**: 我说，你这管理局真该好好整顿了。食材供货的负责人是厨师他对门邻居跟了前妻的儿子，两个人互行方便，很可能在吃采购的回扣，你没发现吗？
+* **Prompt:** 你怎么知道的？
+* **派因**: 窃听对话而已，用我改装的设备还不是轻轻松松？
 * **派因**: 😏
-* **Prompt:** 不要妄下結論。
-* **派因**: ……嘖，真溫吞，那你慢慢調查核實吧。
+* **Prompt:** 不要妄下结论。
+* **派因**: ……啧，真温吞，那你慢慢调查核实吧。
 * **派因**: 😥
 </t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve">[為了保證禁閉者的身體健康，派因被治療師要求調整飲食結構。]
-**派因**: 真麻煩，吃的東西有什麼可講究的，餓不死不就行了嗎？
-* **Prompt:** 至少別天天只吃泡麵和零食。
-* **派因**: 那就換罐裝能量飲吧，能維持生命體徵，還不用煮熱水了。
+          <t xml:space="preserve">[为了保证禁闭者的身体健康，派因被治疗师要求调整饮食结构。]
+**派因**: 真麻烦，吃的东西有什么可讲究的，饿不死不就行了吗？
+* **Prompt:** 至少别天天只吃泡面和零食。
+* **派因**: 那就换罐装能量饮吧，能维持生命体征，还免得烧水了。
 * **派因**: 😐
-* **Prompt:** 可以試試看三明治，做和吃都比較方便。
-* **派因**: 聽起來不錯，出門還能隨身帶著。下次我試試。
+* **Prompt:** 可以试试看三明治，做和吃都比较方便。
+* **派因**: 听起来不错，出门还能随身带着。下次我试试。
 * **派因**: 😏
 </t>
         </is>
@@ -15546,27 +15546,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve">[維多利亞在自己的房間中不停地感嘆著]
-**維多利亞**: 啊……這封閉的空間，真是讓人感到安心。
-* **Prompt:** 是的，它隔絕了一切對你的威脅。
-* **維多利亞**: 沒錯……沒錯……
-* **維多利亞**: 😦
+          <t xml:space="preserve">[维多利亚在自己的房间中不住地感叹着]
+**维多利亚**: 啊……这封闭的空间，真是让人感到安心。
+* **Prompt:** 是的，它隔绝了一切对你的威胁。
+* **维多利亚**: 没错……没错……
+* **维多利亚**: 😦
 * **Prompt:** 你不想逃出去？
-* **維多利亞**: 外面的世界，好危險……
-* **維多利亞**: 😫😫😫
+* **维多利亚**: 外面的世界，好危险……
+* **维多利亚**: 😫😫😫
 </t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve">[你在接到警報後馬上趕到了維多利亞的房間]
-**維多利亞**: 我……又流了好多血……該怎麼辦……
+          <t xml:space="preserve">[你在接到警报后马上赶到了维多利亚的房间]
+**维多利亚**: 我……又流了好多血……该怎么办……
 * **Prompt:** 使用能力就可以止血了。
-* **維多利亞**: 爸爸看到的話又要生氣了……
-* **維多利亞**: 😖😖
-* **Prompt:** 別亂動，我來幫你上藥。
-* **維多利亞**: 這……就是局長的「愛」嗎？
-* **維多利亞**: 😘😘😘
+* **维多利亚**: 爸爸看到又该生气了……
+* **维多利亚**: 😖😖
+* **Prompt:** 别乱动，我来给你上药。
+* **维多利亚**: 这……就是局长的“爱”吗？
+* **维多利亚**: 😘😘😘
 </t>
         </is>
       </c>
@@ -15583,26 +15583,26 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve">[你帶了焦糖布丁來找伊格尼]
-**伊格尼**: 你是……特意來見我的？
-* **Prompt:** 是啊，還帶了焦糖布丁。
-* **伊格尼**: 哼，哼……少騙人了。還有……我可不會感謝你。
+          <t xml:space="preserve">[你带了焦糖布丁来找伊格尼]
+**伊格尼**: 你是……特意来见我的？
+* **Prompt:** 是啊，还带了焦糖布丁。
+* **伊格尼**: 哼，哼……少骗人了。还有……我可不会感谢你。
 * **伊格尼**: 😖😖
-* **Prompt:** 看看你有沒有安分一點。
-* **伊格尼**: 我早就不是以前的那個伊格尼了！少瞧不起我！
+* **Prompt:** 看看你有没有安分一点。
+* **伊格尼**: 我早就不是以前的那个伊格尼了！少瞧不起我！
 * **伊格尼**: 😖😥
 </t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve">[在管理局的廚房裡，伊格尼在不停嘆氣]
-**伊格尼**: 唉……到底該怎麼做菜啊。
-* **Prompt:** 你是又燒了廚房嗎？感覺有開爾文做飯就足夠了。
-* **伊格尼**: 你等著！我一定會做好讓你看的！
+          <t xml:space="preserve">[在管理局的厨房里，伊格尼在不住叹气]
+**伊格尼**: 唉……到底该怎么做菜啊。
+* **Prompt:** 你是又烧了厨房么？感觉有开尔文做饭就足够了。
+* **伊格尼**: 你等着！我一定会做好让你看的！
 * **伊格尼**: 😖😖😖
-* **Prompt:** 我來幫你吧，你當助手，做做冷食就好。
-* **伊格尼**: 也……也不是不行啦。但做完之後我要第一個嚐！
+* **Prompt:** 我来帮你吧，你打下手，做做冷食就好。
+* **伊格尼**: 也……也不是不行啦。但做完之后我要第一个尝！
 * **伊格尼**: 😫😐
 </t>
         </is>
@@ -15620,27 +15620,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t xml:space="preserve">[看起來像是露薇婭]
-**露薇婭·蕾**: 噓，小聲點，蕾現在睡著了……
-* **Prompt:** 你們要是可以一直這樣和諧相處就好了。
-* **露薇婭·蕾**: 嘻嘻……其實我們之間的關係還可以啦。
-* **露薇婭·蕾**: 😘😘
-* **Prompt:** 那太好了，終於沒人和我吵架了。
-* **露薇婭·蕾**: 噓！別說這個！萬一被她聽到就不好了！
-* **露薇婭·蕾**: 😫😫
+          <t xml:space="preserve">[看上去像是露薇娅]
+**露薇娅·蕾**: 嘘，小点声，蕾现在睡着了……
+* **Prompt:** 你们要是可以一直这样和谐相处就好了。
+* **露薇娅·蕾**: 嘻嘻……其实我们之间的关系还好啦。
+* **露薇娅·蕾**: 😘😘
+* **Prompt:** 那太好了，终于没人和我吵架了。
+* **露薇娅·蕾**: 嘘！别说这个！万一被她听到就不好了！
+* **露薇娅·蕾**: 😫😫
 </t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve">[她有些暴躁，看起來像是蕾]
-**露薇婭·蕾**: 我新劇的選角……都是配角。
-* **Prompt:** 那這次去試鏡時別忘了去參加任務。
-* **露薇婭·蕾**: 唉……我們會努力的。啊……又是任務。
-* **露薇婭·蕾**: 😘😥
-* **Prompt:** 是金子總有一天會發光的，加油。
-* **露薇婭·蕾**: 嗯，我們會加油的～！總有一天會成功的！
-* **露薇婭·蕾**: 😘😖
+          <t xml:space="preserve">[她有些暴躁，看上去像是蕾]
+**露薇娅·蕾**: 我新剧的选角……都是配角。
+* **Prompt:** 那这次去试镜时别忘了去参加任务。
+* **露薇娅·蕾**: 唉……我们会努力的。啊……又是任务。
+* **露薇娅·蕾**: 😘😥
+* **Prompt:** 是金子总有一天会发光的，加油。
+* **露薇娅·蕾**: 嗯，我们会加油的～！总有一天会成功的！
+* **露薇娅·蕾**: 😘😖
 </t>
         </is>
       </c>
@@ -15657,26 +15657,26 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t xml:space="preserve">[赫卡蒂向你詢問今天的安排]
-**赫卡蒂**: 局長，請給我今天的命令。
+          <t xml:space="preserve">[赫卡蒂向你询问今天的安排]
+**赫卡蒂**: 局长，请给我今天的命令。
 * **Prompt:** 今天的命令是，好好休息。
 * **赫卡蒂**: 嗯，我明白了。
 * **赫卡蒂**: 😘
-* **Prompt:** 今天暫時還沒有適合你的任務。
-* **赫卡蒂**: 沒有命令的話……我的存在意義，又是什麼呢……
+* **Prompt:** 今天暂时还没有适合你的任务。
+* **赫卡蒂**: 没有命令的话……我的存在意义，又是什么呢……
 * **赫卡蒂**: 😐
 </t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve">[赫卡蒂翻看著過往行動的記錄]
-**赫卡蒂**: 如果我消失，還會有下一個赫卡蒂，屆時請把我忘掉。
-* **Prompt:** 我會試著習慣的。
-* **赫卡蒂**: 請……不要再顧慮。
+          <t xml:space="preserve">[赫卡蒂翻看着过往行动的记录]
+**赫卡蒂**: 如果我消失，还会有下一个赫卡蒂，届时请把我忘掉。
+* **Prompt:** 我会试着习惯的。
+* **赫卡蒂**: 请……不要再顾虑。
 * **赫卡蒂**: 😐
-* **Prompt:** 沒有人能替代你。
-* **赫卡蒂**: ……希望這次，悲劇不會再現。
+* **Prompt:** 没有人能替代你。
+* **赫卡蒂**: ……希望这次，悲剧不会再现。
 * **赫卡蒂**: 😦
 </t>
         </is>
@@ -15694,27 +15694,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve">[奧利弗向你遞來一個玩偶]
-**奧利弗**: 局長~來和奧利弗一起玩吧？
-* **Prompt:** 就我們兩個人嗎？
-* **奧利弗**: 局長要是喜歡熱鬧的話，奧利弗馬上就把房間裡的所有玩偶都帶過來！
-* **奧利弗**: 😖😖😖
-* **Prompt:** 有重要的工作要處理，你先自己玩吧。
-* **奧利弗**: 唉，也對……局長日理萬機，怎麼會在意奧利弗小小的請求呢。
-* **奧利弗**: 😦😫
+          <t xml:space="preserve">[奥利弗向你递来一个玩偶]
+**奥利弗**: 局长~来和奥利弗一起玩吧？
+* **Prompt:** 就我们两个人吗？
+* **奥利弗**: 局长要是喜欢热闹的话，奥利弗马上就把房间里的所有玩偶都带过来！
+* **奥利弗**: 😖😖😖
+* **Prompt:** 有重要的工作要处理，你先自己玩吧。
+* **奥利弗**: 唉，也对……局长日理万机，怎么会在意奥利弗小小的请求呢。
+* **奥利弗**: 😦😫
 </t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve">[奧利弗遍體鱗傷地躺在臥室裡]
-**奧利弗**: 局長……好痛……好痛啊……
-* **Prompt:** 你又做什麼危險的事了？
-* **奧利弗**: 危、危險的事……那是什麼？奧利弗聽不懂。
-* **奧利弗**: 😖😖😖
-* **Prompt:** 是誰欺負你了？
-* **奧利弗**: 是，是奧利弗自己不小心摔倒的！大家……都對我很好。
-* **奧利弗**: 😫😖
+          <t xml:space="preserve">[奥利弗遍体鳞伤地躺在卧室里]
+**奥利弗**: 局长……好痛……好痛啊……
+* **Prompt:** 你又做什么危险的事了？
+* **奥利弗**: 危、危险的事……那是什么？奥利弗听不懂。
+* **奥利弗**: 😖😖😖
+* **Prompt:** 是谁欺负你了？
+* **奥利弗**: 是，是奥利弗自己不小心摔倒的！大家……都对我很好。
+* **奥利弗**: 😫😖
 </t>
         </is>
       </c>
@@ -15731,27 +15731,27 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t xml:space="preserve">[你走出辦公室時，拉彌亞一臉關切地走了過來]
-**拉彌亞**: 局長，您看起來很疲憊的樣子，是不是需要放鬆一下？
-* **Prompt:** ……你該不會是想對我用異能吧？
-* **拉彌亞**: 當然不是了！局長您怎麼對我這麼防備……
-* **拉彌亞**: 😖
-* **Prompt:** 怎麼放鬆？
-* **拉彌亞**: 您可以去泡個澡，溫暖的水流有很好的舒緩疲勞的效果哦~
-* **拉彌亞**: 😘
+          <t xml:space="preserve">[你走出办公室时，拉弥亚非常关切地迎了上来]
+**拉弥亚**: 局长，您看上去很疲惫的样子，是不是需要放松一下？
+* **Prompt:** ……你该不会是想对我用异能吧？
+* **拉弥亚**: 当然不是了！局长您怎么对我这么防备……
+* **拉弥亚**: 😖
+* **Prompt:** 怎么放松？
+* **拉弥亚**: 您可以去泡个澡，温暖的水流有很好的舒缓疲劳的效果哦~
+* **拉弥亚**: 😘
 </t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve">[拉彌亞正在娛樂區觀看一部青春校園電影，表情有些疑惑]
-**拉彌亞**: 學生時代到底是什麼樣子呢？為什麼這麼多人都會懷念那段日子呢？
-* **Prompt:** 大概因為在那段無憂無慮的日子裡沒有生活的壓力吧。
-* **拉彌亞**: 無憂無慮又是什麼樣的感覺？我好像從來都沒有體會過。
-* **拉彌亞**: 😦
-* **Prompt:** 大概是因為很多人都在那個時候得到了最純粹的感情吧。
-* **拉彌亞**: 純粹的感情嗎……實在很難想像……
-* **拉彌亞**: 😦
+          <t xml:space="preserve">[拉弥亚正在娱乐区观看一部青春校园电影，表情有些疑惑]
+**拉弥亚**: 学生时代到底是什么样子的？为什么那么多人都会怀念那段日子呢？
+* **Prompt:** 大概因为在那段无忧无虑的日子里没有生活的压力吧。
+* **拉弥亚**: 无忧无虑又是什么样的感觉？我好像从来都没有体会过。
+* **拉弥亚**: 😦
+* **Prompt:** 大概是因为很多人都在那个时候收获了最纯粹的感情吧。
+* **拉弥亚**: 纯粹的感情吗……实在很难想象……
+* **拉弥亚**: 😦
 </t>
         </is>
       </c>
@@ -15768,26 +15768,26 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve">[艾可聆聽著催眠室裡常用的幾首輕音樂。]
-**艾可**: 唉呀，這些都軟綿綿的，實在不夠帶勁。還是艾可的演出錄音更適合加進催眠室的歌單，肯定會很好用的~
-* **Prompt:** 不是說你不好，主要是不符合催眠室的主旨。
-* **艾可**: 怎麼不符合了？艾可的演奏可是很百搭的~之前在劇院後門表演的時候，還有幾個醉漢聽完就倒在地上睡著了呢~
+          <t xml:space="preserve">[艾可聆听着催眠室里常用的几首轻音乐。]
+**艾可**: 哎呀，这些都软绵绵的，实在不够劲。还是艾可的演出录音更适合加进催眠室的歌单，肯定会很好用的~
+* **Prompt:** 不是说你不好，主要是不符合催眠室的主旨。
+* **艾可**: 怎么不符合了？艾可的演奏可是很百搭的~之前在剧院后门表演的时候，还有几个醉汉听完就倒在地上睡着了呢~
 * **艾可**: 😉😉😉
-* **Prompt:** 我覺得禁閉室更需要你這樣優秀的音樂。
-* **艾可**: 唔？禁閉室？是不是進去之後得聽完才能出來的小黑屋啊？願意啊當然願意啊，只要堅持到聽完，他們肯定會被艾可的薩克斯風打動的~
+* **Prompt:** 我觉得禁闭室更需要你这样优秀的音乐。
+* **艾可**: 唔？禁闭室？是不是进去之后得听完才能出来的小黑屋啊？愿意啊当然愿意啊，只要坚持到听完，他们肯定会被艾可的萨克斯打动的~
 * **艾可**: 😘😘😘
 </t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t xml:space="preserve">[艾可抱著她的薩克斯風來到你面前。]
-**艾可**: 今天是個好日子，薩克斯風天才的精彩演出開啟點歌模式了！來，快說說你想聽什麼~
-* **Prompt:** 能跟我說一下可以選的歌嗎？
-* **艾可**: 《我心須臾》、《離家》、《地獄之約》、《危重夜》、《紅丹花》……哼哼，不要小看我，只要你想聽，我可以背出整本樂譜給你~
+          <t xml:space="preserve">[艾可抱着她的萨克斯来到你面前。]
+**艾可**: 今天是个好日子，萨克斯天才的精彩演出开启点歌模式了！来，快说说你想听什么~
+* **Prompt:** 能给我报一下可以选的歌吗？
+* **艾可**: 《我心须臾》、《离家》、《地狱之约》、《危重夜》、《红丹花》……哼哼，可别小看我，只要你想听，我可以背出整本曲谱给你~
 * **艾可**: 😏😏😏
-* **Prompt:** 我喜歡的比較小眾，可能有點難度。
-* **艾可**: 你怎麼這麼肯定啊，是不是想故意為難我？好哇，艾可接受你的挑戰~你想聽什麼，我現在就查樂譜！天才如我，就算現學也肯定能表演得很好~
+* **Prompt:** 我喜欢的比较小众，可能有点难度。
+* **艾可**: 你怎么这么肯定啊，是不是想故意为难我？好哇，艾可接受你的挑战~你想听什么，我现在就查谱子！天才如我，就算现学也肯定能表演得很好~
 * **艾可**: 😘😘😘
 </t>
         </is>
@@ -15805,27 +15805,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve">[無患子端著一碗熱騰騰的中藥在辦公室門口躊躇。]
-**無患子**: 今日運勢極差，不宜見人，但居士每日一劑的湯藥可不能就這麼停了……不然我在這裡架個爐火煮藥吧？
-* **Prompt:** 沒事，我現在出來拿吧，謝謝你。
-* **無患子**: 啊……啊！您先別出來！我放下就走了！
-* **無患子**: 😖😖😖
-* **Prompt:** 謝謝你這麼辛苦還親自幫我送湯藥。
-* **無患子**: 也、也沒有辛苦……那我就放門口了，居士等我走遠了再拿藥吧。
-* **無患子**: 😖😖😖
+          <t xml:space="preserve">[无患子端着一碗热腾腾的中药在办公室门口踌躇。]
+**无患子**: 今日运势极差，不宜见人，但居士每日一剂的汤药可不能就这么停了……不然我在这里架个炉火把药温着？
+* **Prompt:** 没事，我现在出来取吧，谢谢你。
+* **无患子**: 啊……啊！您先别出来！我放下就走了！
+* **无患子**: 😖😖😖
+* **Prompt:** 谢谢你这么辛苦还亲自给我送汤药。
+* **无患子**: 也、也没有辛苦……那我就放门口了，居士等我走远了再拿药吧。
+* **无患子**: 😖😖😖
 </t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t xml:space="preserve">[無患子正在畫新的符紙。]
-**無患子**: 居士，下次可以多進些東洲的黃紙嗎？
-* **Prompt:** 要黃紙做什麼？
-* **無患子**: 東洲的黃紙燒出的香灰藥效會更好一些，可惜量太少，沒寫幾張新的又用完了。
-* **無患子**: 😥😥😥
-* **Prompt:** 答應。
-* **無患子**: 咦……這麼爽快？居士此舉功德無量！
-* **無患子**: 😉😉😉
+          <t xml:space="preserve">[无患子正在画新的符纸。]
+**无患子**: 居士，下次可以多进些东洲的黄纸吗？
+* **Prompt:** 要黄纸做什么？
+* **无患子**: 东洲的黄纸烧出的香灰药效会更好一些，可惜量太少，没写几张新的又用完了。
+* **无患子**: 😥😥😥
+* **Prompt:** 答应。
+* **无患子**: 咦……这么爽快？居士此举功德无量！
+* **无患子**: 😉😉😉
 </t>
         </is>
       </c>
@@ -15842,27 +15842,27 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve">[艾瑞爾左顧右盼，似乎有些慌張]
-**艾瑞爾**: 大家，為什麼總是盯著我看呢……
-* **Prompt:** 可能是你太閃閃發光了吧。
-* **艾瑞爾**: 真……真的嗎！我會繼續加油的！
-* **艾瑞爾**: 😘😘
-* **Prompt:** 可能是斯賓塞家族太有名了吧。
-* **艾瑞爾**: ……唉，優秀的是我的哥哥姐姐，和我無關。
-* **艾瑞爾**: 😐
+          <t xml:space="preserve">[艾瑞尔左顾右盼，似乎有些慌张]
+**艾瑞尔**: 大家，为什么总是盯着我看呢……
+* **Prompt:** 可能是你太闪闪发光了吧。
+* **艾瑞尔**: 真……真的么！我会继续加油的！
+* **艾瑞尔**: 😘😘
+* **Prompt:** 可能是斯宾塞家族太有名了吧。
+* **艾瑞尔**: ……唉，优秀的是我的哥哥姐姐，和我无关。
+* **艾瑞尔**: 😐
 </t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve">[任務結束後，艾瑞爾特地向你道歉]
-**艾瑞爾**: 我好像……總是在拖大家的後腿……
-* **Prompt:** 繼續加油吧。
-* **艾瑞爾**: 對不起……我會，我會加倍努力的！
-* **艾瑞爾**: 😫
-* **Prompt:** 你是大家的力量，別放棄。
-* **艾瑞爾**: 希望大家也不要放開我的手。
-* **艾瑞爾**: 😘
+          <t xml:space="preserve">[任务结束后，艾瑞尔特地向你道歉]
+**艾瑞尔**: 我好像……总是在拖大家的后腿……
+* **Prompt:** 继续加油吧。
+* **艾瑞尔**: 对不起……我会，我会加倍努力的！
+* **艾瑞尔**: 😫
+* **Prompt:** 你是大家的力量，别放弃。
+* **艾瑞尔**: 希望大家也不要放开我的手。
+* **艾瑞尔**: 😘
 </t>
         </is>
       </c>
@@ -15879,26 +15879,26 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">[你被邀請到卡米利安的私人診所]
-**卡米利安**: 最近的睡眠品質如何，還需要我的幫助嗎？
-* **Prompt:** ……等等，我似乎沒接受過你的幫助？
-* **卡米利安**: 呵呵，不錯的反應。
+          <t xml:space="preserve">[你被邀请到卡米利安的私人诊所]
+**卡米利安**: 最近的睡眠质量如何，还需要我的帮助么？
+* **Prompt:** ……等等，我似乎没接受过你的帮助？
+* **卡米利安**: 呵呵，不错的反应。
 * **卡米利安**: 😉
-* **Prompt:** 不用，我的睡眠品質一直很好。
-* **卡米利安**: 哦，原來是這樣嗎？那再好不過。
+* **Prompt:** 不用，我的睡眠质量一直很好。
+* **卡米利安**: 哦，原来是这样么？那再好不过。
 * **卡米利安**: 😘
 </t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve">[卡米利安一邊寫著病例一邊嘆氣]
-**卡米利安**: 最近找我看病的人突然變多了，你有什麼頭緒？
-* **Prompt:** 可能是最近的任務壓力太大了吧？
-* **卡米利安**: 呵，這可不見得。
+          <t xml:space="preserve">[卡米利安一边写着病例一边叹气]
+**卡米利安**: 最近找我看病的人突然变多了，你有什么头绪？
+* **Prompt:** 可能是最近的任务压力太大了吧？
+* **卡米利安**: 呵，这可不见得。
 * **卡米利安**: 😏
-* **Prompt:** 可能大家對你的心理治療都很滿意。
-* **卡米利安**: ……大家心中的猛獸，都開始甦醒了呢。
+* **Prompt:** 可能大家对你的心理治疗都很满意。
+* **卡米利安**: ……大家心中的猛兽，都开始苏醒了呢。
 * **卡米利安**: 😘
 </t>
         </is>
@@ -15916,26 +15916,26 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve">[安看著以前的照片，有感而發]
-**安**: 小孩子真可愛啊……又天真，又善良。
-* **Prompt:** 你守護了很多小天使？
-* **安**: 當然，我感覺有他們在的地方就是天堂。
+          <t xml:space="preserve">[安看着以前的照片，有感而发]
+**安**: 小孩子真可爱啊……又天真，又善良。
+* **Prompt:** 你守护了很多小天使？
+* **安**: 当然，我感觉有他们在的地方就是天堂。
 * **安**: 😘😘😘
-* **Prompt:** 他們搗亂的時候一點都不可愛。
-* **安**: 這是每個小孩子都會經歷的階段，不要和他們賭氣。
+* **Prompt:** 他们捣乱的时候一点都不可爱。
+* **安**: 这是每个小孩子都会经历的阶段，不要和他们置气。
 * **安**: 😖
 </t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve">[患者的情況並不理想，安有些慌張]
-**安**: 有些患者的情況開始惡化了，彼岸診所那時也是這樣……
-* **Prompt:** 這次一定會成功的。
-* **安**: 但……那時……我什麼都沒有做到。
+          <t xml:space="preserve">[患者的情况并不理想，安有些慌张]
+**安**: 有些患者的情况开始恶化了，彼岸诊所那时也是这样……
+* **Prompt:** 这次一定会成功的。
+* **安**: 可……那时……我什么都没有做到。
 * **安**: 😖
-* **Prompt:** 你現在可以做到更多，我也會幫你的。
-* **安**: 嗯……謝謝局長，我會盡力而為的！
+* **Prompt:** 你现在可以做到更多，我也会帮你的。
+* **安**: 嗯……谢谢局长，我会尽力而为的！
 * **安**: 😘😘
 </t>
         </is>
@@ -15953,27 +15953,27 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve">[Mr.Fox在你的面前點鈔]
-**Mr.Fox**: 最近贏了很多官司，進帳不錯。
-* **Prompt:** 建議你把它們都換成電子貨幣，這樣更方便。
-* **Mr.Fox**: 不錯的想法，不過你該不會監視我的帳號吧？
-* **Mr.Fox**: 😏
-* **Prompt:** 當然，但請你不要在我的辦公桌上數錢。
-* **Mr.Fox**: 哦？並沒有任何一條法律像這樣約束過我的行為。
-* **Mr.Fox**: 😉
+          <t xml:space="preserve">[福克斯先生在你的面前点钞]
+**福克斯先生**: 最近赢了很多官司，进账不错。
+* **Prompt:** 建议你把它们都换成电子货币，这样更方便。
+* **福克斯先生**: 不错的想法，不过你该不会监视我的账号吧？
+* **福克斯先生**: 😏
+* **Prompt:** 当然，但请你不要在我的办公桌上数钱。
+* **福克斯先生**: 哦？可没有任何一条法律像这样约束过我的行为。
+* **福克斯先生**: 😉
 </t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve">[Mr.Fox嘆了一口氣]
-**Mr.Fox**: 最近來找我的辯護的案子，都是我不想接的。
-* **Prompt:** 你還會有不想接的案子？是因為他們給的太少？
-* **Mr.Fox**: 哈……當然有比錢更重要的東西。
-* **Mr.Fox**: 😥
-* **Prompt:** 既然不想接，就留在這裡看我工作。
-* **Mr.Fox**: 好吧……也算是個消磨時間的好方法。
-* **Mr.Fox**: 😐
+          <t xml:space="preserve">[福克斯先生叹了一口气]
+**福克斯先生**: 最近来找我的辩护的案子，都是我不想接的。
+* **Prompt:** 你还能有不想接的案子？是因为他们给的太少？
+* **福克斯先生**: 哈……当然有比钱更重要的东西。
+* **福克斯先生**: 😥
+* **Prompt:** 既然不想接，就留在这里看我工作。
+* **福克斯先生**: 行吧……也算是个消磨时间的好方法。
+* **福克斯先生**: 😐
 </t>
         </is>
       </c>
@@ -15990,26 +15990,26 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve">[嘟嘟端著滿滿一盤炸豬排從廚房裡走出來]
-**嘟嘟**: 啊，老闆，你也是來找宵夜吃的嗎？
-* **Prompt:** 是的，剛剛出完任務回來有些餓了。
-* **嘟嘟**: 今天的炸豬排味道還不錯，我也去幫你拿幾塊。
+          <t xml:space="preserve">[嘟嘟端着满满一盘子的炸猪排从厨房里走出来]
+**嘟嘟**: 啊，老板，你也是来找宵夜吃的吗？
+* **Prompt:** 是的，刚刚出完任务回来有些饿了。
+* **嘟嘟**: 今天的炸猪排味道还不错，我去给你也拿几块。
 * **嘟嘟**: 😉
-* **Prompt:** 不，我只是路過。
-* **嘟嘟**: 那你看著我吃吧，說不定看著看著就餓了。
+* **Prompt:** 不，我只是路过。
+* **嘟嘟**: 那你看着我吃吧，说不定看着看着就饿了。
 * **嘟嘟**: 😏
 </t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve">[嘟嘟大聲宣傳著她的嗩吶培訓班]
-**嘟嘟**: 走過路過千萬不要錯過！前二十位學員學費減半啦——欸，那邊的老闆，別走呀，要不要跟著我學嗩吶？
-* **Prompt:** 有多少人報名了？
-* **嘟嘟**: 這不是都在等著你先來做表率嗎？來來來，幫你打折再打折！
+          <t xml:space="preserve">[嘟嘟大声宣传着她的唢呐培训班]
+**嘟嘟**: 走过路过不要错过！前二十位学员学费减半啦——哎，那边的老板，别走呀，要不要跟着我学唢呐？
+* **Prompt:** 有多少人报名了？
+* **嘟嘟**: 这不是都在等着你先来做表率嘛？来来来，给你折上折！
 * **嘟嘟**: 😘
-* **Prompt:** 我有點忙。
-* **嘟嘟**: 太無情了！作為一位合格的老闆你應該支持我的事業！
+* **Prompt:** 我挺忙的。
+* **嘟嘟**: 太无情了！作为一位合格的老板你应该支持我的事业！
 * **嘟嘟**: 😖
 </t>
         </is>
@@ -16027,27 +16027,27 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve">[萊塔偷偷地溜進你的房間]
-**萊塔**: 局長局長，我又發現了新的冒險地點！
-* **Prompt:** 等我做完這份工作就陪你去。
-* **萊塔**: 嘿嘿，快點啦，這次的冒險肯定更刺激~
-* **萊塔**: 😘
-* **Prompt:** 下次進來前記得敲門。
-* **萊塔**: 唔，下次一定，下次一定……
-* **萊塔**: 😖
+          <t xml:space="preserve">[莱塔偷偷地溜进你的房间]
+**莱塔**: 局长局长，我又发现了新的冒险地点！
+* **Prompt:** 等我做完这份工作就陪你去。
+* **莱塔**: 嘿嘿，快点啦，这次的冒险肯定更刺激~
+* **莱塔**: 😘
+* **Prompt:** 下次进来前记得敲门。
+* **莱塔**: 唔，下次一定，下次一定……
+* **莱塔**: 😖
 </t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve">[萊塔被你抓到偷偷跑出來玩]
-**萊塔**: 唔呣……我怎麼，突然站在這裡了……
-* **Prompt:** ……看來得把管理局的牆再加厚幾公分。
-* **萊塔**: 別、別這樣嘛，下次出去玩一定會找你一起！
-* **萊塔**: 😖😖😖
-* **Prompt:** ……算了，跟我回去吧，下不為例。
-* **萊塔**: 嘿嘿，局長最好了……
-* **萊塔**: 😉😉
+          <t xml:space="preserve">[莱塔被你抓到偷偷跑出来玩]
+**莱塔**: 唔呣……我怎么，突然站在这里了……
+* **Prompt:** ……看来得把管理局的墙再加厚几厘米。
+* **莱塔**: 别、别这样嘛，下次出来玩一定带你一起！
+* **莱塔**: 😖😖😖
+* **Prompt:** ……算了，跟我回去吧，下不为例。
+* **莱塔**: 嘿嘿，局长最好了……
+* **莱塔**: 😉😉
 </t>
         </is>
       </c>
@@ -16064,27 +16064,27 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve">[卡西婭在娛樂區瀏覽著香水評論網站。]
-**卡西婭**: 香水的味道越來越複雜，越來越工業化，都快把純粹的味道覆蓋掉了……就連感悟評論，也充斥著難聞的工業氣息……
-* **Prompt:** 每個人對香水的喜好和評價都是不同的，不用在意這些。
-* **卡西婭**: 真可憐……希望他們有幸能聞到世界上最純粹的味道，嗯~
-* **卡西婭**: 😫
-* **Prompt:** 是在評價你的香水嗎？你的香水應該已經不在市面上流通了，或許是假貨。
-* **卡西婭**: 即便能復刻出我所製作的香水的味道，他們自身散發出來的，應該也是惡劣的臭味吧。
-* **卡西婭**: 😥
+          <t xml:space="preserve">[卡西娅在娱乐区浏览着香评网站。]
+**卡西娅**: 香水的味道越来越复杂，越来越工业化，都快把纯粹的味道覆盖掉了……就连感悟评论，也充斥着难闻的工业气息……
+* **Prompt:** 每个人对香水的喜好和评价都是不同的，不用在意这些。
+* **卡西娅**: 真可怜……希望他们有幸能闻到世界上最纯粹的味道，嗯~
+* **卡西娅**: 😫
+* **Prompt:** 是在评价你的香水吗？你的香水应该已经不流通了，或许是假货。
+* **卡西娅**: 即便能复刻出我所制作的香水的味道，他们自身散发出来的，应该也是恶劣的臭味吧。
+* **卡西娅**: 😥
 </t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve">[卡西婭又收到了選美大賽的評審邀請函。]
-**卡西婭**: 要想讓我分辨誰才是最頂級的香料……咳，最頂級的美人，我必須要去到現場……
-* **Prompt:** 我知道了，我陪你去。
-* **卡西婭**: 那我想，最終的冠軍應該會是你~
-* **卡西婭**: 😏😏
-* **Prompt:** 你上次罵翻後台所有選手，他們還願意請你去？
-* **卡西婭**: 那是因為主辦方知道得很清楚，我選出的名次才最能服眾……
-* **卡西婭**: 😉
+          <t xml:space="preserve">[卡西娅又收到了选美大赛的评委邀请函。]
+**卡西娅**: 要想让我分辨谁才是最顶级的香料……咳，最顶级的美人，我必须要去到现场……
+* **Prompt:** 我明白了，我陪你去。
+* **卡西娅**: 那我想，最终的冠军应该会是你~
+* **卡西娅**: 😏😏
+* **Prompt:** 你上次贴遍了后台所有选手，他们还愿意请你去？
+* **卡西娅**: 那是因为主办方知道得很清楚，我选出的名次才最能服众……
+* **卡西娅**: 😉
 </t>
         </is>
       </c>
@@ -16101,26 +16101,26 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve">[肖恩又開始頻繁注意自己的手機並在每次有訊息時迅速回覆。]
-**肖恩**: 「千萬別這樣想，甜心，是他們沒有品味，才這樣不珍惜你。」……呼，總算安慰好了。沒想到管理局內網裡，也有這麼多渴求著一份愛的人。
-* **Prompt:** 直線距離這麼近，需要網戀嗎。
-* **肖恩**: 隔著網路線和螢幕傳遞的愛，有它獨特的味道。它更純粹，更不受限制……你要來試試嗎？
+          <t xml:space="preserve">[肖恩又开始频繁注意自己的手机并在每次来消息时迅速回复。]
+**肖恩**: “千万别这样想，甜心，是他们没有品味，才这样不珍惜你。”……呼，总算安慰好了。没想到管理局内网里，也有这么多渴求着一份爱的人。
+* **Prompt:** 直线距离这么近，需要网恋吗。
+* **肖恩**: 隔着网线和屏幕传递的爱，有它独特的味道。它更纯粹，更不受限制……你要来试试吗？
 * **肖恩**: 😘
-* **Prompt:** 直線距離這麼近，不怕被真人快打嗎。
-* **肖恩**: 一份真摯的愛，不會鬧到那種醜陋不堪的地步。而且如果這能讓對方開心……我十分願意奉獻自己。
+* **Prompt:** 直线距离这么近，不怕被真人快打吗。
+* **肖恩**: 一份真挚的爱，不会闹到那种丑陋不堪的地步。而且如果这能让对方开心……我十分愿意奉献自己。
 * **肖恩**: 😉
 </t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve">[肖恩面對無論重新整理多少次都會出現在裝置上的網路斷線通知似乎十分暴躁。]
-**肖恩**: 不是說下午三點恢復嗎？怎麼還沒有動靜？這樣難道不會影響管理局的正常運作嗎？
-* **Prompt:** 難得你這麼關心管理局的正常工作
-* **肖恩**: 那是你每天要面對的事，我當然也會放在心上了，不用太感動。
+          <t xml:space="preserve">[肖恩面对刷新多少次都会出现在终端上的断网通知似乎十分暴躁。]
+**肖恩**: 不是说下午三点恢复吗？怎么还没有动静？这样难道不会影响管理局的正常运作吗？
+* **Prompt:** 难得你这么关心管理局的正常工作
+* **肖恩**: 那可是你每天要面对的事，我当然也会放在心上了，不用太感动。
 * **肖恩**: 😏
-* **Prompt:** 延長維護2小時的報告早就貼在食堂了
-* **肖恩**: 線下通知？居然沒有人拍照上傳到內網論壇嗎？啊對，網路斷線了……可惡……
+* **Prompt:** 延长维护2小时的报告早就贴在食堂了
+* **肖恩**: 线下通知？居然没有人拍照上传到内网论坛吗？啊对，断网了……可恶……
 * **肖恩**: 😖
 </t>
         </is>
@@ -16138,27 +16138,27 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve">[澤斐爾充滿興趣地瀏覽著關於家庭精釀酒吧的網路新聞。]
-**澤斐爾**: 家庭精釀吧！聽起來好有趣，去陌生人的家裡喝一杯，聽一個故事，然後走掉，所有人都不會再相見！因為大家都不認識，所以根本不用拘束！
-* **Prompt:** 讓陌生人來家裡不會有安全隱患嗎？
-* **澤斐爾**: 要是發現對方是壞蛋，就直接逃呀！跳窗，或者把門板踹開，順著樓梯扶手滑下去！那也很爽！
-* **澤斐爾**: 😉😉😉
-* **Prompt:** 喝陌生人提供的飲料不會有食品安全問題嗎？
-* **澤斐爾**: 唉呀，喝到吐也是正常發揮嘛，還能差到哪裡去？重要的是享受那個過程~
-* **澤斐爾**: 😘😘😘
+          <t xml:space="preserve">[泽斐尔充满兴趣地刷着关于家庭精酿吧的网络新闻。]
+**泽斐尔**: 家庭精酿吧！听起来好有意思，去陌生人的家里喝一杯，听一个故事，然后走掉，所有人都不会再相见！因为大家都不认识，所以根本不用拘束！
+* **Prompt:** 让陌生人来家里不会有安全隐患吗？
+* **泽斐尔**: 要是发现对方是坏蛋，就直接逃呀！跳窗，或者把门板踹开，顺着楼梯扶手滑下去！那也很爽！
+* **泽斐尔**: 😉😉😉
+* **Prompt:** 喝陌生人提供的饮料不会有食品安全问题吗？
+* **泽斐尔**: 哎呀，喝到吐也是常规操作嘛，还能差到哪里去？重要的是享受那个过程~
+* **泽斐尔**: 😘😘😘
 </t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t xml:space="preserve">[澤斐爾在禁閉室門後無聊地晃著腿。]
-**澤斐爾**: 唉呀——都說了我不是想逃走嘛——我只是好奇圍牆後面是什麼而已，這不也幫你測了下圍牆安全性嘛——放我出來啦——
-* **Prompt:** 那你繼續幫忙測試禁閉室的封閉性吧
-* **澤斐爾**: 這可是你說的，那我就繼續努力了！看我干擾干擾這邊的監視器——
-* **澤斐爾**: 😏😏😏
-* **Prompt:** 嗯，那部分已經抵掉你3天禁閉室時長了
-* **澤斐爾**: 啊？這已經是折抵後的？論功行賞不要這麼小氣嘛，直接抹平不就好了！
-* **澤斐爾**: 😖😖😖
+          <t xml:space="preserve">[泽斐尔在禁闭室门后无聊地晃着腿。]
+**泽斐尔**: 哎呀——都说了我不是想逃走嘛——我只是好奇围墙后面是什么而已，这不也帮你测了下围墙安全性嘛——放我出来啦——
+* **Prompt:** 那你继续帮忙测下禁闭室的封闭性吧
+* **泽斐尔**: 这可是你说的，那我就继续努力了！看我干扰干扰这边的监控——
+* **泽斐尔**: 😏😏😏
+* **Prompt:** 嗯，那部分已经给你抵掉3天禁闭室时长了
+* **泽斐尔**: 啊？这已经是抵扣后的？论功行赏不要这么小气嘛，直接抹平不就好了！
+* **泽斐尔**: 😖😖😖
 </t>
         </is>
       </c>
@@ -16175,27 +16175,27 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t xml:space="preserve">[K.K.在你的辦公室等待指令]
-**K.K.**: 有什麼我能幫你做的事情嗎？
-* **Prompt:** 鏽河的任務缺一個人，去嗎？
-* **K.K.**: 這樣也不錯……出發吧。
-* **K.K.**: 😉
-* **Prompt:** ……沒有。
-* **K.K.**: 我這是……要失業了嗎？
-* **K.K.**: 😥
+          <t xml:space="preserve">[蔻蔻在你的办公室等待指令]
+**蔻蔻**: 有什么我能帮你做的事情么？
+* **Prompt:** 锈河的任务缺一个人，去么？
+* **蔻蔻**: 这样也不错……出发吧。
+* **蔻蔻**: 😉
+* **Prompt:** ……没有。
+* **蔻蔻**: 我这是……要失业了么？
+* **蔻蔻**: 😥
 </t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve">[K.K.向你詢問自己以前的搭檔]
-**K.K.**: 白逸那傢伙呢？怎麼又不見了？
-* **Prompt:** 是有無法完成的任務了嗎？
-* **K.K.**: 嘖，用不著她出手。
-* **K.K.**: 😐
-* **Prompt:** 大概在地下室裡摸魚吧。
-* **K.K.**: 唉，畢竟是那個白逸啊，這下預算可怎麼辦……
-* **K.K.**: 😫
+          <t xml:space="preserve">[蔻蔻向你询问自己以前的搭档]
+**蔻蔻**: 白逸那家伙呢？怎么又不见了？
+* **Prompt:** 是有完不成的任务了么？
+* **蔻蔻**: 啧，用不着她出手。
+* **蔻蔻**: 😐
+* **Prompt:** 大概在地下室里摸鱼吧。
+* **蔻蔻**: 唉，毕竟是那个白逸啊，这下预算可怎么办……
+* **蔻蔻**: 😫
 </t>
         </is>
       </c>
@@ -16212,26 +16212,26 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve">[結束任務後，德莫莉開始安排餘下的時間]
-**德莫莉**: 今天做點什麼活動好呢？來點推薦吧局長。
-* **Prompt:** 來下棋吧。
-* **德莫莉**: 哦！好主意！我們來玩狄斯戰棋吧！
+          <t xml:space="preserve">[结束任务后，德莫莉开始安排余下的时间]
+**德莫莉**: 今天做点什么活动好呢？来点推荐吧局长。
+* **Prompt:** 来下棋吧。
+* **德莫莉**: 哦！好主意！我们来玩狄斯战棋吧！
 * **德莫莉**: 😉😏
-* **Prompt:** 來唸書吧。
-* **德莫莉**: 啊——不要！就算要把我丟到鏽河執行任務，我都不想唸書！
+* **Prompt:** 来学习吧。
+* **德莫莉**: 啊——不要！就算要把我丢到锈河执行任务，我都不去学习！
 * **德莫莉**: 😖😖😖
 </t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve">[德莫莉在數著她的收藏品]
-**德莫莉**: 要來支援一下我的收藏嗎，局長？
-* **Prompt:** 管理局的那些建材還剩了一些，有些材質還不錯。
-* **德莫莉**: 唉呀，是那種珍貴一點的！不是這種！
+          <t xml:space="preserve">[德莫莉在数着她的收藏品]
+**德莫莉**: 要来支援一下我的收藏么，局长？
+* **Prompt:** 管理局的那些建材还剩了一些，有些材质还不错。
+* **德莫莉**: 哎呀，是那种珍贵一点的！不是这种！
 * **德莫莉**: 😦😦
-* **Prompt:** 嗯……前一陣子撿到的決鬥頭巾如何？
-* **德莫莉**: 哇……看起來有點老舊，戴上之後卻意外地有些帥氣！
+* **Prompt:** 嗯……前一阵子捡到的决斗头巾如何？
+* **德莫莉**: 哇……看起来有点老旧，戴上之后却意外地有些帅气！
 * **德莫莉**: 😐😉
 </t>
         </is>
@@ -16249,26 +16249,26 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve">[佩姬飛快地寫著歌詞]
-**佩姬**: 呦，這不是局長嗎？怎麼，想聽說唱？
-* **Prompt:** 當然，今天有什麼新作嗎。
-* **佩姬**: 哈！新作，那不是天天都有？先給你唱點經典的。這是辛迪加的Rap浪子，你誰長這副呆頭樣子……
+          <t xml:space="preserve">[佩姬飞快地写着歌词]
+**佩姬**: 呦，这不是局长么？怎么，想听说唱？
+* **Prompt:** 当然，今天有什么新作么。
+* **佩姬**: 哈！新作，那不是天天都有？先给你唱点经典的。这是辛迪加的Rap浪子，你谁长这副呆头样子……
 * **佩姬**: 😘😦
-* **Prompt:** 不是，是有人投訴你的歌不夠說唱。
-* **佩姬**: 讓他們滾！他們懂個錘子的說唱！
+* **Prompt:** 不是，是有人投诉你的歌不够说唱。
+* **佩姬**: 让他们滚！他们懂个锤子的说唱！
 * **佩姬**: 😥
 </t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve">[佩姬一臉不爽地踢著房間裡的雜物]
-**佩姬**: 不是說好要幫我弄個調音台嗎？東西呢？
-* **Prompt:** 採購部已經把這件事加進行事曆了。
-* **佩姬**: 唉……真**的窩囊！我一代說唱巨星，就沒受過這氣！
+          <t xml:space="preserve">[佩姬一脸不爽地踢着房间里的杂物]
+**佩姬**: 不是说好要给我整个调音台吗？东西呢？
+* **Prompt:** 采购办已经把这件事提上日程了。
+* **佩姬**: 唉……真**的窝囊！我一代说唱巨星，就没受过这气！
 * **佩姬**: 😐😐
-* **Prompt:** 我去幫你借瓊的調音台。
-* **佩姬**: 別！那個太複雜了，我用不明白！唉……還得是我這答錄機。
+* **Prompt:** 我去帮你借琼的调音台。
+* **佩姬**: 别！那个太复杂了，我用不明白！唉……还得是我这录音机。
 * **佩姬**: 😐
 </t>
         </is>
@@ -16286,26 +16286,26 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve">[完成任務的海拉直接躺在你的辦公室地板上]
-**海拉**: 啊——有沒有給我準備犒勞品啊？最好是狄斯幣。
-* **Prompt:** 採購部的零食吃嗎？只有這個。
-* **海拉**: 嘿嘿，算你識相。下次多帶一點啊。
+          <t xml:space="preserve">[完成任务的海拉直接躺在你的办公室地板上]
+**海拉**: 啊——有没有给我准备犒劳品啊？最好是狄斯币。
+* **Prompt:** 采购办的零食吃么？只有这个。
+* **海拉**: 嘿嘿，算你识相。下次多带一点啊。
 * **海拉**: 😘😘😘
-* **Prompt:** 沒有，要是你完成任務的話可以考慮一下。
-* **海拉**: 啊——一個管理局局長怎麼這麼囂張？做完任務你可別賴帳！
+* **Prompt:** 没有，要是你完成任务的话可以考虑一下。
+* **海拉**: 啊——一个管理局局长怎么这么嚣张？做完任务你可别赖账！
 * **海拉**: 😐
 </t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve">[看到你後，海拉表現得很驚訝]
-**海拉**: 嘖，是九十九那傢伙告訴你我躲在這的？
-* **Prompt:** 是啊，她直接告訴我了。
-* **海拉**: 你少騙人！九十九才不會背叛我。
+          <t xml:space="preserve">[看到你后，海拉表现得很惊讶]
+**海拉**: 啧，是九十九那家伙告诉你我躲在这的？
+* **Prompt:** 是啊，她直接告诉我了。
+* **海拉**: 你少骗人！九十九才不会背叛我。
 * **海拉**: 😥😥
 * **Prompt:** 是我自己找到你的。
-* **海拉**: 哼，你現在……還有點厲害嘛。
+* **海拉**: 哼，你现在……还有点厉害嘛。
 * **海拉**: 😉😉
 </t>
         </is>
@@ -16323,26 +16323,26 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve">[澈揉了揉眼睛，似乎剛睡醒]
-**澈**: 怎麼？你也來這偷懶？
-* **Prompt:** 倒不是偷懶，只是想找個地方靜靜。
-* **澈**: 巧了，我也是這麼告訴我自己的。
+          <t xml:space="preserve">[澈揉了揉眼睛，似乎刚睡醒]
+**澈**: 怎么？你也来这偷懒？
+* **Prompt:** 倒不是偷懒，只是想找个地方静静。
+* **澈**: 巧了，我也是这么告诉我自己的。
 * **澈**: 😐
-* **Prompt:** 我只是來找點東西，沒想到居然還找到個人。
-* **澈**: 啊，這樣，那順便把我一起也扔出去吧。
+* **Prompt:** 我只是来找点东西，没想到居然还找到个人。
+* **澈**: 啊，这样，那顺便把我一起也扔出去吧。
 * **澈**: 😦
 </t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t xml:space="preserve">[澈看著你，似乎有些不解]
-**澈**: 你成天和我們這群禁閉者混在一塊，好玩嗎？
-* **Prompt:** 工作就是工作，談不上有趣或無聊。
-* **澈**: 啊哈，真是冷酷無情的局長啊。
+          <t xml:space="preserve">[澈看着你，似乎有些不解]
+**澈**: 你成天和我们这群禁闭者混在一块，有意思么？
+* **Prompt:** 工作就是工作，谈不上有意思没意思。
+* **澈**: 啊哈，真是冷酷无情的局长啊。
 * **澈**: 😥
-* **Prompt:** 還好吧，至少每天不會無聊。
-* **澈**: 確實不會無聊，要是能讓我少幹點活就更好了。
+* **Prompt:** 还好吧，至少每天不会无聊。
+* **澈**: 确实不会无聊，要是能让我少干点活就更好了。
 * **澈**: 😐
 </t>
         </is>
@@ -16360,26 +16360,26 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve">[胡椒興沖沖地跑進了你的辦公室]
-**胡椒**: 局長，我今天想做壞事！有什麼建議嗎？
-* **Prompt:** 唉，今天不知道哪個壞蛋去採購部拿了一罐可樂！
-* **胡椒**: 哦？這個點子不錯！
+          <t xml:space="preserve">[胡椒兴冲冲地跑进了你的办公室]
+**胡椒**: 局长，我今天想做坏事！有什么建议么？
+* **Prompt:** 哎，今天不知道哪个坏蛋去采购办拿了一罐可乐！
+* **胡椒**: 哦？这个点子不错！
 * **胡椒**: 😏😉
-* **Prompt:** 你給我老實待著。
-* **胡椒**: 唉……真沒意思，在這都要發黴了。
+* **Prompt:** 你给我老实待着。
+* **胡椒**: 唉……真没意思，在这都要发霉了。
 * **胡椒**: 😫😫😫
 </t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t xml:space="preserve">[胡椒很消沉地站在管理局的操場上]
-**胡椒**: 做任務還不如種地有趣……
-* **Prompt:** 去辛迪加出任務順便探險不行嗎？
-* **胡椒**: 啊——不想去……我就想種地！
+          <t xml:space="preserve">[胡椒很消沉地站在管理局的操场上]
+**胡椒**: 做任务还不如种地有意思……
+* **Prompt:** 去辛迪加出任务顺便探险不行么？
+* **胡椒**: 啊——不想去……我就想种地！
 * **胡椒**: 😫
-* **Prompt:** 去後院吧，說不定還能遇到芙洛拉幫你澆水。
-* **胡椒**: 可以嗎！謝謝局長！
+* **Prompt:** 去后院吧，没准还能遇到芙洛拉帮你浇水。
+* **胡椒**: 可以么！谢谢局长！
 * **胡椒**: 😘😘
 </t>
         </is>
@@ -16397,26 +16397,26 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve">[雷比尼斯似乎早早在辦公室裡等候著你]
-**雷比尼斯**: 發現局長，等待進程。
-* **Prompt:** 先執行清掃程序，完成後再進入家用模式。
-* **雷比尼斯**: 收到，雷比尼斯，準備執行進程。
+          <t xml:space="preserve">[雷比尼斯似乎早早在办公室里等候着你]
+**雷比尼斯**: 发现局长，等待进程。
+* **Prompt:** 先执行清扫进程，完成后再进入家用模式。
+* **雷比尼斯**: 收到，雷比尼斯，准备执行进程。
 * **雷比尼斯**: 😉
-* **Prompt:** 可以直接切換到可愛外掛程式嗎？
-* **雷比尼斯**: 系統拒絕請求。提示：需循序漸進。
+* **Prompt:** 可以直接切换到可爱插件么？
+* **雷比尼斯**: 系统拒绝请求。提示：需循序渐进。
 * **雷比尼斯**: 😐
 </t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t xml:space="preserve">[雷比尼斯在打掃管理局的衛生]
-**雷比尼斯**: 局長，請不要在這裡干擾雷比尼斯的工作。
-* **Prompt:** 你原來可以正常和我交流的嗎？
-* **雷比尼斯**: 戰鬥形態，準備啟動。
+          <t xml:space="preserve">[雷比尼斯在打扫管理局的卫生]
+**雷比尼斯**: 局长，请不要在这里干扰雷比尼斯的工作。
+* **Prompt:** 你原来可以正常和我交流的么？
+* **雷比尼斯**: 战斗形态，准备启动。
 * **雷比尼斯**: 😥😥
-* **Prompt:** 請雷比尼斯幫我倒一杯茶。
-* **雷比尼斯**: 雷比尼斯，收到。當前感情：愉快。
+* **Prompt:** 请雷比尼斯给我倒一杯茶。
+* **雷比尼斯**: 雷比尼斯，收到。当前感情：愉快。
 * **雷比尼斯**: 😘😘😘
 </t>
         </is>
@@ -16434,27 +16434,27 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve">[曇在擦拭著她的匕首]
-**曇**: 下次的對手……是誰呢……
-* **Prompt:** 我會為你安排合適的對手的。
-* **曇**: 我好期待啊……嘿嘿……
-* **曇**: 😘😘😘
-* **Prompt:** 辛迪加地區的幫派成員怎麼樣？
-* **曇**: 啊！不行……那邊的對手太不夠格了！什麼時候輪到花園！
-* **曇**: 😫
+          <t xml:space="preserve">[昙在擦拭着她的匕首]
+**昙**: 下次的对手……是谁呢……
+* **Prompt:** 我会为你安排合适的对手的。
+* **昙**: 我好期待啊……嘿嘿……
+* **昙**: 😘😘😘
+* **Prompt:** 辛迪加地区的帮派成员怎么样？
+* **昙**: 啊！不行……那边的对手太不够格了！什么时候轮到花园！
+* **昙**: 😫
 </t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve">[曇緊握著雙手，看起來很憤怒]
-**曇**: 花園！你們居然還敢搶我的目標！
-* **Prompt:** 如果還有這樣的情況的話，記得求助管理局。
-* **曇**: 你是在質疑我的能力？還是……在質疑我手中的刀？
-* **曇**: 😐
-* **Prompt:** 看起來她們為你準備了特殊對策。
-* **曇**: 哈哈……哈哈哈……等著吧，下次你們準備什麼都不好用了！
-* **曇**: 😐😐
+          <t xml:space="preserve">[昙紧握着双手，看起来很愤怒]
+**昙**: 花园！你们居然还敢抢我的目标！
+* **Prompt:** 如果还有这样的情况的话，记得求助管理局。
+* **昙**: 你是在质疑我的能力？还是……在质疑我手中的刀？
+* **昙**: 😐
+* **Prompt:** 看起来她们为你准备了特殊对策。
+* **昙**: 哈哈……哈哈哈……等着吧，下次你们准备什么都不好用了！
+* **昙**: 😐😐
 </t>
         </is>
       </c>
@@ -16471,27 +16471,27 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">[在練習場中的EMP心情似乎很好]
-**EMP**: 哼哼，今天我允許你直視辛迪加無冕之王的尊容。
-* **Prompt:** 那無冕之王，我們今天要做什麼？
-* **EMP**: 當然是玩遊戲了！撲克，骰子，麻將，都可以！
-* **EMP**: 😘😘
-* **Prompt:** ……再耍寶就把你送到鏽河執行任務。
-* **EMP**: 噫啊！我開玩笑的……開玩笑的！
-* **EMP**: 😫😫
+          <t xml:space="preserve">[在练习场中的艾米潘心情似乎很好]
+**艾米潘**: 哼哼，今天我允许你直视辛迪加无冕之王的尊容。
+* **Prompt:** 那无冕之王，我们今天要做什么？
+* **艾米潘**: 当然是玩游戏了！扑克，骰子，麻将，都可以！
+* **艾米潘**: 😘😘
+* **Prompt:** ……再耍宝就把你送到锈河执行任务。
+* **艾米潘**: 噫啊！我开玩笑的……开玩笑的！
+* **艾米潘**: 😫😫
 </t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t xml:space="preserve">[在練習場中的EMP心情似乎很差]
-**EMP**: 別吵，我在練習弓箭呢！
-* **Prompt:** 反正也射不中，不需要練習吧？
-* **EMP**: 我不要！這樣多帥啊！
-* **EMP**: 😖😖😖
-* **Prompt:** 弓箭死神不會射箭真的沒問題嗎？
-* **EMP**: 老婆餅裡還沒有老婆呢！
-* **EMP**: 😏😏
+          <t xml:space="preserve">[在练习场中的艾米潘心情似乎很差]
+**艾米潘**: 别吵，我在练习弓箭呢！
+* **Prompt:** 反正也射不中，不需要练习吧？
+* **艾米潘**: 我不要！这样多帅啊！
+* **艾米潘**: 😖😖😖
+* **Prompt:** 弓箭死神不会射箭真的没问题么？
+* **艾米潘**: 老婆饼里还没有老婆呢！
+* **艾米潘**: 😏😏
 </t>
         </is>
       </c>
@@ -16508,26 +16508,26 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve">[芙洛拉拿著筆記開始對你進行問詢]
-**芙洛拉**: 你今天應該沒有忘記消防設施的定期檢查吧？
-* **Prompt:** 四十三個消防檢查點全都檢查過了。
-* **芙洛拉**: 嗯，這才像話嘛。防患於未燃！
+          <t xml:space="preserve">[芙洛拉拿着笔记开始对你进行问询]
+**芙洛拉**: 你今天应该没有忘记消防设施的定期检查吧？
+* **Prompt:** 四十三个消防点位全都检查过了。
+* **芙洛拉**: 嗯，这才像话嘛。防患于未燃！
 * **芙洛拉**: 😉
-* **Prompt:** 等一下就去。
-* **芙洛拉**: 嘖，看到時候失火你怎麼辦。
+* **Prompt:** 等下就去。
+* **芙洛拉**: 啧，看到时候失火你怎么办。
 * **芙洛拉**: 😥
 </t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t xml:space="preserve">[剛出練習場的芙洛拉似乎有些消沉]
-**芙洛拉**: 唉……怎麼做才能用好消防器械呢。
-* **Prompt:** 不如就別用消防斧了吧，專心操作消防水槍。
-* **芙洛拉**: 不行！消防裝備一定要帶齊！
+          <t xml:space="preserve">[刚出练习场的芙洛拉似乎有些消沉]
+**芙洛拉**: 唉……怎么做才能用好消防器械呢。
+* **Prompt:** 要不就别用消防斧了吧，专心操作消防水枪。
+* **芙洛拉**: 不行！消防装备一定要带齐！
 * **芙洛拉**: 😫
-* **Prompt:** 用後院給花園澆花的水管練習一下怎麼樣？
-* **芙洛拉**: 哦……聽起來不錯！
+* **Prompt:** 用后院给花园浇花的水管练习一下怎么样？
+* **芙洛拉**: 哦……听起来不错！
 * **芙洛拉**: 😘
 </t>
         </is>
@@ -16545,27 +16545,27 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t xml:space="preserve">[開爾文捧著一堆食材向你打招呼]
-**開爾文**: 局長，管理局的廚房可以加個額外的冷藏庫嗎！
-* **Prompt:** 只能再加一個小冰箱，而且還是節能型的。
-* **開爾文**: 如果這樣的話，倒是能多放一些蔬菜。
-* **開爾文**: 😘
-* **Prompt:** 沒地方放，上次伊格尼想加爐台都沒批。
-* **開爾文**: 唉……那多出來的食材只能每天用能力凍住了。
-* **開爾文**: 😫
+          <t xml:space="preserve">[开尔文捧着一堆食材向你打招呼]
+**开尔文**: 局长，管理局的厨房可以加个额外的冷库么！
+* **Prompt:** 只能再加一个小冰箱，而且还是节能型的。
+* **开尔文**: 如果这样的话，倒是能多放一些蔬菜。
+* **开尔文**: 😘
+* **Prompt:** 没地方，上次伊格尼想加灶台都没批。
+* **开尔文**: 唉……那多出来的食材只能每天用能力冻住了。
+* **开尔文**: 😫
 </t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t xml:space="preserve">[開爾文似乎被人嘲笑了]
-**開爾文**: 哈啊……我怎麼還沒畢業……
-* **Prompt:** 學分不夠？通常來說都是這個原因。
-* **開爾文**: 唉……這都被您猜到了。
-* **開爾文**: 😖😖
-* **Prompt:** 把菜拿給導師看，他一定會同意你畢業的。
-* **開爾文**: 哈哈……要是導師能理解我的理念就好了。
-* **開爾文**: 😐
+          <t xml:space="preserve">[开尔文似乎被人嘲笑了]
+**开尔文**: 哈啊……我怎么还没毕业……
+* **Prompt:** 学分不够？通常来说都是这个原因。
+* **开尔文**: 唉……这都被您猜到了。
+* **开尔文**: 😖😖
+* **Prompt:** 把菜品给导师看，他一定会同意你毕业的。
+* **开尔文**: 哈哈……要是导师能理解我的理念就好了。
+* **开尔文**: 😐
 </t>
         </is>
       </c>
@@ -16582,27 +16582,27 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve">[從瓊的房間中傳出了歌聲]
-**瓊**: 以你本色——
+          <t xml:space="preserve">[从琼的房间中传出了歌声]
+**琼**: 以你本色——
 * **Prompt:** 似你往常——
-* **瓊**: 局長的品味……真是不錯。
-* **瓊**: 😘
-* **Prompt:** 小聲點，已經有工作人員快受不了了。
-* **瓊**: 要不是操場不能用，我也不會在這裡練習了。
-* **瓊**: 😥
+* **琼**: 局长的品位……真是不错。
+* **琼**: 😘
+* **Prompt:** 小点声，有的工作人员快受不了了。
+* **琼**: 要不是操场不能用，我也不会在这里练习了。
+* **琼**: 😥
 </t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t xml:space="preserve">[瓊摩挲著之前演唱會的照片，若有所思]
-**瓊**: 什麼時候這種生活能結束呢，我想去演出。
-* **Prompt:** 再過一陣子，情況應該會樂觀很多。
-* **瓊**: 唉……那我這段時間只能在這裡自娛自樂囉。
-* **瓊**: 😐
-* **Prompt:** 那必須留個最好的位置給我。
-* **瓊**: 哈，到時候讓你看看舞台上的我。
-* **瓊**: 😏
+          <t xml:space="preserve">[琼摩挲着之前演唱会的照片，若有所思]
+**琼**: 什么时候这种生活能结束呢，我想去演出。
+* **Prompt:** 再过一阵子，情况应该会乐观很多。
+* **琼**: 唉……那我这段时间只能在这里自娱自乐咯。
+* **琼**: 😐
+* **Prompt:** 那可得给我留个最好的位置。
+* **琼**: 哈，到时候让你看看舞台上的我。
+* **琼**: 😏
 </t>
         </is>
       </c>
@@ -16619,27 +16619,27 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t xml:space="preserve">[瑪奇朵看起來身心愉悅]
-**瑪奇朵**: 有些敵人看起來很享受哦。
-* **Prompt:** 你的「業餘愛好」似乎幫了大忙。
-* **瑪奇朵**: 呵呵，他們的反應就是我繼續下去的動力。
-* **瑪奇朵**: 😘😘
-* **Prompt:** 他們可能只是被迫做出這種表情。
-* **瑪奇朵**: 哎呀哎呀，下次我一定會注意一點的。
-* **瑪奇朵**: 😘
+          <t xml:space="preserve">[玛奇朵看起来身心愉悦]
+**玛奇朵**: 有些敌人看起来很享受哦。
+* **Prompt:** 你的“业余爱好”似乎帮了大忙。
+* **玛奇朵**: 呵呵，他们的反应就是我继续下去的动力。
+* **玛奇朵**: 😘😘
+* **Prompt:** 他们可能只是被迫做出这种表情。
+* **玛奇朵**: 哎呀哎呀，下次我一定会注意一点的。
+* **玛奇朵**: 😘
 </t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t xml:space="preserve">[瑪奇朵在打著瞌睡]
-**瑪奇朵**: 歡迎……光臨新城銀行！啊……不對！管理局！
-* **Prompt:** 小心打瞌睡會扣薪水。
-* **瑪奇朵**: ……不要讓我想起不好的回憶了，局長。
-* **瑪奇朵**: 😐
-* **Prompt:** 不用強迫自己加班的。
-* **瑪奇朵**: 抱歉……這是職業病了。我總是不自覺地就……
-* **瑪奇朵**: 😫
+          <t xml:space="preserve">[玛奇朵在打着瞌睡]
+**玛奇朵**: 欢迎……光临新城银行！啊……不对！管理局！
+* **Prompt:** 小心打瞌睡会扣工资。
+* **玛奇朵**: ……不要让我想起不好的回忆了，局长。
+* **玛奇朵**: 😐
+* **Prompt:** 不用强迫自己加班的。
+* **玛奇朵**: 抱歉……这是职业病了。我总是不自觉地就……
+* **玛奇朵**: 😫
 </t>
         </is>
       </c>
@@ -16656,27 +16656,27 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t xml:space="preserve">[麗莎用左手拿出了畫，鋪在桌子上]
-**麗莎**: 收到了幾幅畫作，又能好好欣賞一番了。
-* **Prompt:** 希望他們能畫出一些能讓你開心的東西。
-* **麗莎**: 那當然再好不過。
-* **麗莎**: 😐
-* **Prompt:** 我覺得他們都逃不掉你的批評。
-* **麗莎**: 當然，除非他們能複現《麗蓓嘉》。
-* **麗莎**: 😦
+          <t xml:space="preserve">[丽莎用左手拿出了画，铺在桌子上]
+**丽莎**: 收到了几幅画作，又能好好欣赏一番了。
+* **Prompt:** 希望他们能画出一些能让你开心的东西。
+* **丽莎**: 那当然再好不过。
+* **丽莎**: 😐
+* **Prompt:** 我觉得他们都逃不掉你的批评。
+* **丽莎**: 当然，除非他们能复现《丽贝卡》。
+* **丽莎**: 😦
 </t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t xml:space="preserve">[麗莎坐在畫板前，嘆了口氣]
-**麗莎**: 又畫歪了……
-* **Prompt:** 需要我幫忙嗎？
-* **麗莎**: 不用，雖然很謝謝你，但……你幫我的話，還不如我自己慢慢來。
-* **麗莎**: 😦
-* **Prompt:** 給你直尺。
-* **麗莎**: 你……唉……算了。
-* **麗莎**: 😥😦😐
+          <t xml:space="preserve">[丽莎坐在画板前，叹了口气]
+**丽莎**: 又画歪了……
+* **Prompt:** 需要我帮忙么？
+* **丽莎**: 不用，虽然很谢谢你，但……你帮我的话，还不如我自己慢慢来。
+* **丽莎**: 😦
+* **Prompt:** 给你直尺。
+* **丽莎**: 你……唉……算了。
+* **丽莎**: 😥😦😐
 </t>
         </is>
       </c>
